--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599E9CF6-4DBE-496C-8721-E96912B73C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -970,9 +971,6 @@
     <t>contains the aggregated prevalence (numerators and denominators) needed to compute prevalence of MS in the pregnancy cohort, to feed Template 4 and 5this is to feed Template 4 and 5</t>
   </si>
   <si>
-    <t>08_T4_20_create_prevalence_MS_in_pregnancy_cohort</t>
-  </si>
-  <si>
     <t>D4_DU_matched_MS-PREGNANCY-COHORT_to_MS-COHORT</t>
   </si>
   <si>
@@ -1029,12 +1027,15 @@
       <t>OUTCOME</t>
     </r>
   </si>
+  <si>
+    <t>08_T4_30_create_prevalence_MS_in_pregnancy_cohort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1241,7 +1242,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1453,31 +1454,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1526,7 +1527,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1566,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +1605,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1644,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1683,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1722,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1799,7 +1800,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1840,7 +1841,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1880,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1998,12 +1999,12 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -2037,12 +2038,12 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -2076,7 +2077,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2117,7 +2118,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2158,7 +2159,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2200,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +2315,7 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -2355,7 +2356,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2393,7 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2475,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2515,7 +2516,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2556,7 +2557,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="72">
+    <row r="28" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="72">
+    <row r="29" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +2639,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="57.6">
+    <row r="30" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -2677,7 +2678,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="57.6">
+    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -2716,7 +2717,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="43.2">
+    <row r="32" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
@@ -2755,7 +2756,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="57.6">
+    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -2796,7 +2797,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="43.2">
+    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="28.8">
+    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>94</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="72">
+    <row r="36" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
@@ -2919,7 +2920,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="28.8">
+    <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>94</v>
       </c>
@@ -2958,7 +2959,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="28.8">
+    <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>94</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="43.2">
+    <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="72">
+    <row r="40" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="4"/>
@@ -3079,18 +3080,18 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="86.4">
+    <row r="41" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>113</v>
@@ -3120,18 +3121,18 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="72">
+    <row r="42" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>113</v>
@@ -3140,7 +3141,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3161,7 +3162,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="14.4">
+    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -3190,7 +3191,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="14.4">
+    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="6"/>
@@ -3219,7 +3220,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="14.4">
+    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -3248,7 +3249,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="14.4">
+    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
@@ -3277,7 +3278,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="14.4">
+    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="3"/>
       <c r="C47" s="6"/>
@@ -3306,7 +3307,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" ht="14.4">
+    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
@@ -3335,7 +3336,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="14.4">
+    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
@@ -3364,7 +3365,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="14.4">
+    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
@@ -3393,7 +3394,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="14.4">
+    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
@@ -3422,7 +3423,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="14.4">
+    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
       <c r="C52" s="6"/>
@@ -3451,7 +3452,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="14.4">
+    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -3480,7 +3481,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="14.4">
+    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
       <c r="C54" s="6"/>
@@ -3509,7 +3510,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="14.4">
+    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -3538,7 +3539,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="14.4">
+    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
@@ -3567,7 +3568,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="14.4">
+    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
@@ -3596,7 +3597,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="14.4">
+    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
@@ -3625,7 +3626,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="14.4">
+    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
@@ -3654,7 +3655,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="14.4">
+    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="6"/>
@@ -3683,7 +3684,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="14.4">
+    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
@@ -3712,7 +3713,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="14.4">
+    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
@@ -3741,7 +3742,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="14.4">
+    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
@@ -3770,7 +3771,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="14.4">
+    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
@@ -3799,7 +3800,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="14.4">
+    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
@@ -3828,7 +3829,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="14.4">
+    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
       <c r="C66" s="6"/>
@@ -3857,7 +3858,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="14.4">
+    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
@@ -3886,7 +3887,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="14.4">
+    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
@@ -3915,7 +3916,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="14.4">
+    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
@@ -3944,7 +3945,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="14.4">
+    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
       <c r="C70" s="6"/>
@@ -3973,7 +3974,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="14.4">
+    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
@@ -4002,7 +4003,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="14.4">
+    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="6"/>
@@ -4031,7 +4032,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="14.4">
+    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="6"/>
@@ -4060,7 +4061,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="14.4">
+    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="6"/>
@@ -4089,7 +4090,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="14.4">
+    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6"/>
@@ -4118,7 +4119,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="14.4">
+    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="6"/>
@@ -4147,7 +4148,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="14.4">
+    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6"/>
@@ -4176,7 +4177,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="14.4">
+    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="6"/>
@@ -4205,7 +4206,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="14.4">
+    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="6"/>
@@ -4234,7 +4235,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="14.4">
+    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
@@ -4263,7 +4264,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="14.4">
+    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="6"/>
@@ -4292,7 +4293,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="14.4">
+    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="6"/>
@@ -4321,7 +4322,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="14.4">
+    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="6"/>
@@ -4350,7 +4351,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="14.4">
+    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="6"/>
@@ -4379,7 +4380,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="14.4">
+    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="6"/>
@@ -4408,7 +4409,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="14.4">
+    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="6"/>
@@ -4437,7 +4438,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="14.4">
+    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="6"/>
@@ -4466,7 +4467,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="14.4">
+    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="6"/>
@@ -4495,7 +4496,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="14.4">
+    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="6"/>
@@ -4524,7 +4525,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="14.4">
+    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="6"/>
@@ -4553,7 +4554,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="14.4">
+    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="6"/>
@@ -4582,7 +4583,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="14.4">
+    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6"/>
@@ -4611,7 +4612,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="14.4">
+    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="6"/>
@@ -4640,7 +4641,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="14.4">
+    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="6"/>
@@ -4669,7 +4670,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="14.4">
+    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="6"/>
@@ -4698,7 +4699,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="14.4">
+    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
@@ -4727,7 +4728,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="14.4">
+    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="6"/>
@@ -4756,7 +4757,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="14.4">
+    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="6"/>
@@ -4785,7 +4786,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="14.4">
+    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="6"/>
@@ -4814,7 +4815,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="14.4">
+    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="6"/>
@@ -4843,7 +4844,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="14.4">
+    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="6"/>
@@ -4872,7 +4873,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="14.4">
+    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
@@ -4901,7 +4902,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="14.4">
+    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
@@ -4930,7 +4931,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="14.4">
+    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="6"/>
@@ -4959,7 +4960,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="14.4">
+    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
@@ -4988,7 +4989,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="14.4">
+    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="6"/>
@@ -5017,7 +5018,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="14.4">
+    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="6"/>
@@ -5046,7 +5047,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="14.4">
+    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="6"/>
@@ -5075,7 +5076,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="14.4">
+    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="6"/>
@@ -5104,7 +5105,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="14.4">
+    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="6"/>
@@ -5133,7 +5134,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="14.4">
+    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="6"/>
@@ -5162,7 +5163,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="14.4">
+    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
@@ -5191,7 +5192,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="14.4">
+    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="6"/>
@@ -5220,7 +5221,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="14.4">
+    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="6"/>
@@ -5249,7 +5250,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="14.4">
+    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="6"/>
@@ -5278,7 +5279,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="14.4">
+    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
@@ -5307,7 +5308,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="14.4">
+    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="6"/>
@@ -5336,7 +5337,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="14.4">
+    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="6"/>
@@ -5365,7 +5366,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="14.4">
+    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="6"/>
@@ -5394,7 +5395,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="14.4">
+    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="6"/>
@@ -5423,7 +5424,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="14.4">
+    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="6"/>
@@ -5452,7 +5453,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="14.4">
+    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="6"/>
@@ -5481,7 +5482,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="14.4">
+    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="6"/>
@@ -5510,7 +5511,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="14.4">
+    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="6"/>
@@ -5539,7 +5540,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="14.4">
+    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="6"/>
@@ -5568,7 +5569,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="14.4">
+    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="6"/>
@@ -5597,7 +5598,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="14.4">
+    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="6"/>
@@ -5626,7 +5627,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="14.4">
+    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="6"/>
@@ -5655,7 +5656,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="14.4">
+    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
@@ -5684,7 +5685,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="14.4">
+    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="6"/>
@@ -5713,7 +5714,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="14.4">
+    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="6"/>
@@ -5742,7 +5743,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="14.4">
+    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="6"/>
@@ -5771,7 +5772,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="14.4">
+    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="6"/>
@@ -5800,7 +5801,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="14.4">
+    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="6"/>
@@ -5829,7 +5830,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="14.4">
+    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="6"/>
@@ -5858,7 +5859,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="14.4">
+    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="6"/>
@@ -5887,7 +5888,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="14.4">
+    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="6"/>
@@ -5916,7 +5917,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="14.4">
+    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="6"/>
@@ -5945,7 +5946,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="14.4">
+    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="6"/>
@@ -5974,7 +5975,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="14.4">
+    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="6"/>
@@ -6003,7 +6004,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="14.4">
+    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="6"/>
@@ -6032,7 +6033,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="14.4">
+    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
@@ -6061,7 +6062,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="14.4">
+    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="6"/>
@@ -6090,7 +6091,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="14.4">
+    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="6"/>
@@ -6119,7 +6120,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="14.4">
+    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="6"/>
@@ -6148,7 +6149,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="14.4">
+    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="6"/>
@@ -6177,7 +6178,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="14.4">
+    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="6"/>
@@ -6206,7 +6207,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="14.4">
+    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="6"/>
@@ -6235,7 +6236,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="14.4">
+    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="6"/>
@@ -6264,7 +6265,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="14.4">
+    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="6"/>
@@ -6293,7 +6294,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="14.4">
+    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="6"/>
@@ -6322,7 +6323,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="14.4">
+    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="6"/>
@@ -6351,7 +6352,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="14.4">
+    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="6"/>
@@ -6380,7 +6381,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="14.4">
+    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="6"/>
@@ -6409,7 +6410,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="14.4">
+    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="6"/>
@@ -6438,7 +6439,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="14.4">
+    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="6"/>
@@ -6467,7 +6468,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="14.4">
+    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="6"/>
@@ -6496,7 +6497,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="14.4">
+    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="6"/>
@@ -6525,7 +6526,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="14.4">
+    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
@@ -6554,7 +6555,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="14.4">
+    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="6"/>
@@ -6583,7 +6584,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="14.4">
+    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
@@ -6612,7 +6613,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="14.4">
+    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="6"/>
@@ -6641,7 +6642,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="14.4">
+    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
@@ -6670,7 +6671,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="14.4">
+    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="6"/>
@@ -6699,7 +6700,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="14.4">
+    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="6"/>
@@ -6728,7 +6729,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="14.4">
+    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="6"/>
@@ -6757,7 +6758,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="14.4">
+    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="6"/>
@@ -6786,7 +6787,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="14.4">
+    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="6"/>
@@ -6815,7 +6816,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="14.4">
+    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="6"/>
@@ -6844,7 +6845,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="14.4">
+    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="6"/>
@@ -6873,7 +6874,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="14.4">
+    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="6"/>
@@ -6902,7 +6903,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="14.4">
+    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="6"/>
@@ -6931,7 +6932,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="14.4">
+    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="6"/>
@@ -6960,7 +6961,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="14.4">
+    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="6"/>
@@ -6989,7 +6990,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="14.4">
+    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="6"/>
@@ -7018,7 +7019,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="14.4">
+    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
@@ -7047,7 +7048,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="14.4">
+    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="6"/>
@@ -7076,7 +7077,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="14.4">
+    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="6"/>
@@ -7105,7 +7106,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="14.4">
+    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="6"/>
@@ -7134,7 +7135,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="14.4">
+    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="6"/>
@@ -7163,7 +7164,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="14.4">
+    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="6"/>
@@ -7192,7 +7193,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="14.4">
+    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="6"/>
@@ -7221,7 +7222,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="14.4">
+    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="6"/>
@@ -7250,7 +7251,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="14.4">
+    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
@@ -7279,7 +7280,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="14.4">
+    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="6"/>
@@ -7308,7 +7309,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="14.4">
+    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
@@ -7337,7 +7338,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="14.4">
+    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="6"/>
@@ -7366,7 +7367,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="14.4">
+    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
@@ -7395,7 +7396,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="14.4">
+    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="6"/>
@@ -7424,7 +7425,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="14.4">
+    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="6"/>
@@ -7453,7 +7454,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="14.4">
+    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="6"/>
@@ -7482,7 +7483,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="14.4">
+    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="6"/>
@@ -7511,7 +7512,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="14.4">
+    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="6"/>
@@ -7540,7 +7541,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="14.4">
+    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="6"/>
@@ -7569,7 +7570,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="14.4">
+    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="6"/>
@@ -7598,7 +7599,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="14.4">
+    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="6"/>
@@ -7627,7 +7628,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="14.4">
+    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="6"/>
@@ -7656,7 +7657,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" ht="14.4">
+    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="6"/>
@@ -7685,7 +7686,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="14.4">
+    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="6"/>
@@ -7714,7 +7715,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="14.4">
+    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="6"/>
@@ -7743,7 +7744,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="14.4">
+    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="6"/>
@@ -7772,7 +7773,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="14.4">
+    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="6"/>
@@ -7801,7 +7802,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="14.4">
+    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="6"/>
@@ -7830,7 +7831,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="14.4">
+    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="6"/>
@@ -7859,7 +7860,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="14.4">
+    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="6"/>
@@ -7888,7 +7889,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="14.4">
+    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="6"/>
@@ -7917,7 +7918,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="14.4">
+    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="6"/>
@@ -7946,7 +7947,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="14.4">
+    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="6"/>
@@ -7975,7 +7976,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="14.4">
+    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="6"/>
@@ -8004,7 +8005,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="14.4">
+    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="6"/>
@@ -8033,7 +8034,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="14.4">
+    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="6"/>
@@ -8062,7 +8063,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="14.4">
+    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="6"/>
@@ -8091,7 +8092,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="14.4">
+    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="6"/>
@@ -8120,7 +8121,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="14.4">
+    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="6"/>
@@ -8149,7 +8150,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="14.4">
+    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="6"/>
@@ -8178,7 +8179,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="14.4">
+    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="6"/>
@@ -8207,7 +8208,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="14.4">
+    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="6"/>
@@ -8236,7 +8237,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="14.4">
+    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="6"/>
@@ -8265,7 +8266,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="14.4">
+    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="6"/>
@@ -8294,7 +8295,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="14.4">
+    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="6"/>
@@ -8323,7 +8324,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="14.4">
+    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="6"/>
@@ -8352,7 +8353,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="14.4">
+    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="6"/>
@@ -8381,7 +8382,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="14.4">
+    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="6"/>
@@ -8410,7 +8411,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="14.4">
+    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="6"/>
@@ -8439,7 +8440,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="14.4">
+    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="6"/>
@@ -8468,7 +8469,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="14.4">
+    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="6"/>
@@ -8497,7 +8498,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="14.4">
+    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="6"/>
@@ -8526,7 +8527,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="14.4">
+    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="6"/>
@@ -8555,7 +8556,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="14.4">
+    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="6"/>
@@ -8584,7 +8585,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="14.4">
+    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="6"/>
@@ -8613,7 +8614,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="14.4">
+    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="6"/>
@@ -8642,7 +8643,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="14.4">
+    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="6"/>
@@ -8671,7 +8672,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="14.4">
+    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="6"/>
@@ -8700,7 +8701,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="14.4">
+    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="6"/>
@@ -8729,7 +8730,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="14.4">
+    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="6"/>
@@ -8758,7 +8759,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="14.4">
+    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="6"/>
@@ -8787,7 +8788,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="14.4">
+    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="6"/>
@@ -8816,7 +8817,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="14.4">
+    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="6"/>
@@ -8845,7 +8846,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="14.4">
+    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="6"/>
@@ -8874,7 +8875,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="14.4">
+    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="6"/>
@@ -8903,7 +8904,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="14.4">
+    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="6"/>
@@ -8932,7 +8933,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="14.4">
+    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="6"/>
@@ -8961,7 +8962,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="14.4">
+    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="6"/>
@@ -8990,7 +8991,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="14.4">
+    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="6"/>
@@ -9019,7 +9020,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="14.4">
+    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="6"/>
@@ -9048,7 +9049,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="14.4">
+    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="6"/>
@@ -9077,7 +9078,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="14.4">
+    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="6"/>
@@ -9106,7 +9107,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="14.4">
+    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="6"/>
@@ -9135,7 +9136,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="14.4">
+    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="6"/>
@@ -9164,7 +9165,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="14.4">
+    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="6"/>
@@ -9193,7 +9194,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="14.4">
+    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="6"/>
@@ -9222,7 +9223,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="14.4">
+    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="6"/>
@@ -9251,7 +9252,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="14.4">
+    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="6"/>
@@ -9280,7 +9281,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="14.4">
+    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="6"/>
@@ -9309,7 +9310,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="14.4">
+    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="6"/>
@@ -9338,7 +9339,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="14.4">
+    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="6"/>
@@ -9367,7 +9368,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="14.4">
+    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="6"/>
@@ -9396,7 +9397,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="14.4">
+    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="6"/>
@@ -9425,7 +9426,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="14.4">
+    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="6"/>
@@ -9454,7 +9455,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="14.4">
+    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="6"/>
@@ -9483,7 +9484,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="14.4">
+    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="6"/>
@@ -9512,7 +9513,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="14.4">
+    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="6"/>
@@ -9541,7 +9542,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="14.4">
+    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="6"/>
@@ -9570,7 +9571,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="14.4">
+    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="6"/>
@@ -9599,7 +9600,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="14.4">
+    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="6"/>
@@ -9628,7 +9629,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="14.4">
+    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="6"/>
@@ -9657,7 +9658,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="14.4">
+    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="6"/>
@@ -9686,7 +9687,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="14.4">
+    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="6"/>
@@ -9715,7 +9716,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="14.4">
+    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="6"/>
@@ -9744,7 +9745,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="14.4">
+    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="6"/>
@@ -9773,7 +9774,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="14.4">
+    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="6"/>
@@ -9802,7 +9803,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="14.4">
+    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="6"/>
@@ -9831,7 +9832,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="14.4">
+    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="6"/>
@@ -9860,7 +9861,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="14.4">
+    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="6"/>
@@ -9889,7 +9890,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="14.4">
+    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="6"/>
@@ -9918,7 +9919,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="14.4">
+    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="6"/>
@@ -9947,7 +9948,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="14.4">
+    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="6"/>
@@ -9976,7 +9977,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="14.4">
+    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="6"/>
@@ -10005,7 +10006,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="14.4">
+    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="6"/>
@@ -10034,7 +10035,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="14.4">
+    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="6"/>
@@ -10063,7 +10064,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="14.4">
+    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="6"/>
@@ -10092,7 +10093,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="14.4">
+    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="6"/>
@@ -10121,7 +10122,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="14.4">
+    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="6"/>
@@ -10150,7 +10151,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="14.4">
+    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="6"/>
@@ -10179,7 +10180,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="14.4">
+    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="6"/>
@@ -10208,7 +10209,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="14.4">
+    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="6"/>
@@ -10237,7 +10238,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="14.4">
+    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="6"/>
@@ -10266,7 +10267,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="14.4">
+    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="6"/>
@@ -10295,7 +10296,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="14.4">
+    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="6"/>
@@ -10324,7 +10325,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="14.4">
+    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="6"/>
@@ -10353,7 +10354,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="14.4">
+    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="6"/>
@@ -10382,7 +10383,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="14.4">
+    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="6"/>
@@ -10411,7 +10412,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="14.4">
+    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="6"/>
@@ -10440,7 +10441,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="14.4">
+    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="6"/>
@@ -10469,7 +10470,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="14.4">
+    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="6"/>
@@ -10498,7 +10499,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="14.4">
+    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="6"/>
@@ -10527,7 +10528,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="14.4">
+    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="6"/>
@@ -10556,7 +10557,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="14.4">
+    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="6"/>
@@ -10585,7 +10586,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="14.4">
+    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="6"/>
@@ -10614,7 +10615,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="14.4">
+    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="6"/>
@@ -10643,7 +10644,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="14.4">
+    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="6"/>
@@ -10672,7 +10673,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="14.4">
+    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="6"/>
@@ -10701,7 +10702,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="14.4">
+    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="6"/>
@@ -10730,7 +10731,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="14.4">
+    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="6"/>
@@ -10759,7 +10760,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="14.4">
+    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="6"/>
@@ -10788,7 +10789,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="14.4">
+    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="6"/>
@@ -10817,7 +10818,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="14.4">
+    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="6"/>
@@ -10846,7 +10847,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="14.4">
+    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="6"/>
@@ -10875,7 +10876,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="14.4">
+    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="6"/>
@@ -10904,7 +10905,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="14.4">
+    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="6"/>
@@ -10933,7 +10934,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="14.4">
+    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="6"/>
@@ -10962,7 +10963,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="14.4">
+    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="6"/>
@@ -10991,7 +10992,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="14.4">
+    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="6"/>
@@ -11020,7 +11021,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="14.4">
+    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="6"/>
@@ -11049,7 +11050,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="14.4">
+    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="6"/>
@@ -11078,7 +11079,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="14.4">
+    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="6"/>
@@ -11107,7 +11108,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="14.4">
+    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="6"/>
@@ -11136,7 +11137,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="14.4">
+    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="6"/>
@@ -11165,7 +11166,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="14.4">
+    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="6"/>
@@ -11194,7 +11195,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="14.4">
+    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="6"/>
@@ -11223,7 +11224,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="14.4">
+    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="6"/>
@@ -11252,7 +11253,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="14.4">
+    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="6"/>
@@ -11281,7 +11282,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="14.4">
+    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="6"/>
@@ -11310,7 +11311,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="14.4">
+    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="6"/>
@@ -11339,7 +11340,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="14.4">
+    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="6"/>
@@ -11368,7 +11369,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="14.4">
+    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="6"/>
@@ -11397,7 +11398,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="14.4">
+    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="6"/>
@@ -11426,7 +11427,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="14.4">
+    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="6"/>
@@ -11455,7 +11456,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="14.4">
+    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="6"/>
@@ -11484,7 +11485,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="14.4">
+    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="6"/>
@@ -11513,7 +11514,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="14.4">
+    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="6"/>
@@ -11542,7 +11543,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="14.4">
+    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="6"/>
@@ -11571,7 +11572,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="14.4">
+    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="6"/>
@@ -11600,7 +11601,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="14.4">
+    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="6"/>
@@ -11629,7 +11630,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="14.4">
+    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="6"/>
@@ -11658,7 +11659,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="14.4">
+    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="6"/>
@@ -11687,7 +11688,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="14.4">
+    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="6"/>
@@ -11716,7 +11717,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="14.4">
+    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="6"/>
@@ -11745,7 +11746,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="14.4">
+    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="6"/>
@@ -11774,7 +11775,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="14.4">
+    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="6"/>
@@ -11803,7 +11804,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="14.4">
+    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="6"/>
@@ -11832,7 +11833,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="14.4">
+    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="6"/>
@@ -11861,7 +11862,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="14.4">
+    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="6"/>
@@ -11890,7 +11891,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="14.4">
+    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="6"/>
@@ -11919,7 +11920,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="14.4">
+    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="6"/>
@@ -11948,7 +11949,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="14.4">
+    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="6"/>
@@ -11977,7 +11978,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="14.4">
+    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="6"/>
@@ -12006,7 +12007,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="14.4">
+    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="6"/>
@@ -12035,7 +12036,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="14.4">
+    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="6"/>
@@ -12064,7 +12065,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="14.4">
+    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="6"/>
@@ -12093,7 +12094,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="14.4">
+    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="6"/>
@@ -12122,7 +12123,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="14.4">
+    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="6"/>
@@ -12151,7 +12152,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="14.4">
+    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="6"/>
@@ -12180,7 +12181,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="14.4">
+    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="6"/>
@@ -12209,7 +12210,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="14.4">
+    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="6"/>
@@ -12238,7 +12239,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="14.4">
+    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="6"/>
@@ -12267,7 +12268,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="14.4">
+    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="6"/>
@@ -12296,7 +12297,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="14.4">
+    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="6"/>
@@ -12325,7 +12326,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="14.4">
+    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="6"/>
@@ -12354,7 +12355,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="14.4">
+    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="6"/>
@@ -12383,7 +12384,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="14.4">
+    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="6"/>
@@ -12412,7 +12413,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="14.4">
+    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="6"/>
@@ -12441,7 +12442,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="14.4">
+    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="6"/>
@@ -12470,7 +12471,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="14.4">
+    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="6"/>
@@ -12499,7 +12500,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="14.4">
+    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="6"/>
@@ -12528,7 +12529,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="14.4">
+    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="6"/>
@@ -12557,7 +12558,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="14.4">
+    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="6"/>
@@ -12586,7 +12587,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="14.4">
+    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="6"/>
@@ -12615,7 +12616,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="14.4">
+    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="6"/>
@@ -12644,7 +12645,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="14.4">
+    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="6"/>
@@ -12673,7 +12674,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="14.4">
+    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="6"/>
@@ -12702,7 +12703,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="14.4">
+    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="6"/>
@@ -12731,7 +12732,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="14.4">
+    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="6"/>
@@ -12760,7 +12761,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="14.4">
+    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="6"/>
@@ -12789,7 +12790,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="14.4">
+    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="6"/>
@@ -12818,7 +12819,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="14.4">
+    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="6"/>
@@ -12847,7 +12848,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="14.4">
+    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="6"/>
@@ -12876,7 +12877,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="14.4">
+    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="6"/>
@@ -12905,7 +12906,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="14.4">
+    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="6"/>
@@ -12934,7 +12935,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="14.4">
+    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="6"/>
@@ -12963,7 +12964,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="14.4">
+    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="6"/>
@@ -12992,7 +12993,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="14.4">
+    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="6"/>
@@ -13021,7 +13022,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="14.4">
+    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="6"/>
@@ -13050,7 +13051,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="14.4">
+    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="6"/>
@@ -13079,7 +13080,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="14.4">
+    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="6"/>
@@ -13108,7 +13109,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="14.4">
+    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="6"/>
@@ -13137,7 +13138,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="14.4">
+    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="6"/>
@@ -13166,7 +13167,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="14.4">
+    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="6"/>
@@ -13195,7 +13196,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="14.4">
+    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="6"/>
@@ -13224,7 +13225,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="14.4">
+    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="6"/>
@@ -13253,7 +13254,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="14.4">
+    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="6"/>
@@ -13282,7 +13283,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="14.4">
+    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="6"/>
@@ -13311,7 +13312,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="14.4">
+    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="6"/>
@@ -13340,7 +13341,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="14.4">
+    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="6"/>
@@ -13369,7 +13370,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="14.4">
+    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="6"/>
@@ -13398,7 +13399,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="14.4">
+    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="6"/>
@@ -13427,7 +13428,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="14.4">
+    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="6"/>
@@ -13456,7 +13457,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="14.4">
+    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="6"/>
@@ -13485,7 +13486,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="14.4">
+    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="6"/>
@@ -13514,7 +13515,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="14.4">
+    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="6"/>
@@ -13543,7 +13544,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="14.4">
+    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="6"/>
@@ -13572,7 +13573,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="14.4">
+    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="6"/>
@@ -13601,7 +13602,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="14.4">
+    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="6"/>
@@ -13630,7 +13631,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="14.4">
+    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="6"/>
@@ -13659,7 +13660,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="14.4">
+    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="6"/>
@@ -13688,7 +13689,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="14.4">
+    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="6"/>
@@ -13717,7 +13718,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="14.4">
+    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="6"/>
@@ -13746,7 +13747,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="14.4">
+    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="6"/>
@@ -13775,7 +13776,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="14.4">
+    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="6"/>
@@ -13804,7 +13805,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="14.4">
+    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="6"/>
@@ -13833,7 +13834,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="14.4">
+    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="6"/>
@@ -13862,7 +13863,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="14.4">
+    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="6"/>
@@ -13891,7 +13892,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="14.4">
+    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="6"/>
@@ -13920,7 +13921,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="14.4">
+    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="6"/>
@@ -13949,7 +13950,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="14.4">
+    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="6"/>
@@ -13978,7 +13979,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="14.4">
+    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="6"/>
@@ -14007,7 +14008,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="14.4">
+    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="6"/>
@@ -14036,7 +14037,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="14.4">
+    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="6"/>
@@ -14065,7 +14066,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="14.4">
+    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="6"/>
@@ -14094,7 +14095,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="14.4">
+    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="6"/>
@@ -14123,7 +14124,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="14.4">
+    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="6"/>
@@ -14152,7 +14153,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="14.4">
+    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="6"/>
@@ -14181,7 +14182,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="14.4">
+    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="6"/>
@@ -14210,7 +14211,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="14.4">
+    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="6"/>
@@ -14239,7 +14240,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="14.4">
+    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="6"/>
@@ -14268,7 +14269,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="14.4">
+    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="6"/>
@@ -14297,7 +14298,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="14.4">
+    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="6"/>
@@ -14326,7 +14327,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="14.4">
+    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="6"/>
@@ -14355,7 +14356,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="14.4">
+    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="6"/>
@@ -14384,7 +14385,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="14.4">
+    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="6"/>
@@ -14413,7 +14414,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="14.4">
+    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="6"/>
@@ -14442,7 +14443,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="14.4">
+    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="6"/>
@@ -14471,7 +14472,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="14.4">
+    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="6"/>
@@ -14500,7 +14501,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="14.4">
+    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="6"/>
@@ -14529,7 +14530,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="14.4">
+    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="6"/>
@@ -14558,7 +14559,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="14.4">
+    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="6"/>
@@ -14587,7 +14588,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="14.4">
+    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="6"/>
@@ -14616,7 +14617,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="14.4">
+    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="6"/>
@@ -14645,7 +14646,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="14.4">
+    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="6"/>
@@ -14674,7 +14675,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="14.4">
+    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="6"/>
@@ -14703,7 +14704,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="14.4">
+    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="6"/>
@@ -14732,7 +14733,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="14.4">
+    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="6"/>
@@ -14761,7 +14762,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="14.4">
+    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="6"/>
@@ -14790,7 +14791,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="14.4">
+    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="6"/>
@@ -14819,7 +14820,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="14.4">
+    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="6"/>
@@ -14848,7 +14849,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="14.4">
+    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="6"/>
@@ -14877,7 +14878,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="14.4">
+    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="6"/>
@@ -14906,7 +14907,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="14.4">
+    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="6"/>
@@ -14935,7 +14936,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="14.4">
+    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="6"/>
@@ -14964,7 +14965,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="14.4">
+    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="6"/>
@@ -14993,7 +14994,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="14.4">
+    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="6"/>
@@ -15022,7 +15023,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="14.4">
+    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="6"/>
@@ -15051,7 +15052,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="14.4">
+    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="6"/>
@@ -15080,7 +15081,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="14.4">
+    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="6"/>
@@ -15109,7 +15110,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="14.4">
+    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="6"/>
@@ -15138,7 +15139,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="14.4">
+    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="6"/>
@@ -15167,7 +15168,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="14.4">
+    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="6"/>
@@ -15196,7 +15197,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="14.4">
+    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="6"/>
@@ -15225,7 +15226,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="14.4">
+    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="6"/>
@@ -15254,7 +15255,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="14.4">
+    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="6"/>
@@ -15283,7 +15284,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="14.4">
+    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="6"/>
@@ -15312,7 +15313,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="14.4">
+    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="6"/>
@@ -15341,7 +15342,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="14.4">
+    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="6"/>
@@ -15370,7 +15371,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="14.4">
+    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="6"/>
@@ -15399,7 +15400,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
     </row>
-    <row r="465" spans="1:27" ht="14.4">
+    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="6"/>
@@ -15428,7 +15429,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" ht="14.4">
+    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="6"/>
@@ -15457,7 +15458,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" ht="14.4">
+    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="6"/>
@@ -15486,7 +15487,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" ht="14.4">
+    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="6"/>
@@ -15515,7 +15516,7 @@
       <c r="Z468" s="4"/>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" ht="14.4">
+    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="6"/>
@@ -15544,7 +15545,7 @@
       <c r="Z469" s="4"/>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" ht="14.4">
+    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="6"/>
@@ -15573,7 +15574,7 @@
       <c r="Z470" s="4"/>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" ht="14.4">
+    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="6"/>
@@ -15602,7 +15603,7 @@
       <c r="Z471" s="4"/>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" ht="14.4">
+    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="6"/>
@@ -15631,7 +15632,7 @@
       <c r="Z472" s="4"/>
       <c r="AA472" s="4"/>
     </row>
-    <row r="473" spans="1:27" ht="14.4">
+    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="6"/>
@@ -15660,7 +15661,7 @@
       <c r="Z473" s="4"/>
       <c r="AA473" s="4"/>
     </row>
-    <row r="474" spans="1:27" ht="14.4">
+    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="6"/>
@@ -15689,7 +15690,7 @@
       <c r="Z474" s="4"/>
       <c r="AA474" s="4"/>
     </row>
-    <row r="475" spans="1:27" ht="14.4">
+    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="6"/>
@@ -15718,7 +15719,7 @@
       <c r="Z475" s="4"/>
       <c r="AA475" s="4"/>
     </row>
-    <row r="476" spans="1:27" ht="14.4">
+    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="6"/>
@@ -15747,7 +15748,7 @@
       <c r="Z476" s="4"/>
       <c r="AA476" s="4"/>
     </row>
-    <row r="477" spans="1:27" ht="14.4">
+    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="6"/>
@@ -15776,7 +15777,7 @@
       <c r="Z477" s="4"/>
       <c r="AA477" s="4"/>
     </row>
-    <row r="478" spans="1:27" ht="14.4">
+    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="6"/>
@@ -15805,7 +15806,7 @@
       <c r="Z478" s="4"/>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" ht="14.4">
+    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="6"/>
@@ -15834,7 +15835,7 @@
       <c r="Z479" s="4"/>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" ht="14.4">
+    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="6"/>
@@ -15863,7 +15864,7 @@
       <c r="Z480" s="4"/>
       <c r="AA480" s="4"/>
     </row>
-    <row r="481" spans="1:27" ht="14.4">
+    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="6"/>
@@ -15892,7 +15893,7 @@
       <c r="Z481" s="4"/>
       <c r="AA481" s="4"/>
     </row>
-    <row r="482" spans="1:27" ht="14.4">
+    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="6"/>
@@ -15921,7 +15922,7 @@
       <c r="Z482" s="4"/>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" ht="14.4">
+    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="6"/>
@@ -15950,7 +15951,7 @@
       <c r="Z483" s="4"/>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" ht="14.4">
+    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="6"/>
@@ -15979,7 +15980,7 @@
       <c r="Z484" s="4"/>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" ht="14.4">
+    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="6"/>
@@ -16008,7 +16009,7 @@
       <c r="Z485" s="4"/>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" ht="14.4">
+    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="6"/>
@@ -16037,7 +16038,7 @@
       <c r="Z486" s="4"/>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" ht="14.4">
+    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="6"/>
@@ -16066,7 +16067,7 @@
       <c r="Z487" s="4"/>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" ht="14.4">
+    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="6"/>
@@ -16095,7 +16096,7 @@
       <c r="Z488" s="4"/>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" ht="14.4">
+    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="6"/>
@@ -16124,7 +16125,7 @@
       <c r="Z489" s="4"/>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" ht="14.4">
+    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="6"/>
@@ -16153,7 +16154,7 @@
       <c r="Z490" s="4"/>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" ht="14.4">
+    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="6"/>
@@ -16182,7 +16183,7 @@
       <c r="Z491" s="4"/>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" ht="14.4">
+    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="6"/>
@@ -16211,7 +16212,7 @@
       <c r="Z492" s="4"/>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" ht="14.4">
+    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="6"/>
@@ -16240,7 +16241,7 @@
       <c r="Z493" s="4"/>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" ht="14.4">
+    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="6"/>
@@ -16269,7 +16270,7 @@
       <c r="Z494" s="4"/>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" ht="14.4">
+    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="6"/>
@@ -16298,7 +16299,7 @@
       <c r="Z495" s="4"/>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" ht="14.4">
+    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="6"/>
@@ -16327,7 +16328,7 @@
       <c r="Z496" s="4"/>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" ht="14.4">
+    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="6"/>
@@ -16356,7 +16357,7 @@
       <c r="Z497" s="4"/>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" ht="14.4">
+    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="6"/>
@@ -16385,7 +16386,7 @@
       <c r="Z498" s="4"/>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" ht="14.4">
+    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="6"/>
@@ -16414,7 +16415,7 @@
       <c r="Z499" s="4"/>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" ht="14.4">
+    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="6"/>
@@ -16443,7 +16444,7 @@
       <c r="Z500" s="4"/>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" ht="14.4">
+    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="6"/>
@@ -16472,7 +16473,7 @@
       <c r="Z501" s="4"/>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" ht="14.4">
+    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="6"/>
@@ -16501,7 +16502,7 @@
       <c r="Z502" s="4"/>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" ht="14.4">
+    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="6"/>
@@ -16530,7 +16531,7 @@
       <c r="Z503" s="4"/>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" ht="14.4">
+    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="6"/>
@@ -16559,7 +16560,7 @@
       <c r="Z504" s="4"/>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" ht="14.4">
+    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="6"/>
@@ -16588,7 +16589,7 @@
       <c r="Z505" s="4"/>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" ht="14.4">
+    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="6"/>
@@ -16617,7 +16618,7 @@
       <c r="Z506" s="4"/>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" ht="14.4">
+    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="6"/>
@@ -16646,7 +16647,7 @@
       <c r="Z507" s="4"/>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" ht="14.4">
+    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="6"/>
@@ -16675,7 +16676,7 @@
       <c r="Z508" s="4"/>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" ht="14.4">
+    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="6"/>
@@ -16704,7 +16705,7 @@
       <c r="Z509" s="4"/>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" ht="14.4">
+    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="6"/>
@@ -16733,7 +16734,7 @@
       <c r="Z510" s="4"/>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" ht="14.4">
+    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="6"/>
@@ -16762,7 +16763,7 @@
       <c r="Z511" s="4"/>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" ht="14.4">
+    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="6"/>
@@ -16791,7 +16792,7 @@
       <c r="Z512" s="4"/>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" ht="14.4">
+    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="6"/>
@@ -16820,7 +16821,7 @@
       <c r="Z513" s="4"/>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" ht="14.4">
+    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="6"/>
@@ -16849,7 +16850,7 @@
       <c r="Z514" s="4"/>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" ht="14.4">
+    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="6"/>
@@ -16878,7 +16879,7 @@
       <c r="Z515" s="4"/>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" ht="14.4">
+    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="6"/>
@@ -16907,7 +16908,7 @@
       <c r="Z516" s="4"/>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" ht="14.4">
+    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="6"/>
@@ -16936,7 +16937,7 @@
       <c r="Z517" s="4"/>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" ht="14.4">
+    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="6"/>
@@ -16965,7 +16966,7 @@
       <c r="Z518" s="4"/>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" ht="14.4">
+    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="6"/>
@@ -16994,7 +16995,7 @@
       <c r="Z519" s="4"/>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" ht="14.4">
+    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="6"/>
@@ -17023,7 +17024,7 @@
       <c r="Z520" s="4"/>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" ht="14.4">
+    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="6"/>
@@ -17052,7 +17053,7 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" ht="14.4">
+    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="6"/>
@@ -17081,7 +17082,7 @@
       <c r="Z522" s="4"/>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" ht="14.4">
+    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="6"/>
@@ -17110,7 +17111,7 @@
       <c r="Z523" s="4"/>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" ht="14.4">
+    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="6"/>
@@ -17139,7 +17140,7 @@
       <c r="Z524" s="4"/>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" ht="14.4">
+    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="6"/>
@@ -17168,7 +17169,7 @@
       <c r="Z525" s="4"/>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" ht="14.4">
+    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="6"/>
@@ -17197,7 +17198,7 @@
       <c r="Z526" s="4"/>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" ht="14.4">
+    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="6"/>
@@ -17226,7 +17227,7 @@
       <c r="Z527" s="4"/>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" ht="14.4">
+    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="6"/>
@@ -17255,7 +17256,7 @@
       <c r="Z528" s="4"/>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" ht="14.4">
+    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="6"/>
@@ -17284,7 +17285,7 @@
       <c r="Z529" s="4"/>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" ht="14.4">
+    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="6"/>
@@ -17313,7 +17314,7 @@
       <c r="Z530" s="4"/>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" ht="14.4">
+    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="6"/>
@@ -17342,7 +17343,7 @@
       <c r="Z531" s="4"/>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" ht="14.4">
+    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="6"/>
@@ -17371,7 +17372,7 @@
       <c r="Z532" s="4"/>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" ht="14.4">
+    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="6"/>
@@ -17400,7 +17401,7 @@
       <c r="Z533" s="4"/>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" ht="14.4">
+    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="6"/>
@@ -17429,7 +17430,7 @@
       <c r="Z534" s="4"/>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" ht="14.4">
+    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="6"/>
@@ -17458,7 +17459,7 @@
       <c r="Z535" s="4"/>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" ht="14.4">
+    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="6"/>
@@ -17487,7 +17488,7 @@
       <c r="Z536" s="4"/>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" ht="14.4">
+    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="6"/>
@@ -17516,7 +17517,7 @@
       <c r="Z537" s="4"/>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" ht="14.4">
+    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="6"/>
@@ -17545,7 +17546,7 @@
       <c r="Z538" s="4"/>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" ht="14.4">
+    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="6"/>
@@ -17574,7 +17575,7 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" ht="14.4">
+    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="6"/>
@@ -17603,7 +17604,7 @@
       <c r="Z540" s="4"/>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" ht="14.4">
+    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="6"/>
@@ -17632,7 +17633,7 @@
       <c r="Z541" s="4"/>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" ht="14.4">
+    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="6"/>
@@ -17661,7 +17662,7 @@
       <c r="Z542" s="4"/>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" ht="14.4">
+    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="6"/>
@@ -17690,7 +17691,7 @@
       <c r="Z543" s="4"/>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" ht="14.4">
+    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="6"/>
@@ -17719,7 +17720,7 @@
       <c r="Z544" s="4"/>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" ht="14.4">
+    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="6"/>
@@ -17748,7 +17749,7 @@
       <c r="Z545" s="4"/>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" ht="14.4">
+    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="6"/>
@@ -17777,7 +17778,7 @@
       <c r="Z546" s="4"/>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" ht="14.4">
+    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="6"/>
@@ -17806,7 +17807,7 @@
       <c r="Z547" s="4"/>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" ht="14.4">
+    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="6"/>
@@ -17835,7 +17836,7 @@
       <c r="Z548" s="4"/>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" ht="14.4">
+    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="6"/>
@@ -17864,7 +17865,7 @@
       <c r="Z549" s="4"/>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" ht="14.4">
+    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="6"/>
@@ -17893,7 +17894,7 @@
       <c r="Z550" s="4"/>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" ht="14.4">
+    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="6"/>
@@ -17922,7 +17923,7 @@
       <c r="Z551" s="4"/>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" ht="14.4">
+    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="6"/>
@@ -17951,7 +17952,7 @@
       <c r="Z552" s="4"/>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" ht="14.4">
+    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="6"/>
@@ -17980,7 +17981,7 @@
       <c r="Z553" s="4"/>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" ht="14.4">
+    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="6"/>
@@ -18009,7 +18010,7 @@
       <c r="Z554" s="4"/>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" ht="14.4">
+    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="6"/>
@@ -18038,7 +18039,7 @@
       <c r="Z555" s="4"/>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" ht="14.4">
+    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="6"/>
@@ -18067,7 +18068,7 @@
       <c r="Z556" s="4"/>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" ht="14.4">
+    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="6"/>
@@ -18096,7 +18097,7 @@
       <c r="Z557" s="4"/>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" ht="14.4">
+    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="6"/>
@@ -18125,7 +18126,7 @@
       <c r="Z558" s="4"/>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" ht="14.4">
+    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="6"/>
@@ -18154,7 +18155,7 @@
       <c r="Z559" s="4"/>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" ht="14.4">
+    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="6"/>
@@ -18183,7 +18184,7 @@
       <c r="Z560" s="4"/>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" ht="14.4">
+    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="6"/>
@@ -18212,7 +18213,7 @@
       <c r="Z561" s="4"/>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" ht="14.4">
+    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="6"/>
@@ -18241,7 +18242,7 @@
       <c r="Z562" s="4"/>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" ht="14.4">
+    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="6"/>
@@ -18270,7 +18271,7 @@
       <c r="Z563" s="4"/>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" ht="14.4">
+    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="6"/>
@@ -18299,7 +18300,7 @@
       <c r="Z564" s="4"/>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" ht="14.4">
+    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="6"/>
@@ -18328,7 +18329,7 @@
       <c r="Z565" s="4"/>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" ht="14.4">
+    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="6"/>
@@ -18357,7 +18358,7 @@
       <c r="Z566" s="4"/>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" ht="14.4">
+    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="6"/>
@@ -18386,7 +18387,7 @@
       <c r="Z567" s="4"/>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" ht="14.4">
+    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="6"/>
@@ -18415,7 +18416,7 @@
       <c r="Z568" s="4"/>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" ht="14.4">
+    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="6"/>
@@ -18444,7 +18445,7 @@
       <c r="Z569" s="4"/>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" ht="14.4">
+    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="6"/>
@@ -18473,7 +18474,7 @@
       <c r="Z570" s="4"/>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" ht="14.4">
+    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="6"/>
@@ -18502,7 +18503,7 @@
       <c r="Z571" s="4"/>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" ht="14.4">
+    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="6"/>
@@ -18531,7 +18532,7 @@
       <c r="Z572" s="4"/>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" ht="14.4">
+    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="6"/>
@@ -18560,7 +18561,7 @@
       <c r="Z573" s="4"/>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" ht="14.4">
+    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="6"/>
@@ -18589,7 +18590,7 @@
       <c r="Z574" s="4"/>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" ht="14.4">
+    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="6"/>
@@ -18618,7 +18619,7 @@
       <c r="Z575" s="4"/>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" ht="14.4">
+    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="6"/>
@@ -18647,7 +18648,7 @@
       <c r="Z576" s="4"/>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" ht="14.4">
+    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="6"/>
@@ -18676,7 +18677,7 @@
       <c r="Z577" s="4"/>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" ht="14.4">
+    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="6"/>
@@ -18705,7 +18706,7 @@
       <c r="Z578" s="4"/>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" ht="14.4">
+    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="6"/>
@@ -18734,7 +18735,7 @@
       <c r="Z579" s="4"/>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" ht="14.4">
+    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="6"/>
@@ -18763,7 +18764,7 @@
       <c r="Z580" s="4"/>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" ht="14.4">
+    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="6"/>
@@ -18792,7 +18793,7 @@
       <c r="Z581" s="4"/>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" ht="14.4">
+    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="6"/>
@@ -18821,7 +18822,7 @@
       <c r="Z582" s="4"/>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" ht="14.4">
+    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="6"/>
@@ -18850,7 +18851,7 @@
       <c r="Z583" s="4"/>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" ht="14.4">
+    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="6"/>
@@ -18879,7 +18880,7 @@
       <c r="Z584" s="4"/>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" ht="14.4">
+    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="6"/>
@@ -18908,7 +18909,7 @@
       <c r="Z585" s="4"/>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" ht="14.4">
+    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="6"/>
@@ -18937,7 +18938,7 @@
       <c r="Z586" s="4"/>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" ht="14.4">
+    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="6"/>
@@ -18966,7 +18967,7 @@
       <c r="Z587" s="4"/>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" ht="14.4">
+    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="6"/>
@@ -18995,7 +18996,7 @@
       <c r="Z588" s="4"/>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" ht="14.4">
+    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="6"/>
@@ -19024,7 +19025,7 @@
       <c r="Z589" s="4"/>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" ht="14.4">
+    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="6"/>
@@ -19053,7 +19054,7 @@
       <c r="Z590" s="4"/>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" ht="14.4">
+    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="6"/>
@@ -19082,7 +19083,7 @@
       <c r="Z591" s="4"/>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" ht="14.4">
+    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="6"/>
@@ -19111,7 +19112,7 @@
       <c r="Z592" s="4"/>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" ht="14.4">
+    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="6"/>
@@ -19140,7 +19141,7 @@
       <c r="Z593" s="4"/>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" ht="14.4">
+    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="6"/>
@@ -19169,7 +19170,7 @@
       <c r="Z594" s="4"/>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" ht="14.4">
+    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="6"/>
@@ -19198,7 +19199,7 @@
       <c r="Z595" s="4"/>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" ht="14.4">
+    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="6"/>
@@ -19227,7 +19228,7 @@
       <c r="Z596" s="4"/>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" ht="14.4">
+    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="6"/>
@@ -19256,7 +19257,7 @@
       <c r="Z597" s="4"/>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" ht="14.4">
+    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="6"/>
@@ -19285,7 +19286,7 @@
       <c r="Z598" s="4"/>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" ht="14.4">
+    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="6"/>
@@ -19314,7 +19315,7 @@
       <c r="Z599" s="4"/>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" ht="14.4">
+    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="6"/>
@@ -19343,7 +19344,7 @@
       <c r="Z600" s="4"/>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" ht="14.4">
+    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="6"/>
@@ -19372,7 +19373,7 @@
       <c r="Z601" s="4"/>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" ht="14.4">
+    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="6"/>
@@ -19401,7 +19402,7 @@
       <c r="Z602" s="4"/>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" ht="14.4">
+    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="6"/>
@@ -19430,7 +19431,7 @@
       <c r="Z603" s="4"/>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" ht="14.4">
+    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="6"/>
@@ -19459,7 +19460,7 @@
       <c r="Z604" s="4"/>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" ht="14.4">
+    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="6"/>
@@ -19488,7 +19489,7 @@
       <c r="Z605" s="4"/>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" ht="14.4">
+    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="6"/>
@@ -19517,7 +19518,7 @@
       <c r="Z606" s="4"/>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" ht="14.4">
+    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="6"/>
@@ -19546,7 +19547,7 @@
       <c r="Z607" s="4"/>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" ht="14.4">
+    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="6"/>
@@ -19575,7 +19576,7 @@
       <c r="Z608" s="4"/>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" ht="14.4">
+    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="6"/>
@@ -19604,7 +19605,7 @@
       <c r="Z609" s="4"/>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" ht="14.4">
+    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="6"/>
@@ -19633,7 +19634,7 @@
       <c r="Z610" s="4"/>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" ht="14.4">
+    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="6"/>
@@ -19662,7 +19663,7 @@
       <c r="Z611" s="4"/>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" ht="14.4">
+    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="6"/>
@@ -19691,7 +19692,7 @@
       <c r="Z612" s="4"/>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" ht="14.4">
+    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="6"/>
@@ -19720,7 +19721,7 @@
       <c r="Z613" s="4"/>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" ht="14.4">
+    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="6"/>
@@ -19749,7 +19750,7 @@
       <c r="Z614" s="4"/>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" ht="14.4">
+    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="6"/>
@@ -19778,7 +19779,7 @@
       <c r="Z615" s="4"/>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" ht="14.4">
+    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="6"/>
@@ -19807,7 +19808,7 @@
       <c r="Z616" s="4"/>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" ht="14.4">
+    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="6"/>
@@ -19836,7 +19837,7 @@
       <c r="Z617" s="4"/>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" ht="14.4">
+    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="6"/>
@@ -19865,7 +19866,7 @@
       <c r="Z618" s="4"/>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" ht="14.4">
+    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="6"/>
@@ -19894,7 +19895,7 @@
       <c r="Z619" s="4"/>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" ht="14.4">
+    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="6"/>
@@ -19923,7 +19924,7 @@
       <c r="Z620" s="4"/>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" ht="14.4">
+    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="6"/>
@@ -19952,7 +19953,7 @@
       <c r="Z621" s="4"/>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" ht="14.4">
+    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="6"/>
@@ -19981,7 +19982,7 @@
       <c r="Z622" s="4"/>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" ht="14.4">
+    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="6"/>
@@ -20010,7 +20011,7 @@
       <c r="Z623" s="4"/>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" ht="14.4">
+    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="6"/>
@@ -20039,7 +20040,7 @@
       <c r="Z624" s="4"/>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" ht="14.4">
+    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="6"/>
@@ -20068,7 +20069,7 @@
       <c r="Z625" s="4"/>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" ht="14.4">
+    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="6"/>
@@ -20097,7 +20098,7 @@
       <c r="Z626" s="4"/>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" ht="14.4">
+    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="6"/>
@@ -20126,7 +20127,7 @@
       <c r="Z627" s="4"/>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" ht="14.4">
+    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="6"/>
@@ -20155,7 +20156,7 @@
       <c r="Z628" s="4"/>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" ht="14.4">
+    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="6"/>
@@ -20184,7 +20185,7 @@
       <c r="Z629" s="4"/>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" ht="14.4">
+    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="6"/>
@@ -20213,7 +20214,7 @@
       <c r="Z630" s="4"/>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" ht="14.4">
+    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="6"/>
@@ -20242,7 +20243,7 @@
       <c r="Z631" s="4"/>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" ht="14.4">
+    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="6"/>
@@ -20271,7 +20272,7 @@
       <c r="Z632" s="4"/>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" ht="14.4">
+    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="6"/>
@@ -20300,7 +20301,7 @@
       <c r="Z633" s="4"/>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" ht="14.4">
+    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="6"/>
@@ -20329,7 +20330,7 @@
       <c r="Z634" s="4"/>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" ht="14.4">
+    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="6"/>
@@ -20358,7 +20359,7 @@
       <c r="Z635" s="4"/>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" ht="14.4">
+    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="6"/>
@@ -20387,7 +20388,7 @@
       <c r="Z636" s="4"/>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" ht="14.4">
+    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="6"/>
@@ -20416,7 +20417,7 @@
       <c r="Z637" s="4"/>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" ht="14.4">
+    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="6"/>
@@ -20445,7 +20446,7 @@
       <c r="Z638" s="4"/>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" ht="14.4">
+    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="6"/>
@@ -20474,7 +20475,7 @@
       <c r="Z639" s="4"/>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" ht="14.4">
+    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="6"/>
@@ -20503,7 +20504,7 @@
       <c r="Z640" s="4"/>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" ht="14.4">
+    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="6"/>
@@ -20532,7 +20533,7 @@
       <c r="Z641" s="4"/>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" ht="14.4">
+    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="6"/>
@@ -20561,7 +20562,7 @@
       <c r="Z642" s="4"/>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" ht="14.4">
+    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="6"/>
@@ -20590,7 +20591,7 @@
       <c r="Z643" s="4"/>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" ht="14.4">
+    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="6"/>
@@ -20619,7 +20620,7 @@
       <c r="Z644" s="4"/>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" ht="14.4">
+    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="6"/>
@@ -20648,7 +20649,7 @@
       <c r="Z645" s="4"/>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" ht="14.4">
+    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="6"/>
@@ -20677,7 +20678,7 @@
       <c r="Z646" s="4"/>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" ht="14.4">
+    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="6"/>
@@ -20706,7 +20707,7 @@
       <c r="Z647" s="4"/>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" ht="14.4">
+    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="6"/>
@@ -20735,7 +20736,7 @@
       <c r="Z648" s="4"/>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" ht="14.4">
+    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="6"/>
@@ -20764,7 +20765,7 @@
       <c r="Z649" s="4"/>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" ht="14.4">
+    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="6"/>
@@ -20793,7 +20794,7 @@
       <c r="Z650" s="4"/>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" ht="14.4">
+    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="6"/>
@@ -20822,7 +20823,7 @@
       <c r="Z651" s="4"/>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" ht="14.4">
+    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="6"/>
@@ -20851,7 +20852,7 @@
       <c r="Z652" s="4"/>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" ht="14.4">
+    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="6"/>
@@ -20880,7 +20881,7 @@
       <c r="Z653" s="4"/>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" ht="14.4">
+    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="6"/>
@@ -20909,7 +20910,7 @@
       <c r="Z654" s="4"/>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" ht="14.4">
+    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="6"/>
@@ -20938,7 +20939,7 @@
       <c r="Z655" s="4"/>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" ht="14.4">
+    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="6"/>
@@ -20967,7 +20968,7 @@
       <c r="Z656" s="4"/>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" ht="14.4">
+    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="6"/>
@@ -20996,7 +20997,7 @@
       <c r="Z657" s="4"/>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" ht="14.4">
+    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="6"/>
@@ -21025,7 +21026,7 @@
       <c r="Z658" s="4"/>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" ht="14.4">
+    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="6"/>
@@ -21054,7 +21055,7 @@
       <c r="Z659" s="4"/>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" ht="14.4">
+    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="6"/>
@@ -21083,7 +21084,7 @@
       <c r="Z660" s="4"/>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" ht="14.4">
+    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="6"/>
@@ -21112,7 +21113,7 @@
       <c r="Z661" s="4"/>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" ht="14.4">
+    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="6"/>
@@ -21141,7 +21142,7 @@
       <c r="Z662" s="4"/>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" ht="14.4">
+    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="6"/>
@@ -21170,7 +21171,7 @@
       <c r="Z663" s="4"/>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" ht="14.4">
+    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="6"/>
@@ -21199,7 +21200,7 @@
       <c r="Z664" s="4"/>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" ht="14.4">
+    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="6"/>
@@ -21228,7 +21229,7 @@
       <c r="Z665" s="4"/>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" ht="14.4">
+    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="6"/>
@@ -21257,7 +21258,7 @@
       <c r="Z666" s="4"/>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" ht="14.4">
+    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="6"/>
@@ -21286,7 +21287,7 @@
       <c r="Z667" s="4"/>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" ht="14.4">
+    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="6"/>
@@ -21315,7 +21316,7 @@
       <c r="Z668" s="4"/>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" ht="14.4">
+    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="6"/>
@@ -21344,7 +21345,7 @@
       <c r="Z669" s="4"/>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" ht="14.4">
+    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="6"/>
@@ -21373,7 +21374,7 @@
       <c r="Z670" s="4"/>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" ht="14.4">
+    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="6"/>
@@ -21402,7 +21403,7 @@
       <c r="Z671" s="4"/>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" ht="14.4">
+    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="6"/>
@@ -21431,7 +21432,7 @@
       <c r="Z672" s="4"/>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" ht="14.4">
+    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="6"/>
@@ -21460,7 +21461,7 @@
       <c r="Z673" s="4"/>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" ht="14.4">
+    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="6"/>
@@ -21489,7 +21490,7 @@
       <c r="Z674" s="4"/>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" ht="14.4">
+    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="6"/>
@@ -21518,7 +21519,7 @@
       <c r="Z675" s="4"/>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" ht="14.4">
+    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="6"/>
@@ -21547,7 +21548,7 @@
       <c r="Z676" s="4"/>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" ht="14.4">
+    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="6"/>
@@ -21576,7 +21577,7 @@
       <c r="Z677" s="4"/>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" ht="14.4">
+    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="6"/>
@@ -21605,7 +21606,7 @@
       <c r="Z678" s="4"/>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" ht="14.4">
+    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="6"/>
@@ -21634,7 +21635,7 @@
       <c r="Z679" s="4"/>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" ht="14.4">
+    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="6"/>
@@ -21663,7 +21664,7 @@
       <c r="Z680" s="4"/>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" ht="14.4">
+    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="6"/>
@@ -21692,7 +21693,7 @@
       <c r="Z681" s="4"/>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" ht="14.4">
+    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="6"/>
@@ -21721,7 +21722,7 @@
       <c r="Z682" s="4"/>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" ht="14.4">
+    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="6"/>
@@ -21750,7 +21751,7 @@
       <c r="Z683" s="4"/>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" ht="14.4">
+    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="6"/>
@@ -21779,7 +21780,7 @@
       <c r="Z684" s="4"/>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" ht="14.4">
+    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="6"/>
@@ -21808,7 +21809,7 @@
       <c r="Z685" s="4"/>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" ht="14.4">
+    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="6"/>
@@ -21837,7 +21838,7 @@
       <c r="Z686" s="4"/>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" ht="14.4">
+    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="6"/>
@@ -21866,7 +21867,7 @@
       <c r="Z687" s="4"/>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" ht="14.4">
+    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="6"/>
@@ -21895,7 +21896,7 @@
       <c r="Z688" s="4"/>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" ht="14.4">
+    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="6"/>
@@ -21924,7 +21925,7 @@
       <c r="Z689" s="4"/>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" ht="14.4">
+    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="6"/>
@@ -21953,7 +21954,7 @@
       <c r="Z690" s="4"/>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" ht="14.4">
+    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="6"/>
@@ -21982,7 +21983,7 @@
       <c r="Z691" s="4"/>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" ht="14.4">
+    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="6"/>
@@ -22011,7 +22012,7 @@
       <c r="Z692" s="4"/>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" ht="14.4">
+    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="6"/>
@@ -22040,7 +22041,7 @@
       <c r="Z693" s="4"/>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" ht="14.4">
+    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="6"/>
@@ -22069,7 +22070,7 @@
       <c r="Z694" s="4"/>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" ht="14.4">
+    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="6"/>
@@ -22098,7 +22099,7 @@
       <c r="Z695" s="4"/>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" ht="14.4">
+    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="6"/>
@@ -22127,7 +22128,7 @@
       <c r="Z696" s="4"/>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" ht="14.4">
+    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="6"/>
@@ -22156,7 +22157,7 @@
       <c r="Z697" s="4"/>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" ht="14.4">
+    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="6"/>
@@ -22185,7 +22186,7 @@
       <c r="Z698" s="4"/>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" ht="14.4">
+    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="6"/>
@@ -22214,7 +22215,7 @@
       <c r="Z699" s="4"/>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" ht="14.4">
+    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="6"/>
@@ -22243,7 +22244,7 @@
       <c r="Z700" s="4"/>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" ht="14.4">
+    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="6"/>
@@ -22272,7 +22273,7 @@
       <c r="Z701" s="4"/>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" ht="14.4">
+    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="6"/>
@@ -22301,7 +22302,7 @@
       <c r="Z702" s="4"/>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" ht="14.4">
+    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="6"/>
@@ -22330,7 +22331,7 @@
       <c r="Z703" s="4"/>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" ht="14.4">
+    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="6"/>
@@ -22359,7 +22360,7 @@
       <c r="Z704" s="4"/>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" ht="14.4">
+    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="6"/>
@@ -22388,7 +22389,7 @@
       <c r="Z705" s="4"/>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" ht="14.4">
+    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="6"/>
@@ -22417,7 +22418,7 @@
       <c r="Z706" s="4"/>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" ht="14.4">
+    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="6"/>
@@ -22446,7 +22447,7 @@
       <c r="Z707" s="4"/>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" ht="14.4">
+    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="6"/>
@@ -22475,7 +22476,7 @@
       <c r="Z708" s="4"/>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" ht="14.4">
+    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="6"/>
@@ -22504,7 +22505,7 @@
       <c r="Z709" s="4"/>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" ht="14.4">
+    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="6"/>
@@ -22533,7 +22534,7 @@
       <c r="Z710" s="4"/>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" ht="14.4">
+    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="6"/>
@@ -22562,7 +22563,7 @@
       <c r="Z711" s="4"/>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" ht="14.4">
+    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="6"/>
@@ -22591,7 +22592,7 @@
       <c r="Z712" s="4"/>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" ht="14.4">
+    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="6"/>
@@ -22620,7 +22621,7 @@
       <c r="Z713" s="4"/>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" ht="14.4">
+    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="6"/>
@@ -22649,7 +22650,7 @@
       <c r="Z714" s="4"/>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" ht="14.4">
+    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="6"/>
@@ -22678,7 +22679,7 @@
       <c r="Z715" s="4"/>
       <c r="AA715" s="4"/>
     </row>
-    <row r="716" spans="1:27" ht="14.4">
+    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="6"/>
@@ -22707,7 +22708,7 @@
       <c r="Z716" s="4"/>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" ht="14.4">
+    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="6"/>
@@ -22736,7 +22737,7 @@
       <c r="Z717" s="4"/>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" ht="14.4">
+    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="6"/>
@@ -22765,7 +22766,7 @@
       <c r="Z718" s="4"/>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" ht="14.4">
+    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="6"/>
@@ -22794,7 +22795,7 @@
       <c r="Z719" s="4"/>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" ht="14.4">
+    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="6"/>
@@ -22823,7 +22824,7 @@
       <c r="Z720" s="4"/>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" ht="14.4">
+    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="6"/>
@@ -22852,7 +22853,7 @@
       <c r="Z721" s="4"/>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" ht="14.4">
+    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="6"/>
@@ -22881,7 +22882,7 @@
       <c r="Z722" s="4"/>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" ht="14.4">
+    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="6"/>
@@ -22910,7 +22911,7 @@
       <c r="Z723" s="4"/>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" ht="14.4">
+    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="6"/>
@@ -22939,7 +22940,7 @@
       <c r="Z724" s="4"/>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" ht="14.4">
+    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="6"/>
@@ -22968,7 +22969,7 @@
       <c r="Z725" s="4"/>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" ht="14.4">
+    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="6"/>
@@ -22997,7 +22998,7 @@
       <c r="Z726" s="4"/>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" ht="14.4">
+    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="6"/>
@@ -23026,7 +23027,7 @@
       <c r="Z727" s="4"/>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" ht="14.4">
+    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="6"/>
@@ -23055,7 +23056,7 @@
       <c r="Z728" s="4"/>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" ht="14.4">
+    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="6"/>
@@ -23084,7 +23085,7 @@
       <c r="Z729" s="4"/>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" ht="14.4">
+    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="6"/>
@@ -23113,7 +23114,7 @@
       <c r="Z730" s="4"/>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" ht="14.4">
+    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="6"/>
@@ -23142,7 +23143,7 @@
       <c r="Z731" s="4"/>
       <c r="AA731" s="4"/>
     </row>
-    <row r="732" spans="1:27" ht="14.4">
+    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="6"/>
@@ -23171,7 +23172,7 @@
       <c r="Z732" s="4"/>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" ht="14.4">
+    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="6"/>
@@ -23200,7 +23201,7 @@
       <c r="Z733" s="4"/>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" ht="14.4">
+    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="6"/>
@@ -23229,7 +23230,7 @@
       <c r="Z734" s="4"/>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" ht="14.4">
+    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="6"/>
@@ -23258,7 +23259,7 @@
       <c r="Z735" s="4"/>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" ht="14.4">
+    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="6"/>
@@ -23287,7 +23288,7 @@
       <c r="Z736" s="4"/>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" ht="14.4">
+    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="6"/>
@@ -23316,7 +23317,7 @@
       <c r="Z737" s="4"/>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" ht="14.4">
+    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="6"/>
@@ -23345,7 +23346,7 @@
       <c r="Z738" s="4"/>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" ht="14.4">
+    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="6"/>
@@ -23374,7 +23375,7 @@
       <c r="Z739" s="4"/>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" ht="14.4">
+    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="6"/>
@@ -23403,7 +23404,7 @@
       <c r="Z740" s="4"/>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" ht="14.4">
+    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="6"/>
@@ -23432,7 +23433,7 @@
       <c r="Z741" s="4"/>
       <c r="AA741" s="4"/>
     </row>
-    <row r="742" spans="1:27" ht="14.4">
+    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="6"/>
@@ -23461,7 +23462,7 @@
       <c r="Z742" s="4"/>
       <c r="AA742" s="4"/>
     </row>
-    <row r="743" spans="1:27" ht="14.4">
+    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="6"/>
@@ -23490,7 +23491,7 @@
       <c r="Z743" s="4"/>
       <c r="AA743" s="4"/>
     </row>
-    <row r="744" spans="1:27" ht="14.4">
+    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="6"/>
@@ -23519,7 +23520,7 @@
       <c r="Z744" s="4"/>
       <c r="AA744" s="4"/>
     </row>
-    <row r="745" spans="1:27" ht="14.4">
+    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="6"/>
@@ -23548,7 +23549,7 @@
       <c r="Z745" s="4"/>
       <c r="AA745" s="4"/>
     </row>
-    <row r="746" spans="1:27" ht="14.4">
+    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="6"/>
@@ -23577,7 +23578,7 @@
       <c r="Z746" s="4"/>
       <c r="AA746" s="4"/>
     </row>
-    <row r="747" spans="1:27" ht="14.4">
+    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="6"/>
@@ -23606,7 +23607,7 @@
       <c r="Z747" s="4"/>
       <c r="AA747" s="4"/>
     </row>
-    <row r="748" spans="1:27" ht="14.4">
+    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="6"/>
@@ -23635,7 +23636,7 @@
       <c r="Z748" s="4"/>
       <c r="AA748" s="4"/>
     </row>
-    <row r="749" spans="1:27" ht="14.4">
+    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="6"/>
@@ -23664,7 +23665,7 @@
       <c r="Z749" s="4"/>
       <c r="AA749" s="4"/>
     </row>
-    <row r="750" spans="1:27" ht="14.4">
+    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="6"/>
@@ -23693,7 +23694,7 @@
       <c r="Z750" s="4"/>
       <c r="AA750" s="4"/>
     </row>
-    <row r="751" spans="1:27" ht="14.4">
+    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="6"/>
@@ -23722,7 +23723,7 @@
       <c r="Z751" s="4"/>
       <c r="AA751" s="4"/>
     </row>
-    <row r="752" spans="1:27" ht="14.4">
+    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="6"/>
@@ -23751,7 +23752,7 @@
       <c r="Z752" s="4"/>
       <c r="AA752" s="4"/>
     </row>
-    <row r="753" spans="1:27" ht="14.4">
+    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="6"/>
@@ -23780,7 +23781,7 @@
       <c r="Z753" s="4"/>
       <c r="AA753" s="4"/>
     </row>
-    <row r="754" spans="1:27" ht="14.4">
+    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="6"/>
@@ -23809,7 +23810,7 @@
       <c r="Z754" s="4"/>
       <c r="AA754" s="4"/>
     </row>
-    <row r="755" spans="1:27" ht="14.4">
+    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="6"/>
@@ -23838,7 +23839,7 @@
       <c r="Z755" s="4"/>
       <c r="AA755" s="4"/>
     </row>
-    <row r="756" spans="1:27" ht="14.4">
+    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="6"/>
@@ -23867,7 +23868,7 @@
       <c r="Z756" s="4"/>
       <c r="AA756" s="4"/>
     </row>
-    <row r="757" spans="1:27" ht="14.4">
+    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="6"/>
@@ -23896,7 +23897,7 @@
       <c r="Z757" s="4"/>
       <c r="AA757" s="4"/>
     </row>
-    <row r="758" spans="1:27" ht="14.4">
+    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="6"/>
@@ -23925,7 +23926,7 @@
       <c r="Z758" s="4"/>
       <c r="AA758" s="4"/>
     </row>
-    <row r="759" spans="1:27" ht="14.4">
+    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="6"/>
@@ -23954,7 +23955,7 @@
       <c r="Z759" s="4"/>
       <c r="AA759" s="4"/>
     </row>
-    <row r="760" spans="1:27" ht="14.4">
+    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="6"/>
@@ -23983,7 +23984,7 @@
       <c r="Z760" s="4"/>
       <c r="AA760" s="4"/>
     </row>
-    <row r="761" spans="1:27" ht="14.4">
+    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="6"/>
@@ -24012,7 +24013,7 @@
       <c r="Z761" s="4"/>
       <c r="AA761" s="4"/>
     </row>
-    <row r="762" spans="1:27" ht="14.4">
+    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="6"/>
@@ -24041,7 +24042,7 @@
       <c r="Z762" s="4"/>
       <c r="AA762" s="4"/>
     </row>
-    <row r="763" spans="1:27" ht="14.4">
+    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="6"/>
@@ -24070,7 +24071,7 @@
       <c r="Z763" s="4"/>
       <c r="AA763" s="4"/>
     </row>
-    <row r="764" spans="1:27" ht="14.4">
+    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="6"/>
@@ -24099,7 +24100,7 @@
       <c r="Z764" s="4"/>
       <c r="AA764" s="4"/>
     </row>
-    <row r="765" spans="1:27" ht="14.4">
+    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="6"/>
@@ -24128,7 +24129,7 @@
       <c r="Z765" s="4"/>
       <c r="AA765" s="4"/>
     </row>
-    <row r="766" spans="1:27" ht="14.4">
+    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="6"/>
@@ -24157,7 +24158,7 @@
       <c r="Z766" s="4"/>
       <c r="AA766" s="4"/>
     </row>
-    <row r="767" spans="1:27" ht="14.4">
+    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="6"/>
@@ -24186,7 +24187,7 @@
       <c r="Z767" s="4"/>
       <c r="AA767" s="4"/>
     </row>
-    <row r="768" spans="1:27" ht="14.4">
+    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="6"/>
@@ -24215,7 +24216,7 @@
       <c r="Z768" s="4"/>
       <c r="AA768" s="4"/>
     </row>
-    <row r="769" spans="1:27" ht="14.4">
+    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="6"/>
@@ -24244,7 +24245,7 @@
       <c r="Z769" s="4"/>
       <c r="AA769" s="4"/>
     </row>
-    <row r="770" spans="1:27" ht="14.4">
+    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="6"/>
@@ -24273,7 +24274,7 @@
       <c r="Z770" s="4"/>
       <c r="AA770" s="4"/>
     </row>
-    <row r="771" spans="1:27" ht="14.4">
+    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="6"/>
@@ -24302,7 +24303,7 @@
       <c r="Z771" s="4"/>
       <c r="AA771" s="4"/>
     </row>
-    <row r="772" spans="1:27" ht="14.4">
+    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="6"/>
@@ -24331,7 +24332,7 @@
       <c r="Z772" s="4"/>
       <c r="AA772" s="4"/>
     </row>
-    <row r="773" spans="1:27" ht="14.4">
+    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="6"/>
@@ -24360,7 +24361,7 @@
       <c r="Z773" s="4"/>
       <c r="AA773" s="4"/>
     </row>
-    <row r="774" spans="1:27" ht="14.4">
+    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="6"/>
@@ -24389,7 +24390,7 @@
       <c r="Z774" s="4"/>
       <c r="AA774" s="4"/>
     </row>
-    <row r="775" spans="1:27" ht="14.4">
+    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="6"/>
@@ -24418,7 +24419,7 @@
       <c r="Z775" s="4"/>
       <c r="AA775" s="4"/>
     </row>
-    <row r="776" spans="1:27" ht="14.4">
+    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="6"/>
@@ -24447,7 +24448,7 @@
       <c r="Z776" s="4"/>
       <c r="AA776" s="4"/>
     </row>
-    <row r="777" spans="1:27" ht="14.4">
+    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="6"/>
@@ -24476,7 +24477,7 @@
       <c r="Z777" s="4"/>
       <c r="AA777" s="4"/>
     </row>
-    <row r="778" spans="1:27" ht="14.4">
+    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="6"/>
@@ -24505,7 +24506,7 @@
       <c r="Z778" s="4"/>
       <c r="AA778" s="4"/>
     </row>
-    <row r="779" spans="1:27" ht="14.4">
+    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="6"/>
@@ -24534,7 +24535,7 @@
       <c r="Z779" s="4"/>
       <c r="AA779" s="4"/>
     </row>
-    <row r="780" spans="1:27" ht="14.4">
+    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="6"/>
@@ -24563,7 +24564,7 @@
       <c r="Z780" s="4"/>
       <c r="AA780" s="4"/>
     </row>
-    <row r="781" spans="1:27" ht="14.4">
+    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="6"/>
@@ -24592,7 +24593,7 @@
       <c r="Z781" s="4"/>
       <c r="AA781" s="4"/>
     </row>
-    <row r="782" spans="1:27" ht="14.4">
+    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="6"/>
@@ -24621,7 +24622,7 @@
       <c r="Z782" s="4"/>
       <c r="AA782" s="4"/>
     </row>
-    <row r="783" spans="1:27" ht="14.4">
+    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="6"/>
@@ -24650,7 +24651,7 @@
       <c r="Z783" s="4"/>
       <c r="AA783" s="4"/>
     </row>
-    <row r="784" spans="1:27" ht="14.4">
+    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="6"/>
@@ -24679,7 +24680,7 @@
       <c r="Z784" s="4"/>
       <c r="AA784" s="4"/>
     </row>
-    <row r="785" spans="1:27" ht="14.4">
+    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="6"/>
@@ -24708,7 +24709,7 @@
       <c r="Z785" s="4"/>
       <c r="AA785" s="4"/>
     </row>
-    <row r="786" spans="1:27" ht="14.4">
+    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="6"/>
@@ -24737,7 +24738,7 @@
       <c r="Z786" s="4"/>
       <c r="AA786" s="4"/>
     </row>
-    <row r="787" spans="1:27" ht="14.4">
+    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="6"/>
@@ -24766,7 +24767,7 @@
       <c r="Z787" s="4"/>
       <c r="AA787" s="4"/>
     </row>
-    <row r="788" spans="1:27" ht="14.4">
+    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="6"/>
@@ -24795,7 +24796,7 @@
       <c r="Z788" s="4"/>
       <c r="AA788" s="4"/>
     </row>
-    <row r="789" spans="1:27" ht="14.4">
+    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="6"/>
@@ -24824,7 +24825,7 @@
       <c r="Z789" s="4"/>
       <c r="AA789" s="4"/>
     </row>
-    <row r="790" spans="1:27" ht="14.4">
+    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="6"/>
@@ -24853,7 +24854,7 @@
       <c r="Z790" s="4"/>
       <c r="AA790" s="4"/>
     </row>
-    <row r="791" spans="1:27" ht="14.4">
+    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="6"/>
@@ -24882,7 +24883,7 @@
       <c r="Z791" s="4"/>
       <c r="AA791" s="4"/>
     </row>
-    <row r="792" spans="1:27" ht="14.4">
+    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="6"/>
@@ -24911,7 +24912,7 @@
       <c r="Z792" s="4"/>
       <c r="AA792" s="4"/>
     </row>
-    <row r="793" spans="1:27" ht="14.4">
+    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="6"/>
@@ -24940,7 +24941,7 @@
       <c r="Z793" s="4"/>
       <c r="AA793" s="4"/>
     </row>
-    <row r="794" spans="1:27" ht="14.4">
+    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="6"/>
@@ -24969,7 +24970,7 @@
       <c r="Z794" s="4"/>
       <c r="AA794" s="4"/>
     </row>
-    <row r="795" spans="1:27" ht="14.4">
+    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="6"/>
@@ -24998,7 +24999,7 @@
       <c r="Z795" s="4"/>
       <c r="AA795" s="4"/>
     </row>
-    <row r="796" spans="1:27" ht="14.4">
+    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="6"/>
@@ -25027,7 +25028,7 @@
       <c r="Z796" s="4"/>
       <c r="AA796" s="4"/>
     </row>
-    <row r="797" spans="1:27" ht="14.4">
+    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="6"/>
@@ -25056,7 +25057,7 @@
       <c r="Z797" s="4"/>
       <c r="AA797" s="4"/>
     </row>
-    <row r="798" spans="1:27" ht="14.4">
+    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="6"/>
@@ -25085,7 +25086,7 @@
       <c r="Z798" s="4"/>
       <c r="AA798" s="4"/>
     </row>
-    <row r="799" spans="1:27" ht="14.4">
+    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="6"/>
@@ -25114,7 +25115,7 @@
       <c r="Z799" s="4"/>
       <c r="AA799" s="4"/>
     </row>
-    <row r="800" spans="1:27" ht="14.4">
+    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="6"/>
@@ -25143,7 +25144,7 @@
       <c r="Z800" s="4"/>
       <c r="AA800" s="4"/>
     </row>
-    <row r="801" spans="1:27" ht="14.4">
+    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="6"/>
@@ -25172,7 +25173,7 @@
       <c r="Z801" s="4"/>
       <c r="AA801" s="4"/>
     </row>
-    <row r="802" spans="1:27" ht="14.4">
+    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="6"/>
@@ -25201,7 +25202,7 @@
       <c r="Z802" s="4"/>
       <c r="AA802" s="4"/>
     </row>
-    <row r="803" spans="1:27" ht="14.4">
+    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="6"/>
@@ -25230,7 +25231,7 @@
       <c r="Z803" s="4"/>
       <c r="AA803" s="4"/>
     </row>
-    <row r="804" spans="1:27" ht="14.4">
+    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="6"/>
@@ -25259,7 +25260,7 @@
       <c r="Z804" s="4"/>
       <c r="AA804" s="4"/>
     </row>
-    <row r="805" spans="1:27" ht="14.4">
+    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="6"/>
@@ -25288,7 +25289,7 @@
       <c r="Z805" s="4"/>
       <c r="AA805" s="4"/>
     </row>
-    <row r="806" spans="1:27" ht="14.4">
+    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="6"/>
@@ -25317,7 +25318,7 @@
       <c r="Z806" s="4"/>
       <c r="AA806" s="4"/>
     </row>
-    <row r="807" spans="1:27" ht="14.4">
+    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="6"/>
@@ -25346,7 +25347,7 @@
       <c r="Z807" s="4"/>
       <c r="AA807" s="4"/>
     </row>
-    <row r="808" spans="1:27" ht="14.4">
+    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="6"/>
@@ -25375,7 +25376,7 @@
       <c r="Z808" s="4"/>
       <c r="AA808" s="4"/>
     </row>
-    <row r="809" spans="1:27" ht="14.4">
+    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="6"/>
@@ -25404,7 +25405,7 @@
       <c r="Z809" s="4"/>
       <c r="AA809" s="4"/>
     </row>
-    <row r="810" spans="1:27" ht="14.4">
+    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="6"/>
@@ -25433,7 +25434,7 @@
       <c r="Z810" s="4"/>
       <c r="AA810" s="4"/>
     </row>
-    <row r="811" spans="1:27" ht="14.4">
+    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="6"/>
@@ -25462,7 +25463,7 @@
       <c r="Z811" s="4"/>
       <c r="AA811" s="4"/>
     </row>
-    <row r="812" spans="1:27" ht="14.4">
+    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="6"/>
@@ -25491,7 +25492,7 @@
       <c r="Z812" s="4"/>
       <c r="AA812" s="4"/>
     </row>
-    <row r="813" spans="1:27" ht="14.4">
+    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="6"/>
@@ -25520,7 +25521,7 @@
       <c r="Z813" s="4"/>
       <c r="AA813" s="4"/>
     </row>
-    <row r="814" spans="1:27" ht="14.4">
+    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="6"/>
@@ -25549,7 +25550,7 @@
       <c r="Z814" s="4"/>
       <c r="AA814" s="4"/>
     </row>
-    <row r="815" spans="1:27" ht="14.4">
+    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="6"/>
@@ -25578,7 +25579,7 @@
       <c r="Z815" s="4"/>
       <c r="AA815" s="4"/>
     </row>
-    <row r="816" spans="1:27" ht="14.4">
+    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="6"/>
@@ -25607,7 +25608,7 @@
       <c r="Z816" s="4"/>
       <c r="AA816" s="4"/>
     </row>
-    <row r="817" spans="1:27" ht="14.4">
+    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="6"/>
@@ -25636,7 +25637,7 @@
       <c r="Z817" s="4"/>
       <c r="AA817" s="4"/>
     </row>
-    <row r="818" spans="1:27" ht="14.4">
+    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="6"/>
@@ -25665,7 +25666,7 @@
       <c r="Z818" s="4"/>
       <c r="AA818" s="4"/>
     </row>
-    <row r="819" spans="1:27" ht="14.4">
+    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="6"/>
@@ -25694,7 +25695,7 @@
       <c r="Z819" s="4"/>
       <c r="AA819" s="4"/>
     </row>
-    <row r="820" spans="1:27" ht="14.4">
+    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="6"/>
@@ -25723,7 +25724,7 @@
       <c r="Z820" s="4"/>
       <c r="AA820" s="4"/>
     </row>
-    <row r="821" spans="1:27" ht="14.4">
+    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="6"/>
@@ -25752,7 +25753,7 @@
       <c r="Z821" s="4"/>
       <c r="AA821" s="4"/>
     </row>
-    <row r="822" spans="1:27" ht="14.4">
+    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="6"/>
@@ -25781,7 +25782,7 @@
       <c r="Z822" s="4"/>
       <c r="AA822" s="4"/>
     </row>
-    <row r="823" spans="1:27" ht="14.4">
+    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="6"/>
@@ -25810,7 +25811,7 @@
       <c r="Z823" s="4"/>
       <c r="AA823" s="4"/>
     </row>
-    <row r="824" spans="1:27" ht="14.4">
+    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="6"/>
@@ -25839,7 +25840,7 @@
       <c r="Z824" s="4"/>
       <c r="AA824" s="4"/>
     </row>
-    <row r="825" spans="1:27" ht="14.4">
+    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="6"/>
@@ -25868,7 +25869,7 @@
       <c r="Z825" s="4"/>
       <c r="AA825" s="4"/>
     </row>
-    <row r="826" spans="1:27" ht="14.4">
+    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="6"/>
@@ -25897,7 +25898,7 @@
       <c r="Z826" s="4"/>
       <c r="AA826" s="4"/>
     </row>
-    <row r="827" spans="1:27" ht="14.4">
+    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="6"/>
@@ -25926,7 +25927,7 @@
       <c r="Z827" s="4"/>
       <c r="AA827" s="4"/>
     </row>
-    <row r="828" spans="1:27" ht="14.4">
+    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="6"/>
@@ -25955,7 +25956,7 @@
       <c r="Z828" s="4"/>
       <c r="AA828" s="4"/>
     </row>
-    <row r="829" spans="1:27" ht="14.4">
+    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="6"/>
@@ -25984,7 +25985,7 @@
       <c r="Z829" s="4"/>
       <c r="AA829" s="4"/>
     </row>
-    <row r="830" spans="1:27" ht="14.4">
+    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="6"/>
@@ -26013,7 +26014,7 @@
       <c r="Z830" s="4"/>
       <c r="AA830" s="4"/>
     </row>
-    <row r="831" spans="1:27" ht="14.4">
+    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="6"/>
@@ -26042,7 +26043,7 @@
       <c r="Z831" s="4"/>
       <c r="AA831" s="4"/>
     </row>
-    <row r="832" spans="1:27" ht="14.4">
+    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="6"/>
@@ -26071,7 +26072,7 @@
       <c r="Z832" s="4"/>
       <c r="AA832" s="4"/>
     </row>
-    <row r="833" spans="1:27" ht="14.4">
+    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="6"/>
@@ -26100,7 +26101,7 @@
       <c r="Z833" s="4"/>
       <c r="AA833" s="4"/>
     </row>
-    <row r="834" spans="1:27" ht="14.4">
+    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="6"/>
@@ -26129,7 +26130,7 @@
       <c r="Z834" s="4"/>
       <c r="AA834" s="4"/>
     </row>
-    <row r="835" spans="1:27" ht="14.4">
+    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="6"/>
@@ -26158,7 +26159,7 @@
       <c r="Z835" s="4"/>
       <c r="AA835" s="4"/>
     </row>
-    <row r="836" spans="1:27" ht="14.4">
+    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="6"/>
@@ -26187,7 +26188,7 @@
       <c r="Z836" s="4"/>
       <c r="AA836" s="4"/>
     </row>
-    <row r="837" spans="1:27" ht="14.4">
+    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="6"/>
@@ -26216,7 +26217,7 @@
       <c r="Z837" s="4"/>
       <c r="AA837" s="4"/>
     </row>
-    <row r="838" spans="1:27" ht="14.4">
+    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
       <c r="C838" s="6"/>
@@ -26245,7 +26246,7 @@
       <c r="Z838" s="4"/>
       <c r="AA838" s="4"/>
     </row>
-    <row r="839" spans="1:27" ht="14.4">
+    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
       <c r="C839" s="6"/>
@@ -26274,7 +26275,7 @@
       <c r="Z839" s="4"/>
       <c r="AA839" s="4"/>
     </row>
-    <row r="840" spans="1:27" ht="14.4">
+    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
       <c r="C840" s="6"/>
@@ -26303,7 +26304,7 @@
       <c r="Z840" s="4"/>
       <c r="AA840" s="4"/>
     </row>
-    <row r="841" spans="1:27" ht="14.4">
+    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
       <c r="C841" s="6"/>
@@ -26332,7 +26333,7 @@
       <c r="Z841" s="4"/>
       <c r="AA841" s="4"/>
     </row>
-    <row r="842" spans="1:27" ht="14.4">
+    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
       <c r="C842" s="6"/>
@@ -26361,7 +26362,7 @@
       <c r="Z842" s="4"/>
       <c r="AA842" s="4"/>
     </row>
-    <row r="843" spans="1:27" ht="14.4">
+    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
       <c r="C843" s="6"/>
@@ -26390,7 +26391,7 @@
       <c r="Z843" s="4"/>
       <c r="AA843" s="4"/>
     </row>
-    <row r="844" spans="1:27" ht="14.4">
+    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
       <c r="C844" s="6"/>
@@ -26419,7 +26420,7 @@
       <c r="Z844" s="4"/>
       <c r="AA844" s="4"/>
     </row>
-    <row r="845" spans="1:27" ht="14.4">
+    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
       <c r="C845" s="6"/>
@@ -26448,7 +26449,7 @@
       <c r="Z845" s="4"/>
       <c r="AA845" s="4"/>
     </row>
-    <row r="846" spans="1:27" ht="14.4">
+    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
       <c r="C846" s="6"/>
@@ -26477,7 +26478,7 @@
       <c r="Z846" s="4"/>
       <c r="AA846" s="4"/>
     </row>
-    <row r="847" spans="1:27" ht="14.4">
+    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
       <c r="C847" s="6"/>
@@ -26506,7 +26507,7 @@
       <c r="Z847" s="4"/>
       <c r="AA847" s="4"/>
     </row>
-    <row r="848" spans="1:27" ht="14.4">
+    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
       <c r="C848" s="6"/>
@@ -26535,7 +26536,7 @@
       <c r="Z848" s="4"/>
       <c r="AA848" s="4"/>
     </row>
-    <row r="849" spans="1:27" ht="14.4">
+    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
       <c r="C849" s="6"/>
@@ -26564,7 +26565,7 @@
       <c r="Z849" s="4"/>
       <c r="AA849" s="4"/>
     </row>
-    <row r="850" spans="1:27" ht="14.4">
+    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
       <c r="C850" s="6"/>
@@ -26593,7 +26594,7 @@
       <c r="Z850" s="4"/>
       <c r="AA850" s="4"/>
     </row>
-    <row r="851" spans="1:27" ht="14.4">
+    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
       <c r="C851" s="6"/>
@@ -26622,7 +26623,7 @@
       <c r="Z851" s="4"/>
       <c r="AA851" s="4"/>
     </row>
-    <row r="852" spans="1:27" ht="14.4">
+    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
       <c r="C852" s="6"/>
@@ -26651,7 +26652,7 @@
       <c r="Z852" s="4"/>
       <c r="AA852" s="4"/>
     </row>
-    <row r="853" spans="1:27" ht="14.4">
+    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
       <c r="C853" s="6"/>
@@ -26680,7 +26681,7 @@
       <c r="Z853" s="4"/>
       <c r="AA853" s="4"/>
     </row>
-    <row r="854" spans="1:27" ht="14.4">
+    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
       <c r="C854" s="6"/>
@@ -26709,7 +26710,7 @@
       <c r="Z854" s="4"/>
       <c r="AA854" s="4"/>
     </row>
-    <row r="855" spans="1:27" ht="14.4">
+    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
       <c r="C855" s="6"/>
@@ -26738,7 +26739,7 @@
       <c r="Z855" s="4"/>
       <c r="AA855" s="4"/>
     </row>
-    <row r="856" spans="1:27" ht="14.4">
+    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
       <c r="C856" s="6"/>
@@ -26767,7 +26768,7 @@
       <c r="Z856" s="4"/>
       <c r="AA856" s="4"/>
     </row>
-    <row r="857" spans="1:27" ht="14.4">
+    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
       <c r="C857" s="6"/>
@@ -26796,7 +26797,7 @@
       <c r="Z857" s="4"/>
       <c r="AA857" s="4"/>
     </row>
-    <row r="858" spans="1:27" ht="14.4">
+    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
       <c r="C858" s="6"/>
@@ -26825,7 +26826,7 @@
       <c r="Z858" s="4"/>
       <c r="AA858" s="4"/>
     </row>
-    <row r="859" spans="1:27" ht="14.4">
+    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
       <c r="C859" s="6"/>
@@ -26854,7 +26855,7 @@
       <c r="Z859" s="4"/>
       <c r="AA859" s="4"/>
     </row>
-    <row r="860" spans="1:27" ht="14.4">
+    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
       <c r="C860" s="6"/>
@@ -26883,7 +26884,7 @@
       <c r="Z860" s="4"/>
       <c r="AA860" s="4"/>
     </row>
-    <row r="861" spans="1:27" ht="14.4">
+    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
       <c r="C861" s="6"/>
@@ -26912,7 +26913,7 @@
       <c r="Z861" s="4"/>
       <c r="AA861" s="4"/>
     </row>
-    <row r="862" spans="1:27" ht="14.4">
+    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
       <c r="C862" s="6"/>
@@ -26941,7 +26942,7 @@
       <c r="Z862" s="4"/>
       <c r="AA862" s="4"/>
     </row>
-    <row r="863" spans="1:27" ht="14.4">
+    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
       <c r="C863" s="6"/>
@@ -26970,7 +26971,7 @@
       <c r="Z863" s="4"/>
       <c r="AA863" s="4"/>
     </row>
-    <row r="864" spans="1:27" ht="14.4">
+    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
       <c r="C864" s="6"/>
@@ -26999,7 +27000,7 @@
       <c r="Z864" s="4"/>
       <c r="AA864" s="4"/>
     </row>
-    <row r="865" spans="1:27" ht="14.4">
+    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
       <c r="C865" s="6"/>
@@ -27028,7 +27029,7 @@
       <c r="Z865" s="4"/>
       <c r="AA865" s="4"/>
     </row>
-    <row r="866" spans="1:27" ht="14.4">
+    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
       <c r="C866" s="6"/>
@@ -27057,7 +27058,7 @@
       <c r="Z866" s="4"/>
       <c r="AA866" s="4"/>
     </row>
-    <row r="867" spans="1:27" ht="14.4">
+    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
       <c r="C867" s="6"/>
@@ -27086,7 +27087,7 @@
       <c r="Z867" s="4"/>
       <c r="AA867" s="4"/>
     </row>
-    <row r="868" spans="1:27" ht="14.4">
+    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
       <c r="C868" s="6"/>
@@ -27115,7 +27116,7 @@
       <c r="Z868" s="4"/>
       <c r="AA868" s="4"/>
     </row>
-    <row r="869" spans="1:27" ht="14.4">
+    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
       <c r="C869" s="6"/>
@@ -27144,7 +27145,7 @@
       <c r="Z869" s="4"/>
       <c r="AA869" s="4"/>
     </row>
-    <row r="870" spans="1:27" ht="14.4">
+    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
       <c r="C870" s="6"/>
@@ -27173,7 +27174,7 @@
       <c r="Z870" s="4"/>
       <c r="AA870" s="4"/>
     </row>
-    <row r="871" spans="1:27" ht="14.4">
+    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
       <c r="C871" s="6"/>
@@ -27202,7 +27203,7 @@
       <c r="Z871" s="4"/>
       <c r="AA871" s="4"/>
     </row>
-    <row r="872" spans="1:27" ht="14.4">
+    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
       <c r="C872" s="6"/>
@@ -27231,7 +27232,7 @@
       <c r="Z872" s="4"/>
       <c r="AA872" s="4"/>
     </row>
-    <row r="873" spans="1:27" ht="14.4">
+    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
       <c r="C873" s="6"/>
@@ -27260,7 +27261,7 @@
       <c r="Z873" s="4"/>
       <c r="AA873" s="4"/>
     </row>
-    <row r="874" spans="1:27" ht="14.4">
+    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
       <c r="C874" s="6"/>
@@ -27289,7 +27290,7 @@
       <c r="Z874" s="4"/>
       <c r="AA874" s="4"/>
     </row>
-    <row r="875" spans="1:27" ht="14.4">
+    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
       <c r="C875" s="6"/>
@@ -27318,7 +27319,7 @@
       <c r="Z875" s="4"/>
       <c r="AA875" s="4"/>
     </row>
-    <row r="876" spans="1:27" ht="14.4">
+    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
       <c r="C876" s="6"/>
@@ -27347,7 +27348,7 @@
       <c r="Z876" s="4"/>
       <c r="AA876" s="4"/>
     </row>
-    <row r="877" spans="1:27" ht="14.4">
+    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
       <c r="C877" s="6"/>
@@ -27376,7 +27377,7 @@
       <c r="Z877" s="4"/>
       <c r="AA877" s="4"/>
     </row>
-    <row r="878" spans="1:27" ht="14.4">
+    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
       <c r="C878" s="6"/>
@@ -27405,7 +27406,7 @@
       <c r="Z878" s="4"/>
       <c r="AA878" s="4"/>
     </row>
-    <row r="879" spans="1:27" ht="14.4">
+    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
       <c r="C879" s="6"/>
@@ -27434,7 +27435,7 @@
       <c r="Z879" s="4"/>
       <c r="AA879" s="4"/>
     </row>
-    <row r="880" spans="1:27" ht="14.4">
+    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
       <c r="C880" s="6"/>
@@ -27463,7 +27464,7 @@
       <c r="Z880" s="4"/>
       <c r="AA880" s="4"/>
     </row>
-    <row r="881" spans="1:27" ht="14.4">
+    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
       <c r="C881" s="6"/>
@@ -27492,7 +27493,7 @@
       <c r="Z881" s="4"/>
       <c r="AA881" s="4"/>
     </row>
-    <row r="882" spans="1:27" ht="14.4">
+    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
       <c r="C882" s="6"/>
@@ -27521,7 +27522,7 @@
       <c r="Z882" s="4"/>
       <c r="AA882" s="4"/>
     </row>
-    <row r="883" spans="1:27" ht="14.4">
+    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
       <c r="C883" s="6"/>
@@ -27550,7 +27551,7 @@
       <c r="Z883" s="4"/>
       <c r="AA883" s="4"/>
     </row>
-    <row r="884" spans="1:27" ht="14.4">
+    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
       <c r="C884" s="6"/>
@@ -27579,7 +27580,7 @@
       <c r="Z884" s="4"/>
       <c r="AA884" s="4"/>
     </row>
-    <row r="885" spans="1:27" ht="14.4">
+    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
       <c r="C885" s="6"/>
@@ -27608,7 +27609,7 @@
       <c r="Z885" s="4"/>
       <c r="AA885" s="4"/>
     </row>
-    <row r="886" spans="1:27" ht="14.4">
+    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
       <c r="C886" s="6"/>
@@ -27637,7 +27638,7 @@
       <c r="Z886" s="4"/>
       <c r="AA886" s="4"/>
     </row>
-    <row r="887" spans="1:27" ht="14.4">
+    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
       <c r="C887" s="6"/>
@@ -27666,7 +27667,7 @@
       <c r="Z887" s="4"/>
       <c r="AA887" s="4"/>
     </row>
-    <row r="888" spans="1:27" ht="14.4">
+    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
       <c r="C888" s="6"/>
@@ -27695,7 +27696,7 @@
       <c r="Z888" s="4"/>
       <c r="AA888" s="4"/>
     </row>
-    <row r="889" spans="1:27" ht="14.4">
+    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
       <c r="C889" s="6"/>
@@ -27724,7 +27725,7 @@
       <c r="Z889" s="4"/>
       <c r="AA889" s="4"/>
     </row>
-    <row r="890" spans="1:27" ht="14.4">
+    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
       <c r="C890" s="6"/>
@@ -27753,7 +27754,7 @@
       <c r="Z890" s="4"/>
       <c r="AA890" s="4"/>
     </row>
-    <row r="891" spans="1:27" ht="14.4">
+    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
       <c r="C891" s="6"/>
@@ -27782,7 +27783,7 @@
       <c r="Z891" s="4"/>
       <c r="AA891" s="4"/>
     </row>
-    <row r="892" spans="1:27" ht="14.4">
+    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
       <c r="C892" s="6"/>
@@ -27811,7 +27812,7 @@
       <c r="Z892" s="4"/>
       <c r="AA892" s="4"/>
     </row>
-    <row r="893" spans="1:27" ht="14.4">
+    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
       <c r="C893" s="6"/>
@@ -27840,7 +27841,7 @@
       <c r="Z893" s="4"/>
       <c r="AA893" s="4"/>
     </row>
-    <row r="894" spans="1:27" ht="14.4">
+    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
       <c r="C894" s="6"/>
@@ -27869,7 +27870,7 @@
       <c r="Z894" s="4"/>
       <c r="AA894" s="4"/>
     </row>
-    <row r="895" spans="1:27" ht="14.4">
+    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
       <c r="C895" s="6"/>
@@ -27898,7 +27899,7 @@
       <c r="Z895" s="4"/>
       <c r="AA895" s="4"/>
     </row>
-    <row r="896" spans="1:27" ht="14.4">
+    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
       <c r="C896" s="6"/>
@@ -27927,7 +27928,7 @@
       <c r="Z896" s="4"/>
       <c r="AA896" s="4"/>
     </row>
-    <row r="897" spans="1:27" ht="14.4">
+    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
       <c r="C897" s="6"/>
@@ -27956,7 +27957,7 @@
       <c r="Z897" s="4"/>
       <c r="AA897" s="4"/>
     </row>
-    <row r="898" spans="1:27" ht="14.4">
+    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
       <c r="C898" s="6"/>
@@ -27985,7 +27986,7 @@
       <c r="Z898" s="4"/>
       <c r="AA898" s="4"/>
     </row>
-    <row r="899" spans="1:27" ht="14.4">
+    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
       <c r="C899" s="6"/>
@@ -28014,7 +28015,7 @@
       <c r="Z899" s="4"/>
       <c r="AA899" s="4"/>
     </row>
-    <row r="900" spans="1:27" ht="14.4">
+    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
       <c r="C900" s="6"/>
@@ -28043,7 +28044,7 @@
       <c r="Z900" s="4"/>
       <c r="AA900" s="4"/>
     </row>
-    <row r="901" spans="1:27" ht="14.4">
+    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
       <c r="C901" s="6"/>
@@ -28072,7 +28073,7 @@
       <c r="Z901" s="4"/>
       <c r="AA901" s="4"/>
     </row>
-    <row r="902" spans="1:27" ht="14.4">
+    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
       <c r="C902" s="6"/>
@@ -28101,7 +28102,7 @@
       <c r="Z902" s="4"/>
       <c r="AA902" s="4"/>
     </row>
-    <row r="903" spans="1:27" ht="14.4">
+    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
       <c r="C903" s="6"/>
@@ -28130,7 +28131,7 @@
       <c r="Z903" s="4"/>
       <c r="AA903" s="4"/>
     </row>
-    <row r="904" spans="1:27" ht="14.4">
+    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
       <c r="C904" s="6"/>
@@ -28159,7 +28160,7 @@
       <c r="Z904" s="4"/>
       <c r="AA904" s="4"/>
     </row>
-    <row r="905" spans="1:27" ht="14.4">
+    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
       <c r="C905" s="6"/>
@@ -28188,7 +28189,7 @@
       <c r="Z905" s="4"/>
       <c r="AA905" s="4"/>
     </row>
-    <row r="906" spans="1:27" ht="14.4">
+    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
       <c r="C906" s="6"/>
@@ -28217,7 +28218,7 @@
       <c r="Z906" s="4"/>
       <c r="AA906" s="4"/>
     </row>
-    <row r="907" spans="1:27" ht="14.4">
+    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
       <c r="C907" s="6"/>
@@ -28246,7 +28247,7 @@
       <c r="Z907" s="4"/>
       <c r="AA907" s="4"/>
     </row>
-    <row r="908" spans="1:27" ht="14.4">
+    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
       <c r="C908" s="6"/>
@@ -28275,7 +28276,7 @@
       <c r="Z908" s="4"/>
       <c r="AA908" s="4"/>
     </row>
-    <row r="909" spans="1:27" ht="14.4">
+    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
       <c r="C909" s="6"/>
@@ -28304,7 +28305,7 @@
       <c r="Z909" s="4"/>
       <c r="AA909" s="4"/>
     </row>
-    <row r="910" spans="1:27" ht="14.4">
+    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
       <c r="C910" s="6"/>
@@ -28333,7 +28334,7 @@
       <c r="Z910" s="4"/>
       <c r="AA910" s="4"/>
     </row>
-    <row r="911" spans="1:27" ht="14.4">
+    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
       <c r="C911" s="6"/>
@@ -28362,7 +28363,7 @@
       <c r="Z911" s="4"/>
       <c r="AA911" s="4"/>
     </row>
-    <row r="912" spans="1:27" ht="14.4">
+    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
       <c r="C912" s="6"/>
@@ -28391,7 +28392,7 @@
       <c r="Z912" s="4"/>
       <c r="AA912" s="4"/>
     </row>
-    <row r="913" spans="1:27" ht="14.4">
+    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
       <c r="C913" s="6"/>
@@ -28420,7 +28421,7 @@
       <c r="Z913" s="4"/>
       <c r="AA913" s="4"/>
     </row>
-    <row r="914" spans="1:27" ht="14.4">
+    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
       <c r="C914" s="6"/>
@@ -28449,7 +28450,7 @@
       <c r="Z914" s="4"/>
       <c r="AA914" s="4"/>
     </row>
-    <row r="915" spans="1:27" ht="14.4">
+    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
       <c r="C915" s="6"/>
@@ -28478,7 +28479,7 @@
       <c r="Z915" s="4"/>
       <c r="AA915" s="4"/>
     </row>
-    <row r="916" spans="1:27" ht="14.4">
+    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
       <c r="C916" s="6"/>
@@ -28507,7 +28508,7 @@
       <c r="Z916" s="4"/>
       <c r="AA916" s="4"/>
     </row>
-    <row r="917" spans="1:27" ht="14.4">
+    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
       <c r="C917" s="6"/>
@@ -28536,7 +28537,7 @@
       <c r="Z917" s="4"/>
       <c r="AA917" s="4"/>
     </row>
-    <row r="918" spans="1:27" ht="14.4">
+    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
       <c r="C918" s="6"/>
@@ -28565,7 +28566,7 @@
       <c r="Z918" s="4"/>
       <c r="AA918" s="4"/>
     </row>
-    <row r="919" spans="1:27" ht="14.4">
+    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
       <c r="C919" s="6"/>
@@ -28594,7 +28595,7 @@
       <c r="Z919" s="4"/>
       <c r="AA919" s="4"/>
     </row>
-    <row r="920" spans="1:27" ht="14.4">
+    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
       <c r="C920" s="6"/>
@@ -28623,7 +28624,7 @@
       <c r="Z920" s="4"/>
       <c r="AA920" s="4"/>
     </row>
-    <row r="921" spans="1:27" ht="14.4">
+    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
       <c r="C921" s="6"/>
@@ -28652,7 +28653,7 @@
       <c r="Z921" s="4"/>
       <c r="AA921" s="4"/>
     </row>
-    <row r="922" spans="1:27" ht="14.4">
+    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
       <c r="C922" s="6"/>
@@ -28681,7 +28682,7 @@
       <c r="Z922" s="4"/>
       <c r="AA922" s="4"/>
     </row>
-    <row r="923" spans="1:27" ht="14.4">
+    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
       <c r="C923" s="6"/>
@@ -28710,7 +28711,7 @@
       <c r="Z923" s="4"/>
       <c r="AA923" s="4"/>
     </row>
-    <row r="924" spans="1:27" ht="14.4">
+    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
       <c r="C924" s="6"/>
@@ -28739,7 +28740,7 @@
       <c r="Z924" s="4"/>
       <c r="AA924" s="4"/>
     </row>
-    <row r="925" spans="1:27" ht="14.4">
+    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
       <c r="C925" s="6"/>
@@ -28768,7 +28769,7 @@
       <c r="Z925" s="4"/>
       <c r="AA925" s="4"/>
     </row>
-    <row r="926" spans="1:27" ht="14.4">
+    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
       <c r="C926" s="6"/>
@@ -28797,7 +28798,7 @@
       <c r="Z926" s="4"/>
       <c r="AA926" s="4"/>
     </row>
-    <row r="927" spans="1:27" ht="14.4">
+    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
       <c r="C927" s="6"/>
@@ -28826,7 +28827,7 @@
       <c r="Z927" s="4"/>
       <c r="AA927" s="4"/>
     </row>
-    <row r="928" spans="1:27" ht="14.4">
+    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
       <c r="C928" s="6"/>
@@ -28855,7 +28856,7 @@
       <c r="Z928" s="4"/>
       <c r="AA928" s="4"/>
     </row>
-    <row r="929" spans="1:27" ht="14.4">
+    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
       <c r="C929" s="6"/>
@@ -28884,7 +28885,7 @@
       <c r="Z929" s="4"/>
       <c r="AA929" s="4"/>
     </row>
-    <row r="930" spans="1:27" ht="14.4">
+    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
       <c r="C930" s="6"/>
@@ -28913,7 +28914,7 @@
       <c r="Z930" s="4"/>
       <c r="AA930" s="4"/>
     </row>
-    <row r="931" spans="1:27" ht="14.4">
+    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
       <c r="C931" s="6"/>
@@ -28942,7 +28943,7 @@
       <c r="Z931" s="4"/>
       <c r="AA931" s="4"/>
     </row>
-    <row r="932" spans="1:27" ht="14.4">
+    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
       <c r="C932" s="6"/>
@@ -28971,7 +28972,7 @@
       <c r="Z932" s="4"/>
       <c r="AA932" s="4"/>
     </row>
-    <row r="933" spans="1:27" ht="14.4">
+    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
       <c r="C933" s="6"/>
@@ -29000,7 +29001,7 @@
       <c r="Z933" s="4"/>
       <c r="AA933" s="4"/>
     </row>
-    <row r="934" spans="1:27" ht="14.4">
+    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
       <c r="C934" s="6"/>
@@ -29029,7 +29030,7 @@
       <c r="Z934" s="4"/>
       <c r="AA934" s="4"/>
     </row>
-    <row r="935" spans="1:27" ht="14.4">
+    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
       <c r="C935" s="6"/>
@@ -29058,7 +29059,7 @@
       <c r="Z935" s="4"/>
       <c r="AA935" s="4"/>
     </row>
-    <row r="936" spans="1:27" ht="14.4">
+    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
       <c r="C936" s="6"/>
@@ -29087,7 +29088,7 @@
       <c r="Z936" s="4"/>
       <c r="AA936" s="4"/>
     </row>
-    <row r="937" spans="1:27" ht="14.4">
+    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
       <c r="C937" s="6"/>
@@ -29116,7 +29117,7 @@
       <c r="Z937" s="4"/>
       <c r="AA937" s="4"/>
     </row>
-    <row r="938" spans="1:27" ht="14.4">
+    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
       <c r="C938" s="6"/>
@@ -29145,7 +29146,7 @@
       <c r="Z938" s="4"/>
       <c r="AA938" s="4"/>
     </row>
-    <row r="939" spans="1:27" ht="14.4">
+    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
       <c r="C939" s="6"/>
@@ -29174,7 +29175,7 @@
       <c r="Z939" s="4"/>
       <c r="AA939" s="4"/>
     </row>
-    <row r="940" spans="1:27" ht="14.4">
+    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
       <c r="C940" s="6"/>
@@ -29203,7 +29204,7 @@
       <c r="Z940" s="4"/>
       <c r="AA940" s="4"/>
     </row>
-    <row r="941" spans="1:27" ht="14.4">
+    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
       <c r="C941" s="6"/>
@@ -29232,7 +29233,7 @@
       <c r="Z941" s="4"/>
       <c r="AA941" s="4"/>
     </row>
-    <row r="942" spans="1:27" ht="14.4">
+    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
       <c r="C942" s="6"/>
@@ -29261,7 +29262,7 @@
       <c r="Z942" s="4"/>
       <c r="AA942" s="4"/>
     </row>
-    <row r="943" spans="1:27" ht="14.4">
+    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
       <c r="C943" s="6"/>
@@ -29290,7 +29291,7 @@
       <c r="Z943" s="4"/>
       <c r="AA943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="14.4">
+    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
       <c r="C944" s="6"/>
@@ -29319,7 +29320,7 @@
       <c r="Z944" s="4"/>
       <c r="AA944" s="4"/>
     </row>
-    <row r="945" spans="1:27" ht="14.4">
+    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
       <c r="C945" s="6"/>
@@ -29348,7 +29349,7 @@
       <c r="Z945" s="4"/>
       <c r="AA945" s="4"/>
     </row>
-    <row r="946" spans="1:27" ht="14.4">
+    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
       <c r="C946" s="6"/>
@@ -29377,7 +29378,7 @@
       <c r="Z946" s="4"/>
       <c r="AA946" s="4"/>
     </row>
-    <row r="947" spans="1:27" ht="14.4">
+    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
       <c r="C947" s="6"/>
@@ -29406,7 +29407,7 @@
       <c r="Z947" s="4"/>
       <c r="AA947" s="4"/>
     </row>
-    <row r="948" spans="1:27" ht="14.4">
+    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
       <c r="C948" s="6"/>
@@ -29435,7 +29436,7 @@
       <c r="Z948" s="4"/>
       <c r="AA948" s="4"/>
     </row>
-    <row r="949" spans="1:27" ht="14.4">
+    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
       <c r="C949" s="6"/>
@@ -29464,7 +29465,7 @@
       <c r="Z949" s="4"/>
       <c r="AA949" s="4"/>
     </row>
-    <row r="950" spans="1:27" ht="14.4">
+    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
       <c r="C950" s="6"/>
@@ -29493,7 +29494,7 @@
       <c r="Z950" s="4"/>
       <c r="AA950" s="4"/>
     </row>
-    <row r="951" spans="1:27" ht="14.4">
+    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
       <c r="C951" s="6"/>
@@ -29522,7 +29523,7 @@
       <c r="Z951" s="4"/>
       <c r="AA951" s="4"/>
     </row>
-    <row r="952" spans="1:27" ht="14.4">
+    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
       <c r="C952" s="6"/>
@@ -29551,7 +29552,7 @@
       <c r="Z952" s="4"/>
       <c r="AA952" s="4"/>
     </row>
-    <row r="953" spans="1:27" ht="14.4">
+    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
       <c r="C953" s="6"/>
@@ -29580,7 +29581,7 @@
       <c r="Z953" s="4"/>
       <c r="AA953" s="4"/>
     </row>
-    <row r="954" spans="1:27" ht="14.4">
+    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
       <c r="C954" s="6"/>
@@ -29609,7 +29610,7 @@
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
     </row>
-    <row r="955" spans="1:27" ht="14.4">
+    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
       <c r="C955" s="6"/>
@@ -29638,7 +29639,7 @@
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
     </row>
-    <row r="956" spans="1:27" ht="14.4">
+    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
       <c r="C956" s="6"/>
@@ -29667,7 +29668,7 @@
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
     </row>
-    <row r="957" spans="1:27" ht="14.4">
+    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
       <c r="C957" s="6"/>
@@ -29696,7 +29697,7 @@
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
     </row>
-    <row r="958" spans="1:27" ht="14.4">
+    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
       <c r="C958" s="6"/>
@@ -29725,7 +29726,7 @@
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
     </row>
-    <row r="959" spans="1:27" ht="14.4">
+    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
       <c r="C959" s="6"/>
@@ -29754,7 +29755,7 @@
       <c r="Z959" s="4"/>
       <c r="AA959" s="4"/>
     </row>
-    <row r="960" spans="1:27" ht="14.4">
+    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
       <c r="C960" s="6"/>
@@ -29783,7 +29784,7 @@
       <c r="Z960" s="4"/>
       <c r="AA960" s="4"/>
     </row>
-    <row r="961" spans="1:27" ht="14.4">
+    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
       <c r="C961" s="6"/>
@@ -29812,7 +29813,7 @@
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
     </row>
-    <row r="962" spans="1:27" ht="14.4">
+    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
       <c r="C962" s="6"/>
@@ -29841,7 +29842,7 @@
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
     </row>
-    <row r="963" spans="1:27" ht="14.4">
+    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
       <c r="C963" s="6"/>
@@ -29870,7 +29871,7 @@
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
     </row>
-    <row r="964" spans="1:27" ht="14.4">
+    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
       <c r="C964" s="6"/>
@@ -29899,7 +29900,7 @@
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
     </row>
-    <row r="965" spans="1:27" ht="14.4">
+    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
       <c r="C965" s="6"/>
@@ -29928,7 +29929,7 @@
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
     </row>
-    <row r="966" spans="1:27" ht="14.4">
+    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
       <c r="C966" s="6"/>
@@ -29957,7 +29958,7 @@
       <c r="Z966" s="4"/>
       <c r="AA966" s="4"/>
     </row>
-    <row r="967" spans="1:27" ht="14.4">
+    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
       <c r="C967" s="6"/>
@@ -29986,7 +29987,7 @@
       <c r="Z967" s="4"/>
       <c r="AA967" s="4"/>
     </row>
-    <row r="968" spans="1:27" ht="14.4">
+    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
       <c r="C968" s="6"/>
@@ -30015,7 +30016,7 @@
       <c r="Z968" s="4"/>
       <c r="AA968" s="4"/>
     </row>
-    <row r="969" spans="1:27" ht="14.4">
+    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
       <c r="C969" s="6"/>
@@ -30044,7 +30045,7 @@
       <c r="Z969" s="4"/>
       <c r="AA969" s="4"/>
     </row>
-    <row r="970" spans="1:27" ht="14.4">
+    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
       <c r="C970" s="6"/>
@@ -30073,7 +30074,7 @@
       <c r="Z970" s="4"/>
       <c r="AA970" s="4"/>
     </row>
-    <row r="971" spans="1:27" ht="14.4">
+    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
       <c r="C971" s="6"/>
@@ -30102,7 +30103,7 @@
       <c r="Z971" s="4"/>
       <c r="AA971" s="4"/>
     </row>
-    <row r="972" spans="1:27" ht="14.4">
+    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
       <c r="C972" s="6"/>
@@ -30131,7 +30132,7 @@
       <c r="Z972" s="4"/>
       <c r="AA972" s="4"/>
     </row>
-    <row r="973" spans="1:27" ht="14.4">
+    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
       <c r="C973" s="6"/>
@@ -30160,7 +30161,7 @@
       <c r="Z973" s="4"/>
       <c r="AA973" s="4"/>
     </row>
-    <row r="974" spans="1:27" ht="14.4">
+    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
       <c r="C974" s="6"/>
@@ -30189,7 +30190,7 @@
       <c r="Z974" s="4"/>
       <c r="AA974" s="4"/>
     </row>
-    <row r="975" spans="1:27" ht="14.4">
+    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
       <c r="C975" s="6"/>
@@ -30218,7 +30219,7 @@
       <c r="Z975" s="4"/>
       <c r="AA975" s="4"/>
     </row>
-    <row r="976" spans="1:27" ht="14.4">
+    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
       <c r="C976" s="6"/>
@@ -30247,7 +30248,7 @@
       <c r="Z976" s="4"/>
       <c r="AA976" s="4"/>
     </row>
-    <row r="977" spans="1:27" ht="14.4">
+    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
       <c r="C977" s="6"/>
@@ -30276,7 +30277,7 @@
       <c r="Z977" s="4"/>
       <c r="AA977" s="4"/>
     </row>
-    <row r="978" spans="1:27" ht="14.4">
+    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
       <c r="C978" s="6"/>
@@ -30305,7 +30306,7 @@
       <c r="Z978" s="4"/>
       <c r="AA978" s="4"/>
     </row>
-    <row r="979" spans="1:27" ht="14.4">
+    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
       <c r="C979" s="6"/>
@@ -30334,7 +30335,7 @@
       <c r="Z979" s="4"/>
       <c r="AA979" s="4"/>
     </row>
-    <row r="980" spans="1:27" ht="14.4">
+    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
       <c r="C980" s="6"/>
@@ -30363,7 +30364,7 @@
       <c r="Z980" s="4"/>
       <c r="AA980" s="4"/>
     </row>
-    <row r="981" spans="1:27" ht="14.4">
+    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
       <c r="C981" s="6"/>
@@ -30392,7 +30393,7 @@
       <c r="Z981" s="4"/>
       <c r="AA981" s="4"/>
     </row>
-    <row r="982" spans="1:27" ht="14.4">
+    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
       <c r="C982" s="6"/>
@@ -30421,7 +30422,7 @@
       <c r="Z982" s="4"/>
       <c r="AA982" s="4"/>
     </row>
-    <row r="983" spans="1:27" ht="14.4">
+    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
       <c r="C983" s="6"/>
@@ -30450,7 +30451,7 @@
       <c r="Z983" s="4"/>
       <c r="AA983" s="4"/>
     </row>
-    <row r="984" spans="1:27" ht="14.4">
+    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
       <c r="C984" s="6"/>
@@ -30479,7 +30480,7 @@
       <c r="Z984" s="4"/>
       <c r="AA984" s="4"/>
     </row>
-    <row r="985" spans="1:27" ht="14.4">
+    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
       <c r="C985" s="6"/>
@@ -30508,7 +30509,7 @@
       <c r="Z985" s="4"/>
       <c r="AA985" s="4"/>
     </row>
-    <row r="986" spans="1:27" ht="14.4">
+    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
       <c r="C986" s="6"/>
@@ -30537,7 +30538,7 @@
       <c r="Z986" s="4"/>
       <c r="AA986" s="4"/>
     </row>
-    <row r="987" spans="1:27" ht="14.4">
+    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
       <c r="C987" s="6"/>
@@ -30566,7 +30567,7 @@
       <c r="Z987" s="4"/>
       <c r="AA987" s="4"/>
     </row>
-    <row r="988" spans="1:27" ht="14.4">
+    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
       <c r="C988" s="6"/>
@@ -30595,7 +30596,7 @@
       <c r="Z988" s="4"/>
       <c r="AA988" s="4"/>
     </row>
-    <row r="989" spans="1:27" ht="14.4">
+    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
       <c r="C989" s="6"/>
@@ -30624,7 +30625,7 @@
       <c r="Z989" s="4"/>
       <c r="AA989" s="4"/>
     </row>
-    <row r="990" spans="1:27" ht="14.4">
+    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
       <c r="C990" s="6"/>
@@ -30653,7 +30654,7 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991" spans="1:27" ht="14.4">
+    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
       <c r="C991" s="6"/>
@@ -30682,7 +30683,7 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
     </row>
-    <row r="992" spans="1:27" ht="14.4">
+    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
       <c r="C992" s="6"/>
@@ -30711,7 +30712,7 @@
       <c r="Z992" s="4"/>
       <c r="AA992" s="4"/>
     </row>
-    <row r="993" spans="1:27" ht="14.4">
+    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
       <c r="C993" s="6"/>
@@ -30740,7 +30741,7 @@
       <c r="Z993" s="4"/>
       <c r="AA993" s="4"/>
     </row>
-    <row r="994" spans="1:27" ht="14.4">
+    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
       <c r="C994" s="6"/>
@@ -30769,7 +30770,7 @@
       <c r="Z994" s="4"/>
       <c r="AA994" s="4"/>
     </row>
-    <row r="995" spans="1:27" ht="14.4">
+    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
       <c r="C995" s="6"/>
@@ -30798,7 +30799,7 @@
       <c r="Z995" s="4"/>
       <c r="AA995" s="4"/>
     </row>
-    <row r="996" spans="1:27" ht="14.4">
+    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
       <c r="C996" s="6"/>
@@ -30827,7 +30828,7 @@
       <c r="Z996" s="4"/>
       <c r="AA996" s="4"/>
     </row>
-    <row r="997" spans="1:27" ht="14.4">
+    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
       <c r="C997" s="6"/>
@@ -30856,7 +30857,7 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
-    <row r="998" spans="1:27" ht="14.4">
+    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
       <c r="C998" s="6"/>
@@ -30885,7 +30886,7 @@
       <c r="Z998" s="4"/>
       <c r="AA998" s="4"/>
     </row>
-    <row r="999" spans="1:27" ht="14.4">
+    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
       <c r="C999" s="6"/>
@@ -30914,7 +30915,7 @@
       <c r="Z999" s="4"/>
       <c r="AA999" s="4"/>
     </row>
-    <row r="1000" spans="1:27" ht="14.4">
+    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="6"/>
@@ -30943,7 +30944,7 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
-    <row r="1001" spans="1:27" ht="14.4">
+    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1001" s="6"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="6"/>
@@ -30972,7 +30973,7 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="14.4">
+    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1002" s="6"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="6"/>
@@ -31001,7 +31002,7 @@
       <c r="Z1002" s="4"/>
       <c r="AA1002" s="4"/>
     </row>
-    <row r="1003" spans="1:27" ht="14.4">
+    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1003" s="6"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="6"/>
@@ -31030,7 +31031,7 @@
       <c r="Z1003" s="4"/>
       <c r="AA1003" s="4"/>
     </row>
-    <row r="1004" spans="1:27" ht="14.4">
+    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1004" s="6"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="6"/>
@@ -31059,7 +31060,7 @@
       <c r="Z1004" s="4"/>
       <c r="AA1004" s="4"/>
     </row>
-    <row r="1005" spans="1:27" ht="14.4">
+    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1005" s="6"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="6"/>
@@ -31088,7 +31089,7 @@
       <c r="Z1005" s="4"/>
       <c r="AA1005" s="4"/>
     </row>
-    <row r="1006" spans="1:27" ht="14.4">
+    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1006" s="6"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="6"/>
@@ -31117,7 +31118,7 @@
       <c r="Z1006" s="4"/>
       <c r="AA1006" s="4"/>
     </row>
-    <row r="1007" spans="1:27" ht="14.4">
+    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1007" s="6"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="6"/>
@@ -31146,7 +31147,7 @@
       <c r="Z1007" s="4"/>
       <c r="AA1007" s="4"/>
     </row>
-    <row r="1008" spans="1:27" ht="14.4">
+    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1008" s="6"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="6"/>
@@ -31175,7 +31176,7 @@
       <c r="Z1008" s="4"/>
       <c r="AA1008" s="4"/>
     </row>
-    <row r="1009" spans="1:27" ht="14.4">
+    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1009" s="6"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="6"/>
@@ -31204,7 +31205,7 @@
       <c r="Z1009" s="4"/>
       <c r="AA1009" s="4"/>
     </row>
-    <row r="1010" spans="1:27" ht="14.4">
+    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1010" s="6"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="6"/>
@@ -31233,7 +31234,7 @@
       <c r="Z1010" s="4"/>
       <c r="AA1010" s="4"/>
     </row>
-    <row r="1011" spans="1:27" ht="14.4">
+    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1011" s="6"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="6"/>
@@ -31262,7 +31263,7 @@
       <c r="Z1011" s="4"/>
       <c r="AA1011" s="4"/>
     </row>
-    <row r="1012" spans="1:27" ht="14.4">
+    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1012" s="6"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="6"/>
@@ -31291,7 +31292,7 @@
       <c r="Z1012" s="4"/>
       <c r="AA1012" s="4"/>
     </row>
-    <row r="1013" spans="1:27" ht="14.4">
+    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1013" s="6"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="6"/>
@@ -31320,7 +31321,7 @@
       <c r="Z1013" s="4"/>
       <c r="AA1013" s="4"/>
     </row>
-    <row r="1014" spans="1:27" ht="14.4">
+    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1014" s="6"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="6"/>
@@ -31349,7 +31350,7 @@
       <c r="Z1014" s="4"/>
       <c r="AA1014" s="4"/>
     </row>
-    <row r="1015" spans="1:27" ht="14.4">
+    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1015" s="6"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="6"/>
@@ -31378,7 +31379,7 @@
       <c r="Z1015" s="4"/>
       <c r="AA1015" s="4"/>
     </row>
-    <row r="1016" spans="1:27" ht="14.4">
+    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1016" s="6"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="6"/>
@@ -31407,7 +31408,7 @@
       <c r="Z1016" s="4"/>
       <c r="AA1016" s="4"/>
     </row>
-    <row r="1017" spans="1:27" ht="14.4">
+    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1017" s="6"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="6"/>
@@ -31436,7 +31437,7 @@
       <c r="Z1017" s="4"/>
       <c r="AA1017" s="4"/>
     </row>
-    <row r="1018" spans="1:27" ht="14.4">
+    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1018" s="6"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="6"/>
@@ -31465,7 +31466,7 @@
       <c r="Z1018" s="4"/>
       <c r="AA1018" s="4"/>
     </row>
-    <row r="1019" spans="1:27" ht="14.4">
+    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1019" s="6"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="6"/>
@@ -31494,7 +31495,7 @@
       <c r="Z1019" s="4"/>
       <c r="AA1019" s="4"/>
     </row>
-    <row r="1020" spans="1:27" ht="14.4">
+    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1020" s="6"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="6"/>
@@ -31523,7 +31524,7 @@
       <c r="Z1020" s="4"/>
       <c r="AA1020" s="4"/>
     </row>
-    <row r="1021" spans="1:27" ht="14.4">
+    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1021" s="6"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="6"/>
@@ -31552,7 +31553,7 @@
       <c r="Z1021" s="4"/>
       <c r="AA1021" s="4"/>
     </row>
-    <row r="1022" spans="1:27" ht="14.4">
+    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1022" s="6"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="6"/>
@@ -31581,7 +31582,7 @@
       <c r="Z1022" s="4"/>
       <c r="AA1022" s="4"/>
     </row>
-    <row r="1023" spans="1:27" ht="14.4">
+    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1023" s="6"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="6"/>
@@ -31610,7 +31611,7 @@
       <c r="Z1023" s="4"/>
       <c r="AA1023" s="4"/>
     </row>
-    <row r="1024" spans="1:27" ht="14.4">
+    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1024" s="6"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="6"/>
@@ -31639,7 +31640,7 @@
       <c r="Z1024" s="4"/>
       <c r="AA1024" s="4"/>
     </row>
-    <row r="1025" spans="1:27" ht="14.4">
+    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1025" s="6"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="6"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599E9CF6-4DBE-496C-8721-E96912B73C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8376157-47EC-43AA-A5D6-4F24C838F7D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
   <si>
     <t>release</t>
   </si>
@@ -175,158 +175,13 @@
     <t>03_T2_22_create_components_SLE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_algorithms_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
     <t>just the dates when persons turn positive for each algorithm if any</t>
   </si>
   <si>
     <t>03_T2_30_create_algorithms</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_components_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_SAP1 D3_components_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_algorithms_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
     <t>only for women in the study at 31 december 2019 and in the population since 5 or 10 years: all 5 algorithms calculated with multiple look back periods</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_components_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_SAP1 D3_components_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_period_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
   </si>
   <si>
     <t>aggregated prevalence of all the MS algorithms computed with methods 'period prevalence'</t>
@@ -335,56 +190,7 @@
     <t>03_T3_40_compute_period_prevalence_MS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>D3_algorithms_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <t>D4_prevalence_period_OUTCOME_summary_levels</t>
-  </si>
-  <si>
     <t>g_export</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_persontime_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
   </si>
   <si>
     <t>Yearly prevalence of all the MS algorithms computed with methods 'persontime prevalence'</t>
@@ -393,198 +199,13 @@
     <t>03_T3_41_compute_persontime_prevalence_MS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>D3_algorithms_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <t>D4_prevalence_persontime_OUTCOME_summary_level</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_average_point_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
     <t>montly aggregated prevalence of all the MS algorithms computed with methods 'point prevalence'</t>
   </si>
   <si>
     <t>03_T3_42_compute_monthly_point_prevalence_MS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>D3_algorithms_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <t>D4_prevalence_average_point_OUTCOME_summary_levels</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
-    <t>aggregate D3_algorithms_multiple_lookback_OUTCOME per dimensions</t>
-  </si>
-  <si>
     <t>03_T3_50_point_prevalence_multiple_lookback</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_algorithms_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>summary_level</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_algorithms_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D5_N_women_and_ranges_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
   </si>
   <si>
     <t>values needed for Template 1 of the SAP: for each component N of women median time in study population and IQR (Years) and median and IQR age at time of first criteria</t>
@@ -593,117 +214,7 @@
     <t>04_T4_10_create_N_women_and_ranges_MS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D3_components_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_SAP1 D3_study_population_SAP1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D5_N_women_and_ranges_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_masked</t>
-    </r>
-  </si>
-  <si>
-    <t>D5_N_women_and_ranges_OUTCOME with masked counts</t>
-  </si>
-  <si>
     <t>05_T5_10_censor_small_count</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Flowchart_exclusion_criteria D5_meaning_occurences D4_prevalence_aggregated_all_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D5_N_women_and_ranges_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
   </si>
   <si>
     <t>Flowchart_exclusion_criteria_masked</t>
@@ -712,182 +223,19 @@
     <t>Flowchart_exclusion_criteria with masked counts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Flowchart_exclusion_criteria D5_meaning_occurences D4_prevalence_aggregated_all_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D5_N_women_and_ranges_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
     <t>D5_meaning_occurences_masked</t>
   </si>
   <si>
     <t>D5_meaning_occurences with masked counts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Flowchart_exclusion_criteria D5_meaning_occurences D4_prevalence_aggregated_all_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> D5_N_women_and_ranges_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-  </si>
-  <si>
     <t>not included yet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_aggregated_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>selected</t>
-    </r>
   </si>
   <si>
     <t>apply the Cube format to aggregated prevalence of all the MS algorithms in all the study periods and with all the methods</t>
   </si>
   <si>
     <t>06_T3_10_remove_small_counts</t>
-  </si>
-  <si>
-    <t>D4_prevalence_aggregated_all_OUTCOME D4_prevalence_aggregated_multiple_lookback_OUTCOME</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D4_prevalence_aggregated_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_selected</t>
-    </r>
   </si>
   <si>
     <t>D3_SAP1_MS-COHORT</t>
@@ -992,8 +340,11 @@
     <t>slug</t>
   </si>
   <si>
+    <t>08_T4_30_create_prevalence_MS_in_pregnancy_cohort</t>
+  </si>
+  <si>
     <r>
-      <t>D3_components_</t>
+      <t>D3_algorithms_</t>
     </r>
     <r>
       <rPr>
@@ -1002,40 +353,78 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>OUTCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>_SAP1</t>
+      <t>MS</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>D3_components_multiple_lookback_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>OUTCOME</t>
-    </r>
+    <t>D3_components_MS_SAP1</t>
   </si>
   <si>
-    <t>08_T4_30_create_prevalence_MS_in_pregnancy_cohort</t>
+    <t>D3_components_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>D3_components_MS_SAP1 D3_components_multiple_lookback_MS D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>D3_algorithms_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_period_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_period_MS_summary_levels</t>
+  </si>
+  <si>
+    <t>D4_prevalence_persontime_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_persontime_MS_summary_level</t>
+  </si>
+  <si>
+    <t>D4_prevalence_average_point_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_average_point_MS_summary_levels</t>
+  </si>
+  <si>
+    <t>D4_prevalence_aggregated_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>aggregate D3_algorithms_multiple_lookback_MS per dimensions</t>
+  </si>
+  <si>
+    <t>D4_prevalence_aggregated_multiple_lookback_MS_summary_level</t>
+  </si>
+  <si>
+    <t>D5_N_women_and_ranges_MS</t>
+  </si>
+  <si>
+    <t>D3_components_MS_SAP1 D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>D5_N_women_and_ranges_MS_masked</t>
+  </si>
+  <si>
+    <t>D5_N_women_and_ranges_MS with masked counts</t>
+  </si>
+  <si>
+    <t>Flowchart_exclusion_criteria D5_meaning_occurences D4_prevalence_aggregated_all_MS D4_prevalence_aggregated_multiple_lookback_MS D5_N_women_and_ranges_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_aggregated_MS_selected</t>
+  </si>
+  <si>
+    <t>D4_prevalence_aggregated_all_MS D4_prevalence_aggregated_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>D4_prevalence_aggregated_multiple_lookback_MS_selected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1079,23 +468,6 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1234,12 +606,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1461,10 +833,10 @@
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1507,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -2004,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -2043,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -2082,16 +1454,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="9" t="s">
@@ -2123,16 +1495,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="9" t="s">
@@ -2164,16 +1536,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="9" t="s">
@@ -2205,16 +1577,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="4"/>
       <c r="G19" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3"/>
@@ -2242,16 +1614,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -2283,16 +1655,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="3"/>
@@ -2320,16 +1692,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="9" t="s">
@@ -2361,16 +1733,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="3"/>
@@ -2398,16 +1770,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -2439,20 +1811,20 @@
         <v>9</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="4"/>
@@ -2480,16 +1852,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -2521,20 +1893,20 @@
         <v>9</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
@@ -2562,20 +1934,20 @@
         <v>9</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -2603,20 +1975,20 @@
         <v>9</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -2641,19 +2013,19 @@
     </row>
     <row r="30" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9"/>
@@ -2680,19 +2052,19 @@
     </row>
     <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="9"/>
@@ -2719,19 +2091,19 @@
     </row>
     <row r="32" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2758,25 +2130,25 @@
     </row>
     <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
       <c r="I33" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2799,25 +2171,25 @@
     </row>
     <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
       <c r="I34" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2840,25 +2212,25 @@
     </row>
     <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
       <c r="I35" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2881,25 +2253,25 @@
     </row>
     <row r="36" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
       <c r="I36" s="3" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2922,19 +2294,19 @@
     </row>
     <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2961,25 +2333,25 @@
     </row>
     <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
       <c r="I38" s="3" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3002,25 +2374,25 @@
     </row>
     <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
       <c r="I39" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3043,21 +2415,21 @@
     </row>
     <row r="40" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="3"/>
@@ -3082,25 +2454,25 @@
     </row>
     <row r="41" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3123,25 +2495,25 @@
     </row>
     <row r="42" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8376157-47EC-43AA-A5D6-4F24C838F7D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
   <si>
     <t>release</t>
   </si>
@@ -325,12 +324,6 @@
     <t>contains D3_DU_MS-PREGNANCY-COHORT plus pregnancies from D3_DU_MS-PREGNANCY-COHORT, the latter matched 5-1 to the former, and being without MS during the pregnancy period of the matched MS pregnancy</t>
   </si>
   <si>
-    <t>08_T4_20_match</t>
-  </si>
-  <si>
-    <t>D3_DU_matching_diagnostic</t>
-  </si>
-  <si>
     <t>contains the success rate of matching (to be refined after the matching function is finalised), per relevant covariates (including quality of pregnancy)</t>
   </si>
   <si>
@@ -419,12 +412,18 @@
   <si>
     <t>D4_prevalence_aggregated_multiple_lookback_MS_selected</t>
   </si>
+  <si>
+    <t>09_T4_20_match</t>
+  </si>
+  <si>
+    <t>D5_DU_matching_diagnostic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -614,7 +613,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,31 +825,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -899,7 +898,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -938,7 +937,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -977,7 +976,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1015,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1054,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1093,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1132,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1171,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1212,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1251,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1292,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1371,12 +1370,12 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -1410,12 +1409,12 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -1449,12 +1448,12 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>51</v>
@@ -1463,7 +1462,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="9" t="s">
@@ -1490,12 +1489,12 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>53</v>
@@ -1504,7 +1503,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="9" t="s">
@@ -1531,12 +1530,12 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>54</v>
@@ -1572,18 +1571,20 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="9" t="s">
         <v>56</v>
@@ -1609,12 +1610,12 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>57</v>
@@ -1650,18 +1651,20 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
         <v>56</v>
@@ -1687,12 +1690,12 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>59</v>
@@ -1728,18 +1731,20 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
         <v>56</v>
@@ -1765,21 +1770,21 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1806,21 +1811,21 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
@@ -1847,12 +1852,12 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>62</v>
@@ -1861,7 +1866,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -1888,21 +1893,21 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
@@ -1929,7 +1934,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="72">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -1943,7 +1948,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -1970,7 +1975,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="72">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2011,12 +2016,12 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="57.6">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>70</v>
@@ -2025,7 +2030,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9"/>
@@ -2050,12 +2055,12 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="57.6">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>70</v>
@@ -2064,7 +2069,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="9"/>
@@ -2089,7 +2094,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="43.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -2128,7 +2133,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="57.6">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -2169,7 +2174,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="43.2">
       <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2215,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="28.8">
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2256,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="72">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2292,7 +2297,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="28.8">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -2331,7 +2336,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="28.8">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -2372,7 +2377,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="43.2">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2413,7 +2418,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="72">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -2424,9 +2429,11 @@
         <v>98</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
         <v>56</v>
@@ -2452,7 +2459,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="86.4">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>85</v>
@@ -2493,18 +2500,18 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="72">
       <c r="A42" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>85</v>
@@ -2513,7 +2520,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2534,7 +2541,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="14.4">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -2563,7 +2570,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="14.4">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="6"/>
@@ -2592,7 +2599,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="14.4">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -2621,7 +2628,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="14.4">
       <c r="A46" s="5"/>
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
@@ -2650,7 +2657,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="14.4">
       <c r="A47" s="5"/>
       <c r="B47" s="3"/>
       <c r="C47" s="6"/>
@@ -2679,7 +2686,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="14.4">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
@@ -2708,7 +2715,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="14.4">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
@@ -2737,7 +2744,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="14.4">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
@@ -2766,7 +2773,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="14.4">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
@@ -2795,7 +2802,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="14.4">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
       <c r="C52" s="6"/>
@@ -2824,7 +2831,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="14.4">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -2853,7 +2860,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="14.4">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
       <c r="C54" s="6"/>
@@ -2882,7 +2889,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="14.4">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -2911,7 +2918,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="14.4">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
@@ -2940,7 +2947,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="14.4">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
@@ -2969,7 +2976,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="14.4">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
@@ -2998,7 +3005,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="14.4">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
@@ -3027,7 +3034,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="14.4">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="6"/>
@@ -3056,7 +3063,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="14.4">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
@@ -3085,7 +3092,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="14.4">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
@@ -3114,7 +3121,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="14.4">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
@@ -3143,7 +3150,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="14.4">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
@@ -3172,7 +3179,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="14.4">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
@@ -3201,7 +3208,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="14.4">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
       <c r="C66" s="6"/>
@@ -3230,7 +3237,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="14.4">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
@@ -3259,7 +3266,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="14.4">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
@@ -3288,7 +3295,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="14.4">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
@@ -3317,7 +3324,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="14.4">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
       <c r="C70" s="6"/>
@@ -3346,7 +3353,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="14.4">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
@@ -3375,7 +3382,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="14.4">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="6"/>
@@ -3404,7 +3411,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="14.4">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="6"/>
@@ -3433,7 +3440,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="14.4">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="6"/>
@@ -3462,7 +3469,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="14.4">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6"/>
@@ -3491,7 +3498,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="14.4">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="6"/>
@@ -3520,7 +3527,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="14.4">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6"/>
@@ -3549,7 +3556,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="14.4">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="6"/>
@@ -3578,7 +3585,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="14.4">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="6"/>
@@ -3607,7 +3614,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="14.4">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
@@ -3636,7 +3643,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="14.4">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="6"/>
@@ -3665,7 +3672,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="14.4">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="6"/>
@@ -3694,7 +3701,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="14.4">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="6"/>
@@ -3723,7 +3730,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="14.4">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="6"/>
@@ -3752,7 +3759,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="14.4">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="6"/>
@@ -3781,7 +3788,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="14.4">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="6"/>
@@ -3810,7 +3817,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="14.4">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="6"/>
@@ -3839,7 +3846,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="14.4">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="6"/>
@@ -3868,7 +3875,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="14.4">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="6"/>
@@ -3897,7 +3904,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="14.4">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="6"/>
@@ -3926,7 +3933,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="14.4">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="6"/>
@@ -3955,7 +3962,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="14.4">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6"/>
@@ -3984,7 +3991,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="14.4">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="6"/>
@@ -4013,7 +4020,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="14.4">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="6"/>
@@ -4042,7 +4049,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="14.4">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="6"/>
@@ -4071,7 +4078,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="14.4">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
@@ -4100,7 +4107,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="14.4">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="6"/>
@@ -4129,7 +4136,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="14.4">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="6"/>
@@ -4158,7 +4165,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="14.4">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="6"/>
@@ -4187,7 +4194,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="14.4">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="6"/>
@@ -4216,7 +4223,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="14.4">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="6"/>
@@ -4245,7 +4252,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="14.4">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
@@ -4274,7 +4281,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="14.4">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
@@ -4303,7 +4310,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="14.4">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="6"/>
@@ -4332,7 +4339,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="14.4">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
@@ -4361,7 +4368,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="14.4">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="6"/>
@@ -4390,7 +4397,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="14.4">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="6"/>
@@ -4419,7 +4426,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="14.4">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="6"/>
@@ -4448,7 +4455,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="14.4">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="6"/>
@@ -4477,7 +4484,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="14.4">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="6"/>
@@ -4506,7 +4513,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="14.4">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="6"/>
@@ -4535,7 +4542,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="14.4">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
@@ -4564,7 +4571,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="14.4">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="6"/>
@@ -4593,7 +4600,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="14.4">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="6"/>
@@ -4622,7 +4629,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="14.4">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="6"/>
@@ -4651,7 +4658,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="14.4">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
@@ -4680,7 +4687,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="14.4">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="6"/>
@@ -4709,7 +4716,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="14.4">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="6"/>
@@ -4738,7 +4745,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="14.4">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="6"/>
@@ -4767,7 +4774,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="14.4">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="6"/>
@@ -4796,7 +4803,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="14.4">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="6"/>
@@ -4825,7 +4832,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="14.4">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="6"/>
@@ -4854,7 +4861,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="14.4">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="6"/>
@@ -4883,7 +4890,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="14.4">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="6"/>
@@ -4912,7 +4919,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="14.4">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="6"/>
@@ -4941,7 +4948,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="14.4">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="6"/>
@@ -4970,7 +4977,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="14.4">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="6"/>
@@ -4999,7 +5006,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="14.4">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="6"/>
@@ -5028,7 +5035,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="14.4">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
@@ -5057,7 +5064,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="14.4">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="6"/>
@@ -5086,7 +5093,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="14.4">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="6"/>
@@ -5115,7 +5122,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="14.4">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="6"/>
@@ -5144,7 +5151,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="14.4">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="6"/>
@@ -5173,7 +5180,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="14.4">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="6"/>
@@ -5202,7 +5209,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="14.4">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="6"/>
@@ -5231,7 +5238,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="14.4">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="6"/>
@@ -5260,7 +5267,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="14.4">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="6"/>
@@ -5289,7 +5296,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="14.4">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="6"/>
@@ -5318,7 +5325,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="14.4">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="6"/>
@@ -5347,7 +5354,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="14.4">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="6"/>
@@ -5376,7 +5383,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="14.4">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="6"/>
@@ -5405,7 +5412,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="14.4">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
@@ -5434,7 +5441,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="14.4">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="6"/>
@@ -5463,7 +5470,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="14.4">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="6"/>
@@ -5492,7 +5499,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="14.4">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="6"/>
@@ -5521,7 +5528,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="14.4">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="6"/>
@@ -5550,7 +5557,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="14.4">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="6"/>
@@ -5579,7 +5586,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="14.4">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="6"/>
@@ -5608,7 +5615,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="14.4">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="6"/>
@@ -5637,7 +5644,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="14.4">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="6"/>
@@ -5666,7 +5673,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="14.4">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="6"/>
@@ -5695,7 +5702,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="14.4">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="6"/>
@@ -5724,7 +5731,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="14.4">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="6"/>
@@ -5753,7 +5760,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="14.4">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="6"/>
@@ -5782,7 +5789,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="14.4">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="6"/>
@@ -5811,7 +5818,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="14.4">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="6"/>
@@ -5840,7 +5847,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="14.4">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="6"/>
@@ -5869,7 +5876,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="14.4">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="6"/>
@@ -5898,7 +5905,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="14.4">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
@@ -5927,7 +5934,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="14.4">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="6"/>
@@ -5956,7 +5963,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="14.4">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
@@ -5985,7 +5992,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="14.4">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="6"/>
@@ -6014,7 +6021,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="14.4">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
@@ -6043,7 +6050,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="14.4">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="6"/>
@@ -6072,7 +6079,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="14.4">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="6"/>
@@ -6101,7 +6108,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="14.4">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="6"/>
@@ -6130,7 +6137,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="14.4">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="6"/>
@@ -6159,7 +6166,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="14.4">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="6"/>
@@ -6188,7 +6195,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="14.4">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="6"/>
@@ -6217,7 +6224,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="14.4">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="6"/>
@@ -6246,7 +6253,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="14.4">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="6"/>
@@ -6275,7 +6282,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="14.4">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="6"/>
@@ -6304,7 +6311,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="14.4">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="6"/>
@@ -6333,7 +6340,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="14.4">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="6"/>
@@ -6362,7 +6369,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="14.4">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="6"/>
@@ -6391,7 +6398,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="14.4">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
@@ -6420,7 +6427,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" ht="14.4">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="6"/>
@@ -6449,7 +6456,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="14.4">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="6"/>
@@ -6478,7 +6485,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="14.4">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="6"/>
@@ -6507,7 +6514,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="14.4">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="6"/>
@@ -6536,7 +6543,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="14.4">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="6"/>
@@ -6565,7 +6572,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="14.4">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="6"/>
@@ -6594,7 +6601,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="14.4">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="6"/>
@@ -6623,7 +6630,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="14.4">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
@@ -6652,7 +6659,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="14.4">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="6"/>
@@ -6681,7 +6688,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="14.4">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
@@ -6710,7 +6717,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="14.4">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="6"/>
@@ -6739,7 +6746,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="14.4">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
@@ -6768,7 +6775,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="14.4">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="6"/>
@@ -6797,7 +6804,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="14.4">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="6"/>
@@ -6826,7 +6833,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="14.4">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="6"/>
@@ -6855,7 +6862,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="14.4">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="6"/>
@@ -6884,7 +6891,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="14.4">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="6"/>
@@ -6913,7 +6920,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="14.4">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="6"/>
@@ -6942,7 +6949,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="14.4">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="6"/>
@@ -6971,7 +6978,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="14.4">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="6"/>
@@ -7000,7 +7007,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" ht="14.4">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="6"/>
@@ -7029,7 +7036,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="14.4">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="6"/>
@@ -7058,7 +7065,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="14.4">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="6"/>
@@ -7087,7 +7094,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="14.4">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="6"/>
@@ -7116,7 +7123,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="14.4">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="6"/>
@@ -7145,7 +7152,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="14.4">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="6"/>
@@ -7174,7 +7181,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="14.4">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="6"/>
@@ -7203,7 +7210,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="14.4">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="6"/>
@@ -7232,7 +7239,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="14.4">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="6"/>
@@ -7261,7 +7268,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="14.4">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="6"/>
@@ -7290,7 +7297,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" ht="14.4">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="6"/>
@@ -7319,7 +7326,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" ht="14.4">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="6"/>
@@ -7348,7 +7355,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="14.4">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="6"/>
@@ -7377,7 +7384,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="14.4">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="6"/>
@@ -7406,7 +7413,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" ht="14.4">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="6"/>
@@ -7435,7 +7442,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="14.4">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="6"/>
@@ -7464,7 +7471,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="14.4">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="6"/>
@@ -7493,7 +7500,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="14.4">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="6"/>
@@ -7522,7 +7529,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" ht="14.4">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="6"/>
@@ -7551,7 +7558,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="14.4">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="6"/>
@@ -7580,7 +7587,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="14.4">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="6"/>
@@ -7609,7 +7616,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="14.4">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="6"/>
@@ -7638,7 +7645,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" ht="14.4">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="6"/>
@@ -7667,7 +7674,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" ht="14.4">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="6"/>
@@ -7696,7 +7703,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="14.4">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="6"/>
@@ -7725,7 +7732,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="14.4">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="6"/>
@@ -7754,7 +7761,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="14.4">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="6"/>
@@ -7783,7 +7790,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="14.4">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="6"/>
@@ -7812,7 +7819,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="14.4">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="6"/>
@@ -7841,7 +7848,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" ht="14.4">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="6"/>
@@ -7870,7 +7877,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="14.4">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="6"/>
@@ -7899,7 +7906,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="14.4">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="6"/>
@@ -7928,7 +7935,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="14.4">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="6"/>
@@ -7957,7 +7964,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="14.4">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="6"/>
@@ -7986,7 +7993,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="14.4">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="6"/>
@@ -8015,7 +8022,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" ht="14.4">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="6"/>
@@ -8044,7 +8051,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="14.4">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="6"/>
@@ -8073,7 +8080,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="14.4">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="6"/>
@@ -8102,7 +8109,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="14.4">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="6"/>
@@ -8131,7 +8138,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" ht="14.4">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="6"/>
@@ -8160,7 +8167,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="14.4">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="6"/>
@@ -8189,7 +8196,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="14.4">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="6"/>
@@ -8218,7 +8225,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="14.4">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="6"/>
@@ -8247,7 +8254,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" ht="14.4">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="6"/>
@@ -8276,7 +8283,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="14.4">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="6"/>
@@ -8305,7 +8312,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="14.4">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="6"/>
@@ -8334,7 +8341,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="14.4">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="6"/>
@@ -8363,7 +8370,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="14.4">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="6"/>
@@ -8392,7 +8399,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="14.4">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="6"/>
@@ -8421,7 +8428,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="14.4">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="6"/>
@@ -8450,7 +8457,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="14.4">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="6"/>
@@ -8479,7 +8486,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="14.4">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="6"/>
@@ -8508,7 +8515,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="14.4">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="6"/>
@@ -8537,7 +8544,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="14.4">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="6"/>
@@ -8566,7 +8573,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="14.4">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="6"/>
@@ -8595,7 +8602,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="14.4">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="6"/>
@@ -8624,7 +8631,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="14.4">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="6"/>
@@ -8653,7 +8660,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="14.4">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="6"/>
@@ -8682,7 +8689,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="14.4">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="6"/>
@@ -8711,7 +8718,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="14.4">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="6"/>
@@ -8740,7 +8747,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="14.4">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="6"/>
@@ -8769,7 +8776,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="14.4">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="6"/>
@@ -8798,7 +8805,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="14.4">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="6"/>
@@ -8827,7 +8834,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="14.4">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="6"/>
@@ -8856,7 +8863,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="14.4">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="6"/>
@@ -8885,7 +8892,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="14.4">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="6"/>
@@ -8914,7 +8921,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="14.4">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="6"/>
@@ -8943,7 +8950,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="14.4">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="6"/>
@@ -8972,7 +8979,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="14.4">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="6"/>
@@ -9001,7 +9008,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="14.4">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="6"/>
@@ -9030,7 +9037,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="14.4">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="6"/>
@@ -9059,7 +9066,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="14.4">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="6"/>
@@ -9088,7 +9095,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="14.4">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="6"/>
@@ -9117,7 +9124,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="14.4">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="6"/>
@@ -9146,7 +9153,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="14.4">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="6"/>
@@ -9175,7 +9182,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="14.4">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="6"/>
@@ -9204,7 +9211,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="14.4">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="6"/>
@@ -9233,7 +9240,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="14.4">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="6"/>
@@ -9262,7 +9269,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="14.4">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="6"/>
@@ -9291,7 +9298,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="14.4">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="6"/>
@@ -9320,7 +9327,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="14.4">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="6"/>
@@ -9349,7 +9356,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="14.4">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="6"/>
@@ -9378,7 +9385,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="14.4">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="6"/>
@@ -9407,7 +9414,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="14.4">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="6"/>
@@ -9436,7 +9443,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="14.4">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="6"/>
@@ -9465,7 +9472,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="14.4">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="6"/>
@@ -9494,7 +9501,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="14.4">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="6"/>
@@ -9523,7 +9530,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="14.4">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="6"/>
@@ -9552,7 +9559,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="14.4">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="6"/>
@@ -9581,7 +9588,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="14.4">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="6"/>
@@ -9610,7 +9617,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="14.4">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="6"/>
@@ -9639,7 +9646,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="14.4">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="6"/>
@@ -9668,7 +9675,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="14.4">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="6"/>
@@ -9697,7 +9704,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="14.4">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="6"/>
@@ -9726,7 +9733,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="14.4">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="6"/>
@@ -9755,7 +9762,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="14.4">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="6"/>
@@ -9784,7 +9791,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="14.4">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="6"/>
@@ -9813,7 +9820,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="14.4">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="6"/>
@@ -9842,7 +9849,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="14.4">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="6"/>
@@ -9871,7 +9878,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="14.4">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="6"/>
@@ -9900,7 +9907,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="14.4">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="6"/>
@@ -9929,7 +9936,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="14.4">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="6"/>
@@ -9958,7 +9965,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="14.4">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="6"/>
@@ -9987,7 +9994,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="14.4">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="6"/>
@@ -10016,7 +10023,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="14.4">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="6"/>
@@ -10045,7 +10052,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="14.4">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="6"/>
@@ -10074,7 +10081,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="14.4">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="6"/>
@@ -10103,7 +10110,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="14.4">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="6"/>
@@ -10132,7 +10139,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="14.4">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="6"/>
@@ -10161,7 +10168,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="14.4">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="6"/>
@@ -10190,7 +10197,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="14.4">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="6"/>
@@ -10219,7 +10226,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="14.4">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="6"/>
@@ -10248,7 +10255,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="14.4">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="6"/>
@@ -10277,7 +10284,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="14.4">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="6"/>
@@ -10306,7 +10313,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="14.4">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="6"/>
@@ -10335,7 +10342,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="14.4">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="6"/>
@@ -10364,7 +10371,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="14.4">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="6"/>
@@ -10393,7 +10400,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="14.4">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="6"/>
@@ -10422,7 +10429,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="14.4">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="6"/>
@@ -10451,7 +10458,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="14.4">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="6"/>
@@ -10480,7 +10487,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="14.4">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="6"/>
@@ -10509,7 +10516,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="14.4">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="6"/>
@@ -10538,7 +10545,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="14.4">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="6"/>
@@ -10567,7 +10574,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="14.4">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="6"/>
@@ -10596,7 +10603,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="14.4">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="6"/>
@@ -10625,7 +10632,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="14.4">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="6"/>
@@ -10654,7 +10661,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="14.4">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="6"/>
@@ -10683,7 +10690,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="14.4">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="6"/>
@@ -10712,7 +10719,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="14.4">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="6"/>
@@ -10741,7 +10748,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="14.4">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="6"/>
@@ -10770,7 +10777,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="14.4">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="6"/>
@@ -10799,7 +10806,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="14.4">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="6"/>
@@ -10828,7 +10835,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="14.4">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="6"/>
@@ -10857,7 +10864,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="14.4">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="6"/>
@@ -10886,7 +10893,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="14.4">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="6"/>
@@ -10915,7 +10922,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="14.4">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="6"/>
@@ -10944,7 +10951,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="14.4">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="6"/>
@@ -10973,7 +10980,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="14.4">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="6"/>
@@ -11002,7 +11009,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="14.4">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="6"/>
@@ -11031,7 +11038,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="14.4">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="6"/>
@@ -11060,7 +11067,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="14.4">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="6"/>
@@ -11089,7 +11096,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="14.4">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="6"/>
@@ -11118,7 +11125,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="14.4">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="6"/>
@@ -11147,7 +11154,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="14.4">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="6"/>
@@ -11176,7 +11183,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="14.4">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="6"/>
@@ -11205,7 +11212,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="14.4">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="6"/>
@@ -11234,7 +11241,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="14.4">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="6"/>
@@ -11263,7 +11270,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="14.4">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="6"/>
@@ -11292,7 +11299,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="14.4">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="6"/>
@@ -11321,7 +11328,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="14.4">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="6"/>
@@ -11350,7 +11357,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="14.4">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="6"/>
@@ -11379,7 +11386,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="14.4">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="6"/>
@@ -11408,7 +11415,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="14.4">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="6"/>
@@ -11437,7 +11444,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="14.4">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="6"/>
@@ -11466,7 +11473,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="14.4">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="6"/>
@@ -11495,7 +11502,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="14.4">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="6"/>
@@ -11524,7 +11531,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="14.4">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="6"/>
@@ -11553,7 +11560,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="14.4">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="6"/>
@@ -11582,7 +11589,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="14.4">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="6"/>
@@ -11611,7 +11618,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="14.4">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="6"/>
@@ -11640,7 +11647,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="14.4">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="6"/>
@@ -11669,7 +11676,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="14.4">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="6"/>
@@ -11698,7 +11705,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="14.4">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="6"/>
@@ -11727,7 +11734,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="14.4">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="6"/>
@@ -11756,7 +11763,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="14.4">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="6"/>
@@ -11785,7 +11792,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="14.4">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="6"/>
@@ -11814,7 +11821,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="14.4">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="6"/>
@@ -11843,7 +11850,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="14.4">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="6"/>
@@ -11872,7 +11879,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="14.4">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="6"/>
@@ -11901,7 +11908,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="14.4">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="6"/>
@@ -11930,7 +11937,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="14.4">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="6"/>
@@ -11959,7 +11966,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="14.4">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="6"/>
@@ -11988,7 +11995,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="14.4">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="6"/>
@@ -12017,7 +12024,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="14.4">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="6"/>
@@ -12046,7 +12053,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="14.4">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="6"/>
@@ -12075,7 +12082,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="14.4">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="6"/>
@@ -12104,7 +12111,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="14.4">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="6"/>
@@ -12133,7 +12140,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="14.4">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="6"/>
@@ -12162,7 +12169,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="14.4">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="6"/>
@@ -12191,7 +12198,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="14.4">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="6"/>
@@ -12220,7 +12227,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="14.4">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="6"/>
@@ -12249,7 +12256,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="14.4">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="6"/>
@@ -12278,7 +12285,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="14.4">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="6"/>
@@ -12307,7 +12314,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="14.4">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="6"/>
@@ -12336,7 +12343,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="14.4">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="6"/>
@@ -12365,7 +12372,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="14.4">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="6"/>
@@ -12394,7 +12401,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="14.4">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="6"/>
@@ -12423,7 +12430,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="14.4">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="6"/>
@@ -12452,7 +12459,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="14.4">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="6"/>
@@ -12481,7 +12488,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="14.4">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="6"/>
@@ -12510,7 +12517,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="14.4">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="6"/>
@@ -12539,7 +12546,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="14.4">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="6"/>
@@ -12568,7 +12575,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="14.4">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="6"/>
@@ -12597,7 +12604,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="14.4">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="6"/>
@@ -12626,7 +12633,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="14.4">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="6"/>
@@ -12655,7 +12662,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="14.4">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="6"/>
@@ -12684,7 +12691,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="14.4">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="6"/>
@@ -12713,7 +12720,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="14.4">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="6"/>
@@ -12742,7 +12749,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="14.4">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="6"/>
@@ -12771,7 +12778,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="14.4">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="6"/>
@@ -12800,7 +12807,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="14.4">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="6"/>
@@ -12829,7 +12836,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="14.4">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="6"/>
@@ -12858,7 +12865,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="14.4">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="6"/>
@@ -12887,7 +12894,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="14.4">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="6"/>
@@ -12916,7 +12923,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="14.4">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="6"/>
@@ -12945,7 +12952,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="14.4">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="6"/>
@@ -12974,7 +12981,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="14.4">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="6"/>
@@ -13003,7 +13010,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="14.4">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="6"/>
@@ -13032,7 +13039,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="14.4">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="6"/>
@@ -13061,7 +13068,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="14.4">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="6"/>
@@ -13090,7 +13097,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="14.4">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="6"/>
@@ -13119,7 +13126,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="14.4">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="6"/>
@@ -13148,7 +13155,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="14.4">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="6"/>
@@ -13177,7 +13184,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="14.4">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="6"/>
@@ -13206,7 +13213,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="14.4">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="6"/>
@@ -13235,7 +13242,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="14.4">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="6"/>
@@ -13264,7 +13271,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="14.4">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="6"/>
@@ -13293,7 +13300,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="14.4">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="6"/>
@@ -13322,7 +13329,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="14.4">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="6"/>
@@ -13351,7 +13358,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="14.4">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="6"/>
@@ -13380,7 +13387,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="14.4">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="6"/>
@@ -13409,7 +13416,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="14.4">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="6"/>
@@ -13438,7 +13445,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="14.4">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="6"/>
@@ -13467,7 +13474,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="14.4">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="6"/>
@@ -13496,7 +13503,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="14.4">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="6"/>
@@ -13525,7 +13532,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="14.4">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="6"/>
@@ -13554,7 +13561,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="14.4">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="6"/>
@@ -13583,7 +13590,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="14.4">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="6"/>
@@ -13612,7 +13619,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="14.4">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="6"/>
@@ -13641,7 +13648,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="14.4">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="6"/>
@@ -13670,7 +13677,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="14.4">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="6"/>
@@ -13699,7 +13706,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="14.4">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="6"/>
@@ -13728,7 +13735,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="14.4">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="6"/>
@@ -13757,7 +13764,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="14.4">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="6"/>
@@ -13786,7 +13793,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="14.4">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="6"/>
@@ -13815,7 +13822,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="14.4">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="6"/>
@@ -13844,7 +13851,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="14.4">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="6"/>
@@ -13873,7 +13880,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="14.4">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="6"/>
@@ -13902,7 +13909,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="14.4">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="6"/>
@@ -13931,7 +13938,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="14.4">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="6"/>
@@ -13960,7 +13967,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="14.4">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="6"/>
@@ -13989,7 +13996,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="14.4">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="6"/>
@@ -14018,7 +14025,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="14.4">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="6"/>
@@ -14047,7 +14054,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="14.4">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="6"/>
@@ -14076,7 +14083,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="14.4">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="6"/>
@@ -14105,7 +14112,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="14.4">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="6"/>
@@ -14134,7 +14141,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="14.4">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="6"/>
@@ -14163,7 +14170,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="14.4">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="6"/>
@@ -14192,7 +14199,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="14.4">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="6"/>
@@ -14221,7 +14228,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="14.4">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="6"/>
@@ -14250,7 +14257,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="14.4">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="6"/>
@@ -14279,7 +14286,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="14.4">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="6"/>
@@ -14308,7 +14315,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="14.4">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="6"/>
@@ -14337,7 +14344,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="14.4">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="6"/>
@@ -14366,7 +14373,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="14.4">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="6"/>
@@ -14395,7 +14402,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="14.4">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="6"/>
@@ -14424,7 +14431,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="14.4">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="6"/>
@@ -14453,7 +14460,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="14.4">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="6"/>
@@ -14482,7 +14489,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="14.4">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="6"/>
@@ -14511,7 +14518,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="14.4">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="6"/>
@@ -14540,7 +14547,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="14.4">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="6"/>
@@ -14569,7 +14576,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="14.4">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="6"/>
@@ -14598,7 +14605,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="14.4">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="6"/>
@@ -14627,7 +14634,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="14.4">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="6"/>
@@ -14656,7 +14663,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="14.4">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="6"/>
@@ -14685,7 +14692,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="14.4">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="6"/>
@@ -14714,7 +14721,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="14.4">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="6"/>
@@ -14743,7 +14750,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="14.4">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="6"/>
@@ -14772,7 +14779,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
     </row>
-    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="14.4">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="6"/>
@@ -14801,7 +14808,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="14.4">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="6"/>
@@ -14830,7 +14837,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="14.4">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="6"/>
@@ -14859,7 +14866,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="14.4">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="6"/>
@@ -14888,7 +14895,7 @@
       <c r="Z468" s="4"/>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="14.4">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="6"/>
@@ -14917,7 +14924,7 @@
       <c r="Z469" s="4"/>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="14.4">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="6"/>
@@ -14946,7 +14953,7 @@
       <c r="Z470" s="4"/>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="14.4">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="6"/>
@@ -14975,7 +14982,7 @@
       <c r="Z471" s="4"/>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="14.4">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="6"/>
@@ -15004,7 +15011,7 @@
       <c r="Z472" s="4"/>
       <c r="AA472" s="4"/>
     </row>
-    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="14.4">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="6"/>
@@ -15033,7 +15040,7 @@
       <c r="Z473" s="4"/>
       <c r="AA473" s="4"/>
     </row>
-    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="14.4">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="6"/>
@@ -15062,7 +15069,7 @@
       <c r="Z474" s="4"/>
       <c r="AA474" s="4"/>
     </row>
-    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="14.4">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="6"/>
@@ -15091,7 +15098,7 @@
       <c r="Z475" s="4"/>
       <c r="AA475" s="4"/>
     </row>
-    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="14.4">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="6"/>
@@ -15120,7 +15127,7 @@
       <c r="Z476" s="4"/>
       <c r="AA476" s="4"/>
     </row>
-    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="14.4">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="6"/>
@@ -15149,7 +15156,7 @@
       <c r="Z477" s="4"/>
       <c r="AA477" s="4"/>
     </row>
-    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="14.4">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="6"/>
@@ -15178,7 +15185,7 @@
       <c r="Z478" s="4"/>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="14.4">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="6"/>
@@ -15207,7 +15214,7 @@
       <c r="Z479" s="4"/>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="14.4">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="6"/>
@@ -15236,7 +15243,7 @@
       <c r="Z480" s="4"/>
       <c r="AA480" s="4"/>
     </row>
-    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="14.4">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="6"/>
@@ -15265,7 +15272,7 @@
       <c r="Z481" s="4"/>
       <c r="AA481" s="4"/>
     </row>
-    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="14.4">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="6"/>
@@ -15294,7 +15301,7 @@
       <c r="Z482" s="4"/>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="14.4">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="6"/>
@@ -15323,7 +15330,7 @@
       <c r="Z483" s="4"/>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="14.4">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="6"/>
@@ -15352,7 +15359,7 @@
       <c r="Z484" s="4"/>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="14.4">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="6"/>
@@ -15381,7 +15388,7 @@
       <c r="Z485" s="4"/>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="14.4">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="6"/>
@@ -15410,7 +15417,7 @@
       <c r="Z486" s="4"/>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="14.4">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="6"/>
@@ -15439,7 +15446,7 @@
       <c r="Z487" s="4"/>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="14.4">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="6"/>
@@ -15468,7 +15475,7 @@
       <c r="Z488" s="4"/>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="14.4">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="6"/>
@@ -15497,7 +15504,7 @@
       <c r="Z489" s="4"/>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="14.4">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="6"/>
@@ -15526,7 +15533,7 @@
       <c r="Z490" s="4"/>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="14.4">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="6"/>
@@ -15555,7 +15562,7 @@
       <c r="Z491" s="4"/>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="14.4">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="6"/>
@@ -15584,7 +15591,7 @@
       <c r="Z492" s="4"/>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="14.4">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="6"/>
@@ -15613,7 +15620,7 @@
       <c r="Z493" s="4"/>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="14.4">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="6"/>
@@ -15642,7 +15649,7 @@
       <c r="Z494" s="4"/>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="14.4">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="6"/>
@@ -15671,7 +15678,7 @@
       <c r="Z495" s="4"/>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="14.4">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="6"/>
@@ -15700,7 +15707,7 @@
       <c r="Z496" s="4"/>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="14.4">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="6"/>
@@ -15729,7 +15736,7 @@
       <c r="Z497" s="4"/>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="14.4">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="6"/>
@@ -15758,7 +15765,7 @@
       <c r="Z498" s="4"/>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="14.4">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="6"/>
@@ -15787,7 +15794,7 @@
       <c r="Z499" s="4"/>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="14.4">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="6"/>
@@ -15816,7 +15823,7 @@
       <c r="Z500" s="4"/>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="14.4">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="6"/>
@@ -15845,7 +15852,7 @@
       <c r="Z501" s="4"/>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="14.4">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="6"/>
@@ -15874,7 +15881,7 @@
       <c r="Z502" s="4"/>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="14.4">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="6"/>
@@ -15903,7 +15910,7 @@
       <c r="Z503" s="4"/>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="14.4">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="6"/>
@@ -15932,7 +15939,7 @@
       <c r="Z504" s="4"/>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="14.4">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="6"/>
@@ -15961,7 +15968,7 @@
       <c r="Z505" s="4"/>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="14.4">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="6"/>
@@ -15990,7 +15997,7 @@
       <c r="Z506" s="4"/>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="14.4">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="6"/>
@@ -16019,7 +16026,7 @@
       <c r="Z507" s="4"/>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="14.4">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="6"/>
@@ -16048,7 +16055,7 @@
       <c r="Z508" s="4"/>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="14.4">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="6"/>
@@ -16077,7 +16084,7 @@
       <c r="Z509" s="4"/>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="14.4">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="6"/>
@@ -16106,7 +16113,7 @@
       <c r="Z510" s="4"/>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="14.4">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="6"/>
@@ -16135,7 +16142,7 @@
       <c r="Z511" s="4"/>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="14.4">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="6"/>
@@ -16164,7 +16171,7 @@
       <c r="Z512" s="4"/>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="14.4">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="6"/>
@@ -16193,7 +16200,7 @@
       <c r="Z513" s="4"/>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="14.4">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="6"/>
@@ -16222,7 +16229,7 @@
       <c r="Z514" s="4"/>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="14.4">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="6"/>
@@ -16251,7 +16258,7 @@
       <c r="Z515" s="4"/>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="14.4">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="6"/>
@@ -16280,7 +16287,7 @@
       <c r="Z516" s="4"/>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="14.4">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="6"/>
@@ -16309,7 +16316,7 @@
       <c r="Z517" s="4"/>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="14.4">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="6"/>
@@ -16338,7 +16345,7 @@
       <c r="Z518" s="4"/>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="14.4">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="6"/>
@@ -16367,7 +16374,7 @@
       <c r="Z519" s="4"/>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="14.4">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="6"/>
@@ -16396,7 +16403,7 @@
       <c r="Z520" s="4"/>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="14.4">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="6"/>
@@ -16425,7 +16432,7 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="14.4">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="6"/>
@@ -16454,7 +16461,7 @@
       <c r="Z522" s="4"/>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="14.4">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="6"/>
@@ -16483,7 +16490,7 @@
       <c r="Z523" s="4"/>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="14.4">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="6"/>
@@ -16512,7 +16519,7 @@
       <c r="Z524" s="4"/>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="14.4">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="6"/>
@@ -16541,7 +16548,7 @@
       <c r="Z525" s="4"/>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="14.4">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="6"/>
@@ -16570,7 +16577,7 @@
       <c r="Z526" s="4"/>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="14.4">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="6"/>
@@ -16599,7 +16606,7 @@
       <c r="Z527" s="4"/>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="14.4">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="6"/>
@@ -16628,7 +16635,7 @@
       <c r="Z528" s="4"/>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="14.4">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="6"/>
@@ -16657,7 +16664,7 @@
       <c r="Z529" s="4"/>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="14.4">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="6"/>
@@ -16686,7 +16693,7 @@
       <c r="Z530" s="4"/>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="14.4">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="6"/>
@@ -16715,7 +16722,7 @@
       <c r="Z531" s="4"/>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="14.4">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="6"/>
@@ -16744,7 +16751,7 @@
       <c r="Z532" s="4"/>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="14.4">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="6"/>
@@ -16773,7 +16780,7 @@
       <c r="Z533" s="4"/>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="14.4">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="6"/>
@@ -16802,7 +16809,7 @@
       <c r="Z534" s="4"/>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="14.4">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="6"/>
@@ -16831,7 +16838,7 @@
       <c r="Z535" s="4"/>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="14.4">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="6"/>
@@ -16860,7 +16867,7 @@
       <c r="Z536" s="4"/>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="14.4">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="6"/>
@@ -16889,7 +16896,7 @@
       <c r="Z537" s="4"/>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="14.4">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="6"/>
@@ -16918,7 +16925,7 @@
       <c r="Z538" s="4"/>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="14.4">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="6"/>
@@ -16947,7 +16954,7 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="14.4">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="6"/>
@@ -16976,7 +16983,7 @@
       <c r="Z540" s="4"/>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="14.4">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="6"/>
@@ -17005,7 +17012,7 @@
       <c r="Z541" s="4"/>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="14.4">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="6"/>
@@ -17034,7 +17041,7 @@
       <c r="Z542" s="4"/>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="14.4">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="6"/>
@@ -17063,7 +17070,7 @@
       <c r="Z543" s="4"/>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="14.4">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="6"/>
@@ -17092,7 +17099,7 @@
       <c r="Z544" s="4"/>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" ht="14.4">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="6"/>
@@ -17121,7 +17128,7 @@
       <c r="Z545" s="4"/>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="14.4">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="6"/>
@@ -17150,7 +17157,7 @@
       <c r="Z546" s="4"/>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="14.4">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="6"/>
@@ -17179,7 +17186,7 @@
       <c r="Z547" s="4"/>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="14.4">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="6"/>
@@ -17208,7 +17215,7 @@
       <c r="Z548" s="4"/>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="14.4">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="6"/>
@@ -17237,7 +17244,7 @@
       <c r="Z549" s="4"/>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="14.4">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="6"/>
@@ -17266,7 +17273,7 @@
       <c r="Z550" s="4"/>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="14.4">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="6"/>
@@ -17295,7 +17302,7 @@
       <c r="Z551" s="4"/>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" ht="14.4">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="6"/>
@@ -17324,7 +17331,7 @@
       <c r="Z552" s="4"/>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="14.4">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="6"/>
@@ -17353,7 +17360,7 @@
       <c r="Z553" s="4"/>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="14.4">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="6"/>
@@ -17382,7 +17389,7 @@
       <c r="Z554" s="4"/>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="14.4">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="6"/>
@@ -17411,7 +17418,7 @@
       <c r="Z555" s="4"/>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="14.4">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="6"/>
@@ -17440,7 +17447,7 @@
       <c r="Z556" s="4"/>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" ht="14.4">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="6"/>
@@ -17469,7 +17476,7 @@
       <c r="Z557" s="4"/>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="14.4">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="6"/>
@@ -17498,7 +17505,7 @@
       <c r="Z558" s="4"/>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="14.4">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="6"/>
@@ -17527,7 +17534,7 @@
       <c r="Z559" s="4"/>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="14.4">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="6"/>
@@ -17556,7 +17563,7 @@
       <c r="Z560" s="4"/>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" ht="14.4">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="6"/>
@@ -17585,7 +17592,7 @@
       <c r="Z561" s="4"/>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="14.4">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="6"/>
@@ -17614,7 +17621,7 @@
       <c r="Z562" s="4"/>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="14.4">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="6"/>
@@ -17643,7 +17650,7 @@
       <c r="Z563" s="4"/>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="14.4">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="6"/>
@@ -17672,7 +17679,7 @@
       <c r="Z564" s="4"/>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="14.4">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="6"/>
@@ -17701,7 +17708,7 @@
       <c r="Z565" s="4"/>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="14.4">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="6"/>
@@ -17730,7 +17737,7 @@
       <c r="Z566" s="4"/>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="14.4">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="6"/>
@@ -17759,7 +17766,7 @@
       <c r="Z567" s="4"/>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" ht="14.4">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="6"/>
@@ -17788,7 +17795,7 @@
       <c r="Z568" s="4"/>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="14.4">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="6"/>
@@ -17817,7 +17824,7 @@
       <c r="Z569" s="4"/>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" ht="14.4">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="6"/>
@@ -17846,7 +17853,7 @@
       <c r="Z570" s="4"/>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="14.4">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="6"/>
@@ -17875,7 +17882,7 @@
       <c r="Z571" s="4"/>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" ht="14.4">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="6"/>
@@ -17904,7 +17911,7 @@
       <c r="Z572" s="4"/>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="14.4">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="6"/>
@@ -17933,7 +17940,7 @@
       <c r="Z573" s="4"/>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="14.4">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="6"/>
@@ -17962,7 +17969,7 @@
       <c r="Z574" s="4"/>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" ht="14.4">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="6"/>
@@ -17991,7 +17998,7 @@
       <c r="Z575" s="4"/>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" ht="14.4">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="6"/>
@@ -18020,7 +18027,7 @@
       <c r="Z576" s="4"/>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="14.4">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="6"/>
@@ -18049,7 +18056,7 @@
       <c r="Z577" s="4"/>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="14.4">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="6"/>
@@ -18078,7 +18085,7 @@
       <c r="Z578" s="4"/>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" ht="14.4">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="6"/>
@@ -18107,7 +18114,7 @@
       <c r="Z579" s="4"/>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="14.4">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="6"/>
@@ -18136,7 +18143,7 @@
       <c r="Z580" s="4"/>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" ht="14.4">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="6"/>
@@ -18165,7 +18172,7 @@
       <c r="Z581" s="4"/>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="14.4">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="6"/>
@@ -18194,7 +18201,7 @@
       <c r="Z582" s="4"/>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="14.4">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="6"/>
@@ -18223,7 +18230,7 @@
       <c r="Z583" s="4"/>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="14.4">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="6"/>
@@ -18252,7 +18259,7 @@
       <c r="Z584" s="4"/>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" ht="14.4">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="6"/>
@@ -18281,7 +18288,7 @@
       <c r="Z585" s="4"/>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="14.4">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="6"/>
@@ -18310,7 +18317,7 @@
       <c r="Z586" s="4"/>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" ht="14.4">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="6"/>
@@ -18339,7 +18346,7 @@
       <c r="Z587" s="4"/>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="14.4">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="6"/>
@@ -18368,7 +18375,7 @@
       <c r="Z588" s="4"/>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="14.4">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="6"/>
@@ -18397,7 +18404,7 @@
       <c r="Z589" s="4"/>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" ht="14.4">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="6"/>
@@ -18426,7 +18433,7 @@
       <c r="Z590" s="4"/>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" ht="14.4">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="6"/>
@@ -18455,7 +18462,7 @@
       <c r="Z591" s="4"/>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" ht="14.4">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="6"/>
@@ -18484,7 +18491,7 @@
       <c r="Z592" s="4"/>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" ht="14.4">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="6"/>
@@ -18513,7 +18520,7 @@
       <c r="Z593" s="4"/>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="14.4">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="6"/>
@@ -18542,7 +18549,7 @@
       <c r="Z594" s="4"/>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="14.4">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="6"/>
@@ -18571,7 +18578,7 @@
       <c r="Z595" s="4"/>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="14.4">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="6"/>
@@ -18600,7 +18607,7 @@
       <c r="Z596" s="4"/>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="14.4">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="6"/>
@@ -18629,7 +18636,7 @@
       <c r="Z597" s="4"/>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="14.4">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="6"/>
@@ -18658,7 +18665,7 @@
       <c r="Z598" s="4"/>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" ht="14.4">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="6"/>
@@ -18687,7 +18694,7 @@
       <c r="Z599" s="4"/>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" ht="14.4">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="6"/>
@@ -18716,7 +18723,7 @@
       <c r="Z600" s="4"/>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" ht="14.4">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="6"/>
@@ -18745,7 +18752,7 @@
       <c r="Z601" s="4"/>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="14.4">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="6"/>
@@ -18774,7 +18781,7 @@
       <c r="Z602" s="4"/>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="14.4">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="6"/>
@@ -18803,7 +18810,7 @@
       <c r="Z603" s="4"/>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="14.4">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="6"/>
@@ -18832,7 +18839,7 @@
       <c r="Z604" s="4"/>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="14.4">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="6"/>
@@ -18861,7 +18868,7 @@
       <c r="Z605" s="4"/>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="14.4">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="6"/>
@@ -18890,7 +18897,7 @@
       <c r="Z606" s="4"/>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="14.4">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="6"/>
@@ -18919,7 +18926,7 @@
       <c r="Z607" s="4"/>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="14.4">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="6"/>
@@ -18948,7 +18955,7 @@
       <c r="Z608" s="4"/>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" ht="14.4">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="6"/>
@@ -18977,7 +18984,7 @@
       <c r="Z609" s="4"/>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="14.4">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="6"/>
@@ -19006,7 +19013,7 @@
       <c r="Z610" s="4"/>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" ht="14.4">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="6"/>
@@ -19035,7 +19042,7 @@
       <c r="Z611" s="4"/>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="14.4">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="6"/>
@@ -19064,7 +19071,7 @@
       <c r="Z612" s="4"/>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="14.4">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="6"/>
@@ -19093,7 +19100,7 @@
       <c r="Z613" s="4"/>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" ht="14.4">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="6"/>
@@ -19122,7 +19129,7 @@
       <c r="Z614" s="4"/>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="14.4">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="6"/>
@@ -19151,7 +19158,7 @@
       <c r="Z615" s="4"/>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" ht="14.4">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="6"/>
@@ -19180,7 +19187,7 @@
       <c r="Z616" s="4"/>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="14.4">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="6"/>
@@ -19209,7 +19216,7 @@
       <c r="Z617" s="4"/>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" ht="14.4">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="6"/>
@@ -19238,7 +19245,7 @@
       <c r="Z618" s="4"/>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="14.4">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="6"/>
@@ -19267,7 +19274,7 @@
       <c r="Z619" s="4"/>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="14.4">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="6"/>
@@ -19296,7 +19303,7 @@
       <c r="Z620" s="4"/>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="14.4">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="6"/>
@@ -19325,7 +19332,7 @@
       <c r="Z621" s="4"/>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="14.4">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="6"/>
@@ -19354,7 +19361,7 @@
       <c r="Z622" s="4"/>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="14.4">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="6"/>
@@ -19383,7 +19390,7 @@
       <c r="Z623" s="4"/>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" ht="14.4">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="6"/>
@@ -19412,7 +19419,7 @@
       <c r="Z624" s="4"/>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="14.4">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="6"/>
@@ -19441,7 +19448,7 @@
       <c r="Z625" s="4"/>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="14.4">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="6"/>
@@ -19470,7 +19477,7 @@
       <c r="Z626" s="4"/>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="14.4">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="6"/>
@@ -19499,7 +19506,7 @@
       <c r="Z627" s="4"/>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="14.4">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="6"/>
@@ -19528,7 +19535,7 @@
       <c r="Z628" s="4"/>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" ht="14.4">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="6"/>
@@ -19557,7 +19564,7 @@
       <c r="Z629" s="4"/>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="14.4">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="6"/>
@@ -19586,7 +19593,7 @@
       <c r="Z630" s="4"/>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="14.4">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="6"/>
@@ -19615,7 +19622,7 @@
       <c r="Z631" s="4"/>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="14.4">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="6"/>
@@ -19644,7 +19651,7 @@
       <c r="Z632" s="4"/>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="14.4">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="6"/>
@@ -19673,7 +19680,7 @@
       <c r="Z633" s="4"/>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="14.4">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="6"/>
@@ -19702,7 +19709,7 @@
       <c r="Z634" s="4"/>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="14.4">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="6"/>
@@ -19731,7 +19738,7 @@
       <c r="Z635" s="4"/>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" ht="14.4">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="6"/>
@@ -19760,7 +19767,7 @@
       <c r="Z636" s="4"/>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="14.4">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="6"/>
@@ -19789,7 +19796,7 @@
       <c r="Z637" s="4"/>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="14.4">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="6"/>
@@ -19818,7 +19825,7 @@
       <c r="Z638" s="4"/>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" ht="14.4">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="6"/>
@@ -19847,7 +19854,7 @@
       <c r="Z639" s="4"/>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="14.4">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="6"/>
@@ -19876,7 +19883,7 @@
       <c r="Z640" s="4"/>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" ht="14.4">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="6"/>
@@ -19905,7 +19912,7 @@
       <c r="Z641" s="4"/>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="14.4">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="6"/>
@@ -19934,7 +19941,7 @@
       <c r="Z642" s="4"/>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="14.4">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="6"/>
@@ -19963,7 +19970,7 @@
       <c r="Z643" s="4"/>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="14.4">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="6"/>
@@ -19992,7 +19999,7 @@
       <c r="Z644" s="4"/>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="14.4">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="6"/>
@@ -20021,7 +20028,7 @@
       <c r="Z645" s="4"/>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="14.4">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="6"/>
@@ -20050,7 +20057,7 @@
       <c r="Z646" s="4"/>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" ht="14.4">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="6"/>
@@ -20079,7 +20086,7 @@
       <c r="Z647" s="4"/>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" ht="14.4">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="6"/>
@@ -20108,7 +20115,7 @@
       <c r="Z648" s="4"/>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="14.4">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="6"/>
@@ -20137,7 +20144,7 @@
       <c r="Z649" s="4"/>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" ht="14.4">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="6"/>
@@ -20166,7 +20173,7 @@
       <c r="Z650" s="4"/>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="14.4">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="6"/>
@@ -20195,7 +20202,7 @@
       <c r="Z651" s="4"/>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="14.4">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="6"/>
@@ -20224,7 +20231,7 @@
       <c r="Z652" s="4"/>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="14.4">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="6"/>
@@ -20253,7 +20260,7 @@
       <c r="Z653" s="4"/>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" ht="14.4">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="6"/>
@@ -20282,7 +20289,7 @@
       <c r="Z654" s="4"/>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="14.4">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="6"/>
@@ -20311,7 +20318,7 @@
       <c r="Z655" s="4"/>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="14.4">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="6"/>
@@ -20340,7 +20347,7 @@
       <c r="Z656" s="4"/>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="14.4">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="6"/>
@@ -20369,7 +20376,7 @@
       <c r="Z657" s="4"/>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" ht="14.4">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="6"/>
@@ -20398,7 +20405,7 @@
       <c r="Z658" s="4"/>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="14.4">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="6"/>
@@ -20427,7 +20434,7 @@
       <c r="Z659" s="4"/>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="14.4">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="6"/>
@@ -20456,7 +20463,7 @@
       <c r="Z660" s="4"/>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="14.4">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="6"/>
@@ -20485,7 +20492,7 @@
       <c r="Z661" s="4"/>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="14.4">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="6"/>
@@ -20514,7 +20521,7 @@
       <c r="Z662" s="4"/>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="14.4">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="6"/>
@@ -20543,7 +20550,7 @@
       <c r="Z663" s="4"/>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="14.4">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="6"/>
@@ -20572,7 +20579,7 @@
       <c r="Z664" s="4"/>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="14.4">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="6"/>
@@ -20601,7 +20608,7 @@
       <c r="Z665" s="4"/>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" ht="14.4">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="6"/>
@@ -20630,7 +20637,7 @@
       <c r="Z666" s="4"/>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="14.4">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="6"/>
@@ -20659,7 +20666,7 @@
       <c r="Z667" s="4"/>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="14.4">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="6"/>
@@ -20688,7 +20695,7 @@
       <c r="Z668" s="4"/>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" ht="14.4">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="6"/>
@@ -20717,7 +20724,7 @@
       <c r="Z669" s="4"/>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" ht="14.4">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="6"/>
@@ -20746,7 +20753,7 @@
       <c r="Z670" s="4"/>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" ht="14.4">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="6"/>
@@ -20775,7 +20782,7 @@
       <c r="Z671" s="4"/>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="14.4">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="6"/>
@@ -20804,7 +20811,7 @@
       <c r="Z672" s="4"/>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="14.4">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="6"/>
@@ -20833,7 +20840,7 @@
       <c r="Z673" s="4"/>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="14.4">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="6"/>
@@ -20862,7 +20869,7 @@
       <c r="Z674" s="4"/>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="14.4">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="6"/>
@@ -20891,7 +20898,7 @@
       <c r="Z675" s="4"/>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" ht="14.4">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="6"/>
@@ -20920,7 +20927,7 @@
       <c r="Z676" s="4"/>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="14.4">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="6"/>
@@ -20949,7 +20956,7 @@
       <c r="Z677" s="4"/>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" ht="14.4">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="6"/>
@@ -20978,7 +20985,7 @@
       <c r="Z678" s="4"/>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="14.4">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="6"/>
@@ -21007,7 +21014,7 @@
       <c r="Z679" s="4"/>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="14.4">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="6"/>
@@ -21036,7 +21043,7 @@
       <c r="Z680" s="4"/>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="14.4">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="6"/>
@@ -21065,7 +21072,7 @@
       <c r="Z681" s="4"/>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="14.4">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="6"/>
@@ -21094,7 +21101,7 @@
       <c r="Z682" s="4"/>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="14.4">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="6"/>
@@ -21123,7 +21130,7 @@
       <c r="Z683" s="4"/>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="14.4">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="6"/>
@@ -21152,7 +21159,7 @@
       <c r="Z684" s="4"/>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" ht="14.4">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="6"/>
@@ -21181,7 +21188,7 @@
       <c r="Z685" s="4"/>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" ht="14.4">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="6"/>
@@ -21210,7 +21217,7 @@
       <c r="Z686" s="4"/>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="14.4">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="6"/>
@@ -21239,7 +21246,7 @@
       <c r="Z687" s="4"/>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="14.4">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="6"/>
@@ -21268,7 +21275,7 @@
       <c r="Z688" s="4"/>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" ht="14.4">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="6"/>
@@ -21297,7 +21304,7 @@
       <c r="Z689" s="4"/>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" ht="14.4">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="6"/>
@@ -21326,7 +21333,7 @@
       <c r="Z690" s="4"/>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" ht="14.4">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="6"/>
@@ -21355,7 +21362,7 @@
       <c r="Z691" s="4"/>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="14.4">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="6"/>
@@ -21384,7 +21391,7 @@
       <c r="Z692" s="4"/>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="14.4">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="6"/>
@@ -21413,7 +21420,7 @@
       <c r="Z693" s="4"/>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="14.4">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="6"/>
@@ -21442,7 +21449,7 @@
       <c r="Z694" s="4"/>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" ht="14.4">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="6"/>
@@ -21471,7 +21478,7 @@
       <c r="Z695" s="4"/>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="14.4">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="6"/>
@@ -21500,7 +21507,7 @@
       <c r="Z696" s="4"/>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="14.4">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="6"/>
@@ -21529,7 +21536,7 @@
       <c r="Z697" s="4"/>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="14.4">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="6"/>
@@ -21558,7 +21565,7 @@
       <c r="Z698" s="4"/>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="14.4">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="6"/>
@@ -21587,7 +21594,7 @@
       <c r="Z699" s="4"/>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" ht="14.4">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="6"/>
@@ -21616,7 +21623,7 @@
       <c r="Z700" s="4"/>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="14.4">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="6"/>
@@ -21645,7 +21652,7 @@
       <c r="Z701" s="4"/>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="14.4">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="6"/>
@@ -21674,7 +21681,7 @@
       <c r="Z702" s="4"/>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" ht="14.4">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="6"/>
@@ -21703,7 +21710,7 @@
       <c r="Z703" s="4"/>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="14.4">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="6"/>
@@ -21732,7 +21739,7 @@
       <c r="Z704" s="4"/>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="14.4">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="6"/>
@@ -21761,7 +21768,7 @@
       <c r="Z705" s="4"/>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="14.4">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="6"/>
@@ -21790,7 +21797,7 @@
       <c r="Z706" s="4"/>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="14.4">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="6"/>
@@ -21819,7 +21826,7 @@
       <c r="Z707" s="4"/>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="14.4">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="6"/>
@@ -21848,7 +21855,7 @@
       <c r="Z708" s="4"/>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="14.4">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="6"/>
@@ -21877,7 +21884,7 @@
       <c r="Z709" s="4"/>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="14.4">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="6"/>
@@ -21906,7 +21913,7 @@
       <c r="Z710" s="4"/>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="14.4">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="6"/>
@@ -21935,7 +21942,7 @@
       <c r="Z711" s="4"/>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="14.4">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="6"/>
@@ -21964,7 +21971,7 @@
       <c r="Z712" s="4"/>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="14.4">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="6"/>
@@ -21993,7 +22000,7 @@
       <c r="Z713" s="4"/>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" ht="14.4">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="6"/>
@@ -22022,7 +22029,7 @@
       <c r="Z714" s="4"/>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" ht="14.4">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="6"/>
@@ -22051,7 +22058,7 @@
       <c r="Z715" s="4"/>
       <c r="AA715" s="4"/>
     </row>
-    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="14.4">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="6"/>
@@ -22080,7 +22087,7 @@
       <c r="Z716" s="4"/>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="14.4">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="6"/>
@@ -22109,7 +22116,7 @@
       <c r="Z717" s="4"/>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="14.4">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="6"/>
@@ -22138,7 +22145,7 @@
       <c r="Z718" s="4"/>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="14.4">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="6"/>
@@ -22167,7 +22174,7 @@
       <c r="Z719" s="4"/>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="14.4">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="6"/>
@@ -22196,7 +22203,7 @@
       <c r="Z720" s="4"/>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" ht="14.4">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="6"/>
@@ -22225,7 +22232,7 @@
       <c r="Z721" s="4"/>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" ht="14.4">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="6"/>
@@ -22254,7 +22261,7 @@
       <c r="Z722" s="4"/>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="14.4">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="6"/>
@@ -22283,7 +22290,7 @@
       <c r="Z723" s="4"/>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" ht="14.4">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="6"/>
@@ -22312,7 +22319,7 @@
       <c r="Z724" s="4"/>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="14.4">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="6"/>
@@ -22341,7 +22348,7 @@
       <c r="Z725" s="4"/>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" ht="14.4">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="6"/>
@@ -22370,7 +22377,7 @@
       <c r="Z726" s="4"/>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="14.4">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="6"/>
@@ -22399,7 +22406,7 @@
       <c r="Z727" s="4"/>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="14.4">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="6"/>
@@ -22428,7 +22435,7 @@
       <c r="Z728" s="4"/>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="14.4">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="6"/>
@@ -22457,7 +22464,7 @@
       <c r="Z729" s="4"/>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" ht="14.4">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="6"/>
@@ -22486,7 +22493,7 @@
       <c r="Z730" s="4"/>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="14.4">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="6"/>
@@ -22515,7 +22522,7 @@
       <c r="Z731" s="4"/>
       <c r="AA731" s="4"/>
     </row>
-    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" ht="14.4">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="6"/>
@@ -22544,7 +22551,7 @@
       <c r="Z732" s="4"/>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="14.4">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="6"/>
@@ -22573,7 +22580,7 @@
       <c r="Z733" s="4"/>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="14.4">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="6"/>
@@ -22602,7 +22609,7 @@
       <c r="Z734" s="4"/>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" ht="14.4">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="6"/>
@@ -22631,7 +22638,7 @@
       <c r="Z735" s="4"/>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="14.4">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="6"/>
@@ -22660,7 +22667,7 @@
       <c r="Z736" s="4"/>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" ht="14.4">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="6"/>
@@ -22689,7 +22696,7 @@
       <c r="Z737" s="4"/>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" ht="14.4">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="6"/>
@@ -22718,7 +22725,7 @@
       <c r="Z738" s="4"/>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" ht="14.4">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="6"/>
@@ -22747,7 +22754,7 @@
       <c r="Z739" s="4"/>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" ht="14.4">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="6"/>
@@ -22776,7 +22783,7 @@
       <c r="Z740" s="4"/>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="14.4">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="6"/>
@@ -22805,7 +22812,7 @@
       <c r="Z741" s="4"/>
       <c r="AA741" s="4"/>
     </row>
-    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" ht="14.4">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="6"/>
@@ -22834,7 +22841,7 @@
       <c r="Z742" s="4"/>
       <c r="AA742" s="4"/>
     </row>
-    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" ht="14.4">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="6"/>
@@ -22863,7 +22870,7 @@
       <c r="Z743" s="4"/>
       <c r="AA743" s="4"/>
     </row>
-    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" ht="14.4">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="6"/>
@@ -22892,7 +22899,7 @@
       <c r="Z744" s="4"/>
       <c r="AA744" s="4"/>
     </row>
-    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="14.4">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="6"/>
@@ -22921,7 +22928,7 @@
       <c r="Z745" s="4"/>
       <c r="AA745" s="4"/>
     </row>
-    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="14.4">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="6"/>
@@ -22950,7 +22957,7 @@
       <c r="Z746" s="4"/>
       <c r="AA746" s="4"/>
     </row>
-    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="14.4">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="6"/>
@@ -22979,7 +22986,7 @@
       <c r="Z747" s="4"/>
       <c r="AA747" s="4"/>
     </row>
-    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="14.4">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="6"/>
@@ -23008,7 +23015,7 @@
       <c r="Z748" s="4"/>
       <c r="AA748" s="4"/>
     </row>
-    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="14.4">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="6"/>
@@ -23037,7 +23044,7 @@
       <c r="Z749" s="4"/>
       <c r="AA749" s="4"/>
     </row>
-    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="14.4">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="6"/>
@@ -23066,7 +23073,7 @@
       <c r="Z750" s="4"/>
       <c r="AA750" s="4"/>
     </row>
-    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="14.4">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="6"/>
@@ -23095,7 +23102,7 @@
       <c r="Z751" s="4"/>
       <c r="AA751" s="4"/>
     </row>
-    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="14.4">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="6"/>
@@ -23124,7 +23131,7 @@
       <c r="Z752" s="4"/>
       <c r="AA752" s="4"/>
     </row>
-    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" ht="14.4">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="6"/>
@@ -23153,7 +23160,7 @@
       <c r="Z753" s="4"/>
       <c r="AA753" s="4"/>
     </row>
-    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" ht="14.4">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="6"/>
@@ -23182,7 +23189,7 @@
       <c r="Z754" s="4"/>
       <c r="AA754" s="4"/>
     </row>
-    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" ht="14.4">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="6"/>
@@ -23211,7 +23218,7 @@
       <c r="Z755" s="4"/>
       <c r="AA755" s="4"/>
     </row>
-    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" ht="14.4">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="6"/>
@@ -23240,7 +23247,7 @@
       <c r="Z756" s="4"/>
       <c r="AA756" s="4"/>
     </row>
-    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" ht="14.4">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="6"/>
@@ -23269,7 +23276,7 @@
       <c r="Z757" s="4"/>
       <c r="AA757" s="4"/>
     </row>
-    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="14.4">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="6"/>
@@ -23298,7 +23305,7 @@
       <c r="Z758" s="4"/>
       <c r="AA758" s="4"/>
     </row>
-    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="14.4">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="6"/>
@@ -23327,7 +23334,7 @@
       <c r="Z759" s="4"/>
       <c r="AA759" s="4"/>
     </row>
-    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="14.4">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="6"/>
@@ -23356,7 +23363,7 @@
       <c r="Z760" s="4"/>
       <c r="AA760" s="4"/>
     </row>
-    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="14.4">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="6"/>
@@ -23385,7 +23392,7 @@
       <c r="Z761" s="4"/>
       <c r="AA761" s="4"/>
     </row>
-    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="14.4">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="6"/>
@@ -23414,7 +23421,7 @@
       <c r="Z762" s="4"/>
       <c r="AA762" s="4"/>
     </row>
-    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="14.4">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="6"/>
@@ -23443,7 +23450,7 @@
       <c r="Z763" s="4"/>
       <c r="AA763" s="4"/>
     </row>
-    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="14.4">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="6"/>
@@ -23472,7 +23479,7 @@
       <c r="Z764" s="4"/>
       <c r="AA764" s="4"/>
     </row>
-    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="14.4">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="6"/>
@@ -23501,7 +23508,7 @@
       <c r="Z765" s="4"/>
       <c r="AA765" s="4"/>
     </row>
-    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" ht="14.4">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="6"/>
@@ -23530,7 +23537,7 @@
       <c r="Z766" s="4"/>
       <c r="AA766" s="4"/>
     </row>
-    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" ht="14.4">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="6"/>
@@ -23559,7 +23566,7 @@
       <c r="Z767" s="4"/>
       <c r="AA767" s="4"/>
     </row>
-    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="14.4">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="6"/>
@@ -23588,7 +23595,7 @@
       <c r="Z768" s="4"/>
       <c r="AA768" s="4"/>
     </row>
-    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="14.4">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="6"/>
@@ -23617,7 +23624,7 @@
       <c r="Z769" s="4"/>
       <c r="AA769" s="4"/>
     </row>
-    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" ht="14.4">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="6"/>
@@ -23646,7 +23653,7 @@
       <c r="Z770" s="4"/>
       <c r="AA770" s="4"/>
     </row>
-    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" ht="14.4">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="6"/>
@@ -23675,7 +23682,7 @@
       <c r="Z771" s="4"/>
       <c r="AA771" s="4"/>
     </row>
-    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="14.4">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="6"/>
@@ -23704,7 +23711,7 @@
       <c r="Z772" s="4"/>
       <c r="AA772" s="4"/>
     </row>
-    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="14.4">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="6"/>
@@ -23733,7 +23740,7 @@
       <c r="Z773" s="4"/>
       <c r="AA773" s="4"/>
     </row>
-    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" ht="14.4">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="6"/>
@@ -23762,7 +23769,7 @@
       <c r="Z774" s="4"/>
       <c r="AA774" s="4"/>
     </row>
-    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" ht="14.4">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="6"/>
@@ -23791,7 +23798,7 @@
       <c r="Z775" s="4"/>
       <c r="AA775" s="4"/>
     </row>
-    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" ht="14.4">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="6"/>
@@ -23820,7 +23827,7 @@
       <c r="Z776" s="4"/>
       <c r="AA776" s="4"/>
     </row>
-    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" ht="14.4">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="6"/>
@@ -23849,7 +23856,7 @@
       <c r="Z777" s="4"/>
       <c r="AA777" s="4"/>
     </row>
-    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="14.4">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="6"/>
@@ -23878,7 +23885,7 @@
       <c r="Z778" s="4"/>
       <c r="AA778" s="4"/>
     </row>
-    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" ht="14.4">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="6"/>
@@ -23907,7 +23914,7 @@
       <c r="Z779" s="4"/>
       <c r="AA779" s="4"/>
     </row>
-    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" ht="14.4">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="6"/>
@@ -23936,7 +23943,7 @@
       <c r="Z780" s="4"/>
       <c r="AA780" s="4"/>
     </row>
-    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" ht="14.4">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="6"/>
@@ -23965,7 +23972,7 @@
       <c r="Z781" s="4"/>
       <c r="AA781" s="4"/>
     </row>
-    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" ht="14.4">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="6"/>
@@ -23994,7 +24001,7 @@
       <c r="Z782" s="4"/>
       <c r="AA782" s="4"/>
     </row>
-    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" ht="14.4">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="6"/>
@@ -24023,7 +24030,7 @@
       <c r="Z783" s="4"/>
       <c r="AA783" s="4"/>
     </row>
-    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" ht="14.4">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="6"/>
@@ -24052,7 +24059,7 @@
       <c r="Z784" s="4"/>
       <c r="AA784" s="4"/>
     </row>
-    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="14.4">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="6"/>
@@ -24081,7 +24088,7 @@
       <c r="Z785" s="4"/>
       <c r="AA785" s="4"/>
     </row>
-    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" ht="14.4">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="6"/>
@@ -24110,7 +24117,7 @@
       <c r="Z786" s="4"/>
       <c r="AA786" s="4"/>
     </row>
-    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" ht="14.4">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="6"/>
@@ -24139,7 +24146,7 @@
       <c r="Z787" s="4"/>
       <c r="AA787" s="4"/>
     </row>
-    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="14.4">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="6"/>
@@ -24168,7 +24175,7 @@
       <c r="Z788" s="4"/>
       <c r="AA788" s="4"/>
     </row>
-    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" ht="14.4">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="6"/>
@@ -24197,7 +24204,7 @@
       <c r="Z789" s="4"/>
       <c r="AA789" s="4"/>
     </row>
-    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" ht="14.4">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="6"/>
@@ -24226,7 +24233,7 @@
       <c r="Z790" s="4"/>
       <c r="AA790" s="4"/>
     </row>
-    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" ht="14.4">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="6"/>
@@ -24255,7 +24262,7 @@
       <c r="Z791" s="4"/>
       <c r="AA791" s="4"/>
     </row>
-    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" ht="14.4">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="6"/>
@@ -24284,7 +24291,7 @@
       <c r="Z792" s="4"/>
       <c r="AA792" s="4"/>
     </row>
-    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" ht="14.4">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="6"/>
@@ -24313,7 +24320,7 @@
       <c r="Z793" s="4"/>
       <c r="AA793" s="4"/>
     </row>
-    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" ht="14.4">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="6"/>
@@ -24342,7 +24349,7 @@
       <c r="Z794" s="4"/>
       <c r="AA794" s="4"/>
     </row>
-    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" ht="14.4">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="6"/>
@@ -24371,7 +24378,7 @@
       <c r="Z795" s="4"/>
       <c r="AA795" s="4"/>
     </row>
-    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" ht="14.4">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="6"/>
@@ -24400,7 +24407,7 @@
       <c r="Z796" s="4"/>
       <c r="AA796" s="4"/>
     </row>
-    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" ht="14.4">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="6"/>
@@ -24429,7 +24436,7 @@
       <c r="Z797" s="4"/>
       <c r="AA797" s="4"/>
     </row>
-    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" ht="14.4">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="6"/>
@@ -24458,7 +24465,7 @@
       <c r="Z798" s="4"/>
       <c r="AA798" s="4"/>
     </row>
-    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" ht="14.4">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="6"/>
@@ -24487,7 +24494,7 @@
       <c r="Z799" s="4"/>
       <c r="AA799" s="4"/>
     </row>
-    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" ht="14.4">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="6"/>
@@ -24516,7 +24523,7 @@
       <c r="Z800" s="4"/>
       <c r="AA800" s="4"/>
     </row>
-    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" ht="14.4">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="6"/>
@@ -24545,7 +24552,7 @@
       <c r="Z801" s="4"/>
       <c r="AA801" s="4"/>
     </row>
-    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" ht="14.4">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="6"/>
@@ -24574,7 +24581,7 @@
       <c r="Z802" s="4"/>
       <c r="AA802" s="4"/>
     </row>
-    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" ht="14.4">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="6"/>
@@ -24603,7 +24610,7 @@
       <c r="Z803" s="4"/>
       <c r="AA803" s="4"/>
     </row>
-    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" ht="14.4">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="6"/>
@@ -24632,7 +24639,7 @@
       <c r="Z804" s="4"/>
       <c r="AA804" s="4"/>
     </row>
-    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" ht="14.4">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="6"/>
@@ -24661,7 +24668,7 @@
       <c r="Z805" s="4"/>
       <c r="AA805" s="4"/>
     </row>
-    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" ht="14.4">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="6"/>
@@ -24690,7 +24697,7 @@
       <c r="Z806" s="4"/>
       <c r="AA806" s="4"/>
     </row>
-    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" ht="14.4">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="6"/>
@@ -24719,7 +24726,7 @@
       <c r="Z807" s="4"/>
       <c r="AA807" s="4"/>
     </row>
-    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" ht="14.4">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="6"/>
@@ -24748,7 +24755,7 @@
       <c r="Z808" s="4"/>
       <c r="AA808" s="4"/>
     </row>
-    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" ht="14.4">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="6"/>
@@ -24777,7 +24784,7 @@
       <c r="Z809" s="4"/>
       <c r="AA809" s="4"/>
     </row>
-    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" ht="14.4">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="6"/>
@@ -24806,7 +24813,7 @@
       <c r="Z810" s="4"/>
       <c r="AA810" s="4"/>
     </row>
-    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" ht="14.4">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="6"/>
@@ -24835,7 +24842,7 @@
       <c r="Z811" s="4"/>
       <c r="AA811" s="4"/>
     </row>
-    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" ht="14.4">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="6"/>
@@ -24864,7 +24871,7 @@
       <c r="Z812" s="4"/>
       <c r="AA812" s="4"/>
     </row>
-    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" ht="14.4">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="6"/>
@@ -24893,7 +24900,7 @@
       <c r="Z813" s="4"/>
       <c r="AA813" s="4"/>
     </row>
-    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" ht="14.4">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="6"/>
@@ -24922,7 +24929,7 @@
       <c r="Z814" s="4"/>
       <c r="AA814" s="4"/>
     </row>
-    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" ht="14.4">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="6"/>
@@ -24951,7 +24958,7 @@
       <c r="Z815" s="4"/>
       <c r="AA815" s="4"/>
     </row>
-    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" ht="14.4">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="6"/>
@@ -24980,7 +24987,7 @@
       <c r="Z816" s="4"/>
       <c r="AA816" s="4"/>
     </row>
-    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" ht="14.4">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="6"/>
@@ -25009,7 +25016,7 @@
       <c r="Z817" s="4"/>
       <c r="AA817" s="4"/>
     </row>
-    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" ht="14.4">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="6"/>
@@ -25038,7 +25045,7 @@
       <c r="Z818" s="4"/>
       <c r="AA818" s="4"/>
     </row>
-    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" ht="14.4">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="6"/>
@@ -25067,7 +25074,7 @@
       <c r="Z819" s="4"/>
       <c r="AA819" s="4"/>
     </row>
-    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" ht="14.4">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="6"/>
@@ -25096,7 +25103,7 @@
       <c r="Z820" s="4"/>
       <c r="AA820" s="4"/>
     </row>
-    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" ht="14.4">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="6"/>
@@ -25125,7 +25132,7 @@
       <c r="Z821" s="4"/>
       <c r="AA821" s="4"/>
     </row>
-    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" ht="14.4">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="6"/>
@@ -25154,7 +25161,7 @@
       <c r="Z822" s="4"/>
       <c r="AA822" s="4"/>
     </row>
-    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" ht="14.4">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="6"/>
@@ -25183,7 +25190,7 @@
       <c r="Z823" s="4"/>
       <c r="AA823" s="4"/>
     </row>
-    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" ht="14.4">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="6"/>
@@ -25212,7 +25219,7 @@
       <c r="Z824" s="4"/>
       <c r="AA824" s="4"/>
     </row>
-    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" ht="14.4">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="6"/>
@@ -25241,7 +25248,7 @@
       <c r="Z825" s="4"/>
       <c r="AA825" s="4"/>
     </row>
-    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" ht="14.4">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="6"/>
@@ -25270,7 +25277,7 @@
       <c r="Z826" s="4"/>
       <c r="AA826" s="4"/>
     </row>
-    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" ht="14.4">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="6"/>
@@ -25299,7 +25306,7 @@
       <c r="Z827" s="4"/>
       <c r="AA827" s="4"/>
     </row>
-    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" ht="14.4">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="6"/>
@@ -25328,7 +25335,7 @@
       <c r="Z828" s="4"/>
       <c r="AA828" s="4"/>
     </row>
-    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" ht="14.4">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="6"/>
@@ -25357,7 +25364,7 @@
       <c r="Z829" s="4"/>
       <c r="AA829" s="4"/>
     </row>
-    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" ht="14.4">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="6"/>
@@ -25386,7 +25393,7 @@
       <c r="Z830" s="4"/>
       <c r="AA830" s="4"/>
     </row>
-    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" ht="14.4">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="6"/>
@@ -25415,7 +25422,7 @@
       <c r="Z831" s="4"/>
       <c r="AA831" s="4"/>
     </row>
-    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" ht="14.4">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="6"/>
@@ -25444,7 +25451,7 @@
       <c r="Z832" s="4"/>
       <c r="AA832" s="4"/>
     </row>
-    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" ht="14.4">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="6"/>
@@ -25473,7 +25480,7 @@
       <c r="Z833" s="4"/>
       <c r="AA833" s="4"/>
     </row>
-    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" ht="14.4">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="6"/>
@@ -25502,7 +25509,7 @@
       <c r="Z834" s="4"/>
       <c r="AA834" s="4"/>
     </row>
-    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" ht="14.4">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="6"/>
@@ -25531,7 +25538,7 @@
       <c r="Z835" s="4"/>
       <c r="AA835" s="4"/>
     </row>
-    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" ht="14.4">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="6"/>
@@ -25560,7 +25567,7 @@
       <c r="Z836" s="4"/>
       <c r="AA836" s="4"/>
     </row>
-    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" ht="14.4">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="6"/>
@@ -25589,7 +25596,7 @@
       <c r="Z837" s="4"/>
       <c r="AA837" s="4"/>
     </row>
-    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" ht="14.4">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
       <c r="C838" s="6"/>
@@ -25618,7 +25625,7 @@
       <c r="Z838" s="4"/>
       <c r="AA838" s="4"/>
     </row>
-    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" ht="14.4">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
       <c r="C839" s="6"/>
@@ -25647,7 +25654,7 @@
       <c r="Z839" s="4"/>
       <c r="AA839" s="4"/>
     </row>
-    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" ht="14.4">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
       <c r="C840" s="6"/>
@@ -25676,7 +25683,7 @@
       <c r="Z840" s="4"/>
       <c r="AA840" s="4"/>
     </row>
-    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" ht="14.4">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
       <c r="C841" s="6"/>
@@ -25705,7 +25712,7 @@
       <c r="Z841" s="4"/>
       <c r="AA841" s="4"/>
     </row>
-    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" ht="14.4">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
       <c r="C842" s="6"/>
@@ -25734,7 +25741,7 @@
       <c r="Z842" s="4"/>
       <c r="AA842" s="4"/>
     </row>
-    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" ht="14.4">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
       <c r="C843" s="6"/>
@@ -25763,7 +25770,7 @@
       <c r="Z843" s="4"/>
       <c r="AA843" s="4"/>
     </row>
-    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" ht="14.4">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
       <c r="C844" s="6"/>
@@ -25792,7 +25799,7 @@
       <c r="Z844" s="4"/>
       <c r="AA844" s="4"/>
     </row>
-    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" ht="14.4">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
       <c r="C845" s="6"/>
@@ -25821,7 +25828,7 @@
       <c r="Z845" s="4"/>
       <c r="AA845" s="4"/>
     </row>
-    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" ht="14.4">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
       <c r="C846" s="6"/>
@@ -25850,7 +25857,7 @@
       <c r="Z846" s="4"/>
       <c r="AA846" s="4"/>
     </row>
-    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" ht="14.4">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
       <c r="C847" s="6"/>
@@ -25879,7 +25886,7 @@
       <c r="Z847" s="4"/>
       <c r="AA847" s="4"/>
     </row>
-    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" ht="14.4">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
       <c r="C848" s="6"/>
@@ -25908,7 +25915,7 @@
       <c r="Z848" s="4"/>
       <c r="AA848" s="4"/>
     </row>
-    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" ht="14.4">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
       <c r="C849" s="6"/>
@@ -25937,7 +25944,7 @@
       <c r="Z849" s="4"/>
       <c r="AA849" s="4"/>
     </row>
-    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" ht="14.4">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
       <c r="C850" s="6"/>
@@ -25966,7 +25973,7 @@
       <c r="Z850" s="4"/>
       <c r="AA850" s="4"/>
     </row>
-    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" ht="14.4">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
       <c r="C851" s="6"/>
@@ -25995,7 +26002,7 @@
       <c r="Z851" s="4"/>
       <c r="AA851" s="4"/>
     </row>
-    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" ht="14.4">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
       <c r="C852" s="6"/>
@@ -26024,7 +26031,7 @@
       <c r="Z852" s="4"/>
       <c r="AA852" s="4"/>
     </row>
-    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" ht="14.4">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
       <c r="C853" s="6"/>
@@ -26053,7 +26060,7 @@
       <c r="Z853" s="4"/>
       <c r="AA853" s="4"/>
     </row>
-    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" ht="14.4">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
       <c r="C854" s="6"/>
@@ -26082,7 +26089,7 @@
       <c r="Z854" s="4"/>
       <c r="AA854" s="4"/>
     </row>
-    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" ht="14.4">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
       <c r="C855" s="6"/>
@@ -26111,7 +26118,7 @@
       <c r="Z855" s="4"/>
       <c r="AA855" s="4"/>
     </row>
-    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" ht="14.4">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
       <c r="C856" s="6"/>
@@ -26140,7 +26147,7 @@
       <c r="Z856" s="4"/>
       <c r="AA856" s="4"/>
     </row>
-    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" ht="14.4">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
       <c r="C857" s="6"/>
@@ -26169,7 +26176,7 @@
       <c r="Z857" s="4"/>
       <c r="AA857" s="4"/>
     </row>
-    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" ht="14.4">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
       <c r="C858" s="6"/>
@@ -26198,7 +26205,7 @@
       <c r="Z858" s="4"/>
       <c r="AA858" s="4"/>
     </row>
-    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" ht="14.4">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
       <c r="C859" s="6"/>
@@ -26227,7 +26234,7 @@
       <c r="Z859" s="4"/>
       <c r="AA859" s="4"/>
     </row>
-    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" ht="14.4">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
       <c r="C860" s="6"/>
@@ -26256,7 +26263,7 @@
       <c r="Z860" s="4"/>
       <c r="AA860" s="4"/>
     </row>
-    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" ht="14.4">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
       <c r="C861" s="6"/>
@@ -26285,7 +26292,7 @@
       <c r="Z861" s="4"/>
       <c r="AA861" s="4"/>
     </row>
-    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" ht="14.4">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
       <c r="C862" s="6"/>
@@ -26314,7 +26321,7 @@
       <c r="Z862" s="4"/>
       <c r="AA862" s="4"/>
     </row>
-    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" ht="14.4">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
       <c r="C863" s="6"/>
@@ -26343,7 +26350,7 @@
       <c r="Z863" s="4"/>
       <c r="AA863" s="4"/>
     </row>
-    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" ht="14.4">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
       <c r="C864" s="6"/>
@@ -26372,7 +26379,7 @@
       <c r="Z864" s="4"/>
       <c r="AA864" s="4"/>
     </row>
-    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" ht="14.4">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
       <c r="C865" s="6"/>
@@ -26401,7 +26408,7 @@
       <c r="Z865" s="4"/>
       <c r="AA865" s="4"/>
     </row>
-    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" ht="14.4">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
       <c r="C866" s="6"/>
@@ -26430,7 +26437,7 @@
       <c r="Z866" s="4"/>
       <c r="AA866" s="4"/>
     </row>
-    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" ht="14.4">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
       <c r="C867" s="6"/>
@@ -26459,7 +26466,7 @@
       <c r="Z867" s="4"/>
       <c r="AA867" s="4"/>
     </row>
-    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" ht="14.4">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
       <c r="C868" s="6"/>
@@ -26488,7 +26495,7 @@
       <c r="Z868" s="4"/>
       <c r="AA868" s="4"/>
     </row>
-    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" ht="14.4">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
       <c r="C869" s="6"/>
@@ -26517,7 +26524,7 @@
       <c r="Z869" s="4"/>
       <c r="AA869" s="4"/>
     </row>
-    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" ht="14.4">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
       <c r="C870" s="6"/>
@@ -26546,7 +26553,7 @@
       <c r="Z870" s="4"/>
       <c r="AA870" s="4"/>
     </row>
-    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" ht="14.4">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
       <c r="C871" s="6"/>
@@ -26575,7 +26582,7 @@
       <c r="Z871" s="4"/>
       <c r="AA871" s="4"/>
     </row>
-    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" ht="14.4">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
       <c r="C872" s="6"/>
@@ -26604,7 +26611,7 @@
       <c r="Z872" s="4"/>
       <c r="AA872" s="4"/>
     </row>
-    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" ht="14.4">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
       <c r="C873" s="6"/>
@@ -26633,7 +26640,7 @@
       <c r="Z873" s="4"/>
       <c r="AA873" s="4"/>
     </row>
-    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" ht="14.4">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
       <c r="C874" s="6"/>
@@ -26662,7 +26669,7 @@
       <c r="Z874" s="4"/>
       <c r="AA874" s="4"/>
     </row>
-    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" ht="14.4">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
       <c r="C875" s="6"/>
@@ -26691,7 +26698,7 @@
       <c r="Z875" s="4"/>
       <c r="AA875" s="4"/>
     </row>
-    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" ht="14.4">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
       <c r="C876" s="6"/>
@@ -26720,7 +26727,7 @@
       <c r="Z876" s="4"/>
       <c r="AA876" s="4"/>
     </row>
-    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" ht="14.4">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
       <c r="C877" s="6"/>
@@ -26749,7 +26756,7 @@
       <c r="Z877" s="4"/>
       <c r="AA877" s="4"/>
     </row>
-    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" ht="14.4">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
       <c r="C878" s="6"/>
@@ -26778,7 +26785,7 @@
       <c r="Z878" s="4"/>
       <c r="AA878" s="4"/>
     </row>
-    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" ht="14.4">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
       <c r="C879" s="6"/>
@@ -26807,7 +26814,7 @@
       <c r="Z879" s="4"/>
       <c r="AA879" s="4"/>
     </row>
-    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" ht="14.4">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
       <c r="C880" s="6"/>
@@ -26836,7 +26843,7 @@
       <c r="Z880" s="4"/>
       <c r="AA880" s="4"/>
     </row>
-    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" ht="14.4">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
       <c r="C881" s="6"/>
@@ -26865,7 +26872,7 @@
       <c r="Z881" s="4"/>
       <c r="AA881" s="4"/>
     </row>
-    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" ht="14.4">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
       <c r="C882" s="6"/>
@@ -26894,7 +26901,7 @@
       <c r="Z882" s="4"/>
       <c r="AA882" s="4"/>
     </row>
-    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" ht="14.4">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
       <c r="C883" s="6"/>
@@ -26923,7 +26930,7 @@
       <c r="Z883" s="4"/>
       <c r="AA883" s="4"/>
     </row>
-    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" ht="14.4">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
       <c r="C884" s="6"/>
@@ -26952,7 +26959,7 @@
       <c r="Z884" s="4"/>
       <c r="AA884" s="4"/>
     </row>
-    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" ht="14.4">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
       <c r="C885" s="6"/>
@@ -26981,7 +26988,7 @@
       <c r="Z885" s="4"/>
       <c r="AA885" s="4"/>
     </row>
-    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" ht="14.4">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
       <c r="C886" s="6"/>
@@ -27010,7 +27017,7 @@
       <c r="Z886" s="4"/>
       <c r="AA886" s="4"/>
     </row>
-    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" ht="14.4">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
       <c r="C887" s="6"/>
@@ -27039,7 +27046,7 @@
       <c r="Z887" s="4"/>
       <c r="AA887" s="4"/>
     </row>
-    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" ht="14.4">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
       <c r="C888" s="6"/>
@@ -27068,7 +27075,7 @@
       <c r="Z888" s="4"/>
       <c r="AA888" s="4"/>
     </row>
-    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" ht="14.4">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
       <c r="C889" s="6"/>
@@ -27097,7 +27104,7 @@
       <c r="Z889" s="4"/>
       <c r="AA889" s="4"/>
     </row>
-    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" ht="14.4">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
       <c r="C890" s="6"/>
@@ -27126,7 +27133,7 @@
       <c r="Z890" s="4"/>
       <c r="AA890" s="4"/>
     </row>
-    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" ht="14.4">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
       <c r="C891" s="6"/>
@@ -27155,7 +27162,7 @@
       <c r="Z891" s="4"/>
       <c r="AA891" s="4"/>
     </row>
-    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" ht="14.4">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
       <c r="C892" s="6"/>
@@ -27184,7 +27191,7 @@
       <c r="Z892" s="4"/>
       <c r="AA892" s="4"/>
     </row>
-    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" ht="14.4">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
       <c r="C893" s="6"/>
@@ -27213,7 +27220,7 @@
       <c r="Z893" s="4"/>
       <c r="AA893" s="4"/>
     </row>
-    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" ht="14.4">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
       <c r="C894" s="6"/>
@@ -27242,7 +27249,7 @@
       <c r="Z894" s="4"/>
       <c r="AA894" s="4"/>
     </row>
-    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" ht="14.4">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
       <c r="C895" s="6"/>
@@ -27271,7 +27278,7 @@
       <c r="Z895" s="4"/>
       <c r="AA895" s="4"/>
     </row>
-    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" ht="14.4">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
       <c r="C896" s="6"/>
@@ -27300,7 +27307,7 @@
       <c r="Z896" s="4"/>
       <c r="AA896" s="4"/>
     </row>
-    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" ht="14.4">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
       <c r="C897" s="6"/>
@@ -27329,7 +27336,7 @@
       <c r="Z897" s="4"/>
       <c r="AA897" s="4"/>
     </row>
-    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" ht="14.4">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
       <c r="C898" s="6"/>
@@ -27358,7 +27365,7 @@
       <c r="Z898" s="4"/>
       <c r="AA898" s="4"/>
     </row>
-    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" ht="14.4">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
       <c r="C899" s="6"/>
@@ -27387,7 +27394,7 @@
       <c r="Z899" s="4"/>
       <c r="AA899" s="4"/>
     </row>
-    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" ht="14.4">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
       <c r="C900" s="6"/>
@@ -27416,7 +27423,7 @@
       <c r="Z900" s="4"/>
       <c r="AA900" s="4"/>
     </row>
-    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" ht="14.4">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
       <c r="C901" s="6"/>
@@ -27445,7 +27452,7 @@
       <c r="Z901" s="4"/>
       <c r="AA901" s="4"/>
     </row>
-    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" ht="14.4">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
       <c r="C902" s="6"/>
@@ -27474,7 +27481,7 @@
       <c r="Z902" s="4"/>
       <c r="AA902" s="4"/>
     </row>
-    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" ht="14.4">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
       <c r="C903" s="6"/>
@@ -27503,7 +27510,7 @@
       <c r="Z903" s="4"/>
       <c r="AA903" s="4"/>
     </row>
-    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" ht="14.4">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
       <c r="C904" s="6"/>
@@ -27532,7 +27539,7 @@
       <c r="Z904" s="4"/>
       <c r="AA904" s="4"/>
     </row>
-    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" ht="14.4">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
       <c r="C905" s="6"/>
@@ -27561,7 +27568,7 @@
       <c r="Z905" s="4"/>
       <c r="AA905" s="4"/>
     </row>
-    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" ht="14.4">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
       <c r="C906" s="6"/>
@@ -27590,7 +27597,7 @@
       <c r="Z906" s="4"/>
       <c r="AA906" s="4"/>
     </row>
-    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" ht="14.4">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
       <c r="C907" s="6"/>
@@ -27619,7 +27626,7 @@
       <c r="Z907" s="4"/>
       <c r="AA907" s="4"/>
     </row>
-    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" ht="14.4">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
       <c r="C908" s="6"/>
@@ -27648,7 +27655,7 @@
       <c r="Z908" s="4"/>
       <c r="AA908" s="4"/>
     </row>
-    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" ht="14.4">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
       <c r="C909" s="6"/>
@@ -27677,7 +27684,7 @@
       <c r="Z909" s="4"/>
       <c r="AA909" s="4"/>
     </row>
-    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" ht="14.4">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
       <c r="C910" s="6"/>
@@ -27706,7 +27713,7 @@
       <c r="Z910" s="4"/>
       <c r="AA910" s="4"/>
     </row>
-    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" ht="14.4">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
       <c r="C911" s="6"/>
@@ -27735,7 +27742,7 @@
       <c r="Z911" s="4"/>
       <c r="AA911" s="4"/>
     </row>
-    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" ht="14.4">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
       <c r="C912" s="6"/>
@@ -27764,7 +27771,7 @@
       <c r="Z912" s="4"/>
       <c r="AA912" s="4"/>
     </row>
-    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" ht="14.4">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
       <c r="C913" s="6"/>
@@ -27793,7 +27800,7 @@
       <c r="Z913" s="4"/>
       <c r="AA913" s="4"/>
     </row>
-    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" ht="14.4">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
       <c r="C914" s="6"/>
@@ -27822,7 +27829,7 @@
       <c r="Z914" s="4"/>
       <c r="AA914" s="4"/>
     </row>
-    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" ht="14.4">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
       <c r="C915" s="6"/>
@@ -27851,7 +27858,7 @@
       <c r="Z915" s="4"/>
       <c r="AA915" s="4"/>
     </row>
-    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" ht="14.4">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
       <c r="C916" s="6"/>
@@ -27880,7 +27887,7 @@
       <c r="Z916" s="4"/>
       <c r="AA916" s="4"/>
     </row>
-    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" ht="14.4">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
       <c r="C917" s="6"/>
@@ -27909,7 +27916,7 @@
       <c r="Z917" s="4"/>
       <c r="AA917" s="4"/>
     </row>
-    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" ht="14.4">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
       <c r="C918" s="6"/>
@@ -27938,7 +27945,7 @@
       <c r="Z918" s="4"/>
       <c r="AA918" s="4"/>
     </row>
-    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" ht="14.4">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
       <c r="C919" s="6"/>
@@ -27967,7 +27974,7 @@
       <c r="Z919" s="4"/>
       <c r="AA919" s="4"/>
     </row>
-    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" ht="14.4">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
       <c r="C920" s="6"/>
@@ -27996,7 +28003,7 @@
       <c r="Z920" s="4"/>
       <c r="AA920" s="4"/>
     </row>
-    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" ht="14.4">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
       <c r="C921" s="6"/>
@@ -28025,7 +28032,7 @@
       <c r="Z921" s="4"/>
       <c r="AA921" s="4"/>
     </row>
-    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" ht="14.4">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
       <c r="C922" s="6"/>
@@ -28054,7 +28061,7 @@
       <c r="Z922" s="4"/>
       <c r="AA922" s="4"/>
     </row>
-    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" ht="14.4">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
       <c r="C923" s="6"/>
@@ -28083,7 +28090,7 @@
       <c r="Z923" s="4"/>
       <c r="AA923" s="4"/>
     </row>
-    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" ht="14.4">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
       <c r="C924" s="6"/>
@@ -28112,7 +28119,7 @@
       <c r="Z924" s="4"/>
       <c r="AA924" s="4"/>
     </row>
-    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" ht="14.4">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
       <c r="C925" s="6"/>
@@ -28141,7 +28148,7 @@
       <c r="Z925" s="4"/>
       <c r="AA925" s="4"/>
     </row>
-    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" ht="14.4">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
       <c r="C926" s="6"/>
@@ -28170,7 +28177,7 @@
       <c r="Z926" s="4"/>
       <c r="AA926" s="4"/>
     </row>
-    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" ht="14.4">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
       <c r="C927" s="6"/>
@@ -28199,7 +28206,7 @@
       <c r="Z927" s="4"/>
       <c r="AA927" s="4"/>
     </row>
-    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" ht="14.4">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
       <c r="C928" s="6"/>
@@ -28228,7 +28235,7 @@
       <c r="Z928" s="4"/>
       <c r="AA928" s="4"/>
     </row>
-    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" ht="14.4">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
       <c r="C929" s="6"/>
@@ -28257,7 +28264,7 @@
       <c r="Z929" s="4"/>
       <c r="AA929" s="4"/>
     </row>
-    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" ht="14.4">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
       <c r="C930" s="6"/>
@@ -28286,7 +28293,7 @@
       <c r="Z930" s="4"/>
       <c r="AA930" s="4"/>
     </row>
-    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" ht="14.4">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
       <c r="C931" s="6"/>
@@ -28315,7 +28322,7 @@
       <c r="Z931" s="4"/>
       <c r="AA931" s="4"/>
     </row>
-    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" ht="14.4">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
       <c r="C932" s="6"/>
@@ -28344,7 +28351,7 @@
       <c r="Z932" s="4"/>
       <c r="AA932" s="4"/>
     </row>
-    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" ht="14.4">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
       <c r="C933" s="6"/>
@@ -28373,7 +28380,7 @@
       <c r="Z933" s="4"/>
       <c r="AA933" s="4"/>
     </row>
-    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" ht="14.4">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
       <c r="C934" s="6"/>
@@ -28402,7 +28409,7 @@
       <c r="Z934" s="4"/>
       <c r="AA934" s="4"/>
     </row>
-    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" ht="14.4">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
       <c r="C935" s="6"/>
@@ -28431,7 +28438,7 @@
       <c r="Z935" s="4"/>
       <c r="AA935" s="4"/>
     </row>
-    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" ht="14.4">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
       <c r="C936" s="6"/>
@@ -28460,7 +28467,7 @@
       <c r="Z936" s="4"/>
       <c r="AA936" s="4"/>
     </row>
-    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" ht="14.4">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
       <c r="C937" s="6"/>
@@ -28489,7 +28496,7 @@
       <c r="Z937" s="4"/>
       <c r="AA937" s="4"/>
     </row>
-    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" ht="14.4">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
       <c r="C938" s="6"/>
@@ -28518,7 +28525,7 @@
       <c r="Z938" s="4"/>
       <c r="AA938" s="4"/>
     </row>
-    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" ht="14.4">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
       <c r="C939" s="6"/>
@@ -28547,7 +28554,7 @@
       <c r="Z939" s="4"/>
       <c r="AA939" s="4"/>
     </row>
-    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" ht="14.4">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
       <c r="C940" s="6"/>
@@ -28576,7 +28583,7 @@
       <c r="Z940" s="4"/>
       <c r="AA940" s="4"/>
     </row>
-    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" ht="14.4">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
       <c r="C941" s="6"/>
@@ -28605,7 +28612,7 @@
       <c r="Z941" s="4"/>
       <c r="AA941" s="4"/>
     </row>
-    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" ht="14.4">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
       <c r="C942" s="6"/>
@@ -28634,7 +28641,7 @@
       <c r="Z942" s="4"/>
       <c r="AA942" s="4"/>
     </row>
-    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" ht="14.4">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
       <c r="C943" s="6"/>
@@ -28663,7 +28670,7 @@
       <c r="Z943" s="4"/>
       <c r="AA943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" ht="14.4">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
       <c r="C944" s="6"/>
@@ -28692,7 +28699,7 @@
       <c r="Z944" s="4"/>
       <c r="AA944" s="4"/>
     </row>
-    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" ht="14.4">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
       <c r="C945" s="6"/>
@@ -28721,7 +28728,7 @@
       <c r="Z945" s="4"/>
       <c r="AA945" s="4"/>
     </row>
-    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" ht="14.4">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
       <c r="C946" s="6"/>
@@ -28750,7 +28757,7 @@
       <c r="Z946" s="4"/>
       <c r="AA946" s="4"/>
     </row>
-    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" ht="14.4">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
       <c r="C947" s="6"/>
@@ -28779,7 +28786,7 @@
       <c r="Z947" s="4"/>
       <c r="AA947" s="4"/>
     </row>
-    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" ht="14.4">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
       <c r="C948" s="6"/>
@@ -28808,7 +28815,7 @@
       <c r="Z948" s="4"/>
       <c r="AA948" s="4"/>
     </row>
-    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" ht="14.4">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
       <c r="C949" s="6"/>
@@ -28837,7 +28844,7 @@
       <c r="Z949" s="4"/>
       <c r="AA949" s="4"/>
     </row>
-    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" ht="14.4">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
       <c r="C950" s="6"/>
@@ -28866,7 +28873,7 @@
       <c r="Z950" s="4"/>
       <c r="AA950" s="4"/>
     </row>
-    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" ht="14.4">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
       <c r="C951" s="6"/>
@@ -28895,7 +28902,7 @@
       <c r="Z951" s="4"/>
       <c r="AA951" s="4"/>
     </row>
-    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" ht="14.4">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
       <c r="C952" s="6"/>
@@ -28924,7 +28931,7 @@
       <c r="Z952" s="4"/>
       <c r="AA952" s="4"/>
     </row>
-    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" ht="14.4">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
       <c r="C953" s="6"/>
@@ -28953,7 +28960,7 @@
       <c r="Z953" s="4"/>
       <c r="AA953" s="4"/>
     </row>
-    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" ht="14.4">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
       <c r="C954" s="6"/>
@@ -28982,7 +28989,7 @@
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
     </row>
-    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" ht="14.4">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
       <c r="C955" s="6"/>
@@ -29011,7 +29018,7 @@
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
     </row>
-    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" ht="14.4">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
       <c r="C956" s="6"/>
@@ -29040,7 +29047,7 @@
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
     </row>
-    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" ht="14.4">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
       <c r="C957" s="6"/>
@@ -29069,7 +29076,7 @@
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
     </row>
-    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" ht="14.4">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
       <c r="C958" s="6"/>
@@ -29098,7 +29105,7 @@
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
     </row>
-    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" ht="14.4">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
       <c r="C959" s="6"/>
@@ -29127,7 +29134,7 @@
       <c r="Z959" s="4"/>
       <c r="AA959" s="4"/>
     </row>
-    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" ht="14.4">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
       <c r="C960" s="6"/>
@@ -29156,7 +29163,7 @@
       <c r="Z960" s="4"/>
       <c r="AA960" s="4"/>
     </row>
-    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" ht="14.4">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
       <c r="C961" s="6"/>
@@ -29185,7 +29192,7 @@
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
     </row>
-    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" ht="14.4">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
       <c r="C962" s="6"/>
@@ -29214,7 +29221,7 @@
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
     </row>
-    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" ht="14.4">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
       <c r="C963" s="6"/>
@@ -29243,7 +29250,7 @@
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
     </row>
-    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" ht="14.4">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
       <c r="C964" s="6"/>
@@ -29272,7 +29279,7 @@
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
     </row>
-    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" ht="14.4">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
       <c r="C965" s="6"/>
@@ -29301,7 +29308,7 @@
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
     </row>
-    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" ht="14.4">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
       <c r="C966" s="6"/>
@@ -29330,7 +29337,7 @@
       <c r="Z966" s="4"/>
       <c r="AA966" s="4"/>
     </row>
-    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" ht="14.4">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
       <c r="C967" s="6"/>
@@ -29359,7 +29366,7 @@
       <c r="Z967" s="4"/>
       <c r="AA967" s="4"/>
     </row>
-    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" ht="14.4">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
       <c r="C968" s="6"/>
@@ -29388,7 +29395,7 @@
       <c r="Z968" s="4"/>
       <c r="AA968" s="4"/>
     </row>
-    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" ht="14.4">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
       <c r="C969" s="6"/>
@@ -29417,7 +29424,7 @@
       <c r="Z969" s="4"/>
       <c r="AA969" s="4"/>
     </row>
-    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" ht="14.4">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
       <c r="C970" s="6"/>
@@ -29446,7 +29453,7 @@
       <c r="Z970" s="4"/>
       <c r="AA970" s="4"/>
     </row>
-    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" ht="14.4">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
       <c r="C971" s="6"/>
@@ -29475,7 +29482,7 @@
       <c r="Z971" s="4"/>
       <c r="AA971" s="4"/>
     </row>
-    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" ht="14.4">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
       <c r="C972" s="6"/>
@@ -29504,7 +29511,7 @@
       <c r="Z972" s="4"/>
       <c r="AA972" s="4"/>
     </row>
-    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" ht="14.4">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
       <c r="C973" s="6"/>
@@ -29533,7 +29540,7 @@
       <c r="Z973" s="4"/>
       <c r="AA973" s="4"/>
     </row>
-    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" ht="14.4">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
       <c r="C974" s="6"/>
@@ -29562,7 +29569,7 @@
       <c r="Z974" s="4"/>
       <c r="AA974" s="4"/>
     </row>
-    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" ht="14.4">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
       <c r="C975" s="6"/>
@@ -29591,7 +29598,7 @@
       <c r="Z975" s="4"/>
       <c r="AA975" s="4"/>
     </row>
-    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" ht="14.4">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
       <c r="C976" s="6"/>
@@ -29620,7 +29627,7 @@
       <c r="Z976" s="4"/>
       <c r="AA976" s="4"/>
     </row>
-    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" ht="14.4">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
       <c r="C977" s="6"/>
@@ -29649,7 +29656,7 @@
       <c r="Z977" s="4"/>
       <c r="AA977" s="4"/>
     </row>
-    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" ht="14.4">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
       <c r="C978" s="6"/>
@@ -29678,7 +29685,7 @@
       <c r="Z978" s="4"/>
       <c r="AA978" s="4"/>
     </row>
-    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" ht="14.4">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
       <c r="C979" s="6"/>
@@ -29707,7 +29714,7 @@
       <c r="Z979" s="4"/>
       <c r="AA979" s="4"/>
     </row>
-    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" ht="14.4">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
       <c r="C980" s="6"/>
@@ -29736,7 +29743,7 @@
       <c r="Z980" s="4"/>
       <c r="AA980" s="4"/>
     </row>
-    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" ht="14.4">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
       <c r="C981" s="6"/>
@@ -29765,7 +29772,7 @@
       <c r="Z981" s="4"/>
       <c r="AA981" s="4"/>
     </row>
-    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" ht="14.4">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
       <c r="C982" s="6"/>
@@ -29794,7 +29801,7 @@
       <c r="Z982" s="4"/>
       <c r="AA982" s="4"/>
     </row>
-    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" ht="14.4">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
       <c r="C983" s="6"/>
@@ -29823,7 +29830,7 @@
       <c r="Z983" s="4"/>
       <c r="AA983" s="4"/>
     </row>
-    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" ht="14.4">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
       <c r="C984" s="6"/>
@@ -29852,7 +29859,7 @@
       <c r="Z984" s="4"/>
       <c r="AA984" s="4"/>
     </row>
-    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" ht="14.4">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
       <c r="C985" s="6"/>
@@ -29881,7 +29888,7 @@
       <c r="Z985" s="4"/>
       <c r="AA985" s="4"/>
     </row>
-    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:27" ht="14.4">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
       <c r="C986" s="6"/>
@@ -29910,7 +29917,7 @@
       <c r="Z986" s="4"/>
       <c r="AA986" s="4"/>
     </row>
-    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:27" ht="14.4">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
       <c r="C987" s="6"/>
@@ -29939,7 +29946,7 @@
       <c r="Z987" s="4"/>
       <c r="AA987" s="4"/>
     </row>
-    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:27" ht="14.4">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
       <c r="C988" s="6"/>
@@ -29968,7 +29975,7 @@
       <c r="Z988" s="4"/>
       <c r="AA988" s="4"/>
     </row>
-    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:27" ht="14.4">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
       <c r="C989" s="6"/>
@@ -29997,7 +30004,7 @@
       <c r="Z989" s="4"/>
       <c r="AA989" s="4"/>
     </row>
-    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:27" ht="14.4">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
       <c r="C990" s="6"/>
@@ -30026,7 +30033,7 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:27" ht="14.4">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
       <c r="C991" s="6"/>
@@ -30055,7 +30062,7 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
     </row>
-    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:27" ht="14.4">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
       <c r="C992" s="6"/>
@@ -30084,7 +30091,7 @@
       <c r="Z992" s="4"/>
       <c r="AA992" s="4"/>
     </row>
-    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:27" ht="14.4">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
       <c r="C993" s="6"/>
@@ -30113,7 +30120,7 @@
       <c r="Z993" s="4"/>
       <c r="AA993" s="4"/>
     </row>
-    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:27" ht="14.4">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
       <c r="C994" s="6"/>
@@ -30142,7 +30149,7 @@
       <c r="Z994" s="4"/>
       <c r="AA994" s="4"/>
     </row>
-    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:27" ht="14.4">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
       <c r="C995" s="6"/>
@@ -30171,7 +30178,7 @@
       <c r="Z995" s="4"/>
       <c r="AA995" s="4"/>
     </row>
-    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:27" ht="14.4">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
       <c r="C996" s="6"/>
@@ -30200,7 +30207,7 @@
       <c r="Z996" s="4"/>
       <c r="AA996" s="4"/>
     </row>
-    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:27" ht="14.4">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
       <c r="C997" s="6"/>
@@ -30229,7 +30236,7 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
-    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:27" ht="14.4">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
       <c r="C998" s="6"/>
@@ -30258,7 +30265,7 @@
       <c r="Z998" s="4"/>
       <c r="AA998" s="4"/>
     </row>
-    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:27" ht="14.4">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
       <c r="C999" s="6"/>
@@ -30287,7 +30294,7 @@
       <c r="Z999" s="4"/>
       <c r="AA999" s="4"/>
     </row>
-    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:27" ht="14.4">
       <c r="A1000" s="6"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="6"/>
@@ -30316,7 +30323,7 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
-    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:27" ht="14.4">
       <c r="A1001" s="6"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="6"/>
@@ -30345,7 +30352,7 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:27" ht="14.4">
       <c r="A1002" s="6"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="6"/>
@@ -30374,7 +30381,7 @@
       <c r="Z1002" s="4"/>
       <c r="AA1002" s="4"/>
     </row>
-    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:27" ht="14.4">
       <c r="A1003" s="6"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="6"/>
@@ -30403,7 +30410,7 @@
       <c r="Z1003" s="4"/>
       <c r="AA1003" s="4"/>
     </row>
-    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:27" ht="14.4">
       <c r="A1004" s="6"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="6"/>
@@ -30432,7 +30439,7 @@
       <c r="Z1004" s="4"/>
       <c r="AA1004" s="4"/>
     </row>
-    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:27" ht="14.4">
       <c r="A1005" s="6"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="6"/>
@@ -30461,7 +30468,7 @@
       <c r="Z1005" s="4"/>
       <c r="AA1005" s="4"/>
     </row>
-    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:27" ht="14.4">
       <c r="A1006" s="6"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="6"/>
@@ -30490,7 +30497,7 @@
       <c r="Z1006" s="4"/>
       <c r="AA1006" s="4"/>
     </row>
-    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:27" ht="14.4">
       <c r="A1007" s="6"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="6"/>
@@ -30519,7 +30526,7 @@
       <c r="Z1007" s="4"/>
       <c r="AA1007" s="4"/>
     </row>
-    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:27" ht="14.4">
       <c r="A1008" s="6"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="6"/>
@@ -30548,7 +30555,7 @@
       <c r="Z1008" s="4"/>
       <c r="AA1008" s="4"/>
     </row>
-    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:27" ht="14.4">
       <c r="A1009" s="6"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="6"/>
@@ -30577,7 +30584,7 @@
       <c r="Z1009" s="4"/>
       <c r="AA1009" s="4"/>
     </row>
-    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:27" ht="14.4">
       <c r="A1010" s="6"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="6"/>
@@ -30606,7 +30613,7 @@
       <c r="Z1010" s="4"/>
       <c r="AA1010" s="4"/>
     </row>
-    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:27" ht="14.4">
       <c r="A1011" s="6"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="6"/>
@@ -30635,7 +30642,7 @@
       <c r="Z1011" s="4"/>
       <c r="AA1011" s="4"/>
     </row>
-    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:27" ht="14.4">
       <c r="A1012" s="6"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="6"/>
@@ -30664,7 +30671,7 @@
       <c r="Z1012" s="4"/>
       <c r="AA1012" s="4"/>
     </row>
-    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:27" ht="14.4">
       <c r="A1013" s="6"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="6"/>
@@ -30693,7 +30700,7 @@
       <c r="Z1013" s="4"/>
       <c r="AA1013" s="4"/>
     </row>
-    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:27" ht="14.4">
       <c r="A1014" s="6"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="6"/>
@@ -30722,7 +30729,7 @@
       <c r="Z1014" s="4"/>
       <c r="AA1014" s="4"/>
     </row>
-    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:27" ht="14.4">
       <c r="A1015" s="6"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="6"/>
@@ -30751,7 +30758,7 @@
       <c r="Z1015" s="4"/>
       <c r="AA1015" s="4"/>
     </row>
-    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:27" ht="14.4">
       <c r="A1016" s="6"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="6"/>
@@ -30780,7 +30787,7 @@
       <c r="Z1016" s="4"/>
       <c r="AA1016" s="4"/>
     </row>
-    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:27" ht="14.4">
       <c r="A1017" s="6"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="6"/>
@@ -30809,7 +30816,7 @@
       <c r="Z1017" s="4"/>
       <c r="AA1017" s="4"/>
     </row>
-    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:27" ht="14.4">
       <c r="A1018" s="6"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="6"/>
@@ -30838,7 +30845,7 @@
       <c r="Z1018" s="4"/>
       <c r="AA1018" s="4"/>
     </row>
-    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:27" ht="14.4">
       <c r="A1019" s="6"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="6"/>
@@ -30867,7 +30874,7 @@
       <c r="Z1019" s="4"/>
       <c r="AA1019" s="4"/>
     </row>
-    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:27" ht="14.4">
       <c r="A1020" s="6"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="6"/>
@@ -30896,7 +30903,7 @@
       <c r="Z1020" s="4"/>
       <c r="AA1020" s="4"/>
     </row>
-    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:27" ht="14.4">
       <c r="A1021" s="6"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="6"/>
@@ -30925,7 +30932,7 @@
       <c r="Z1021" s="4"/>
       <c r="AA1021" s="4"/>
     </row>
-    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:27" ht="14.4">
       <c r="A1022" s="6"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="6"/>
@@ -30954,7 +30961,7 @@
       <c r="Z1022" s="4"/>
       <c r="AA1022" s="4"/>
     </row>
-    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:27" ht="14.4">
       <c r="A1023" s="6"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="6"/>
@@ -30983,7 +30990,7 @@
       <c r="Z1023" s="4"/>
       <c r="AA1023" s="4"/>
     </row>
-    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:27" ht="14.4">
       <c r="A1024" s="6"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="6"/>
@@ -31012,7 +31019,7 @@
       <c r="Z1024" s="4"/>
       <c r="AA1024" s="4"/>
     </row>
-    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:27" ht="14.4">
       <c r="A1025" s="6"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="6"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -267,9 +267,6 @@
     <t>contains the cohort of women of childbearing age included in the DU study</t>
   </si>
   <si>
-    <t>07_T4_30_apply_slection_criteria_to_create_MS-COHORT</t>
-  </si>
-  <si>
     <t>D5_DU_flowchart_exclusion_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
   </si>
   <si>
@@ -413,10 +410,13 @@
     <t>D4_prevalence_aggregated_multiple_lookback_MS_selected</t>
   </si>
   <si>
-    <t>09_T4_20_match</t>
+    <t>D5_DU_matching_diagnostic</t>
   </si>
   <si>
-    <t>D5_DU_matching_diagnostic</t>
+    <t>09_T4_10_match</t>
+  </si>
+  <si>
+    <t>07_T4_30_apply_selection_criteria_to_create_MS-COHORT</t>
   </si>
 </sst>
 </file>
@@ -832,10 +832,10 @@
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -878,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>51</v>
@@ -1462,7 +1462,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="9" t="s">
@@ -1494,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>53</v>
@@ -1503,7 +1503,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="9" t="s">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>54</v>
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
@@ -1615,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>57</v>
@@ -1656,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>59</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1775,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1816,16 +1816,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>62</v>
@@ -1866,7 +1866,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -1898,16 +1898,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
@@ -1948,7 +1948,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -1989,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2021,7 +2021,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>70</v>
@@ -2030,7 +2030,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9"/>
@@ -2060,7 +2060,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>70</v>
@@ -2069,7 +2069,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="9"/>
@@ -2185,7 +2185,7 @@
         <v>81</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>76</v>
@@ -2220,13 +2220,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>84</v>
-      </c>
       <c r="D35" s="28" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>76</v>
@@ -2261,22 +2261,22 @@
         <v>69</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
       <c r="I36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2302,16 +2302,16 @@
         <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2341,22 +2341,22 @@
         <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
       <c r="I38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2382,16 +2382,16 @@
         <v>69</v>
       </c>
       <c r="B39" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>96</v>
-      </c>
       <c r="D39" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="4"/>
@@ -2423,16 +2423,16 @@
         <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
@@ -2464,22 +2464,22 @@
         <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2505,22 +2505,22 @@
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>release</t>
   </si>
@@ -243,9 +243,6 @@
     <t>contains the cohort of study population who have MS based on the algorithm chosen at the end of SAP1</t>
   </si>
   <si>
-    <t>07_T3_10_create_MS-COHORT</t>
-  </si>
-  <si>
     <t>D3_algorithms_MS D3_study_population_SAP1</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
   </si>
   <si>
     <t>contains the exclusion criteria to go from D3_SAP1_MS-COHORT to the cohort of women of childbearing age in the DU study</t>
-  </si>
-  <si>
-    <t>07_T3_20_create_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
   </si>
   <si>
     <t>to be created by R&amp;D</t>
@@ -279,9 +273,6 @@
     <t>contains the exclusion criteria to go from D3_pregnancy to the study population of the pregnant women in the study period, including those with MS</t>
   </si>
   <si>
-    <t>07_T3_40_create_selection_criteria_from_pregnancies</t>
-  </si>
-  <si>
     <t>D3_pregnancy_final D3_DU_MS-COHORT</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
   </si>
   <si>
     <t>counts the pregnancies lost during the selection, per criterion</t>
-  </si>
-  <si>
-    <t>08_T4_50_apply_selection_criteria_to_pregnancies</t>
   </si>
   <si>
     <t>D3_DU_PREGNANCY-COHORT</t>
@@ -328,9 +316,6 @@
   </si>
   <si>
     <t>slug</t>
-  </si>
-  <si>
-    <t>08_T4_30_create_prevalence_MS_in_pregnancy_cohort</t>
   </si>
   <si>
     <r>
@@ -413,10 +398,28 @@
     <t>D5_DU_matching_diagnostic</t>
   </si>
   <si>
-    <t>09_T4_10_match</t>
+    <t>09_T3_10_match</t>
   </si>
   <si>
-    <t>07_T4_30_apply_selection_criteria_to_create_MS-COHORT</t>
+    <t>D3_DU_MS-PREGNANCY-COHORT D3_DU_MS-COHORT</t>
+  </si>
+  <si>
+    <t>07_T2_10_create_MS-COHORT</t>
+  </si>
+  <si>
+    <t>07_T2_20_create_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
+  </si>
+  <si>
+    <t>07_T3_30_apply_selection_criteria_to_create_MS-COHORT</t>
+  </si>
+  <si>
+    <t>07_T2_40_create_selection_criteria_from_pregnancies</t>
+  </si>
+  <si>
+    <t>07_T3_50_apply_selection_criteria_to_pregnancies</t>
+  </si>
+  <si>
+    <t>08_T3_30_create_prevalence_MS_in_pregnancy_cohort</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +614,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -832,10 +839,10 @@
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -878,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1375,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -1414,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -1453,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>51</v>
@@ -1462,7 +1469,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="9" t="s">
@@ -1494,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>53</v>
@@ -1503,7 +1510,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="9" t="s">
@@ -1535,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>54</v>
@@ -1544,7 +1551,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="9" t="s">
@@ -1576,14 +1583,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="9" t="s">
@@ -1615,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>57</v>
@@ -1624,7 +1631,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1656,14 +1663,14 @@
         <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -1695,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>59</v>
@@ -1704,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="9" t="s">
@@ -1736,14 +1743,14 @@
         <v>9</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
@@ -1775,16 +1782,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1816,16 +1823,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
@@ -1857,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>62</v>
@@ -1866,7 +1873,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -1898,16 +1905,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
@@ -1948,7 +1955,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -1989,7 +1996,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2021,7 +2028,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>70</v>
@@ -2030,7 +2037,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9"/>
@@ -2060,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>70</v>
@@ -2069,7 +2076,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="9"/>
@@ -2105,10 +2112,10 @@
         <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2137,14 +2144,14 @@
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" s="28" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>72</v>
@@ -2153,7 +2160,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
       <c r="I33" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2179,22 +2186,22 @@
         <v>69</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
       <c r="I34" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2220,22 +2227,22 @@
         <v>69</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
       <c r="I35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2261,22 +2268,22 @@
         <v>69</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
       <c r="I36" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2302,16 +2309,16 @@
         <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2341,22 +2348,22 @@
         <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
       <c r="I38" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2382,22 +2389,22 @@
         <v>69</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
       <c r="I39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2423,16 +2430,16 @@
         <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
@@ -2464,22 +2471,24 @@
         <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2505,22 +2514,24 @@
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -839,10 +839,10 @@
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="144">
   <si>
     <t>release</t>
   </si>
@@ -279,19 +279,10 @@
     <t>created by R&amp;D</t>
   </si>
   <si>
-    <t>D5_DU_flowchart_exclusion_criteria_from_pregnancies_to_PREGNANCY-COHORT_and_MS-PREGNANCY-COHORT</t>
-  </si>
-  <si>
     <t>counts the pregnancies lost during the selection, per criterion</t>
   </si>
   <si>
-    <t>D3_DU_PREGNANCY-COHORT</t>
-  </si>
-  <si>
     <t>contains the cohort of pregnancies included in the study</t>
-  </si>
-  <si>
-    <t>D3_DU_MS-PREGNANCY-COHORT</t>
   </si>
   <si>
     <t>contains the cohort of pregnancies included in the study that have MS during the pregnancy study period</t>
@@ -327,6 +318,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>MS</t>
     </r>
@@ -421,6 +413,57 @@
   <si>
     <t>08_T3_30_create_prevalence_MS_in_pregnancy_cohort</t>
   </si>
+  <si>
+    <t>D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort D3_SAP1_MS-COHORT</t>
+  </si>
+  <si>
+    <t>D3_DU_MS-PREGNANCY-COHORT D3_DU_PREGNANCY-COHORT</t>
+  </si>
+  <si>
+    <t>08_T4_40_create_templates_on_prevalence_MS_in_pregnancy_cohort</t>
+  </si>
+  <si>
+    <t>08_T4_20_create_descriptives_pregnancies_M</t>
+  </si>
+  <si>
+    <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort</t>
+  </si>
+  <si>
+    <t>numbers to be included in Template 2: Description of the time period between MS diagnosis (MS diagnosis date=the date on which the algorithm becomes positive) and pregnancy in the MS-pregnancy cohort</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_1</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_2</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_4</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_5</t>
+  </si>
+  <si>
+    <t>D4_DU_PREGNANCY-COHORT</t>
+  </si>
+  <si>
+    <t>D3_DU_PREGNANCY-COHORT_all</t>
+  </si>
+  <si>
+    <t>07_T2_60_collect_variables_for_pregnancies</t>
+  </si>
+  <si>
+    <t>D4_DU_PREGNANCY-COHORT D3_DU_MS-COHORT D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>D3_DU_PREGNANCY-COHORT_variables</t>
+  </si>
+  <si>
+    <t>D5_DU_flowchart_exclusion_criteria_from_pregnancies_to_DU_PREGNANCY-COHORT</t>
+  </si>
+  <si>
+    <t>D3_DU_selection_criteria_from_pregnancies_to_DU_PREGNANCY-COHORT</t>
+  </si>
 </sst>
 </file>
 
@@ -438,32 +481,38 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,13 +885,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1025"/>
+  <dimension ref="A1:AA1029"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -885,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1382,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
@@ -1421,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
@@ -1460,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>51</v>
@@ -1469,7 +1518,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="9" t="s">
@@ -1501,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>53</v>
@@ -1510,7 +1559,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="9" t="s">
@@ -1542,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>54</v>
@@ -1583,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
@@ -1622,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>57</v>
@@ -1663,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
@@ -1702,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>59</v>
@@ -1743,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1782,16 +1831,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1823,16 +1872,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
@@ -1864,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>62</v>
@@ -1873,7 +1922,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -1905,16 +1954,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
@@ -1955,7 +2004,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -1996,7 +2045,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2028,7 +2077,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>70</v>
@@ -2037,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9"/>
@@ -2067,7 +2116,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>70</v>
@@ -2076,7 +2125,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="9"/>
@@ -2112,7 +2161,7 @@
         <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>74</v>
@@ -2151,7 +2200,7 @@
         <v>76</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>72</v>
@@ -2192,10 +2241,10 @@
         <v>79</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="4"/>
@@ -2233,7 +2282,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>75</v>
@@ -2268,13 +2317,13 @@
         <v>69</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>84</v>
@@ -2309,13 +2358,13 @@
         <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>82</v>
@@ -2348,13 +2397,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>82</v>
@@ -2389,16 +2438,16 @@
         <v>69</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="4"/>
@@ -2425,27 +2474,23 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="72">
-      <c r="A40" s="5" t="s">
-        <v>69</v>
+    <row r="40" spans="1:27" ht="57.6">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>92</v>
+      <c r="C40" s="31" t="s">
+        <v>131</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>93</v>
+      <c r="D40" s="32" t="s">
+        <v>130</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>129</v>
+      <c r="E40" s="33" t="s">
+        <v>138</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="6"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2467,29 +2512,23 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" ht="86.4">
-      <c r="A41" s="5" t="s">
-        <v>69</v>
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>134</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>94</v>
+      <c r="C41" s="31" t="s">
+        <v>132</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>95</v>
+      <c r="D41" s="32" t="s">
+        <v>130</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>122</v>
+      <c r="E41" s="33" t="s">
+        <v>138</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2514,25 +2553,23 @@
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2554,14 +2591,20 @@
     </row>
     <row r="43" spans="1:27" ht="14.4">
       <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2583,14 +2626,20 @@
     </row>
     <row r="44" spans="1:27" ht="14.4">
       <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2610,16 +2659,30 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="14.4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="6"/>
+    <row r="45" spans="1:27" ht="86.4">
+      <c r="A45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2639,16 +2702,30 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="14.4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="6"/>
+    <row r="46" spans="1:27" ht="72">
+      <c r="A46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2698,7 +2775,7 @@
       <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="1:27" ht="14.4">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
       <c r="D48" s="4"/>
@@ -2727,7 +2804,7 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="14.4">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
       <c r="D49" s="4"/>
@@ -2756,7 +2833,7 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="14.4">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
       <c r="D50" s="4"/>
@@ -2785,7 +2862,7 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" ht="14.4">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
       <c r="D51" s="4"/>
@@ -31059,6 +31136,122 @@
       <c r="Z1025" s="4"/>
       <c r="AA1025" s="4"/>
     </row>
+    <row r="1026" spans="1:27" ht="14.4">
+      <c r="A1026" s="6"/>
+      <c r="B1026" s="3"/>
+      <c r="C1026" s="6"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="6"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="4"/>
+      <c r="H1026" s="6"/>
+      <c r="I1026" s="4"/>
+      <c r="J1026" s="4"/>
+      <c r="K1026" s="4"/>
+      <c r="L1026" s="4"/>
+      <c r="M1026" s="4"/>
+      <c r="N1026" s="4"/>
+      <c r="O1026" s="4"/>
+      <c r="P1026" s="4"/>
+      <c r="Q1026" s="4"/>
+      <c r="R1026" s="4"/>
+      <c r="S1026" s="4"/>
+      <c r="T1026" s="4"/>
+      <c r="U1026" s="4"/>
+      <c r="V1026" s="4"/>
+      <c r="W1026" s="4"/>
+      <c r="X1026" s="4"/>
+      <c r="Y1026" s="4"/>
+      <c r="Z1026" s="4"/>
+      <c r="AA1026" s="4"/>
+    </row>
+    <row r="1027" spans="1:27" ht="14.4">
+      <c r="A1027" s="6"/>
+      <c r="B1027" s="3"/>
+      <c r="C1027" s="6"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="6"/>
+      <c r="F1027" s="4"/>
+      <c r="G1027" s="4"/>
+      <c r="H1027" s="6"/>
+      <c r="I1027" s="4"/>
+      <c r="J1027" s="4"/>
+      <c r="K1027" s="4"/>
+      <c r="L1027" s="4"/>
+      <c r="M1027" s="4"/>
+      <c r="N1027" s="4"/>
+      <c r="O1027" s="4"/>
+      <c r="P1027" s="4"/>
+      <c r="Q1027" s="4"/>
+      <c r="R1027" s="4"/>
+      <c r="S1027" s="4"/>
+      <c r="T1027" s="4"/>
+      <c r="U1027" s="4"/>
+      <c r="V1027" s="4"/>
+      <c r="W1027" s="4"/>
+      <c r="X1027" s="4"/>
+      <c r="Y1027" s="4"/>
+      <c r="Z1027" s="4"/>
+      <c r="AA1027" s="4"/>
+    </row>
+    <row r="1028" spans="1:27" ht="14.4">
+      <c r="A1028" s="6"/>
+      <c r="B1028" s="3"/>
+      <c r="C1028" s="6"/>
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="6"/>
+      <c r="F1028" s="4"/>
+      <c r="G1028" s="4"/>
+      <c r="H1028" s="6"/>
+      <c r="I1028" s="4"/>
+      <c r="J1028" s="4"/>
+      <c r="K1028" s="4"/>
+      <c r="L1028" s="4"/>
+      <c r="M1028" s="4"/>
+      <c r="N1028" s="4"/>
+      <c r="O1028" s="4"/>
+      <c r="P1028" s="4"/>
+      <c r="Q1028" s="4"/>
+      <c r="R1028" s="4"/>
+      <c r="S1028" s="4"/>
+      <c r="T1028" s="4"/>
+      <c r="U1028" s="4"/>
+      <c r="V1028" s="4"/>
+      <c r="W1028" s="4"/>
+      <c r="X1028" s="4"/>
+      <c r="Y1028" s="4"/>
+      <c r="Z1028" s="4"/>
+      <c r="AA1028" s="4"/>
+    </row>
+    <row r="1029" spans="1:27" ht="14.4">
+      <c r="A1029" s="6"/>
+      <c r="B1029" s="3"/>
+      <c r="C1029" s="6"/>
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="6"/>
+      <c r="F1029" s="4"/>
+      <c r="G1029" s="4"/>
+      <c r="H1029" s="6"/>
+      <c r="I1029" s="4"/>
+      <c r="J1029" s="4"/>
+      <c r="K1029" s="4"/>
+      <c r="L1029" s="4"/>
+      <c r="M1029" s="4"/>
+      <c r="N1029" s="4"/>
+      <c r="O1029" s="4"/>
+      <c r="P1029" s="4"/>
+      <c r="Q1029" s="4"/>
+      <c r="R1029" s="4"/>
+      <c r="S1029" s="4"/>
+      <c r="T1029" s="4"/>
+      <c r="U1029" s="4"/>
+      <c r="V1029" s="4"/>
+      <c r="W1029" s="4"/>
+      <c r="X1029" s="4"/>
+      <c r="Y1029" s="4"/>
+      <c r="Z1029" s="4"/>
+      <c r="AA1029" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="154">
   <si>
     <t>release</t>
   </si>
@@ -165,13 +165,7 @@
     <t>D5_meaning_occurences</t>
   </si>
   <si>
-    <t>conceptsetdataset 03_T2_20_create_main_components</t>
-  </si>
-  <si>
     <t>D3_main_components D3_study_population_SAP1</t>
-  </si>
-  <si>
-    <t>03_T2_22_create_components_SLE</t>
   </si>
   <si>
     <t>just the dates when persons turn positive for each algorithm if any</t>
@@ -213,9 +207,6 @@
     <t>04_T4_10_create_N_women_and_ranges_MS</t>
   </si>
   <si>
-    <t>05_T5_10_censor_small_count</t>
-  </si>
-  <si>
     <t>Flowchart_exclusion_criteria_masked</t>
   </si>
   <si>
@@ -229,12 +220,6 @@
   </si>
   <si>
     <t>not included yet</t>
-  </si>
-  <si>
-    <t>apply the Cube format to aggregated prevalence of all the MS algorithms in all the study periods and with all the methods</t>
-  </si>
-  <si>
-    <t>06_T3_10_remove_small_counts</t>
   </si>
   <si>
     <t>D3_SAP1_MS-COHORT</t>
@@ -309,28 +294,10 @@
     <t>slug</t>
   </si>
   <si>
-    <r>
-      <t>D3_algorithms_</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS</t>
-    </r>
-  </si>
-  <si>
     <t>D3_components_MS_SAP1</t>
   </si>
   <si>
     <t>D3_components_multiple_lookback_MS</t>
-  </si>
-  <si>
-    <t>D3_components_MS_SAP1 D3_components_multiple_lookback_MS D3_study_population_SAP1</t>
   </si>
   <si>
     <t>D3_algorithms_multiple_lookback_MS</t>
@@ -373,18 +340,6 @@
   </si>
   <si>
     <t>D5_N_women_and_ranges_MS with masked counts</t>
-  </si>
-  <si>
-    <t>Flowchart_exclusion_criteria D5_meaning_occurences D4_prevalence_aggregated_all_MS D4_prevalence_aggregated_multiple_lookback_MS D5_N_women_and_ranges_MS</t>
-  </si>
-  <si>
-    <t>D4_prevalence_aggregated_MS_selected</t>
-  </si>
-  <si>
-    <t>D4_prevalence_aggregated_all_MS D4_prevalence_aggregated_multiple_lookback_MS</t>
-  </si>
-  <si>
-    <t>D4_prevalence_aggregated_multiple_lookback_MS_selected</t>
   </si>
   <si>
     <t>D5_DU_matching_diagnostic</t>
@@ -464,12 +419,76 @@
   <si>
     <t>D3_DU_selection_criteria_from_pregnancies_to_DU_PREGNANCY-COHORT</t>
   </si>
+  <si>
+    <t>04_T4_30_aggregate_prevalence.R</t>
+  </si>
+  <si>
+    <t>04_T4_20_filter_by_cube_and_calculate_CI.R</t>
+  </si>
+  <si>
+    <t>D5_prevalence_period</t>
+  </si>
+  <si>
+    <t>D5_prevalence_persontime</t>
+  </si>
+  <si>
+    <t>D5_prevalence_average_point</t>
+  </si>
+  <si>
+    <t>D5_prevalence_aggregated_multiple_lookback</t>
+  </si>
+  <si>
+    <t>03_T2_21_create_components_MS</t>
+  </si>
+  <si>
+    <t>03_T2_31_create_algorithms_lookback</t>
+  </si>
+  <si>
+    <t>D3_components_MS_SAP1 D3_components_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>D3_algorithms_MS</t>
+  </si>
+  <si>
+    <t>D3_outcomes_cleaned</t>
+  </si>
+  <si>
+    <t>D3_drug_proxies_cleaned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3_study_population_SAP1 D3_outcomes_cleaned D3_drug_proxies_cleaned
+</t>
+  </si>
+  <si>
+    <t>D4_prevalence_period_MS D4_prevalence_persontime_MS D4_prevalence_average_point_MS D4_prevalence_aggregated_multiple_lookback_MS</t>
+  </si>
+  <si>
+    <t>D5_prevalence_period_masked</t>
+  </si>
+  <si>
+    <t>D5_prevalence_persontime_masked</t>
+  </si>
+  <si>
+    <t>D5_prevalence_average_point_masked</t>
+  </si>
+  <si>
+    <t>D5_prevalence_aggregated_multiple_lookback_masked</t>
+  </si>
+  <si>
+    <t>D5_prevalence_aggregated_all</t>
+  </si>
+  <si>
+    <t>D5_prevalence_aggregated_all_masked</t>
+  </si>
+  <si>
+    <t>D5_prevalence_period D5_prevalence_period_masked D5_prevalence_persontime D5_prevalence_persontime_masked D5_prevalence_average_point D5_prevalence_average_point_masked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,8 +551,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,20 +580,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -639,34 +653,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -885,21 +906,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1029"/>
+  <dimension ref="A1:AA1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.77734375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
@@ -934,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1231,7 +1252,7 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1272,7 +1293,7 @@
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="16"/>
@@ -1308,26 +1329,22 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>40</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
+      <c r="D11" s="22" t="s">
+        <v>37</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1353,14 +1370,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>46</v>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="9" t="s">
@@ -1392,18 +1411,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -1430,19 +1449,18 @@
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>97</v>
+      <c r="B14" s="41" t="s">
+        <v>143</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7" t="s">
-        <v>50</v>
+      <c r="D14" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -1470,20 +1488,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
+      <c r="D15" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="9" t="s">
-        <v>13</v>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1509,22 +1526,18 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>51</v>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>99</v>
+      <c r="E16" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1546,26 +1559,22 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
+      <c r="A17" s="5"/>
+      <c r="B17" s="23" t="s">
+        <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>100</v>
+      <c r="C17" s="24" t="s">
+        <v>65</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>53</v>
+      <c r="D17" s="22" t="s">
+        <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>99</v>
+      <c r="E17" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1590,21 +1599,19 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>101</v>
+      <c r="B18" s="36" t="s">
+        <v>91</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>54</v>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7" t="s">
+        <v>139</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>74</v>
+      <c r="E18" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
@@ -1632,21 +1639,21 @@
         <v>9</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
+      <c r="D19" s="22" t="s">
+        <v>139</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>74</v>
+      <c r="E19" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1655,36 +1662,36 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>74</v>
+      <c r="E20" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
@@ -1707,26 +1714,28 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+    <row r="21" spans="1:27" ht="40.799999999999997" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>104</v>
+      <c r="B21" s="25" t="s">
+        <v>93</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
+      <c r="C21" s="14" t="s">
+        <v>51</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>74</v>
+      <c r="D21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1735,32 +1744,32 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="9" t="s">
@@ -1791,19 +1800,19 @@
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>106</v>
+      <c r="B23" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="3"/>
@@ -1830,17 +1839,17 @@
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>107</v>
+      <c r="B24" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>61</v>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>100</v>
+      <c r="E24" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1871,24 +1880,22 @@
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>109</v>
+      <c r="B25" s="43" t="s">
+        <v>97</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>108</v>
+      <c r="C25" s="14"/>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>100</v>
+      <c r="E25" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1897,32 +1904,32 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>110</v>
+      <c r="B26" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>63</v>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>111</v>
+      <c r="E26" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -1953,24 +1960,22 @@
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>112</v>
+      <c r="B27" s="43" t="s">
+        <v>99</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>113</v>
+      <c r="C27" s="14"/>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>114</v>
+      <c r="E27" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1979,36 +1984,36 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" ht="72">
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>65</v>
+      <c r="B28" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>114</v>
+      <c r="E28" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -2031,25 +2036,25 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="72">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>67</v>
+      <c r="B29" s="43" t="s">
+        <v>102</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>68</v>
+      <c r="C29" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>114</v>
+      <c r="E29" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -2072,26 +2077,28 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="57.6">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>115</v>
+      <c r="B30" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>71</v>
+      <c r="D30" s="8" t="s">
+        <v>61</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>116</v>
+      <c r="E30" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2111,26 +2118,24 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="57.6">
-      <c r="A31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>117</v>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>71</v>
+      <c r="D31" s="25" t="s">
+        <v>61</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>116</v>
+      <c r="E31" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2150,26 +2155,22 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="43.2">
-      <c r="A32" s="5" t="s">
-        <v>69</v>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="43" t="s">
+        <v>135</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>72</v>
+      <c r="C32" s="14"/>
+      <c r="D32" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>74</v>
+      <c r="E32" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2189,28 +2190,21 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="57.6">
-      <c r="A33" s="5" t="s">
-        <v>69</v>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="25" t="s">
+        <v>147</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>75</v>
+      <c r="D33" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>76</v>
+      <c r="E33" s="22" t="s">
+        <v>146</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2230,28 +2224,22 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="43.2">
-      <c r="A34" s="5" t="s">
-        <v>69</v>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="25" t="s">
+        <v>136</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>78</v>
+      <c r="C34" s="14"/>
+      <c r="D34" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>79</v>
+      <c r="E34" s="22" t="s">
+        <v>146</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2271,28 +2259,21 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="28.8">
-      <c r="A35" s="5" t="s">
-        <v>69</v>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="25" t="s">
+        <v>148</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>80</v>
+      <c r="D35" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>81</v>
+      <c r="E35" s="22" t="s">
+        <v>146</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2312,28 +2293,22 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="72">
-      <c r="A36" s="5" t="s">
-        <v>69</v>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="25" t="s">
+        <v>137</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>143</v>
+      <c r="C36" s="14"/>
+      <c r="D36" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>84</v>
+      <c r="E36" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2353,26 +2328,21 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="28.8">
-      <c r="A37" s="5" t="s">
-        <v>69</v>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="25" t="s">
+        <v>149</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>142</v>
+      <c r="D37" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>82</v>
+      <c r="E37" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2392,28 +2362,22 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="28.8">
-      <c r="A38" s="5" t="s">
-        <v>69</v>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="25" t="s">
+        <v>138</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>137</v>
+      <c r="C38" s="14"/>
+      <c r="D38" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>82</v>
+      <c r="E38" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2433,28 +2397,21 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="43.2">
-      <c r="A39" s="5" t="s">
-        <v>69</v>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="25" t="s">
+        <v>150</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>141</v>
+      <c r="D39" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>88</v>
+      <c r="E39" s="22" t="s">
+        <v>146</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2474,24 +2431,22 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="57.6">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>131</v>
+      <c r="E40" s="22" t="s">
+        <v>153</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2511,24 +2466,22 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="86.4">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="3" t="s">
-        <v>134</v>
+      <c r="B41" s="43" t="s">
+        <v>152</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>132</v>
+      <c r="C41" s="14"/>
+      <c r="D41" s="25" t="s">
+        <v>133</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>130</v>
+      <c r="E41" s="22" t="s">
+        <v>153</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2548,26 +2501,24 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="72">
+    <row r="42" spans="1:27" ht="43.2">
       <c r="A42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>128</v>
-      </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
@@ -2589,22 +2540,28 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="14.4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
+    <row r="43" spans="1:27" ht="57.6">
+      <c r="A43" s="5" t="s">
+        <v>66</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="3" t="s">
-        <v>129</v>
+      <c r="B43" s="37" t="s">
+        <v>70</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>89</v>
+      <c r="C43" s="38" t="s">
+        <v>71</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="3"/>
+      <c r="D43" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2624,22 +2581,28 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="14.4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
+    <row r="44" spans="1:27" ht="43.2">
+      <c r="A44" s="5" t="s">
+        <v>66</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
-        <v>129</v>
+      <c r="B44" s="26" t="s">
+        <v>73</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>89</v>
+      <c r="C44" s="27" t="s">
+        <v>74</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="3"/>
+      <c r="D44" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2659,29 +2622,27 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="86.4">
+    <row r="45" spans="1:27" ht="28.8">
       <c r="A45" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>91</v>
+      <c r="B45" s="28" t="s">
+        <v>75</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>92</v>
+      <c r="C45" s="27" t="s">
+        <v>76</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>119</v>
+      <c r="D45" s="28" t="s">
+        <v>112</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>120</v>
+      <c r="E45" s="26" t="s">
+        <v>70</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2704,27 +2665,25 @@
     </row>
     <row r="46" spans="1:27" ht="72">
       <c r="A46" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>118</v>
+      <c r="B46" s="25" t="s">
+        <v>132</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>93</v>
+      <c r="C46" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>120</v>
+      <c r="E46" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2745,16 +2704,26 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="14.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="6"/>
+    <row r="47" spans="1:27" ht="28.8">
+      <c r="A47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2774,16 +2743,28 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" ht="14.4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="6"/>
+    <row r="48" spans="1:27" ht="28.8">
+      <c r="A48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2803,16 +2784,28 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="14.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="4"/>
+    <row r="49" spans="1:27" ht="43.2">
+      <c r="A49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="34"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2832,16 +2825,26 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="14.4">
-      <c r="A50" s="5"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="4"/>
+    <row r="50" spans="1:27" ht="57.6">
+      <c r="A50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="34"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="4"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2861,16 +2864,24 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="14.4">
+    <row r="51" spans="1:27" ht="86.4">
       <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4"/>
+      <c r="B51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="34"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="4"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2890,16 +2901,26 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="14.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
+    <row r="52" spans="1:27" ht="72">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2920,15 +2941,23 @@
       <c r="AA52" s="4"/>
     </row>
     <row r="53" spans="1:27" ht="14.4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="6"/>
+      <c r="A53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2949,15 +2978,21 @@
       <c r="AA53" s="4"/>
     </row>
     <row r="54" spans="1:27" ht="14.4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2977,16 +3012,28 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="14.4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="6"/>
+    <row r="55" spans="1:27" ht="86.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -3006,16 +3053,30 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="14.4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="6"/>
+    <row r="56" spans="1:27" ht="72">
+      <c r="A56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="4"/>
+      <c r="I56" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -3036,7 +3097,9 @@
       <c r="AA56" s="4"/>
     </row>
     <row r="57" spans="1:27" ht="14.4">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="4"/>
@@ -3065,7 +3128,7 @@
       <c r="AA57" s="4"/>
     </row>
     <row r="58" spans="1:27" ht="14.4">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
@@ -3094,7 +3157,7 @@
       <c r="AA58" s="4"/>
     </row>
     <row r="59" spans="1:27" ht="14.4">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
@@ -3123,7 +3186,7 @@
       <c r="AA59" s="4"/>
     </row>
     <row r="60" spans="1:27" ht="14.4">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="3"/>
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
@@ -3152,7 +3215,7 @@
       <c r="AA60" s="4"/>
     </row>
     <row r="61" spans="1:27" ht="14.4">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
@@ -3181,7 +3244,7 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="14.4">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
@@ -31252,6 +31315,299 @@
       <c r="Z1029" s="4"/>
       <c r="AA1029" s="4"/>
     </row>
+    <row r="1030" spans="1:27" ht="14.4">
+      <c r="A1030" s="6"/>
+      <c r="B1030" s="3"/>
+      <c r="C1030" s="6"/>
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="6"/>
+      <c r="F1030" s="4"/>
+      <c r="G1030" s="4"/>
+      <c r="H1030" s="6"/>
+      <c r="I1030" s="4"/>
+      <c r="J1030" s="4"/>
+      <c r="K1030" s="4"/>
+      <c r="L1030" s="4"/>
+      <c r="M1030" s="4"/>
+      <c r="N1030" s="4"/>
+      <c r="O1030" s="4"/>
+      <c r="P1030" s="4"/>
+      <c r="Q1030" s="4"/>
+      <c r="R1030" s="4"/>
+      <c r="S1030" s="4"/>
+      <c r="T1030" s="4"/>
+      <c r="U1030" s="4"/>
+      <c r="V1030" s="4"/>
+      <c r="W1030" s="4"/>
+      <c r="X1030" s="4"/>
+      <c r="Y1030" s="4"/>
+      <c r="Z1030" s="4"/>
+      <c r="AA1030" s="4"/>
+    </row>
+    <row r="1031" spans="1:27" ht="14.4">
+      <c r="A1031" s="6"/>
+      <c r="B1031" s="3"/>
+      <c r="C1031" s="6"/>
+      <c r="D1031" s="4"/>
+      <c r="E1031" s="6"/>
+      <c r="F1031" s="4"/>
+      <c r="G1031" s="4"/>
+      <c r="H1031" s="6"/>
+      <c r="I1031" s="4"/>
+      <c r="J1031" s="4"/>
+      <c r="K1031" s="4"/>
+      <c r="L1031" s="4"/>
+      <c r="M1031" s="4"/>
+      <c r="N1031" s="4"/>
+      <c r="O1031" s="4"/>
+      <c r="P1031" s="4"/>
+      <c r="Q1031" s="4"/>
+      <c r="R1031" s="4"/>
+      <c r="S1031" s="4"/>
+      <c r="T1031" s="4"/>
+      <c r="U1031" s="4"/>
+      <c r="V1031" s="4"/>
+      <c r="W1031" s="4"/>
+      <c r="X1031" s="4"/>
+      <c r="Y1031" s="4"/>
+      <c r="Z1031" s="4"/>
+      <c r="AA1031" s="4"/>
+    </row>
+    <row r="1032" spans="1:27" ht="14.4">
+      <c r="A1032" s="6"/>
+      <c r="B1032" s="3"/>
+      <c r="C1032" s="6"/>
+      <c r="D1032" s="4"/>
+      <c r="E1032" s="6"/>
+      <c r="F1032" s="4"/>
+      <c r="G1032" s="4"/>
+      <c r="H1032" s="6"/>
+      <c r="I1032" s="4"/>
+      <c r="J1032" s="4"/>
+      <c r="K1032" s="4"/>
+      <c r="L1032" s="4"/>
+      <c r="M1032" s="4"/>
+      <c r="N1032" s="4"/>
+      <c r="O1032" s="4"/>
+      <c r="P1032" s="4"/>
+      <c r="Q1032" s="4"/>
+      <c r="R1032" s="4"/>
+      <c r="S1032" s="4"/>
+      <c r="T1032" s="4"/>
+      <c r="U1032" s="4"/>
+      <c r="V1032" s="4"/>
+      <c r="W1032" s="4"/>
+      <c r="X1032" s="4"/>
+      <c r="Y1032" s="4"/>
+      <c r="Z1032" s="4"/>
+      <c r="AA1032" s="4"/>
+    </row>
+    <row r="1033" spans="1:27" ht="14.4">
+      <c r="A1033" s="6"/>
+      <c r="B1033" s="3"/>
+      <c r="C1033" s="6"/>
+      <c r="D1033" s="4"/>
+      <c r="E1033" s="6"/>
+      <c r="F1033" s="4"/>
+      <c r="G1033" s="4"/>
+      <c r="H1033" s="6"/>
+      <c r="I1033" s="4"/>
+      <c r="J1033" s="4"/>
+      <c r="K1033" s="4"/>
+      <c r="L1033" s="4"/>
+      <c r="M1033" s="4"/>
+      <c r="N1033" s="4"/>
+      <c r="O1033" s="4"/>
+      <c r="P1033" s="4"/>
+      <c r="Q1033" s="4"/>
+      <c r="R1033" s="4"/>
+      <c r="S1033" s="4"/>
+      <c r="T1033" s="4"/>
+      <c r="U1033" s="4"/>
+      <c r="V1033" s="4"/>
+      <c r="W1033" s="4"/>
+      <c r="X1033" s="4"/>
+      <c r="Y1033" s="4"/>
+      <c r="Z1033" s="4"/>
+      <c r="AA1033" s="4"/>
+    </row>
+    <row r="1034" spans="1:27" ht="14.4">
+      <c r="A1034" s="6"/>
+      <c r="B1034" s="3"/>
+      <c r="C1034" s="6"/>
+      <c r="D1034" s="4"/>
+      <c r="E1034" s="6"/>
+      <c r="F1034" s="4"/>
+      <c r="G1034" s="4"/>
+      <c r="H1034" s="6"/>
+      <c r="I1034" s="4"/>
+      <c r="J1034" s="4"/>
+      <c r="K1034" s="4"/>
+      <c r="L1034" s="4"/>
+      <c r="M1034" s="4"/>
+      <c r="N1034" s="4"/>
+      <c r="O1034" s="4"/>
+      <c r="P1034" s="4"/>
+      <c r="Q1034" s="4"/>
+      <c r="R1034" s="4"/>
+      <c r="S1034" s="4"/>
+      <c r="T1034" s="4"/>
+      <c r="U1034" s="4"/>
+      <c r="V1034" s="4"/>
+      <c r="W1034" s="4"/>
+      <c r="X1034" s="4"/>
+      <c r="Y1034" s="4"/>
+      <c r="Z1034" s="4"/>
+      <c r="AA1034" s="4"/>
+    </row>
+    <row r="1035" spans="1:27" ht="14.4">
+      <c r="A1035" s="6"/>
+      <c r="B1035" s="3"/>
+      <c r="C1035" s="6"/>
+      <c r="D1035" s="4"/>
+      <c r="E1035" s="6"/>
+      <c r="F1035" s="4"/>
+      <c r="G1035" s="4"/>
+      <c r="H1035" s="6"/>
+      <c r="I1035" s="4"/>
+      <c r="J1035" s="4"/>
+      <c r="K1035" s="4"/>
+      <c r="L1035" s="4"/>
+      <c r="M1035" s="4"/>
+      <c r="N1035" s="4"/>
+      <c r="O1035" s="4"/>
+      <c r="P1035" s="4"/>
+      <c r="Q1035" s="4"/>
+      <c r="R1035" s="4"/>
+      <c r="S1035" s="4"/>
+      <c r="T1035" s="4"/>
+      <c r="U1035" s="4"/>
+      <c r="V1035" s="4"/>
+      <c r="W1035" s="4"/>
+      <c r="X1035" s="4"/>
+      <c r="Y1035" s="4"/>
+      <c r="Z1035" s="4"/>
+      <c r="AA1035" s="4"/>
+    </row>
+    <row r="1036" spans="1:27" ht="14.4">
+      <c r="A1036" s="6"/>
+      <c r="B1036" s="3"/>
+      <c r="C1036" s="6"/>
+      <c r="D1036" s="4"/>
+      <c r="E1036" s="6"/>
+      <c r="F1036" s="4"/>
+      <c r="G1036" s="4"/>
+      <c r="H1036" s="6"/>
+      <c r="I1036" s="4"/>
+      <c r="J1036" s="4"/>
+      <c r="K1036" s="4"/>
+      <c r="L1036" s="4"/>
+      <c r="M1036" s="4"/>
+      <c r="N1036" s="4"/>
+      <c r="O1036" s="4"/>
+      <c r="P1036" s="4"/>
+      <c r="Q1036" s="4"/>
+      <c r="R1036" s="4"/>
+      <c r="S1036" s="4"/>
+      <c r="T1036" s="4"/>
+      <c r="U1036" s="4"/>
+      <c r="V1036" s="4"/>
+      <c r="W1036" s="4"/>
+      <c r="X1036" s="4"/>
+      <c r="Y1036" s="4"/>
+      <c r="Z1036" s="4"/>
+      <c r="AA1036" s="4"/>
+    </row>
+    <row r="1037" spans="1:27" ht="14.4">
+      <c r="A1037" s="6"/>
+      <c r="B1037" s="3"/>
+      <c r="C1037" s="6"/>
+      <c r="D1037" s="4"/>
+      <c r="E1037" s="6"/>
+      <c r="F1037" s="4"/>
+      <c r="G1037" s="4"/>
+      <c r="H1037" s="6"/>
+      <c r="I1037" s="4"/>
+      <c r="J1037" s="4"/>
+      <c r="K1037" s="4"/>
+      <c r="L1037" s="4"/>
+      <c r="M1037" s="4"/>
+      <c r="N1037" s="4"/>
+      <c r="O1037" s="4"/>
+      <c r="P1037" s="4"/>
+      <c r="Q1037" s="4"/>
+      <c r="R1037" s="4"/>
+      <c r="S1037" s="4"/>
+      <c r="T1037" s="4"/>
+      <c r="U1037" s="4"/>
+      <c r="V1037" s="4"/>
+      <c r="W1037" s="4"/>
+      <c r="X1037" s="4"/>
+      <c r="Y1037" s="4"/>
+      <c r="Z1037" s="4"/>
+      <c r="AA1037" s="4"/>
+    </row>
+    <row r="1038" spans="1:27" ht="14.4">
+      <c r="A1038" s="6"/>
+      <c r="B1038" s="3"/>
+      <c r="C1038" s="6"/>
+      <c r="D1038" s="4"/>
+      <c r="E1038" s="6"/>
+      <c r="F1038" s="4"/>
+      <c r="G1038" s="4"/>
+      <c r="H1038" s="6"/>
+      <c r="I1038" s="4"/>
+      <c r="J1038" s="4"/>
+      <c r="K1038" s="4"/>
+      <c r="L1038" s="4"/>
+      <c r="M1038" s="4"/>
+      <c r="N1038" s="4"/>
+      <c r="O1038" s="4"/>
+      <c r="P1038" s="4"/>
+      <c r="Q1038" s="4"/>
+      <c r="R1038" s="4"/>
+      <c r="S1038" s="4"/>
+      <c r="T1038" s="4"/>
+      <c r="U1038" s="4"/>
+      <c r="V1038" s="4"/>
+      <c r="W1038" s="4"/>
+      <c r="X1038" s="4"/>
+      <c r="Y1038" s="4"/>
+      <c r="Z1038" s="4"/>
+      <c r="AA1038" s="4"/>
+    </row>
+    <row r="1039" spans="1:27" ht="14.4">
+      <c r="A1039" s="6"/>
+      <c r="B1039" s="3"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="4"/>
+      <c r="E1039" s="6"/>
+      <c r="F1039" s="4"/>
+      <c r="G1039" s="4"/>
+      <c r="H1039" s="6"/>
+      <c r="I1039" s="4"/>
+      <c r="J1039" s="4"/>
+      <c r="K1039" s="4"/>
+      <c r="L1039" s="4"/>
+      <c r="M1039" s="4"/>
+      <c r="N1039" s="4"/>
+      <c r="O1039" s="4"/>
+      <c r="P1039" s="4"/>
+      <c r="Q1039" s="4"/>
+      <c r="R1039" s="4"/>
+      <c r="S1039" s="4"/>
+      <c r="T1039" s="4"/>
+      <c r="U1039" s="4"/>
+      <c r="V1039" s="4"/>
+      <c r="W1039" s="4"/>
+      <c r="X1039" s="4"/>
+      <c r="Y1039" s="4"/>
+      <c r="Z1039" s="4"/>
+      <c r="AA1039" s="4"/>
+    </row>
+    <row r="1040" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1040" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
   <si>
     <t>release</t>
   </si>
@@ -240,9 +240,6 @@
     <t>to be created by R&amp;D</t>
   </si>
   <si>
-    <t>D3_DU_MS-COHORT</t>
-  </si>
-  <si>
     <t>contains the cohort of women of childbearing age included in the DU study</t>
   </si>
   <si>
@@ -258,19 +255,10 @@
     <t>contains the exclusion criteria to go from D3_pregnancy to the study population of the pregnant women in the study period, including those with MS</t>
   </si>
   <si>
-    <t>D3_pregnancy_final D3_DU_MS-COHORT</t>
-  </si>
-  <si>
     <t>created by R&amp;D</t>
   </si>
   <si>
     <t>counts the pregnancies lost during the selection, per criterion</t>
-  </si>
-  <si>
-    <t>contains the cohort of pregnancies included in the study</t>
-  </si>
-  <si>
-    <t>contains the cohort of pregnancies included in the study that have MS during the pregnancy study period</t>
   </si>
   <si>
     <t>D4_DU_prevalence_MS_in_pregnancy_cohort</t>
@@ -351,21 +339,6 @@
     <t>D3_DU_MS-PREGNANCY-COHORT D3_DU_MS-COHORT</t>
   </si>
   <si>
-    <t>07_T2_10_create_MS-COHORT</t>
-  </si>
-  <si>
-    <t>07_T2_20_create_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
-  </si>
-  <si>
-    <t>07_T3_30_apply_selection_criteria_to_create_MS-COHORT</t>
-  </si>
-  <si>
-    <t>07_T2_40_create_selection_criteria_from_pregnancies</t>
-  </si>
-  <si>
-    <t>07_T3_50_apply_selection_criteria_to_pregnancies</t>
-  </si>
-  <si>
     <t>08_T3_30_create_prevalence_MS_in_pregnancy_cohort</t>
   </si>
   <si>
@@ -376,9 +349,6 @@
   </si>
   <si>
     <t>08_T4_40_create_templates_on_prevalence_MS_in_pregnancy_cohort</t>
-  </si>
-  <si>
-    <t>08_T4_20_create_descriptives_pregnancies_M</t>
   </si>
   <si>
     <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort</t>
@@ -400,12 +370,6 @@
   </si>
   <si>
     <t>D4_DU_PREGNANCY-COHORT</t>
-  </si>
-  <si>
-    <t>D3_DU_PREGNANCY-COHORT_all</t>
-  </si>
-  <si>
-    <t>07_T2_60_collect_variables_for_pregnancies</t>
   </si>
   <si>
     <t>D4_DU_PREGNANCY-COHORT D3_DU_MS-COHORT D3_study_population_SAP1</t>
@@ -483,6 +447,36 @@
   <si>
     <t>D5_prevalence_period D5_prevalence_period_masked D5_prevalence_persontime D5_prevalence_persontime_masked D5_prevalence_average_point D5_prevalence_average_point_masked</t>
   </si>
+  <si>
+    <t>05_T2_10_create_MS-COHORT</t>
+  </si>
+  <si>
+    <t>05_T2_20_create_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
+  </si>
+  <si>
+    <t>contains the cohort of pregnancies included in the study, with variables</t>
+  </si>
+  <si>
+    <t>D3_pregnancy_final D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>05_T2_30_create_selection_criteria_from_pregnancies</t>
+  </si>
+  <si>
+    <t>06_T3_10_apply_selection_criteria_to_create_MS-COHORT</t>
+  </si>
+  <si>
+    <t>06_T3_20_apply_selection_criteria_to_pregnancies</t>
+  </si>
+  <si>
+    <t>D4_DU_MS-COHORT</t>
+  </si>
+  <si>
+    <t>07_T2_10_collect_variables_for_pregnancies</t>
+  </si>
+  <si>
+    <t>08_T4_20_create_descriptives_pregnancies</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,18 +584,6 @@
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -615,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,25 +640,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -688,6 +653,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -909,10 +889,10 @@
   <dimension ref="A1:AA1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -954,8 +934,8 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>90</v>
+      <c r="J1" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1252,7 +1232,7 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1293,7 +1273,7 @@
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="16"/>
@@ -1449,8 +1429,8 @@
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>143</v>
+      <c r="B14" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>45</v>
@@ -1487,8 +1467,8 @@
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>144</v>
+      <c r="B15" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>45</v>
@@ -1599,12 +1579,12 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>91</v>
+      <c r="B18" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>48</v>
@@ -1638,12 +1618,12 @@
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>92</v>
+      <c r="B19" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>48</v>
@@ -1678,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -1687,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1719,16 +1699,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>145</v>
+      <c r="E21" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -1760,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>52</v>
@@ -1800,8 +1780,8 @@
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>95</v>
+      <c r="B23" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1839,8 +1819,8 @@
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>96</v>
+      <c r="B24" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>55</v>
@@ -1880,8 +1860,8 @@
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>97</v>
+      <c r="B25" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
@@ -1919,8 +1899,8 @@
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>98</v>
+      <c r="B26" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>57</v>
@@ -1960,8 +1940,8 @@
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>99</v>
+      <c r="B27" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
@@ -1999,17 +1979,17 @@
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>100</v>
+      <c r="B28" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -2040,17 +2020,17 @@
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>102</v>
+      <c r="B29" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2081,8 +2061,8 @@
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>103</v>
+      <c r="B30" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>60</v>
@@ -2091,7 +2071,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9" t="s">
@@ -2120,17 +2100,17 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="43" t="s">
-        <v>105</v>
+      <c r="B31" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="25"/>
@@ -2156,16 +2136,16 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="43" t="s">
-        <v>135</v>
+      <c r="A32" s="28"/>
+      <c r="B32" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="25"/>
@@ -2193,13 +2173,13 @@
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="25"/>
@@ -2227,14 +2207,14 @@
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="25"/>
@@ -2262,13 +2242,13 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="25"/>
@@ -2296,14 +2276,14 @@
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="25"/>
@@ -2331,13 +2311,13 @@
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="25"/>
@@ -2365,14 +2345,14 @@
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="25"/>
@@ -2400,13 +2380,13 @@
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="25"/>
@@ -2433,15 +2413,15 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="43" t="s">
-        <v>151</v>
+      <c r="B40" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="25"/>
@@ -2468,15 +2448,15 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="43" t="s">
-        <v>152</v>
+      <c r="B41" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="25"/>
@@ -2501,7 +2481,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="43.2">
+    <row r="42" spans="1:27" ht="72">
       <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
@@ -2512,7 +2492,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>69</v>
@@ -2540,7 +2520,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="57.6">
+    <row r="43" spans="1:27" ht="86.4">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -2550,13 +2530,13 @@
       <c r="C43" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>111</v>
+      <c r="D43" s="33" t="s">
+        <v>143</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="s">
@@ -2581,27 +2561,27 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="43.2">
+    <row r="44" spans="1:27" ht="100.8">
       <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>73</v>
+      <c r="B44" s="32" t="s">
+        <v>120</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>74</v>
+      <c r="C44" s="40" t="s">
+        <v>77</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>112</v>
+      <c r="D44" s="33" t="s">
+        <v>146</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>116</v>
+      <c r="E44" s="41" t="s">
+        <v>145</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2622,23 +2602,23 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="28.8">
+    <row r="45" spans="1:27" ht="57.6">
       <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>75</v>
+      <c r="B45" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>76</v>
+      <c r="C45" s="40" t="s">
+        <v>73</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>112</v>
+      <c r="D45" s="33" t="s">
+        <v>147</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>70</v>
+      <c r="E45" s="32" t="s">
+        <v>107</v>
       </c>
-      <c r="F45" s="30"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="s">
@@ -2663,27 +2643,27 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="72">
+    <row r="46" spans="1:27" ht="43.2">
       <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>132</v>
+      <c r="B46" s="33" t="s">
+        <v>74</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>78</v>
+      <c r="C46" s="40" t="s">
+        <v>75</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>113</v>
+      <c r="D46" s="33" t="s">
+        <v>147</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>79</v>
+      <c r="E46" s="32" t="s">
+        <v>70</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2704,67 +2684,37 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="28.8">
-      <c r="A47" s="5" t="s">
-        <v>66</v>
-      </c>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" ht="28.8">
+    </row>
+    <row r="48" spans="1:27" ht="43.2">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2784,23 +2734,23 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="43.2">
+    <row r="49" spans="1:27" ht="14.4">
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>130</v>
+      <c r="B49" s="33" t="s">
+        <v>118</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>83</v>
+      <c r="C49" s="34" t="s">
+        <v>144</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>128</v>
+      <c r="D49" s="33" t="s">
+        <v>150</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>129</v>
+      <c r="E49" s="32" t="s">
+        <v>117</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="s">
@@ -2825,23 +2775,23 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="57.6">
+    <row r="50" spans="1:27" ht="115.2">
       <c r="A50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>122</v>
+      <c r="B50" s="33" t="s">
+        <v>112</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>120</v>
+      <c r="C50" s="36" t="s">
+        <v>110</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>119</v>
+      <c r="D50" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
-      <c r="F50" s="34"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="4"/>
       <c r="H50" s="15"/>
       <c r="I50" s="3"/>
@@ -2864,21 +2814,21 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="86.4">
+    <row r="51" spans="1:27" ht="144">
       <c r="A51" s="5"/>
-      <c r="B51" s="3" t="s">
-        <v>123</v>
+      <c r="B51" s="33" t="s">
+        <v>113</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>121</v>
+      <c r="C51" s="36" t="s">
+        <v>111</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>119</v>
+      <c r="D51" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
-      <c r="F51" s="34"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="4"/>
       <c r="H51" s="15"/>
       <c r="I51" s="3"/>
@@ -2901,19 +2851,19 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="72">
+    <row r="52" spans="1:27" ht="144">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
@@ -2945,14 +2895,14 @@
         <v>66</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -2980,14 +2930,14 @@
     <row r="54" spans="1:27" ht="14.4">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
@@ -3012,19 +2962,19 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="86.4">
+    <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -3032,7 +2982,7 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3053,21 +3003,21 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="72">
+    <row r="56" spans="1:27" ht="100.8">
       <c r="A56" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
@@ -3075,7 +3025,7 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="155">
   <si>
     <t>release</t>
   </si>
@@ -264,9 +264,6 @@
     <t>D4_DU_prevalence_MS_in_pregnancy_cohort</t>
   </si>
   <si>
-    <t>contains the aggregated prevalence (numerators and denominators) needed to compute prevalence of MS in the pregnancy cohort, to feed Template 4 and 5this is to feed Template 4 and 5</t>
-  </si>
-  <si>
     <t>D4_DU_matched_MS-PREGNANCY-COHORT_to_MS-COHORT</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
   </si>
   <si>
     <t>D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort D3_SAP1_MS-COHORT</t>
-  </si>
-  <si>
-    <t>D3_DU_MS-PREGNANCY-COHORT D3_DU_PREGNANCY-COHORT</t>
   </si>
   <si>
     <t>08_T4_40_create_templates_on_prevalence_MS_in_pregnancy_cohort</t>
@@ -476,6 +470,21 @@
   </si>
   <si>
     <t>08_T4_20_create_descriptives_pregnancies</t>
+  </si>
+  <si>
+    <t>D3_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>09_create_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>contains the aggregated prevalence (numerators and denominators) needed to compute prevalence of MS in the pregnancy cohort, to feed Template 4 and 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This applies some of the steps in the appendix: all the </t>
+  </si>
+  <si>
+    <t>Prevalence of MS over time per 1,000 pregnancies from women aged 15-49 years old</t>
   </si>
 </sst>
 </file>
@@ -889,10 +898,10 @@
   <dimension ref="A1:AA1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -935,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1430,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>45</v>
@@ -1468,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>45</v>
@@ -1580,11 +1589,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>48</v>
@@ -1619,11 +1628,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>48</v>
@@ -1658,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -1667,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1699,16 +1708,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -1740,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>52</v>
@@ -1781,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1820,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>55</v>
@@ -1861,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
@@ -1900,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>57</v>
@@ -1941,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
@@ -1980,16 +1989,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -2021,16 +2030,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2062,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>60</v>
@@ -2071,7 +2080,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9" t="s">
@@ -2101,16 +2110,16 @@
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="25"/>
@@ -2138,14 +2147,14 @@
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="25"/>
@@ -2173,13 +2182,13 @@
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="25"/>
@@ -2207,14 +2216,14 @@
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="25"/>
@@ -2242,13 +2251,13 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="25"/>
@@ -2276,14 +2285,14 @@
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="25"/>
@@ -2311,13 +2320,13 @@
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="25"/>
@@ -2345,14 +2354,14 @@
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="25"/>
@@ -2380,13 +2389,13 @@
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="25"/>
@@ -2414,14 +2423,14 @@
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="25"/>
@@ -2449,14 +2458,14 @@
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="25"/>
@@ -2492,7 +2501,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>69</v>
@@ -2531,7 +2540,7 @@
         <v>71</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>67</v>
@@ -2566,16 +2575,16 @@
         <v>66</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="4"/>
@@ -2607,16 +2616,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="4"/>
@@ -2654,7 +2663,7 @@
         <v>75</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>70</v>
@@ -2686,10 +2695,10 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>76</v>
@@ -2700,13 +2709,13 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>76</v>
@@ -2739,16 +2748,16 @@
         <v>66</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="4"/>
@@ -2780,16 +2789,16 @@
         <v>66</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="4"/>
@@ -2817,16 +2826,16 @@
     <row r="51" spans="1:27" ht="144">
       <c r="A51" s="5"/>
       <c r="B51" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="4"/>
@@ -2851,19 +2860,19 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="144">
+    <row r="52" spans="1:27" ht="115.2">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>108</v>
+      <c r="E52" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
@@ -2895,11 +2904,13 @@
         <v>66</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="25" t="s">
+        <v>154</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>80</v>
@@ -2930,11 +2941,11 @@
     <row r="54" spans="1:27" ht="14.4">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>80</v>
@@ -2962,120 +2973,16 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="158.4">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="1:27" ht="100.8">
-      <c r="A56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27" ht="14.4">
-      <c r="A57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
     </row>
     <row r="58" spans="1:27" ht="14.4">
       <c r="A58" s="5"/>
@@ -3135,16 +3042,28 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="14.4">
+    <row r="60" spans="1:27" ht="158.4">
       <c r="A60" s="5"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3164,16 +3083,30 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="14.4">
-      <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="6"/>
+    <row r="61" spans="1:27" ht="100.8">
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="4"/>
+      <c r="I61" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3194,7 +3127,9 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="14.4">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
   <si>
     <t>release</t>
   </si>
@@ -330,19 +330,7 @@
     <t>D5_DU_matching_diagnostic</t>
   </si>
   <si>
-    <t>09_T3_10_match</t>
-  </si>
-  <si>
-    <t>D3_DU_MS-PREGNANCY-COHORT D3_DU_MS-COHORT</t>
-  </si>
-  <si>
-    <t>08_T3_30_create_prevalence_MS_in_pregnancy_cohort</t>
-  </si>
-  <si>
     <t>D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort D3_SAP1_MS-COHORT</t>
-  </si>
-  <si>
-    <t>08_T4_40_create_templates_on_prevalence_MS_in_pregnancy_cohort</t>
   </si>
   <si>
     <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort</t>
@@ -472,26 +460,95 @@
     <t>08_T4_20_create_descriptives_pregnancies</t>
   </si>
   <si>
-    <t>D3_candidate_matches_MS_non_pregnant</t>
-  </si>
-  <si>
-    <t>09_create_candidate_matches_MS_non_pregnant</t>
-  </si>
-  <si>
     <t>contains the aggregated prevalence (numerators and denominators) needed to compute prevalence of MS in the pregnancy cohort, to feed Template 4 and 5</t>
   </si>
   <si>
-    <t xml:space="preserve">This applies some of the steps in the appendix: all the </t>
+    <t>Prevalence of MS over time per 1,000 pregnancies from women aged 15-49 years old</t>
   </si>
   <si>
-    <t>Prevalence of MS over time per 1,000 pregnancies from women aged 15-49 years old</t>
+    <t>D5_DU_for_Template_3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D3_DU_PREGNANCY-COHORT_variables </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>conceptsets</t>
+    </r>
+  </si>
+  <si>
+    <t>D4_DU_individual_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+  </si>
+  <si>
+    <t>Prevalence of MS stratified by age at LMP and calendar period per 1,000 pregnancies</t>
+  </si>
+  <si>
+    <t>Pattern of MS DMT medications1 use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_use_MSdrugs_in_MS_cohort</t>
+  </si>
+  <si>
+    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Template 6</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_6</t>
+  </si>
+  <si>
+    <t>Prevalence of medication in women of childbearing age with MS at cohort entry over time</t>
+  </si>
+  <si>
+    <t>11_T4_30_create_template_on_prevalence_of_use_MSdrugs_in_MS_cohort</t>
+  </si>
+  <si>
+    <t>11_T4_20_create_templates_on_prevalence_MS_in_pregnancy_cohort</t>
+  </si>
+  <si>
+    <t>11_T4_10_create_template_on_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+  </si>
+  <si>
+    <t>10_T3_20_create_prevalence_of_use_MSdrugs_in_MS_cohort</t>
+  </si>
+  <si>
+    <t>10_T3_20_create_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+  </si>
+  <si>
+    <t>10_T3_10_create_prevalence_MS_in_pregnancy_cohort</t>
+  </si>
+  <si>
+    <t>09_T3_20_match</t>
+  </si>
+  <si>
+    <t>09_T3_10_create_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>This applies some of the steps in the appendix: selects all the periods when women with MS are outside of the pregnancy cohort</t>
+  </si>
+  <si>
+    <t>D4_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>D3_DU_MS-PREGNANCY-COHORT_variables D4_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>D3_DU_PREGNANCY-COHORT_variables D4_DU_MS-COHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -561,6 +618,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -606,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,6 +747,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -895,20 +966,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1040"/>
+  <dimension ref="A1:AA1045"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="48.77734375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
@@ -1439,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>45</v>
@@ -1477,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>45</v>
@@ -1593,7 +1664,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>48</v>
@@ -1632,7 +1703,7 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>48</v>
@@ -1667,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -1676,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1714,10 +1785,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -2147,14 +2218,14 @@
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="25"/>
@@ -2182,13 +2253,13 @@
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="25"/>
@@ -2216,14 +2287,14 @@
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="25"/>
@@ -2251,13 +2322,13 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="25"/>
@@ -2285,14 +2356,14 @@
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="25"/>
@@ -2320,13 +2391,13 @@
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="25"/>
@@ -2354,14 +2425,14 @@
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="25"/>
@@ -2389,13 +2460,13 @@
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="25"/>
@@ -2423,14 +2494,14 @@
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="25"/>
@@ -2458,14 +2529,14 @@
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="25"/>
@@ -2501,7 +2572,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>69</v>
@@ -2540,7 +2611,7 @@
         <v>71</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>67</v>
@@ -2575,16 +2646,16 @@
         <v>66</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="4"/>
@@ -2616,16 +2687,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="4"/>
@@ -2663,7 +2734,7 @@
         <v>75</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>70</v>
@@ -2695,10 +2766,10 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>76</v>
@@ -2709,13 +2780,13 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>76</v>
@@ -2748,16 +2819,16 @@
         <v>66</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="4"/>
@@ -2789,16 +2860,16 @@
         <v>66</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="4"/>
@@ -2823,19 +2894,19 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="144">
+    <row r="51" spans="1:27" ht="72">
       <c r="A51" s="5"/>
       <c r="B51" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="4"/>
@@ -2860,25 +2931,23 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="115.2">
+    <row r="52" spans="1:27" ht="43.2">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>116</v>
+      <c r="E52" s="6" t="s">
+        <v>169</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -2899,24 +2968,22 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="14.4">
-      <c r="A53" s="5" t="s">
-        <v>66</v>
+    <row r="53" spans="1:27" ht="72">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3" t="s">
+        <v>81</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>154</v>
+      <c r="C53" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>80</v>
+      <c r="E53" s="25" t="s">
+        <v>168</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="15"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
@@ -2938,20 +3005,22 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="14.4">
+    <row r="54" spans="1:27" ht="57.6">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>80</v>
+      <c r="E54" s="25" t="s">
+        <v>168</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="15"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
@@ -2973,27 +3042,133 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1">
+    <row r="55" spans="1:27" ht="57.6">
+      <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" ht="43.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+    </row>
+    <row r="57" spans="1:27" ht="14.4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+    </row>
+    <row r="58" spans="1:27" ht="57.6">
+      <c r="A58" s="5"/>
+      <c r="B58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="14.4">
-      <c r="A58" s="5"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="6"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -3014,15 +3189,25 @@
       <c r="AA58" s="4"/>
     </row>
     <row r="59" spans="1:27" ht="14.4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="6"/>
+      <c r="A59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -3042,28 +3227,24 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="158.4">
+    <row r="60" spans="1:27" ht="14.4">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>82</v>
+      <c r="C60" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>104</v>
+      <c r="E60" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3083,30 +3264,24 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="100.8">
-      <c r="A61" s="5" t="s">
-        <v>66</v>
+    <row r="61" spans="1:27" ht="14.4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>156</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>83</v>
+      <c r="C61" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>104</v>
+      <c r="E61" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3127,17 +3302,15 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="14.4">
-      <c r="A62" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="6"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3158,15 +3331,15 @@
       <c r="AA62" s="4"/>
     </row>
     <row r="63" spans="1:27" ht="14.4">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="6"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -3187,11 +3360,7 @@
       <c r="AA63" s="4"/>
     </row>
     <row r="64" spans="1:27" ht="14.4">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="5"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="6"/>
@@ -3216,15 +3385,11 @@
       <c r="AA64" s="4"/>
     </row>
     <row r="65" spans="1:27" ht="14.4">
-      <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="6"/>
+      <c r="A65" s="5"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3245,15 +3410,17 @@
       <c r="AA65" s="4"/>
     </row>
     <row r="66" spans="1:27" ht="14.4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="6"/>
+      <c r="A66" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3274,7 +3441,7 @@
       <c r="AA66" s="4"/>
     </row>
     <row r="67" spans="1:27" ht="14.4">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
@@ -31490,8 +31657,153 @@
       <c r="Z1039" s="4"/>
       <c r="AA1039" s="4"/>
     </row>
-    <row r="1040" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1040" spans="1:27" ht="14.4">
       <c r="A1040" s="6"/>
+      <c r="B1040" s="3"/>
+      <c r="C1040" s="6"/>
+      <c r="D1040" s="4"/>
+      <c r="E1040" s="6"/>
+      <c r="F1040" s="4"/>
+      <c r="G1040" s="4"/>
+      <c r="H1040" s="6"/>
+      <c r="I1040" s="4"/>
+      <c r="J1040" s="4"/>
+      <c r="K1040" s="4"/>
+      <c r="L1040" s="4"/>
+      <c r="M1040" s="4"/>
+      <c r="N1040" s="4"/>
+      <c r="O1040" s="4"/>
+      <c r="P1040" s="4"/>
+      <c r="Q1040" s="4"/>
+      <c r="R1040" s="4"/>
+      <c r="S1040" s="4"/>
+      <c r="T1040" s="4"/>
+      <c r="U1040" s="4"/>
+      <c r="V1040" s="4"/>
+      <c r="W1040" s="4"/>
+      <c r="X1040" s="4"/>
+      <c r="Y1040" s="4"/>
+      <c r="Z1040" s="4"/>
+      <c r="AA1040" s="4"/>
+    </row>
+    <row r="1041" spans="1:27" ht="14.4">
+      <c r="A1041" s="6"/>
+      <c r="B1041" s="3"/>
+      <c r="C1041" s="6"/>
+      <c r="D1041" s="4"/>
+      <c r="E1041" s="6"/>
+      <c r="F1041" s="4"/>
+      <c r="G1041" s="4"/>
+      <c r="H1041" s="6"/>
+      <c r="I1041" s="4"/>
+      <c r="J1041" s="4"/>
+      <c r="K1041" s="4"/>
+      <c r="L1041" s="4"/>
+      <c r="M1041" s="4"/>
+      <c r="N1041" s="4"/>
+      <c r="O1041" s="4"/>
+      <c r="P1041" s="4"/>
+      <c r="Q1041" s="4"/>
+      <c r="R1041" s="4"/>
+      <c r="S1041" s="4"/>
+      <c r="T1041" s="4"/>
+      <c r="U1041" s="4"/>
+      <c r="V1041" s="4"/>
+      <c r="W1041" s="4"/>
+      <c r="X1041" s="4"/>
+      <c r="Y1041" s="4"/>
+      <c r="Z1041" s="4"/>
+      <c r="AA1041" s="4"/>
+    </row>
+    <row r="1042" spans="1:27" ht="14.4">
+      <c r="A1042" s="6"/>
+      <c r="B1042" s="3"/>
+      <c r="C1042" s="6"/>
+      <c r="D1042" s="4"/>
+      <c r="E1042" s="6"/>
+      <c r="F1042" s="4"/>
+      <c r="G1042" s="4"/>
+      <c r="H1042" s="6"/>
+      <c r="I1042" s="4"/>
+      <c r="J1042" s="4"/>
+      <c r="K1042" s="4"/>
+      <c r="L1042" s="4"/>
+      <c r="M1042" s="4"/>
+      <c r="N1042" s="4"/>
+      <c r="O1042" s="4"/>
+      <c r="P1042" s="4"/>
+      <c r="Q1042" s="4"/>
+      <c r="R1042" s="4"/>
+      <c r="S1042" s="4"/>
+      <c r="T1042" s="4"/>
+      <c r="U1042" s="4"/>
+      <c r="V1042" s="4"/>
+      <c r="W1042" s="4"/>
+      <c r="X1042" s="4"/>
+      <c r="Y1042" s="4"/>
+      <c r="Z1042" s="4"/>
+      <c r="AA1042" s="4"/>
+    </row>
+    <row r="1043" spans="1:27" ht="14.4">
+      <c r="A1043" s="6"/>
+      <c r="B1043" s="3"/>
+      <c r="C1043" s="6"/>
+      <c r="D1043" s="4"/>
+      <c r="E1043" s="6"/>
+      <c r="F1043" s="4"/>
+      <c r="G1043" s="4"/>
+      <c r="H1043" s="6"/>
+      <c r="I1043" s="4"/>
+      <c r="J1043" s="4"/>
+      <c r="K1043" s="4"/>
+      <c r="L1043" s="4"/>
+      <c r="M1043" s="4"/>
+      <c r="N1043" s="4"/>
+      <c r="O1043" s="4"/>
+      <c r="P1043" s="4"/>
+      <c r="Q1043" s="4"/>
+      <c r="R1043" s="4"/>
+      <c r="S1043" s="4"/>
+      <c r="T1043" s="4"/>
+      <c r="U1043" s="4"/>
+      <c r="V1043" s="4"/>
+      <c r="W1043" s="4"/>
+      <c r="X1043" s="4"/>
+      <c r="Y1043" s="4"/>
+      <c r="Z1043" s="4"/>
+      <c r="AA1043" s="4"/>
+    </row>
+    <row r="1044" spans="1:27" ht="14.4">
+      <c r="A1044" s="6"/>
+      <c r="B1044" s="3"/>
+      <c r="C1044" s="6"/>
+      <c r="D1044" s="4"/>
+      <c r="E1044" s="6"/>
+      <c r="F1044" s="4"/>
+      <c r="G1044" s="4"/>
+      <c r="H1044" s="6"/>
+      <c r="I1044" s="4"/>
+      <c r="J1044" s="4"/>
+      <c r="K1044" s="4"/>
+      <c r="L1044" s="4"/>
+      <c r="M1044" s="4"/>
+      <c r="N1044" s="4"/>
+      <c r="O1044" s="4"/>
+      <c r="P1044" s="4"/>
+      <c r="Q1044" s="4"/>
+      <c r="R1044" s="4"/>
+      <c r="S1044" s="4"/>
+      <c r="T1044" s="4"/>
+      <c r="U1044" s="4"/>
+      <c r="V1044" s="4"/>
+      <c r="W1044" s="4"/>
+      <c r="X1044" s="4"/>
+      <c r="Y1044" s="4"/>
+      <c r="Z1044" s="4"/>
+      <c r="AA1044" s="4"/>
+    </row>
+    <row r="1045" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1045" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
   <si>
     <t>release</t>
   </si>
@@ -273,9 +273,6 @@
     <t>contains the success rate of matching (to be refined after the matching function is finalised), per relevant covariates (including quality of pregnancy)</t>
   </si>
   <si>
-    <t>to be created by R&amp;D, remember to add quality of pregnancies</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -469,21 +466,6 @@
     <t>D5_DU_for_Template_3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">D3_DU_PREGNANCY-COHORT_variables </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>conceptsets</t>
-    </r>
-  </si>
-  <si>
     <t>D4_DU_individual_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
   <si>
@@ -548,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -617,13 +599,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -747,7 +722,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -966,13 +941,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1045"/>
+  <dimension ref="A1:AA1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1015,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1510,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>45</v>
@@ -1548,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>45</v>
@@ -1660,11 +1635,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>48</v>
@@ -1699,11 +1674,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>48</v>
@@ -1738,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -1747,7 +1722,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1779,16 +1754,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -1820,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>52</v>
@@ -1861,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1900,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>55</v>
@@ -1941,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
@@ -1980,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>57</v>
@@ -2021,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
@@ -2060,16 +2035,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -2101,16 +2076,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2142,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>60</v>
@@ -2151,7 +2126,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9" t="s">
@@ -2181,16 +2156,16 @@
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="25"/>
@@ -2218,14 +2193,14 @@
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="25"/>
@@ -2253,13 +2228,13 @@
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="25"/>
@@ -2287,14 +2262,14 @@
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="25"/>
@@ -2322,13 +2297,13 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="25"/>
@@ -2356,14 +2331,14 @@
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="25"/>
@@ -2391,13 +2366,13 @@
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="25"/>
@@ -2425,14 +2400,14 @@
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="25"/>
@@ -2460,13 +2435,13 @@
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="25"/>
@@ -2494,14 +2469,14 @@
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="25"/>
@@ -2529,14 +2504,14 @@
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="25"/>
@@ -2561,7 +2536,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="72">
+    <row r="42" spans="1:27" ht="43.2">
       <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
@@ -2572,7 +2547,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>69</v>
@@ -2600,7 +2575,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="86.4">
+    <row r="43" spans="1:27" ht="43.2">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -2611,7 +2586,7 @@
         <v>71</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>67</v>
@@ -2641,21 +2616,21 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="100.8">
+    <row r="44" spans="1:27" ht="57.6">
       <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="4"/>
@@ -2682,21 +2657,21 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="57.6">
+    <row r="45" spans="1:27" ht="28.8">
       <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="4"/>
@@ -2723,7 +2698,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="43.2">
+    <row r="46" spans="1:27" ht="28.8">
       <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
@@ -2734,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>70</v>
@@ -2766,27 +2741,27 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="43.2">
+    <row r="48" spans="1:27" ht="28.8">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>76</v>
@@ -2819,16 +2794,16 @@
         <v>66</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="4"/>
@@ -2855,21 +2830,21 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="115.2">
+    <row r="50" spans="1:27" ht="57.6">
       <c r="A50" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="4"/>
@@ -2897,16 +2872,16 @@
     <row r="51" spans="1:27" ht="72">
       <c r="A51" s="5"/>
       <c r="B51" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="4"/>
@@ -2934,16 +2909,16 @@
     <row r="52" spans="1:27" ht="43.2">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="4"/>
@@ -2977,10 +2952,10 @@
         <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="4"/>
@@ -3008,16 +2983,16 @@
     <row r="54" spans="1:27" ht="57.6">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="4"/>
@@ -3048,13 +3023,13 @@
         <v>80</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -3084,16 +3059,16 @@
     <row r="56" spans="1:27" ht="43.2">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -3121,13 +3096,15 @@
     <row r="57" spans="1:27" ht="14.4">
       <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
-      <c r="E57" s="33"/>
+      <c r="E57" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
       <c r="H57" s="15"/>
@@ -3154,16 +3131,16 @@
     <row r="58" spans="1:27" ht="57.6">
       <c r="A58" s="5"/>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
@@ -3193,13 +3170,13 @@
         <v>66</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>80</v>
@@ -3230,13 +3207,13 @@
     <row r="60" spans="1:27" ht="14.4">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>80</v>
@@ -3267,16 +3244,16 @@
     <row r="61" spans="1:27" ht="14.4">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
@@ -3410,17 +3387,15 @@
       <c r="AA65" s="4"/>
     </row>
     <row r="66" spans="1:27" ht="14.4">
-      <c r="A66" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3441,7 +3416,7 @@
       <c r="AA66" s="4"/>
     </row>
     <row r="67" spans="1:27" ht="14.4">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
@@ -31773,37 +31748,8 @@
       <c r="Z1043" s="4"/>
       <c r="AA1043" s="4"/>
     </row>
-    <row r="1044" spans="1:27" ht="14.4">
+    <row r="1044" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1044" s="6"/>
-      <c r="B1044" s="3"/>
-      <c r="C1044" s="6"/>
-      <c r="D1044" s="4"/>
-      <c r="E1044" s="6"/>
-      <c r="F1044" s="4"/>
-      <c r="G1044" s="4"/>
-      <c r="H1044" s="6"/>
-      <c r="I1044" s="4"/>
-      <c r="J1044" s="4"/>
-      <c r="K1044" s="4"/>
-      <c r="L1044" s="4"/>
-      <c r="M1044" s="4"/>
-      <c r="N1044" s="4"/>
-      <c r="O1044" s="4"/>
-      <c r="P1044" s="4"/>
-      <c r="Q1044" s="4"/>
-      <c r="R1044" s="4"/>
-      <c r="S1044" s="4"/>
-      <c r="T1044" s="4"/>
-      <c r="U1044" s="4"/>
-      <c r="V1044" s="4"/>
-      <c r="W1044" s="4"/>
-      <c r="X1044" s="4"/>
-      <c r="Y1044" s="4"/>
-      <c r="Z1044" s="4"/>
-      <c r="AA1044" s="4"/>
-    </row>
-    <row r="1045" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1045" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
   <si>
     <t>release</t>
   </si>
@@ -466,28 +466,16 @@
     <t>D5_DU_for_Template_3</t>
   </si>
   <si>
-    <t>D4_DU_individual_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
-  </si>
-  <si>
     <t>D4_DU_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
   <si>
     <t>Prevalence of MS stratified by age at LMP and calendar period per 1,000 pregnancies</t>
   </si>
   <si>
-    <t>Pattern of MS DMT medications1 use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
-  </si>
-  <si>
     <t>D4_DU_prevalence_of_use_MSdrugs_in_MS_cohort</t>
   </si>
   <si>
-    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Template 6</t>
-  </si>
-  <si>
     <t>D5_DU_for_Template_6</t>
-  </si>
-  <si>
-    <t>Prevalence of medication in women of childbearing age with MS at cohort entry over time</t>
   </si>
   <si>
     <t>11_T4_30_create_template_on_prevalence_of_use_MSdrugs_in_MS_cohort</t>
@@ -524,6 +512,27 @@
   </si>
   <si>
     <t>D3_DU_PREGNANCY-COHORT_variables D4_DU_MS-COHORT</t>
+  </si>
+  <si>
+    <t>D4_DU_matched_MS-PREGNANCY-COHORT_to_MS-COHORT conceptsets</t>
+  </si>
+  <si>
+    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Template 6 and 7</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Template_7</t>
+  </si>
+  <si>
+    <t>Pattern of MS DMT medications use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
+  </si>
+  <si>
+    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Template 3</t>
+  </si>
+  <si>
+    <t>Prevalence of MS medication in women of childbearing age with MS at cohort entry over time</t>
+  </si>
+  <si>
+    <t>Prevalence of MS medication in women of childbearing age with MS at cohort entry by study period and age group</t>
   </si>
 </sst>
 </file>
@@ -651,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -708,7 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,7 +730,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -944,17 +966,17 @@
   <dimension ref="A1:AA1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
+      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="41" customWidth="1"/>
     <col min="4" max="4" width="48.77734375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
@@ -1017,7 +1039,7 @@
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1078,7 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1117,7 @@
       <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1156,7 @@
       <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1195,7 @@
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1234,7 @@
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1273,7 @@
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1620,7 @@
       <c r="B17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -2579,19 +2601,19 @@
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="s">
@@ -2623,16 +2645,16 @@
       <c r="B44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="s">
@@ -2664,7 +2686,7 @@
       <c r="B45" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -2673,7 +2695,7 @@
       <c r="E45" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="35"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="s">
@@ -2705,7 +2727,7 @@
       <c r="B46" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="39" t="s">
         <v>75</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -2714,7 +2736,7 @@
       <c r="E46" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="s">
@@ -2789,14 +2811,14 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="14.4">
+    <row r="49" spans="1:27" ht="27">
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -2805,7 +2827,7 @@
       <c r="E49" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="s">
@@ -2837,7 +2859,7 @@
       <c r="B50" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="35" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -2846,7 +2868,7 @@
       <c r="E50" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="4"/>
       <c r="H50" s="15"/>
       <c r="I50" s="3"/>
@@ -2874,7 +2896,7 @@
       <c r="B51" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -2883,7 +2905,7 @@
       <c r="E51" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="4"/>
       <c r="H51" s="15"/>
       <c r="I51" s="3"/>
@@ -2909,18 +2931,18 @@
     <row r="52" spans="1:27" ht="43.2">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="4"/>
       <c r="H52" s="15"/>
       <c r="I52" s="3"/>
@@ -2952,12 +2974,12 @@
         <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="35"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="4"/>
       <c r="H53" s="15"/>
       <c r="I53" s="3"/>
@@ -2989,12 +3011,12 @@
         <v>83</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="35"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="4"/>
       <c r="H54" s="15"/>
       <c r="I54" s="3"/>
@@ -3026,7 +3048,7 @@
         <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>111</v>
@@ -3059,16 +3081,16 @@
     <row r="56" spans="1:27" ht="43.2">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -3093,17 +3115,19 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="14.4">
+    <row r="57" spans="1:27" ht="42" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="D57" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -3134,10 +3158,10 @@
         <v>147</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>148</v>
@@ -3165,18 +3189,18 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="14.4">
+    <row r="59" spans="1:27" ht="28.8">
       <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>80</v>
@@ -3204,16 +3228,16 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="14.4">
+    <row r="60" spans="1:27" ht="27.6">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>150</v>
+      <c r="C60" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>80</v>
@@ -3241,19 +3265,19 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="14.4">
+    <row r="61" spans="1:27" ht="41.4">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>155</v>
+      <c r="C61" s="44" t="s">
+        <v>169</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
@@ -3278,12 +3302,20 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="14.4">
+    <row r="62" spans="1:27" ht="41.4">
       <c r="A62" s="5"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
       <c r="H62" s="15"/>
@@ -3310,7 +3342,7 @@
     <row r="63" spans="1:27" ht="14.4">
       <c r="A63" s="5"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="42"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
@@ -3389,7 +3421,7 @@
     <row r="66" spans="1:27" ht="14.4">
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="4"/>
       <c r="E66" s="6"/>
       <c r="F66" s="4"/>
@@ -3418,7 +3450,7 @@
     <row r="67" spans="1:27" ht="14.4">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="4"/>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
@@ -3447,7 +3479,7 @@
     <row r="68" spans="1:27" ht="14.4">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="6"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="4"/>
       <c r="E68" s="6"/>
       <c r="F68" s="4"/>
@@ -3476,7 +3508,7 @@
     <row r="69" spans="1:27" ht="14.4">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="4"/>
       <c r="E69" s="6"/>
       <c r="F69" s="4"/>
@@ -3505,7 +3537,7 @@
     <row r="70" spans="1:27" ht="14.4">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="4"/>
       <c r="E70" s="6"/>
       <c r="F70" s="4"/>
@@ -3534,7 +3566,7 @@
     <row r="71" spans="1:27" ht="14.4">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="4"/>
       <c r="E71" s="6"/>
       <c r="F71" s="4"/>
@@ -3563,7 +3595,7 @@
     <row r="72" spans="1:27" ht="14.4">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="4"/>
       <c r="E72" s="6"/>
       <c r="F72" s="4"/>
@@ -3592,7 +3624,7 @@
     <row r="73" spans="1:27" ht="14.4">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="4"/>
       <c r="E73" s="6"/>
       <c r="F73" s="4"/>
@@ -3621,7 +3653,7 @@
     <row r="74" spans="1:27" ht="14.4">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="4"/>
       <c r="E74" s="6"/>
       <c r="F74" s="4"/>
@@ -3650,7 +3682,7 @@
     <row r="75" spans="1:27" ht="14.4">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="4"/>
       <c r="E75" s="6"/>
       <c r="F75" s="4"/>
@@ -3679,7 +3711,7 @@
     <row r="76" spans="1:27" ht="14.4">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="4"/>
       <c r="E76" s="6"/>
       <c r="F76" s="4"/>
@@ -3708,7 +3740,7 @@
     <row r="77" spans="1:27" ht="14.4">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="4"/>
       <c r="E77" s="6"/>
       <c r="F77" s="4"/>
@@ -3737,7 +3769,7 @@
     <row r="78" spans="1:27" ht="14.4">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="4"/>
       <c r="E78" s="6"/>
       <c r="F78" s="4"/>
@@ -3766,7 +3798,7 @@
     <row r="79" spans="1:27" ht="14.4">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="4"/>
       <c r="E79" s="6"/>
       <c r="F79" s="4"/>
@@ -3795,7 +3827,7 @@
     <row r="80" spans="1:27" ht="14.4">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="4"/>
       <c r="E80" s="6"/>
       <c r="F80" s="4"/>
@@ -3824,7 +3856,7 @@
     <row r="81" spans="1:27" ht="14.4">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="4"/>
       <c r="E81" s="6"/>
       <c r="F81" s="4"/>
@@ -3853,7 +3885,7 @@
     <row r="82" spans="1:27" ht="14.4">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="4"/>
       <c r="E82" s="6"/>
       <c r="F82" s="4"/>
@@ -3882,7 +3914,7 @@
     <row r="83" spans="1:27" ht="14.4">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="4"/>
       <c r="E83" s="6"/>
       <c r="F83" s="4"/>
@@ -3911,7 +3943,7 @@
     <row r="84" spans="1:27" ht="14.4">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
       <c r="F84" s="4"/>
@@ -3940,7 +3972,7 @@
     <row r="85" spans="1:27" ht="14.4">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="4"/>
       <c r="E85" s="6"/>
       <c r="F85" s="4"/>
@@ -3969,7 +4001,7 @@
     <row r="86" spans="1:27" ht="14.4">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="4"/>
       <c r="E86" s="6"/>
       <c r="F86" s="4"/>
@@ -3998,7 +4030,7 @@
     <row r="87" spans="1:27" ht="14.4">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="4"/>
       <c r="E87" s="6"/>
       <c r="F87" s="4"/>
@@ -4027,7 +4059,7 @@
     <row r="88" spans="1:27" ht="14.4">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="4"/>
       <c r="E88" s="6"/>
       <c r="F88" s="4"/>
@@ -4056,7 +4088,7 @@
     <row r="89" spans="1:27" ht="14.4">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="4"/>
       <c r="E89" s="6"/>
       <c r="F89" s="4"/>
@@ -4085,7 +4117,7 @@
     <row r="90" spans="1:27" ht="14.4">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="4"/>
       <c r="E90" s="6"/>
       <c r="F90" s="4"/>
@@ -4114,7 +4146,7 @@
     <row r="91" spans="1:27" ht="14.4">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="4"/>
       <c r="E91" s="6"/>
       <c r="F91" s="4"/>
@@ -4143,7 +4175,7 @@
     <row r="92" spans="1:27" ht="14.4">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="4"/>
@@ -4172,7 +4204,7 @@
     <row r="93" spans="1:27" ht="14.4">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="4"/>
       <c r="E93" s="6"/>
       <c r="F93" s="4"/>
@@ -4201,7 +4233,7 @@
     <row r="94" spans="1:27" ht="14.4">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="4"/>
       <c r="E94" s="6"/>
       <c r="F94" s="4"/>
@@ -4230,7 +4262,7 @@
     <row r="95" spans="1:27" ht="14.4">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="4"/>
       <c r="E95" s="6"/>
       <c r="F95" s="4"/>
@@ -4259,7 +4291,7 @@
     <row r="96" spans="1:27" ht="14.4">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="4"/>
       <c r="E96" s="6"/>
       <c r="F96" s="4"/>
@@ -4288,7 +4320,7 @@
     <row r="97" spans="1:27" ht="14.4">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="4"/>
       <c r="E97" s="6"/>
       <c r="F97" s="4"/>
@@ -4317,7 +4349,7 @@
     <row r="98" spans="1:27" ht="14.4">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="4"/>
       <c r="E98" s="6"/>
       <c r="F98" s="4"/>
@@ -4346,7 +4378,7 @@
     <row r="99" spans="1:27" ht="14.4">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="4"/>
       <c r="E99" s="6"/>
       <c r="F99" s="4"/>
@@ -4375,7 +4407,7 @@
     <row r="100" spans="1:27" ht="14.4">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="4"/>
       <c r="E100" s="6"/>
       <c r="F100" s="4"/>
@@ -4404,7 +4436,7 @@
     <row r="101" spans="1:27" ht="14.4">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="4"/>
       <c r="E101" s="6"/>
       <c r="F101" s="4"/>
@@ -4433,7 +4465,7 @@
     <row r="102" spans="1:27" ht="14.4">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="4"/>
       <c r="E102" s="6"/>
       <c r="F102" s="4"/>
@@ -4462,7 +4494,7 @@
     <row r="103" spans="1:27" ht="14.4">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="4"/>
       <c r="E103" s="6"/>
       <c r="F103" s="4"/>
@@ -4491,7 +4523,7 @@
     <row r="104" spans="1:27" ht="14.4">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="4"/>
       <c r="E104" s="6"/>
       <c r="F104" s="4"/>
@@ -4520,7 +4552,7 @@
     <row r="105" spans="1:27" ht="14.4">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="4"/>
       <c r="E105" s="6"/>
       <c r="F105" s="4"/>
@@ -4549,7 +4581,7 @@
     <row r="106" spans="1:27" ht="14.4">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="4"/>
       <c r="E106" s="6"/>
       <c r="F106" s="4"/>
@@ -4578,7 +4610,7 @@
     <row r="107" spans="1:27" ht="14.4">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="4"/>
       <c r="E107" s="6"/>
       <c r="F107" s="4"/>
@@ -4607,7 +4639,7 @@
     <row r="108" spans="1:27" ht="14.4">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="4"/>
       <c r="E108" s="6"/>
       <c r="F108" s="4"/>
@@ -4636,7 +4668,7 @@
     <row r="109" spans="1:27" ht="14.4">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4"/>
       <c r="E109" s="6"/>
       <c r="F109" s="4"/>
@@ -4665,7 +4697,7 @@
     <row r="110" spans="1:27" ht="14.4">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="4"/>
       <c r="E110" s="6"/>
       <c r="F110" s="4"/>
@@ -4694,7 +4726,7 @@
     <row r="111" spans="1:27" ht="14.4">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="4"/>
       <c r="E111" s="6"/>
       <c r="F111" s="4"/>
@@ -4723,7 +4755,7 @@
     <row r="112" spans="1:27" ht="14.4">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="4"/>
       <c r="E112" s="6"/>
       <c r="F112" s="4"/>
@@ -4752,7 +4784,7 @@
     <row r="113" spans="1:27" ht="14.4">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="4"/>
       <c r="E113" s="6"/>
       <c r="F113" s="4"/>
@@ -4781,7 +4813,7 @@
     <row r="114" spans="1:27" ht="14.4">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="4"/>
       <c r="E114" s="6"/>
       <c r="F114" s="4"/>
@@ -4810,7 +4842,7 @@
     <row r="115" spans="1:27" ht="14.4">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="4"/>
       <c r="E115" s="6"/>
       <c r="F115" s="4"/>
@@ -4839,7 +4871,7 @@
     <row r="116" spans="1:27" ht="14.4">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="4"/>
       <c r="E116" s="6"/>
       <c r="F116" s="4"/>
@@ -4868,7 +4900,7 @@
     <row r="117" spans="1:27" ht="14.4">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="4"/>
       <c r="E117" s="6"/>
       <c r="F117" s="4"/>
@@ -4897,7 +4929,7 @@
     <row r="118" spans="1:27" ht="14.4">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="4"/>
       <c r="E118" s="6"/>
       <c r="F118" s="4"/>
@@ -4926,7 +4958,7 @@
     <row r="119" spans="1:27" ht="14.4">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="4"/>
       <c r="E119" s="6"/>
       <c r="F119" s="4"/>
@@ -4955,7 +4987,7 @@
     <row r="120" spans="1:27" ht="14.4">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="4"/>
       <c r="E120" s="6"/>
       <c r="F120" s="4"/>
@@ -4984,7 +5016,7 @@
     <row r="121" spans="1:27" ht="14.4">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="4"/>
       <c r="E121" s="6"/>
       <c r="F121" s="4"/>
@@ -5013,7 +5045,7 @@
     <row r="122" spans="1:27" ht="14.4">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="4"/>
       <c r="E122" s="6"/>
       <c r="F122" s="4"/>
@@ -5042,7 +5074,7 @@
     <row r="123" spans="1:27" ht="14.4">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="4"/>
       <c r="E123" s="6"/>
       <c r="F123" s="4"/>
@@ -5071,7 +5103,7 @@
     <row r="124" spans="1:27" ht="14.4">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="4"/>
       <c r="E124" s="6"/>
       <c r="F124" s="4"/>
@@ -5100,7 +5132,7 @@
     <row r="125" spans="1:27" ht="14.4">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="4"/>
       <c r="E125" s="6"/>
       <c r="F125" s="4"/>
@@ -5129,7 +5161,7 @@
     <row r="126" spans="1:27" ht="14.4">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="4"/>
       <c r="E126" s="6"/>
       <c r="F126" s="4"/>
@@ -5158,7 +5190,7 @@
     <row r="127" spans="1:27" ht="14.4">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="4"/>
       <c r="E127" s="6"/>
       <c r="F127" s="4"/>
@@ -5187,7 +5219,7 @@
     <row r="128" spans="1:27" ht="14.4">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="6"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="4"/>
       <c r="E128" s="6"/>
       <c r="F128" s="4"/>
@@ -5216,7 +5248,7 @@
     <row r="129" spans="1:27" ht="14.4">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="15"/>
       <c r="D129" s="4"/>
       <c r="E129" s="6"/>
       <c r="F129" s="4"/>
@@ -5245,7 +5277,7 @@
     <row r="130" spans="1:27" ht="14.4">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="4"/>
       <c r="E130" s="6"/>
       <c r="F130" s="4"/>
@@ -5274,7 +5306,7 @@
     <row r="131" spans="1:27" ht="14.4">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="6"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="4"/>
       <c r="E131" s="6"/>
       <c r="F131" s="4"/>
@@ -5303,7 +5335,7 @@
     <row r="132" spans="1:27" ht="14.4">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="4"/>
       <c r="E132" s="6"/>
       <c r="F132" s="4"/>
@@ -5332,7 +5364,7 @@
     <row r="133" spans="1:27" ht="14.4">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="15"/>
       <c r="D133" s="4"/>
       <c r="E133" s="6"/>
       <c r="F133" s="4"/>
@@ -5361,7 +5393,7 @@
     <row r="134" spans="1:27" ht="14.4">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="15"/>
       <c r="D134" s="4"/>
       <c r="E134" s="6"/>
       <c r="F134" s="4"/>
@@ -5390,7 +5422,7 @@
     <row r="135" spans="1:27" ht="14.4">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="4"/>
       <c r="E135" s="6"/>
       <c r="F135" s="4"/>
@@ -5419,7 +5451,7 @@
     <row r="136" spans="1:27" ht="14.4">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="4"/>
       <c r="E136" s="6"/>
       <c r="F136" s="4"/>
@@ -5448,7 +5480,7 @@
     <row r="137" spans="1:27" ht="14.4">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="4"/>
       <c r="E137" s="6"/>
       <c r="F137" s="4"/>
@@ -5477,7 +5509,7 @@
     <row r="138" spans="1:27" ht="14.4">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="4"/>
       <c r="E138" s="6"/>
       <c r="F138" s="4"/>
@@ -5506,7 +5538,7 @@
     <row r="139" spans="1:27" ht="14.4">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="15"/>
       <c r="D139" s="4"/>
       <c r="E139" s="6"/>
       <c r="F139" s="4"/>
@@ -5535,7 +5567,7 @@
     <row r="140" spans="1:27" ht="14.4">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="15"/>
       <c r="D140" s="4"/>
       <c r="E140" s="6"/>
       <c r="F140" s="4"/>
@@ -5564,7 +5596,7 @@
     <row r="141" spans="1:27" ht="14.4">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="15"/>
       <c r="D141" s="4"/>
       <c r="E141" s="6"/>
       <c r="F141" s="4"/>
@@ -5593,7 +5625,7 @@
     <row r="142" spans="1:27" ht="14.4">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="15"/>
       <c r="D142" s="4"/>
       <c r="E142" s="6"/>
       <c r="F142" s="4"/>
@@ -5622,7 +5654,7 @@
     <row r="143" spans="1:27" ht="14.4">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="15"/>
       <c r="D143" s="4"/>
       <c r="E143" s="6"/>
       <c r="F143" s="4"/>
@@ -5651,7 +5683,7 @@
     <row r="144" spans="1:27" ht="14.4">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="4"/>
       <c r="E144" s="6"/>
       <c r="F144" s="4"/>
@@ -5680,7 +5712,7 @@
     <row r="145" spans="1:27" ht="14.4">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="15"/>
       <c r="D145" s="4"/>
       <c r="E145" s="6"/>
       <c r="F145" s="4"/>
@@ -5709,7 +5741,7 @@
     <row r="146" spans="1:27" ht="14.4">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="15"/>
       <c r="D146" s="4"/>
       <c r="E146" s="6"/>
       <c r="F146" s="4"/>
@@ -5738,7 +5770,7 @@
     <row r="147" spans="1:27" ht="14.4">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="15"/>
       <c r="D147" s="4"/>
       <c r="E147" s="6"/>
       <c r="F147" s="4"/>
@@ -5767,7 +5799,7 @@
     <row r="148" spans="1:27" ht="14.4">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="15"/>
       <c r="D148" s="4"/>
       <c r="E148" s="6"/>
       <c r="F148" s="4"/>
@@ -5796,7 +5828,7 @@
     <row r="149" spans="1:27" ht="14.4">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="6"/>
+      <c r="C149" s="15"/>
       <c r="D149" s="4"/>
       <c r="E149" s="6"/>
       <c r="F149" s="4"/>
@@ -5825,7 +5857,7 @@
     <row r="150" spans="1:27" ht="14.4">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="15"/>
       <c r="D150" s="4"/>
       <c r="E150" s="6"/>
       <c r="F150" s="4"/>
@@ -5854,7 +5886,7 @@
     <row r="151" spans="1:27" ht="14.4">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="6"/>
+      <c r="C151" s="15"/>
       <c r="D151" s="4"/>
       <c r="E151" s="6"/>
       <c r="F151" s="4"/>
@@ -5883,7 +5915,7 @@
     <row r="152" spans="1:27" ht="14.4">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="6"/>
+      <c r="C152" s="15"/>
       <c r="D152" s="4"/>
       <c r="E152" s="6"/>
       <c r="F152" s="4"/>
@@ -5912,7 +5944,7 @@
     <row r="153" spans="1:27" ht="14.4">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="15"/>
       <c r="D153" s="4"/>
       <c r="E153" s="6"/>
       <c r="F153" s="4"/>
@@ -5941,7 +5973,7 @@
     <row r="154" spans="1:27" ht="14.4">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="15"/>
       <c r="D154" s="4"/>
       <c r="E154" s="6"/>
       <c r="F154" s="4"/>
@@ -5970,7 +6002,7 @@
     <row r="155" spans="1:27" ht="14.4">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="6"/>
+      <c r="C155" s="15"/>
       <c r="D155" s="4"/>
       <c r="E155" s="6"/>
       <c r="F155" s="4"/>
@@ -5999,7 +6031,7 @@
     <row r="156" spans="1:27" ht="14.4">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="6"/>
+      <c r="C156" s="15"/>
       <c r="D156" s="4"/>
       <c r="E156" s="6"/>
       <c r="F156" s="4"/>
@@ -6028,7 +6060,7 @@
     <row r="157" spans="1:27" ht="14.4">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="15"/>
       <c r="D157" s="4"/>
       <c r="E157" s="6"/>
       <c r="F157" s="4"/>
@@ -6057,7 +6089,7 @@
     <row r="158" spans="1:27" ht="14.4">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="6"/>
+      <c r="C158" s="15"/>
       <c r="D158" s="4"/>
       <c r="E158" s="6"/>
       <c r="F158" s="4"/>
@@ -6086,7 +6118,7 @@
     <row r="159" spans="1:27" ht="14.4">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="6"/>
+      <c r="C159" s="15"/>
       <c r="D159" s="4"/>
       <c r="E159" s="6"/>
       <c r="F159" s="4"/>
@@ -6115,7 +6147,7 @@
     <row r="160" spans="1:27" ht="14.4">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="6"/>
+      <c r="C160" s="15"/>
       <c r="D160" s="4"/>
       <c r="E160" s="6"/>
       <c r="F160" s="4"/>
@@ -6144,7 +6176,7 @@
     <row r="161" spans="1:27" ht="14.4">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="6"/>
+      <c r="C161" s="15"/>
       <c r="D161" s="4"/>
       <c r="E161" s="6"/>
       <c r="F161" s="4"/>
@@ -6173,7 +6205,7 @@
     <row r="162" spans="1:27" ht="14.4">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="6"/>
+      <c r="C162" s="15"/>
       <c r="D162" s="4"/>
       <c r="E162" s="6"/>
       <c r="F162" s="4"/>
@@ -6202,7 +6234,7 @@
     <row r="163" spans="1:27" ht="14.4">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="6"/>
+      <c r="C163" s="15"/>
       <c r="D163" s="4"/>
       <c r="E163" s="6"/>
       <c r="F163" s="4"/>
@@ -6231,7 +6263,7 @@
     <row r="164" spans="1:27" ht="14.4">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="6"/>
+      <c r="C164" s="15"/>
       <c r="D164" s="4"/>
       <c r="E164" s="6"/>
       <c r="F164" s="4"/>
@@ -6260,7 +6292,7 @@
     <row r="165" spans="1:27" ht="14.4">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="6"/>
+      <c r="C165" s="15"/>
       <c r="D165" s="4"/>
       <c r="E165" s="6"/>
       <c r="F165" s="4"/>
@@ -6289,7 +6321,7 @@
     <row r="166" spans="1:27" ht="14.4">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="15"/>
       <c r="D166" s="4"/>
       <c r="E166" s="6"/>
       <c r="F166" s="4"/>
@@ -6318,7 +6350,7 @@
     <row r="167" spans="1:27" ht="14.4">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="6"/>
+      <c r="C167" s="15"/>
       <c r="D167" s="4"/>
       <c r="E167" s="6"/>
       <c r="F167" s="4"/>
@@ -6347,7 +6379,7 @@
     <row r="168" spans="1:27" ht="14.4">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="6"/>
+      <c r="C168" s="15"/>
       <c r="D168" s="4"/>
       <c r="E168" s="6"/>
       <c r="F168" s="4"/>
@@ -6376,7 +6408,7 @@
     <row r="169" spans="1:27" ht="14.4">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="15"/>
       <c r="D169" s="4"/>
       <c r="E169" s="6"/>
       <c r="F169" s="4"/>
@@ -6405,7 +6437,7 @@
     <row r="170" spans="1:27" ht="14.4">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="6"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="4"/>
       <c r="E170" s="6"/>
       <c r="F170" s="4"/>
@@ -6434,7 +6466,7 @@
     <row r="171" spans="1:27" ht="14.4">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="6"/>
+      <c r="C171" s="15"/>
       <c r="D171" s="4"/>
       <c r="E171" s="6"/>
       <c r="F171" s="4"/>
@@ -6463,7 +6495,7 @@
     <row r="172" spans="1:27" ht="14.4">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="6"/>
+      <c r="C172" s="15"/>
       <c r="D172" s="4"/>
       <c r="E172" s="6"/>
       <c r="F172" s="4"/>
@@ -6492,7 +6524,7 @@
     <row r="173" spans="1:27" ht="14.4">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="6"/>
+      <c r="C173" s="15"/>
       <c r="D173" s="4"/>
       <c r="E173" s="6"/>
       <c r="F173" s="4"/>
@@ -6521,7 +6553,7 @@
     <row r="174" spans="1:27" ht="14.4">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="6"/>
+      <c r="C174" s="15"/>
       <c r="D174" s="4"/>
       <c r="E174" s="6"/>
       <c r="F174" s="4"/>
@@ -6550,7 +6582,7 @@
     <row r="175" spans="1:27" ht="14.4">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="6"/>
+      <c r="C175" s="15"/>
       <c r="D175" s="4"/>
       <c r="E175" s="6"/>
       <c r="F175" s="4"/>
@@ -6579,7 +6611,7 @@
     <row r="176" spans="1:27" ht="14.4">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="6"/>
+      <c r="C176" s="15"/>
       <c r="D176" s="4"/>
       <c r="E176" s="6"/>
       <c r="F176" s="4"/>
@@ -6608,7 +6640,7 @@
     <row r="177" spans="1:27" ht="14.4">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="6"/>
+      <c r="C177" s="15"/>
       <c r="D177" s="4"/>
       <c r="E177" s="6"/>
       <c r="F177" s="4"/>
@@ -6637,7 +6669,7 @@
     <row r="178" spans="1:27" ht="14.4">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="6"/>
+      <c r="C178" s="15"/>
       <c r="D178" s="4"/>
       <c r="E178" s="6"/>
       <c r="F178" s="4"/>
@@ -6666,7 +6698,7 @@
     <row r="179" spans="1:27" ht="14.4">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="6"/>
+      <c r="C179" s="15"/>
       <c r="D179" s="4"/>
       <c r="E179" s="6"/>
       <c r="F179" s="4"/>
@@ -6695,7 +6727,7 @@
     <row r="180" spans="1:27" ht="14.4">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="6"/>
+      <c r="C180" s="15"/>
       <c r="D180" s="4"/>
       <c r="E180" s="6"/>
       <c r="F180" s="4"/>
@@ -6724,7 +6756,7 @@
     <row r="181" spans="1:27" ht="14.4">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="6"/>
+      <c r="C181" s="15"/>
       <c r="D181" s="4"/>
       <c r="E181" s="6"/>
       <c r="F181" s="4"/>
@@ -6753,7 +6785,7 @@
     <row r="182" spans="1:27" ht="14.4">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="6"/>
+      <c r="C182" s="15"/>
       <c r="D182" s="4"/>
       <c r="E182" s="6"/>
       <c r="F182" s="4"/>
@@ -6782,7 +6814,7 @@
     <row r="183" spans="1:27" ht="14.4">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="6"/>
+      <c r="C183" s="15"/>
       <c r="D183" s="4"/>
       <c r="E183" s="6"/>
       <c r="F183" s="4"/>
@@ -6811,7 +6843,7 @@
     <row r="184" spans="1:27" ht="14.4">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="6"/>
+      <c r="C184" s="15"/>
       <c r="D184" s="4"/>
       <c r="E184" s="6"/>
       <c r="F184" s="4"/>
@@ -6840,7 +6872,7 @@
     <row r="185" spans="1:27" ht="14.4">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="6"/>
+      <c r="C185" s="15"/>
       <c r="D185" s="4"/>
       <c r="E185" s="6"/>
       <c r="F185" s="4"/>
@@ -6869,7 +6901,7 @@
     <row r="186" spans="1:27" ht="14.4">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="6"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="4"/>
       <c r="E186" s="6"/>
       <c r="F186" s="4"/>
@@ -6898,7 +6930,7 @@
     <row r="187" spans="1:27" ht="14.4">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="6"/>
+      <c r="C187" s="15"/>
       <c r="D187" s="4"/>
       <c r="E187" s="6"/>
       <c r="F187" s="4"/>
@@ -6927,7 +6959,7 @@
     <row r="188" spans="1:27" ht="14.4">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="6"/>
+      <c r="C188" s="15"/>
       <c r="D188" s="4"/>
       <c r="E188" s="6"/>
       <c r="F188" s="4"/>
@@ -6956,7 +6988,7 @@
     <row r="189" spans="1:27" ht="14.4">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="6"/>
+      <c r="C189" s="15"/>
       <c r="D189" s="4"/>
       <c r="E189" s="6"/>
       <c r="F189" s="4"/>
@@ -6985,7 +7017,7 @@
     <row r="190" spans="1:27" ht="14.4">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="6"/>
+      <c r="C190" s="15"/>
       <c r="D190" s="4"/>
       <c r="E190" s="6"/>
       <c r="F190" s="4"/>
@@ -7014,7 +7046,7 @@
     <row r="191" spans="1:27" ht="14.4">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="6"/>
+      <c r="C191" s="15"/>
       <c r="D191" s="4"/>
       <c r="E191" s="6"/>
       <c r="F191" s="4"/>
@@ -7043,7 +7075,7 @@
     <row r="192" spans="1:27" ht="14.4">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="6"/>
+      <c r="C192" s="15"/>
       <c r="D192" s="4"/>
       <c r="E192" s="6"/>
       <c r="F192" s="4"/>
@@ -7072,7 +7104,7 @@
     <row r="193" spans="1:27" ht="14.4">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="6"/>
+      <c r="C193" s="15"/>
       <c r="D193" s="4"/>
       <c r="E193" s="6"/>
       <c r="F193" s="4"/>
@@ -7101,7 +7133,7 @@
     <row r="194" spans="1:27" ht="14.4">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="6"/>
+      <c r="C194" s="15"/>
       <c r="D194" s="4"/>
       <c r="E194" s="6"/>
       <c r="F194" s="4"/>
@@ -7130,7 +7162,7 @@
     <row r="195" spans="1:27" ht="14.4">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="6"/>
+      <c r="C195" s="15"/>
       <c r="D195" s="4"/>
       <c r="E195" s="6"/>
       <c r="F195" s="4"/>
@@ -7159,7 +7191,7 @@
     <row r="196" spans="1:27" ht="14.4">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="6"/>
+      <c r="C196" s="15"/>
       <c r="D196" s="4"/>
       <c r="E196" s="6"/>
       <c r="F196" s="4"/>
@@ -7188,7 +7220,7 @@
     <row r="197" spans="1:27" ht="14.4">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="6"/>
+      <c r="C197" s="15"/>
       <c r="D197" s="4"/>
       <c r="E197" s="6"/>
       <c r="F197" s="4"/>
@@ -7217,7 +7249,7 @@
     <row r="198" spans="1:27" ht="14.4">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="6"/>
+      <c r="C198" s="15"/>
       <c r="D198" s="4"/>
       <c r="E198" s="6"/>
       <c r="F198" s="4"/>
@@ -7246,7 +7278,7 @@
     <row r="199" spans="1:27" ht="14.4">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="6"/>
+      <c r="C199" s="15"/>
       <c r="D199" s="4"/>
       <c r="E199" s="6"/>
       <c r="F199" s="4"/>
@@ -7275,7 +7307,7 @@
     <row r="200" spans="1:27" ht="14.4">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="6"/>
+      <c r="C200" s="15"/>
       <c r="D200" s="4"/>
       <c r="E200" s="6"/>
       <c r="F200" s="4"/>
@@ -7304,7 +7336,7 @@
     <row r="201" spans="1:27" ht="14.4">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="6"/>
+      <c r="C201" s="15"/>
       <c r="D201" s="4"/>
       <c r="E201" s="6"/>
       <c r="F201" s="4"/>
@@ -7333,7 +7365,7 @@
     <row r="202" spans="1:27" ht="14.4">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="6"/>
+      <c r="C202" s="15"/>
       <c r="D202" s="4"/>
       <c r="E202" s="6"/>
       <c r="F202" s="4"/>
@@ -7362,7 +7394,7 @@
     <row r="203" spans="1:27" ht="14.4">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="6"/>
+      <c r="C203" s="15"/>
       <c r="D203" s="4"/>
       <c r="E203" s="6"/>
       <c r="F203" s="4"/>
@@ -7391,7 +7423,7 @@
     <row r="204" spans="1:27" ht="14.4">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="15"/>
       <c r="D204" s="4"/>
       <c r="E204" s="6"/>
       <c r="F204" s="4"/>
@@ -7420,7 +7452,7 @@
     <row r="205" spans="1:27" ht="14.4">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="6"/>
+      <c r="C205" s="15"/>
       <c r="D205" s="4"/>
       <c r="E205" s="6"/>
       <c r="F205" s="4"/>
@@ -7449,7 +7481,7 @@
     <row r="206" spans="1:27" ht="14.4">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="6"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="4"/>
       <c r="E206" s="6"/>
       <c r="F206" s="4"/>
@@ -7478,7 +7510,7 @@
     <row r="207" spans="1:27" ht="14.4">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="6"/>
+      <c r="C207" s="15"/>
       <c r="D207" s="4"/>
       <c r="E207" s="6"/>
       <c r="F207" s="4"/>
@@ -7507,7 +7539,7 @@
     <row r="208" spans="1:27" ht="14.4">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="6"/>
+      <c r="C208" s="15"/>
       <c r="D208" s="4"/>
       <c r="E208" s="6"/>
       <c r="F208" s="4"/>
@@ -7536,7 +7568,7 @@
     <row r="209" spans="1:27" ht="14.4">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="6"/>
+      <c r="C209" s="15"/>
       <c r="D209" s="4"/>
       <c r="E209" s="6"/>
       <c r="F209" s="4"/>
@@ -7565,7 +7597,7 @@
     <row r="210" spans="1:27" ht="14.4">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="6"/>
+      <c r="C210" s="15"/>
       <c r="D210" s="4"/>
       <c r="E210" s="6"/>
       <c r="F210" s="4"/>
@@ -7594,7 +7626,7 @@
     <row r="211" spans="1:27" ht="14.4">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="6"/>
+      <c r="C211" s="15"/>
       <c r="D211" s="4"/>
       <c r="E211" s="6"/>
       <c r="F211" s="4"/>
@@ -7623,7 +7655,7 @@
     <row r="212" spans="1:27" ht="14.4">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="6"/>
+      <c r="C212" s="15"/>
       <c r="D212" s="4"/>
       <c r="E212" s="6"/>
       <c r="F212" s="4"/>
@@ -7652,7 +7684,7 @@
     <row r="213" spans="1:27" ht="14.4">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="6"/>
+      <c r="C213" s="15"/>
       <c r="D213" s="4"/>
       <c r="E213" s="6"/>
       <c r="F213" s="4"/>
@@ -7681,7 +7713,7 @@
     <row r="214" spans="1:27" ht="14.4">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="6"/>
+      <c r="C214" s="15"/>
       <c r="D214" s="4"/>
       <c r="E214" s="6"/>
       <c r="F214" s="4"/>
@@ -7710,7 +7742,7 @@
     <row r="215" spans="1:27" ht="14.4">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="6"/>
+      <c r="C215" s="15"/>
       <c r="D215" s="4"/>
       <c r="E215" s="6"/>
       <c r="F215" s="4"/>
@@ -7739,7 +7771,7 @@
     <row r="216" spans="1:27" ht="14.4">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="6"/>
+      <c r="C216" s="15"/>
       <c r="D216" s="4"/>
       <c r="E216" s="6"/>
       <c r="F216" s="4"/>
@@ -7768,7 +7800,7 @@
     <row r="217" spans="1:27" ht="14.4">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="6"/>
+      <c r="C217" s="15"/>
       <c r="D217" s="4"/>
       <c r="E217" s="6"/>
       <c r="F217" s="4"/>
@@ -7797,7 +7829,7 @@
     <row r="218" spans="1:27" ht="14.4">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="6"/>
+      <c r="C218" s="15"/>
       <c r="D218" s="4"/>
       <c r="E218" s="6"/>
       <c r="F218" s="4"/>
@@ -7826,7 +7858,7 @@
     <row r="219" spans="1:27" ht="14.4">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="6"/>
+      <c r="C219" s="15"/>
       <c r="D219" s="4"/>
       <c r="E219" s="6"/>
       <c r="F219" s="4"/>
@@ -7855,7 +7887,7 @@
     <row r="220" spans="1:27" ht="14.4">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="6"/>
+      <c r="C220" s="15"/>
       <c r="D220" s="4"/>
       <c r="E220" s="6"/>
       <c r="F220" s="4"/>
@@ -7884,7 +7916,7 @@
     <row r="221" spans="1:27" ht="14.4">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="6"/>
+      <c r="C221" s="15"/>
       <c r="D221" s="4"/>
       <c r="E221" s="6"/>
       <c r="F221" s="4"/>
@@ -7913,7 +7945,7 @@
     <row r="222" spans="1:27" ht="14.4">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="6"/>
+      <c r="C222" s="15"/>
       <c r="D222" s="4"/>
       <c r="E222" s="6"/>
       <c r="F222" s="4"/>
@@ -7942,7 +7974,7 @@
     <row r="223" spans="1:27" ht="14.4">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="6"/>
+      <c r="C223" s="15"/>
       <c r="D223" s="4"/>
       <c r="E223" s="6"/>
       <c r="F223" s="4"/>
@@ -7971,7 +8003,7 @@
     <row r="224" spans="1:27" ht="14.4">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="6"/>
+      <c r="C224" s="15"/>
       <c r="D224" s="4"/>
       <c r="E224" s="6"/>
       <c r="F224" s="4"/>
@@ -8000,7 +8032,7 @@
     <row r="225" spans="1:27" ht="14.4">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="6"/>
+      <c r="C225" s="15"/>
       <c r="D225" s="4"/>
       <c r="E225" s="6"/>
       <c r="F225" s="4"/>
@@ -8029,7 +8061,7 @@
     <row r="226" spans="1:27" ht="14.4">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="6"/>
+      <c r="C226" s="15"/>
       <c r="D226" s="4"/>
       <c r="E226" s="6"/>
       <c r="F226" s="4"/>
@@ -8058,7 +8090,7 @@
     <row r="227" spans="1:27" ht="14.4">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="6"/>
+      <c r="C227" s="15"/>
       <c r="D227" s="4"/>
       <c r="E227" s="6"/>
       <c r="F227" s="4"/>
@@ -8087,7 +8119,7 @@
     <row r="228" spans="1:27" ht="14.4">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="6"/>
+      <c r="C228" s="15"/>
       <c r="D228" s="4"/>
       <c r="E228" s="6"/>
       <c r="F228" s="4"/>
@@ -8116,7 +8148,7 @@
     <row r="229" spans="1:27" ht="14.4">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="6"/>
+      <c r="C229" s="15"/>
       <c r="D229" s="4"/>
       <c r="E229" s="6"/>
       <c r="F229" s="4"/>
@@ -8145,7 +8177,7 @@
     <row r="230" spans="1:27" ht="14.4">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="6"/>
+      <c r="C230" s="15"/>
       <c r="D230" s="4"/>
       <c r="E230" s="6"/>
       <c r="F230" s="4"/>
@@ -8174,7 +8206,7 @@
     <row r="231" spans="1:27" ht="14.4">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="6"/>
+      <c r="C231" s="15"/>
       <c r="D231" s="4"/>
       <c r="E231" s="6"/>
       <c r="F231" s="4"/>
@@ -8203,7 +8235,7 @@
     <row r="232" spans="1:27" ht="14.4">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="6"/>
+      <c r="C232" s="15"/>
       <c r="D232" s="4"/>
       <c r="E232" s="6"/>
       <c r="F232" s="4"/>
@@ -8232,7 +8264,7 @@
     <row r="233" spans="1:27" ht="14.4">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="6"/>
+      <c r="C233" s="15"/>
       <c r="D233" s="4"/>
       <c r="E233" s="6"/>
       <c r="F233" s="4"/>
@@ -8261,7 +8293,7 @@
     <row r="234" spans="1:27" ht="14.4">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="6"/>
+      <c r="C234" s="15"/>
       <c r="D234" s="4"/>
       <c r="E234" s="6"/>
       <c r="F234" s="4"/>
@@ -8290,7 +8322,7 @@
     <row r="235" spans="1:27" ht="14.4">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="6"/>
+      <c r="C235" s="15"/>
       <c r="D235" s="4"/>
       <c r="E235" s="6"/>
       <c r="F235" s="4"/>
@@ -8319,7 +8351,7 @@
     <row r="236" spans="1:27" ht="14.4">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="6"/>
+      <c r="C236" s="15"/>
       <c r="D236" s="4"/>
       <c r="E236" s="6"/>
       <c r="F236" s="4"/>
@@ -8348,7 +8380,7 @@
     <row r="237" spans="1:27" ht="14.4">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="6"/>
+      <c r="C237" s="15"/>
       <c r="D237" s="4"/>
       <c r="E237" s="6"/>
       <c r="F237" s="4"/>
@@ -8377,7 +8409,7 @@
     <row r="238" spans="1:27" ht="14.4">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="6"/>
+      <c r="C238" s="15"/>
       <c r="D238" s="4"/>
       <c r="E238" s="6"/>
       <c r="F238" s="4"/>
@@ -8406,7 +8438,7 @@
     <row r="239" spans="1:27" ht="14.4">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="6"/>
+      <c r="C239" s="15"/>
       <c r="D239" s="4"/>
       <c r="E239" s="6"/>
       <c r="F239" s="4"/>
@@ -8435,7 +8467,7 @@
     <row r="240" spans="1:27" ht="14.4">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="6"/>
+      <c r="C240" s="15"/>
       <c r="D240" s="4"/>
       <c r="E240" s="6"/>
       <c r="F240" s="4"/>
@@ -8464,7 +8496,7 @@
     <row r="241" spans="1:27" ht="14.4">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="6"/>
+      <c r="C241" s="15"/>
       <c r="D241" s="4"/>
       <c r="E241" s="6"/>
       <c r="F241" s="4"/>
@@ -8493,7 +8525,7 @@
     <row r="242" spans="1:27" ht="14.4">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="6"/>
+      <c r="C242" s="15"/>
       <c r="D242" s="4"/>
       <c r="E242" s="6"/>
       <c r="F242" s="4"/>
@@ -8522,7 +8554,7 @@
     <row r="243" spans="1:27" ht="14.4">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="6"/>
+      <c r="C243" s="15"/>
       <c r="D243" s="4"/>
       <c r="E243" s="6"/>
       <c r="F243" s="4"/>
@@ -8551,7 +8583,7 @@
     <row r="244" spans="1:27" ht="14.4">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="6"/>
+      <c r="C244" s="15"/>
       <c r="D244" s="4"/>
       <c r="E244" s="6"/>
       <c r="F244" s="4"/>
@@ -8580,7 +8612,7 @@
     <row r="245" spans="1:27" ht="14.4">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="6"/>
+      <c r="C245" s="15"/>
       <c r="D245" s="4"/>
       <c r="E245" s="6"/>
       <c r="F245" s="4"/>
@@ -8609,7 +8641,7 @@
     <row r="246" spans="1:27" ht="14.4">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="6"/>
+      <c r="C246" s="15"/>
       <c r="D246" s="4"/>
       <c r="E246" s="6"/>
       <c r="F246" s="4"/>
@@ -8638,7 +8670,7 @@
     <row r="247" spans="1:27" ht="14.4">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="6"/>
+      <c r="C247" s="15"/>
       <c r="D247" s="4"/>
       <c r="E247" s="6"/>
       <c r="F247" s="4"/>
@@ -8667,7 +8699,7 @@
     <row r="248" spans="1:27" ht="14.4">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="6"/>
+      <c r="C248" s="15"/>
       <c r="D248" s="4"/>
       <c r="E248" s="6"/>
       <c r="F248" s="4"/>
@@ -8696,7 +8728,7 @@
     <row r="249" spans="1:27" ht="14.4">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="6"/>
+      <c r="C249" s="15"/>
       <c r="D249" s="4"/>
       <c r="E249" s="6"/>
       <c r="F249" s="4"/>
@@ -8725,7 +8757,7 @@
     <row r="250" spans="1:27" ht="14.4">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="6"/>
+      <c r="C250" s="15"/>
       <c r="D250" s="4"/>
       <c r="E250" s="6"/>
       <c r="F250" s="4"/>
@@ -8754,7 +8786,7 @@
     <row r="251" spans="1:27" ht="14.4">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="6"/>
+      <c r="C251" s="15"/>
       <c r="D251" s="4"/>
       <c r="E251" s="6"/>
       <c r="F251" s="4"/>
@@ -8783,7 +8815,7 @@
     <row r="252" spans="1:27" ht="14.4">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="6"/>
+      <c r="C252" s="15"/>
       <c r="D252" s="4"/>
       <c r="E252" s="6"/>
       <c r="F252" s="4"/>
@@ -8812,7 +8844,7 @@
     <row r="253" spans="1:27" ht="14.4">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="6"/>
+      <c r="C253" s="15"/>
       <c r="D253" s="4"/>
       <c r="E253" s="6"/>
       <c r="F253" s="4"/>
@@ -8841,7 +8873,7 @@
     <row r="254" spans="1:27" ht="14.4">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="6"/>
+      <c r="C254" s="15"/>
       <c r="D254" s="4"/>
       <c r="E254" s="6"/>
       <c r="F254" s="4"/>
@@ -8870,7 +8902,7 @@
     <row r="255" spans="1:27" ht="14.4">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="6"/>
+      <c r="C255" s="15"/>
       <c r="D255" s="4"/>
       <c r="E255" s="6"/>
       <c r="F255" s="4"/>
@@ -8899,7 +8931,7 @@
     <row r="256" spans="1:27" ht="14.4">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="6"/>
+      <c r="C256" s="15"/>
       <c r="D256" s="4"/>
       <c r="E256" s="6"/>
       <c r="F256" s="4"/>
@@ -8928,7 +8960,7 @@
     <row r="257" spans="1:27" ht="14.4">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="6"/>
+      <c r="C257" s="15"/>
       <c r="D257" s="4"/>
       <c r="E257" s="6"/>
       <c r="F257" s="4"/>
@@ -8957,7 +8989,7 @@
     <row r="258" spans="1:27" ht="14.4">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="6"/>
+      <c r="C258" s="15"/>
       <c r="D258" s="4"/>
       <c r="E258" s="6"/>
       <c r="F258" s="4"/>
@@ -8986,7 +9018,7 @@
     <row r="259" spans="1:27" ht="14.4">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="6"/>
+      <c r="C259" s="15"/>
       <c r="D259" s="4"/>
       <c r="E259" s="6"/>
       <c r="F259" s="4"/>
@@ -9015,7 +9047,7 @@
     <row r="260" spans="1:27" ht="14.4">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="6"/>
+      <c r="C260" s="15"/>
       <c r="D260" s="4"/>
       <c r="E260" s="6"/>
       <c r="F260" s="4"/>
@@ -9044,7 +9076,7 @@
     <row r="261" spans="1:27" ht="14.4">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="6"/>
+      <c r="C261" s="15"/>
       <c r="D261" s="4"/>
       <c r="E261" s="6"/>
       <c r="F261" s="4"/>
@@ -9073,7 +9105,7 @@
     <row r="262" spans="1:27" ht="14.4">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="6"/>
+      <c r="C262" s="15"/>
       <c r="D262" s="4"/>
       <c r="E262" s="6"/>
       <c r="F262" s="4"/>
@@ -9102,7 +9134,7 @@
     <row r="263" spans="1:27" ht="14.4">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="6"/>
+      <c r="C263" s="15"/>
       <c r="D263" s="4"/>
       <c r="E263" s="6"/>
       <c r="F263" s="4"/>
@@ -9131,7 +9163,7 @@
     <row r="264" spans="1:27" ht="14.4">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="6"/>
+      <c r="C264" s="15"/>
       <c r="D264" s="4"/>
       <c r="E264" s="6"/>
       <c r="F264" s="4"/>
@@ -9160,7 +9192,7 @@
     <row r="265" spans="1:27" ht="14.4">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="6"/>
+      <c r="C265" s="15"/>
       <c r="D265" s="4"/>
       <c r="E265" s="6"/>
       <c r="F265" s="4"/>
@@ -9189,7 +9221,7 @@
     <row r="266" spans="1:27" ht="14.4">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="6"/>
+      <c r="C266" s="15"/>
       <c r="D266" s="4"/>
       <c r="E266" s="6"/>
       <c r="F266" s="4"/>
@@ -9218,7 +9250,7 @@
     <row r="267" spans="1:27" ht="14.4">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="6"/>
+      <c r="C267" s="15"/>
       <c r="D267" s="4"/>
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
@@ -9247,7 +9279,7 @@
     <row r="268" spans="1:27" ht="14.4">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="6"/>
+      <c r="C268" s="15"/>
       <c r="D268" s="4"/>
       <c r="E268" s="6"/>
       <c r="F268" s="4"/>
@@ -9276,7 +9308,7 @@
     <row r="269" spans="1:27" ht="14.4">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="6"/>
+      <c r="C269" s="15"/>
       <c r="D269" s="4"/>
       <c r="E269" s="6"/>
       <c r="F269" s="4"/>
@@ -9305,7 +9337,7 @@
     <row r="270" spans="1:27" ht="14.4">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="6"/>
+      <c r="C270" s="15"/>
       <c r="D270" s="4"/>
       <c r="E270" s="6"/>
       <c r="F270" s="4"/>
@@ -9334,7 +9366,7 @@
     <row r="271" spans="1:27" ht="14.4">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="6"/>
+      <c r="C271" s="15"/>
       <c r="D271" s="4"/>
       <c r="E271" s="6"/>
       <c r="F271" s="4"/>
@@ -9363,7 +9395,7 @@
     <row r="272" spans="1:27" ht="14.4">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
-      <c r="C272" s="6"/>
+      <c r="C272" s="15"/>
       <c r="D272" s="4"/>
       <c r="E272" s="6"/>
       <c r="F272" s="4"/>
@@ -9392,7 +9424,7 @@
     <row r="273" spans="1:27" ht="14.4">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
-      <c r="C273" s="6"/>
+      <c r="C273" s="15"/>
       <c r="D273" s="4"/>
       <c r="E273" s="6"/>
       <c r="F273" s="4"/>
@@ -9421,7 +9453,7 @@
     <row r="274" spans="1:27" ht="14.4">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
-      <c r="C274" s="6"/>
+      <c r="C274" s="15"/>
       <c r="D274" s="4"/>
       <c r="E274" s="6"/>
       <c r="F274" s="4"/>
@@ -9450,7 +9482,7 @@
     <row r="275" spans="1:27" ht="14.4">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
-      <c r="C275" s="6"/>
+      <c r="C275" s="15"/>
       <c r="D275" s="4"/>
       <c r="E275" s="6"/>
       <c r="F275" s="4"/>
@@ -9479,7 +9511,7 @@
     <row r="276" spans="1:27" ht="14.4">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
-      <c r="C276" s="6"/>
+      <c r="C276" s="15"/>
       <c r="D276" s="4"/>
       <c r="E276" s="6"/>
       <c r="F276" s="4"/>
@@ -9508,7 +9540,7 @@
     <row r="277" spans="1:27" ht="14.4">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
-      <c r="C277" s="6"/>
+      <c r="C277" s="15"/>
       <c r="D277" s="4"/>
       <c r="E277" s="6"/>
       <c r="F277" s="4"/>
@@ -9537,7 +9569,7 @@
     <row r="278" spans="1:27" ht="14.4">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
-      <c r="C278" s="6"/>
+      <c r="C278" s="15"/>
       <c r="D278" s="4"/>
       <c r="E278" s="6"/>
       <c r="F278" s="4"/>
@@ -9566,7 +9598,7 @@
     <row r="279" spans="1:27" ht="14.4">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
-      <c r="C279" s="6"/>
+      <c r="C279" s="15"/>
       <c r="D279" s="4"/>
       <c r="E279" s="6"/>
       <c r="F279" s="4"/>
@@ -9595,7 +9627,7 @@
     <row r="280" spans="1:27" ht="14.4">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
-      <c r="C280" s="6"/>
+      <c r="C280" s="15"/>
       <c r="D280" s="4"/>
       <c r="E280" s="6"/>
       <c r="F280" s="4"/>
@@ -9624,7 +9656,7 @@
     <row r="281" spans="1:27" ht="14.4">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
-      <c r="C281" s="6"/>
+      <c r="C281" s="15"/>
       <c r="D281" s="4"/>
       <c r="E281" s="6"/>
       <c r="F281" s="4"/>
@@ -9653,7 +9685,7 @@
     <row r="282" spans="1:27" ht="14.4">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
-      <c r="C282" s="6"/>
+      <c r="C282" s="15"/>
       <c r="D282" s="4"/>
       <c r="E282" s="6"/>
       <c r="F282" s="4"/>
@@ -9682,7 +9714,7 @@
     <row r="283" spans="1:27" ht="14.4">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
-      <c r="C283" s="6"/>
+      <c r="C283" s="15"/>
       <c r="D283" s="4"/>
       <c r="E283" s="6"/>
       <c r="F283" s="4"/>
@@ -9711,7 +9743,7 @@
     <row r="284" spans="1:27" ht="14.4">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="6"/>
+      <c r="C284" s="15"/>
       <c r="D284" s="4"/>
       <c r="E284" s="6"/>
       <c r="F284" s="4"/>
@@ -9740,7 +9772,7 @@
     <row r="285" spans="1:27" ht="14.4">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="6"/>
+      <c r="C285" s="15"/>
       <c r="D285" s="4"/>
       <c r="E285" s="6"/>
       <c r="F285" s="4"/>
@@ -9769,7 +9801,7 @@
     <row r="286" spans="1:27" ht="14.4">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
-      <c r="C286" s="6"/>
+      <c r="C286" s="15"/>
       <c r="D286" s="4"/>
       <c r="E286" s="6"/>
       <c r="F286" s="4"/>
@@ -9798,7 +9830,7 @@
     <row r="287" spans="1:27" ht="14.4">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
-      <c r="C287" s="6"/>
+      <c r="C287" s="15"/>
       <c r="D287" s="4"/>
       <c r="E287" s="6"/>
       <c r="F287" s="4"/>
@@ -9827,7 +9859,7 @@
     <row r="288" spans="1:27" ht="14.4">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
-      <c r="C288" s="6"/>
+      <c r="C288" s="15"/>
       <c r="D288" s="4"/>
       <c r="E288" s="6"/>
       <c r="F288" s="4"/>
@@ -9856,7 +9888,7 @@
     <row r="289" spans="1:27" ht="14.4">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
-      <c r="C289" s="6"/>
+      <c r="C289" s="15"/>
       <c r="D289" s="4"/>
       <c r="E289" s="6"/>
       <c r="F289" s="4"/>
@@ -9885,7 +9917,7 @@
     <row r="290" spans="1:27" ht="14.4">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="6"/>
+      <c r="C290" s="15"/>
       <c r="D290" s="4"/>
       <c r="E290" s="6"/>
       <c r="F290" s="4"/>
@@ -9914,7 +9946,7 @@
     <row r="291" spans="1:27" ht="14.4">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="6"/>
+      <c r="C291" s="15"/>
       <c r="D291" s="4"/>
       <c r="E291" s="6"/>
       <c r="F291" s="4"/>
@@ -9943,7 +9975,7 @@
     <row r="292" spans="1:27" ht="14.4">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="6"/>
+      <c r="C292" s="15"/>
       <c r="D292" s="4"/>
       <c r="E292" s="6"/>
       <c r="F292" s="4"/>
@@ -9972,7 +10004,7 @@
     <row r="293" spans="1:27" ht="14.4">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="6"/>
+      <c r="C293" s="15"/>
       <c r="D293" s="4"/>
       <c r="E293" s="6"/>
       <c r="F293" s="4"/>
@@ -10001,7 +10033,7 @@
     <row r="294" spans="1:27" ht="14.4">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
-      <c r="C294" s="6"/>
+      <c r="C294" s="15"/>
       <c r="D294" s="4"/>
       <c r="E294" s="6"/>
       <c r="F294" s="4"/>
@@ -10030,7 +10062,7 @@
     <row r="295" spans="1:27" ht="14.4">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
-      <c r="C295" s="6"/>
+      <c r="C295" s="15"/>
       <c r="D295" s="4"/>
       <c r="E295" s="6"/>
       <c r="F295" s="4"/>
@@ -10059,7 +10091,7 @@
     <row r="296" spans="1:27" ht="14.4">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
-      <c r="C296" s="6"/>
+      <c r="C296" s="15"/>
       <c r="D296" s="4"/>
       <c r="E296" s="6"/>
       <c r="F296" s="4"/>
@@ -10088,7 +10120,7 @@
     <row r="297" spans="1:27" ht="14.4">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
-      <c r="C297" s="6"/>
+      <c r="C297" s="15"/>
       <c r="D297" s="4"/>
       <c r="E297" s="6"/>
       <c r="F297" s="4"/>
@@ -10117,7 +10149,7 @@
     <row r="298" spans="1:27" ht="14.4">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
-      <c r="C298" s="6"/>
+      <c r="C298" s="15"/>
       <c r="D298" s="4"/>
       <c r="E298" s="6"/>
       <c r="F298" s="4"/>
@@ -10146,7 +10178,7 @@
     <row r="299" spans="1:27" ht="14.4">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
-      <c r="C299" s="6"/>
+      <c r="C299" s="15"/>
       <c r="D299" s="4"/>
       <c r="E299" s="6"/>
       <c r="F299" s="4"/>
@@ -10175,7 +10207,7 @@
     <row r="300" spans="1:27" ht="14.4">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="6"/>
+      <c r="C300" s="15"/>
       <c r="D300" s="4"/>
       <c r="E300" s="6"/>
       <c r="F300" s="4"/>
@@ -10204,7 +10236,7 @@
     <row r="301" spans="1:27" ht="14.4">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
-      <c r="C301" s="6"/>
+      <c r="C301" s="15"/>
       <c r="D301" s="4"/>
       <c r="E301" s="6"/>
       <c r="F301" s="4"/>
@@ -10233,7 +10265,7 @@
     <row r="302" spans="1:27" ht="14.4">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
-      <c r="C302" s="6"/>
+      <c r="C302" s="15"/>
       <c r="D302" s="4"/>
       <c r="E302" s="6"/>
       <c r="F302" s="4"/>
@@ -10262,7 +10294,7 @@
     <row r="303" spans="1:27" ht="14.4">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
-      <c r="C303" s="6"/>
+      <c r="C303" s="15"/>
       <c r="D303" s="4"/>
       <c r="E303" s="6"/>
       <c r="F303" s="4"/>
@@ -10291,7 +10323,7 @@
     <row r="304" spans="1:27" ht="14.4">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
-      <c r="C304" s="6"/>
+      <c r="C304" s="15"/>
       <c r="D304" s="4"/>
       <c r="E304" s="6"/>
       <c r="F304" s="4"/>
@@ -10320,7 +10352,7 @@
     <row r="305" spans="1:27" ht="14.4">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
-      <c r="C305" s="6"/>
+      <c r="C305" s="15"/>
       <c r="D305" s="4"/>
       <c r="E305" s="6"/>
       <c r="F305" s="4"/>
@@ -10349,7 +10381,7 @@
     <row r="306" spans="1:27" ht="14.4">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
-      <c r="C306" s="6"/>
+      <c r="C306" s="15"/>
       <c r="D306" s="4"/>
       <c r="E306" s="6"/>
       <c r="F306" s="4"/>
@@ -10378,7 +10410,7 @@
     <row r="307" spans="1:27" ht="14.4">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
-      <c r="C307" s="6"/>
+      <c r="C307" s="15"/>
       <c r="D307" s="4"/>
       <c r="E307" s="6"/>
       <c r="F307" s="4"/>
@@ -10407,7 +10439,7 @@
     <row r="308" spans="1:27" ht="14.4">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
-      <c r="C308" s="6"/>
+      <c r="C308" s="15"/>
       <c r="D308" s="4"/>
       <c r="E308" s="6"/>
       <c r="F308" s="4"/>
@@ -10436,7 +10468,7 @@
     <row r="309" spans="1:27" ht="14.4">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
-      <c r="C309" s="6"/>
+      <c r="C309" s="15"/>
       <c r="D309" s="4"/>
       <c r="E309" s="6"/>
       <c r="F309" s="4"/>
@@ -10465,7 +10497,7 @@
     <row r="310" spans="1:27" ht="14.4">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
-      <c r="C310" s="6"/>
+      <c r="C310" s="15"/>
       <c r="D310" s="4"/>
       <c r="E310" s="6"/>
       <c r="F310" s="4"/>
@@ -10494,7 +10526,7 @@
     <row r="311" spans="1:27" ht="14.4">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
-      <c r="C311" s="6"/>
+      <c r="C311" s="15"/>
       <c r="D311" s="4"/>
       <c r="E311" s="6"/>
       <c r="F311" s="4"/>
@@ -10523,7 +10555,7 @@
     <row r="312" spans="1:27" ht="14.4">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
-      <c r="C312" s="6"/>
+      <c r="C312" s="15"/>
       <c r="D312" s="4"/>
       <c r="E312" s="6"/>
       <c r="F312" s="4"/>
@@ -10552,7 +10584,7 @@
     <row r="313" spans="1:27" ht="14.4">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
-      <c r="C313" s="6"/>
+      <c r="C313" s="15"/>
       <c r="D313" s="4"/>
       <c r="E313" s="6"/>
       <c r="F313" s="4"/>
@@ -10581,7 +10613,7 @@
     <row r="314" spans="1:27" ht="14.4">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
-      <c r="C314" s="6"/>
+      <c r="C314" s="15"/>
       <c r="D314" s="4"/>
       <c r="E314" s="6"/>
       <c r="F314" s="4"/>
@@ -10610,7 +10642,7 @@
     <row r="315" spans="1:27" ht="14.4">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="6"/>
+      <c r="C315" s="15"/>
       <c r="D315" s="4"/>
       <c r="E315" s="6"/>
       <c r="F315" s="4"/>
@@ -10639,7 +10671,7 @@
     <row r="316" spans="1:27" ht="14.4">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
-      <c r="C316" s="6"/>
+      <c r="C316" s="15"/>
       <c r="D316" s="4"/>
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
@@ -10668,7 +10700,7 @@
     <row r="317" spans="1:27" ht="14.4">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
-      <c r="C317" s="6"/>
+      <c r="C317" s="15"/>
       <c r="D317" s="4"/>
       <c r="E317" s="6"/>
       <c r="F317" s="4"/>
@@ -10697,7 +10729,7 @@
     <row r="318" spans="1:27" ht="14.4">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
-      <c r="C318" s="6"/>
+      <c r="C318" s="15"/>
       <c r="D318" s="4"/>
       <c r="E318" s="6"/>
       <c r="F318" s="4"/>
@@ -10726,7 +10758,7 @@
     <row r="319" spans="1:27" ht="14.4">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
-      <c r="C319" s="6"/>
+      <c r="C319" s="15"/>
       <c r="D319" s="4"/>
       <c r="E319" s="6"/>
       <c r="F319" s="4"/>
@@ -10755,7 +10787,7 @@
     <row r="320" spans="1:27" ht="14.4">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
-      <c r="C320" s="6"/>
+      <c r="C320" s="15"/>
       <c r="D320" s="4"/>
       <c r="E320" s="6"/>
       <c r="F320" s="4"/>
@@ -10784,7 +10816,7 @@
     <row r="321" spans="1:27" ht="14.4">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
-      <c r="C321" s="6"/>
+      <c r="C321" s="15"/>
       <c r="D321" s="4"/>
       <c r="E321" s="6"/>
       <c r="F321" s="4"/>
@@ -10813,7 +10845,7 @@
     <row r="322" spans="1:27" ht="14.4">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
-      <c r="C322" s="6"/>
+      <c r="C322" s="15"/>
       <c r="D322" s="4"/>
       <c r="E322" s="6"/>
       <c r="F322" s="4"/>
@@ -10842,7 +10874,7 @@
     <row r="323" spans="1:27" ht="14.4">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
-      <c r="C323" s="6"/>
+      <c r="C323" s="15"/>
       <c r="D323" s="4"/>
       <c r="E323" s="6"/>
       <c r="F323" s="4"/>
@@ -10871,7 +10903,7 @@
     <row r="324" spans="1:27" ht="14.4">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
-      <c r="C324" s="6"/>
+      <c r="C324" s="15"/>
       <c r="D324" s="4"/>
       <c r="E324" s="6"/>
       <c r="F324" s="4"/>
@@ -10900,7 +10932,7 @@
     <row r="325" spans="1:27" ht="14.4">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
-      <c r="C325" s="6"/>
+      <c r="C325" s="15"/>
       <c r="D325" s="4"/>
       <c r="E325" s="6"/>
       <c r="F325" s="4"/>
@@ -10929,7 +10961,7 @@
     <row r="326" spans="1:27" ht="14.4">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
-      <c r="C326" s="6"/>
+      <c r="C326" s="15"/>
       <c r="D326" s="4"/>
       <c r="E326" s="6"/>
       <c r="F326" s="4"/>
@@ -10958,7 +10990,7 @@
     <row r="327" spans="1:27" ht="14.4">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
-      <c r="C327" s="6"/>
+      <c r="C327" s="15"/>
       <c r="D327" s="4"/>
       <c r="E327" s="6"/>
       <c r="F327" s="4"/>
@@ -10987,7 +11019,7 @@
     <row r="328" spans="1:27" ht="14.4">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="6"/>
+      <c r="C328" s="15"/>
       <c r="D328" s="4"/>
       <c r="E328" s="6"/>
       <c r="F328" s="4"/>
@@ -11016,7 +11048,7 @@
     <row r="329" spans="1:27" ht="14.4">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
-      <c r="C329" s="6"/>
+      <c r="C329" s="15"/>
       <c r="D329" s="4"/>
       <c r="E329" s="6"/>
       <c r="F329" s="4"/>
@@ -11045,7 +11077,7 @@
     <row r="330" spans="1:27" ht="14.4">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="6"/>
+      <c r="C330" s="15"/>
       <c r="D330" s="4"/>
       <c r="E330" s="6"/>
       <c r="F330" s="4"/>
@@ -11074,7 +11106,7 @@
     <row r="331" spans="1:27" ht="14.4">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="6"/>
+      <c r="C331" s="15"/>
       <c r="D331" s="4"/>
       <c r="E331" s="6"/>
       <c r="F331" s="4"/>
@@ -11103,7 +11135,7 @@
     <row r="332" spans="1:27" ht="14.4">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="6"/>
+      <c r="C332" s="15"/>
       <c r="D332" s="4"/>
       <c r="E332" s="6"/>
       <c r="F332" s="4"/>
@@ -11132,7 +11164,7 @@
     <row r="333" spans="1:27" ht="14.4">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="6"/>
+      <c r="C333" s="15"/>
       <c r="D333" s="4"/>
       <c r="E333" s="6"/>
       <c r="F333" s="4"/>
@@ -11161,7 +11193,7 @@
     <row r="334" spans="1:27" ht="14.4">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="6"/>
+      <c r="C334" s="15"/>
       <c r="D334" s="4"/>
       <c r="E334" s="6"/>
       <c r="F334" s="4"/>
@@ -11190,7 +11222,7 @@
     <row r="335" spans="1:27" ht="14.4">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="6"/>
+      <c r="C335" s="15"/>
       <c r="D335" s="4"/>
       <c r="E335" s="6"/>
       <c r="F335" s="4"/>
@@ -11219,7 +11251,7 @@
     <row r="336" spans="1:27" ht="14.4">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="6"/>
+      <c r="C336" s="15"/>
       <c r="D336" s="4"/>
       <c r="E336" s="6"/>
       <c r="F336" s="4"/>
@@ -11248,7 +11280,7 @@
     <row r="337" spans="1:27" ht="14.4">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="6"/>
+      <c r="C337" s="15"/>
       <c r="D337" s="4"/>
       <c r="E337" s="6"/>
       <c r="F337" s="4"/>
@@ -11277,7 +11309,7 @@
     <row r="338" spans="1:27" ht="14.4">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="6"/>
+      <c r="C338" s="15"/>
       <c r="D338" s="4"/>
       <c r="E338" s="6"/>
       <c r="F338" s="4"/>
@@ -11306,7 +11338,7 @@
     <row r="339" spans="1:27" ht="14.4">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="6"/>
+      <c r="C339" s="15"/>
       <c r="D339" s="4"/>
       <c r="E339" s="6"/>
       <c r="F339" s="4"/>
@@ -11335,7 +11367,7 @@
     <row r="340" spans="1:27" ht="14.4">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
-      <c r="C340" s="6"/>
+      <c r="C340" s="15"/>
       <c r="D340" s="4"/>
       <c r="E340" s="6"/>
       <c r="F340" s="4"/>
@@ -11364,7 +11396,7 @@
     <row r="341" spans="1:27" ht="14.4">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
-      <c r="C341" s="6"/>
+      <c r="C341" s="15"/>
       <c r="D341" s="4"/>
       <c r="E341" s="6"/>
       <c r="F341" s="4"/>
@@ -11393,7 +11425,7 @@
     <row r="342" spans="1:27" ht="14.4">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
-      <c r="C342" s="6"/>
+      <c r="C342" s="15"/>
       <c r="D342" s="4"/>
       <c r="E342" s="6"/>
       <c r="F342" s="4"/>
@@ -11422,7 +11454,7 @@
     <row r="343" spans="1:27" ht="14.4">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
-      <c r="C343" s="6"/>
+      <c r="C343" s="15"/>
       <c r="D343" s="4"/>
       <c r="E343" s="6"/>
       <c r="F343" s="4"/>
@@ -11451,7 +11483,7 @@
     <row r="344" spans="1:27" ht="14.4">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
-      <c r="C344" s="6"/>
+      <c r="C344" s="15"/>
       <c r="D344" s="4"/>
       <c r="E344" s="6"/>
       <c r="F344" s="4"/>
@@ -11480,7 +11512,7 @@
     <row r="345" spans="1:27" ht="14.4">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="6"/>
+      <c r="C345" s="15"/>
       <c r="D345" s="4"/>
       <c r="E345" s="6"/>
       <c r="F345" s="4"/>
@@ -11509,7 +11541,7 @@
     <row r="346" spans="1:27" ht="14.4">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
-      <c r="C346" s="6"/>
+      <c r="C346" s="15"/>
       <c r="D346" s="4"/>
       <c r="E346" s="6"/>
       <c r="F346" s="4"/>
@@ -11538,7 +11570,7 @@
     <row r="347" spans="1:27" ht="14.4">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
-      <c r="C347" s="6"/>
+      <c r="C347" s="15"/>
       <c r="D347" s="4"/>
       <c r="E347" s="6"/>
       <c r="F347" s="4"/>
@@ -11567,7 +11599,7 @@
     <row r="348" spans="1:27" ht="14.4">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
-      <c r="C348" s="6"/>
+      <c r="C348" s="15"/>
       <c r="D348" s="4"/>
       <c r="E348" s="6"/>
       <c r="F348" s="4"/>
@@ -11596,7 +11628,7 @@
     <row r="349" spans="1:27" ht="14.4">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
-      <c r="C349" s="6"/>
+      <c r="C349" s="15"/>
       <c r="D349" s="4"/>
       <c r="E349" s="6"/>
       <c r="F349" s="4"/>
@@ -11625,7 +11657,7 @@
     <row r="350" spans="1:27" ht="14.4">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
-      <c r="C350" s="6"/>
+      <c r="C350" s="15"/>
       <c r="D350" s="4"/>
       <c r="E350" s="6"/>
       <c r="F350" s="4"/>
@@ -11654,7 +11686,7 @@
     <row r="351" spans="1:27" ht="14.4">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
-      <c r="C351" s="6"/>
+      <c r="C351" s="15"/>
       <c r="D351" s="4"/>
       <c r="E351" s="6"/>
       <c r="F351" s="4"/>
@@ -11683,7 +11715,7 @@
     <row r="352" spans="1:27" ht="14.4">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
-      <c r="C352" s="6"/>
+      <c r="C352" s="15"/>
       <c r="D352" s="4"/>
       <c r="E352" s="6"/>
       <c r="F352" s="4"/>
@@ -11712,7 +11744,7 @@
     <row r="353" spans="1:27" ht="14.4">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
-      <c r="C353" s="6"/>
+      <c r="C353" s="15"/>
       <c r="D353" s="4"/>
       <c r="E353" s="6"/>
       <c r="F353" s="4"/>
@@ -11741,7 +11773,7 @@
     <row r="354" spans="1:27" ht="14.4">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
-      <c r="C354" s="6"/>
+      <c r="C354" s="15"/>
       <c r="D354" s="4"/>
       <c r="E354" s="6"/>
       <c r="F354" s="4"/>
@@ -11770,7 +11802,7 @@
     <row r="355" spans="1:27" ht="14.4">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
-      <c r="C355" s="6"/>
+      <c r="C355" s="15"/>
       <c r="D355" s="4"/>
       <c r="E355" s="6"/>
       <c r="F355" s="4"/>
@@ -11799,7 +11831,7 @@
     <row r="356" spans="1:27" ht="14.4">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
-      <c r="C356" s="6"/>
+      <c r="C356" s="15"/>
       <c r="D356" s="4"/>
       <c r="E356" s="6"/>
       <c r="F356" s="4"/>
@@ -11828,7 +11860,7 @@
     <row r="357" spans="1:27" ht="14.4">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
-      <c r="C357" s="6"/>
+      <c r="C357" s="15"/>
       <c r="D357" s="4"/>
       <c r="E357" s="6"/>
       <c r="F357" s="4"/>
@@ -11857,7 +11889,7 @@
     <row r="358" spans="1:27" ht="14.4">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
-      <c r="C358" s="6"/>
+      <c r="C358" s="15"/>
       <c r="D358" s="4"/>
       <c r="E358" s="6"/>
       <c r="F358" s="4"/>
@@ -11886,7 +11918,7 @@
     <row r="359" spans="1:27" ht="14.4">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
-      <c r="C359" s="6"/>
+      <c r="C359" s="15"/>
       <c r="D359" s="4"/>
       <c r="E359" s="6"/>
       <c r="F359" s="4"/>
@@ -11915,7 +11947,7 @@
     <row r="360" spans="1:27" ht="14.4">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="6"/>
+      <c r="C360" s="15"/>
       <c r="D360" s="4"/>
       <c r="E360" s="6"/>
       <c r="F360" s="4"/>
@@ -11944,7 +11976,7 @@
     <row r="361" spans="1:27" ht="14.4">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
-      <c r="C361" s="6"/>
+      <c r="C361" s="15"/>
       <c r="D361" s="4"/>
       <c r="E361" s="6"/>
       <c r="F361" s="4"/>
@@ -11973,7 +12005,7 @@
     <row r="362" spans="1:27" ht="14.4">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
-      <c r="C362" s="6"/>
+      <c r="C362" s="15"/>
       <c r="D362" s="4"/>
       <c r="E362" s="6"/>
       <c r="F362" s="4"/>
@@ -12002,7 +12034,7 @@
     <row r="363" spans="1:27" ht="14.4">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
-      <c r="C363" s="6"/>
+      <c r="C363" s="15"/>
       <c r="D363" s="4"/>
       <c r="E363" s="6"/>
       <c r="F363" s="4"/>
@@ -12031,7 +12063,7 @@
     <row r="364" spans="1:27" ht="14.4">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
-      <c r="C364" s="6"/>
+      <c r="C364" s="15"/>
       <c r="D364" s="4"/>
       <c r="E364" s="6"/>
       <c r="F364" s="4"/>
@@ -12060,7 +12092,7 @@
     <row r="365" spans="1:27" ht="14.4">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
-      <c r="C365" s="6"/>
+      <c r="C365" s="15"/>
       <c r="D365" s="4"/>
       <c r="E365" s="6"/>
       <c r="F365" s="4"/>
@@ -12089,7 +12121,7 @@
     <row r="366" spans="1:27" ht="14.4">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="6"/>
+      <c r="C366" s="15"/>
       <c r="D366" s="4"/>
       <c r="E366" s="6"/>
       <c r="F366" s="4"/>
@@ -12118,7 +12150,7 @@
     <row r="367" spans="1:27" ht="14.4">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="6"/>
+      <c r="C367" s="15"/>
       <c r="D367" s="4"/>
       <c r="E367" s="6"/>
       <c r="F367" s="4"/>
@@ -12147,7 +12179,7 @@
     <row r="368" spans="1:27" ht="14.4">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="6"/>
+      <c r="C368" s="15"/>
       <c r="D368" s="4"/>
       <c r="E368" s="6"/>
       <c r="F368" s="4"/>
@@ -12176,7 +12208,7 @@
     <row r="369" spans="1:27" ht="14.4">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="6"/>
+      <c r="C369" s="15"/>
       <c r="D369" s="4"/>
       <c r="E369" s="6"/>
       <c r="F369" s="4"/>
@@ -12205,7 +12237,7 @@
     <row r="370" spans="1:27" ht="14.4">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
-      <c r="C370" s="6"/>
+      <c r="C370" s="15"/>
       <c r="D370" s="4"/>
       <c r="E370" s="6"/>
       <c r="F370" s="4"/>
@@ -12234,7 +12266,7 @@
     <row r="371" spans="1:27" ht="14.4">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
-      <c r="C371" s="6"/>
+      <c r="C371" s="15"/>
       <c r="D371" s="4"/>
       <c r="E371" s="6"/>
       <c r="F371" s="4"/>
@@ -12263,7 +12295,7 @@
     <row r="372" spans="1:27" ht="14.4">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
-      <c r="C372" s="6"/>
+      <c r="C372" s="15"/>
       <c r="D372" s="4"/>
       <c r="E372" s="6"/>
       <c r="F372" s="4"/>
@@ -12292,7 +12324,7 @@
     <row r="373" spans="1:27" ht="14.4">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="6"/>
+      <c r="C373" s="15"/>
       <c r="D373" s="4"/>
       <c r="E373" s="6"/>
       <c r="F373" s="4"/>
@@ -12321,7 +12353,7 @@
     <row r="374" spans="1:27" ht="14.4">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
-      <c r="C374" s="6"/>
+      <c r="C374" s="15"/>
       <c r="D374" s="4"/>
       <c r="E374" s="6"/>
       <c r="F374" s="4"/>
@@ -12350,7 +12382,7 @@
     <row r="375" spans="1:27" ht="14.4">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="6"/>
+      <c r="C375" s="15"/>
       <c r="D375" s="4"/>
       <c r="E375" s="6"/>
       <c r="F375" s="4"/>
@@ -12379,7 +12411,7 @@
     <row r="376" spans="1:27" ht="14.4">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
-      <c r="C376" s="6"/>
+      <c r="C376" s="15"/>
       <c r="D376" s="4"/>
       <c r="E376" s="6"/>
       <c r="F376" s="4"/>
@@ -12408,7 +12440,7 @@
     <row r="377" spans="1:27" ht="14.4">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
-      <c r="C377" s="6"/>
+      <c r="C377" s="15"/>
       <c r="D377" s="4"/>
       <c r="E377" s="6"/>
       <c r="F377" s="4"/>
@@ -12437,7 +12469,7 @@
     <row r="378" spans="1:27" ht="14.4">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="6"/>
+      <c r="C378" s="15"/>
       <c r="D378" s="4"/>
       <c r="E378" s="6"/>
       <c r="F378" s="4"/>
@@ -12466,7 +12498,7 @@
     <row r="379" spans="1:27" ht="14.4">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="6"/>
+      <c r="C379" s="15"/>
       <c r="D379" s="4"/>
       <c r="E379" s="6"/>
       <c r="F379" s="4"/>
@@ -12495,7 +12527,7 @@
     <row r="380" spans="1:27" ht="14.4">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
-      <c r="C380" s="6"/>
+      <c r="C380" s="15"/>
       <c r="D380" s="4"/>
       <c r="E380" s="6"/>
       <c r="F380" s="4"/>
@@ -12524,7 +12556,7 @@
     <row r="381" spans="1:27" ht="14.4">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
-      <c r="C381" s="6"/>
+      <c r="C381" s="15"/>
       <c r="D381" s="4"/>
       <c r="E381" s="6"/>
       <c r="F381" s="4"/>
@@ -12553,7 +12585,7 @@
     <row r="382" spans="1:27" ht="14.4">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
-      <c r="C382" s="6"/>
+      <c r="C382" s="15"/>
       <c r="D382" s="4"/>
       <c r="E382" s="6"/>
       <c r="F382" s="4"/>
@@ -12582,7 +12614,7 @@
     <row r="383" spans="1:27" ht="14.4">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
-      <c r="C383" s="6"/>
+      <c r="C383" s="15"/>
       <c r="D383" s="4"/>
       <c r="E383" s="6"/>
       <c r="F383" s="4"/>
@@ -12611,7 +12643,7 @@
     <row r="384" spans="1:27" ht="14.4">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
-      <c r="C384" s="6"/>
+      <c r="C384" s="15"/>
       <c r="D384" s="4"/>
       <c r="E384" s="6"/>
       <c r="F384" s="4"/>
@@ -12640,7 +12672,7 @@
     <row r="385" spans="1:27" ht="14.4">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
-      <c r="C385" s="6"/>
+      <c r="C385" s="15"/>
       <c r="D385" s="4"/>
       <c r="E385" s="6"/>
       <c r="F385" s="4"/>
@@ -12669,7 +12701,7 @@
     <row r="386" spans="1:27" ht="14.4">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
-      <c r="C386" s="6"/>
+      <c r="C386" s="15"/>
       <c r="D386" s="4"/>
       <c r="E386" s="6"/>
       <c r="F386" s="4"/>
@@ -12698,7 +12730,7 @@
     <row r="387" spans="1:27" ht="14.4">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
-      <c r="C387" s="6"/>
+      <c r="C387" s="15"/>
       <c r="D387" s="4"/>
       <c r="E387" s="6"/>
       <c r="F387" s="4"/>
@@ -12727,7 +12759,7 @@
     <row r="388" spans="1:27" ht="14.4">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
-      <c r="C388" s="6"/>
+      <c r="C388" s="15"/>
       <c r="D388" s="4"/>
       <c r="E388" s="6"/>
       <c r="F388" s="4"/>
@@ -12756,7 +12788,7 @@
     <row r="389" spans="1:27" ht="14.4">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
-      <c r="C389" s="6"/>
+      <c r="C389" s="15"/>
       <c r="D389" s="4"/>
       <c r="E389" s="6"/>
       <c r="F389" s="4"/>
@@ -12785,7 +12817,7 @@
     <row r="390" spans="1:27" ht="14.4">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="6"/>
+      <c r="C390" s="15"/>
       <c r="D390" s="4"/>
       <c r="E390" s="6"/>
       <c r="F390" s="4"/>
@@ -12814,7 +12846,7 @@
     <row r="391" spans="1:27" ht="14.4">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
-      <c r="C391" s="6"/>
+      <c r="C391" s="15"/>
       <c r="D391" s="4"/>
       <c r="E391" s="6"/>
       <c r="F391" s="4"/>
@@ -12843,7 +12875,7 @@
     <row r="392" spans="1:27" ht="14.4">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
-      <c r="C392" s="6"/>
+      <c r="C392" s="15"/>
       <c r="D392" s="4"/>
       <c r="E392" s="6"/>
       <c r="F392" s="4"/>
@@ -12872,7 +12904,7 @@
     <row r="393" spans="1:27" ht="14.4">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
-      <c r="C393" s="6"/>
+      <c r="C393" s="15"/>
       <c r="D393" s="4"/>
       <c r="E393" s="6"/>
       <c r="F393" s="4"/>
@@ -12901,7 +12933,7 @@
     <row r="394" spans="1:27" ht="14.4">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
-      <c r="C394" s="6"/>
+      <c r="C394" s="15"/>
       <c r="D394" s="4"/>
       <c r="E394" s="6"/>
       <c r="F394" s="4"/>
@@ -12930,7 +12962,7 @@
     <row r="395" spans="1:27" ht="14.4">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
-      <c r="C395" s="6"/>
+      <c r="C395" s="15"/>
       <c r="D395" s="4"/>
       <c r="E395" s="6"/>
       <c r="F395" s="4"/>
@@ -12959,7 +12991,7 @@
     <row r="396" spans="1:27" ht="14.4">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
-      <c r="C396" s="6"/>
+      <c r="C396" s="15"/>
       <c r="D396" s="4"/>
       <c r="E396" s="6"/>
       <c r="F396" s="4"/>
@@ -12988,7 +13020,7 @@
     <row r="397" spans="1:27" ht="14.4">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
-      <c r="C397" s="6"/>
+      <c r="C397" s="15"/>
       <c r="D397" s="4"/>
       <c r="E397" s="6"/>
       <c r="F397" s="4"/>
@@ -13017,7 +13049,7 @@
     <row r="398" spans="1:27" ht="14.4">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="6"/>
+      <c r="C398" s="15"/>
       <c r="D398" s="4"/>
       <c r="E398" s="6"/>
       <c r="F398" s="4"/>
@@ -13046,7 +13078,7 @@
     <row r="399" spans="1:27" ht="14.4">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
-      <c r="C399" s="6"/>
+      <c r="C399" s="15"/>
       <c r="D399" s="4"/>
       <c r="E399" s="6"/>
       <c r="F399" s="4"/>
@@ -13075,7 +13107,7 @@
     <row r="400" spans="1:27" ht="14.4">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
-      <c r="C400" s="6"/>
+      <c r="C400" s="15"/>
       <c r="D400" s="4"/>
       <c r="E400" s="6"/>
       <c r="F400" s="4"/>
@@ -13104,7 +13136,7 @@
     <row r="401" spans="1:27" ht="14.4">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
-      <c r="C401" s="6"/>
+      <c r="C401" s="15"/>
       <c r="D401" s="4"/>
       <c r="E401" s="6"/>
       <c r="F401" s="4"/>
@@ -13133,7 +13165,7 @@
     <row r="402" spans="1:27" ht="14.4">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
-      <c r="C402" s="6"/>
+      <c r="C402" s="15"/>
       <c r="D402" s="4"/>
       <c r="E402" s="6"/>
       <c r="F402" s="4"/>
@@ -13162,7 +13194,7 @@
     <row r="403" spans="1:27" ht="14.4">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
-      <c r="C403" s="6"/>
+      <c r="C403" s="15"/>
       <c r="D403" s="4"/>
       <c r="E403" s="6"/>
       <c r="F403" s="4"/>
@@ -13191,7 +13223,7 @@
     <row r="404" spans="1:27" ht="14.4">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
-      <c r="C404" s="6"/>
+      <c r="C404" s="15"/>
       <c r="D404" s="4"/>
       <c r="E404" s="6"/>
       <c r="F404" s="4"/>
@@ -13220,7 +13252,7 @@
     <row r="405" spans="1:27" ht="14.4">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="6"/>
+      <c r="C405" s="15"/>
       <c r="D405" s="4"/>
       <c r="E405" s="6"/>
       <c r="F405" s="4"/>
@@ -13249,7 +13281,7 @@
     <row r="406" spans="1:27" ht="14.4">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="6"/>
+      <c r="C406" s="15"/>
       <c r="D406" s="4"/>
       <c r="E406" s="6"/>
       <c r="F406" s="4"/>
@@ -13278,7 +13310,7 @@
     <row r="407" spans="1:27" ht="14.4">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="6"/>
+      <c r="C407" s="15"/>
       <c r="D407" s="4"/>
       <c r="E407" s="6"/>
       <c r="F407" s="4"/>
@@ -13307,7 +13339,7 @@
     <row r="408" spans="1:27" ht="14.4">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="6"/>
+      <c r="C408" s="15"/>
       <c r="D408" s="4"/>
       <c r="E408" s="6"/>
       <c r="F408" s="4"/>
@@ -13336,7 +13368,7 @@
     <row r="409" spans="1:27" ht="14.4">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="6"/>
+      <c r="C409" s="15"/>
       <c r="D409" s="4"/>
       <c r="E409" s="6"/>
       <c r="F409" s="4"/>
@@ -13365,7 +13397,7 @@
     <row r="410" spans="1:27" ht="14.4">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="6"/>
+      <c r="C410" s="15"/>
       <c r="D410" s="4"/>
       <c r="E410" s="6"/>
       <c r="F410" s="4"/>
@@ -13394,7 +13426,7 @@
     <row r="411" spans="1:27" ht="14.4">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="6"/>
+      <c r="C411" s="15"/>
       <c r="D411" s="4"/>
       <c r="E411" s="6"/>
       <c r="F411" s="4"/>
@@ -13423,7 +13455,7 @@
     <row r="412" spans="1:27" ht="14.4">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="6"/>
+      <c r="C412" s="15"/>
       <c r="D412" s="4"/>
       <c r="E412" s="6"/>
       <c r="F412" s="4"/>
@@ -13452,7 +13484,7 @@
     <row r="413" spans="1:27" ht="14.4">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="6"/>
+      <c r="C413" s="15"/>
       <c r="D413" s="4"/>
       <c r="E413" s="6"/>
       <c r="F413" s="4"/>
@@ -13481,7 +13513,7 @@
     <row r="414" spans="1:27" ht="14.4">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="6"/>
+      <c r="C414" s="15"/>
       <c r="D414" s="4"/>
       <c r="E414" s="6"/>
       <c r="F414" s="4"/>
@@ -13510,7 +13542,7 @@
     <row r="415" spans="1:27" ht="14.4">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="6"/>
+      <c r="C415" s="15"/>
       <c r="D415" s="4"/>
       <c r="E415" s="6"/>
       <c r="F415" s="4"/>
@@ -13539,7 +13571,7 @@
     <row r="416" spans="1:27" ht="14.4">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="6"/>
+      <c r="C416" s="15"/>
       <c r="D416" s="4"/>
       <c r="E416" s="6"/>
       <c r="F416" s="4"/>
@@ -13568,7 +13600,7 @@
     <row r="417" spans="1:27" ht="14.4">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="6"/>
+      <c r="C417" s="15"/>
       <c r="D417" s="4"/>
       <c r="E417" s="6"/>
       <c r="F417" s="4"/>
@@ -13597,7 +13629,7 @@
     <row r="418" spans="1:27" ht="14.4">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="6"/>
+      <c r="C418" s="15"/>
       <c r="D418" s="4"/>
       <c r="E418" s="6"/>
       <c r="F418" s="4"/>
@@ -13626,7 +13658,7 @@
     <row r="419" spans="1:27" ht="14.4">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="6"/>
+      <c r="C419" s="15"/>
       <c r="D419" s="4"/>
       <c r="E419" s="6"/>
       <c r="F419" s="4"/>
@@ -13655,7 +13687,7 @@
     <row r="420" spans="1:27" ht="14.4">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="6"/>
+      <c r="C420" s="15"/>
       <c r="D420" s="4"/>
       <c r="E420" s="6"/>
       <c r="F420" s="4"/>
@@ -13684,7 +13716,7 @@
     <row r="421" spans="1:27" ht="14.4">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="6"/>
+      <c r="C421" s="15"/>
       <c r="D421" s="4"/>
       <c r="E421" s="6"/>
       <c r="F421" s="4"/>
@@ -13713,7 +13745,7 @@
     <row r="422" spans="1:27" ht="14.4">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="6"/>
+      <c r="C422" s="15"/>
       <c r="D422" s="4"/>
       <c r="E422" s="6"/>
       <c r="F422" s="4"/>
@@ -13742,7 +13774,7 @@
     <row r="423" spans="1:27" ht="14.4">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="6"/>
+      <c r="C423" s="15"/>
       <c r="D423" s="4"/>
       <c r="E423" s="6"/>
       <c r="F423" s="4"/>
@@ -13771,7 +13803,7 @@
     <row r="424" spans="1:27" ht="14.4">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="6"/>
+      <c r="C424" s="15"/>
       <c r="D424" s="4"/>
       <c r="E424" s="6"/>
       <c r="F424" s="4"/>
@@ -13800,7 +13832,7 @@
     <row r="425" spans="1:27" ht="14.4">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="6"/>
+      <c r="C425" s="15"/>
       <c r="D425" s="4"/>
       <c r="E425" s="6"/>
       <c r="F425" s="4"/>
@@ -13829,7 +13861,7 @@
     <row r="426" spans="1:27" ht="14.4">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="6"/>
+      <c r="C426" s="15"/>
       <c r="D426" s="4"/>
       <c r="E426" s="6"/>
       <c r="F426" s="4"/>
@@ -13858,7 +13890,7 @@
     <row r="427" spans="1:27" ht="14.4">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="6"/>
+      <c r="C427" s="15"/>
       <c r="D427" s="4"/>
       <c r="E427" s="6"/>
       <c r="F427" s="4"/>
@@ -13887,7 +13919,7 @@
     <row r="428" spans="1:27" ht="14.4">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="6"/>
+      <c r="C428" s="15"/>
       <c r="D428" s="4"/>
       <c r="E428" s="6"/>
       <c r="F428" s="4"/>
@@ -13916,7 +13948,7 @@
     <row r="429" spans="1:27" ht="14.4">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="6"/>
+      <c r="C429" s="15"/>
       <c r="D429" s="4"/>
       <c r="E429" s="6"/>
       <c r="F429" s="4"/>
@@ -13945,7 +13977,7 @@
     <row r="430" spans="1:27" ht="14.4">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="6"/>
+      <c r="C430" s="15"/>
       <c r="D430" s="4"/>
       <c r="E430" s="6"/>
       <c r="F430" s="4"/>
@@ -13974,7 +14006,7 @@
     <row r="431" spans="1:27" ht="14.4">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="6"/>
+      <c r="C431" s="15"/>
       <c r="D431" s="4"/>
       <c r="E431" s="6"/>
       <c r="F431" s="4"/>
@@ -14003,7 +14035,7 @@
     <row r="432" spans="1:27" ht="14.4">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="6"/>
+      <c r="C432" s="15"/>
       <c r="D432" s="4"/>
       <c r="E432" s="6"/>
       <c r="F432" s="4"/>
@@ -14032,7 +14064,7 @@
     <row r="433" spans="1:27" ht="14.4">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="6"/>
+      <c r="C433" s="15"/>
       <c r="D433" s="4"/>
       <c r="E433" s="6"/>
       <c r="F433" s="4"/>
@@ -14061,7 +14093,7 @@
     <row r="434" spans="1:27" ht="14.4">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="6"/>
+      <c r="C434" s="15"/>
       <c r="D434" s="4"/>
       <c r="E434" s="6"/>
       <c r="F434" s="4"/>
@@ -14090,7 +14122,7 @@
     <row r="435" spans="1:27" ht="14.4">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="6"/>
+      <c r="C435" s="15"/>
       <c r="D435" s="4"/>
       <c r="E435" s="6"/>
       <c r="F435" s="4"/>
@@ -14119,7 +14151,7 @@
     <row r="436" spans="1:27" ht="14.4">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="6"/>
+      <c r="C436" s="15"/>
       <c r="D436" s="4"/>
       <c r="E436" s="6"/>
       <c r="F436" s="4"/>
@@ -14148,7 +14180,7 @@
     <row r="437" spans="1:27" ht="14.4">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="6"/>
+      <c r="C437" s="15"/>
       <c r="D437" s="4"/>
       <c r="E437" s="6"/>
       <c r="F437" s="4"/>
@@ -14177,7 +14209,7 @@
     <row r="438" spans="1:27" ht="14.4">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="6"/>
+      <c r="C438" s="15"/>
       <c r="D438" s="4"/>
       <c r="E438" s="6"/>
       <c r="F438" s="4"/>
@@ -14206,7 +14238,7 @@
     <row r="439" spans="1:27" ht="14.4">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="6"/>
+      <c r="C439" s="15"/>
       <c r="D439" s="4"/>
       <c r="E439" s="6"/>
       <c r="F439" s="4"/>
@@ -14235,7 +14267,7 @@
     <row r="440" spans="1:27" ht="14.4">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="6"/>
+      <c r="C440" s="15"/>
       <c r="D440" s="4"/>
       <c r="E440" s="6"/>
       <c r="F440" s="4"/>
@@ -14264,7 +14296,7 @@
     <row r="441" spans="1:27" ht="14.4">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="6"/>
+      <c r="C441" s="15"/>
       <c r="D441" s="4"/>
       <c r="E441" s="6"/>
       <c r="F441" s="4"/>
@@ -14293,7 +14325,7 @@
     <row r="442" spans="1:27" ht="14.4">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="6"/>
+      <c r="C442" s="15"/>
       <c r="D442" s="4"/>
       <c r="E442" s="6"/>
       <c r="F442" s="4"/>
@@ -14322,7 +14354,7 @@
     <row r="443" spans="1:27" ht="14.4">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="6"/>
+      <c r="C443" s="15"/>
       <c r="D443" s="4"/>
       <c r="E443" s="6"/>
       <c r="F443" s="4"/>
@@ -14351,7 +14383,7 @@
     <row r="444" spans="1:27" ht="14.4">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="6"/>
+      <c r="C444" s="15"/>
       <c r="D444" s="4"/>
       <c r="E444" s="6"/>
       <c r="F444" s="4"/>
@@ -14380,7 +14412,7 @@
     <row r="445" spans="1:27" ht="14.4">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="6"/>
+      <c r="C445" s="15"/>
       <c r="D445" s="4"/>
       <c r="E445" s="6"/>
       <c r="F445" s="4"/>
@@ -14409,7 +14441,7 @@
     <row r="446" spans="1:27" ht="14.4">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="6"/>
+      <c r="C446" s="15"/>
       <c r="D446" s="4"/>
       <c r="E446" s="6"/>
       <c r="F446" s="4"/>
@@ -14438,7 +14470,7 @@
     <row r="447" spans="1:27" ht="14.4">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="6"/>
+      <c r="C447" s="15"/>
       <c r="D447" s="4"/>
       <c r="E447" s="6"/>
       <c r="F447" s="4"/>
@@ -14467,7 +14499,7 @@
     <row r="448" spans="1:27" ht="14.4">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="6"/>
+      <c r="C448" s="15"/>
       <c r="D448" s="4"/>
       <c r="E448" s="6"/>
       <c r="F448" s="4"/>
@@ -14496,7 +14528,7 @@
     <row r="449" spans="1:27" ht="14.4">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="6"/>
+      <c r="C449" s="15"/>
       <c r="D449" s="4"/>
       <c r="E449" s="6"/>
       <c r="F449" s="4"/>
@@ -14525,7 +14557,7 @@
     <row r="450" spans="1:27" ht="14.4">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="6"/>
+      <c r="C450" s="15"/>
       <c r="D450" s="4"/>
       <c r="E450" s="6"/>
       <c r="F450" s="4"/>
@@ -14554,7 +14586,7 @@
     <row r="451" spans="1:27" ht="14.4">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="6"/>
+      <c r="C451" s="15"/>
       <c r="D451" s="4"/>
       <c r="E451" s="6"/>
       <c r="F451" s="4"/>
@@ -14583,7 +14615,7 @@
     <row r="452" spans="1:27" ht="14.4">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="6"/>
+      <c r="C452" s="15"/>
       <c r="D452" s="4"/>
       <c r="E452" s="6"/>
       <c r="F452" s="4"/>
@@ -14612,7 +14644,7 @@
     <row r="453" spans="1:27" ht="14.4">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="6"/>
+      <c r="C453" s="15"/>
       <c r="D453" s="4"/>
       <c r="E453" s="6"/>
       <c r="F453" s="4"/>
@@ -14641,7 +14673,7 @@
     <row r="454" spans="1:27" ht="14.4">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="6"/>
+      <c r="C454" s="15"/>
       <c r="D454" s="4"/>
       <c r="E454" s="6"/>
       <c r="F454" s="4"/>
@@ -14670,7 +14702,7 @@
     <row r="455" spans="1:27" ht="14.4">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="6"/>
+      <c r="C455" s="15"/>
       <c r="D455" s="4"/>
       <c r="E455" s="6"/>
       <c r="F455" s="4"/>
@@ -14699,7 +14731,7 @@
     <row r="456" spans="1:27" ht="14.4">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="6"/>
+      <c r="C456" s="15"/>
       <c r="D456" s="4"/>
       <c r="E456" s="6"/>
       <c r="F456" s="4"/>
@@ -14728,7 +14760,7 @@
     <row r="457" spans="1:27" ht="14.4">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="6"/>
+      <c r="C457" s="15"/>
       <c r="D457" s="4"/>
       <c r="E457" s="6"/>
       <c r="F457" s="4"/>
@@ -14757,7 +14789,7 @@
     <row r="458" spans="1:27" ht="14.4">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="6"/>
+      <c r="C458" s="15"/>
       <c r="D458" s="4"/>
       <c r="E458" s="6"/>
       <c r="F458" s="4"/>
@@ -14786,7 +14818,7 @@
     <row r="459" spans="1:27" ht="14.4">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="6"/>
+      <c r="C459" s="15"/>
       <c r="D459" s="4"/>
       <c r="E459" s="6"/>
       <c r="F459" s="4"/>
@@ -14815,7 +14847,7 @@
     <row r="460" spans="1:27" ht="14.4">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="6"/>
+      <c r="C460" s="15"/>
       <c r="D460" s="4"/>
       <c r="E460" s="6"/>
       <c r="F460" s="4"/>
@@ -14844,7 +14876,7 @@
     <row r="461" spans="1:27" ht="14.4">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="6"/>
+      <c r="C461" s="15"/>
       <c r="D461" s="4"/>
       <c r="E461" s="6"/>
       <c r="F461" s="4"/>
@@ -14873,7 +14905,7 @@
     <row r="462" spans="1:27" ht="14.4">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="6"/>
+      <c r="C462" s="15"/>
       <c r="D462" s="4"/>
       <c r="E462" s="6"/>
       <c r="F462" s="4"/>
@@ -14902,7 +14934,7 @@
     <row r="463" spans="1:27" ht="14.4">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="6"/>
+      <c r="C463" s="15"/>
       <c r="D463" s="4"/>
       <c r="E463" s="6"/>
       <c r="F463" s="4"/>
@@ -14931,7 +14963,7 @@
     <row r="464" spans="1:27" ht="14.4">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="6"/>
+      <c r="C464" s="15"/>
       <c r="D464" s="4"/>
       <c r="E464" s="6"/>
       <c r="F464" s="4"/>
@@ -14960,7 +14992,7 @@
     <row r="465" spans="1:27" ht="14.4">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="6"/>
+      <c r="C465" s="15"/>
       <c r="D465" s="4"/>
       <c r="E465" s="6"/>
       <c r="F465" s="4"/>
@@ -14989,7 +15021,7 @@
     <row r="466" spans="1:27" ht="14.4">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="6"/>
+      <c r="C466" s="15"/>
       <c r="D466" s="4"/>
       <c r="E466" s="6"/>
       <c r="F466" s="4"/>
@@ -15018,7 +15050,7 @@
     <row r="467" spans="1:27" ht="14.4">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="6"/>
+      <c r="C467" s="15"/>
       <c r="D467" s="4"/>
       <c r="E467" s="6"/>
       <c r="F467" s="4"/>
@@ -15047,7 +15079,7 @@
     <row r="468" spans="1:27" ht="14.4">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="6"/>
+      <c r="C468" s="15"/>
       <c r="D468" s="4"/>
       <c r="E468" s="6"/>
       <c r="F468" s="4"/>
@@ -15076,7 +15108,7 @@
     <row r="469" spans="1:27" ht="14.4">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="6"/>
+      <c r="C469" s="15"/>
       <c r="D469" s="4"/>
       <c r="E469" s="6"/>
       <c r="F469" s="4"/>
@@ -15105,7 +15137,7 @@
     <row r="470" spans="1:27" ht="14.4">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="6"/>
+      <c r="C470" s="15"/>
       <c r="D470" s="4"/>
       <c r="E470" s="6"/>
       <c r="F470" s="4"/>
@@ -15134,7 +15166,7 @@
     <row r="471" spans="1:27" ht="14.4">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="6"/>
+      <c r="C471" s="15"/>
       <c r="D471" s="4"/>
       <c r="E471" s="6"/>
       <c r="F471" s="4"/>
@@ -15163,7 +15195,7 @@
     <row r="472" spans="1:27" ht="14.4">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="6"/>
+      <c r="C472" s="15"/>
       <c r="D472" s="4"/>
       <c r="E472" s="6"/>
       <c r="F472" s="4"/>
@@ -15192,7 +15224,7 @@
     <row r="473" spans="1:27" ht="14.4">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="6"/>
+      <c r="C473" s="15"/>
       <c r="D473" s="4"/>
       <c r="E473" s="6"/>
       <c r="F473" s="4"/>
@@ -15221,7 +15253,7 @@
     <row r="474" spans="1:27" ht="14.4">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="6"/>
+      <c r="C474" s="15"/>
       <c r="D474" s="4"/>
       <c r="E474" s="6"/>
       <c r="F474" s="4"/>
@@ -15250,7 +15282,7 @@
     <row r="475" spans="1:27" ht="14.4">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="6"/>
+      <c r="C475" s="15"/>
       <c r="D475" s="4"/>
       <c r="E475" s="6"/>
       <c r="F475" s="4"/>
@@ -15279,7 +15311,7 @@
     <row r="476" spans="1:27" ht="14.4">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="6"/>
+      <c r="C476" s="15"/>
       <c r="D476" s="4"/>
       <c r="E476" s="6"/>
       <c r="F476" s="4"/>
@@ -15308,7 +15340,7 @@
     <row r="477" spans="1:27" ht="14.4">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="6"/>
+      <c r="C477" s="15"/>
       <c r="D477" s="4"/>
       <c r="E477" s="6"/>
       <c r="F477" s="4"/>
@@ -15337,7 +15369,7 @@
     <row r="478" spans="1:27" ht="14.4">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="6"/>
+      <c r="C478" s="15"/>
       <c r="D478" s="4"/>
       <c r="E478" s="6"/>
       <c r="F478" s="4"/>
@@ -15366,7 +15398,7 @@
     <row r="479" spans="1:27" ht="14.4">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="6"/>
+      <c r="C479" s="15"/>
       <c r="D479" s="4"/>
       <c r="E479" s="6"/>
       <c r="F479" s="4"/>
@@ -15395,7 +15427,7 @@
     <row r="480" spans="1:27" ht="14.4">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="6"/>
+      <c r="C480" s="15"/>
       <c r="D480" s="4"/>
       <c r="E480" s="6"/>
       <c r="F480" s="4"/>
@@ -15424,7 +15456,7 @@
     <row r="481" spans="1:27" ht="14.4">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="6"/>
+      <c r="C481" s="15"/>
       <c r="D481" s="4"/>
       <c r="E481" s="6"/>
       <c r="F481" s="4"/>
@@ -15453,7 +15485,7 @@
     <row r="482" spans="1:27" ht="14.4">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="6"/>
+      <c r="C482" s="15"/>
       <c r="D482" s="4"/>
       <c r="E482" s="6"/>
       <c r="F482" s="4"/>
@@ -15482,7 +15514,7 @@
     <row r="483" spans="1:27" ht="14.4">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="6"/>
+      <c r="C483" s="15"/>
       <c r="D483" s="4"/>
       <c r="E483" s="6"/>
       <c r="F483" s="4"/>
@@ -15511,7 +15543,7 @@
     <row r="484" spans="1:27" ht="14.4">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="6"/>
+      <c r="C484" s="15"/>
       <c r="D484" s="4"/>
       <c r="E484" s="6"/>
       <c r="F484" s="4"/>
@@ -15540,7 +15572,7 @@
     <row r="485" spans="1:27" ht="14.4">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="6"/>
+      <c r="C485" s="15"/>
       <c r="D485" s="4"/>
       <c r="E485" s="6"/>
       <c r="F485" s="4"/>
@@ -15569,7 +15601,7 @@
     <row r="486" spans="1:27" ht="14.4">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="6"/>
+      <c r="C486" s="15"/>
       <c r="D486" s="4"/>
       <c r="E486" s="6"/>
       <c r="F486" s="4"/>
@@ -15598,7 +15630,7 @@
     <row r="487" spans="1:27" ht="14.4">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="6"/>
+      <c r="C487" s="15"/>
       <c r="D487" s="4"/>
       <c r="E487" s="6"/>
       <c r="F487" s="4"/>
@@ -15627,7 +15659,7 @@
     <row r="488" spans="1:27" ht="14.4">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="6"/>
+      <c r="C488" s="15"/>
       <c r="D488" s="4"/>
       <c r="E488" s="6"/>
       <c r="F488" s="4"/>
@@ -15656,7 +15688,7 @@
     <row r="489" spans="1:27" ht="14.4">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="6"/>
+      <c r="C489" s="15"/>
       <c r="D489" s="4"/>
       <c r="E489" s="6"/>
       <c r="F489" s="4"/>
@@ -15685,7 +15717,7 @@
     <row r="490" spans="1:27" ht="14.4">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="6"/>
+      <c r="C490" s="15"/>
       <c r="D490" s="4"/>
       <c r="E490" s="6"/>
       <c r="F490" s="4"/>
@@ -15714,7 +15746,7 @@
     <row r="491" spans="1:27" ht="14.4">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="6"/>
+      <c r="C491" s="15"/>
       <c r="D491" s="4"/>
       <c r="E491" s="6"/>
       <c r="F491" s="4"/>
@@ -15743,7 +15775,7 @@
     <row r="492" spans="1:27" ht="14.4">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="6"/>
+      <c r="C492" s="15"/>
       <c r="D492" s="4"/>
       <c r="E492" s="6"/>
       <c r="F492" s="4"/>
@@ -15772,7 +15804,7 @@
     <row r="493" spans="1:27" ht="14.4">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="6"/>
+      <c r="C493" s="15"/>
       <c r="D493" s="4"/>
       <c r="E493" s="6"/>
       <c r="F493" s="4"/>
@@ -15801,7 +15833,7 @@
     <row r="494" spans="1:27" ht="14.4">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="6"/>
+      <c r="C494" s="15"/>
       <c r="D494" s="4"/>
       <c r="E494" s="6"/>
       <c r="F494" s="4"/>
@@ -15830,7 +15862,7 @@
     <row r="495" spans="1:27" ht="14.4">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="6"/>
+      <c r="C495" s="15"/>
       <c r="D495" s="4"/>
       <c r="E495" s="6"/>
       <c r="F495" s="4"/>
@@ -15859,7 +15891,7 @@
     <row r="496" spans="1:27" ht="14.4">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="6"/>
+      <c r="C496" s="15"/>
       <c r="D496" s="4"/>
       <c r="E496" s="6"/>
       <c r="F496" s="4"/>
@@ -15888,7 +15920,7 @@
     <row r="497" spans="1:27" ht="14.4">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="6"/>
+      <c r="C497" s="15"/>
       <c r="D497" s="4"/>
       <c r="E497" s="6"/>
       <c r="F497" s="4"/>
@@ -15917,7 +15949,7 @@
     <row r="498" spans="1:27" ht="14.4">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="6"/>
+      <c r="C498" s="15"/>
       <c r="D498" s="4"/>
       <c r="E498" s="6"/>
       <c r="F498" s="4"/>
@@ -15946,7 +15978,7 @@
     <row r="499" spans="1:27" ht="14.4">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="6"/>
+      <c r="C499" s="15"/>
       <c r="D499" s="4"/>
       <c r="E499" s="6"/>
       <c r="F499" s="4"/>
@@ -15975,7 +16007,7 @@
     <row r="500" spans="1:27" ht="14.4">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="6"/>
+      <c r="C500" s="15"/>
       <c r="D500" s="4"/>
       <c r="E500" s="6"/>
       <c r="F500" s="4"/>
@@ -16004,7 +16036,7 @@
     <row r="501" spans="1:27" ht="14.4">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="6"/>
+      <c r="C501" s="15"/>
       <c r="D501" s="4"/>
       <c r="E501" s="6"/>
       <c r="F501" s="4"/>
@@ -16033,7 +16065,7 @@
     <row r="502" spans="1:27" ht="14.4">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="6"/>
+      <c r="C502" s="15"/>
       <c r="D502" s="4"/>
       <c r="E502" s="6"/>
       <c r="F502" s="4"/>
@@ -16062,7 +16094,7 @@
     <row r="503" spans="1:27" ht="14.4">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="6"/>
+      <c r="C503" s="15"/>
       <c r="D503" s="4"/>
       <c r="E503" s="6"/>
       <c r="F503" s="4"/>
@@ -16091,7 +16123,7 @@
     <row r="504" spans="1:27" ht="14.4">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="6"/>
+      <c r="C504" s="15"/>
       <c r="D504" s="4"/>
       <c r="E504" s="6"/>
       <c r="F504" s="4"/>
@@ -16120,7 +16152,7 @@
     <row r="505" spans="1:27" ht="14.4">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="6"/>
+      <c r="C505" s="15"/>
       <c r="D505" s="4"/>
       <c r="E505" s="6"/>
       <c r="F505" s="4"/>
@@ -16149,7 +16181,7 @@
     <row r="506" spans="1:27" ht="14.4">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="6"/>
+      <c r="C506" s="15"/>
       <c r="D506" s="4"/>
       <c r="E506" s="6"/>
       <c r="F506" s="4"/>
@@ -16178,7 +16210,7 @@
     <row r="507" spans="1:27" ht="14.4">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="6"/>
+      <c r="C507" s="15"/>
       <c r="D507" s="4"/>
       <c r="E507" s="6"/>
       <c r="F507" s="4"/>
@@ -16207,7 +16239,7 @@
     <row r="508" spans="1:27" ht="14.4">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="6"/>
+      <c r="C508" s="15"/>
       <c r="D508" s="4"/>
       <c r="E508" s="6"/>
       <c r="F508" s="4"/>
@@ -16236,7 +16268,7 @@
     <row r="509" spans="1:27" ht="14.4">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="6"/>
+      <c r="C509" s="15"/>
       <c r="D509" s="4"/>
       <c r="E509" s="6"/>
       <c r="F509" s="4"/>
@@ -16265,7 +16297,7 @@
     <row r="510" spans="1:27" ht="14.4">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="6"/>
+      <c r="C510" s="15"/>
       <c r="D510" s="4"/>
       <c r="E510" s="6"/>
       <c r="F510" s="4"/>
@@ -16294,7 +16326,7 @@
     <row r="511" spans="1:27" ht="14.4">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="6"/>
+      <c r="C511" s="15"/>
       <c r="D511" s="4"/>
       <c r="E511" s="6"/>
       <c r="F511" s="4"/>
@@ -16323,7 +16355,7 @@
     <row r="512" spans="1:27" ht="14.4">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="6"/>
+      <c r="C512" s="15"/>
       <c r="D512" s="4"/>
       <c r="E512" s="6"/>
       <c r="F512" s="4"/>
@@ -16352,7 +16384,7 @@
     <row r="513" spans="1:27" ht="14.4">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="6"/>
+      <c r="C513" s="15"/>
       <c r="D513" s="4"/>
       <c r="E513" s="6"/>
       <c r="F513" s="4"/>
@@ -16381,7 +16413,7 @@
     <row r="514" spans="1:27" ht="14.4">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="6"/>
+      <c r="C514" s="15"/>
       <c r="D514" s="4"/>
       <c r="E514" s="6"/>
       <c r="F514" s="4"/>
@@ -16410,7 +16442,7 @@
     <row r="515" spans="1:27" ht="14.4">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="6"/>
+      <c r="C515" s="15"/>
       <c r="D515" s="4"/>
       <c r="E515" s="6"/>
       <c r="F515" s="4"/>
@@ -16439,7 +16471,7 @@
     <row r="516" spans="1:27" ht="14.4">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="6"/>
+      <c r="C516" s="15"/>
       <c r="D516" s="4"/>
       <c r="E516" s="6"/>
       <c r="F516" s="4"/>
@@ -16468,7 +16500,7 @@
     <row r="517" spans="1:27" ht="14.4">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="6"/>
+      <c r="C517" s="15"/>
       <c r="D517" s="4"/>
       <c r="E517" s="6"/>
       <c r="F517" s="4"/>
@@ -16497,7 +16529,7 @@
     <row r="518" spans="1:27" ht="14.4">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="6"/>
+      <c r="C518" s="15"/>
       <c r="D518" s="4"/>
       <c r="E518" s="6"/>
       <c r="F518" s="4"/>
@@ -16526,7 +16558,7 @@
     <row r="519" spans="1:27" ht="14.4">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="6"/>
+      <c r="C519" s="15"/>
       <c r="D519" s="4"/>
       <c r="E519" s="6"/>
       <c r="F519" s="4"/>
@@ -16555,7 +16587,7 @@
     <row r="520" spans="1:27" ht="14.4">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="6"/>
+      <c r="C520" s="15"/>
       <c r="D520" s="4"/>
       <c r="E520" s="6"/>
       <c r="F520" s="4"/>
@@ -16584,7 +16616,7 @@
     <row r="521" spans="1:27" ht="14.4">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="6"/>
+      <c r="C521" s="15"/>
       <c r="D521" s="4"/>
       <c r="E521" s="6"/>
       <c r="F521" s="4"/>
@@ -16613,7 +16645,7 @@
     <row r="522" spans="1:27" ht="14.4">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="6"/>
+      <c r="C522" s="15"/>
       <c r="D522" s="4"/>
       <c r="E522" s="6"/>
       <c r="F522" s="4"/>
@@ -16642,7 +16674,7 @@
     <row r="523" spans="1:27" ht="14.4">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="6"/>
+      <c r="C523" s="15"/>
       <c r="D523" s="4"/>
       <c r="E523" s="6"/>
       <c r="F523" s="4"/>
@@ -16671,7 +16703,7 @@
     <row r="524" spans="1:27" ht="14.4">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="6"/>
+      <c r="C524" s="15"/>
       <c r="D524" s="4"/>
       <c r="E524" s="6"/>
       <c r="F524" s="4"/>
@@ -16700,7 +16732,7 @@
     <row r="525" spans="1:27" ht="14.4">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="6"/>
+      <c r="C525" s="15"/>
       <c r="D525" s="4"/>
       <c r="E525" s="6"/>
       <c r="F525" s="4"/>
@@ -16729,7 +16761,7 @@
     <row r="526" spans="1:27" ht="14.4">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="6"/>
+      <c r="C526" s="15"/>
       <c r="D526" s="4"/>
       <c r="E526" s="6"/>
       <c r="F526" s="4"/>
@@ -16758,7 +16790,7 @@
     <row r="527" spans="1:27" ht="14.4">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="6"/>
+      <c r="C527" s="15"/>
       <c r="D527" s="4"/>
       <c r="E527" s="6"/>
       <c r="F527" s="4"/>
@@ -16787,7 +16819,7 @@
     <row r="528" spans="1:27" ht="14.4">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="6"/>
+      <c r="C528" s="15"/>
       <c r="D528" s="4"/>
       <c r="E528" s="6"/>
       <c r="F528" s="4"/>
@@ -16816,7 +16848,7 @@
     <row r="529" spans="1:27" ht="14.4">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="6"/>
+      <c r="C529" s="15"/>
       <c r="D529" s="4"/>
       <c r="E529" s="6"/>
       <c r="F529" s="4"/>
@@ -16845,7 +16877,7 @@
     <row r="530" spans="1:27" ht="14.4">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="6"/>
+      <c r="C530" s="15"/>
       <c r="D530" s="4"/>
       <c r="E530" s="6"/>
       <c r="F530" s="4"/>
@@ -16874,7 +16906,7 @@
     <row r="531" spans="1:27" ht="14.4">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="6"/>
+      <c r="C531" s="15"/>
       <c r="D531" s="4"/>
       <c r="E531" s="6"/>
       <c r="F531" s="4"/>
@@ -16903,7 +16935,7 @@
     <row r="532" spans="1:27" ht="14.4">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="6"/>
+      <c r="C532" s="15"/>
       <c r="D532" s="4"/>
       <c r="E532" s="6"/>
       <c r="F532" s="4"/>
@@ -16932,7 +16964,7 @@
     <row r="533" spans="1:27" ht="14.4">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="6"/>
+      <c r="C533" s="15"/>
       <c r="D533" s="4"/>
       <c r="E533" s="6"/>
       <c r="F533" s="4"/>
@@ -16961,7 +16993,7 @@
     <row r="534" spans="1:27" ht="14.4">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="6"/>
+      <c r="C534" s="15"/>
       <c r="D534" s="4"/>
       <c r="E534" s="6"/>
       <c r="F534" s="4"/>
@@ -16990,7 +17022,7 @@
     <row r="535" spans="1:27" ht="14.4">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="6"/>
+      <c r="C535" s="15"/>
       <c r="D535" s="4"/>
       <c r="E535" s="6"/>
       <c r="F535" s="4"/>
@@ -17019,7 +17051,7 @@
     <row r="536" spans="1:27" ht="14.4">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="6"/>
+      <c r="C536" s="15"/>
       <c r="D536" s="4"/>
       <c r="E536" s="6"/>
       <c r="F536" s="4"/>
@@ -17048,7 +17080,7 @@
     <row r="537" spans="1:27" ht="14.4">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="6"/>
+      <c r="C537" s="15"/>
       <c r="D537" s="4"/>
       <c r="E537" s="6"/>
       <c r="F537" s="4"/>
@@ -17077,7 +17109,7 @@
     <row r="538" spans="1:27" ht="14.4">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="6"/>
+      <c r="C538" s="15"/>
       <c r="D538" s="4"/>
       <c r="E538" s="6"/>
       <c r="F538" s="4"/>
@@ -17106,7 +17138,7 @@
     <row r="539" spans="1:27" ht="14.4">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="6"/>
+      <c r="C539" s="15"/>
       <c r="D539" s="4"/>
       <c r="E539" s="6"/>
       <c r="F539" s="4"/>
@@ -17135,7 +17167,7 @@
     <row r="540" spans="1:27" ht="14.4">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="6"/>
+      <c r="C540" s="15"/>
       <c r="D540" s="4"/>
       <c r="E540" s="6"/>
       <c r="F540" s="4"/>
@@ -17164,7 +17196,7 @@
     <row r="541" spans="1:27" ht="14.4">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="6"/>
+      <c r="C541" s="15"/>
       <c r="D541" s="4"/>
       <c r="E541" s="6"/>
       <c r="F541" s="4"/>
@@ -17193,7 +17225,7 @@
     <row r="542" spans="1:27" ht="14.4">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="6"/>
+      <c r="C542" s="15"/>
       <c r="D542" s="4"/>
       <c r="E542" s="6"/>
       <c r="F542" s="4"/>
@@ -17222,7 +17254,7 @@
     <row r="543" spans="1:27" ht="14.4">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="6"/>
+      <c r="C543" s="15"/>
       <c r="D543" s="4"/>
       <c r="E543" s="6"/>
       <c r="F543" s="4"/>
@@ -17251,7 +17283,7 @@
     <row r="544" spans="1:27" ht="14.4">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="6"/>
+      <c r="C544" s="15"/>
       <c r="D544" s="4"/>
       <c r="E544" s="6"/>
       <c r="F544" s="4"/>
@@ -17280,7 +17312,7 @@
     <row r="545" spans="1:27" ht="14.4">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="6"/>
+      <c r="C545" s="15"/>
       <c r="D545" s="4"/>
       <c r="E545" s="6"/>
       <c r="F545" s="4"/>
@@ -17309,7 +17341,7 @@
     <row r="546" spans="1:27" ht="14.4">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="6"/>
+      <c r="C546" s="15"/>
       <c r="D546" s="4"/>
       <c r="E546" s="6"/>
       <c r="F546" s="4"/>
@@ -17338,7 +17370,7 @@
     <row r="547" spans="1:27" ht="14.4">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="6"/>
+      <c r="C547" s="15"/>
       <c r="D547" s="4"/>
       <c r="E547" s="6"/>
       <c r="F547" s="4"/>
@@ -17367,7 +17399,7 @@
     <row r="548" spans="1:27" ht="14.4">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="6"/>
+      <c r="C548" s="15"/>
       <c r="D548" s="4"/>
       <c r="E548" s="6"/>
       <c r="F548" s="4"/>
@@ -17396,7 +17428,7 @@
     <row r="549" spans="1:27" ht="14.4">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="6"/>
+      <c r="C549" s="15"/>
       <c r="D549" s="4"/>
       <c r="E549" s="6"/>
       <c r="F549" s="4"/>
@@ -17425,7 +17457,7 @@
     <row r="550" spans="1:27" ht="14.4">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="6"/>
+      <c r="C550" s="15"/>
       <c r="D550" s="4"/>
       <c r="E550" s="6"/>
       <c r="F550" s="4"/>
@@ -17454,7 +17486,7 @@
     <row r="551" spans="1:27" ht="14.4">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="6"/>
+      <c r="C551" s="15"/>
       <c r="D551" s="4"/>
       <c r="E551" s="6"/>
       <c r="F551" s="4"/>
@@ -17483,7 +17515,7 @@
     <row r="552" spans="1:27" ht="14.4">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="6"/>
+      <c r="C552" s="15"/>
       <c r="D552" s="4"/>
       <c r="E552" s="6"/>
       <c r="F552" s="4"/>
@@ -17512,7 +17544,7 @@
     <row r="553" spans="1:27" ht="14.4">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="6"/>
+      <c r="C553" s="15"/>
       <c r="D553" s="4"/>
       <c r="E553" s="6"/>
       <c r="F553" s="4"/>
@@ -17541,7 +17573,7 @@
     <row r="554" spans="1:27" ht="14.4">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="6"/>
+      <c r="C554" s="15"/>
       <c r="D554" s="4"/>
       <c r="E554" s="6"/>
       <c r="F554" s="4"/>
@@ -17570,7 +17602,7 @@
     <row r="555" spans="1:27" ht="14.4">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="6"/>
+      <c r="C555" s="15"/>
       <c r="D555" s="4"/>
       <c r="E555" s="6"/>
       <c r="F555" s="4"/>
@@ -17599,7 +17631,7 @@
     <row r="556" spans="1:27" ht="14.4">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="6"/>
+      <c r="C556" s="15"/>
       <c r="D556" s="4"/>
       <c r="E556" s="6"/>
       <c r="F556" s="4"/>
@@ -17628,7 +17660,7 @@
     <row r="557" spans="1:27" ht="14.4">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="6"/>
+      <c r="C557" s="15"/>
       <c r="D557" s="4"/>
       <c r="E557" s="6"/>
       <c r="F557" s="4"/>
@@ -17657,7 +17689,7 @@
     <row r="558" spans="1:27" ht="14.4">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="6"/>
+      <c r="C558" s="15"/>
       <c r="D558" s="4"/>
       <c r="E558" s="6"/>
       <c r="F558" s="4"/>
@@ -17686,7 +17718,7 @@
     <row r="559" spans="1:27" ht="14.4">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="6"/>
+      <c r="C559" s="15"/>
       <c r="D559" s="4"/>
       <c r="E559" s="6"/>
       <c r="F559" s="4"/>
@@ -17715,7 +17747,7 @@
     <row r="560" spans="1:27" ht="14.4">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="6"/>
+      <c r="C560" s="15"/>
       <c r="D560" s="4"/>
       <c r="E560" s="6"/>
       <c r="F560" s="4"/>
@@ -17744,7 +17776,7 @@
     <row r="561" spans="1:27" ht="14.4">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="6"/>
+      <c r="C561" s="15"/>
       <c r="D561" s="4"/>
       <c r="E561" s="6"/>
       <c r="F561" s="4"/>
@@ -17773,7 +17805,7 @@
     <row r="562" spans="1:27" ht="14.4">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="6"/>
+      <c r="C562" s="15"/>
       <c r="D562" s="4"/>
       <c r="E562" s="6"/>
       <c r="F562" s="4"/>
@@ -17802,7 +17834,7 @@
     <row r="563" spans="1:27" ht="14.4">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="6"/>
+      <c r="C563" s="15"/>
       <c r="D563" s="4"/>
       <c r="E563" s="6"/>
       <c r="F563" s="4"/>
@@ -17831,7 +17863,7 @@
     <row r="564" spans="1:27" ht="14.4">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="6"/>
+      <c r="C564" s="15"/>
       <c r="D564" s="4"/>
       <c r="E564" s="6"/>
       <c r="F564" s="4"/>
@@ -17860,7 +17892,7 @@
     <row r="565" spans="1:27" ht="14.4">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="6"/>
+      <c r="C565" s="15"/>
       <c r="D565" s="4"/>
       <c r="E565" s="6"/>
       <c r="F565" s="4"/>
@@ -17889,7 +17921,7 @@
     <row r="566" spans="1:27" ht="14.4">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="6"/>
+      <c r="C566" s="15"/>
       <c r="D566" s="4"/>
       <c r="E566" s="6"/>
       <c r="F566" s="4"/>
@@ -17918,7 +17950,7 @@
     <row r="567" spans="1:27" ht="14.4">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="6"/>
+      <c r="C567" s="15"/>
       <c r="D567" s="4"/>
       <c r="E567" s="6"/>
       <c r="F567" s="4"/>
@@ -17947,7 +17979,7 @@
     <row r="568" spans="1:27" ht="14.4">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="6"/>
+      <c r="C568" s="15"/>
       <c r="D568" s="4"/>
       <c r="E568" s="6"/>
       <c r="F568" s="4"/>
@@ -17976,7 +18008,7 @@
     <row r="569" spans="1:27" ht="14.4">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="6"/>
+      <c r="C569" s="15"/>
       <c r="D569" s="4"/>
       <c r="E569" s="6"/>
       <c r="F569" s="4"/>
@@ -18005,7 +18037,7 @@
     <row r="570" spans="1:27" ht="14.4">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="6"/>
+      <c r="C570" s="15"/>
       <c r="D570" s="4"/>
       <c r="E570" s="6"/>
       <c r="F570" s="4"/>
@@ -18034,7 +18066,7 @@
     <row r="571" spans="1:27" ht="14.4">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="6"/>
+      <c r="C571" s="15"/>
       <c r="D571" s="4"/>
       <c r="E571" s="6"/>
       <c r="F571" s="4"/>
@@ -18063,7 +18095,7 @@
     <row r="572" spans="1:27" ht="14.4">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="6"/>
+      <c r="C572" s="15"/>
       <c r="D572" s="4"/>
       <c r="E572" s="6"/>
       <c r="F572" s="4"/>
@@ -18092,7 +18124,7 @@
     <row r="573" spans="1:27" ht="14.4">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="6"/>
+      <c r="C573" s="15"/>
       <c r="D573" s="4"/>
       <c r="E573" s="6"/>
       <c r="F573" s="4"/>
@@ -18121,7 +18153,7 @@
     <row r="574" spans="1:27" ht="14.4">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="6"/>
+      <c r="C574" s="15"/>
       <c r="D574" s="4"/>
       <c r="E574" s="6"/>
       <c r="F574" s="4"/>
@@ -18150,7 +18182,7 @@
     <row r="575" spans="1:27" ht="14.4">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="6"/>
+      <c r="C575" s="15"/>
       <c r="D575" s="4"/>
       <c r="E575" s="6"/>
       <c r="F575" s="4"/>
@@ -18179,7 +18211,7 @@
     <row r="576" spans="1:27" ht="14.4">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="6"/>
+      <c r="C576" s="15"/>
       <c r="D576" s="4"/>
       <c r="E576" s="6"/>
       <c r="F576" s="4"/>
@@ -18208,7 +18240,7 @@
     <row r="577" spans="1:27" ht="14.4">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="6"/>
+      <c r="C577" s="15"/>
       <c r="D577" s="4"/>
       <c r="E577" s="6"/>
       <c r="F577" s="4"/>
@@ -18237,7 +18269,7 @@
     <row r="578" spans="1:27" ht="14.4">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="6"/>
+      <c r="C578" s="15"/>
       <c r="D578" s="4"/>
       <c r="E578" s="6"/>
       <c r="F578" s="4"/>
@@ -18266,7 +18298,7 @@
     <row r="579" spans="1:27" ht="14.4">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="6"/>
+      <c r="C579" s="15"/>
       <c r="D579" s="4"/>
       <c r="E579" s="6"/>
       <c r="F579" s="4"/>
@@ -18295,7 +18327,7 @@
     <row r="580" spans="1:27" ht="14.4">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="6"/>
+      <c r="C580" s="15"/>
       <c r="D580" s="4"/>
       <c r="E580" s="6"/>
       <c r="F580" s="4"/>
@@ -18324,7 +18356,7 @@
     <row r="581" spans="1:27" ht="14.4">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="6"/>
+      <c r="C581" s="15"/>
       <c r="D581" s="4"/>
       <c r="E581" s="6"/>
       <c r="F581" s="4"/>
@@ -18353,7 +18385,7 @@
     <row r="582" spans="1:27" ht="14.4">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="6"/>
+      <c r="C582" s="15"/>
       <c r="D582" s="4"/>
       <c r="E582" s="6"/>
       <c r="F582" s="4"/>
@@ -18382,7 +18414,7 @@
     <row r="583" spans="1:27" ht="14.4">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="6"/>
+      <c r="C583" s="15"/>
       <c r="D583" s="4"/>
       <c r="E583" s="6"/>
       <c r="F583" s="4"/>
@@ -18411,7 +18443,7 @@
     <row r="584" spans="1:27" ht="14.4">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="6"/>
+      <c r="C584" s="15"/>
       <c r="D584" s="4"/>
       <c r="E584" s="6"/>
       <c r="F584" s="4"/>
@@ -18440,7 +18472,7 @@
     <row r="585" spans="1:27" ht="14.4">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="6"/>
+      <c r="C585" s="15"/>
       <c r="D585" s="4"/>
       <c r="E585" s="6"/>
       <c r="F585" s="4"/>
@@ -18469,7 +18501,7 @@
     <row r="586" spans="1:27" ht="14.4">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="6"/>
+      <c r="C586" s="15"/>
       <c r="D586" s="4"/>
       <c r="E586" s="6"/>
       <c r="F586" s="4"/>
@@ -18498,7 +18530,7 @@
     <row r="587" spans="1:27" ht="14.4">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="6"/>
+      <c r="C587" s="15"/>
       <c r="D587" s="4"/>
       <c r="E587" s="6"/>
       <c r="F587" s="4"/>
@@ -18527,7 +18559,7 @@
     <row r="588" spans="1:27" ht="14.4">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="6"/>
+      <c r="C588" s="15"/>
       <c r="D588" s="4"/>
       <c r="E588" s="6"/>
       <c r="F588" s="4"/>
@@ -18556,7 +18588,7 @@
     <row r="589" spans="1:27" ht="14.4">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="6"/>
+      <c r="C589" s="15"/>
       <c r="D589" s="4"/>
       <c r="E589" s="6"/>
       <c r="F589" s="4"/>
@@ -18585,7 +18617,7 @@
     <row r="590" spans="1:27" ht="14.4">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="6"/>
+      <c r="C590" s="15"/>
       <c r="D590" s="4"/>
       <c r="E590" s="6"/>
       <c r="F590" s="4"/>
@@ -18614,7 +18646,7 @@
     <row r="591" spans="1:27" ht="14.4">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="6"/>
+      <c r="C591" s="15"/>
       <c r="D591" s="4"/>
       <c r="E591" s="6"/>
       <c r="F591" s="4"/>
@@ -18643,7 +18675,7 @@
     <row r="592" spans="1:27" ht="14.4">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="6"/>
+      <c r="C592" s="15"/>
       <c r="D592" s="4"/>
       <c r="E592" s="6"/>
       <c r="F592" s="4"/>
@@ -18672,7 +18704,7 @@
     <row r="593" spans="1:27" ht="14.4">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
-      <c r="C593" s="6"/>
+      <c r="C593" s="15"/>
       <c r="D593" s="4"/>
       <c r="E593" s="6"/>
       <c r="F593" s="4"/>
@@ -18701,7 +18733,7 @@
     <row r="594" spans="1:27" ht="14.4">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
-      <c r="C594" s="6"/>
+      <c r="C594" s="15"/>
       <c r="D594" s="4"/>
       <c r="E594" s="6"/>
       <c r="F594" s="4"/>
@@ -18730,7 +18762,7 @@
     <row r="595" spans="1:27" ht="14.4">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
-      <c r="C595" s="6"/>
+      <c r="C595" s="15"/>
       <c r="D595" s="4"/>
       <c r="E595" s="6"/>
       <c r="F595" s="4"/>
@@ -18759,7 +18791,7 @@
     <row r="596" spans="1:27" ht="14.4">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
-      <c r="C596" s="6"/>
+      <c r="C596" s="15"/>
       <c r="D596" s="4"/>
       <c r="E596" s="6"/>
       <c r="F596" s="4"/>
@@ -18788,7 +18820,7 @@
     <row r="597" spans="1:27" ht="14.4">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
-      <c r="C597" s="6"/>
+      <c r="C597" s="15"/>
       <c r="D597" s="4"/>
       <c r="E597" s="6"/>
       <c r="F597" s="4"/>
@@ -18817,7 +18849,7 @@
     <row r="598" spans="1:27" ht="14.4">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
-      <c r="C598" s="6"/>
+      <c r="C598" s="15"/>
       <c r="D598" s="4"/>
       <c r="E598" s="6"/>
       <c r="F598" s="4"/>
@@ -18846,7 +18878,7 @@
     <row r="599" spans="1:27" ht="14.4">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
-      <c r="C599" s="6"/>
+      <c r="C599" s="15"/>
       <c r="D599" s="4"/>
       <c r="E599" s="6"/>
       <c r="F599" s="4"/>
@@ -18875,7 +18907,7 @@
     <row r="600" spans="1:27" ht="14.4">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="6"/>
+      <c r="C600" s="15"/>
       <c r="D600" s="4"/>
       <c r="E600" s="6"/>
       <c r="F600" s="4"/>
@@ -18904,7 +18936,7 @@
     <row r="601" spans="1:27" ht="14.4">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
-      <c r="C601" s="6"/>
+      <c r="C601" s="15"/>
       <c r="D601" s="4"/>
       <c r="E601" s="6"/>
       <c r="F601" s="4"/>
@@ -18933,7 +18965,7 @@
     <row r="602" spans="1:27" ht="14.4">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
-      <c r="C602" s="6"/>
+      <c r="C602" s="15"/>
       <c r="D602" s="4"/>
       <c r="E602" s="6"/>
       <c r="F602" s="4"/>
@@ -18962,7 +18994,7 @@
     <row r="603" spans="1:27" ht="14.4">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
-      <c r="C603" s="6"/>
+      <c r="C603" s="15"/>
       <c r="D603" s="4"/>
       <c r="E603" s="6"/>
       <c r="F603" s="4"/>
@@ -18991,7 +19023,7 @@
     <row r="604" spans="1:27" ht="14.4">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
-      <c r="C604" s="6"/>
+      <c r="C604" s="15"/>
       <c r="D604" s="4"/>
       <c r="E604" s="6"/>
       <c r="F604" s="4"/>
@@ -19020,7 +19052,7 @@
     <row r="605" spans="1:27" ht="14.4">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
-      <c r="C605" s="6"/>
+      <c r="C605" s="15"/>
       <c r="D605" s="4"/>
       <c r="E605" s="6"/>
       <c r="F605" s="4"/>
@@ -19049,7 +19081,7 @@
     <row r="606" spans="1:27" ht="14.4">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
-      <c r="C606" s="6"/>
+      <c r="C606" s="15"/>
       <c r="D606" s="4"/>
       <c r="E606" s="6"/>
       <c r="F606" s="4"/>
@@ -19078,7 +19110,7 @@
     <row r="607" spans="1:27" ht="14.4">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
-      <c r="C607" s="6"/>
+      <c r="C607" s="15"/>
       <c r="D607" s="4"/>
       <c r="E607" s="6"/>
       <c r="F607" s="4"/>
@@ -19107,7 +19139,7 @@
     <row r="608" spans="1:27" ht="14.4">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
-      <c r="C608" s="6"/>
+      <c r="C608" s="15"/>
       <c r="D608" s="4"/>
       <c r="E608" s="6"/>
       <c r="F608" s="4"/>
@@ -19136,7 +19168,7 @@
     <row r="609" spans="1:27" ht="14.4">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
-      <c r="C609" s="6"/>
+      <c r="C609" s="15"/>
       <c r="D609" s="4"/>
       <c r="E609" s="6"/>
       <c r="F609" s="4"/>
@@ -19165,7 +19197,7 @@
     <row r="610" spans="1:27" ht="14.4">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
-      <c r="C610" s="6"/>
+      <c r="C610" s="15"/>
       <c r="D610" s="4"/>
       <c r="E610" s="6"/>
       <c r="F610" s="4"/>
@@ -19194,7 +19226,7 @@
     <row r="611" spans="1:27" ht="14.4">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
-      <c r="C611" s="6"/>
+      <c r="C611" s="15"/>
       <c r="D611" s="4"/>
       <c r="E611" s="6"/>
       <c r="F611" s="4"/>
@@ -19223,7 +19255,7 @@
     <row r="612" spans="1:27" ht="14.4">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
-      <c r="C612" s="6"/>
+      <c r="C612" s="15"/>
       <c r="D612" s="4"/>
       <c r="E612" s="6"/>
       <c r="F612" s="4"/>
@@ -19252,7 +19284,7 @@
     <row r="613" spans="1:27" ht="14.4">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
-      <c r="C613" s="6"/>
+      <c r="C613" s="15"/>
       <c r="D613" s="4"/>
       <c r="E613" s="6"/>
       <c r="F613" s="4"/>
@@ -19281,7 +19313,7 @@
     <row r="614" spans="1:27" ht="14.4">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
-      <c r="C614" s="6"/>
+      <c r="C614" s="15"/>
       <c r="D614" s="4"/>
       <c r="E614" s="6"/>
       <c r="F614" s="4"/>
@@ -19310,7 +19342,7 @@
     <row r="615" spans="1:27" ht="14.4">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
-      <c r="C615" s="6"/>
+      <c r="C615" s="15"/>
       <c r="D615" s="4"/>
       <c r="E615" s="6"/>
       <c r="F615" s="4"/>
@@ -19339,7 +19371,7 @@
     <row r="616" spans="1:27" ht="14.4">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
-      <c r="C616" s="6"/>
+      <c r="C616" s="15"/>
       <c r="D616" s="4"/>
       <c r="E616" s="6"/>
       <c r="F616" s="4"/>
@@ -19368,7 +19400,7 @@
     <row r="617" spans="1:27" ht="14.4">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
-      <c r="C617" s="6"/>
+      <c r="C617" s="15"/>
       <c r="D617" s="4"/>
       <c r="E617" s="6"/>
       <c r="F617" s="4"/>
@@ -19397,7 +19429,7 @@
     <row r="618" spans="1:27" ht="14.4">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
-      <c r="C618" s="6"/>
+      <c r="C618" s="15"/>
       <c r="D618" s="4"/>
       <c r="E618" s="6"/>
       <c r="F618" s="4"/>
@@ -19426,7 +19458,7 @@
     <row r="619" spans="1:27" ht="14.4">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
-      <c r="C619" s="6"/>
+      <c r="C619" s="15"/>
       <c r="D619" s="4"/>
       <c r="E619" s="6"/>
       <c r="F619" s="4"/>
@@ -19455,7 +19487,7 @@
     <row r="620" spans="1:27" ht="14.4">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
-      <c r="C620" s="6"/>
+      <c r="C620" s="15"/>
       <c r="D620" s="4"/>
       <c r="E620" s="6"/>
       <c r="F620" s="4"/>
@@ -19484,7 +19516,7 @@
     <row r="621" spans="1:27" ht="14.4">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
-      <c r="C621" s="6"/>
+      <c r="C621" s="15"/>
       <c r="D621" s="4"/>
       <c r="E621" s="6"/>
       <c r="F621" s="4"/>
@@ -19513,7 +19545,7 @@
     <row r="622" spans="1:27" ht="14.4">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
-      <c r="C622" s="6"/>
+      <c r="C622" s="15"/>
       <c r="D622" s="4"/>
       <c r="E622" s="6"/>
       <c r="F622" s="4"/>
@@ -19542,7 +19574,7 @@
     <row r="623" spans="1:27" ht="14.4">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
-      <c r="C623" s="6"/>
+      <c r="C623" s="15"/>
       <c r="D623" s="4"/>
       <c r="E623" s="6"/>
       <c r="F623" s="4"/>
@@ -19571,7 +19603,7 @@
     <row r="624" spans="1:27" ht="14.4">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
-      <c r="C624" s="6"/>
+      <c r="C624" s="15"/>
       <c r="D624" s="4"/>
       <c r="E624" s="6"/>
       <c r="F624" s="4"/>
@@ -19600,7 +19632,7 @@
     <row r="625" spans="1:27" ht="14.4">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
-      <c r="C625" s="6"/>
+      <c r="C625" s="15"/>
       <c r="D625" s="4"/>
       <c r="E625" s="6"/>
       <c r="F625" s="4"/>
@@ -19629,7 +19661,7 @@
     <row r="626" spans="1:27" ht="14.4">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
-      <c r="C626" s="6"/>
+      <c r="C626" s="15"/>
       <c r="D626" s="4"/>
       <c r="E626" s="6"/>
       <c r="F626" s="4"/>
@@ -19658,7 +19690,7 @@
     <row r="627" spans="1:27" ht="14.4">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
-      <c r="C627" s="6"/>
+      <c r="C627" s="15"/>
       <c r="D627" s="4"/>
       <c r="E627" s="6"/>
       <c r="F627" s="4"/>
@@ -19687,7 +19719,7 @@
     <row r="628" spans="1:27" ht="14.4">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
-      <c r="C628" s="6"/>
+      <c r="C628" s="15"/>
       <c r="D628" s="4"/>
       <c r="E628" s="6"/>
       <c r="F628" s="4"/>
@@ -19716,7 +19748,7 @@
     <row r="629" spans="1:27" ht="14.4">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
-      <c r="C629" s="6"/>
+      <c r="C629" s="15"/>
       <c r="D629" s="4"/>
       <c r="E629" s="6"/>
       <c r="F629" s="4"/>
@@ -19745,7 +19777,7 @@
     <row r="630" spans="1:27" ht="14.4">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
-      <c r="C630" s="6"/>
+      <c r="C630" s="15"/>
       <c r="D630" s="4"/>
       <c r="E630" s="6"/>
       <c r="F630" s="4"/>
@@ -19774,7 +19806,7 @@
     <row r="631" spans="1:27" ht="14.4">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
-      <c r="C631" s="6"/>
+      <c r="C631" s="15"/>
       <c r="D631" s="4"/>
       <c r="E631" s="6"/>
       <c r="F631" s="4"/>
@@ -19803,7 +19835,7 @@
     <row r="632" spans="1:27" ht="14.4">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
-      <c r="C632" s="6"/>
+      <c r="C632" s="15"/>
       <c r="D632" s="4"/>
       <c r="E632" s="6"/>
       <c r="F632" s="4"/>
@@ -19832,7 +19864,7 @@
     <row r="633" spans="1:27" ht="14.4">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
-      <c r="C633" s="6"/>
+      <c r="C633" s="15"/>
       <c r="D633" s="4"/>
       <c r="E633" s="6"/>
       <c r="F633" s="4"/>
@@ -19861,7 +19893,7 @@
     <row r="634" spans="1:27" ht="14.4">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
-      <c r="C634" s="6"/>
+      <c r="C634" s="15"/>
       <c r="D634" s="4"/>
       <c r="E634" s="6"/>
       <c r="F634" s="4"/>
@@ -19890,7 +19922,7 @@
     <row r="635" spans="1:27" ht="14.4">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
-      <c r="C635" s="6"/>
+      <c r="C635" s="15"/>
       <c r="D635" s="4"/>
       <c r="E635" s="6"/>
       <c r="F635" s="4"/>
@@ -19919,7 +19951,7 @@
     <row r="636" spans="1:27" ht="14.4">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
-      <c r="C636" s="6"/>
+      <c r="C636" s="15"/>
       <c r="D636" s="4"/>
       <c r="E636" s="6"/>
       <c r="F636" s="4"/>
@@ -19948,7 +19980,7 @@
     <row r="637" spans="1:27" ht="14.4">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
-      <c r="C637" s="6"/>
+      <c r="C637" s="15"/>
       <c r="D637" s="4"/>
       <c r="E637" s="6"/>
       <c r="F637" s="4"/>
@@ -19977,7 +20009,7 @@
     <row r="638" spans="1:27" ht="14.4">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
-      <c r="C638" s="6"/>
+      <c r="C638" s="15"/>
       <c r="D638" s="4"/>
       <c r="E638" s="6"/>
       <c r="F638" s="4"/>
@@ -20006,7 +20038,7 @@
     <row r="639" spans="1:27" ht="14.4">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
-      <c r="C639" s="6"/>
+      <c r="C639" s="15"/>
       <c r="D639" s="4"/>
       <c r="E639" s="6"/>
       <c r="F639" s="4"/>
@@ -20035,7 +20067,7 @@
     <row r="640" spans="1:27" ht="14.4">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
-      <c r="C640" s="6"/>
+      <c r="C640" s="15"/>
       <c r="D640" s="4"/>
       <c r="E640" s="6"/>
       <c r="F640" s="4"/>
@@ -20064,7 +20096,7 @@
     <row r="641" spans="1:27" ht="14.4">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
-      <c r="C641" s="6"/>
+      <c r="C641" s="15"/>
       <c r="D641" s="4"/>
       <c r="E641" s="6"/>
       <c r="F641" s="4"/>
@@ -20093,7 +20125,7 @@
     <row r="642" spans="1:27" ht="14.4">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
-      <c r="C642" s="6"/>
+      <c r="C642" s="15"/>
       <c r="D642" s="4"/>
       <c r="E642" s="6"/>
       <c r="F642" s="4"/>
@@ -20122,7 +20154,7 @@
     <row r="643" spans="1:27" ht="14.4">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
-      <c r="C643" s="6"/>
+      <c r="C643" s="15"/>
       <c r="D643" s="4"/>
       <c r="E643" s="6"/>
       <c r="F643" s="4"/>
@@ -20151,7 +20183,7 @@
     <row r="644" spans="1:27" ht="14.4">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
-      <c r="C644" s="6"/>
+      <c r="C644" s="15"/>
       <c r="D644" s="4"/>
       <c r="E644" s="6"/>
       <c r="F644" s="4"/>
@@ -20180,7 +20212,7 @@
     <row r="645" spans="1:27" ht="14.4">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
-      <c r="C645" s="6"/>
+      <c r="C645" s="15"/>
       <c r="D645" s="4"/>
       <c r="E645" s="6"/>
       <c r="F645" s="4"/>
@@ -20209,7 +20241,7 @@
     <row r="646" spans="1:27" ht="14.4">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
-      <c r="C646" s="6"/>
+      <c r="C646" s="15"/>
       <c r="D646" s="4"/>
       <c r="E646" s="6"/>
       <c r="F646" s="4"/>
@@ -20238,7 +20270,7 @@
     <row r="647" spans="1:27" ht="14.4">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
-      <c r="C647" s="6"/>
+      <c r="C647" s="15"/>
       <c r="D647" s="4"/>
       <c r="E647" s="6"/>
       <c r="F647" s="4"/>
@@ -20267,7 +20299,7 @@
     <row r="648" spans="1:27" ht="14.4">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
-      <c r="C648" s="6"/>
+      <c r="C648" s="15"/>
       <c r="D648" s="4"/>
       <c r="E648" s="6"/>
       <c r="F648" s="4"/>
@@ -20296,7 +20328,7 @@
     <row r="649" spans="1:27" ht="14.4">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
-      <c r="C649" s="6"/>
+      <c r="C649" s="15"/>
       <c r="D649" s="4"/>
       <c r="E649" s="6"/>
       <c r="F649" s="4"/>
@@ -20325,7 +20357,7 @@
     <row r="650" spans="1:27" ht="14.4">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
-      <c r="C650" s="6"/>
+      <c r="C650" s="15"/>
       <c r="D650" s="4"/>
       <c r="E650" s="6"/>
       <c r="F650" s="4"/>
@@ -20354,7 +20386,7 @@
     <row r="651" spans="1:27" ht="14.4">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
-      <c r="C651" s="6"/>
+      <c r="C651" s="15"/>
       <c r="D651" s="4"/>
       <c r="E651" s="6"/>
       <c r="F651" s="4"/>
@@ -20383,7 +20415,7 @@
     <row r="652" spans="1:27" ht="14.4">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
-      <c r="C652" s="6"/>
+      <c r="C652" s="15"/>
       <c r="D652" s="4"/>
       <c r="E652" s="6"/>
       <c r="F652" s="4"/>
@@ -20412,7 +20444,7 @@
     <row r="653" spans="1:27" ht="14.4">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
-      <c r="C653" s="6"/>
+      <c r="C653" s="15"/>
       <c r="D653" s="4"/>
       <c r="E653" s="6"/>
       <c r="F653" s="4"/>
@@ -20441,7 +20473,7 @@
     <row r="654" spans="1:27" ht="14.4">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
-      <c r="C654" s="6"/>
+      <c r="C654" s="15"/>
       <c r="D654" s="4"/>
       <c r="E654" s="6"/>
       <c r="F654" s="4"/>
@@ -20470,7 +20502,7 @@
     <row r="655" spans="1:27" ht="14.4">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
-      <c r="C655" s="6"/>
+      <c r="C655" s="15"/>
       <c r="D655" s="4"/>
       <c r="E655" s="6"/>
       <c r="F655" s="4"/>
@@ -20499,7 +20531,7 @@
     <row r="656" spans="1:27" ht="14.4">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
-      <c r="C656" s="6"/>
+      <c r="C656" s="15"/>
       <c r="D656" s="4"/>
       <c r="E656" s="6"/>
       <c r="F656" s="4"/>
@@ -20528,7 +20560,7 @@
     <row r="657" spans="1:27" ht="14.4">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
-      <c r="C657" s="6"/>
+      <c r="C657" s="15"/>
       <c r="D657" s="4"/>
       <c r="E657" s="6"/>
       <c r="F657" s="4"/>
@@ -20557,7 +20589,7 @@
     <row r="658" spans="1:27" ht="14.4">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
-      <c r="C658" s="6"/>
+      <c r="C658" s="15"/>
       <c r="D658" s="4"/>
       <c r="E658" s="6"/>
       <c r="F658" s="4"/>
@@ -20586,7 +20618,7 @@
     <row r="659" spans="1:27" ht="14.4">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
-      <c r="C659" s="6"/>
+      <c r="C659" s="15"/>
       <c r="D659" s="4"/>
       <c r="E659" s="6"/>
       <c r="F659" s="4"/>
@@ -20615,7 +20647,7 @@
     <row r="660" spans="1:27" ht="14.4">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
-      <c r="C660" s="6"/>
+      <c r="C660" s="15"/>
       <c r="D660" s="4"/>
       <c r="E660" s="6"/>
       <c r="F660" s="4"/>
@@ -20644,7 +20676,7 @@
     <row r="661" spans="1:27" ht="14.4">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
-      <c r="C661" s="6"/>
+      <c r="C661" s="15"/>
       <c r="D661" s="4"/>
       <c r="E661" s="6"/>
       <c r="F661" s="4"/>
@@ -20673,7 +20705,7 @@
     <row r="662" spans="1:27" ht="14.4">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
-      <c r="C662" s="6"/>
+      <c r="C662" s="15"/>
       <c r="D662" s="4"/>
       <c r="E662" s="6"/>
       <c r="F662" s="4"/>
@@ -20702,7 +20734,7 @@
     <row r="663" spans="1:27" ht="14.4">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
-      <c r="C663" s="6"/>
+      <c r="C663" s="15"/>
       <c r="D663" s="4"/>
       <c r="E663" s="6"/>
       <c r="F663" s="4"/>
@@ -20731,7 +20763,7 @@
     <row r="664" spans="1:27" ht="14.4">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
-      <c r="C664" s="6"/>
+      <c r="C664" s="15"/>
       <c r="D664" s="4"/>
       <c r="E664" s="6"/>
       <c r="F664" s="4"/>
@@ -20760,7 +20792,7 @@
     <row r="665" spans="1:27" ht="14.4">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
-      <c r="C665" s="6"/>
+      <c r="C665" s="15"/>
       <c r="D665" s="4"/>
       <c r="E665" s="6"/>
       <c r="F665" s="4"/>
@@ -20789,7 +20821,7 @@
     <row r="666" spans="1:27" ht="14.4">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
-      <c r="C666" s="6"/>
+      <c r="C666" s="15"/>
       <c r="D666" s="4"/>
       <c r="E666" s="6"/>
       <c r="F666" s="4"/>
@@ -20818,7 +20850,7 @@
     <row r="667" spans="1:27" ht="14.4">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
-      <c r="C667" s="6"/>
+      <c r="C667" s="15"/>
       <c r="D667" s="4"/>
       <c r="E667" s="6"/>
       <c r="F667" s="4"/>
@@ -20847,7 +20879,7 @@
     <row r="668" spans="1:27" ht="14.4">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
-      <c r="C668" s="6"/>
+      <c r="C668" s="15"/>
       <c r="D668" s="4"/>
       <c r="E668" s="6"/>
       <c r="F668" s="4"/>
@@ -20876,7 +20908,7 @@
     <row r="669" spans="1:27" ht="14.4">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
-      <c r="C669" s="6"/>
+      <c r="C669" s="15"/>
       <c r="D669" s="4"/>
       <c r="E669" s="6"/>
       <c r="F669" s="4"/>
@@ -20905,7 +20937,7 @@
     <row r="670" spans="1:27" ht="14.4">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
-      <c r="C670" s="6"/>
+      <c r="C670" s="15"/>
       <c r="D670" s="4"/>
       <c r="E670" s="6"/>
       <c r="F670" s="4"/>
@@ -20934,7 +20966,7 @@
     <row r="671" spans="1:27" ht="14.4">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
-      <c r="C671" s="6"/>
+      <c r="C671" s="15"/>
       <c r="D671" s="4"/>
       <c r="E671" s="6"/>
       <c r="F671" s="4"/>
@@ -20963,7 +20995,7 @@
     <row r="672" spans="1:27" ht="14.4">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
-      <c r="C672" s="6"/>
+      <c r="C672" s="15"/>
       <c r="D672" s="4"/>
       <c r="E672" s="6"/>
       <c r="F672" s="4"/>
@@ -20992,7 +21024,7 @@
     <row r="673" spans="1:27" ht="14.4">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
-      <c r="C673" s="6"/>
+      <c r="C673" s="15"/>
       <c r="D673" s="4"/>
       <c r="E673" s="6"/>
       <c r="F673" s="4"/>
@@ -21021,7 +21053,7 @@
     <row r="674" spans="1:27" ht="14.4">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
-      <c r="C674" s="6"/>
+      <c r="C674" s="15"/>
       <c r="D674" s="4"/>
       <c r="E674" s="6"/>
       <c r="F674" s="4"/>
@@ -21050,7 +21082,7 @@
     <row r="675" spans="1:27" ht="14.4">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
-      <c r="C675" s="6"/>
+      <c r="C675" s="15"/>
       <c r="D675" s="4"/>
       <c r="E675" s="6"/>
       <c r="F675" s="4"/>
@@ -21079,7 +21111,7 @@
     <row r="676" spans="1:27" ht="14.4">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
-      <c r="C676" s="6"/>
+      <c r="C676" s="15"/>
       <c r="D676" s="4"/>
       <c r="E676" s="6"/>
       <c r="F676" s="4"/>
@@ -21108,7 +21140,7 @@
     <row r="677" spans="1:27" ht="14.4">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
-      <c r="C677" s="6"/>
+      <c r="C677" s="15"/>
       <c r="D677" s="4"/>
       <c r="E677" s="6"/>
       <c r="F677" s="4"/>
@@ -21137,7 +21169,7 @@
     <row r="678" spans="1:27" ht="14.4">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
-      <c r="C678" s="6"/>
+      <c r="C678" s="15"/>
       <c r="D678" s="4"/>
       <c r="E678" s="6"/>
       <c r="F678" s="4"/>
@@ -21166,7 +21198,7 @@
     <row r="679" spans="1:27" ht="14.4">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
-      <c r="C679" s="6"/>
+      <c r="C679" s="15"/>
       <c r="D679" s="4"/>
       <c r="E679" s="6"/>
       <c r="F679" s="4"/>
@@ -21195,7 +21227,7 @@
     <row r="680" spans="1:27" ht="14.4">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
-      <c r="C680" s="6"/>
+      <c r="C680" s="15"/>
       <c r="D680" s="4"/>
       <c r="E680" s="6"/>
       <c r="F680" s="4"/>
@@ -21224,7 +21256,7 @@
     <row r="681" spans="1:27" ht="14.4">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
-      <c r="C681" s="6"/>
+      <c r="C681" s="15"/>
       <c r="D681" s="4"/>
       <c r="E681" s="6"/>
       <c r="F681" s="4"/>
@@ -21253,7 +21285,7 @@
     <row r="682" spans="1:27" ht="14.4">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
-      <c r="C682" s="6"/>
+      <c r="C682" s="15"/>
       <c r="D682" s="4"/>
       <c r="E682" s="6"/>
       <c r="F682" s="4"/>
@@ -21282,7 +21314,7 @@
     <row r="683" spans="1:27" ht="14.4">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
-      <c r="C683" s="6"/>
+      <c r="C683" s="15"/>
       <c r="D683" s="4"/>
       <c r="E683" s="6"/>
       <c r="F683" s="4"/>
@@ -21311,7 +21343,7 @@
     <row r="684" spans="1:27" ht="14.4">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
-      <c r="C684" s="6"/>
+      <c r="C684" s="15"/>
       <c r="D684" s="4"/>
       <c r="E684" s="6"/>
       <c r="F684" s="4"/>
@@ -21340,7 +21372,7 @@
     <row r="685" spans="1:27" ht="14.4">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
-      <c r="C685" s="6"/>
+      <c r="C685" s="15"/>
       <c r="D685" s="4"/>
       <c r="E685" s="6"/>
       <c r="F685" s="4"/>
@@ -21369,7 +21401,7 @@
     <row r="686" spans="1:27" ht="14.4">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
-      <c r="C686" s="6"/>
+      <c r="C686" s="15"/>
       <c r="D686" s="4"/>
       <c r="E686" s="6"/>
       <c r="F686" s="4"/>
@@ -21398,7 +21430,7 @@
     <row r="687" spans="1:27" ht="14.4">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
-      <c r="C687" s="6"/>
+      <c r="C687" s="15"/>
       <c r="D687" s="4"/>
       <c r="E687" s="6"/>
       <c r="F687" s="4"/>
@@ -21427,7 +21459,7 @@
     <row r="688" spans="1:27" ht="14.4">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
-      <c r="C688" s="6"/>
+      <c r="C688" s="15"/>
       <c r="D688" s="4"/>
       <c r="E688" s="6"/>
       <c r="F688" s="4"/>
@@ -21456,7 +21488,7 @@
     <row r="689" spans="1:27" ht="14.4">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
-      <c r="C689" s="6"/>
+      <c r="C689" s="15"/>
       <c r="D689" s="4"/>
       <c r="E689" s="6"/>
       <c r="F689" s="4"/>
@@ -21485,7 +21517,7 @@
     <row r="690" spans="1:27" ht="14.4">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
-      <c r="C690" s="6"/>
+      <c r="C690" s="15"/>
       <c r="D690" s="4"/>
       <c r="E690" s="6"/>
       <c r="F690" s="4"/>
@@ -21514,7 +21546,7 @@
     <row r="691" spans="1:27" ht="14.4">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
-      <c r="C691" s="6"/>
+      <c r="C691" s="15"/>
       <c r="D691" s="4"/>
       <c r="E691" s="6"/>
       <c r="F691" s="4"/>
@@ -21543,7 +21575,7 @@
     <row r="692" spans="1:27" ht="14.4">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
-      <c r="C692" s="6"/>
+      <c r="C692" s="15"/>
       <c r="D692" s="4"/>
       <c r="E692" s="6"/>
       <c r="F692" s="4"/>
@@ -21572,7 +21604,7 @@
     <row r="693" spans="1:27" ht="14.4">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
-      <c r="C693" s="6"/>
+      <c r="C693" s="15"/>
       <c r="D693" s="4"/>
       <c r="E693" s="6"/>
       <c r="F693" s="4"/>
@@ -21601,7 +21633,7 @@
     <row r="694" spans="1:27" ht="14.4">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
-      <c r="C694" s="6"/>
+      <c r="C694" s="15"/>
       <c r="D694" s="4"/>
       <c r="E694" s="6"/>
       <c r="F694" s="4"/>
@@ -21630,7 +21662,7 @@
     <row r="695" spans="1:27" ht="14.4">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
-      <c r="C695" s="6"/>
+      <c r="C695" s="15"/>
       <c r="D695" s="4"/>
       <c r="E695" s="6"/>
       <c r="F695" s="4"/>
@@ -21659,7 +21691,7 @@
     <row r="696" spans="1:27" ht="14.4">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
-      <c r="C696" s="6"/>
+      <c r="C696" s="15"/>
       <c r="D696" s="4"/>
       <c r="E696" s="6"/>
       <c r="F696" s="4"/>
@@ -21688,7 +21720,7 @@
     <row r="697" spans="1:27" ht="14.4">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
-      <c r="C697" s="6"/>
+      <c r="C697" s="15"/>
       <c r="D697" s="4"/>
       <c r="E697" s="6"/>
       <c r="F697" s="4"/>
@@ -21717,7 +21749,7 @@
     <row r="698" spans="1:27" ht="14.4">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
-      <c r="C698" s="6"/>
+      <c r="C698" s="15"/>
       <c r="D698" s="4"/>
       <c r="E698" s="6"/>
       <c r="F698" s="4"/>
@@ -21746,7 +21778,7 @@
     <row r="699" spans="1:27" ht="14.4">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
-      <c r="C699" s="6"/>
+      <c r="C699" s="15"/>
       <c r="D699" s="4"/>
       <c r="E699" s="6"/>
       <c r="F699" s="4"/>
@@ -21775,7 +21807,7 @@
     <row r="700" spans="1:27" ht="14.4">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
-      <c r="C700" s="6"/>
+      <c r="C700" s="15"/>
       <c r="D700" s="4"/>
       <c r="E700" s="6"/>
       <c r="F700" s="4"/>
@@ -21804,7 +21836,7 @@
     <row r="701" spans="1:27" ht="14.4">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
-      <c r="C701" s="6"/>
+      <c r="C701" s="15"/>
       <c r="D701" s="4"/>
       <c r="E701" s="6"/>
       <c r="F701" s="4"/>
@@ -21833,7 +21865,7 @@
     <row r="702" spans="1:27" ht="14.4">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
-      <c r="C702" s="6"/>
+      <c r="C702" s="15"/>
       <c r="D702" s="4"/>
       <c r="E702" s="6"/>
       <c r="F702" s="4"/>
@@ -21862,7 +21894,7 @@
     <row r="703" spans="1:27" ht="14.4">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
-      <c r="C703" s="6"/>
+      <c r="C703" s="15"/>
       <c r="D703" s="4"/>
       <c r="E703" s="6"/>
       <c r="F703" s="4"/>
@@ -21891,7 +21923,7 @@
     <row r="704" spans="1:27" ht="14.4">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
-      <c r="C704" s="6"/>
+      <c r="C704" s="15"/>
       <c r="D704" s="4"/>
       <c r="E704" s="6"/>
       <c r="F704" s="4"/>
@@ -21920,7 +21952,7 @@
     <row r="705" spans="1:27" ht="14.4">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
-      <c r="C705" s="6"/>
+      <c r="C705" s="15"/>
       <c r="D705" s="4"/>
       <c r="E705" s="6"/>
       <c r="F705" s="4"/>
@@ -21949,7 +21981,7 @@
     <row r="706" spans="1:27" ht="14.4">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
-      <c r="C706" s="6"/>
+      <c r="C706" s="15"/>
       <c r="D706" s="4"/>
       <c r="E706" s="6"/>
       <c r="F706" s="4"/>
@@ -21978,7 +22010,7 @@
     <row r="707" spans="1:27" ht="14.4">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
-      <c r="C707" s="6"/>
+      <c r="C707" s="15"/>
       <c r="D707" s="4"/>
       <c r="E707" s="6"/>
       <c r="F707" s="4"/>
@@ -22007,7 +22039,7 @@
     <row r="708" spans="1:27" ht="14.4">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
-      <c r="C708" s="6"/>
+      <c r="C708" s="15"/>
       <c r="D708" s="4"/>
       <c r="E708" s="6"/>
       <c r="F708" s="4"/>
@@ -22036,7 +22068,7 @@
     <row r="709" spans="1:27" ht="14.4">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
-      <c r="C709" s="6"/>
+      <c r="C709" s="15"/>
       <c r="D709" s="4"/>
       <c r="E709" s="6"/>
       <c r="F709" s="4"/>
@@ -22065,7 +22097,7 @@
     <row r="710" spans="1:27" ht="14.4">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
-      <c r="C710" s="6"/>
+      <c r="C710" s="15"/>
       <c r="D710" s="4"/>
       <c r="E710" s="6"/>
       <c r="F710" s="4"/>
@@ -22094,7 +22126,7 @@
     <row r="711" spans="1:27" ht="14.4">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
-      <c r="C711" s="6"/>
+      <c r="C711" s="15"/>
       <c r="D711" s="4"/>
       <c r="E711" s="6"/>
       <c r="F711" s="4"/>
@@ -22123,7 +22155,7 @@
     <row r="712" spans="1:27" ht="14.4">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
-      <c r="C712" s="6"/>
+      <c r="C712" s="15"/>
       <c r="D712" s="4"/>
       <c r="E712" s="6"/>
       <c r="F712" s="4"/>
@@ -22152,7 +22184,7 @@
     <row r="713" spans="1:27" ht="14.4">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
-      <c r="C713" s="6"/>
+      <c r="C713" s="15"/>
       <c r="D713" s="4"/>
       <c r="E713" s="6"/>
       <c r="F713" s="4"/>
@@ -22181,7 +22213,7 @@
     <row r="714" spans="1:27" ht="14.4">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
-      <c r="C714" s="6"/>
+      <c r="C714" s="15"/>
       <c r="D714" s="4"/>
       <c r="E714" s="6"/>
       <c r="F714" s="4"/>
@@ -22210,7 +22242,7 @@
     <row r="715" spans="1:27" ht="14.4">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
-      <c r="C715" s="6"/>
+      <c r="C715" s="15"/>
       <c r="D715" s="4"/>
       <c r="E715" s="6"/>
       <c r="F715" s="4"/>
@@ -22239,7 +22271,7 @@
     <row r="716" spans="1:27" ht="14.4">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
-      <c r="C716" s="6"/>
+      <c r="C716" s="15"/>
       <c r="D716" s="4"/>
       <c r="E716" s="6"/>
       <c r="F716" s="4"/>
@@ -22268,7 +22300,7 @@
     <row r="717" spans="1:27" ht="14.4">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
-      <c r="C717" s="6"/>
+      <c r="C717" s="15"/>
       <c r="D717" s="4"/>
       <c r="E717" s="6"/>
       <c r="F717" s="4"/>
@@ -22297,7 +22329,7 @@
     <row r="718" spans="1:27" ht="14.4">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
-      <c r="C718" s="6"/>
+      <c r="C718" s="15"/>
       <c r="D718" s="4"/>
       <c r="E718" s="6"/>
       <c r="F718" s="4"/>
@@ -22326,7 +22358,7 @@
     <row r="719" spans="1:27" ht="14.4">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
-      <c r="C719" s="6"/>
+      <c r="C719" s="15"/>
       <c r="D719" s="4"/>
       <c r="E719" s="6"/>
       <c r="F719" s="4"/>
@@ -22355,7 +22387,7 @@
     <row r="720" spans="1:27" ht="14.4">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
-      <c r="C720" s="6"/>
+      <c r="C720" s="15"/>
       <c r="D720" s="4"/>
       <c r="E720" s="6"/>
       <c r="F720" s="4"/>
@@ -22384,7 +22416,7 @@
     <row r="721" spans="1:27" ht="14.4">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
-      <c r="C721" s="6"/>
+      <c r="C721" s="15"/>
       <c r="D721" s="4"/>
       <c r="E721" s="6"/>
       <c r="F721" s="4"/>
@@ -22413,7 +22445,7 @@
     <row r="722" spans="1:27" ht="14.4">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
-      <c r="C722" s="6"/>
+      <c r="C722" s="15"/>
       <c r="D722" s="4"/>
       <c r="E722" s="6"/>
       <c r="F722" s="4"/>
@@ -22442,7 +22474,7 @@
     <row r="723" spans="1:27" ht="14.4">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
-      <c r="C723" s="6"/>
+      <c r="C723" s="15"/>
       <c r="D723" s="4"/>
       <c r="E723" s="6"/>
       <c r="F723" s="4"/>
@@ -22471,7 +22503,7 @@
     <row r="724" spans="1:27" ht="14.4">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
-      <c r="C724" s="6"/>
+      <c r="C724" s="15"/>
       <c r="D724" s="4"/>
       <c r="E724" s="6"/>
       <c r="F724" s="4"/>
@@ -22500,7 +22532,7 @@
     <row r="725" spans="1:27" ht="14.4">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
-      <c r="C725" s="6"/>
+      <c r="C725" s="15"/>
       <c r="D725" s="4"/>
       <c r="E725" s="6"/>
       <c r="F725" s="4"/>
@@ -22529,7 +22561,7 @@
     <row r="726" spans="1:27" ht="14.4">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
-      <c r="C726" s="6"/>
+      <c r="C726" s="15"/>
       <c r="D726" s="4"/>
       <c r="E726" s="6"/>
       <c r="F726" s="4"/>
@@ -22558,7 +22590,7 @@
     <row r="727" spans="1:27" ht="14.4">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
-      <c r="C727" s="6"/>
+      <c r="C727" s="15"/>
       <c r="D727" s="4"/>
       <c r="E727" s="6"/>
       <c r="F727" s="4"/>
@@ -22587,7 +22619,7 @@
     <row r="728" spans="1:27" ht="14.4">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
-      <c r="C728" s="6"/>
+      <c r="C728" s="15"/>
       <c r="D728" s="4"/>
       <c r="E728" s="6"/>
       <c r="F728" s="4"/>
@@ -22616,7 +22648,7 @@
     <row r="729" spans="1:27" ht="14.4">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
-      <c r="C729" s="6"/>
+      <c r="C729" s="15"/>
       <c r="D729" s="4"/>
       <c r="E729" s="6"/>
       <c r="F729" s="4"/>
@@ -22645,7 +22677,7 @@
     <row r="730" spans="1:27" ht="14.4">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
-      <c r="C730" s="6"/>
+      <c r="C730" s="15"/>
       <c r="D730" s="4"/>
       <c r="E730" s="6"/>
       <c r="F730" s="4"/>
@@ -22674,7 +22706,7 @@
     <row r="731" spans="1:27" ht="14.4">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
-      <c r="C731" s="6"/>
+      <c r="C731" s="15"/>
       <c r="D731" s="4"/>
       <c r="E731" s="6"/>
       <c r="F731" s="4"/>
@@ -22703,7 +22735,7 @@
     <row r="732" spans="1:27" ht="14.4">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
-      <c r="C732" s="6"/>
+      <c r="C732" s="15"/>
       <c r="D732" s="4"/>
       <c r="E732" s="6"/>
       <c r="F732" s="4"/>
@@ -22732,7 +22764,7 @@
     <row r="733" spans="1:27" ht="14.4">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
-      <c r="C733" s="6"/>
+      <c r="C733" s="15"/>
       <c r="D733" s="4"/>
       <c r="E733" s="6"/>
       <c r="F733" s="4"/>
@@ -22761,7 +22793,7 @@
     <row r="734" spans="1:27" ht="14.4">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
-      <c r="C734" s="6"/>
+      <c r="C734" s="15"/>
       <c r="D734" s="4"/>
       <c r="E734" s="6"/>
       <c r="F734" s="4"/>
@@ -22790,7 +22822,7 @@
     <row r="735" spans="1:27" ht="14.4">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
-      <c r="C735" s="6"/>
+      <c r="C735" s="15"/>
       <c r="D735" s="4"/>
       <c r="E735" s="6"/>
       <c r="F735" s="4"/>
@@ -22819,7 +22851,7 @@
     <row r="736" spans="1:27" ht="14.4">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
-      <c r="C736" s="6"/>
+      <c r="C736" s="15"/>
       <c r="D736" s="4"/>
       <c r="E736" s="6"/>
       <c r="F736" s="4"/>
@@ -22848,7 +22880,7 @@
     <row r="737" spans="1:27" ht="14.4">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
-      <c r="C737" s="6"/>
+      <c r="C737" s="15"/>
       <c r="D737" s="4"/>
       <c r="E737" s="6"/>
       <c r="F737" s="4"/>
@@ -22877,7 +22909,7 @@
     <row r="738" spans="1:27" ht="14.4">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
-      <c r="C738" s="6"/>
+      <c r="C738" s="15"/>
       <c r="D738" s="4"/>
       <c r="E738" s="6"/>
       <c r="F738" s="4"/>
@@ -22906,7 +22938,7 @@
     <row r="739" spans="1:27" ht="14.4">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
-      <c r="C739" s="6"/>
+      <c r="C739" s="15"/>
       <c r="D739" s="4"/>
       <c r="E739" s="6"/>
       <c r="F739" s="4"/>
@@ -22935,7 +22967,7 @@
     <row r="740" spans="1:27" ht="14.4">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
-      <c r="C740" s="6"/>
+      <c r="C740" s="15"/>
       <c r="D740" s="4"/>
       <c r="E740" s="6"/>
       <c r="F740" s="4"/>
@@ -22964,7 +22996,7 @@
     <row r="741" spans="1:27" ht="14.4">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
-      <c r="C741" s="6"/>
+      <c r="C741" s="15"/>
       <c r="D741" s="4"/>
       <c r="E741" s="6"/>
       <c r="F741" s="4"/>
@@ -22993,7 +23025,7 @@
     <row r="742" spans="1:27" ht="14.4">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
-      <c r="C742" s="6"/>
+      <c r="C742" s="15"/>
       <c r="D742" s="4"/>
       <c r="E742" s="6"/>
       <c r="F742" s="4"/>
@@ -23022,7 +23054,7 @@
     <row r="743" spans="1:27" ht="14.4">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
-      <c r="C743" s="6"/>
+      <c r="C743" s="15"/>
       <c r="D743" s="4"/>
       <c r="E743" s="6"/>
       <c r="F743" s="4"/>
@@ -23051,7 +23083,7 @@
     <row r="744" spans="1:27" ht="14.4">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
-      <c r="C744" s="6"/>
+      <c r="C744" s="15"/>
       <c r="D744" s="4"/>
       <c r="E744" s="6"/>
       <c r="F744" s="4"/>
@@ -23080,7 +23112,7 @@
     <row r="745" spans="1:27" ht="14.4">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
-      <c r="C745" s="6"/>
+      <c r="C745" s="15"/>
       <c r="D745" s="4"/>
       <c r="E745" s="6"/>
       <c r="F745" s="4"/>
@@ -23109,7 +23141,7 @@
     <row r="746" spans="1:27" ht="14.4">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
-      <c r="C746" s="6"/>
+      <c r="C746" s="15"/>
       <c r="D746" s="4"/>
       <c r="E746" s="6"/>
       <c r="F746" s="4"/>
@@ -23138,7 +23170,7 @@
     <row r="747" spans="1:27" ht="14.4">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
-      <c r="C747" s="6"/>
+      <c r="C747" s="15"/>
       <c r="D747" s="4"/>
       <c r="E747" s="6"/>
       <c r="F747" s="4"/>
@@ -23167,7 +23199,7 @@
     <row r="748" spans="1:27" ht="14.4">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
-      <c r="C748" s="6"/>
+      <c r="C748" s="15"/>
       <c r="D748" s="4"/>
       <c r="E748" s="6"/>
       <c r="F748" s="4"/>
@@ -23196,7 +23228,7 @@
     <row r="749" spans="1:27" ht="14.4">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
-      <c r="C749" s="6"/>
+      <c r="C749" s="15"/>
       <c r="D749" s="4"/>
       <c r="E749" s="6"/>
       <c r="F749" s="4"/>
@@ -23225,7 +23257,7 @@
     <row r="750" spans="1:27" ht="14.4">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
-      <c r="C750" s="6"/>
+      <c r="C750" s="15"/>
       <c r="D750" s="4"/>
       <c r="E750" s="6"/>
       <c r="F750" s="4"/>
@@ -23254,7 +23286,7 @@
     <row r="751" spans="1:27" ht="14.4">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
-      <c r="C751" s="6"/>
+      <c r="C751" s="15"/>
       <c r="D751" s="4"/>
       <c r="E751" s="6"/>
       <c r="F751" s="4"/>
@@ -23283,7 +23315,7 @@
     <row r="752" spans="1:27" ht="14.4">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
-      <c r="C752" s="6"/>
+      <c r="C752" s="15"/>
       <c r="D752" s="4"/>
       <c r="E752" s="6"/>
       <c r="F752" s="4"/>
@@ -23312,7 +23344,7 @@
     <row r="753" spans="1:27" ht="14.4">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
-      <c r="C753" s="6"/>
+      <c r="C753" s="15"/>
       <c r="D753" s="4"/>
       <c r="E753" s="6"/>
       <c r="F753" s="4"/>
@@ -23341,7 +23373,7 @@
     <row r="754" spans="1:27" ht="14.4">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
-      <c r="C754" s="6"/>
+      <c r="C754" s="15"/>
       <c r="D754" s="4"/>
       <c r="E754" s="6"/>
       <c r="F754" s="4"/>
@@ -23370,7 +23402,7 @@
     <row r="755" spans="1:27" ht="14.4">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
-      <c r="C755" s="6"/>
+      <c r="C755" s="15"/>
       <c r="D755" s="4"/>
       <c r="E755" s="6"/>
       <c r="F755" s="4"/>
@@ -23399,7 +23431,7 @@
     <row r="756" spans="1:27" ht="14.4">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
-      <c r="C756" s="6"/>
+      <c r="C756" s="15"/>
       <c r="D756" s="4"/>
       <c r="E756" s="6"/>
       <c r="F756" s="4"/>
@@ -23428,7 +23460,7 @@
     <row r="757" spans="1:27" ht="14.4">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
-      <c r="C757" s="6"/>
+      <c r="C757" s="15"/>
       <c r="D757" s="4"/>
       <c r="E757" s="6"/>
       <c r="F757" s="4"/>
@@ -23457,7 +23489,7 @@
     <row r="758" spans="1:27" ht="14.4">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
-      <c r="C758" s="6"/>
+      <c r="C758" s="15"/>
       <c r="D758" s="4"/>
       <c r="E758" s="6"/>
       <c r="F758" s="4"/>
@@ -23486,7 +23518,7 @@
     <row r="759" spans="1:27" ht="14.4">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
-      <c r="C759" s="6"/>
+      <c r="C759" s="15"/>
       <c r="D759" s="4"/>
       <c r="E759" s="6"/>
       <c r="F759" s="4"/>
@@ -23515,7 +23547,7 @@
     <row r="760" spans="1:27" ht="14.4">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
-      <c r="C760" s="6"/>
+      <c r="C760" s="15"/>
       <c r="D760" s="4"/>
       <c r="E760" s="6"/>
       <c r="F760" s="4"/>
@@ -23544,7 +23576,7 @@
     <row r="761" spans="1:27" ht="14.4">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
-      <c r="C761" s="6"/>
+      <c r="C761" s="15"/>
       <c r="D761" s="4"/>
       <c r="E761" s="6"/>
       <c r="F761" s="4"/>
@@ -23573,7 +23605,7 @@
     <row r="762" spans="1:27" ht="14.4">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
-      <c r="C762" s="6"/>
+      <c r="C762" s="15"/>
       <c r="D762" s="4"/>
       <c r="E762" s="6"/>
       <c r="F762" s="4"/>
@@ -23602,7 +23634,7 @@
     <row r="763" spans="1:27" ht="14.4">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
-      <c r="C763" s="6"/>
+      <c r="C763" s="15"/>
       <c r="D763" s="4"/>
       <c r="E763" s="6"/>
       <c r="F763" s="4"/>
@@ -23631,7 +23663,7 @@
     <row r="764" spans="1:27" ht="14.4">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
-      <c r="C764" s="6"/>
+      <c r="C764" s="15"/>
       <c r="D764" s="4"/>
       <c r="E764" s="6"/>
       <c r="F764" s="4"/>
@@ -23660,7 +23692,7 @@
     <row r="765" spans="1:27" ht="14.4">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
-      <c r="C765" s="6"/>
+      <c r="C765" s="15"/>
       <c r="D765" s="4"/>
       <c r="E765" s="6"/>
       <c r="F765" s="4"/>
@@ -23689,7 +23721,7 @@
     <row r="766" spans="1:27" ht="14.4">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
-      <c r="C766" s="6"/>
+      <c r="C766" s="15"/>
       <c r="D766" s="4"/>
       <c r="E766" s="6"/>
       <c r="F766" s="4"/>
@@ -23718,7 +23750,7 @@
     <row r="767" spans="1:27" ht="14.4">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
-      <c r="C767" s="6"/>
+      <c r="C767" s="15"/>
       <c r="D767" s="4"/>
       <c r="E767" s="6"/>
       <c r="F767" s="4"/>
@@ -23747,7 +23779,7 @@
     <row r="768" spans="1:27" ht="14.4">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
-      <c r="C768" s="6"/>
+      <c r="C768" s="15"/>
       <c r="D768" s="4"/>
       <c r="E768" s="6"/>
       <c r="F768" s="4"/>
@@ -23776,7 +23808,7 @@
     <row r="769" spans="1:27" ht="14.4">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
-      <c r="C769" s="6"/>
+      <c r="C769" s="15"/>
       <c r="D769" s="4"/>
       <c r="E769" s="6"/>
       <c r="F769" s="4"/>
@@ -23805,7 +23837,7 @@
     <row r="770" spans="1:27" ht="14.4">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
-      <c r="C770" s="6"/>
+      <c r="C770" s="15"/>
       <c r="D770" s="4"/>
       <c r="E770" s="6"/>
       <c r="F770" s="4"/>
@@ -23834,7 +23866,7 @@
     <row r="771" spans="1:27" ht="14.4">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
-      <c r="C771" s="6"/>
+      <c r="C771" s="15"/>
       <c r="D771" s="4"/>
       <c r="E771" s="6"/>
       <c r="F771" s="4"/>
@@ -23863,7 +23895,7 @@
     <row r="772" spans="1:27" ht="14.4">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
-      <c r="C772" s="6"/>
+      <c r="C772" s="15"/>
       <c r="D772" s="4"/>
       <c r="E772" s="6"/>
       <c r="F772" s="4"/>
@@ -23892,7 +23924,7 @@
     <row r="773" spans="1:27" ht="14.4">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
-      <c r="C773" s="6"/>
+      <c r="C773" s="15"/>
       <c r="D773" s="4"/>
       <c r="E773" s="6"/>
       <c r="F773" s="4"/>
@@ -23921,7 +23953,7 @@
     <row r="774" spans="1:27" ht="14.4">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
-      <c r="C774" s="6"/>
+      <c r="C774" s="15"/>
       <c r="D774" s="4"/>
       <c r="E774" s="6"/>
       <c r="F774" s="4"/>
@@ -23950,7 +23982,7 @@
     <row r="775" spans="1:27" ht="14.4">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
-      <c r="C775" s="6"/>
+      <c r="C775" s="15"/>
       <c r="D775" s="4"/>
       <c r="E775" s="6"/>
       <c r="F775" s="4"/>
@@ -23979,7 +24011,7 @@
     <row r="776" spans="1:27" ht="14.4">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
-      <c r="C776" s="6"/>
+      <c r="C776" s="15"/>
       <c r="D776" s="4"/>
       <c r="E776" s="6"/>
       <c r="F776" s="4"/>
@@ -24008,7 +24040,7 @@
     <row r="777" spans="1:27" ht="14.4">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
-      <c r="C777" s="6"/>
+      <c r="C777" s="15"/>
       <c r="D777" s="4"/>
       <c r="E777" s="6"/>
       <c r="F777" s="4"/>
@@ -24037,7 +24069,7 @@
     <row r="778" spans="1:27" ht="14.4">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
-      <c r="C778" s="6"/>
+      <c r="C778" s="15"/>
       <c r="D778" s="4"/>
       <c r="E778" s="6"/>
       <c r="F778" s="4"/>
@@ -24066,7 +24098,7 @@
     <row r="779" spans="1:27" ht="14.4">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
-      <c r="C779" s="6"/>
+      <c r="C779" s="15"/>
       <c r="D779" s="4"/>
       <c r="E779" s="6"/>
       <c r="F779" s="4"/>
@@ -24095,7 +24127,7 @@
     <row r="780" spans="1:27" ht="14.4">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
-      <c r="C780" s="6"/>
+      <c r="C780" s="15"/>
       <c r="D780" s="4"/>
       <c r="E780" s="6"/>
       <c r="F780" s="4"/>
@@ -24124,7 +24156,7 @@
     <row r="781" spans="1:27" ht="14.4">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
-      <c r="C781" s="6"/>
+      <c r="C781" s="15"/>
       <c r="D781" s="4"/>
       <c r="E781" s="6"/>
       <c r="F781" s="4"/>
@@ -24153,7 +24185,7 @@
     <row r="782" spans="1:27" ht="14.4">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
-      <c r="C782" s="6"/>
+      <c r="C782" s="15"/>
       <c r="D782" s="4"/>
       <c r="E782" s="6"/>
       <c r="F782" s="4"/>
@@ -24182,7 +24214,7 @@
     <row r="783" spans="1:27" ht="14.4">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
-      <c r="C783" s="6"/>
+      <c r="C783" s="15"/>
       <c r="D783" s="4"/>
       <c r="E783" s="6"/>
       <c r="F783" s="4"/>
@@ -24211,7 +24243,7 @@
     <row r="784" spans="1:27" ht="14.4">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
-      <c r="C784" s="6"/>
+      <c r="C784" s="15"/>
       <c r="D784" s="4"/>
       <c r="E784" s="6"/>
       <c r="F784" s="4"/>
@@ -24240,7 +24272,7 @@
     <row r="785" spans="1:27" ht="14.4">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
-      <c r="C785" s="6"/>
+      <c r="C785" s="15"/>
       <c r="D785" s="4"/>
       <c r="E785" s="6"/>
       <c r="F785" s="4"/>
@@ -24269,7 +24301,7 @@
     <row r="786" spans="1:27" ht="14.4">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
-      <c r="C786" s="6"/>
+      <c r="C786" s="15"/>
       <c r="D786" s="4"/>
       <c r="E786" s="6"/>
       <c r="F786" s="4"/>
@@ -24298,7 +24330,7 @@
     <row r="787" spans="1:27" ht="14.4">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
-      <c r="C787" s="6"/>
+      <c r="C787" s="15"/>
       <c r="D787" s="4"/>
       <c r="E787" s="6"/>
       <c r="F787" s="4"/>
@@ -24327,7 +24359,7 @@
     <row r="788" spans="1:27" ht="14.4">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
-      <c r="C788" s="6"/>
+      <c r="C788" s="15"/>
       <c r="D788" s="4"/>
       <c r="E788" s="6"/>
       <c r="F788" s="4"/>
@@ -24356,7 +24388,7 @@
     <row r="789" spans="1:27" ht="14.4">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
-      <c r="C789" s="6"/>
+      <c r="C789" s="15"/>
       <c r="D789" s="4"/>
       <c r="E789" s="6"/>
       <c r="F789" s="4"/>
@@ -24385,7 +24417,7 @@
     <row r="790" spans="1:27" ht="14.4">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
-      <c r="C790" s="6"/>
+      <c r="C790" s="15"/>
       <c r="D790" s="4"/>
       <c r="E790" s="6"/>
       <c r="F790" s="4"/>
@@ -24414,7 +24446,7 @@
     <row r="791" spans="1:27" ht="14.4">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
-      <c r="C791" s="6"/>
+      <c r="C791" s="15"/>
       <c r="D791" s="4"/>
       <c r="E791" s="6"/>
       <c r="F791" s="4"/>
@@ -24443,7 +24475,7 @@
     <row r="792" spans="1:27" ht="14.4">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
-      <c r="C792" s="6"/>
+      <c r="C792" s="15"/>
       <c r="D792" s="4"/>
       <c r="E792" s="6"/>
       <c r="F792" s="4"/>
@@ -24472,7 +24504,7 @@
     <row r="793" spans="1:27" ht="14.4">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
-      <c r="C793" s="6"/>
+      <c r="C793" s="15"/>
       <c r="D793" s="4"/>
       <c r="E793" s="6"/>
       <c r="F793" s="4"/>
@@ -24501,7 +24533,7 @@
     <row r="794" spans="1:27" ht="14.4">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
-      <c r="C794" s="6"/>
+      <c r="C794" s="15"/>
       <c r="D794" s="4"/>
       <c r="E794" s="6"/>
       <c r="F794" s="4"/>
@@ -24530,7 +24562,7 @@
     <row r="795" spans="1:27" ht="14.4">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
-      <c r="C795" s="6"/>
+      <c r="C795" s="15"/>
       <c r="D795" s="4"/>
       <c r="E795" s="6"/>
       <c r="F795" s="4"/>
@@ -24559,7 +24591,7 @@
     <row r="796" spans="1:27" ht="14.4">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
-      <c r="C796" s="6"/>
+      <c r="C796" s="15"/>
       <c r="D796" s="4"/>
       <c r="E796" s="6"/>
       <c r="F796" s="4"/>
@@ -24588,7 +24620,7 @@
     <row r="797" spans="1:27" ht="14.4">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
-      <c r="C797" s="6"/>
+      <c r="C797" s="15"/>
       <c r="D797" s="4"/>
       <c r="E797" s="6"/>
       <c r="F797" s="4"/>
@@ -24617,7 +24649,7 @@
     <row r="798" spans="1:27" ht="14.4">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
-      <c r="C798" s="6"/>
+      <c r="C798" s="15"/>
       <c r="D798" s="4"/>
       <c r="E798" s="6"/>
       <c r="F798" s="4"/>
@@ -24646,7 +24678,7 @@
     <row r="799" spans="1:27" ht="14.4">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
-      <c r="C799" s="6"/>
+      <c r="C799" s="15"/>
       <c r="D799" s="4"/>
       <c r="E799" s="6"/>
       <c r="F799" s="4"/>
@@ -24675,7 +24707,7 @@
     <row r="800" spans="1:27" ht="14.4">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
-      <c r="C800" s="6"/>
+      <c r="C800" s="15"/>
       <c r="D800" s="4"/>
       <c r="E800" s="6"/>
       <c r="F800" s="4"/>
@@ -24704,7 +24736,7 @@
     <row r="801" spans="1:27" ht="14.4">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
-      <c r="C801" s="6"/>
+      <c r="C801" s="15"/>
       <c r="D801" s="4"/>
       <c r="E801" s="6"/>
       <c r="F801" s="4"/>
@@ -24733,7 +24765,7 @@
     <row r="802" spans="1:27" ht="14.4">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
-      <c r="C802" s="6"/>
+      <c r="C802" s="15"/>
       <c r="D802" s="4"/>
       <c r="E802" s="6"/>
       <c r="F802" s="4"/>
@@ -24762,7 +24794,7 @@
     <row r="803" spans="1:27" ht="14.4">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
-      <c r="C803" s="6"/>
+      <c r="C803" s="15"/>
       <c r="D803" s="4"/>
       <c r="E803" s="6"/>
       <c r="F803" s="4"/>
@@ -24791,7 +24823,7 @@
     <row r="804" spans="1:27" ht="14.4">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
-      <c r="C804" s="6"/>
+      <c r="C804" s="15"/>
       <c r="D804" s="4"/>
       <c r="E804" s="6"/>
       <c r="F804" s="4"/>
@@ -24820,7 +24852,7 @@
     <row r="805" spans="1:27" ht="14.4">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
-      <c r="C805" s="6"/>
+      <c r="C805" s="15"/>
       <c r="D805" s="4"/>
       <c r="E805" s="6"/>
       <c r="F805" s="4"/>
@@ -24849,7 +24881,7 @@
     <row r="806" spans="1:27" ht="14.4">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
-      <c r="C806" s="6"/>
+      <c r="C806" s="15"/>
       <c r="D806" s="4"/>
       <c r="E806" s="6"/>
       <c r="F806" s="4"/>
@@ -24878,7 +24910,7 @@
     <row r="807" spans="1:27" ht="14.4">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
-      <c r="C807" s="6"/>
+      <c r="C807" s="15"/>
       <c r="D807" s="4"/>
       <c r="E807" s="6"/>
       <c r="F807" s="4"/>
@@ -24907,7 +24939,7 @@
     <row r="808" spans="1:27" ht="14.4">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
-      <c r="C808" s="6"/>
+      <c r="C808" s="15"/>
       <c r="D808" s="4"/>
       <c r="E808" s="6"/>
       <c r="F808" s="4"/>
@@ -24936,7 +24968,7 @@
     <row r="809" spans="1:27" ht="14.4">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
-      <c r="C809" s="6"/>
+      <c r="C809" s="15"/>
       <c r="D809" s="4"/>
       <c r="E809" s="6"/>
       <c r="F809" s="4"/>
@@ -24965,7 +24997,7 @@
     <row r="810" spans="1:27" ht="14.4">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
-      <c r="C810" s="6"/>
+      <c r="C810" s="15"/>
       <c r="D810" s="4"/>
       <c r="E810" s="6"/>
       <c r="F810" s="4"/>
@@ -24994,7 +25026,7 @@
     <row r="811" spans="1:27" ht="14.4">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
-      <c r="C811" s="6"/>
+      <c r="C811" s="15"/>
       <c r="D811" s="4"/>
       <c r="E811" s="6"/>
       <c r="F811" s="4"/>
@@ -25023,7 +25055,7 @@
     <row r="812" spans="1:27" ht="14.4">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
-      <c r="C812" s="6"/>
+      <c r="C812" s="15"/>
       <c r="D812" s="4"/>
       <c r="E812" s="6"/>
       <c r="F812" s="4"/>
@@ -25052,7 +25084,7 @@
     <row r="813" spans="1:27" ht="14.4">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
-      <c r="C813" s="6"/>
+      <c r="C813" s="15"/>
       <c r="D813" s="4"/>
       <c r="E813" s="6"/>
       <c r="F813" s="4"/>
@@ -25081,7 +25113,7 @@
     <row r="814" spans="1:27" ht="14.4">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
-      <c r="C814" s="6"/>
+      <c r="C814" s="15"/>
       <c r="D814" s="4"/>
       <c r="E814" s="6"/>
       <c r="F814" s="4"/>
@@ -25110,7 +25142,7 @@
     <row r="815" spans="1:27" ht="14.4">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
-      <c r="C815" s="6"/>
+      <c r="C815" s="15"/>
       <c r="D815" s="4"/>
       <c r="E815" s="6"/>
       <c r="F815" s="4"/>
@@ -25139,7 +25171,7 @@
     <row r="816" spans="1:27" ht="14.4">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
-      <c r="C816" s="6"/>
+      <c r="C816" s="15"/>
       <c r="D816" s="4"/>
       <c r="E816" s="6"/>
       <c r="F816" s="4"/>
@@ -25168,7 +25200,7 @@
     <row r="817" spans="1:27" ht="14.4">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
-      <c r="C817" s="6"/>
+      <c r="C817" s="15"/>
       <c r="D817" s="4"/>
       <c r="E817" s="6"/>
       <c r="F817" s="4"/>
@@ -25197,7 +25229,7 @@
     <row r="818" spans="1:27" ht="14.4">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
-      <c r="C818" s="6"/>
+      <c r="C818" s="15"/>
       <c r="D818" s="4"/>
       <c r="E818" s="6"/>
       <c r="F818" s="4"/>
@@ -25226,7 +25258,7 @@
     <row r="819" spans="1:27" ht="14.4">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
-      <c r="C819" s="6"/>
+      <c r="C819" s="15"/>
       <c r="D819" s="4"/>
       <c r="E819" s="6"/>
       <c r="F819" s="4"/>
@@ -25255,7 +25287,7 @@
     <row r="820" spans="1:27" ht="14.4">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
-      <c r="C820" s="6"/>
+      <c r="C820" s="15"/>
       <c r="D820" s="4"/>
       <c r="E820" s="6"/>
       <c r="F820" s="4"/>
@@ -25284,7 +25316,7 @@
     <row r="821" spans="1:27" ht="14.4">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
-      <c r="C821" s="6"/>
+      <c r="C821" s="15"/>
       <c r="D821" s="4"/>
       <c r="E821" s="6"/>
       <c r="F821" s="4"/>
@@ -25313,7 +25345,7 @@
     <row r="822" spans="1:27" ht="14.4">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
-      <c r="C822" s="6"/>
+      <c r="C822" s="15"/>
       <c r="D822" s="4"/>
       <c r="E822" s="6"/>
       <c r="F822" s="4"/>
@@ -25342,7 +25374,7 @@
     <row r="823" spans="1:27" ht="14.4">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
-      <c r="C823" s="6"/>
+      <c r="C823" s="15"/>
       <c r="D823" s="4"/>
       <c r="E823" s="6"/>
       <c r="F823" s="4"/>
@@ -25371,7 +25403,7 @@
     <row r="824" spans="1:27" ht="14.4">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
-      <c r="C824" s="6"/>
+      <c r="C824" s="15"/>
       <c r="D824" s="4"/>
       <c r="E824" s="6"/>
       <c r="F824" s="4"/>
@@ -25400,7 +25432,7 @@
     <row r="825" spans="1:27" ht="14.4">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
-      <c r="C825" s="6"/>
+      <c r="C825" s="15"/>
       <c r="D825" s="4"/>
       <c r="E825" s="6"/>
       <c r="F825" s="4"/>
@@ -25429,7 +25461,7 @@
     <row r="826" spans="1:27" ht="14.4">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
-      <c r="C826" s="6"/>
+      <c r="C826" s="15"/>
       <c r="D826" s="4"/>
       <c r="E826" s="6"/>
       <c r="F826" s="4"/>
@@ -25458,7 +25490,7 @@
     <row r="827" spans="1:27" ht="14.4">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
-      <c r="C827" s="6"/>
+      <c r="C827" s="15"/>
       <c r="D827" s="4"/>
       <c r="E827" s="6"/>
       <c r="F827" s="4"/>
@@ -25487,7 +25519,7 @@
     <row r="828" spans="1:27" ht="14.4">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
-      <c r="C828" s="6"/>
+      <c r="C828" s="15"/>
       <c r="D828" s="4"/>
       <c r="E828" s="6"/>
       <c r="F828" s="4"/>
@@ -25516,7 +25548,7 @@
     <row r="829" spans="1:27" ht="14.4">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
-      <c r="C829" s="6"/>
+      <c r="C829" s="15"/>
       <c r="D829" s="4"/>
       <c r="E829" s="6"/>
       <c r="F829" s="4"/>
@@ -25545,7 +25577,7 @@
     <row r="830" spans="1:27" ht="14.4">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
-      <c r="C830" s="6"/>
+      <c r="C830" s="15"/>
       <c r="D830" s="4"/>
       <c r="E830" s="6"/>
       <c r="F830" s="4"/>
@@ -25574,7 +25606,7 @@
     <row r="831" spans="1:27" ht="14.4">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
-      <c r="C831" s="6"/>
+      <c r="C831" s="15"/>
       <c r="D831" s="4"/>
       <c r="E831" s="6"/>
       <c r="F831" s="4"/>
@@ -25603,7 +25635,7 @@
     <row r="832" spans="1:27" ht="14.4">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
-      <c r="C832" s="6"/>
+      <c r="C832" s="15"/>
       <c r="D832" s="4"/>
       <c r="E832" s="6"/>
       <c r="F832" s="4"/>
@@ -25632,7 +25664,7 @@
     <row r="833" spans="1:27" ht="14.4">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
-      <c r="C833" s="6"/>
+      <c r="C833" s="15"/>
       <c r="D833" s="4"/>
       <c r="E833" s="6"/>
       <c r="F833" s="4"/>
@@ -25661,7 +25693,7 @@
     <row r="834" spans="1:27" ht="14.4">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
-      <c r="C834" s="6"/>
+      <c r="C834" s="15"/>
       <c r="D834" s="4"/>
       <c r="E834" s="6"/>
       <c r="F834" s="4"/>
@@ -25690,7 +25722,7 @@
     <row r="835" spans="1:27" ht="14.4">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
-      <c r="C835" s="6"/>
+      <c r="C835" s="15"/>
       <c r="D835" s="4"/>
       <c r="E835" s="6"/>
       <c r="F835" s="4"/>
@@ -25719,7 +25751,7 @@
     <row r="836" spans="1:27" ht="14.4">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
-      <c r="C836" s="6"/>
+      <c r="C836" s="15"/>
       <c r="D836" s="4"/>
       <c r="E836" s="6"/>
       <c r="F836" s="4"/>
@@ -25748,7 +25780,7 @@
     <row r="837" spans="1:27" ht="14.4">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
-      <c r="C837" s="6"/>
+      <c r="C837" s="15"/>
       <c r="D837" s="4"/>
       <c r="E837" s="6"/>
       <c r="F837" s="4"/>
@@ -25777,7 +25809,7 @@
     <row r="838" spans="1:27" ht="14.4">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
-      <c r="C838" s="6"/>
+      <c r="C838" s="15"/>
       <c r="D838" s="4"/>
       <c r="E838" s="6"/>
       <c r="F838" s="4"/>
@@ -25806,7 +25838,7 @@
     <row r="839" spans="1:27" ht="14.4">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
-      <c r="C839" s="6"/>
+      <c r="C839" s="15"/>
       <c r="D839" s="4"/>
       <c r="E839" s="6"/>
       <c r="F839" s="4"/>
@@ -25835,7 +25867,7 @@
     <row r="840" spans="1:27" ht="14.4">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
-      <c r="C840" s="6"/>
+      <c r="C840" s="15"/>
       <c r="D840" s="4"/>
       <c r="E840" s="6"/>
       <c r="F840" s="4"/>
@@ -25864,7 +25896,7 @@
     <row r="841" spans="1:27" ht="14.4">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
-      <c r="C841" s="6"/>
+      <c r="C841" s="15"/>
       <c r="D841" s="4"/>
       <c r="E841" s="6"/>
       <c r="F841" s="4"/>
@@ -25893,7 +25925,7 @@
     <row r="842" spans="1:27" ht="14.4">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
-      <c r="C842" s="6"/>
+      <c r="C842" s="15"/>
       <c r="D842" s="4"/>
       <c r="E842" s="6"/>
       <c r="F842" s="4"/>
@@ -25922,7 +25954,7 @@
     <row r="843" spans="1:27" ht="14.4">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
-      <c r="C843" s="6"/>
+      <c r="C843" s="15"/>
       <c r="D843" s="4"/>
       <c r="E843" s="6"/>
       <c r="F843" s="4"/>
@@ -25951,7 +25983,7 @@
     <row r="844" spans="1:27" ht="14.4">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
-      <c r="C844" s="6"/>
+      <c r="C844" s="15"/>
       <c r="D844" s="4"/>
       <c r="E844" s="6"/>
       <c r="F844" s="4"/>
@@ -25980,7 +26012,7 @@
     <row r="845" spans="1:27" ht="14.4">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
-      <c r="C845" s="6"/>
+      <c r="C845" s="15"/>
       <c r="D845" s="4"/>
       <c r="E845" s="6"/>
       <c r="F845" s="4"/>
@@ -26009,7 +26041,7 @@
     <row r="846" spans="1:27" ht="14.4">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
-      <c r="C846" s="6"/>
+      <c r="C846" s="15"/>
       <c r="D846" s="4"/>
       <c r="E846" s="6"/>
       <c r="F846" s="4"/>
@@ -26038,7 +26070,7 @@
     <row r="847" spans="1:27" ht="14.4">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
-      <c r="C847" s="6"/>
+      <c r="C847" s="15"/>
       <c r="D847" s="4"/>
       <c r="E847" s="6"/>
       <c r="F847" s="4"/>
@@ -26067,7 +26099,7 @@
     <row r="848" spans="1:27" ht="14.4">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
-      <c r="C848" s="6"/>
+      <c r="C848" s="15"/>
       <c r="D848" s="4"/>
       <c r="E848" s="6"/>
       <c r="F848" s="4"/>
@@ -26096,7 +26128,7 @@
     <row r="849" spans="1:27" ht="14.4">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
-      <c r="C849" s="6"/>
+      <c r="C849" s="15"/>
       <c r="D849" s="4"/>
       <c r="E849" s="6"/>
       <c r="F849" s="4"/>
@@ -26125,7 +26157,7 @@
     <row r="850" spans="1:27" ht="14.4">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
-      <c r="C850" s="6"/>
+      <c r="C850" s="15"/>
       <c r="D850" s="4"/>
       <c r="E850" s="6"/>
       <c r="F850" s="4"/>
@@ -26154,7 +26186,7 @@
     <row r="851" spans="1:27" ht="14.4">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
-      <c r="C851" s="6"/>
+      <c r="C851" s="15"/>
       <c r="D851" s="4"/>
       <c r="E851" s="6"/>
       <c r="F851" s="4"/>
@@ -26183,7 +26215,7 @@
     <row r="852" spans="1:27" ht="14.4">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
-      <c r="C852" s="6"/>
+      <c r="C852" s="15"/>
       <c r="D852" s="4"/>
       <c r="E852" s="6"/>
       <c r="F852" s="4"/>
@@ -26212,7 +26244,7 @@
     <row r="853" spans="1:27" ht="14.4">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
-      <c r="C853" s="6"/>
+      <c r="C853" s="15"/>
       <c r="D853" s="4"/>
       <c r="E853" s="6"/>
       <c r="F853" s="4"/>
@@ -26241,7 +26273,7 @@
     <row r="854" spans="1:27" ht="14.4">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
-      <c r="C854" s="6"/>
+      <c r="C854" s="15"/>
       <c r="D854" s="4"/>
       <c r="E854" s="6"/>
       <c r="F854" s="4"/>
@@ -26270,7 +26302,7 @@
     <row r="855" spans="1:27" ht="14.4">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
-      <c r="C855" s="6"/>
+      <c r="C855" s="15"/>
       <c r="D855" s="4"/>
       <c r="E855" s="6"/>
       <c r="F855" s="4"/>
@@ -26299,7 +26331,7 @@
     <row r="856" spans="1:27" ht="14.4">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
-      <c r="C856" s="6"/>
+      <c r="C856" s="15"/>
       <c r="D856" s="4"/>
       <c r="E856" s="6"/>
       <c r="F856" s="4"/>
@@ -26328,7 +26360,7 @@
     <row r="857" spans="1:27" ht="14.4">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
-      <c r="C857" s="6"/>
+      <c r="C857" s="15"/>
       <c r="D857" s="4"/>
       <c r="E857" s="6"/>
       <c r="F857" s="4"/>
@@ -26357,7 +26389,7 @@
     <row r="858" spans="1:27" ht="14.4">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
-      <c r="C858" s="6"/>
+      <c r="C858" s="15"/>
       <c r="D858" s="4"/>
       <c r="E858" s="6"/>
       <c r="F858" s="4"/>
@@ -26386,7 +26418,7 @@
     <row r="859" spans="1:27" ht="14.4">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
-      <c r="C859" s="6"/>
+      <c r="C859" s="15"/>
       <c r="D859" s="4"/>
       <c r="E859" s="6"/>
       <c r="F859" s="4"/>
@@ -26415,7 +26447,7 @@
     <row r="860" spans="1:27" ht="14.4">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
-      <c r="C860" s="6"/>
+      <c r="C860" s="15"/>
       <c r="D860" s="4"/>
       <c r="E860" s="6"/>
       <c r="F860" s="4"/>
@@ -26444,7 +26476,7 @@
     <row r="861" spans="1:27" ht="14.4">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
-      <c r="C861" s="6"/>
+      <c r="C861" s="15"/>
       <c r="D861" s="4"/>
       <c r="E861" s="6"/>
       <c r="F861" s="4"/>
@@ -26473,7 +26505,7 @@
     <row r="862" spans="1:27" ht="14.4">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
-      <c r="C862" s="6"/>
+      <c r="C862" s="15"/>
       <c r="D862" s="4"/>
       <c r="E862" s="6"/>
       <c r="F862" s="4"/>
@@ -26502,7 +26534,7 @@
     <row r="863" spans="1:27" ht="14.4">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
-      <c r="C863" s="6"/>
+      <c r="C863" s="15"/>
       <c r="D863" s="4"/>
       <c r="E863" s="6"/>
       <c r="F863" s="4"/>
@@ -26531,7 +26563,7 @@
     <row r="864" spans="1:27" ht="14.4">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
-      <c r="C864" s="6"/>
+      <c r="C864" s="15"/>
       <c r="D864" s="4"/>
       <c r="E864" s="6"/>
       <c r="F864" s="4"/>
@@ -26560,7 +26592,7 @@
     <row r="865" spans="1:27" ht="14.4">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
-      <c r="C865" s="6"/>
+      <c r="C865" s="15"/>
       <c r="D865" s="4"/>
       <c r="E865" s="6"/>
       <c r="F865" s="4"/>
@@ -26589,7 +26621,7 @@
     <row r="866" spans="1:27" ht="14.4">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
-      <c r="C866" s="6"/>
+      <c r="C866" s="15"/>
       <c r="D866" s="4"/>
       <c r="E866" s="6"/>
       <c r="F866" s="4"/>
@@ -26618,7 +26650,7 @@
     <row r="867" spans="1:27" ht="14.4">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
-      <c r="C867" s="6"/>
+      <c r="C867" s="15"/>
       <c r="D867" s="4"/>
       <c r="E867" s="6"/>
       <c r="F867" s="4"/>
@@ -26647,7 +26679,7 @@
     <row r="868" spans="1:27" ht="14.4">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
-      <c r="C868" s="6"/>
+      <c r="C868" s="15"/>
       <c r="D868" s="4"/>
       <c r="E868" s="6"/>
       <c r="F868" s="4"/>
@@ -26676,7 +26708,7 @@
     <row r="869" spans="1:27" ht="14.4">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
-      <c r="C869" s="6"/>
+      <c r="C869" s="15"/>
       <c r="D869" s="4"/>
       <c r="E869" s="6"/>
       <c r="F869" s="4"/>
@@ -26705,7 +26737,7 @@
     <row r="870" spans="1:27" ht="14.4">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
-      <c r="C870" s="6"/>
+      <c r="C870" s="15"/>
       <c r="D870" s="4"/>
       <c r="E870" s="6"/>
       <c r="F870" s="4"/>
@@ -26734,7 +26766,7 @@
     <row r="871" spans="1:27" ht="14.4">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
-      <c r="C871" s="6"/>
+      <c r="C871" s="15"/>
       <c r="D871" s="4"/>
       <c r="E871" s="6"/>
       <c r="F871" s="4"/>
@@ -26763,7 +26795,7 @@
     <row r="872" spans="1:27" ht="14.4">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
-      <c r="C872" s="6"/>
+      <c r="C872" s="15"/>
       <c r="D872" s="4"/>
       <c r="E872" s="6"/>
       <c r="F872" s="4"/>
@@ -26792,7 +26824,7 @@
     <row r="873" spans="1:27" ht="14.4">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
-      <c r="C873" s="6"/>
+      <c r="C873" s="15"/>
       <c r="D873" s="4"/>
       <c r="E873" s="6"/>
       <c r="F873" s="4"/>
@@ -26821,7 +26853,7 @@
     <row r="874" spans="1:27" ht="14.4">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
-      <c r="C874" s="6"/>
+      <c r="C874" s="15"/>
       <c r="D874" s="4"/>
       <c r="E874" s="6"/>
       <c r="F874" s="4"/>
@@ -26850,7 +26882,7 @@
     <row r="875" spans="1:27" ht="14.4">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
-      <c r="C875" s="6"/>
+      <c r="C875" s="15"/>
       <c r="D875" s="4"/>
       <c r="E875" s="6"/>
       <c r="F875" s="4"/>
@@ -26879,7 +26911,7 @@
     <row r="876" spans="1:27" ht="14.4">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
-      <c r="C876" s="6"/>
+      <c r="C876" s="15"/>
       <c r="D876" s="4"/>
       <c r="E876" s="6"/>
       <c r="F876" s="4"/>
@@ -26908,7 +26940,7 @@
     <row r="877" spans="1:27" ht="14.4">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
-      <c r="C877" s="6"/>
+      <c r="C877" s="15"/>
       <c r="D877" s="4"/>
       <c r="E877" s="6"/>
       <c r="F877" s="4"/>
@@ -26937,7 +26969,7 @@
     <row r="878" spans="1:27" ht="14.4">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
-      <c r="C878" s="6"/>
+      <c r="C878" s="15"/>
       <c r="D878" s="4"/>
       <c r="E878" s="6"/>
       <c r="F878" s="4"/>
@@ -26966,7 +26998,7 @@
     <row r="879" spans="1:27" ht="14.4">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
-      <c r="C879" s="6"/>
+      <c r="C879" s="15"/>
       <c r="D879" s="4"/>
       <c r="E879" s="6"/>
       <c r="F879" s="4"/>
@@ -26995,7 +27027,7 @@
     <row r="880" spans="1:27" ht="14.4">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
-      <c r="C880" s="6"/>
+      <c r="C880" s="15"/>
       <c r="D880" s="4"/>
       <c r="E880" s="6"/>
       <c r="F880" s="4"/>
@@ -27024,7 +27056,7 @@
     <row r="881" spans="1:27" ht="14.4">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
-      <c r="C881" s="6"/>
+      <c r="C881" s="15"/>
       <c r="D881" s="4"/>
       <c r="E881" s="6"/>
       <c r="F881" s="4"/>
@@ -27053,7 +27085,7 @@
     <row r="882" spans="1:27" ht="14.4">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
-      <c r="C882" s="6"/>
+      <c r="C882" s="15"/>
       <c r="D882" s="4"/>
       <c r="E882" s="6"/>
       <c r="F882" s="4"/>
@@ -27082,7 +27114,7 @@
     <row r="883" spans="1:27" ht="14.4">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
-      <c r="C883" s="6"/>
+      <c r="C883" s="15"/>
       <c r="D883" s="4"/>
       <c r="E883" s="6"/>
       <c r="F883" s="4"/>
@@ -27111,7 +27143,7 @@
     <row r="884" spans="1:27" ht="14.4">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
-      <c r="C884" s="6"/>
+      <c r="C884" s="15"/>
       <c r="D884" s="4"/>
       <c r="E884" s="6"/>
       <c r="F884" s="4"/>
@@ -27140,7 +27172,7 @@
     <row r="885" spans="1:27" ht="14.4">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
-      <c r="C885" s="6"/>
+      <c r="C885" s="15"/>
       <c r="D885" s="4"/>
       <c r="E885" s="6"/>
       <c r="F885" s="4"/>
@@ -27169,7 +27201,7 @@
     <row r="886" spans="1:27" ht="14.4">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
-      <c r="C886" s="6"/>
+      <c r="C886" s="15"/>
       <c r="D886" s="4"/>
       <c r="E886" s="6"/>
       <c r="F886" s="4"/>
@@ -27198,7 +27230,7 @@
     <row r="887" spans="1:27" ht="14.4">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
-      <c r="C887" s="6"/>
+      <c r="C887" s="15"/>
       <c r="D887" s="4"/>
       <c r="E887" s="6"/>
       <c r="F887" s="4"/>
@@ -27227,7 +27259,7 @@
     <row r="888" spans="1:27" ht="14.4">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
-      <c r="C888" s="6"/>
+      <c r="C888" s="15"/>
       <c r="D888" s="4"/>
       <c r="E888" s="6"/>
       <c r="F888" s="4"/>
@@ -27256,7 +27288,7 @@
     <row r="889" spans="1:27" ht="14.4">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
-      <c r="C889" s="6"/>
+      <c r="C889" s="15"/>
       <c r="D889" s="4"/>
       <c r="E889" s="6"/>
       <c r="F889" s="4"/>
@@ -27285,7 +27317,7 @@
     <row r="890" spans="1:27" ht="14.4">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
-      <c r="C890" s="6"/>
+      <c r="C890" s="15"/>
       <c r="D890" s="4"/>
       <c r="E890" s="6"/>
       <c r="F890" s="4"/>
@@ -27314,7 +27346,7 @@
     <row r="891" spans="1:27" ht="14.4">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
-      <c r="C891" s="6"/>
+      <c r="C891" s="15"/>
       <c r="D891" s="4"/>
       <c r="E891" s="6"/>
       <c r="F891" s="4"/>
@@ -27343,7 +27375,7 @@
     <row r="892" spans="1:27" ht="14.4">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
-      <c r="C892" s="6"/>
+      <c r="C892" s="15"/>
       <c r="D892" s="4"/>
       <c r="E892" s="6"/>
       <c r="F892" s="4"/>
@@ -27372,7 +27404,7 @@
     <row r="893" spans="1:27" ht="14.4">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
-      <c r="C893" s="6"/>
+      <c r="C893" s="15"/>
       <c r="D893" s="4"/>
       <c r="E893" s="6"/>
       <c r="F893" s="4"/>
@@ -27401,7 +27433,7 @@
     <row r="894" spans="1:27" ht="14.4">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
-      <c r="C894" s="6"/>
+      <c r="C894" s="15"/>
       <c r="D894" s="4"/>
       <c r="E894" s="6"/>
       <c r="F894" s="4"/>
@@ -27430,7 +27462,7 @@
     <row r="895" spans="1:27" ht="14.4">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
-      <c r="C895" s="6"/>
+      <c r="C895" s="15"/>
       <c r="D895" s="4"/>
       <c r="E895" s="6"/>
       <c r="F895" s="4"/>
@@ -27459,7 +27491,7 @@
     <row r="896" spans="1:27" ht="14.4">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
-      <c r="C896" s="6"/>
+      <c r="C896" s="15"/>
       <c r="D896" s="4"/>
       <c r="E896" s="6"/>
       <c r="F896" s="4"/>
@@ -27488,7 +27520,7 @@
     <row r="897" spans="1:27" ht="14.4">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
-      <c r="C897" s="6"/>
+      <c r="C897" s="15"/>
       <c r="D897" s="4"/>
       <c r="E897" s="6"/>
       <c r="F897" s="4"/>
@@ -27517,7 +27549,7 @@
     <row r="898" spans="1:27" ht="14.4">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
-      <c r="C898" s="6"/>
+      <c r="C898" s="15"/>
       <c r="D898" s="4"/>
       <c r="E898" s="6"/>
       <c r="F898" s="4"/>
@@ -27546,7 +27578,7 @@
     <row r="899" spans="1:27" ht="14.4">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
-      <c r="C899" s="6"/>
+      <c r="C899" s="15"/>
       <c r="D899" s="4"/>
       <c r="E899" s="6"/>
       <c r="F899" s="4"/>
@@ -27575,7 +27607,7 @@
     <row r="900" spans="1:27" ht="14.4">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
-      <c r="C900" s="6"/>
+      <c r="C900" s="15"/>
       <c r="D900" s="4"/>
       <c r="E900" s="6"/>
       <c r="F900" s="4"/>
@@ -27604,7 +27636,7 @@
     <row r="901" spans="1:27" ht="14.4">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
-      <c r="C901" s="6"/>
+      <c r="C901" s="15"/>
       <c r="D901" s="4"/>
       <c r="E901" s="6"/>
       <c r="F901" s="4"/>
@@ -27633,7 +27665,7 @@
     <row r="902" spans="1:27" ht="14.4">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
-      <c r="C902" s="6"/>
+      <c r="C902" s="15"/>
       <c r="D902" s="4"/>
       <c r="E902" s="6"/>
       <c r="F902" s="4"/>
@@ -27662,7 +27694,7 @@
     <row r="903" spans="1:27" ht="14.4">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
-      <c r="C903" s="6"/>
+      <c r="C903" s="15"/>
       <c r="D903" s="4"/>
       <c r="E903" s="6"/>
       <c r="F903" s="4"/>
@@ -27691,7 +27723,7 @@
     <row r="904" spans="1:27" ht="14.4">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
-      <c r="C904" s="6"/>
+      <c r="C904" s="15"/>
       <c r="D904" s="4"/>
       <c r="E904" s="6"/>
       <c r="F904" s="4"/>
@@ -27720,7 +27752,7 @@
     <row r="905" spans="1:27" ht="14.4">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
-      <c r="C905" s="6"/>
+      <c r="C905" s="15"/>
       <c r="D905" s="4"/>
       <c r="E905" s="6"/>
       <c r="F905" s="4"/>
@@ -27749,7 +27781,7 @@
     <row r="906" spans="1:27" ht="14.4">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
-      <c r="C906" s="6"/>
+      <c r="C906" s="15"/>
       <c r="D906" s="4"/>
       <c r="E906" s="6"/>
       <c r="F906" s="4"/>
@@ -27778,7 +27810,7 @@
     <row r="907" spans="1:27" ht="14.4">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
-      <c r="C907" s="6"/>
+      <c r="C907" s="15"/>
       <c r="D907" s="4"/>
       <c r="E907" s="6"/>
       <c r="F907" s="4"/>
@@ -27807,7 +27839,7 @@
     <row r="908" spans="1:27" ht="14.4">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
-      <c r="C908" s="6"/>
+      <c r="C908" s="15"/>
       <c r="D908" s="4"/>
       <c r="E908" s="6"/>
       <c r="F908" s="4"/>
@@ -27836,7 +27868,7 @@
     <row r="909" spans="1:27" ht="14.4">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
-      <c r="C909" s="6"/>
+      <c r="C909" s="15"/>
       <c r="D909" s="4"/>
       <c r="E909" s="6"/>
       <c r="F909" s="4"/>
@@ -27865,7 +27897,7 @@
     <row r="910" spans="1:27" ht="14.4">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
-      <c r="C910" s="6"/>
+      <c r="C910" s="15"/>
       <c r="D910" s="4"/>
       <c r="E910" s="6"/>
       <c r="F910" s="4"/>
@@ -27894,7 +27926,7 @@
     <row r="911" spans="1:27" ht="14.4">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
-      <c r="C911" s="6"/>
+      <c r="C911" s="15"/>
       <c r="D911" s="4"/>
       <c r="E911" s="6"/>
       <c r="F911" s="4"/>
@@ -27923,7 +27955,7 @@
     <row r="912" spans="1:27" ht="14.4">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
-      <c r="C912" s="6"/>
+      <c r="C912" s="15"/>
       <c r="D912" s="4"/>
       <c r="E912" s="6"/>
       <c r="F912" s="4"/>
@@ -27952,7 +27984,7 @@
     <row r="913" spans="1:27" ht="14.4">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
-      <c r="C913" s="6"/>
+      <c r="C913" s="15"/>
       <c r="D913" s="4"/>
       <c r="E913" s="6"/>
       <c r="F913" s="4"/>
@@ -27981,7 +28013,7 @@
     <row r="914" spans="1:27" ht="14.4">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
-      <c r="C914" s="6"/>
+      <c r="C914" s="15"/>
       <c r="D914" s="4"/>
       <c r="E914" s="6"/>
       <c r="F914" s="4"/>
@@ -28010,7 +28042,7 @@
     <row r="915" spans="1:27" ht="14.4">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
-      <c r="C915" s="6"/>
+      <c r="C915" s="15"/>
       <c r="D915" s="4"/>
       <c r="E915" s="6"/>
       <c r="F915" s="4"/>
@@ -28039,7 +28071,7 @@
     <row r="916" spans="1:27" ht="14.4">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
-      <c r="C916" s="6"/>
+      <c r="C916" s="15"/>
       <c r="D916" s="4"/>
       <c r="E916" s="6"/>
       <c r="F916" s="4"/>
@@ -28068,7 +28100,7 @@
     <row r="917" spans="1:27" ht="14.4">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
-      <c r="C917" s="6"/>
+      <c r="C917" s="15"/>
       <c r="D917" s="4"/>
       <c r="E917" s="6"/>
       <c r="F917" s="4"/>
@@ -28097,7 +28129,7 @@
     <row r="918" spans="1:27" ht="14.4">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
-      <c r="C918" s="6"/>
+      <c r="C918" s="15"/>
       <c r="D918" s="4"/>
       <c r="E918" s="6"/>
       <c r="F918" s="4"/>
@@ -28126,7 +28158,7 @@
     <row r="919" spans="1:27" ht="14.4">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
-      <c r="C919" s="6"/>
+      <c r="C919" s="15"/>
       <c r="D919" s="4"/>
       <c r="E919" s="6"/>
       <c r="F919" s="4"/>
@@ -28155,7 +28187,7 @@
     <row r="920" spans="1:27" ht="14.4">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
-      <c r="C920" s="6"/>
+      <c r="C920" s="15"/>
       <c r="D920" s="4"/>
       <c r="E920" s="6"/>
       <c r="F920" s="4"/>
@@ -28184,7 +28216,7 @@
     <row r="921" spans="1:27" ht="14.4">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
-      <c r="C921" s="6"/>
+      <c r="C921" s="15"/>
       <c r="D921" s="4"/>
       <c r="E921" s="6"/>
       <c r="F921" s="4"/>
@@ -28213,7 +28245,7 @@
     <row r="922" spans="1:27" ht="14.4">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
-      <c r="C922" s="6"/>
+      <c r="C922" s="15"/>
       <c r="D922" s="4"/>
       <c r="E922" s="6"/>
       <c r="F922" s="4"/>
@@ -28242,7 +28274,7 @@
     <row r="923" spans="1:27" ht="14.4">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
-      <c r="C923" s="6"/>
+      <c r="C923" s="15"/>
       <c r="D923" s="4"/>
       <c r="E923" s="6"/>
       <c r="F923" s="4"/>
@@ -28271,7 +28303,7 @@
     <row r="924" spans="1:27" ht="14.4">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
-      <c r="C924" s="6"/>
+      <c r="C924" s="15"/>
       <c r="D924" s="4"/>
       <c r="E924" s="6"/>
       <c r="F924" s="4"/>
@@ -28300,7 +28332,7 @@
     <row r="925" spans="1:27" ht="14.4">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
-      <c r="C925" s="6"/>
+      <c r="C925" s="15"/>
       <c r="D925" s="4"/>
       <c r="E925" s="6"/>
       <c r="F925" s="4"/>
@@ -28329,7 +28361,7 @@
     <row r="926" spans="1:27" ht="14.4">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
-      <c r="C926" s="6"/>
+      <c r="C926" s="15"/>
       <c r="D926" s="4"/>
       <c r="E926" s="6"/>
       <c r="F926" s="4"/>
@@ -28358,7 +28390,7 @@
     <row r="927" spans="1:27" ht="14.4">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
-      <c r="C927" s="6"/>
+      <c r="C927" s="15"/>
       <c r="D927" s="4"/>
       <c r="E927" s="6"/>
       <c r="F927" s="4"/>
@@ -28387,7 +28419,7 @@
     <row r="928" spans="1:27" ht="14.4">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
-      <c r="C928" s="6"/>
+      <c r="C928" s="15"/>
       <c r="D928" s="4"/>
       <c r="E928" s="6"/>
       <c r="F928" s="4"/>
@@ -28416,7 +28448,7 @@
     <row r="929" spans="1:27" ht="14.4">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
-      <c r="C929" s="6"/>
+      <c r="C929" s="15"/>
       <c r="D929" s="4"/>
       <c r="E929" s="6"/>
       <c r="F929" s="4"/>
@@ -28445,7 +28477,7 @@
     <row r="930" spans="1:27" ht="14.4">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
-      <c r="C930" s="6"/>
+      <c r="C930" s="15"/>
       <c r="D930" s="4"/>
       <c r="E930" s="6"/>
       <c r="F930" s="4"/>
@@ -28474,7 +28506,7 @@
     <row r="931" spans="1:27" ht="14.4">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
-      <c r="C931" s="6"/>
+      <c r="C931" s="15"/>
       <c r="D931" s="4"/>
       <c r="E931" s="6"/>
       <c r="F931" s="4"/>
@@ -28503,7 +28535,7 @@
     <row r="932" spans="1:27" ht="14.4">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
-      <c r="C932" s="6"/>
+      <c r="C932" s="15"/>
       <c r="D932" s="4"/>
       <c r="E932" s="6"/>
       <c r="F932" s="4"/>
@@ -28532,7 +28564,7 @@
     <row r="933" spans="1:27" ht="14.4">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
-      <c r="C933" s="6"/>
+      <c r="C933" s="15"/>
       <c r="D933" s="4"/>
       <c r="E933" s="6"/>
       <c r="F933" s="4"/>
@@ -28561,7 +28593,7 @@
     <row r="934" spans="1:27" ht="14.4">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
-      <c r="C934" s="6"/>
+      <c r="C934" s="15"/>
       <c r="D934" s="4"/>
       <c r="E934" s="6"/>
       <c r="F934" s="4"/>
@@ -28590,7 +28622,7 @@
     <row r="935" spans="1:27" ht="14.4">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
-      <c r="C935" s="6"/>
+      <c r="C935" s="15"/>
       <c r="D935" s="4"/>
       <c r="E935" s="6"/>
       <c r="F935" s="4"/>
@@ -28619,7 +28651,7 @@
     <row r="936" spans="1:27" ht="14.4">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
-      <c r="C936" s="6"/>
+      <c r="C936" s="15"/>
       <c r="D936" s="4"/>
       <c r="E936" s="6"/>
       <c r="F936" s="4"/>
@@ -28648,7 +28680,7 @@
     <row r="937" spans="1:27" ht="14.4">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
-      <c r="C937" s="6"/>
+      <c r="C937" s="15"/>
       <c r="D937" s="4"/>
       <c r="E937" s="6"/>
       <c r="F937" s="4"/>
@@ -28677,7 +28709,7 @@
     <row r="938" spans="1:27" ht="14.4">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
-      <c r="C938" s="6"/>
+      <c r="C938" s="15"/>
       <c r="D938" s="4"/>
       <c r="E938" s="6"/>
       <c r="F938" s="4"/>
@@ -28706,7 +28738,7 @@
     <row r="939" spans="1:27" ht="14.4">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
-      <c r="C939" s="6"/>
+      <c r="C939" s="15"/>
       <c r="D939" s="4"/>
       <c r="E939" s="6"/>
       <c r="F939" s="4"/>
@@ -28735,7 +28767,7 @@
     <row r="940" spans="1:27" ht="14.4">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
-      <c r="C940" s="6"/>
+      <c r="C940" s="15"/>
       <c r="D940" s="4"/>
       <c r="E940" s="6"/>
       <c r="F940" s="4"/>
@@ -28764,7 +28796,7 @@
     <row r="941" spans="1:27" ht="14.4">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
-      <c r="C941" s="6"/>
+      <c r="C941" s="15"/>
       <c r="D941" s="4"/>
       <c r="E941" s="6"/>
       <c r="F941" s="4"/>
@@ -28793,7 +28825,7 @@
     <row r="942" spans="1:27" ht="14.4">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
-      <c r="C942" s="6"/>
+      <c r="C942" s="15"/>
       <c r="D942" s="4"/>
       <c r="E942" s="6"/>
       <c r="F942" s="4"/>
@@ -28822,7 +28854,7 @@
     <row r="943" spans="1:27" ht="14.4">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
-      <c r="C943" s="6"/>
+      <c r="C943" s="15"/>
       <c r="D943" s="4"/>
       <c r="E943" s="6"/>
       <c r="F943" s="4"/>
@@ -28851,7 +28883,7 @@
     <row r="944" spans="1:27" ht="14.4">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
-      <c r="C944" s="6"/>
+      <c r="C944" s="15"/>
       <c r="D944" s="4"/>
       <c r="E944" s="6"/>
       <c r="F944" s="4"/>
@@ -28880,7 +28912,7 @@
     <row r="945" spans="1:27" ht="14.4">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
-      <c r="C945" s="6"/>
+      <c r="C945" s="15"/>
       <c r="D945" s="4"/>
       <c r="E945" s="6"/>
       <c r="F945" s="4"/>
@@ -28909,7 +28941,7 @@
     <row r="946" spans="1:27" ht="14.4">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
-      <c r="C946" s="6"/>
+      <c r="C946" s="15"/>
       <c r="D946" s="4"/>
       <c r="E946" s="6"/>
       <c r="F946" s="4"/>
@@ -28938,7 +28970,7 @@
     <row r="947" spans="1:27" ht="14.4">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
-      <c r="C947" s="6"/>
+      <c r="C947" s="15"/>
       <c r="D947" s="4"/>
       <c r="E947" s="6"/>
       <c r="F947" s="4"/>
@@ -28967,7 +28999,7 @@
     <row r="948" spans="1:27" ht="14.4">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
-      <c r="C948" s="6"/>
+      <c r="C948" s="15"/>
       <c r="D948" s="4"/>
       <c r="E948" s="6"/>
       <c r="F948" s="4"/>
@@ -28996,7 +29028,7 @@
     <row r="949" spans="1:27" ht="14.4">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
-      <c r="C949" s="6"/>
+      <c r="C949" s="15"/>
       <c r="D949" s="4"/>
       <c r="E949" s="6"/>
       <c r="F949" s="4"/>
@@ -29025,7 +29057,7 @@
     <row r="950" spans="1:27" ht="14.4">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
-      <c r="C950" s="6"/>
+      <c r="C950" s="15"/>
       <c r="D950" s="4"/>
       <c r="E950" s="6"/>
       <c r="F950" s="4"/>
@@ -29054,7 +29086,7 @@
     <row r="951" spans="1:27" ht="14.4">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
-      <c r="C951" s="6"/>
+      <c r="C951" s="15"/>
       <c r="D951" s="4"/>
       <c r="E951" s="6"/>
       <c r="F951" s="4"/>
@@ -29083,7 +29115,7 @@
     <row r="952" spans="1:27" ht="14.4">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
-      <c r="C952" s="6"/>
+      <c r="C952" s="15"/>
       <c r="D952" s="4"/>
       <c r="E952" s="6"/>
       <c r="F952" s="4"/>
@@ -29112,7 +29144,7 @@
     <row r="953" spans="1:27" ht="14.4">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
-      <c r="C953" s="6"/>
+      <c r="C953" s="15"/>
       <c r="D953" s="4"/>
       <c r="E953" s="6"/>
       <c r="F953" s="4"/>
@@ -29141,7 +29173,7 @@
     <row r="954" spans="1:27" ht="14.4">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
-      <c r="C954" s="6"/>
+      <c r="C954" s="15"/>
       <c r="D954" s="4"/>
       <c r="E954" s="6"/>
       <c r="F954" s="4"/>
@@ -29170,7 +29202,7 @@
     <row r="955" spans="1:27" ht="14.4">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
-      <c r="C955" s="6"/>
+      <c r="C955" s="15"/>
       <c r="D955" s="4"/>
       <c r="E955" s="6"/>
       <c r="F955" s="4"/>
@@ -29199,7 +29231,7 @@
     <row r="956" spans="1:27" ht="14.4">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
-      <c r="C956" s="6"/>
+      <c r="C956" s="15"/>
       <c r="D956" s="4"/>
       <c r="E956" s="6"/>
       <c r="F956" s="4"/>
@@ -29228,7 +29260,7 @@
     <row r="957" spans="1:27" ht="14.4">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
-      <c r="C957" s="6"/>
+      <c r="C957" s="15"/>
       <c r="D957" s="4"/>
       <c r="E957" s="6"/>
       <c r="F957" s="4"/>
@@ -29257,7 +29289,7 @@
     <row r="958" spans="1:27" ht="14.4">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
-      <c r="C958" s="6"/>
+      <c r="C958" s="15"/>
       <c r="D958" s="4"/>
       <c r="E958" s="6"/>
       <c r="F958" s="4"/>
@@ -29286,7 +29318,7 @@
     <row r="959" spans="1:27" ht="14.4">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
-      <c r="C959" s="6"/>
+      <c r="C959" s="15"/>
       <c r="D959" s="4"/>
       <c r="E959" s="6"/>
       <c r="F959" s="4"/>
@@ -29315,7 +29347,7 @@
     <row r="960" spans="1:27" ht="14.4">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
-      <c r="C960" s="6"/>
+      <c r="C960" s="15"/>
       <c r="D960" s="4"/>
       <c r="E960" s="6"/>
       <c r="F960" s="4"/>
@@ -29344,7 +29376,7 @@
     <row r="961" spans="1:27" ht="14.4">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
-      <c r="C961" s="6"/>
+      <c r="C961" s="15"/>
       <c r="D961" s="4"/>
       <c r="E961" s="6"/>
       <c r="F961" s="4"/>
@@ -29373,7 +29405,7 @@
     <row r="962" spans="1:27" ht="14.4">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
-      <c r="C962" s="6"/>
+      <c r="C962" s="15"/>
       <c r="D962" s="4"/>
       <c r="E962" s="6"/>
       <c r="F962" s="4"/>
@@ -29402,7 +29434,7 @@
     <row r="963" spans="1:27" ht="14.4">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
-      <c r="C963" s="6"/>
+      <c r="C963" s="15"/>
       <c r="D963" s="4"/>
       <c r="E963" s="6"/>
       <c r="F963" s="4"/>
@@ -29431,7 +29463,7 @@
     <row r="964" spans="1:27" ht="14.4">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
-      <c r="C964" s="6"/>
+      <c r="C964" s="15"/>
       <c r="D964" s="4"/>
       <c r="E964" s="6"/>
       <c r="F964" s="4"/>
@@ -29460,7 +29492,7 @@
     <row r="965" spans="1:27" ht="14.4">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
-      <c r="C965" s="6"/>
+      <c r="C965" s="15"/>
       <c r="D965" s="4"/>
       <c r="E965" s="6"/>
       <c r="F965" s="4"/>
@@ -29489,7 +29521,7 @@
     <row r="966" spans="1:27" ht="14.4">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
-      <c r="C966" s="6"/>
+      <c r="C966" s="15"/>
       <c r="D966" s="4"/>
       <c r="E966" s="6"/>
       <c r="F966" s="4"/>
@@ -29518,7 +29550,7 @@
     <row r="967" spans="1:27" ht="14.4">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
-      <c r="C967" s="6"/>
+      <c r="C967" s="15"/>
       <c r="D967" s="4"/>
       <c r="E967" s="6"/>
       <c r="F967" s="4"/>
@@ -29547,7 +29579,7 @@
     <row r="968" spans="1:27" ht="14.4">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
-      <c r="C968" s="6"/>
+      <c r="C968" s="15"/>
       <c r="D968" s="4"/>
       <c r="E968" s="6"/>
       <c r="F968" s="4"/>
@@ -29576,7 +29608,7 @@
     <row r="969" spans="1:27" ht="14.4">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
-      <c r="C969" s="6"/>
+      <c r="C969" s="15"/>
       <c r="D969" s="4"/>
       <c r="E969" s="6"/>
       <c r="F969" s="4"/>
@@ -29605,7 +29637,7 @@
     <row r="970" spans="1:27" ht="14.4">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
-      <c r="C970" s="6"/>
+      <c r="C970" s="15"/>
       <c r="D970" s="4"/>
       <c r="E970" s="6"/>
       <c r="F970" s="4"/>
@@ -29634,7 +29666,7 @@
     <row r="971" spans="1:27" ht="14.4">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
-      <c r="C971" s="6"/>
+      <c r="C971" s="15"/>
       <c r="D971" s="4"/>
       <c r="E971" s="6"/>
       <c r="F971" s="4"/>
@@ -29663,7 +29695,7 @@
     <row r="972" spans="1:27" ht="14.4">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
-      <c r="C972" s="6"/>
+      <c r="C972" s="15"/>
       <c r="D972" s="4"/>
       <c r="E972" s="6"/>
       <c r="F972" s="4"/>
@@ -29692,7 +29724,7 @@
     <row r="973" spans="1:27" ht="14.4">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
-      <c r="C973" s="6"/>
+      <c r="C973" s="15"/>
       <c r="D973" s="4"/>
       <c r="E973" s="6"/>
       <c r="F973" s="4"/>
@@ -29721,7 +29753,7 @@
     <row r="974" spans="1:27" ht="14.4">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
-      <c r="C974" s="6"/>
+      <c r="C974" s="15"/>
       <c r="D974" s="4"/>
       <c r="E974" s="6"/>
       <c r="F974" s="4"/>
@@ -29750,7 +29782,7 @@
     <row r="975" spans="1:27" ht="14.4">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
-      <c r="C975" s="6"/>
+      <c r="C975" s="15"/>
       <c r="D975" s="4"/>
       <c r="E975" s="6"/>
       <c r="F975" s="4"/>
@@ -29779,7 +29811,7 @@
     <row r="976" spans="1:27" ht="14.4">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
-      <c r="C976" s="6"/>
+      <c r="C976" s="15"/>
       <c r="D976" s="4"/>
       <c r="E976" s="6"/>
       <c r="F976" s="4"/>
@@ -29808,7 +29840,7 @@
     <row r="977" spans="1:27" ht="14.4">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
-      <c r="C977" s="6"/>
+      <c r="C977" s="15"/>
       <c r="D977" s="4"/>
       <c r="E977" s="6"/>
       <c r="F977" s="4"/>
@@ -29837,7 +29869,7 @@
     <row r="978" spans="1:27" ht="14.4">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
-      <c r="C978" s="6"/>
+      <c r="C978" s="15"/>
       <c r="D978" s="4"/>
       <c r="E978" s="6"/>
       <c r="F978" s="4"/>
@@ -29866,7 +29898,7 @@
     <row r="979" spans="1:27" ht="14.4">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
-      <c r="C979" s="6"/>
+      <c r="C979" s="15"/>
       <c r="D979" s="4"/>
       <c r="E979" s="6"/>
       <c r="F979" s="4"/>
@@ -29895,7 +29927,7 @@
     <row r="980" spans="1:27" ht="14.4">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
-      <c r="C980" s="6"/>
+      <c r="C980" s="15"/>
       <c r="D980" s="4"/>
       <c r="E980" s="6"/>
       <c r="F980" s="4"/>
@@ -29924,7 +29956,7 @@
     <row r="981" spans="1:27" ht="14.4">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
-      <c r="C981" s="6"/>
+      <c r="C981" s="15"/>
       <c r="D981" s="4"/>
       <c r="E981" s="6"/>
       <c r="F981" s="4"/>
@@ -29953,7 +29985,7 @@
     <row r="982" spans="1:27" ht="14.4">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
-      <c r="C982" s="6"/>
+      <c r="C982" s="15"/>
       <c r="D982" s="4"/>
       <c r="E982" s="6"/>
       <c r="F982" s="4"/>
@@ -29982,7 +30014,7 @@
     <row r="983" spans="1:27" ht="14.4">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
-      <c r="C983" s="6"/>
+      <c r="C983" s="15"/>
       <c r="D983" s="4"/>
       <c r="E983" s="6"/>
       <c r="F983" s="4"/>
@@ -30011,7 +30043,7 @@
     <row r="984" spans="1:27" ht="14.4">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
-      <c r="C984" s="6"/>
+      <c r="C984" s="15"/>
       <c r="D984" s="4"/>
       <c r="E984" s="6"/>
       <c r="F984" s="4"/>
@@ -30040,7 +30072,7 @@
     <row r="985" spans="1:27" ht="14.4">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
-      <c r="C985" s="6"/>
+      <c r="C985" s="15"/>
       <c r="D985" s="4"/>
       <c r="E985" s="6"/>
       <c r="F985" s="4"/>
@@ -30069,7 +30101,7 @@
     <row r="986" spans="1:27" ht="14.4">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
-      <c r="C986" s="6"/>
+      <c r="C986" s="15"/>
       <c r="D986" s="4"/>
       <c r="E986" s="6"/>
       <c r="F986" s="4"/>
@@ -30098,7 +30130,7 @@
     <row r="987" spans="1:27" ht="14.4">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
-      <c r="C987" s="6"/>
+      <c r="C987" s="15"/>
       <c r="D987" s="4"/>
       <c r="E987" s="6"/>
       <c r="F987" s="4"/>
@@ -30127,7 +30159,7 @@
     <row r="988" spans="1:27" ht="14.4">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
-      <c r="C988" s="6"/>
+      <c r="C988" s="15"/>
       <c r="D988" s="4"/>
       <c r="E988" s="6"/>
       <c r="F988" s="4"/>
@@ -30156,7 +30188,7 @@
     <row r="989" spans="1:27" ht="14.4">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
-      <c r="C989" s="6"/>
+      <c r="C989" s="15"/>
       <c r="D989" s="4"/>
       <c r="E989" s="6"/>
       <c r="F989" s="4"/>
@@ -30185,7 +30217,7 @@
     <row r="990" spans="1:27" ht="14.4">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
-      <c r="C990" s="6"/>
+      <c r="C990" s="15"/>
       <c r="D990" s="4"/>
       <c r="E990" s="6"/>
       <c r="F990" s="4"/>
@@ -30214,7 +30246,7 @@
     <row r="991" spans="1:27" ht="14.4">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
-      <c r="C991" s="6"/>
+      <c r="C991" s="15"/>
       <c r="D991" s="4"/>
       <c r="E991" s="6"/>
       <c r="F991" s="4"/>
@@ -30243,7 +30275,7 @@
     <row r="992" spans="1:27" ht="14.4">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
-      <c r="C992" s="6"/>
+      <c r="C992" s="15"/>
       <c r="D992" s="4"/>
       <c r="E992" s="6"/>
       <c r="F992" s="4"/>
@@ -30272,7 +30304,7 @@
     <row r="993" spans="1:27" ht="14.4">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
-      <c r="C993" s="6"/>
+      <c r="C993" s="15"/>
       <c r="D993" s="4"/>
       <c r="E993" s="6"/>
       <c r="F993" s="4"/>
@@ -30301,7 +30333,7 @@
     <row r="994" spans="1:27" ht="14.4">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
-      <c r="C994" s="6"/>
+      <c r="C994" s="15"/>
       <c r="D994" s="4"/>
       <c r="E994" s="6"/>
       <c r="F994" s="4"/>
@@ -30330,7 +30362,7 @@
     <row r="995" spans="1:27" ht="14.4">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
-      <c r="C995" s="6"/>
+      <c r="C995" s="15"/>
       <c r="D995" s="4"/>
       <c r="E995" s="6"/>
       <c r="F995" s="4"/>
@@ -30359,7 +30391,7 @@
     <row r="996" spans="1:27" ht="14.4">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
-      <c r="C996" s="6"/>
+      <c r="C996" s="15"/>
       <c r="D996" s="4"/>
       <c r="E996" s="6"/>
       <c r="F996" s="4"/>
@@ -30388,7 +30420,7 @@
     <row r="997" spans="1:27" ht="14.4">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
-      <c r="C997" s="6"/>
+      <c r="C997" s="15"/>
       <c r="D997" s="4"/>
       <c r="E997" s="6"/>
       <c r="F997" s="4"/>
@@ -30417,7 +30449,7 @@
     <row r="998" spans="1:27" ht="14.4">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
-      <c r="C998" s="6"/>
+      <c r="C998" s="15"/>
       <c r="D998" s="4"/>
       <c r="E998" s="6"/>
       <c r="F998" s="4"/>
@@ -30446,7 +30478,7 @@
     <row r="999" spans="1:27" ht="14.4">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
-      <c r="C999" s="6"/>
+      <c r="C999" s="15"/>
       <c r="D999" s="4"/>
       <c r="E999" s="6"/>
       <c r="F999" s="4"/>
@@ -30475,7 +30507,7 @@
     <row r="1000" spans="1:27" ht="14.4">
       <c r="A1000" s="6"/>
       <c r="B1000" s="3"/>
-      <c r="C1000" s="6"/>
+      <c r="C1000" s="15"/>
       <c r="D1000" s="4"/>
       <c r="E1000" s="6"/>
       <c r="F1000" s="4"/>
@@ -30504,7 +30536,7 @@
     <row r="1001" spans="1:27" ht="14.4">
       <c r="A1001" s="6"/>
       <c r="B1001" s="3"/>
-      <c r="C1001" s="6"/>
+      <c r="C1001" s="15"/>
       <c r="D1001" s="4"/>
       <c r="E1001" s="6"/>
       <c r="F1001" s="4"/>
@@ -30533,7 +30565,7 @@
     <row r="1002" spans="1:27" ht="14.4">
       <c r="A1002" s="6"/>
       <c r="B1002" s="3"/>
-      <c r="C1002" s="6"/>
+      <c r="C1002" s="15"/>
       <c r="D1002" s="4"/>
       <c r="E1002" s="6"/>
       <c r="F1002" s="4"/>
@@ -30562,7 +30594,7 @@
     <row r="1003" spans="1:27" ht="14.4">
       <c r="A1003" s="6"/>
       <c r="B1003" s="3"/>
-      <c r="C1003" s="6"/>
+      <c r="C1003" s="15"/>
       <c r="D1003" s="4"/>
       <c r="E1003" s="6"/>
       <c r="F1003" s="4"/>
@@ -30591,7 +30623,7 @@
     <row r="1004" spans="1:27" ht="14.4">
       <c r="A1004" s="6"/>
       <c r="B1004" s="3"/>
-      <c r="C1004" s="6"/>
+      <c r="C1004" s="15"/>
       <c r="D1004" s="4"/>
       <c r="E1004" s="6"/>
       <c r="F1004" s="4"/>
@@ -30620,7 +30652,7 @@
     <row r="1005" spans="1:27" ht="14.4">
       <c r="A1005" s="6"/>
       <c r="B1005" s="3"/>
-      <c r="C1005" s="6"/>
+      <c r="C1005" s="15"/>
       <c r="D1005" s="4"/>
       <c r="E1005" s="6"/>
       <c r="F1005" s="4"/>
@@ -30649,7 +30681,7 @@
     <row r="1006" spans="1:27" ht="14.4">
       <c r="A1006" s="6"/>
       <c r="B1006" s="3"/>
-      <c r="C1006" s="6"/>
+      <c r="C1006" s="15"/>
       <c r="D1006" s="4"/>
       <c r="E1006" s="6"/>
       <c r="F1006" s="4"/>
@@ -30678,7 +30710,7 @@
     <row r="1007" spans="1:27" ht="14.4">
       <c r="A1007" s="6"/>
       <c r="B1007" s="3"/>
-      <c r="C1007" s="6"/>
+      <c r="C1007" s="15"/>
       <c r="D1007" s="4"/>
       <c r="E1007" s="6"/>
       <c r="F1007" s="4"/>
@@ -30707,7 +30739,7 @@
     <row r="1008" spans="1:27" ht="14.4">
       <c r="A1008" s="6"/>
       <c r="B1008" s="3"/>
-      <c r="C1008" s="6"/>
+      <c r="C1008" s="15"/>
       <c r="D1008" s="4"/>
       <c r="E1008" s="6"/>
       <c r="F1008" s="4"/>
@@ -30736,7 +30768,7 @@
     <row r="1009" spans="1:27" ht="14.4">
       <c r="A1009" s="6"/>
       <c r="B1009" s="3"/>
-      <c r="C1009" s="6"/>
+      <c r="C1009" s="15"/>
       <c r="D1009" s="4"/>
       <c r="E1009" s="6"/>
       <c r="F1009" s="4"/>
@@ -30765,7 +30797,7 @@
     <row r="1010" spans="1:27" ht="14.4">
       <c r="A1010" s="6"/>
       <c r="B1010" s="3"/>
-      <c r="C1010" s="6"/>
+      <c r="C1010" s="15"/>
       <c r="D1010" s="4"/>
       <c r="E1010" s="6"/>
       <c r="F1010" s="4"/>
@@ -30794,7 +30826,7 @@
     <row r="1011" spans="1:27" ht="14.4">
       <c r="A1011" s="6"/>
       <c r="B1011" s="3"/>
-      <c r="C1011" s="6"/>
+      <c r="C1011" s="15"/>
       <c r="D1011" s="4"/>
       <c r="E1011" s="6"/>
       <c r="F1011" s="4"/>
@@ -30823,7 +30855,7 @@
     <row r="1012" spans="1:27" ht="14.4">
       <c r="A1012" s="6"/>
       <c r="B1012" s="3"/>
-      <c r="C1012" s="6"/>
+      <c r="C1012" s="15"/>
       <c r="D1012" s="4"/>
       <c r="E1012" s="6"/>
       <c r="F1012" s="4"/>
@@ -30852,7 +30884,7 @@
     <row r="1013" spans="1:27" ht="14.4">
       <c r="A1013" s="6"/>
       <c r="B1013" s="3"/>
-      <c r="C1013" s="6"/>
+      <c r="C1013" s="15"/>
       <c r="D1013" s="4"/>
       <c r="E1013" s="6"/>
       <c r="F1013" s="4"/>
@@ -30881,7 +30913,7 @@
     <row r="1014" spans="1:27" ht="14.4">
       <c r="A1014" s="6"/>
       <c r="B1014" s="3"/>
-      <c r="C1014" s="6"/>
+      <c r="C1014" s="15"/>
       <c r="D1014" s="4"/>
       <c r="E1014" s="6"/>
       <c r="F1014" s="4"/>
@@ -30910,7 +30942,7 @@
     <row r="1015" spans="1:27" ht="14.4">
       <c r="A1015" s="6"/>
       <c r="B1015" s="3"/>
-      <c r="C1015" s="6"/>
+      <c r="C1015" s="15"/>
       <c r="D1015" s="4"/>
       <c r="E1015" s="6"/>
       <c r="F1015" s="4"/>
@@ -30939,7 +30971,7 @@
     <row r="1016" spans="1:27" ht="14.4">
       <c r="A1016" s="6"/>
       <c r="B1016" s="3"/>
-      <c r="C1016" s="6"/>
+      <c r="C1016" s="15"/>
       <c r="D1016" s="4"/>
       <c r="E1016" s="6"/>
       <c r="F1016" s="4"/>
@@ -30968,7 +31000,7 @@
     <row r="1017" spans="1:27" ht="14.4">
       <c r="A1017" s="6"/>
       <c r="B1017" s="3"/>
-      <c r="C1017" s="6"/>
+      <c r="C1017" s="15"/>
       <c r="D1017" s="4"/>
       <c r="E1017" s="6"/>
       <c r="F1017" s="4"/>
@@ -30997,7 +31029,7 @@
     <row r="1018" spans="1:27" ht="14.4">
       <c r="A1018" s="6"/>
       <c r="B1018" s="3"/>
-      <c r="C1018" s="6"/>
+      <c r="C1018" s="15"/>
       <c r="D1018" s="4"/>
       <c r="E1018" s="6"/>
       <c r="F1018" s="4"/>
@@ -31026,7 +31058,7 @@
     <row r="1019" spans="1:27" ht="14.4">
       <c r="A1019" s="6"/>
       <c r="B1019" s="3"/>
-      <c r="C1019" s="6"/>
+      <c r="C1019" s="15"/>
       <c r="D1019" s="4"/>
       <c r="E1019" s="6"/>
       <c r="F1019" s="4"/>
@@ -31055,7 +31087,7 @@
     <row r="1020" spans="1:27" ht="14.4">
       <c r="A1020" s="6"/>
       <c r="B1020" s="3"/>
-      <c r="C1020" s="6"/>
+      <c r="C1020" s="15"/>
       <c r="D1020" s="4"/>
       <c r="E1020" s="6"/>
       <c r="F1020" s="4"/>
@@ -31084,7 +31116,7 @@
     <row r="1021" spans="1:27" ht="14.4">
       <c r="A1021" s="6"/>
       <c r="B1021" s="3"/>
-      <c r="C1021" s="6"/>
+      <c r="C1021" s="15"/>
       <c r="D1021" s="4"/>
       <c r="E1021" s="6"/>
       <c r="F1021" s="4"/>
@@ -31113,7 +31145,7 @@
     <row r="1022" spans="1:27" ht="14.4">
       <c r="A1022" s="6"/>
       <c r="B1022" s="3"/>
-      <c r="C1022" s="6"/>
+      <c r="C1022" s="15"/>
       <c r="D1022" s="4"/>
       <c r="E1022" s="6"/>
       <c r="F1022" s="4"/>
@@ -31142,7 +31174,7 @@
     <row r="1023" spans="1:27" ht="14.4">
       <c r="A1023" s="6"/>
       <c r="B1023" s="3"/>
-      <c r="C1023" s="6"/>
+      <c r="C1023" s="15"/>
       <c r="D1023" s="4"/>
       <c r="E1023" s="6"/>
       <c r="F1023" s="4"/>
@@ -31171,7 +31203,7 @@
     <row r="1024" spans="1:27" ht="14.4">
       <c r="A1024" s="6"/>
       <c r="B1024" s="3"/>
-      <c r="C1024" s="6"/>
+      <c r="C1024" s="15"/>
       <c r="D1024" s="4"/>
       <c r="E1024" s="6"/>
       <c r="F1024" s="4"/>
@@ -31200,7 +31232,7 @@
     <row r="1025" spans="1:27" ht="14.4">
       <c r="A1025" s="6"/>
       <c r="B1025" s="3"/>
-      <c r="C1025" s="6"/>
+      <c r="C1025" s="15"/>
       <c r="D1025" s="4"/>
       <c r="E1025" s="6"/>
       <c r="F1025" s="4"/>
@@ -31229,7 +31261,7 @@
     <row r="1026" spans="1:27" ht="14.4">
       <c r="A1026" s="6"/>
       <c r="B1026" s="3"/>
-      <c r="C1026" s="6"/>
+      <c r="C1026" s="15"/>
       <c r="D1026" s="4"/>
       <c r="E1026" s="6"/>
       <c r="F1026" s="4"/>
@@ -31258,7 +31290,7 @@
     <row r="1027" spans="1:27" ht="14.4">
       <c r="A1027" s="6"/>
       <c r="B1027" s="3"/>
-      <c r="C1027" s="6"/>
+      <c r="C1027" s="15"/>
       <c r="D1027" s="4"/>
       <c r="E1027" s="6"/>
       <c r="F1027" s="4"/>
@@ -31287,7 +31319,7 @@
     <row r="1028" spans="1:27" ht="14.4">
       <c r="A1028" s="6"/>
       <c r="B1028" s="3"/>
-      <c r="C1028" s="6"/>
+      <c r="C1028" s="15"/>
       <c r="D1028" s="4"/>
       <c r="E1028" s="6"/>
       <c r="F1028" s="4"/>
@@ -31316,7 +31348,7 @@
     <row r="1029" spans="1:27" ht="14.4">
       <c r="A1029" s="6"/>
       <c r="B1029" s="3"/>
-      <c r="C1029" s="6"/>
+      <c r="C1029" s="15"/>
       <c r="D1029" s="4"/>
       <c r="E1029" s="6"/>
       <c r="F1029" s="4"/>
@@ -31345,7 +31377,7 @@
     <row r="1030" spans="1:27" ht="14.4">
       <c r="A1030" s="6"/>
       <c r="B1030" s="3"/>
-      <c r="C1030" s="6"/>
+      <c r="C1030" s="15"/>
       <c r="D1030" s="4"/>
       <c r="E1030" s="6"/>
       <c r="F1030" s="4"/>
@@ -31374,7 +31406,7 @@
     <row r="1031" spans="1:27" ht="14.4">
       <c r="A1031" s="6"/>
       <c r="B1031" s="3"/>
-      <c r="C1031" s="6"/>
+      <c r="C1031" s="15"/>
       <c r="D1031" s="4"/>
       <c r="E1031" s="6"/>
       <c r="F1031" s="4"/>
@@ -31403,7 +31435,7 @@
     <row r="1032" spans="1:27" ht="14.4">
       <c r="A1032" s="6"/>
       <c r="B1032" s="3"/>
-      <c r="C1032" s="6"/>
+      <c r="C1032" s="15"/>
       <c r="D1032" s="4"/>
       <c r="E1032" s="6"/>
       <c r="F1032" s="4"/>
@@ -31432,7 +31464,7 @@
     <row r="1033" spans="1:27" ht="14.4">
       <c r="A1033" s="6"/>
       <c r="B1033" s="3"/>
-      <c r="C1033" s="6"/>
+      <c r="C1033" s="15"/>
       <c r="D1033" s="4"/>
       <c r="E1033" s="6"/>
       <c r="F1033" s="4"/>
@@ -31461,7 +31493,7 @@
     <row r="1034" spans="1:27" ht="14.4">
       <c r="A1034" s="6"/>
       <c r="B1034" s="3"/>
-      <c r="C1034" s="6"/>
+      <c r="C1034" s="15"/>
       <c r="D1034" s="4"/>
       <c r="E1034" s="6"/>
       <c r="F1034" s="4"/>
@@ -31490,7 +31522,7 @@
     <row r="1035" spans="1:27" ht="14.4">
       <c r="A1035" s="6"/>
       <c r="B1035" s="3"/>
-      <c r="C1035" s="6"/>
+      <c r="C1035" s="15"/>
       <c r="D1035" s="4"/>
       <c r="E1035" s="6"/>
       <c r="F1035" s="4"/>
@@ -31519,7 +31551,7 @@
     <row r="1036" spans="1:27" ht="14.4">
       <c r="A1036" s="6"/>
       <c r="B1036" s="3"/>
-      <c r="C1036" s="6"/>
+      <c r="C1036" s="15"/>
       <c r="D1036" s="4"/>
       <c r="E1036" s="6"/>
       <c r="F1036" s="4"/>
@@ -31548,7 +31580,7 @@
     <row r="1037" spans="1:27" ht="14.4">
       <c r="A1037" s="6"/>
       <c r="B1037" s="3"/>
-      <c r="C1037" s="6"/>
+      <c r="C1037" s="15"/>
       <c r="D1037" s="4"/>
       <c r="E1037" s="6"/>
       <c r="F1037" s="4"/>
@@ -31577,7 +31609,7 @@
     <row r="1038" spans="1:27" ht="14.4">
       <c r="A1038" s="6"/>
       <c r="B1038" s="3"/>
-      <c r="C1038" s="6"/>
+      <c r="C1038" s="15"/>
       <c r="D1038" s="4"/>
       <c r="E1038" s="6"/>
       <c r="F1038" s="4"/>
@@ -31606,7 +31638,7 @@
     <row r="1039" spans="1:27" ht="14.4">
       <c r="A1039" s="6"/>
       <c r="B1039" s="3"/>
-      <c r="C1039" s="6"/>
+      <c r="C1039" s="15"/>
       <c r="D1039" s="4"/>
       <c r="E1039" s="6"/>
       <c r="F1039" s="4"/>
@@ -31635,7 +31667,7 @@
     <row r="1040" spans="1:27" ht="14.4">
       <c r="A1040" s="6"/>
       <c r="B1040" s="3"/>
-      <c r="C1040" s="6"/>
+      <c r="C1040" s="15"/>
       <c r="D1040" s="4"/>
       <c r="E1040" s="6"/>
       <c r="F1040" s="4"/>
@@ -31664,7 +31696,7 @@
     <row r="1041" spans="1:27" ht="14.4">
       <c r="A1041" s="6"/>
       <c r="B1041" s="3"/>
-      <c r="C1041" s="6"/>
+      <c r="C1041" s="15"/>
       <c r="D1041" s="4"/>
       <c r="E1041" s="6"/>
       <c r="F1041" s="4"/>
@@ -31693,7 +31725,7 @@
     <row r="1042" spans="1:27" ht="14.4">
       <c r="A1042" s="6"/>
       <c r="B1042" s="3"/>
-      <c r="C1042" s="6"/>
+      <c r="C1042" s="15"/>
       <c r="D1042" s="4"/>
       <c r="E1042" s="6"/>
       <c r="F1042" s="4"/>
@@ -31722,7 +31754,7 @@
     <row r="1043" spans="1:27" ht="14.4">
       <c r="A1043" s="6"/>
       <c r="B1043" s="3"/>
-      <c r="C1043" s="6"/>
+      <c r="C1043" s="15"/>
       <c r="D1043" s="4"/>
       <c r="E1043" s="6"/>
       <c r="F1043" s="4"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="180">
   <si>
     <t>release</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>D5_meaning_occurences with masked counts</t>
-  </si>
-  <si>
-    <t>not included yet</t>
   </si>
   <si>
     <t>D3_SAP1_MS-COHORT</t>
@@ -487,12 +484,6 @@
     <t>11_T4_10_create_template_on_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
   <si>
-    <t>10_T3_20_create_prevalence_of_use_MSdrugs_in_MS_cohort</t>
-  </si>
-  <si>
-    <t>10_T3_20_create_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
-  </si>
-  <si>
     <t>10_T3_10_create_prevalence_MS_in_pregnancy_cohort</t>
   </si>
   <si>
@@ -526,20 +517,56 @@
     <t>Pattern of MS DMT medications use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
   </si>
   <si>
-    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Template 3</t>
-  </si>
-  <si>
     <t>Prevalence of MS medication in women of childbearing age with MS at cohort entry over time</t>
   </si>
   <si>
     <t>Prevalence of MS medication in women of childbearing age with MS at cohort entry by study period and age group</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
+  <si>
+    <t>10_T3_20_create_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
+  <si>
+    <t>D3_DU_PREGNANCY-COHORT_variables conceptsets</t>
+  </si>
+  <si>
+    <t>D4_DU_individual_prevalence_of_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
+  <si>
+    <t>10_T3_40_create_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+  </si>
+  <si>
+    <t>10_T3_30_create_prevalence_of_use_MSdrugs_in_MScohort</t>
+  </si>
+  <si>
+    <t>D4_DU_MS-COHORT conceptsets</t>
+  </si>
+  <si>
+    <t>contains the aggregated prevalence of use (numerators and denominators) needed to feed Templates 8+</t>
+  </si>
+  <si>
+    <t>this is the aggregation of the individual-level dataset D4_DU_individual_prevalence_of_use_MSmeds_in_MSpregnancy_trimesters, to feed Template 3. It copntains counts of persons using medicines exclusively in some periods before and during pregnancy</t>
+  </si>
+  <si>
+    <t>this dataset measures in each MS pregnancy whether the woman  used or didn't use each of the MS medications in the trimesters before or during pregnancy (to ultimately  feed Template 3)</t>
+  </si>
+  <si>
+    <t>D5_DU_for_Templats_8-11</t>
+  </si>
+  <si>
+    <t>numbers to be included in Templates 8-11, that explore use of medications in pregnant and matchd non-pregnant women with MS, across calendar period, ageband, pregnancy period</t>
+  </si>
+  <si>
+    <t>11_T4_30_create_template_on_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -615,8 +642,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +680,18 @@
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -660,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,6 +789,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,19 +1016,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1044"/>
+  <dimension ref="A1:AA1046"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="41" customWidth="1"/>
     <col min="4" max="4" width="48.77734375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
@@ -1012,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1507,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>45</v>
@@ -1545,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>45</v>
@@ -1657,11 +1710,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>48</v>
@@ -1696,11 +1749,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>48</v>
@@ -1735,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -1744,7 +1797,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
@@ -1776,16 +1829,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
@@ -1817,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>52</v>
@@ -1826,7 +1879,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="9" t="s">
@@ -1858,14 +1911,14 @@
         <v>9</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
@@ -1897,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>55</v>
@@ -1906,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
@@ -1938,14 +1991,14 @@
         <v>9</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
@@ -1977,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>57</v>
@@ -1986,7 +2039,7 @@
         <v>58</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
@@ -2018,14 +2071,14 @@
         <v>9</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
@@ -2057,16 +2110,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
@@ -2098,16 +2151,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="9" t="s">
@@ -2139,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>60</v>
@@ -2148,7 +2201,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="9" t="s">
@@ -2178,16 +2231,16 @@
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="25"/>
@@ -2215,14 +2268,14 @@
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="25"/>
@@ -2250,13 +2303,13 @@
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="25"/>
@@ -2284,14 +2337,14 @@
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="25"/>
@@ -2319,13 +2372,13 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="25"/>
@@ -2353,14 +2406,14 @@
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="25"/>
@@ -2388,13 +2441,13 @@
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="25"/>
@@ -2422,14 +2475,14 @@
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="25"/>
@@ -2457,13 +2510,13 @@
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="25"/>
@@ -2491,14 +2544,14 @@
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="25"/>
@@ -2526,14 +2579,14 @@
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="25"/>
@@ -2559,20 +2612,18 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="1:27" ht="43.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="C42" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2598,26 +2649,24 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="1:27" ht="43.2">
-      <c r="A43" s="5" t="s">
-        <v>66</v>
+      <c r="A43" s="46"/>
+      <c r="B43" s="36" t="s">
+        <v>69</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="C43" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>71</v>
-      </c>
       <c r="D43" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2639,26 +2688,24 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="57.6">
-      <c r="A44" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="46"/>
       <c r="B44" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2680,26 +2727,24 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" ht="28.8">
-      <c r="A45" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A45" s="46"/>
       <c r="B45" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2721,26 +2766,24 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="28.8">
-      <c r="A46" s="5" t="s">
-        <v>66</v>
+      <c r="A46" s="46"/>
+      <c r="B46" s="33" t="s">
+        <v>73</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="C46" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>75</v>
-      </c>
       <c r="D46" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2762,31 +2805,30 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A47" s="47"/>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="28.8">
-      <c r="A48" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A48" s="46"/>
       <c r="B48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2812,26 +2854,24 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="27">
-      <c r="A49" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="46"/>
       <c r="B49" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2853,20 +2893,18 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="57.6">
-      <c r="A50" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A50" s="46"/>
       <c r="B50" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="4"/>
@@ -2892,18 +2930,18 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" ht="72">
-      <c r="A51" s="5"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="4"/>
@@ -2929,18 +2967,18 @@
       <c r="AA51" s="4"/>
     </row>
     <row r="52" spans="1:27" ht="43.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="4"/>
@@ -2966,18 +3004,18 @@
       <c r="AA52" s="4"/>
     </row>
     <row r="53" spans="1:27" ht="72">
-      <c r="A53" s="5"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="4"/>
@@ -3003,18 +3041,18 @@
       <c r="AA53" s="4"/>
     </row>
     <row r="54" spans="1:27" ht="57.6">
-      <c r="A54" s="5"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="4"/>
@@ -3040,18 +3078,18 @@
       <c r="AA54" s="4"/>
     </row>
     <row r="55" spans="1:27" ht="57.6">
-      <c r="A55" s="5"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -3078,19 +3116,19 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="43.2">
-      <c r="A56" s="5"/>
+    <row r="56" spans="1:27" ht="93.6">
+      <c r="A56" s="46"/>
       <c r="B56" s="3" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="E56" s="33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -3115,19 +3153,19 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="42" customHeight="1">
-      <c r="A57" s="5"/>
+    <row r="57" spans="1:27" ht="100.8">
+      <c r="A57" s="46"/>
       <c r="B57" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -3152,19 +3190,19 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="57.6">
-      <c r="A58" s="5"/>
+    <row r="58" spans="1:27" ht="42" customHeight="1">
+      <c r="A58" s="46"/>
       <c r="B58" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>148</v>
+      <c r="E58" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
@@ -3189,21 +3227,19 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="28.8">
-      <c r="A59" s="5" t="s">
-        <v>66</v>
+    <row r="59" spans="1:27" ht="43.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="3" t="s">
+        <v>147</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>146</v>
+      <c r="C59" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>80</v>
+      <c r="E59" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
@@ -3228,19 +3264,19 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="27.6">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:27" ht="57.6">
+      <c r="A60" s="46"/>
       <c r="B60" s="3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
-      <c r="C60" s="44" t="s">
-        <v>149</v>
+      <c r="C60" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -3265,22 +3301,21 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="41.4">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:27" ht="28.8">
+      <c r="A61" s="46"/>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
-      <c r="C61" s="44" t="s">
-        <v>169</v>
+      <c r="C61" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
       <c r="H61" s="15"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
@@ -3302,19 +3337,19 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="41.4">
-      <c r="A62" s="5"/>
+    <row r="62" spans="1:27" ht="27.6">
+      <c r="A62" s="46"/>
       <c r="B62" s="3" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>170</v>
+      <c r="C62" s="44" t="s">
+        <v>148</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
@@ -3339,12 +3374,20 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="14.4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+    <row r="63" spans="1:27" ht="41.4">
+      <c r="A63" s="46"/>
+      <c r="B63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
       <c r="H63" s="15"/>
@@ -3368,12 +3411,24 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="14.4">
-      <c r="A64" s="5"/>
+    <row r="64" spans="1:27" ht="41.4">
+      <c r="A64" s="46"/>
+      <c r="B64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3393,11 +3448,23 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="14.4">
-      <c r="A65" s="5"/>
+    <row r="65" spans="1:27" ht="78">
+      <c r="A65" s="46"/>
+      <c r="B65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3419,11 +3486,7 @@
       <c r="AA65" s="4"/>
     </row>
     <row r="66" spans="1:27" ht="14.4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="6"/>
+      <c r="A66" s="46"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="6"/>
@@ -3448,15 +3511,11 @@
       <c r="AA66" s="4"/>
     </row>
     <row r="67" spans="1:27" ht="14.4">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="46"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3477,7 +3536,7 @@
       <c r="AA67" s="4"/>
     </row>
     <row r="68" spans="1:27" ht="14.4">
-      <c r="A68" s="6"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="3"/>
       <c r="C68" s="15"/>
       <c r="D68" s="4"/>
@@ -3506,7 +3565,7 @@
       <c r="AA68" s="4"/>
     </row>
     <row r="69" spans="1:27" ht="14.4">
-      <c r="A69" s="6"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="3"/>
       <c r="C69" s="15"/>
       <c r="D69" s="4"/>
@@ -3535,7 +3594,7 @@
       <c r="AA69" s="4"/>
     </row>
     <row r="70" spans="1:27" ht="14.4">
-      <c r="A70" s="6"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="3"/>
       <c r="C70" s="15"/>
       <c r="D70" s="4"/>
@@ -31780,8 +31839,66 @@
       <c r="Z1043" s="4"/>
       <c r="AA1043" s="4"/>
     </row>
-    <row r="1044" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1044" spans="1:27" ht="14.4">
       <c r="A1044" s="6"/>
+      <c r="B1044" s="3"/>
+      <c r="C1044" s="15"/>
+      <c r="D1044" s="4"/>
+      <c r="E1044" s="6"/>
+      <c r="F1044" s="4"/>
+      <c r="G1044" s="4"/>
+      <c r="H1044" s="6"/>
+      <c r="I1044" s="4"/>
+      <c r="J1044" s="4"/>
+      <c r="K1044" s="4"/>
+      <c r="L1044" s="4"/>
+      <c r="M1044" s="4"/>
+      <c r="N1044" s="4"/>
+      <c r="O1044" s="4"/>
+      <c r="P1044" s="4"/>
+      <c r="Q1044" s="4"/>
+      <c r="R1044" s="4"/>
+      <c r="S1044" s="4"/>
+      <c r="T1044" s="4"/>
+      <c r="U1044" s="4"/>
+      <c r="V1044" s="4"/>
+      <c r="W1044" s="4"/>
+      <c r="X1044" s="4"/>
+      <c r="Y1044" s="4"/>
+      <c r="Z1044" s="4"/>
+      <c r="AA1044" s="4"/>
+    </row>
+    <row r="1045" spans="1:27" ht="14.4">
+      <c r="A1045" s="6"/>
+      <c r="B1045" s="3"/>
+      <c r="C1045" s="15"/>
+      <c r="D1045" s="4"/>
+      <c r="E1045" s="6"/>
+      <c r="F1045" s="4"/>
+      <c r="G1045" s="4"/>
+      <c r="H1045" s="6"/>
+      <c r="I1045" s="4"/>
+      <c r="J1045" s="4"/>
+      <c r="K1045" s="4"/>
+      <c r="L1045" s="4"/>
+      <c r="M1045" s="4"/>
+      <c r="N1045" s="4"/>
+      <c r="O1045" s="4"/>
+      <c r="P1045" s="4"/>
+      <c r="Q1045" s="4"/>
+      <c r="R1045" s="4"/>
+      <c r="S1045" s="4"/>
+      <c r="T1045" s="4"/>
+      <c r="U1045" s="4"/>
+      <c r="V1045" s="4"/>
+      <c r="W1045" s="4"/>
+      <c r="X1045" s="4"/>
+      <c r="Y1045" s="4"/>
+      <c r="Z1045" s="4"/>
+      <c r="AA1045" s="4"/>
+    </row>
+    <row r="1046" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1046" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809D1A6-152C-40F1-A07E-69EC1DAD9B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -559,13 +560,13 @@
     <t>numbers to be included in Templates 8-11, that explore use of medications in pregnant and matchd non-pregnant women with MS, across calendar period, ageband, pregnancy period</t>
   </si>
   <si>
-    <t>11_T4_30_create_template_on_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+    <t>11_T4_40_create_template_on_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -800,7 +801,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1012,28 +1013,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1046"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
@@ -1824,7 +1825,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="40.799999999999997" customHeight="1">
+    <row r="21" spans="1:27" ht="40.9" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="43.2">
+    <row r="42" spans="1:27" ht="45">
       <c r="A42" s="46"/>
       <c r="B42" s="25" t="s">
         <v>66</v>
@@ -2648,7 +2649,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="43.2">
+    <row r="43" spans="1:27" ht="45">
       <c r="A43" s="46"/>
       <c r="B43" s="36" t="s">
         <v>69</v>
@@ -2687,7 +2688,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="57.6">
+    <row r="44" spans="1:27" ht="60">
       <c r="A44" s="46"/>
       <c r="B44" s="32" t="s">
         <v>112</v>
@@ -2726,7 +2727,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="28.8">
+    <row r="45" spans="1:27" ht="30">
       <c r="A45" s="46"/>
       <c r="B45" s="32" t="s">
         <v>141</v>
@@ -2765,7 +2766,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="28.8">
+    <row r="46" spans="1:27" ht="30">
       <c r="A46" s="46"/>
       <c r="B46" s="33" t="s">
         <v>73</v>
@@ -2816,7 +2817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="28.8">
+    <row r="48" spans="1:27" ht="30">
       <c r="A48" s="46"/>
       <c r="B48" s="3" t="s">
         <v>111</v>
@@ -2853,7 +2854,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="27">
+    <row r="49" spans="1:27" ht="26.25">
       <c r="A49" s="46"/>
       <c r="B49" s="33" t="s">
         <v>110</v>
@@ -2892,7 +2893,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="57.6">
+    <row r="50" spans="1:27" ht="60">
       <c r="A50" s="46"/>
       <c r="B50" s="33" t="s">
         <v>104</v>
@@ -2929,7 +2930,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="72">
+    <row r="51" spans="1:27" ht="75">
       <c r="A51" s="46"/>
       <c r="B51" s="33" t="s">
         <v>105</v>
@@ -2966,7 +2967,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="43.2">
+    <row r="52" spans="1:27" ht="60">
       <c r="A52" s="46"/>
       <c r="B52" s="3" t="s">
         <v>158</v>
@@ -3003,7 +3004,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="72">
+    <row r="53" spans="1:27" ht="90">
       <c r="A53" s="46"/>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -3040,7 +3041,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="57.6">
+    <row r="54" spans="1:27" ht="60">
       <c r="A54" s="46"/>
       <c r="B54" s="3" t="s">
         <v>100</v>
@@ -3077,7 +3078,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="57.6">
+    <row r="55" spans="1:27" ht="60">
       <c r="A55" s="46"/>
       <c r="B55" s="3" t="s">
         <v>79</v>
@@ -3116,7 +3117,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="93.6">
+    <row r="56" spans="1:27" ht="94.5">
       <c r="A56" s="46"/>
       <c r="B56" s="3" t="s">
         <v>170</v>
@@ -3153,7 +3154,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="100.8">
+    <row r="57" spans="1:27" ht="105">
       <c r="A57" s="46"/>
       <c r="B57" s="3" t="s">
         <v>167</v>
@@ -3227,7 +3228,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="43.2">
+    <row r="59" spans="1:27" ht="45">
       <c r="A59" s="46"/>
       <c r="B59" s="3" t="s">
         <v>147</v>
@@ -3264,7 +3265,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="57.6">
+    <row r="60" spans="1:27" ht="60">
       <c r="A60" s="46"/>
       <c r="B60" s="3" t="s">
         <v>146</v>
@@ -3301,7 +3302,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="28.8">
+    <row r="61" spans="1:27" ht="45">
       <c r="A61" s="46"/>
       <c r="B61" s="3" t="s">
         <v>106</v>
@@ -3337,7 +3338,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="27.6">
+    <row r="62" spans="1:27" ht="26.25">
       <c r="A62" s="46"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3374,7 +3375,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="41.4">
+    <row r="63" spans="1:27" ht="39">
       <c r="A63" s="46"/>
       <c r="B63" s="3" t="s">
         <v>150</v>
@@ -3411,7 +3412,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="41.4">
+    <row r="64" spans="1:27" ht="38.25">
       <c r="A64" s="46"/>
       <c r="B64" s="3" t="s">
         <v>163</v>
@@ -3448,7 +3449,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="78">
+    <row r="65" spans="1:27" ht="78.75">
       <c r="A65" s="46"/>
       <c r="B65" s="3" t="s">
         <v>177</v>
@@ -3485,7 +3486,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="14.4">
+    <row r="66" spans="1:27" ht="15">
       <c r="A66" s="46"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3510,7 +3511,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="14.4">
+    <row r="67" spans="1:27" ht="15">
       <c r="A67" s="46"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -3535,7 +3536,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="14.4">
+    <row r="68" spans="1:27" ht="15">
       <c r="A68" s="46"/>
       <c r="B68" s="3"/>
       <c r="C68" s="15"/>
@@ -3564,7 +3565,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="14.4">
+    <row r="69" spans="1:27" ht="15">
       <c r="A69" s="48"/>
       <c r="B69" s="3"/>
       <c r="C69" s="15"/>
@@ -3593,7 +3594,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="14.4">
+    <row r="70" spans="1:27" ht="15">
       <c r="A70" s="48"/>
       <c r="B70" s="3"/>
       <c r="C70" s="15"/>
@@ -3622,7 +3623,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="14.4">
+    <row r="71" spans="1:27" ht="15">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="15"/>
@@ -3651,7 +3652,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="14.4">
+    <row r="72" spans="1:27" ht="15">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="15"/>
@@ -3680,7 +3681,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="14.4">
+    <row r="73" spans="1:27" ht="15">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="15"/>
@@ -3709,7 +3710,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="14.4">
+    <row r="74" spans="1:27" ht="15">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="15"/>
@@ -3738,7 +3739,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="14.4">
+    <row r="75" spans="1:27" ht="15">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="15"/>
@@ -3767,7 +3768,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="14.4">
+    <row r="76" spans="1:27" ht="15">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="15"/>
@@ -3796,7 +3797,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="14.4">
+    <row r="77" spans="1:27" ht="15">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="15"/>
@@ -3825,7 +3826,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="14.4">
+    <row r="78" spans="1:27" ht="15">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="15"/>
@@ -3854,7 +3855,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="14.4">
+    <row r="79" spans="1:27" ht="15">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="15"/>
@@ -3883,7 +3884,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="14.4">
+    <row r="80" spans="1:27" ht="15">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="15"/>
@@ -3912,7 +3913,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="14.4">
+    <row r="81" spans="1:27" ht="15">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="15"/>
@@ -3941,7 +3942,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="14.4">
+    <row r="82" spans="1:27" ht="15">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="15"/>
@@ -3970,7 +3971,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="14.4">
+    <row r="83" spans="1:27" ht="15">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="15"/>
@@ -3999,7 +4000,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="14.4">
+    <row r="84" spans="1:27" ht="15">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="15"/>
@@ -4028,7 +4029,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="14.4">
+    <row r="85" spans="1:27" ht="15">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="15"/>
@@ -4057,7 +4058,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="14.4">
+    <row r="86" spans="1:27" ht="15">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="15"/>
@@ -4086,7 +4087,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="14.4">
+    <row r="87" spans="1:27" ht="15">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="15"/>
@@ -4115,7 +4116,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="14.4">
+    <row r="88" spans="1:27" ht="15">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="15"/>
@@ -4144,7 +4145,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="14.4">
+    <row r="89" spans="1:27" ht="15">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="15"/>
@@ -4173,7 +4174,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="14.4">
+    <row r="90" spans="1:27" ht="15">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
@@ -4202,7 +4203,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="14.4">
+    <row r="91" spans="1:27" ht="15">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="15"/>
@@ -4231,7 +4232,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="14.4">
+    <row r="92" spans="1:27" ht="15">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="15"/>
@@ -4260,7 +4261,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="14.4">
+    <row r="93" spans="1:27" ht="15">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="15"/>
@@ -4289,7 +4290,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="14.4">
+    <row r="94" spans="1:27" ht="15">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="15"/>
@@ -4318,7 +4319,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="14.4">
+    <row r="95" spans="1:27" ht="15">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="15"/>
@@ -4347,7 +4348,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="14.4">
+    <row r="96" spans="1:27" ht="15">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="15"/>
@@ -4376,7 +4377,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="14.4">
+    <row r="97" spans="1:27" ht="15">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
@@ -4405,7 +4406,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="14.4">
+    <row r="98" spans="1:27" ht="15">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="15"/>
@@ -4434,7 +4435,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="14.4">
+    <row r="99" spans="1:27" ht="15">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="15"/>
@@ -4463,7 +4464,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="14.4">
+    <row r="100" spans="1:27" ht="15">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
@@ -4492,7 +4493,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="14.4">
+    <row r="101" spans="1:27" ht="15">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="15"/>
@@ -4521,7 +4522,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="14.4">
+    <row r="102" spans="1:27" ht="15">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="15"/>
@@ -4550,7 +4551,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="14.4">
+    <row r="103" spans="1:27" ht="15">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="15"/>
@@ -4579,7 +4580,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="14.4">
+    <row r="104" spans="1:27" ht="15">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="15"/>
@@ -4608,7 +4609,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="14.4">
+    <row r="105" spans="1:27" ht="15">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="15"/>
@@ -4637,7 +4638,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="14.4">
+    <row r="106" spans="1:27" ht="15">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="15"/>
@@ -4666,7 +4667,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="14.4">
+    <row r="107" spans="1:27" ht="15">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="15"/>
@@ -4695,7 +4696,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="14.4">
+    <row r="108" spans="1:27" ht="15">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="15"/>
@@ -4724,7 +4725,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="14.4">
+    <row r="109" spans="1:27" ht="15">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="15"/>
@@ -4753,7 +4754,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="14.4">
+    <row r="110" spans="1:27" ht="15">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="15"/>
@@ -4782,7 +4783,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="14.4">
+    <row r="111" spans="1:27" ht="15">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="15"/>
@@ -4811,7 +4812,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="14.4">
+    <row r="112" spans="1:27" ht="15">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="15"/>
@@ -4840,7 +4841,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="14.4">
+    <row r="113" spans="1:27" ht="15">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="15"/>
@@ -4869,7 +4870,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="14.4">
+    <row r="114" spans="1:27" ht="15">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="15"/>
@@ -4898,7 +4899,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="14.4">
+    <row r="115" spans="1:27" ht="15">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="15"/>
@@ -4927,7 +4928,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="14.4">
+    <row r="116" spans="1:27" ht="15">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="15"/>
@@ -4956,7 +4957,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="14.4">
+    <row r="117" spans="1:27" ht="15">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="15"/>
@@ -4985,7 +4986,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="14.4">
+    <row r="118" spans="1:27" ht="15">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="15"/>
@@ -5014,7 +5015,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="14.4">
+    <row r="119" spans="1:27" ht="15">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="15"/>
@@ -5043,7 +5044,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="14.4">
+    <row r="120" spans="1:27" ht="15">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="15"/>
@@ -5072,7 +5073,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="14.4">
+    <row r="121" spans="1:27" ht="15">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="15"/>
@@ -5101,7 +5102,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="14.4">
+    <row r="122" spans="1:27" ht="15">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="15"/>
@@ -5130,7 +5131,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="14.4">
+    <row r="123" spans="1:27" ht="15">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="15"/>
@@ -5159,7 +5160,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="14.4">
+    <row r="124" spans="1:27" ht="15">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="15"/>
@@ -5188,7 +5189,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="14.4">
+    <row r="125" spans="1:27" ht="15">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="15"/>
@@ -5217,7 +5218,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="14.4">
+    <row r="126" spans="1:27" ht="15">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="15"/>
@@ -5246,7 +5247,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="14.4">
+    <row r="127" spans="1:27" ht="15">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="15"/>
@@ -5275,7 +5276,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="14.4">
+    <row r="128" spans="1:27" ht="15">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="15"/>
@@ -5304,7 +5305,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="14.4">
+    <row r="129" spans="1:27" ht="15">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="15"/>
@@ -5333,7 +5334,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="14.4">
+    <row r="130" spans="1:27" ht="15">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="15"/>
@@ -5362,7 +5363,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="14.4">
+    <row r="131" spans="1:27" ht="15">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="15"/>
@@ -5391,7 +5392,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="14.4">
+    <row r="132" spans="1:27" ht="15">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="15"/>
@@ -5420,7 +5421,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="14.4">
+    <row r="133" spans="1:27" ht="15">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="15"/>
@@ -5449,7 +5450,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="14.4">
+    <row r="134" spans="1:27" ht="15">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="15"/>
@@ -5478,7 +5479,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="14.4">
+    <row r="135" spans="1:27" ht="15">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="15"/>
@@ -5507,7 +5508,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="14.4">
+    <row r="136" spans="1:27" ht="15">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="15"/>
@@ -5536,7 +5537,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="14.4">
+    <row r="137" spans="1:27" ht="15">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="15"/>
@@ -5565,7 +5566,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="14.4">
+    <row r="138" spans="1:27" ht="15">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="15"/>
@@ -5594,7 +5595,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="14.4">
+    <row r="139" spans="1:27" ht="15">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="15"/>
@@ -5623,7 +5624,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="14.4">
+    <row r="140" spans="1:27" ht="15">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="15"/>
@@ -5652,7 +5653,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="14.4">
+    <row r="141" spans="1:27" ht="15">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="15"/>
@@ -5681,7 +5682,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="14.4">
+    <row r="142" spans="1:27" ht="15">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="15"/>
@@ -5710,7 +5711,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="14.4">
+    <row r="143" spans="1:27" ht="15">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="15"/>
@@ -5739,7 +5740,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="14.4">
+    <row r="144" spans="1:27" ht="15">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="15"/>
@@ -5768,7 +5769,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="14.4">
+    <row r="145" spans="1:27" ht="15">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="15"/>
@@ -5797,7 +5798,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="14.4">
+    <row r="146" spans="1:27" ht="15">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="15"/>
@@ -5826,7 +5827,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="14.4">
+    <row r="147" spans="1:27" ht="15">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="15"/>
@@ -5855,7 +5856,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="14.4">
+    <row r="148" spans="1:27" ht="15">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="15"/>
@@ -5884,7 +5885,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="14.4">
+    <row r="149" spans="1:27" ht="15">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="15"/>
@@ -5913,7 +5914,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="14.4">
+    <row r="150" spans="1:27" ht="15">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="15"/>
@@ -5942,7 +5943,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="14.4">
+    <row r="151" spans="1:27" ht="15">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="15"/>
@@ -5971,7 +5972,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="14.4">
+    <row r="152" spans="1:27" ht="15">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="15"/>
@@ -6000,7 +6001,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="14.4">
+    <row r="153" spans="1:27" ht="15">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="15"/>
@@ -6029,7 +6030,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="14.4">
+    <row r="154" spans="1:27" ht="15">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="15"/>
@@ -6058,7 +6059,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="14.4">
+    <row r="155" spans="1:27" ht="15">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="15"/>
@@ -6087,7 +6088,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="14.4">
+    <row r="156" spans="1:27" ht="15">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="15"/>
@@ -6116,7 +6117,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="14.4">
+    <row r="157" spans="1:27" ht="15">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="15"/>
@@ -6145,7 +6146,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="14.4">
+    <row r="158" spans="1:27" ht="15">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="15"/>
@@ -6174,7 +6175,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="14.4">
+    <row r="159" spans="1:27" ht="15">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="15"/>
@@ -6203,7 +6204,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="14.4">
+    <row r="160" spans="1:27" ht="15">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="15"/>
@@ -6232,7 +6233,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="14.4">
+    <row r="161" spans="1:27" ht="15">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="15"/>
@@ -6261,7 +6262,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="14.4">
+    <row r="162" spans="1:27" ht="15">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="15"/>
@@ -6290,7 +6291,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="14.4">
+    <row r="163" spans="1:27" ht="15">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="15"/>
@@ -6319,7 +6320,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="14.4">
+    <row r="164" spans="1:27" ht="15">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="15"/>
@@ -6348,7 +6349,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="14.4">
+    <row r="165" spans="1:27" ht="15">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="15"/>
@@ -6377,7 +6378,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="14.4">
+    <row r="166" spans="1:27" ht="15">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="15"/>
@@ -6406,7 +6407,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="14.4">
+    <row r="167" spans="1:27" ht="15">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="15"/>
@@ -6435,7 +6436,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="14.4">
+    <row r="168" spans="1:27" ht="15">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="15"/>
@@ -6464,7 +6465,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="14.4">
+    <row r="169" spans="1:27" ht="15">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="15"/>
@@ -6493,7 +6494,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="14.4">
+    <row r="170" spans="1:27" ht="15">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="15"/>
@@ -6522,7 +6523,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="14.4">
+    <row r="171" spans="1:27" ht="15">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="15"/>
@@ -6551,7 +6552,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="14.4">
+    <row r="172" spans="1:27" ht="15">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="15"/>
@@ -6580,7 +6581,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="14.4">
+    <row r="173" spans="1:27" ht="15">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="15"/>
@@ -6609,7 +6610,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="14.4">
+    <row r="174" spans="1:27" ht="15">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="15"/>
@@ -6638,7 +6639,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="14.4">
+    <row r="175" spans="1:27" ht="15">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="15"/>
@@ -6667,7 +6668,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="14.4">
+    <row r="176" spans="1:27" ht="15">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="15"/>
@@ -6696,7 +6697,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="14.4">
+    <row r="177" spans="1:27" ht="15">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="15"/>
@@ -6725,7 +6726,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="14.4">
+    <row r="178" spans="1:27" ht="15">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="15"/>
@@ -6754,7 +6755,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="14.4">
+    <row r="179" spans="1:27" ht="15">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="15"/>
@@ -6783,7 +6784,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="14.4">
+    <row r="180" spans="1:27" ht="15">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="15"/>
@@ -6812,7 +6813,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="14.4">
+    <row r="181" spans="1:27" ht="15">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="15"/>
@@ -6841,7 +6842,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="14.4">
+    <row r="182" spans="1:27" ht="15">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="15"/>
@@ -6870,7 +6871,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="14.4">
+    <row r="183" spans="1:27" ht="15">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="15"/>
@@ -6899,7 +6900,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="14.4">
+    <row r="184" spans="1:27" ht="15">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="15"/>
@@ -6928,7 +6929,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="14.4">
+    <row r="185" spans="1:27" ht="15">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="15"/>
@@ -6957,7 +6958,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="14.4">
+    <row r="186" spans="1:27" ht="15">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="15"/>
@@ -6986,7 +6987,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="14.4">
+    <row r="187" spans="1:27" ht="15">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="15"/>
@@ -7015,7 +7016,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="14.4">
+    <row r="188" spans="1:27" ht="15">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="15"/>
@@ -7044,7 +7045,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="14.4">
+    <row r="189" spans="1:27" ht="15">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="15"/>
@@ -7073,7 +7074,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="14.4">
+    <row r="190" spans="1:27" ht="15">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="15"/>
@@ -7102,7 +7103,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="14.4">
+    <row r="191" spans="1:27" ht="15">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="15"/>
@@ -7131,7 +7132,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="14.4">
+    <row r="192" spans="1:27" ht="15">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="15"/>
@@ -7160,7 +7161,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="14.4">
+    <row r="193" spans="1:27" ht="15">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="15"/>
@@ -7189,7 +7190,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="14.4">
+    <row r="194" spans="1:27" ht="15">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="15"/>
@@ -7218,7 +7219,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="14.4">
+    <row r="195" spans="1:27" ht="15">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="15"/>
@@ -7247,7 +7248,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="14.4">
+    <row r="196" spans="1:27" ht="15">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="15"/>
@@ -7276,7 +7277,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="14.4">
+    <row r="197" spans="1:27" ht="15">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="15"/>
@@ -7305,7 +7306,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" ht="14.4">
+    <row r="198" spans="1:27" ht="15">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="15"/>
@@ -7334,7 +7335,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="14.4">
+    <row r="199" spans="1:27" ht="15">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="15"/>
@@ -7363,7 +7364,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="14.4">
+    <row r="200" spans="1:27" ht="15">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="15"/>
@@ -7392,7 +7393,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="14.4">
+    <row r="201" spans="1:27" ht="15">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="15"/>
@@ -7421,7 +7422,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="14.4">
+    <row r="202" spans="1:27" ht="15">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="15"/>
@@ -7450,7 +7451,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="14.4">
+    <row r="203" spans="1:27" ht="15">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="15"/>
@@ -7479,7 +7480,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="14.4">
+    <row r="204" spans="1:27" ht="15">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="15"/>
@@ -7508,7 +7509,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="14.4">
+    <row r="205" spans="1:27" ht="15">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="15"/>
@@ -7537,7 +7538,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="14.4">
+    <row r="206" spans="1:27" ht="15">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="15"/>
@@ -7566,7 +7567,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="14.4">
+    <row r="207" spans="1:27" ht="15">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="15"/>
@@ -7595,7 +7596,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="14.4">
+    <row r="208" spans="1:27" ht="15">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="15"/>
@@ -7624,7 +7625,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="14.4">
+    <row r="209" spans="1:27" ht="15">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="15"/>
@@ -7653,7 +7654,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="14.4">
+    <row r="210" spans="1:27" ht="15">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="15"/>
@@ -7682,7 +7683,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="14.4">
+    <row r="211" spans="1:27" ht="15">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="15"/>
@@ -7711,7 +7712,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="14.4">
+    <row r="212" spans="1:27" ht="15">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="15"/>
@@ -7740,7 +7741,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="14.4">
+    <row r="213" spans="1:27" ht="15">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="15"/>
@@ -7769,7 +7770,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="14.4">
+    <row r="214" spans="1:27" ht="15">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="15"/>
@@ -7798,7 +7799,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="14.4">
+    <row r="215" spans="1:27" ht="15">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="15"/>
@@ -7827,7 +7828,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="14.4">
+    <row r="216" spans="1:27" ht="15">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="15"/>
@@ -7856,7 +7857,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="14.4">
+    <row r="217" spans="1:27" ht="15">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="15"/>
@@ -7885,7 +7886,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="14.4">
+    <row r="218" spans="1:27" ht="15">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="15"/>
@@ -7914,7 +7915,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="14.4">
+    <row r="219" spans="1:27" ht="15">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="15"/>
@@ -7943,7 +7944,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="14.4">
+    <row r="220" spans="1:27" ht="15">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="15"/>
@@ -7972,7 +7973,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="14.4">
+    <row r="221" spans="1:27" ht="15">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="15"/>
@@ -8001,7 +8002,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="14.4">
+    <row r="222" spans="1:27" ht="15">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="15"/>
@@ -8030,7 +8031,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="14.4">
+    <row r="223" spans="1:27" ht="15">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="15"/>
@@ -8059,7 +8060,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="14.4">
+    <row r="224" spans="1:27" ht="15">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="15"/>
@@ -8088,7 +8089,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="14.4">
+    <row r="225" spans="1:27" ht="15">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="15"/>
@@ -8117,7 +8118,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="14.4">
+    <row r="226" spans="1:27" ht="15">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="15"/>
@@ -8146,7 +8147,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="14.4">
+    <row r="227" spans="1:27" ht="15">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="15"/>
@@ -8175,7 +8176,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="14.4">
+    <row r="228" spans="1:27" ht="15">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="15"/>
@@ -8204,7 +8205,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="14.4">
+    <row r="229" spans="1:27" ht="15">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="15"/>
@@ -8233,7 +8234,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="14.4">
+    <row r="230" spans="1:27" ht="15">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="15"/>
@@ -8262,7 +8263,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="14.4">
+    <row r="231" spans="1:27" ht="15">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="15"/>
@@ -8291,7 +8292,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="14.4">
+    <row r="232" spans="1:27" ht="15">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="15"/>
@@ -8320,7 +8321,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="14.4">
+    <row r="233" spans="1:27" ht="15">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="15"/>
@@ -8349,7 +8350,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="14.4">
+    <row r="234" spans="1:27" ht="15">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="15"/>
@@ -8378,7 +8379,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="14.4">
+    <row r="235" spans="1:27" ht="15">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="15"/>
@@ -8407,7 +8408,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="14.4">
+    <row r="236" spans="1:27" ht="15">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="15"/>
@@ -8436,7 +8437,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="14.4">
+    <row r="237" spans="1:27" ht="15">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="15"/>
@@ -8465,7 +8466,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="14.4">
+    <row r="238" spans="1:27" ht="15">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="15"/>
@@ -8494,7 +8495,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="14.4">
+    <row r="239" spans="1:27" ht="15">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="15"/>
@@ -8523,7 +8524,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="14.4">
+    <row r="240" spans="1:27" ht="15">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="15"/>
@@ -8552,7 +8553,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="14.4">
+    <row r="241" spans="1:27" ht="15">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="15"/>
@@ -8581,7 +8582,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="14.4">
+    <row r="242" spans="1:27" ht="15">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="15"/>
@@ -8610,7 +8611,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="14.4">
+    <row r="243" spans="1:27" ht="15">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="15"/>
@@ -8639,7 +8640,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="14.4">
+    <row r="244" spans="1:27" ht="15">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="15"/>
@@ -8668,7 +8669,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="14.4">
+    <row r="245" spans="1:27" ht="15">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="15"/>
@@ -8697,7 +8698,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="14.4">
+    <row r="246" spans="1:27" ht="15">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="15"/>
@@ -8726,7 +8727,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="14.4">
+    <row r="247" spans="1:27" ht="15">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="15"/>
@@ -8755,7 +8756,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="14.4">
+    <row r="248" spans="1:27" ht="15">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="15"/>
@@ -8784,7 +8785,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="14.4">
+    <row r="249" spans="1:27" ht="15">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="15"/>
@@ -8813,7 +8814,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="14.4">
+    <row r="250" spans="1:27" ht="15">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="15"/>
@@ -8842,7 +8843,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="14.4">
+    <row r="251" spans="1:27" ht="15">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="15"/>
@@ -8871,7 +8872,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="14.4">
+    <row r="252" spans="1:27" ht="15">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="15"/>
@@ -8900,7 +8901,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="14.4">
+    <row r="253" spans="1:27" ht="15">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="15"/>
@@ -8929,7 +8930,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="14.4">
+    <row r="254" spans="1:27" ht="15">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="15"/>
@@ -8958,7 +8959,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="14.4">
+    <row r="255" spans="1:27" ht="15">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="15"/>
@@ -8987,7 +8988,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="14.4">
+    <row r="256" spans="1:27" ht="15">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="15"/>
@@ -9016,7 +9017,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="14.4">
+    <row r="257" spans="1:27" ht="15">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="15"/>
@@ -9045,7 +9046,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="14.4">
+    <row r="258" spans="1:27" ht="15">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="15"/>
@@ -9074,7 +9075,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="14.4">
+    <row r="259" spans="1:27" ht="15">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="15"/>
@@ -9103,7 +9104,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="14.4">
+    <row r="260" spans="1:27" ht="15">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="15"/>
@@ -9132,7 +9133,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="14.4">
+    <row r="261" spans="1:27" ht="15">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="15"/>
@@ -9161,7 +9162,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="14.4">
+    <row r="262" spans="1:27" ht="15">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="15"/>
@@ -9190,7 +9191,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="14.4">
+    <row r="263" spans="1:27" ht="15">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="15"/>
@@ -9219,7 +9220,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="14.4">
+    <row r="264" spans="1:27" ht="15">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="15"/>
@@ -9248,7 +9249,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="14.4">
+    <row r="265" spans="1:27" ht="15">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="15"/>
@@ -9277,7 +9278,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="14.4">
+    <row r="266" spans="1:27" ht="15">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="15"/>
@@ -9306,7 +9307,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="14.4">
+    <row r="267" spans="1:27" ht="15">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="15"/>
@@ -9335,7 +9336,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="14.4">
+    <row r="268" spans="1:27" ht="15">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="15"/>
@@ -9364,7 +9365,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="14.4">
+    <row r="269" spans="1:27" ht="15">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="15"/>
@@ -9393,7 +9394,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="14.4">
+    <row r="270" spans="1:27" ht="15">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="15"/>
@@ -9422,7 +9423,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="14.4">
+    <row r="271" spans="1:27" ht="15">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="15"/>
@@ -9451,7 +9452,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="14.4">
+    <row r="272" spans="1:27" ht="15">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="15"/>
@@ -9480,7 +9481,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="14.4">
+    <row r="273" spans="1:27" ht="15">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="15"/>
@@ -9509,7 +9510,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="14.4">
+    <row r="274" spans="1:27" ht="15">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="15"/>
@@ -9538,7 +9539,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="14.4">
+    <row r="275" spans="1:27" ht="15">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="15"/>
@@ -9567,7 +9568,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="14.4">
+    <row r="276" spans="1:27" ht="15">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="15"/>
@@ -9596,7 +9597,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="14.4">
+    <row r="277" spans="1:27" ht="15">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="15"/>
@@ -9625,7 +9626,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="14.4">
+    <row r="278" spans="1:27" ht="15">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="15"/>
@@ -9654,7 +9655,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="14.4">
+    <row r="279" spans="1:27" ht="15">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="15"/>
@@ -9683,7 +9684,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="14.4">
+    <row r="280" spans="1:27" ht="15">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="15"/>
@@ -9712,7 +9713,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="14.4">
+    <row r="281" spans="1:27" ht="15">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="15"/>
@@ -9741,7 +9742,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="14.4">
+    <row r="282" spans="1:27" ht="15">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="15"/>
@@ -9770,7 +9771,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="14.4">
+    <row r="283" spans="1:27" ht="15">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="15"/>
@@ -9799,7 +9800,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="14.4">
+    <row r="284" spans="1:27" ht="15">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="15"/>
@@ -9828,7 +9829,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="14.4">
+    <row r="285" spans="1:27" ht="15">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="15"/>
@@ -9857,7 +9858,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="14.4">
+    <row r="286" spans="1:27" ht="15">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="15"/>
@@ -9886,7 +9887,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="14.4">
+    <row r="287" spans="1:27" ht="15">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="15"/>
@@ -9915,7 +9916,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="14.4">
+    <row r="288" spans="1:27" ht="15">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="15"/>
@@ -9944,7 +9945,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="14.4">
+    <row r="289" spans="1:27" ht="15">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="15"/>
@@ -9973,7 +9974,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="14.4">
+    <row r="290" spans="1:27" ht="15">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="15"/>
@@ -10002,7 +10003,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="14.4">
+    <row r="291" spans="1:27" ht="15">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="15"/>
@@ -10031,7 +10032,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="14.4">
+    <row r="292" spans="1:27" ht="15">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="15"/>
@@ -10060,7 +10061,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="14.4">
+    <row r="293" spans="1:27" ht="15">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="15"/>
@@ -10089,7 +10090,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="14.4">
+    <row r="294" spans="1:27" ht="15">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="15"/>
@@ -10118,7 +10119,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="14.4">
+    <row r="295" spans="1:27" ht="15">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="15"/>
@@ -10147,7 +10148,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="14.4">
+    <row r="296" spans="1:27" ht="15">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="15"/>
@@ -10176,7 +10177,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="14.4">
+    <row r="297" spans="1:27" ht="15">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="15"/>
@@ -10205,7 +10206,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="14.4">
+    <row r="298" spans="1:27" ht="15">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="15"/>
@@ -10234,7 +10235,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="14.4">
+    <row r="299" spans="1:27" ht="15">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="15"/>
@@ -10263,7 +10264,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="14.4">
+    <row r="300" spans="1:27" ht="15">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="15"/>
@@ -10292,7 +10293,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="14.4">
+    <row r="301" spans="1:27" ht="15">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="15"/>
@@ -10321,7 +10322,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="14.4">
+    <row r="302" spans="1:27" ht="15">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="15"/>
@@ -10350,7 +10351,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="14.4">
+    <row r="303" spans="1:27" ht="15">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="15"/>
@@ -10379,7 +10380,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="14.4">
+    <row r="304" spans="1:27" ht="15">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="15"/>
@@ -10408,7 +10409,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="14.4">
+    <row r="305" spans="1:27" ht="15">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="15"/>
@@ -10437,7 +10438,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="14.4">
+    <row r="306" spans="1:27" ht="15">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="15"/>
@@ -10466,7 +10467,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="14.4">
+    <row r="307" spans="1:27" ht="15">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="15"/>
@@ -10495,7 +10496,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="14.4">
+    <row r="308" spans="1:27" ht="15">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="15"/>
@@ -10524,7 +10525,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="14.4">
+    <row r="309" spans="1:27" ht="15">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="15"/>
@@ -10553,7 +10554,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="14.4">
+    <row r="310" spans="1:27" ht="15">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="15"/>
@@ -10582,7 +10583,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="14.4">
+    <row r="311" spans="1:27" ht="15">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="15"/>
@@ -10611,7 +10612,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="14.4">
+    <row r="312" spans="1:27" ht="15">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="15"/>
@@ -10640,7 +10641,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="14.4">
+    <row r="313" spans="1:27" ht="15">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="15"/>
@@ -10669,7 +10670,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="14.4">
+    <row r="314" spans="1:27" ht="15">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="15"/>
@@ -10698,7 +10699,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="14.4">
+    <row r="315" spans="1:27" ht="15">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="15"/>
@@ -10727,7 +10728,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="14.4">
+    <row r="316" spans="1:27" ht="15">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="15"/>
@@ -10756,7 +10757,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="14.4">
+    <row r="317" spans="1:27" ht="15">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="15"/>
@@ -10785,7 +10786,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="14.4">
+    <row r="318" spans="1:27" ht="15">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="15"/>
@@ -10814,7 +10815,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="14.4">
+    <row r="319" spans="1:27" ht="15">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="15"/>
@@ -10843,7 +10844,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="14.4">
+    <row r="320" spans="1:27" ht="15">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="15"/>
@@ -10872,7 +10873,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="14.4">
+    <row r="321" spans="1:27" ht="15">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="15"/>
@@ -10901,7 +10902,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="14.4">
+    <row r="322" spans="1:27" ht="15">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="15"/>
@@ -10930,7 +10931,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="14.4">
+    <row r="323" spans="1:27" ht="15">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="15"/>
@@ -10959,7 +10960,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="14.4">
+    <row r="324" spans="1:27" ht="15">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="15"/>
@@ -10988,7 +10989,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="14.4">
+    <row r="325" spans="1:27" ht="15">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="15"/>
@@ -11017,7 +11018,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="14.4">
+    <row r="326" spans="1:27" ht="15">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="15"/>
@@ -11046,7 +11047,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="14.4">
+    <row r="327" spans="1:27" ht="15">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="15"/>
@@ -11075,7 +11076,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="14.4">
+    <row r="328" spans="1:27" ht="15">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="15"/>
@@ -11104,7 +11105,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="14.4">
+    <row r="329" spans="1:27" ht="15">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="15"/>
@@ -11133,7 +11134,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="14.4">
+    <row r="330" spans="1:27" ht="15">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="15"/>
@@ -11162,7 +11163,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="14.4">
+    <row r="331" spans="1:27" ht="15">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="15"/>
@@ -11191,7 +11192,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="14.4">
+    <row r="332" spans="1:27" ht="15">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="15"/>
@@ -11220,7 +11221,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="14.4">
+    <row r="333" spans="1:27" ht="15">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="15"/>
@@ -11249,7 +11250,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="14.4">
+    <row r="334" spans="1:27" ht="15">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="15"/>
@@ -11278,7 +11279,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="14.4">
+    <row r="335" spans="1:27" ht="15">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="15"/>
@@ -11307,7 +11308,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="14.4">
+    <row r="336" spans="1:27" ht="15">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="15"/>
@@ -11336,7 +11337,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="14.4">
+    <row r="337" spans="1:27" ht="15">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="15"/>
@@ -11365,7 +11366,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="14.4">
+    <row r="338" spans="1:27" ht="15">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="15"/>
@@ -11394,7 +11395,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="14.4">
+    <row r="339" spans="1:27" ht="15">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="15"/>
@@ -11423,7 +11424,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="14.4">
+    <row r="340" spans="1:27" ht="15">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="15"/>
@@ -11452,7 +11453,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="14.4">
+    <row r="341" spans="1:27" ht="15">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="15"/>
@@ -11481,7 +11482,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="14.4">
+    <row r="342" spans="1:27" ht="15">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="15"/>
@@ -11510,7 +11511,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="14.4">
+    <row r="343" spans="1:27" ht="15">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="15"/>
@@ -11539,7 +11540,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="14.4">
+    <row r="344" spans="1:27" ht="15">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="15"/>
@@ -11568,7 +11569,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="14.4">
+    <row r="345" spans="1:27" ht="15">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="15"/>
@@ -11597,7 +11598,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="14.4">
+    <row r="346" spans="1:27" ht="15">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="15"/>
@@ -11626,7 +11627,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="14.4">
+    <row r="347" spans="1:27" ht="15">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="15"/>
@@ -11655,7 +11656,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="14.4">
+    <row r="348" spans="1:27" ht="15">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="15"/>
@@ -11684,7 +11685,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="14.4">
+    <row r="349" spans="1:27" ht="15">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="15"/>
@@ -11713,7 +11714,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="14.4">
+    <row r="350" spans="1:27" ht="15">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="15"/>
@@ -11742,7 +11743,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="14.4">
+    <row r="351" spans="1:27" ht="15">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="15"/>
@@ -11771,7 +11772,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="14.4">
+    <row r="352" spans="1:27" ht="15">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="15"/>
@@ -11800,7 +11801,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="14.4">
+    <row r="353" spans="1:27" ht="15">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="15"/>
@@ -11829,7 +11830,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="14.4">
+    <row r="354" spans="1:27" ht="15">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="15"/>
@@ -11858,7 +11859,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="14.4">
+    <row r="355" spans="1:27" ht="15">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="15"/>
@@ -11887,7 +11888,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="14.4">
+    <row r="356" spans="1:27" ht="15">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="15"/>
@@ -11916,7 +11917,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="14.4">
+    <row r="357" spans="1:27" ht="15">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="15"/>
@@ -11945,7 +11946,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="14.4">
+    <row r="358" spans="1:27" ht="15">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="15"/>
@@ -11974,7 +11975,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="14.4">
+    <row r="359" spans="1:27" ht="15">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="15"/>
@@ -12003,7 +12004,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="14.4">
+    <row r="360" spans="1:27" ht="15">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="15"/>
@@ -12032,7 +12033,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="14.4">
+    <row r="361" spans="1:27" ht="15">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="15"/>
@@ -12061,7 +12062,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="14.4">
+    <row r="362" spans="1:27" ht="15">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="15"/>
@@ -12090,7 +12091,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="14.4">
+    <row r="363" spans="1:27" ht="15">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="15"/>
@@ -12119,7 +12120,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="14.4">
+    <row r="364" spans="1:27" ht="15">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="15"/>
@@ -12148,7 +12149,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="14.4">
+    <row r="365" spans="1:27" ht="15">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="15"/>
@@ -12177,7 +12178,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="14.4">
+    <row r="366" spans="1:27" ht="15">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="15"/>
@@ -12206,7 +12207,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="14.4">
+    <row r="367" spans="1:27" ht="15">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="15"/>
@@ -12235,7 +12236,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="14.4">
+    <row r="368" spans="1:27" ht="15">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="15"/>
@@ -12264,7 +12265,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="14.4">
+    <row r="369" spans="1:27" ht="15">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="15"/>
@@ -12293,7 +12294,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="14.4">
+    <row r="370" spans="1:27" ht="15">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="15"/>
@@ -12322,7 +12323,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="14.4">
+    <row r="371" spans="1:27" ht="15">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="15"/>
@@ -12351,7 +12352,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="14.4">
+    <row r="372" spans="1:27" ht="15">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="15"/>
@@ -12380,7 +12381,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="14.4">
+    <row r="373" spans="1:27" ht="15">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="15"/>
@@ -12409,7 +12410,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="14.4">
+    <row r="374" spans="1:27" ht="15">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="15"/>
@@ -12438,7 +12439,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="14.4">
+    <row r="375" spans="1:27" ht="15">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="15"/>
@@ -12467,7 +12468,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="14.4">
+    <row r="376" spans="1:27" ht="15">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="15"/>
@@ -12496,7 +12497,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="14.4">
+    <row r="377" spans="1:27" ht="15">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="15"/>
@@ -12525,7 +12526,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="14.4">
+    <row r="378" spans="1:27" ht="15">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="15"/>
@@ -12554,7 +12555,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="14.4">
+    <row r="379" spans="1:27" ht="15">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="15"/>
@@ -12583,7 +12584,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="14.4">
+    <row r="380" spans="1:27" ht="15">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="15"/>
@@ -12612,7 +12613,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="14.4">
+    <row r="381" spans="1:27" ht="15">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="15"/>
@@ -12641,7 +12642,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="14.4">
+    <row r="382" spans="1:27" ht="15">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="15"/>
@@ -12670,7 +12671,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="14.4">
+    <row r="383" spans="1:27" ht="15">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="15"/>
@@ -12699,7 +12700,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="14.4">
+    <row r="384" spans="1:27" ht="15">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="15"/>
@@ -12728,7 +12729,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="14.4">
+    <row r="385" spans="1:27" ht="15">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="15"/>
@@ -12757,7 +12758,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="14.4">
+    <row r="386" spans="1:27" ht="15">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="15"/>
@@ -12786,7 +12787,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="14.4">
+    <row r="387" spans="1:27" ht="15">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="15"/>
@@ -12815,7 +12816,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="14.4">
+    <row r="388" spans="1:27" ht="15">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="15"/>
@@ -12844,7 +12845,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="14.4">
+    <row r="389" spans="1:27" ht="15">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="15"/>
@@ -12873,7 +12874,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="14.4">
+    <row r="390" spans="1:27" ht="15">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="15"/>
@@ -12902,7 +12903,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="14.4">
+    <row r="391" spans="1:27" ht="15">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="15"/>
@@ -12931,7 +12932,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="14.4">
+    <row r="392" spans="1:27" ht="15">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="15"/>
@@ -12960,7 +12961,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="14.4">
+    <row r="393" spans="1:27" ht="15">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="15"/>
@@ -12989,7 +12990,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="14.4">
+    <row r="394" spans="1:27" ht="15">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="15"/>
@@ -13018,7 +13019,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="14.4">
+    <row r="395" spans="1:27" ht="15">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="15"/>
@@ -13047,7 +13048,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="14.4">
+    <row r="396" spans="1:27" ht="15">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="15"/>
@@ -13076,7 +13077,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="14.4">
+    <row r="397" spans="1:27" ht="15">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="15"/>
@@ -13105,7 +13106,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="14.4">
+    <row r="398" spans="1:27" ht="15">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="15"/>
@@ -13134,7 +13135,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="14.4">
+    <row r="399" spans="1:27" ht="15">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="15"/>
@@ -13163,7 +13164,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="14.4">
+    <row r="400" spans="1:27" ht="15">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="15"/>
@@ -13192,7 +13193,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="14.4">
+    <row r="401" spans="1:27" ht="15">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="15"/>
@@ -13221,7 +13222,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="14.4">
+    <row r="402" spans="1:27" ht="15">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="15"/>
@@ -13250,7 +13251,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="14.4">
+    <row r="403" spans="1:27" ht="15">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="15"/>
@@ -13279,7 +13280,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="14.4">
+    <row r="404" spans="1:27" ht="15">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="15"/>
@@ -13308,7 +13309,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="14.4">
+    <row r="405" spans="1:27" ht="15">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="15"/>
@@ -13337,7 +13338,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="14.4">
+    <row r="406" spans="1:27" ht="15">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="15"/>
@@ -13366,7 +13367,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="14.4">
+    <row r="407" spans="1:27" ht="15">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="15"/>
@@ -13395,7 +13396,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="14.4">
+    <row r="408" spans="1:27" ht="15">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="15"/>
@@ -13424,7 +13425,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="14.4">
+    <row r="409" spans="1:27" ht="15">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="15"/>
@@ -13453,7 +13454,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="14.4">
+    <row r="410" spans="1:27" ht="15">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="15"/>
@@ -13482,7 +13483,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="14.4">
+    <row r="411" spans="1:27" ht="15">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="15"/>
@@ -13511,7 +13512,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="14.4">
+    <row r="412" spans="1:27" ht="15">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="15"/>
@@ -13540,7 +13541,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="14.4">
+    <row r="413" spans="1:27" ht="15">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="15"/>
@@ -13569,7 +13570,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="14.4">
+    <row r="414" spans="1:27" ht="15">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="15"/>
@@ -13598,7 +13599,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="14.4">
+    <row r="415" spans="1:27" ht="15">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="15"/>
@@ -13627,7 +13628,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="14.4">
+    <row r="416" spans="1:27" ht="15">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="15"/>
@@ -13656,7 +13657,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="14.4">
+    <row r="417" spans="1:27" ht="15">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="15"/>
@@ -13685,7 +13686,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="14.4">
+    <row r="418" spans="1:27" ht="15">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="15"/>
@@ -13714,7 +13715,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="14.4">
+    <row r="419" spans="1:27" ht="15">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="15"/>
@@ -13743,7 +13744,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="14.4">
+    <row r="420" spans="1:27" ht="15">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="15"/>
@@ -13772,7 +13773,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="14.4">
+    <row r="421" spans="1:27" ht="15">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="15"/>
@@ -13801,7 +13802,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="14.4">
+    <row r="422" spans="1:27" ht="15">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="15"/>
@@ -13830,7 +13831,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="14.4">
+    <row r="423" spans="1:27" ht="15">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="15"/>
@@ -13859,7 +13860,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="14.4">
+    <row r="424" spans="1:27" ht="15">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="15"/>
@@ -13888,7 +13889,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="14.4">
+    <row r="425" spans="1:27" ht="15">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="15"/>
@@ -13917,7 +13918,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="14.4">
+    <row r="426" spans="1:27" ht="15">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="15"/>
@@ -13946,7 +13947,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="14.4">
+    <row r="427" spans="1:27" ht="15">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="15"/>
@@ -13975,7 +13976,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="14.4">
+    <row r="428" spans="1:27" ht="15">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="15"/>
@@ -14004,7 +14005,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="14.4">
+    <row r="429" spans="1:27" ht="15">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="15"/>
@@ -14033,7 +14034,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="14.4">
+    <row r="430" spans="1:27" ht="15">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="15"/>
@@ -14062,7 +14063,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="14.4">
+    <row r="431" spans="1:27" ht="15">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="15"/>
@@ -14091,7 +14092,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="14.4">
+    <row r="432" spans="1:27" ht="15">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="15"/>
@@ -14120,7 +14121,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="14.4">
+    <row r="433" spans="1:27" ht="15">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="15"/>
@@ -14149,7 +14150,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="14.4">
+    <row r="434" spans="1:27" ht="15">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="15"/>
@@ -14178,7 +14179,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="14.4">
+    <row r="435" spans="1:27" ht="15">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="15"/>
@@ -14207,7 +14208,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="14.4">
+    <row r="436" spans="1:27" ht="15">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="15"/>
@@ -14236,7 +14237,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="14.4">
+    <row r="437" spans="1:27" ht="15">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="15"/>
@@ -14265,7 +14266,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="14.4">
+    <row r="438" spans="1:27" ht="15">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="15"/>
@@ -14294,7 +14295,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="14.4">
+    <row r="439" spans="1:27" ht="15">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="15"/>
@@ -14323,7 +14324,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="14.4">
+    <row r="440" spans="1:27" ht="15">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="15"/>
@@ -14352,7 +14353,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="14.4">
+    <row r="441" spans="1:27" ht="15">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="15"/>
@@ -14381,7 +14382,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="14.4">
+    <row r="442" spans="1:27" ht="15">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="15"/>
@@ -14410,7 +14411,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="14.4">
+    <row r="443" spans="1:27" ht="15">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="15"/>
@@ -14439,7 +14440,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="14.4">
+    <row r="444" spans="1:27" ht="15">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="15"/>
@@ -14468,7 +14469,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="14.4">
+    <row r="445" spans="1:27" ht="15">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="15"/>
@@ -14497,7 +14498,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="14.4">
+    <row r="446" spans="1:27" ht="15">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="15"/>
@@ -14526,7 +14527,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="14.4">
+    <row r="447" spans="1:27" ht="15">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="15"/>
@@ -14555,7 +14556,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="14.4">
+    <row r="448" spans="1:27" ht="15">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="15"/>
@@ -14584,7 +14585,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="14.4">
+    <row r="449" spans="1:27" ht="15">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="15"/>
@@ -14613,7 +14614,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="14.4">
+    <row r="450" spans="1:27" ht="15">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="15"/>
@@ -14642,7 +14643,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="14.4">
+    <row r="451" spans="1:27" ht="15">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="15"/>
@@ -14671,7 +14672,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="14.4">
+    <row r="452" spans="1:27" ht="15">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="15"/>
@@ -14700,7 +14701,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="14.4">
+    <row r="453" spans="1:27" ht="15">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="15"/>
@@ -14729,7 +14730,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="14.4">
+    <row r="454" spans="1:27" ht="15">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="15"/>
@@ -14758,7 +14759,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="14.4">
+    <row r="455" spans="1:27" ht="15">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="15"/>
@@ -14787,7 +14788,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="14.4">
+    <row r="456" spans="1:27" ht="15">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="15"/>
@@ -14816,7 +14817,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="14.4">
+    <row r="457" spans="1:27" ht="15">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="15"/>
@@ -14845,7 +14846,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="14.4">
+    <row r="458" spans="1:27" ht="15">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="15"/>
@@ -14874,7 +14875,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="14.4">
+    <row r="459" spans="1:27" ht="15">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="15"/>
@@ -14903,7 +14904,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="14.4">
+    <row r="460" spans="1:27" ht="15">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="15"/>
@@ -14932,7 +14933,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="14.4">
+    <row r="461" spans="1:27" ht="15">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="15"/>
@@ -14961,7 +14962,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="14.4">
+    <row r="462" spans="1:27" ht="15">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="15"/>
@@ -14990,7 +14991,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="14.4">
+    <row r="463" spans="1:27" ht="15">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="15"/>
@@ -15019,7 +15020,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="14.4">
+    <row r="464" spans="1:27" ht="15">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="15"/>
@@ -15048,7 +15049,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
     </row>
-    <row r="465" spans="1:27" ht="14.4">
+    <row r="465" spans="1:27" ht="15">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="15"/>
@@ -15077,7 +15078,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" ht="14.4">
+    <row r="466" spans="1:27" ht="15">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="15"/>
@@ -15106,7 +15107,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" ht="14.4">
+    <row r="467" spans="1:27" ht="15">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="15"/>
@@ -15135,7 +15136,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" ht="14.4">
+    <row r="468" spans="1:27" ht="15">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="15"/>
@@ -15164,7 +15165,7 @@
       <c r="Z468" s="4"/>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" ht="14.4">
+    <row r="469" spans="1:27" ht="15">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="15"/>
@@ -15193,7 +15194,7 @@
       <c r="Z469" s="4"/>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" ht="14.4">
+    <row r="470" spans="1:27" ht="15">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="15"/>
@@ -15222,7 +15223,7 @@
       <c r="Z470" s="4"/>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" ht="14.4">
+    <row r="471" spans="1:27" ht="15">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="15"/>
@@ -15251,7 +15252,7 @@
       <c r="Z471" s="4"/>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" ht="14.4">
+    <row r="472" spans="1:27" ht="15">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="15"/>
@@ -15280,7 +15281,7 @@
       <c r="Z472" s="4"/>
       <c r="AA472" s="4"/>
     </row>
-    <row r="473" spans="1:27" ht="14.4">
+    <row r="473" spans="1:27" ht="15">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="15"/>
@@ -15309,7 +15310,7 @@
       <c r="Z473" s="4"/>
       <c r="AA473" s="4"/>
     </row>
-    <row r="474" spans="1:27" ht="14.4">
+    <row r="474" spans="1:27" ht="15">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="15"/>
@@ -15338,7 +15339,7 @@
       <c r="Z474" s="4"/>
       <c r="AA474" s="4"/>
     </row>
-    <row r="475" spans="1:27" ht="14.4">
+    <row r="475" spans="1:27" ht="15">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="15"/>
@@ -15367,7 +15368,7 @@
       <c r="Z475" s="4"/>
       <c r="AA475" s="4"/>
     </row>
-    <row r="476" spans="1:27" ht="14.4">
+    <row r="476" spans="1:27" ht="15">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="15"/>
@@ -15396,7 +15397,7 @@
       <c r="Z476" s="4"/>
       <c r="AA476" s="4"/>
     </row>
-    <row r="477" spans="1:27" ht="14.4">
+    <row r="477" spans="1:27" ht="15">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="15"/>
@@ -15425,7 +15426,7 @@
       <c r="Z477" s="4"/>
       <c r="AA477" s="4"/>
     </row>
-    <row r="478" spans="1:27" ht="14.4">
+    <row r="478" spans="1:27" ht="15">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="15"/>
@@ -15454,7 +15455,7 @@
       <c r="Z478" s="4"/>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" ht="14.4">
+    <row r="479" spans="1:27" ht="15">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="15"/>
@@ -15483,7 +15484,7 @@
       <c r="Z479" s="4"/>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" ht="14.4">
+    <row r="480" spans="1:27" ht="15">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="15"/>
@@ -15512,7 +15513,7 @@
       <c r="Z480" s="4"/>
       <c r="AA480" s="4"/>
     </row>
-    <row r="481" spans="1:27" ht="14.4">
+    <row r="481" spans="1:27" ht="15">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="15"/>
@@ -15541,7 +15542,7 @@
       <c r="Z481" s="4"/>
       <c r="AA481" s="4"/>
     </row>
-    <row r="482" spans="1:27" ht="14.4">
+    <row r="482" spans="1:27" ht="15">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="15"/>
@@ -15570,7 +15571,7 @@
       <c r="Z482" s="4"/>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" ht="14.4">
+    <row r="483" spans="1:27" ht="15">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="15"/>
@@ -15599,7 +15600,7 @@
       <c r="Z483" s="4"/>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" ht="14.4">
+    <row r="484" spans="1:27" ht="15">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="15"/>
@@ -15628,7 +15629,7 @@
       <c r="Z484" s="4"/>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" ht="14.4">
+    <row r="485" spans="1:27" ht="15">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="15"/>
@@ -15657,7 +15658,7 @@
       <c r="Z485" s="4"/>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" ht="14.4">
+    <row r="486" spans="1:27" ht="15">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="15"/>
@@ -15686,7 +15687,7 @@
       <c r="Z486" s="4"/>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" ht="14.4">
+    <row r="487" spans="1:27" ht="15">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="15"/>
@@ -15715,7 +15716,7 @@
       <c r="Z487" s="4"/>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" ht="14.4">
+    <row r="488" spans="1:27" ht="15">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="15"/>
@@ -15744,7 +15745,7 @@
       <c r="Z488" s="4"/>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" ht="14.4">
+    <row r="489" spans="1:27" ht="15">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="15"/>
@@ -15773,7 +15774,7 @@
       <c r="Z489" s="4"/>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" ht="14.4">
+    <row r="490" spans="1:27" ht="15">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="15"/>
@@ -15802,7 +15803,7 @@
       <c r="Z490" s="4"/>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" ht="14.4">
+    <row r="491" spans="1:27" ht="15">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="15"/>
@@ -15831,7 +15832,7 @@
       <c r="Z491" s="4"/>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" ht="14.4">
+    <row r="492" spans="1:27" ht="15">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="15"/>
@@ -15860,7 +15861,7 @@
       <c r="Z492" s="4"/>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" ht="14.4">
+    <row r="493" spans="1:27" ht="15">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="15"/>
@@ -15889,7 +15890,7 @@
       <c r="Z493" s="4"/>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" ht="14.4">
+    <row r="494" spans="1:27" ht="15">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="15"/>
@@ -15918,7 +15919,7 @@
       <c r="Z494" s="4"/>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" ht="14.4">
+    <row r="495" spans="1:27" ht="15">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="15"/>
@@ -15947,7 +15948,7 @@
       <c r="Z495" s="4"/>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" ht="14.4">
+    <row r="496" spans="1:27" ht="15">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="15"/>
@@ -15976,7 +15977,7 @@
       <c r="Z496" s="4"/>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" ht="14.4">
+    <row r="497" spans="1:27" ht="15">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="15"/>
@@ -16005,7 +16006,7 @@
       <c r="Z497" s="4"/>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" ht="14.4">
+    <row r="498" spans="1:27" ht="15">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="15"/>
@@ -16034,7 +16035,7 @@
       <c r="Z498" s="4"/>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" ht="14.4">
+    <row r="499" spans="1:27" ht="15">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="15"/>
@@ -16063,7 +16064,7 @@
       <c r="Z499" s="4"/>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" ht="14.4">
+    <row r="500" spans="1:27" ht="15">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="15"/>
@@ -16092,7 +16093,7 @@
       <c r="Z500" s="4"/>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" ht="14.4">
+    <row r="501" spans="1:27" ht="15">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="15"/>
@@ -16121,7 +16122,7 @@
       <c r="Z501" s="4"/>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" ht="14.4">
+    <row r="502" spans="1:27" ht="15">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="15"/>
@@ -16150,7 +16151,7 @@
       <c r="Z502" s="4"/>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" ht="14.4">
+    <row r="503" spans="1:27" ht="15">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="15"/>
@@ -16179,7 +16180,7 @@
       <c r="Z503" s="4"/>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" ht="14.4">
+    <row r="504" spans="1:27" ht="15">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="15"/>
@@ -16208,7 +16209,7 @@
       <c r="Z504" s="4"/>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" ht="14.4">
+    <row r="505" spans="1:27" ht="15">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="15"/>
@@ -16237,7 +16238,7 @@
       <c r="Z505" s="4"/>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" ht="14.4">
+    <row r="506" spans="1:27" ht="15">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="15"/>
@@ -16266,7 +16267,7 @@
       <c r="Z506" s="4"/>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" ht="14.4">
+    <row r="507" spans="1:27" ht="15">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="15"/>
@@ -16295,7 +16296,7 @@
       <c r="Z507" s="4"/>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" ht="14.4">
+    <row r="508" spans="1:27" ht="15">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="15"/>
@@ -16324,7 +16325,7 @@
       <c r="Z508" s="4"/>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" ht="14.4">
+    <row r="509" spans="1:27" ht="15">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="15"/>
@@ -16353,7 +16354,7 @@
       <c r="Z509" s="4"/>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" ht="14.4">
+    <row r="510" spans="1:27" ht="15">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="15"/>
@@ -16382,7 +16383,7 @@
       <c r="Z510" s="4"/>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" ht="14.4">
+    <row r="511" spans="1:27" ht="15">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="15"/>
@@ -16411,7 +16412,7 @@
       <c r="Z511" s="4"/>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" ht="14.4">
+    <row r="512" spans="1:27" ht="15">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="15"/>
@@ -16440,7 +16441,7 @@
       <c r="Z512" s="4"/>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" ht="14.4">
+    <row r="513" spans="1:27" ht="15">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="15"/>
@@ -16469,7 +16470,7 @@
       <c r="Z513" s="4"/>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" ht="14.4">
+    <row r="514" spans="1:27" ht="15">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="15"/>
@@ -16498,7 +16499,7 @@
       <c r="Z514" s="4"/>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" ht="14.4">
+    <row r="515" spans="1:27" ht="15">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="15"/>
@@ -16527,7 +16528,7 @@
       <c r="Z515" s="4"/>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" ht="14.4">
+    <row r="516" spans="1:27" ht="15">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="15"/>
@@ -16556,7 +16557,7 @@
       <c r="Z516" s="4"/>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" ht="14.4">
+    <row r="517" spans="1:27" ht="15">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="15"/>
@@ -16585,7 +16586,7 @@
       <c r="Z517" s="4"/>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" ht="14.4">
+    <row r="518" spans="1:27" ht="15">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="15"/>
@@ -16614,7 +16615,7 @@
       <c r="Z518" s="4"/>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" ht="14.4">
+    <row r="519" spans="1:27" ht="15">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="15"/>
@@ -16643,7 +16644,7 @@
       <c r="Z519" s="4"/>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" ht="14.4">
+    <row r="520" spans="1:27" ht="15">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="15"/>
@@ -16672,7 +16673,7 @@
       <c r="Z520" s="4"/>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" ht="14.4">
+    <row r="521" spans="1:27" ht="15">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="15"/>
@@ -16701,7 +16702,7 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" ht="14.4">
+    <row r="522" spans="1:27" ht="15">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="15"/>
@@ -16730,7 +16731,7 @@
       <c r="Z522" s="4"/>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" ht="14.4">
+    <row r="523" spans="1:27" ht="15">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="15"/>
@@ -16759,7 +16760,7 @@
       <c r="Z523" s="4"/>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" ht="14.4">
+    <row r="524" spans="1:27" ht="15">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="15"/>
@@ -16788,7 +16789,7 @@
       <c r="Z524" s="4"/>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" ht="14.4">
+    <row r="525" spans="1:27" ht="15">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="15"/>
@@ -16817,7 +16818,7 @@
       <c r="Z525" s="4"/>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" ht="14.4">
+    <row r="526" spans="1:27" ht="15">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="15"/>
@@ -16846,7 +16847,7 @@
       <c r="Z526" s="4"/>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" ht="14.4">
+    <row r="527" spans="1:27" ht="15">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="15"/>
@@ -16875,7 +16876,7 @@
       <c r="Z527" s="4"/>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" ht="14.4">
+    <row r="528" spans="1:27" ht="15">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="15"/>
@@ -16904,7 +16905,7 @@
       <c r="Z528" s="4"/>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" ht="14.4">
+    <row r="529" spans="1:27" ht="15">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="15"/>
@@ -16933,7 +16934,7 @@
       <c r="Z529" s="4"/>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" ht="14.4">
+    <row r="530" spans="1:27" ht="15">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="15"/>
@@ -16962,7 +16963,7 @@
       <c r="Z530" s="4"/>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" ht="14.4">
+    <row r="531" spans="1:27" ht="15">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="15"/>
@@ -16991,7 +16992,7 @@
       <c r="Z531" s="4"/>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" ht="14.4">
+    <row r="532" spans="1:27" ht="15">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="15"/>
@@ -17020,7 +17021,7 @@
       <c r="Z532" s="4"/>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" ht="14.4">
+    <row r="533" spans="1:27" ht="15">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="15"/>
@@ -17049,7 +17050,7 @@
       <c r="Z533" s="4"/>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" ht="14.4">
+    <row r="534" spans="1:27" ht="15">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="15"/>
@@ -17078,7 +17079,7 @@
       <c r="Z534" s="4"/>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" ht="14.4">
+    <row r="535" spans="1:27" ht="15">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="15"/>
@@ -17107,7 +17108,7 @@
       <c r="Z535" s="4"/>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" ht="14.4">
+    <row r="536" spans="1:27" ht="15">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="15"/>
@@ -17136,7 +17137,7 @@
       <c r="Z536" s="4"/>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" ht="14.4">
+    <row r="537" spans="1:27" ht="15">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="15"/>
@@ -17165,7 +17166,7 @@
       <c r="Z537" s="4"/>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" ht="14.4">
+    <row r="538" spans="1:27" ht="15">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="15"/>
@@ -17194,7 +17195,7 @@
       <c r="Z538" s="4"/>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" ht="14.4">
+    <row r="539" spans="1:27" ht="15">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="15"/>
@@ -17223,7 +17224,7 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" ht="14.4">
+    <row r="540" spans="1:27" ht="15">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="15"/>
@@ -17252,7 +17253,7 @@
       <c r="Z540" s="4"/>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" ht="14.4">
+    <row r="541" spans="1:27" ht="15">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="15"/>
@@ -17281,7 +17282,7 @@
       <c r="Z541" s="4"/>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" ht="14.4">
+    <row r="542" spans="1:27" ht="15">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="15"/>
@@ -17310,7 +17311,7 @@
       <c r="Z542" s="4"/>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" ht="14.4">
+    <row r="543" spans="1:27" ht="15">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="15"/>
@@ -17339,7 +17340,7 @@
       <c r="Z543" s="4"/>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" ht="14.4">
+    <row r="544" spans="1:27" ht="15">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="15"/>
@@ -17368,7 +17369,7 @@
       <c r="Z544" s="4"/>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" ht="14.4">
+    <row r="545" spans="1:27" ht="15">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="15"/>
@@ -17397,7 +17398,7 @@
       <c r="Z545" s="4"/>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" ht="14.4">
+    <row r="546" spans="1:27" ht="15">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="15"/>
@@ -17426,7 +17427,7 @@
       <c r="Z546" s="4"/>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" ht="14.4">
+    <row r="547" spans="1:27" ht="15">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="15"/>
@@ -17455,7 +17456,7 @@
       <c r="Z547" s="4"/>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" ht="14.4">
+    <row r="548" spans="1:27" ht="15">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="15"/>
@@ -17484,7 +17485,7 @@
       <c r="Z548" s="4"/>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" ht="14.4">
+    <row r="549" spans="1:27" ht="15">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="15"/>
@@ -17513,7 +17514,7 @@
       <c r="Z549" s="4"/>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" ht="14.4">
+    <row r="550" spans="1:27" ht="15">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="15"/>
@@ -17542,7 +17543,7 @@
       <c r="Z550" s="4"/>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" ht="14.4">
+    <row r="551" spans="1:27" ht="15">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="15"/>
@@ -17571,7 +17572,7 @@
       <c r="Z551" s="4"/>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" ht="14.4">
+    <row r="552" spans="1:27" ht="15">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="15"/>
@@ -17600,7 +17601,7 @@
       <c r="Z552" s="4"/>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" ht="14.4">
+    <row r="553" spans="1:27" ht="15">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="15"/>
@@ -17629,7 +17630,7 @@
       <c r="Z553" s="4"/>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" ht="14.4">
+    <row r="554" spans="1:27" ht="15">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="15"/>
@@ -17658,7 +17659,7 @@
       <c r="Z554" s="4"/>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" ht="14.4">
+    <row r="555" spans="1:27" ht="15">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="15"/>
@@ -17687,7 +17688,7 @@
       <c r="Z555" s="4"/>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" ht="14.4">
+    <row r="556" spans="1:27" ht="15">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="15"/>
@@ -17716,7 +17717,7 @@
       <c r="Z556" s="4"/>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" ht="14.4">
+    <row r="557" spans="1:27" ht="15">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="15"/>
@@ -17745,7 +17746,7 @@
       <c r="Z557" s="4"/>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" ht="14.4">
+    <row r="558" spans="1:27" ht="15">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="15"/>
@@ -17774,7 +17775,7 @@
       <c r="Z558" s="4"/>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" ht="14.4">
+    <row r="559" spans="1:27" ht="15">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="15"/>
@@ -17803,7 +17804,7 @@
       <c r="Z559" s="4"/>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" ht="14.4">
+    <row r="560" spans="1:27" ht="15">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="15"/>
@@ -17832,7 +17833,7 @@
       <c r="Z560" s="4"/>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" ht="14.4">
+    <row r="561" spans="1:27" ht="15">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="15"/>
@@ -17861,7 +17862,7 @@
       <c r="Z561" s="4"/>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" ht="14.4">
+    <row r="562" spans="1:27" ht="15">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="15"/>
@@ -17890,7 +17891,7 @@
       <c r="Z562" s="4"/>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" ht="14.4">
+    <row r="563" spans="1:27" ht="15">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="15"/>
@@ -17919,7 +17920,7 @@
       <c r="Z563" s="4"/>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" ht="14.4">
+    <row r="564" spans="1:27" ht="15">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="15"/>
@@ -17948,7 +17949,7 @@
       <c r="Z564" s="4"/>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" ht="14.4">
+    <row r="565" spans="1:27" ht="15">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="15"/>
@@ -17977,7 +17978,7 @@
       <c r="Z565" s="4"/>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" ht="14.4">
+    <row r="566" spans="1:27" ht="15">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="15"/>
@@ -18006,7 +18007,7 @@
       <c r="Z566" s="4"/>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" ht="14.4">
+    <row r="567" spans="1:27" ht="15">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="15"/>
@@ -18035,7 +18036,7 @@
       <c r="Z567" s="4"/>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" ht="14.4">
+    <row r="568" spans="1:27" ht="15">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="15"/>
@@ -18064,7 +18065,7 @@
       <c r="Z568" s="4"/>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" ht="14.4">
+    <row r="569" spans="1:27" ht="15">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="15"/>
@@ -18093,7 +18094,7 @@
       <c r="Z569" s="4"/>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" ht="14.4">
+    <row r="570" spans="1:27" ht="15">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="15"/>
@@ -18122,7 +18123,7 @@
       <c r="Z570" s="4"/>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" ht="14.4">
+    <row r="571" spans="1:27" ht="15">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="15"/>
@@ -18151,7 +18152,7 @@
       <c r="Z571" s="4"/>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" ht="14.4">
+    <row r="572" spans="1:27" ht="15">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="15"/>
@@ -18180,7 +18181,7 @@
       <c r="Z572" s="4"/>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" ht="14.4">
+    <row r="573" spans="1:27" ht="15">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="15"/>
@@ -18209,7 +18210,7 @@
       <c r="Z573" s="4"/>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" ht="14.4">
+    <row r="574" spans="1:27" ht="15">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="15"/>
@@ -18238,7 +18239,7 @@
       <c r="Z574" s="4"/>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" ht="14.4">
+    <row r="575" spans="1:27" ht="15">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="15"/>
@@ -18267,7 +18268,7 @@
       <c r="Z575" s="4"/>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" ht="14.4">
+    <row r="576" spans="1:27" ht="15">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="15"/>
@@ -18296,7 +18297,7 @@
       <c r="Z576" s="4"/>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" ht="14.4">
+    <row r="577" spans="1:27" ht="15">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="15"/>
@@ -18325,7 +18326,7 @@
       <c r="Z577" s="4"/>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" ht="14.4">
+    <row r="578" spans="1:27" ht="15">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="15"/>
@@ -18354,7 +18355,7 @@
       <c r="Z578" s="4"/>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" ht="14.4">
+    <row r="579" spans="1:27" ht="15">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="15"/>
@@ -18383,7 +18384,7 @@
       <c r="Z579" s="4"/>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" ht="14.4">
+    <row r="580" spans="1:27" ht="15">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="15"/>
@@ -18412,7 +18413,7 @@
       <c r="Z580" s="4"/>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" ht="14.4">
+    <row r="581" spans="1:27" ht="15">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="15"/>
@@ -18441,7 +18442,7 @@
       <c r="Z581" s="4"/>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" ht="14.4">
+    <row r="582" spans="1:27" ht="15">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="15"/>
@@ -18470,7 +18471,7 @@
       <c r="Z582" s="4"/>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" ht="14.4">
+    <row r="583" spans="1:27" ht="15">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="15"/>
@@ -18499,7 +18500,7 @@
       <c r="Z583" s="4"/>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" ht="14.4">
+    <row r="584" spans="1:27" ht="15">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="15"/>
@@ -18528,7 +18529,7 @@
       <c r="Z584" s="4"/>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" ht="14.4">
+    <row r="585" spans="1:27" ht="15">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="15"/>
@@ -18557,7 +18558,7 @@
       <c r="Z585" s="4"/>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" ht="14.4">
+    <row r="586" spans="1:27" ht="15">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="15"/>
@@ -18586,7 +18587,7 @@
       <c r="Z586" s="4"/>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" ht="14.4">
+    <row r="587" spans="1:27" ht="15">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="15"/>
@@ -18615,7 +18616,7 @@
       <c r="Z587" s="4"/>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" ht="14.4">
+    <row r="588" spans="1:27" ht="15">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="15"/>
@@ -18644,7 +18645,7 @@
       <c r="Z588" s="4"/>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" ht="14.4">
+    <row r="589" spans="1:27" ht="15">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="15"/>
@@ -18673,7 +18674,7 @@
       <c r="Z589" s="4"/>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" ht="14.4">
+    <row r="590" spans="1:27" ht="15">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="15"/>
@@ -18702,7 +18703,7 @@
       <c r="Z590" s="4"/>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" ht="14.4">
+    <row r="591" spans="1:27" ht="15">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="15"/>
@@ -18731,7 +18732,7 @@
       <c r="Z591" s="4"/>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" ht="14.4">
+    <row r="592" spans="1:27" ht="15">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="15"/>
@@ -18760,7 +18761,7 @@
       <c r="Z592" s="4"/>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" ht="14.4">
+    <row r="593" spans="1:27" ht="15">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="15"/>
@@ -18789,7 +18790,7 @@
       <c r="Z593" s="4"/>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" ht="14.4">
+    <row r="594" spans="1:27" ht="15">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="15"/>
@@ -18818,7 +18819,7 @@
       <c r="Z594" s="4"/>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" ht="14.4">
+    <row r="595" spans="1:27" ht="15">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="15"/>
@@ -18847,7 +18848,7 @@
       <c r="Z595" s="4"/>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" ht="14.4">
+    <row r="596" spans="1:27" ht="15">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="15"/>
@@ -18876,7 +18877,7 @@
       <c r="Z596" s="4"/>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" ht="14.4">
+    <row r="597" spans="1:27" ht="15">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="15"/>
@@ -18905,7 +18906,7 @@
       <c r="Z597" s="4"/>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" ht="14.4">
+    <row r="598" spans="1:27" ht="15">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="15"/>
@@ -18934,7 +18935,7 @@
       <c r="Z598" s="4"/>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" ht="14.4">
+    <row r="599" spans="1:27" ht="15">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="15"/>
@@ -18963,7 +18964,7 @@
       <c r="Z599" s="4"/>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" ht="14.4">
+    <row r="600" spans="1:27" ht="15">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="15"/>
@@ -18992,7 +18993,7 @@
       <c r="Z600" s="4"/>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" ht="14.4">
+    <row r="601" spans="1:27" ht="15">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="15"/>
@@ -19021,7 +19022,7 @@
       <c r="Z601" s="4"/>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" ht="14.4">
+    <row r="602" spans="1:27" ht="15">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="15"/>
@@ -19050,7 +19051,7 @@
       <c r="Z602" s="4"/>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" ht="14.4">
+    <row r="603" spans="1:27" ht="15">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="15"/>
@@ -19079,7 +19080,7 @@
       <c r="Z603" s="4"/>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" ht="14.4">
+    <row r="604" spans="1:27" ht="15">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="15"/>
@@ -19108,7 +19109,7 @@
       <c r="Z604" s="4"/>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" ht="14.4">
+    <row r="605" spans="1:27" ht="15">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="15"/>
@@ -19137,7 +19138,7 @@
       <c r="Z605" s="4"/>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" ht="14.4">
+    <row r="606" spans="1:27" ht="15">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="15"/>
@@ -19166,7 +19167,7 @@
       <c r="Z606" s="4"/>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" ht="14.4">
+    <row r="607" spans="1:27" ht="15">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="15"/>
@@ -19195,7 +19196,7 @@
       <c r="Z607" s="4"/>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" ht="14.4">
+    <row r="608" spans="1:27" ht="15">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="15"/>
@@ -19224,7 +19225,7 @@
       <c r="Z608" s="4"/>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" ht="14.4">
+    <row r="609" spans="1:27" ht="15">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="15"/>
@@ -19253,7 +19254,7 @@
       <c r="Z609" s="4"/>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" ht="14.4">
+    <row r="610" spans="1:27" ht="15">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="15"/>
@@ -19282,7 +19283,7 @@
       <c r="Z610" s="4"/>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" ht="14.4">
+    <row r="611" spans="1:27" ht="15">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="15"/>
@@ -19311,7 +19312,7 @@
       <c r="Z611" s="4"/>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" ht="14.4">
+    <row r="612" spans="1:27" ht="15">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="15"/>
@@ -19340,7 +19341,7 @@
       <c r="Z612" s="4"/>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" ht="14.4">
+    <row r="613" spans="1:27" ht="15">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="15"/>
@@ -19369,7 +19370,7 @@
       <c r="Z613" s="4"/>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" ht="14.4">
+    <row r="614" spans="1:27" ht="15">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="15"/>
@@ -19398,7 +19399,7 @@
       <c r="Z614" s="4"/>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" ht="14.4">
+    <row r="615" spans="1:27" ht="15">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="15"/>
@@ -19427,7 +19428,7 @@
       <c r="Z615" s="4"/>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" ht="14.4">
+    <row r="616" spans="1:27" ht="15">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="15"/>
@@ -19456,7 +19457,7 @@
       <c r="Z616" s="4"/>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" ht="14.4">
+    <row r="617" spans="1:27" ht="15">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="15"/>
@@ -19485,7 +19486,7 @@
       <c r="Z617" s="4"/>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" ht="14.4">
+    <row r="618" spans="1:27" ht="15">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="15"/>
@@ -19514,7 +19515,7 @@
       <c r="Z618" s="4"/>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" ht="14.4">
+    <row r="619" spans="1:27" ht="15">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="15"/>
@@ -19543,7 +19544,7 @@
       <c r="Z619" s="4"/>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" ht="14.4">
+    <row r="620" spans="1:27" ht="15">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="15"/>
@@ -19572,7 +19573,7 @@
       <c r="Z620" s="4"/>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" ht="14.4">
+    <row r="621" spans="1:27" ht="15">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="15"/>
@@ -19601,7 +19602,7 @@
       <c r="Z621" s="4"/>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" ht="14.4">
+    <row r="622" spans="1:27" ht="15">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="15"/>
@@ -19630,7 +19631,7 @@
       <c r="Z622" s="4"/>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" ht="14.4">
+    <row r="623" spans="1:27" ht="15">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="15"/>
@@ -19659,7 +19660,7 @@
       <c r="Z623" s="4"/>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" ht="14.4">
+    <row r="624" spans="1:27" ht="15">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="15"/>
@@ -19688,7 +19689,7 @@
       <c r="Z624" s="4"/>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" ht="14.4">
+    <row r="625" spans="1:27" ht="15">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="15"/>
@@ -19717,7 +19718,7 @@
       <c r="Z625" s="4"/>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" ht="14.4">
+    <row r="626" spans="1:27" ht="15">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="15"/>
@@ -19746,7 +19747,7 @@
       <c r="Z626" s="4"/>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" ht="14.4">
+    <row r="627" spans="1:27" ht="15">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="15"/>
@@ -19775,7 +19776,7 @@
       <c r="Z627" s="4"/>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" ht="14.4">
+    <row r="628" spans="1:27" ht="15">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="15"/>
@@ -19804,7 +19805,7 @@
       <c r="Z628" s="4"/>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" ht="14.4">
+    <row r="629" spans="1:27" ht="15">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="15"/>
@@ -19833,7 +19834,7 @@
       <c r="Z629" s="4"/>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" ht="14.4">
+    <row r="630" spans="1:27" ht="15">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="15"/>
@@ -19862,7 +19863,7 @@
       <c r="Z630" s="4"/>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" ht="14.4">
+    <row r="631" spans="1:27" ht="15">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="15"/>
@@ -19891,7 +19892,7 @@
       <c r="Z631" s="4"/>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" ht="14.4">
+    <row r="632" spans="1:27" ht="15">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="15"/>
@@ -19920,7 +19921,7 @@
       <c r="Z632" s="4"/>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" ht="14.4">
+    <row r="633" spans="1:27" ht="15">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="15"/>
@@ -19949,7 +19950,7 @@
       <c r="Z633" s="4"/>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" ht="14.4">
+    <row r="634" spans="1:27" ht="15">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="15"/>
@@ -19978,7 +19979,7 @@
       <c r="Z634" s="4"/>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" ht="14.4">
+    <row r="635" spans="1:27" ht="15">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="15"/>
@@ -20007,7 +20008,7 @@
       <c r="Z635" s="4"/>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" ht="14.4">
+    <row r="636" spans="1:27" ht="15">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="15"/>
@@ -20036,7 +20037,7 @@
       <c r="Z636" s="4"/>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" ht="14.4">
+    <row r="637" spans="1:27" ht="15">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="15"/>
@@ -20065,7 +20066,7 @@
       <c r="Z637" s="4"/>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" ht="14.4">
+    <row r="638" spans="1:27" ht="15">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="15"/>
@@ -20094,7 +20095,7 @@
       <c r="Z638" s="4"/>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" ht="14.4">
+    <row r="639" spans="1:27" ht="15">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="15"/>
@@ -20123,7 +20124,7 @@
       <c r="Z639" s="4"/>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" ht="14.4">
+    <row r="640" spans="1:27" ht="15">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="15"/>
@@ -20152,7 +20153,7 @@
       <c r="Z640" s="4"/>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" ht="14.4">
+    <row r="641" spans="1:27" ht="15">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="15"/>
@@ -20181,7 +20182,7 @@
       <c r="Z641" s="4"/>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" ht="14.4">
+    <row r="642" spans="1:27" ht="15">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="15"/>
@@ -20210,7 +20211,7 @@
       <c r="Z642" s="4"/>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" ht="14.4">
+    <row r="643" spans="1:27" ht="15">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="15"/>
@@ -20239,7 +20240,7 @@
       <c r="Z643" s="4"/>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" ht="14.4">
+    <row r="644" spans="1:27" ht="15">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="15"/>
@@ -20268,7 +20269,7 @@
       <c r="Z644" s="4"/>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" ht="14.4">
+    <row r="645" spans="1:27" ht="15">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="15"/>
@@ -20297,7 +20298,7 @@
       <c r="Z645" s="4"/>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" ht="14.4">
+    <row r="646" spans="1:27" ht="15">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="15"/>
@@ -20326,7 +20327,7 @@
       <c r="Z646" s="4"/>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" ht="14.4">
+    <row r="647" spans="1:27" ht="15">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="15"/>
@@ -20355,7 +20356,7 @@
       <c r="Z647" s="4"/>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" ht="14.4">
+    <row r="648" spans="1:27" ht="15">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="15"/>
@@ -20384,7 +20385,7 @@
       <c r="Z648" s="4"/>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" ht="14.4">
+    <row r="649" spans="1:27" ht="15">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="15"/>
@@ -20413,7 +20414,7 @@
       <c r="Z649" s="4"/>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" ht="14.4">
+    <row r="650" spans="1:27" ht="15">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="15"/>
@@ -20442,7 +20443,7 @@
       <c r="Z650" s="4"/>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" ht="14.4">
+    <row r="651" spans="1:27" ht="15">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="15"/>
@@ -20471,7 +20472,7 @@
       <c r="Z651" s="4"/>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" ht="14.4">
+    <row r="652" spans="1:27" ht="15">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="15"/>
@@ -20500,7 +20501,7 @@
       <c r="Z652" s="4"/>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" ht="14.4">
+    <row r="653" spans="1:27" ht="15">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="15"/>
@@ -20529,7 +20530,7 @@
       <c r="Z653" s="4"/>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" ht="14.4">
+    <row r="654" spans="1:27" ht="15">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="15"/>
@@ -20558,7 +20559,7 @@
       <c r="Z654" s="4"/>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" ht="14.4">
+    <row r="655" spans="1:27" ht="15">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="15"/>
@@ -20587,7 +20588,7 @@
       <c r="Z655" s="4"/>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" ht="14.4">
+    <row r="656" spans="1:27" ht="15">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="15"/>
@@ -20616,7 +20617,7 @@
       <c r="Z656" s="4"/>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" ht="14.4">
+    <row r="657" spans="1:27" ht="15">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="15"/>
@@ -20645,7 +20646,7 @@
       <c r="Z657" s="4"/>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" ht="14.4">
+    <row r="658" spans="1:27" ht="15">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="15"/>
@@ -20674,7 +20675,7 @@
       <c r="Z658" s="4"/>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" ht="14.4">
+    <row r="659" spans="1:27" ht="15">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="15"/>
@@ -20703,7 +20704,7 @@
       <c r="Z659" s="4"/>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" ht="14.4">
+    <row r="660" spans="1:27" ht="15">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="15"/>
@@ -20732,7 +20733,7 @@
       <c r="Z660" s="4"/>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" ht="14.4">
+    <row r="661" spans="1:27" ht="15">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="15"/>
@@ -20761,7 +20762,7 @@
       <c r="Z661" s="4"/>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" ht="14.4">
+    <row r="662" spans="1:27" ht="15">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="15"/>
@@ -20790,7 +20791,7 @@
       <c r="Z662" s="4"/>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" ht="14.4">
+    <row r="663" spans="1:27" ht="15">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="15"/>
@@ -20819,7 +20820,7 @@
       <c r="Z663" s="4"/>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" ht="14.4">
+    <row r="664" spans="1:27" ht="15">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="15"/>
@@ -20848,7 +20849,7 @@
       <c r="Z664" s="4"/>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" ht="14.4">
+    <row r="665" spans="1:27" ht="15">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="15"/>
@@ -20877,7 +20878,7 @@
       <c r="Z665" s="4"/>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" ht="14.4">
+    <row r="666" spans="1:27" ht="15">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="15"/>
@@ -20906,7 +20907,7 @@
       <c r="Z666" s="4"/>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" ht="14.4">
+    <row r="667" spans="1:27" ht="15">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="15"/>
@@ -20935,7 +20936,7 @@
       <c r="Z667" s="4"/>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" ht="14.4">
+    <row r="668" spans="1:27" ht="15">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="15"/>
@@ -20964,7 +20965,7 @@
       <c r="Z668" s="4"/>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" ht="14.4">
+    <row r="669" spans="1:27" ht="15">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="15"/>
@@ -20993,7 +20994,7 @@
       <c r="Z669" s="4"/>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" ht="14.4">
+    <row r="670" spans="1:27" ht="15">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="15"/>
@@ -21022,7 +21023,7 @@
       <c r="Z670" s="4"/>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" ht="14.4">
+    <row r="671" spans="1:27" ht="15">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="15"/>
@@ -21051,7 +21052,7 @@
       <c r="Z671" s="4"/>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" ht="14.4">
+    <row r="672" spans="1:27" ht="15">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="15"/>
@@ -21080,7 +21081,7 @@
       <c r="Z672" s="4"/>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" ht="14.4">
+    <row r="673" spans="1:27" ht="15">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="15"/>
@@ -21109,7 +21110,7 @@
       <c r="Z673" s="4"/>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" ht="14.4">
+    <row r="674" spans="1:27" ht="15">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="15"/>
@@ -21138,7 +21139,7 @@
       <c r="Z674" s="4"/>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" ht="14.4">
+    <row r="675" spans="1:27" ht="15">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="15"/>
@@ -21167,7 +21168,7 @@
       <c r="Z675" s="4"/>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" ht="14.4">
+    <row r="676" spans="1:27" ht="15">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="15"/>
@@ -21196,7 +21197,7 @@
       <c r="Z676" s="4"/>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" ht="14.4">
+    <row r="677" spans="1:27" ht="15">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="15"/>
@@ -21225,7 +21226,7 @@
       <c r="Z677" s="4"/>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" ht="14.4">
+    <row r="678" spans="1:27" ht="15">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="15"/>
@@ -21254,7 +21255,7 @@
       <c r="Z678" s="4"/>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" ht="14.4">
+    <row r="679" spans="1:27" ht="15">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="15"/>
@@ -21283,7 +21284,7 @@
       <c r="Z679" s="4"/>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" ht="14.4">
+    <row r="680" spans="1:27" ht="15">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="15"/>
@@ -21312,7 +21313,7 @@
       <c r="Z680" s="4"/>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" ht="14.4">
+    <row r="681" spans="1:27" ht="15">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="15"/>
@@ -21341,7 +21342,7 @@
       <c r="Z681" s="4"/>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" ht="14.4">
+    <row r="682" spans="1:27" ht="15">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="15"/>
@@ -21370,7 +21371,7 @@
       <c r="Z682" s="4"/>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" ht="14.4">
+    <row r="683" spans="1:27" ht="15">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="15"/>
@@ -21399,7 +21400,7 @@
       <c r="Z683" s="4"/>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" ht="14.4">
+    <row r="684" spans="1:27" ht="15">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="15"/>
@@ -21428,7 +21429,7 @@
       <c r="Z684" s="4"/>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" ht="14.4">
+    <row r="685" spans="1:27" ht="15">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="15"/>
@@ -21457,7 +21458,7 @@
       <c r="Z685" s="4"/>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" ht="14.4">
+    <row r="686" spans="1:27" ht="15">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="15"/>
@@ -21486,7 +21487,7 @@
       <c r="Z686" s="4"/>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" ht="14.4">
+    <row r="687" spans="1:27" ht="15">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="15"/>
@@ -21515,7 +21516,7 @@
       <c r="Z687" s="4"/>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" ht="14.4">
+    <row r="688" spans="1:27" ht="15">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="15"/>
@@ -21544,7 +21545,7 @@
       <c r="Z688" s="4"/>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" ht="14.4">
+    <row r="689" spans="1:27" ht="15">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="15"/>
@@ -21573,7 +21574,7 @@
       <c r="Z689" s="4"/>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" ht="14.4">
+    <row r="690" spans="1:27" ht="15">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="15"/>
@@ -21602,7 +21603,7 @@
       <c r="Z690" s="4"/>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" ht="14.4">
+    <row r="691" spans="1:27" ht="15">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="15"/>
@@ -21631,7 +21632,7 @@
       <c r="Z691" s="4"/>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" ht="14.4">
+    <row r="692" spans="1:27" ht="15">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="15"/>
@@ -21660,7 +21661,7 @@
       <c r="Z692" s="4"/>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" ht="14.4">
+    <row r="693" spans="1:27" ht="15">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="15"/>
@@ -21689,7 +21690,7 @@
       <c r="Z693" s="4"/>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" ht="14.4">
+    <row r="694" spans="1:27" ht="15">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="15"/>
@@ -21718,7 +21719,7 @@
       <c r="Z694" s="4"/>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" ht="14.4">
+    <row r="695" spans="1:27" ht="15">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="15"/>
@@ -21747,7 +21748,7 @@
       <c r="Z695" s="4"/>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" ht="14.4">
+    <row r="696" spans="1:27" ht="15">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="15"/>
@@ -21776,7 +21777,7 @@
       <c r="Z696" s="4"/>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" ht="14.4">
+    <row r="697" spans="1:27" ht="15">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="15"/>
@@ -21805,7 +21806,7 @@
       <c r="Z697" s="4"/>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" ht="14.4">
+    <row r="698" spans="1:27" ht="15">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="15"/>
@@ -21834,7 +21835,7 @@
       <c r="Z698" s="4"/>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" ht="14.4">
+    <row r="699" spans="1:27" ht="15">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="15"/>
@@ -21863,7 +21864,7 @@
       <c r="Z699" s="4"/>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" ht="14.4">
+    <row r="700" spans="1:27" ht="15">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="15"/>
@@ -21892,7 +21893,7 @@
       <c r="Z700" s="4"/>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" ht="14.4">
+    <row r="701" spans="1:27" ht="15">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="15"/>
@@ -21921,7 +21922,7 @@
       <c r="Z701" s="4"/>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" ht="14.4">
+    <row r="702" spans="1:27" ht="15">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="15"/>
@@ -21950,7 +21951,7 @@
       <c r="Z702" s="4"/>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" ht="14.4">
+    <row r="703" spans="1:27" ht="15">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="15"/>
@@ -21979,7 +21980,7 @@
       <c r="Z703" s="4"/>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" ht="14.4">
+    <row r="704" spans="1:27" ht="15">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="15"/>
@@ -22008,7 +22009,7 @@
       <c r="Z704" s="4"/>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" ht="14.4">
+    <row r="705" spans="1:27" ht="15">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="15"/>
@@ -22037,7 +22038,7 @@
       <c r="Z705" s="4"/>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" ht="14.4">
+    <row r="706" spans="1:27" ht="15">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="15"/>
@@ -22066,7 +22067,7 @@
       <c r="Z706" s="4"/>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" ht="14.4">
+    <row r="707" spans="1:27" ht="15">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="15"/>
@@ -22095,7 +22096,7 @@
       <c r="Z707" s="4"/>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" ht="14.4">
+    <row r="708" spans="1:27" ht="15">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="15"/>
@@ -22124,7 +22125,7 @@
       <c r="Z708" s="4"/>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" ht="14.4">
+    <row r="709" spans="1:27" ht="15">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="15"/>
@@ -22153,7 +22154,7 @@
       <c r="Z709" s="4"/>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" ht="14.4">
+    <row r="710" spans="1:27" ht="15">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="15"/>
@@ -22182,7 +22183,7 @@
       <c r="Z710" s="4"/>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" ht="14.4">
+    <row r="711" spans="1:27" ht="15">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="15"/>
@@ -22211,7 +22212,7 @@
       <c r="Z711" s="4"/>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" ht="14.4">
+    <row r="712" spans="1:27" ht="15">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="15"/>
@@ -22240,7 +22241,7 @@
       <c r="Z712" s="4"/>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" ht="14.4">
+    <row r="713" spans="1:27" ht="15">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="15"/>
@@ -22269,7 +22270,7 @@
       <c r="Z713" s="4"/>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" ht="14.4">
+    <row r="714" spans="1:27" ht="15">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="15"/>
@@ -22298,7 +22299,7 @@
       <c r="Z714" s="4"/>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" ht="14.4">
+    <row r="715" spans="1:27" ht="15">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="15"/>
@@ -22327,7 +22328,7 @@
       <c r="Z715" s="4"/>
       <c r="AA715" s="4"/>
     </row>
-    <row r="716" spans="1:27" ht="14.4">
+    <row r="716" spans="1:27" ht="15">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="15"/>
@@ -22356,7 +22357,7 @@
       <c r="Z716" s="4"/>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" ht="14.4">
+    <row r="717" spans="1:27" ht="15">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="15"/>
@@ -22385,7 +22386,7 @@
       <c r="Z717" s="4"/>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" ht="14.4">
+    <row r="718" spans="1:27" ht="15">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="15"/>
@@ -22414,7 +22415,7 @@
       <c r="Z718" s="4"/>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" ht="14.4">
+    <row r="719" spans="1:27" ht="15">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="15"/>
@@ -22443,7 +22444,7 @@
       <c r="Z719" s="4"/>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" ht="14.4">
+    <row r="720" spans="1:27" ht="15">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="15"/>
@@ -22472,7 +22473,7 @@
       <c r="Z720" s="4"/>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" ht="14.4">
+    <row r="721" spans="1:27" ht="15">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="15"/>
@@ -22501,7 +22502,7 @@
       <c r="Z721" s="4"/>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" ht="14.4">
+    <row r="722" spans="1:27" ht="15">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="15"/>
@@ -22530,7 +22531,7 @@
       <c r="Z722" s="4"/>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" ht="14.4">
+    <row r="723" spans="1:27" ht="15">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="15"/>
@@ -22559,7 +22560,7 @@
       <c r="Z723" s="4"/>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" ht="14.4">
+    <row r="724" spans="1:27" ht="15">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="15"/>
@@ -22588,7 +22589,7 @@
       <c r="Z724" s="4"/>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" ht="14.4">
+    <row r="725" spans="1:27" ht="15">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="15"/>
@@ -22617,7 +22618,7 @@
       <c r="Z725" s="4"/>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" ht="14.4">
+    <row r="726" spans="1:27" ht="15">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="15"/>
@@ -22646,7 +22647,7 @@
       <c r="Z726" s="4"/>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" ht="14.4">
+    <row r="727" spans="1:27" ht="15">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="15"/>
@@ -22675,7 +22676,7 @@
       <c r="Z727" s="4"/>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" ht="14.4">
+    <row r="728" spans="1:27" ht="15">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="15"/>
@@ -22704,7 +22705,7 @@
       <c r="Z728" s="4"/>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" ht="14.4">
+    <row r="729" spans="1:27" ht="15">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="15"/>
@@ -22733,7 +22734,7 @@
       <c r="Z729" s="4"/>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" ht="14.4">
+    <row r="730" spans="1:27" ht="15">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="15"/>
@@ -22762,7 +22763,7 @@
       <c r="Z730" s="4"/>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" ht="14.4">
+    <row r="731" spans="1:27" ht="15">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="15"/>
@@ -22791,7 +22792,7 @@
       <c r="Z731" s="4"/>
       <c r="AA731" s="4"/>
     </row>
-    <row r="732" spans="1:27" ht="14.4">
+    <row r="732" spans="1:27" ht="15">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="15"/>
@@ -22820,7 +22821,7 @@
       <c r="Z732" s="4"/>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" ht="14.4">
+    <row r="733" spans="1:27" ht="15">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="15"/>
@@ -22849,7 +22850,7 @@
       <c r="Z733" s="4"/>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" ht="14.4">
+    <row r="734" spans="1:27" ht="15">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="15"/>
@@ -22878,7 +22879,7 @@
       <c r="Z734" s="4"/>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" ht="14.4">
+    <row r="735" spans="1:27" ht="15">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="15"/>
@@ -22907,7 +22908,7 @@
       <c r="Z735" s="4"/>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" ht="14.4">
+    <row r="736" spans="1:27" ht="15">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="15"/>
@@ -22936,7 +22937,7 @@
       <c r="Z736" s="4"/>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" ht="14.4">
+    <row r="737" spans="1:27" ht="15">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="15"/>
@@ -22965,7 +22966,7 @@
       <c r="Z737" s="4"/>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" ht="14.4">
+    <row r="738" spans="1:27" ht="15">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="15"/>
@@ -22994,7 +22995,7 @@
       <c r="Z738" s="4"/>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" ht="14.4">
+    <row r="739" spans="1:27" ht="15">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="15"/>
@@ -23023,7 +23024,7 @@
       <c r="Z739" s="4"/>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" ht="14.4">
+    <row r="740" spans="1:27" ht="15">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="15"/>
@@ -23052,7 +23053,7 @@
       <c r="Z740" s="4"/>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" ht="14.4">
+    <row r="741" spans="1:27" ht="15">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="15"/>
@@ -23081,7 +23082,7 @@
       <c r="Z741" s="4"/>
       <c r="AA741" s="4"/>
     </row>
-    <row r="742" spans="1:27" ht="14.4">
+    <row r="742" spans="1:27" ht="15">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="15"/>
@@ -23110,7 +23111,7 @@
       <c r="Z742" s="4"/>
       <c r="AA742" s="4"/>
     </row>
-    <row r="743" spans="1:27" ht="14.4">
+    <row r="743" spans="1:27" ht="15">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="15"/>
@@ -23139,7 +23140,7 @@
       <c r="Z743" s="4"/>
       <c r="AA743" s="4"/>
     </row>
-    <row r="744" spans="1:27" ht="14.4">
+    <row r="744" spans="1:27" ht="15">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="15"/>
@@ -23168,7 +23169,7 @@
       <c r="Z744" s="4"/>
       <c r="AA744" s="4"/>
     </row>
-    <row r="745" spans="1:27" ht="14.4">
+    <row r="745" spans="1:27" ht="15">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="15"/>
@@ -23197,7 +23198,7 @@
       <c r="Z745" s="4"/>
       <c r="AA745" s="4"/>
     </row>
-    <row r="746" spans="1:27" ht="14.4">
+    <row r="746" spans="1:27" ht="15">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="15"/>
@@ -23226,7 +23227,7 @@
       <c r="Z746" s="4"/>
       <c r="AA746" s="4"/>
     </row>
-    <row r="747" spans="1:27" ht="14.4">
+    <row r="747" spans="1:27" ht="15">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="15"/>
@@ -23255,7 +23256,7 @@
       <c r="Z747" s="4"/>
       <c r="AA747" s="4"/>
     </row>
-    <row r="748" spans="1:27" ht="14.4">
+    <row r="748" spans="1:27" ht="15">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="15"/>
@@ -23284,7 +23285,7 @@
       <c r="Z748" s="4"/>
       <c r="AA748" s="4"/>
     </row>
-    <row r="749" spans="1:27" ht="14.4">
+    <row r="749" spans="1:27" ht="15">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="15"/>
@@ -23313,7 +23314,7 @@
       <c r="Z749" s="4"/>
       <c r="AA749" s="4"/>
     </row>
-    <row r="750" spans="1:27" ht="14.4">
+    <row r="750" spans="1:27" ht="15">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="15"/>
@@ -23342,7 +23343,7 @@
       <c r="Z750" s="4"/>
       <c r="AA750" s="4"/>
     </row>
-    <row r="751" spans="1:27" ht="14.4">
+    <row r="751" spans="1:27" ht="15">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="15"/>
@@ -23371,7 +23372,7 @@
       <c r="Z751" s="4"/>
       <c r="AA751" s="4"/>
     </row>
-    <row r="752" spans="1:27" ht="14.4">
+    <row r="752" spans="1:27" ht="15">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="15"/>
@@ -23400,7 +23401,7 @@
       <c r="Z752" s="4"/>
       <c r="AA752" s="4"/>
     </row>
-    <row r="753" spans="1:27" ht="14.4">
+    <row r="753" spans="1:27" ht="15">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="15"/>
@@ -23429,7 +23430,7 @@
       <c r="Z753" s="4"/>
       <c r="AA753" s="4"/>
     </row>
-    <row r="754" spans="1:27" ht="14.4">
+    <row r="754" spans="1:27" ht="15">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="15"/>
@@ -23458,7 +23459,7 @@
       <c r="Z754" s="4"/>
       <c r="AA754" s="4"/>
     </row>
-    <row r="755" spans="1:27" ht="14.4">
+    <row r="755" spans="1:27" ht="15">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="15"/>
@@ -23487,7 +23488,7 @@
       <c r="Z755" s="4"/>
       <c r="AA755" s="4"/>
     </row>
-    <row r="756" spans="1:27" ht="14.4">
+    <row r="756" spans="1:27" ht="15">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="15"/>
@@ -23516,7 +23517,7 @@
       <c r="Z756" s="4"/>
       <c r="AA756" s="4"/>
     </row>
-    <row r="757" spans="1:27" ht="14.4">
+    <row r="757" spans="1:27" ht="15">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="15"/>
@@ -23545,7 +23546,7 @@
       <c r="Z757" s="4"/>
       <c r="AA757" s="4"/>
     </row>
-    <row r="758" spans="1:27" ht="14.4">
+    <row r="758" spans="1:27" ht="15">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="15"/>
@@ -23574,7 +23575,7 @@
       <c r="Z758" s="4"/>
       <c r="AA758" s="4"/>
     </row>
-    <row r="759" spans="1:27" ht="14.4">
+    <row r="759" spans="1:27" ht="15">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="15"/>
@@ -23603,7 +23604,7 @@
       <c r="Z759" s="4"/>
       <c r="AA759" s="4"/>
     </row>
-    <row r="760" spans="1:27" ht="14.4">
+    <row r="760" spans="1:27" ht="15">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="15"/>
@@ -23632,7 +23633,7 @@
       <c r="Z760" s="4"/>
       <c r="AA760" s="4"/>
     </row>
-    <row r="761" spans="1:27" ht="14.4">
+    <row r="761" spans="1:27" ht="15">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="15"/>
@@ -23661,7 +23662,7 @@
       <c r="Z761" s="4"/>
       <c r="AA761" s="4"/>
     </row>
-    <row r="762" spans="1:27" ht="14.4">
+    <row r="762" spans="1:27" ht="15">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="15"/>
@@ -23690,7 +23691,7 @@
       <c r="Z762" s="4"/>
       <c r="AA762" s="4"/>
     </row>
-    <row r="763" spans="1:27" ht="14.4">
+    <row r="763" spans="1:27" ht="15">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="15"/>
@@ -23719,7 +23720,7 @@
       <c r="Z763" s="4"/>
       <c r="AA763" s="4"/>
     </row>
-    <row r="764" spans="1:27" ht="14.4">
+    <row r="764" spans="1:27" ht="15">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="15"/>
@@ -23748,7 +23749,7 @@
       <c r="Z764" s="4"/>
       <c r="AA764" s="4"/>
     </row>
-    <row r="765" spans="1:27" ht="14.4">
+    <row r="765" spans="1:27" ht="15">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="15"/>
@@ -23777,7 +23778,7 @@
       <c r="Z765" s="4"/>
       <c r="AA765" s="4"/>
     </row>
-    <row r="766" spans="1:27" ht="14.4">
+    <row r="766" spans="1:27" ht="15">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="15"/>
@@ -23806,7 +23807,7 @@
       <c r="Z766" s="4"/>
       <c r="AA766" s="4"/>
     </row>
-    <row r="767" spans="1:27" ht="14.4">
+    <row r="767" spans="1:27" ht="15">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="15"/>
@@ -23835,7 +23836,7 @@
       <c r="Z767" s="4"/>
       <c r="AA767" s="4"/>
     </row>
-    <row r="768" spans="1:27" ht="14.4">
+    <row r="768" spans="1:27" ht="15">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="15"/>
@@ -23864,7 +23865,7 @@
       <c r="Z768" s="4"/>
       <c r="AA768" s="4"/>
     </row>
-    <row r="769" spans="1:27" ht="14.4">
+    <row r="769" spans="1:27" ht="15">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="15"/>
@@ -23893,7 +23894,7 @@
       <c r="Z769" s="4"/>
       <c r="AA769" s="4"/>
     </row>
-    <row r="770" spans="1:27" ht="14.4">
+    <row r="770" spans="1:27" ht="15">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="15"/>
@@ -23922,7 +23923,7 @@
       <c r="Z770" s="4"/>
       <c r="AA770" s="4"/>
     </row>
-    <row r="771" spans="1:27" ht="14.4">
+    <row r="771" spans="1:27" ht="15">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="15"/>
@@ -23951,7 +23952,7 @@
       <c r="Z771" s="4"/>
       <c r="AA771" s="4"/>
     </row>
-    <row r="772" spans="1:27" ht="14.4">
+    <row r="772" spans="1:27" ht="15">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="15"/>
@@ -23980,7 +23981,7 @@
       <c r="Z772" s="4"/>
       <c r="AA772" s="4"/>
     </row>
-    <row r="773" spans="1:27" ht="14.4">
+    <row r="773" spans="1:27" ht="15">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="15"/>
@@ -24009,7 +24010,7 @@
       <c r="Z773" s="4"/>
       <c r="AA773" s="4"/>
     </row>
-    <row r="774" spans="1:27" ht="14.4">
+    <row r="774" spans="1:27" ht="15">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="15"/>
@@ -24038,7 +24039,7 @@
       <c r="Z774" s="4"/>
       <c r="AA774" s="4"/>
     </row>
-    <row r="775" spans="1:27" ht="14.4">
+    <row r="775" spans="1:27" ht="15">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="15"/>
@@ -24067,7 +24068,7 @@
       <c r="Z775" s="4"/>
       <c r="AA775" s="4"/>
     </row>
-    <row r="776" spans="1:27" ht="14.4">
+    <row r="776" spans="1:27" ht="15">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="15"/>
@@ -24096,7 +24097,7 @@
       <c r="Z776" s="4"/>
       <c r="AA776" s="4"/>
     </row>
-    <row r="777" spans="1:27" ht="14.4">
+    <row r="777" spans="1:27" ht="15">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="15"/>
@@ -24125,7 +24126,7 @@
       <c r="Z777" s="4"/>
       <c r="AA777" s="4"/>
     </row>
-    <row r="778" spans="1:27" ht="14.4">
+    <row r="778" spans="1:27" ht="15">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="15"/>
@@ -24154,7 +24155,7 @@
       <c r="Z778" s="4"/>
       <c r="AA778" s="4"/>
     </row>
-    <row r="779" spans="1:27" ht="14.4">
+    <row r="779" spans="1:27" ht="15">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="15"/>
@@ -24183,7 +24184,7 @@
       <c r="Z779" s="4"/>
       <c r="AA779" s="4"/>
     </row>
-    <row r="780" spans="1:27" ht="14.4">
+    <row r="780" spans="1:27" ht="15">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="15"/>
@@ -24212,7 +24213,7 @@
       <c r="Z780" s="4"/>
       <c r="AA780" s="4"/>
     </row>
-    <row r="781" spans="1:27" ht="14.4">
+    <row r="781" spans="1:27" ht="15">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="15"/>
@@ -24241,7 +24242,7 @@
       <c r="Z781" s="4"/>
       <c r="AA781" s="4"/>
     </row>
-    <row r="782" spans="1:27" ht="14.4">
+    <row r="782" spans="1:27" ht="15">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="15"/>
@@ -24270,7 +24271,7 @@
       <c r="Z782" s="4"/>
       <c r="AA782" s="4"/>
     </row>
-    <row r="783" spans="1:27" ht="14.4">
+    <row r="783" spans="1:27" ht="15">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="15"/>
@@ -24299,7 +24300,7 @@
       <c r="Z783" s="4"/>
       <c r="AA783" s="4"/>
     </row>
-    <row r="784" spans="1:27" ht="14.4">
+    <row r="784" spans="1:27" ht="15">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="15"/>
@@ -24328,7 +24329,7 @@
       <c r="Z784" s="4"/>
       <c r="AA784" s="4"/>
     </row>
-    <row r="785" spans="1:27" ht="14.4">
+    <row r="785" spans="1:27" ht="15">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="15"/>
@@ -24357,7 +24358,7 @@
       <c r="Z785" s="4"/>
       <c r="AA785" s="4"/>
     </row>
-    <row r="786" spans="1:27" ht="14.4">
+    <row r="786" spans="1:27" ht="15">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="15"/>
@@ -24386,7 +24387,7 @@
       <c r="Z786" s="4"/>
       <c r="AA786" s="4"/>
     </row>
-    <row r="787" spans="1:27" ht="14.4">
+    <row r="787" spans="1:27" ht="15">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="15"/>
@@ -24415,7 +24416,7 @@
       <c r="Z787" s="4"/>
       <c r="AA787" s="4"/>
     </row>
-    <row r="788" spans="1:27" ht="14.4">
+    <row r="788" spans="1:27" ht="15">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="15"/>
@@ -24444,7 +24445,7 @@
       <c r="Z788" s="4"/>
       <c r="AA788" s="4"/>
     </row>
-    <row r="789" spans="1:27" ht="14.4">
+    <row r="789" spans="1:27" ht="15">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="15"/>
@@ -24473,7 +24474,7 @@
       <c r="Z789" s="4"/>
       <c r="AA789" s="4"/>
     </row>
-    <row r="790" spans="1:27" ht="14.4">
+    <row r="790" spans="1:27" ht="15">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="15"/>
@@ -24502,7 +24503,7 @@
       <c r="Z790" s="4"/>
       <c r="AA790" s="4"/>
     </row>
-    <row r="791" spans="1:27" ht="14.4">
+    <row r="791" spans="1:27" ht="15">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="15"/>
@@ -24531,7 +24532,7 @@
       <c r="Z791" s="4"/>
       <c r="AA791" s="4"/>
     </row>
-    <row r="792" spans="1:27" ht="14.4">
+    <row r="792" spans="1:27" ht="15">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="15"/>
@@ -24560,7 +24561,7 @@
       <c r="Z792" s="4"/>
       <c r="AA792" s="4"/>
     </row>
-    <row r="793" spans="1:27" ht="14.4">
+    <row r="793" spans="1:27" ht="15">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="15"/>
@@ -24589,7 +24590,7 @@
       <c r="Z793" s="4"/>
       <c r="AA793" s="4"/>
     </row>
-    <row r="794" spans="1:27" ht="14.4">
+    <row r="794" spans="1:27" ht="15">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="15"/>
@@ -24618,7 +24619,7 @@
       <c r="Z794" s="4"/>
       <c r="AA794" s="4"/>
     </row>
-    <row r="795" spans="1:27" ht="14.4">
+    <row r="795" spans="1:27" ht="15">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="15"/>
@@ -24647,7 +24648,7 @@
       <c r="Z795" s="4"/>
       <c r="AA795" s="4"/>
     </row>
-    <row r="796" spans="1:27" ht="14.4">
+    <row r="796" spans="1:27" ht="15">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="15"/>
@@ -24676,7 +24677,7 @@
       <c r="Z796" s="4"/>
       <c r="AA796" s="4"/>
     </row>
-    <row r="797" spans="1:27" ht="14.4">
+    <row r="797" spans="1:27" ht="15">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="15"/>
@@ -24705,7 +24706,7 @@
       <c r="Z797" s="4"/>
       <c r="AA797" s="4"/>
     </row>
-    <row r="798" spans="1:27" ht="14.4">
+    <row r="798" spans="1:27" ht="15">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="15"/>
@@ -24734,7 +24735,7 @@
       <c r="Z798" s="4"/>
       <c r="AA798" s="4"/>
     </row>
-    <row r="799" spans="1:27" ht="14.4">
+    <row r="799" spans="1:27" ht="15">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="15"/>
@@ -24763,7 +24764,7 @@
       <c r="Z799" s="4"/>
       <c r="AA799" s="4"/>
     </row>
-    <row r="800" spans="1:27" ht="14.4">
+    <row r="800" spans="1:27" ht="15">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="15"/>
@@ -24792,7 +24793,7 @@
       <c r="Z800" s="4"/>
       <c r="AA800" s="4"/>
     </row>
-    <row r="801" spans="1:27" ht="14.4">
+    <row r="801" spans="1:27" ht="15">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="15"/>
@@ -24821,7 +24822,7 @@
       <c r="Z801" s="4"/>
       <c r="AA801" s="4"/>
     </row>
-    <row r="802" spans="1:27" ht="14.4">
+    <row r="802" spans="1:27" ht="15">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="15"/>
@@ -24850,7 +24851,7 @@
       <c r="Z802" s="4"/>
       <c r="AA802" s="4"/>
     </row>
-    <row r="803" spans="1:27" ht="14.4">
+    <row r="803" spans="1:27" ht="15">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="15"/>
@@ -24879,7 +24880,7 @@
       <c r="Z803" s="4"/>
       <c r="AA803" s="4"/>
     </row>
-    <row r="804" spans="1:27" ht="14.4">
+    <row r="804" spans="1:27" ht="15">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="15"/>
@@ -24908,7 +24909,7 @@
       <c r="Z804" s="4"/>
       <c r="AA804" s="4"/>
     </row>
-    <row r="805" spans="1:27" ht="14.4">
+    <row r="805" spans="1:27" ht="15">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="15"/>
@@ -24937,7 +24938,7 @@
       <c r="Z805" s="4"/>
       <c r="AA805" s="4"/>
     </row>
-    <row r="806" spans="1:27" ht="14.4">
+    <row r="806" spans="1:27" ht="15">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="15"/>
@@ -24966,7 +24967,7 @@
       <c r="Z806" s="4"/>
       <c r="AA806" s="4"/>
     </row>
-    <row r="807" spans="1:27" ht="14.4">
+    <row r="807" spans="1:27" ht="15">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="15"/>
@@ -24995,7 +24996,7 @@
       <c r="Z807" s="4"/>
       <c r="AA807" s="4"/>
     </row>
-    <row r="808" spans="1:27" ht="14.4">
+    <row r="808" spans="1:27" ht="15">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="15"/>
@@ -25024,7 +25025,7 @@
       <c r="Z808" s="4"/>
       <c r="AA808" s="4"/>
     </row>
-    <row r="809" spans="1:27" ht="14.4">
+    <row r="809" spans="1:27" ht="15">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="15"/>
@@ -25053,7 +25054,7 @@
       <c r="Z809" s="4"/>
       <c r="AA809" s="4"/>
     </row>
-    <row r="810" spans="1:27" ht="14.4">
+    <row r="810" spans="1:27" ht="15">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="15"/>
@@ -25082,7 +25083,7 @@
       <c r="Z810" s="4"/>
       <c r="AA810" s="4"/>
     </row>
-    <row r="811" spans="1:27" ht="14.4">
+    <row r="811" spans="1:27" ht="15">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="15"/>
@@ -25111,7 +25112,7 @@
       <c r="Z811" s="4"/>
       <c r="AA811" s="4"/>
     </row>
-    <row r="812" spans="1:27" ht="14.4">
+    <row r="812" spans="1:27" ht="15">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="15"/>
@@ -25140,7 +25141,7 @@
       <c r="Z812" s="4"/>
       <c r="AA812" s="4"/>
     </row>
-    <row r="813" spans="1:27" ht="14.4">
+    <row r="813" spans="1:27" ht="15">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="15"/>
@@ -25169,7 +25170,7 @@
       <c r="Z813" s="4"/>
       <c r="AA813" s="4"/>
     </row>
-    <row r="814" spans="1:27" ht="14.4">
+    <row r="814" spans="1:27" ht="15">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="15"/>
@@ -25198,7 +25199,7 @@
       <c r="Z814" s="4"/>
       <c r="AA814" s="4"/>
     </row>
-    <row r="815" spans="1:27" ht="14.4">
+    <row r="815" spans="1:27" ht="15">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="15"/>
@@ -25227,7 +25228,7 @@
       <c r="Z815" s="4"/>
       <c r="AA815" s="4"/>
     </row>
-    <row r="816" spans="1:27" ht="14.4">
+    <row r="816" spans="1:27" ht="15">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="15"/>
@@ -25256,7 +25257,7 @@
       <c r="Z816" s="4"/>
       <c r="AA816" s="4"/>
     </row>
-    <row r="817" spans="1:27" ht="14.4">
+    <row r="817" spans="1:27" ht="15">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="15"/>
@@ -25285,7 +25286,7 @@
       <c r="Z817" s="4"/>
       <c r="AA817" s="4"/>
     </row>
-    <row r="818" spans="1:27" ht="14.4">
+    <row r="818" spans="1:27" ht="15">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="15"/>
@@ -25314,7 +25315,7 @@
       <c r="Z818" s="4"/>
       <c r="AA818" s="4"/>
     </row>
-    <row r="819" spans="1:27" ht="14.4">
+    <row r="819" spans="1:27" ht="15">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="15"/>
@@ -25343,7 +25344,7 @@
       <c r="Z819" s="4"/>
       <c r="AA819" s="4"/>
     </row>
-    <row r="820" spans="1:27" ht="14.4">
+    <row r="820" spans="1:27" ht="15">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="15"/>
@@ -25372,7 +25373,7 @@
       <c r="Z820" s="4"/>
       <c r="AA820" s="4"/>
     </row>
-    <row r="821" spans="1:27" ht="14.4">
+    <row r="821" spans="1:27" ht="15">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="15"/>
@@ -25401,7 +25402,7 @@
       <c r="Z821" s="4"/>
       <c r="AA821" s="4"/>
     </row>
-    <row r="822" spans="1:27" ht="14.4">
+    <row r="822" spans="1:27" ht="15">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="15"/>
@@ -25430,7 +25431,7 @@
       <c r="Z822" s="4"/>
       <c r="AA822" s="4"/>
     </row>
-    <row r="823" spans="1:27" ht="14.4">
+    <row r="823" spans="1:27" ht="15">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="15"/>
@@ -25459,7 +25460,7 @@
       <c r="Z823" s="4"/>
       <c r="AA823" s="4"/>
     </row>
-    <row r="824" spans="1:27" ht="14.4">
+    <row r="824" spans="1:27" ht="15">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="15"/>
@@ -25488,7 +25489,7 @@
       <c r="Z824" s="4"/>
       <c r="AA824" s="4"/>
     </row>
-    <row r="825" spans="1:27" ht="14.4">
+    <row r="825" spans="1:27" ht="15">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="15"/>
@@ -25517,7 +25518,7 @@
       <c r="Z825" s="4"/>
       <c r="AA825" s="4"/>
     </row>
-    <row r="826" spans="1:27" ht="14.4">
+    <row r="826" spans="1:27" ht="15">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="15"/>
@@ -25546,7 +25547,7 @@
       <c r="Z826" s="4"/>
       <c r="AA826" s="4"/>
     </row>
-    <row r="827" spans="1:27" ht="14.4">
+    <row r="827" spans="1:27" ht="15">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="15"/>
@@ -25575,7 +25576,7 @@
       <c r="Z827" s="4"/>
       <c r="AA827" s="4"/>
     </row>
-    <row r="828" spans="1:27" ht="14.4">
+    <row r="828" spans="1:27" ht="15">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="15"/>
@@ -25604,7 +25605,7 @@
       <c r="Z828" s="4"/>
       <c r="AA828" s="4"/>
     </row>
-    <row r="829" spans="1:27" ht="14.4">
+    <row r="829" spans="1:27" ht="15">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="15"/>
@@ -25633,7 +25634,7 @@
       <c r="Z829" s="4"/>
       <c r="AA829" s="4"/>
     </row>
-    <row r="830" spans="1:27" ht="14.4">
+    <row r="830" spans="1:27" ht="15">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="15"/>
@@ -25662,7 +25663,7 @@
       <c r="Z830" s="4"/>
       <c r="AA830" s="4"/>
     </row>
-    <row r="831" spans="1:27" ht="14.4">
+    <row r="831" spans="1:27" ht="15">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="15"/>
@@ -25691,7 +25692,7 @@
       <c r="Z831" s="4"/>
       <c r="AA831" s="4"/>
     </row>
-    <row r="832" spans="1:27" ht="14.4">
+    <row r="832" spans="1:27" ht="15">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="15"/>
@@ -25720,7 +25721,7 @@
       <c r="Z832" s="4"/>
       <c r="AA832" s="4"/>
     </row>
-    <row r="833" spans="1:27" ht="14.4">
+    <row r="833" spans="1:27" ht="15">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="15"/>
@@ -25749,7 +25750,7 @@
       <c r="Z833" s="4"/>
       <c r="AA833" s="4"/>
     </row>
-    <row r="834" spans="1:27" ht="14.4">
+    <row r="834" spans="1:27" ht="15">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="15"/>
@@ -25778,7 +25779,7 @@
       <c r="Z834" s="4"/>
       <c r="AA834" s="4"/>
     </row>
-    <row r="835" spans="1:27" ht="14.4">
+    <row r="835" spans="1:27" ht="15">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="15"/>
@@ -25807,7 +25808,7 @@
       <c r="Z835" s="4"/>
       <c r="AA835" s="4"/>
     </row>
-    <row r="836" spans="1:27" ht="14.4">
+    <row r="836" spans="1:27" ht="15">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="15"/>
@@ -25836,7 +25837,7 @@
       <c r="Z836" s="4"/>
       <c r="AA836" s="4"/>
     </row>
-    <row r="837" spans="1:27" ht="14.4">
+    <row r="837" spans="1:27" ht="15">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="15"/>
@@ -25865,7 +25866,7 @@
       <c r="Z837" s="4"/>
       <c r="AA837" s="4"/>
     </row>
-    <row r="838" spans="1:27" ht="14.4">
+    <row r="838" spans="1:27" ht="15">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
       <c r="C838" s="15"/>
@@ -25894,7 +25895,7 @@
       <c r="Z838" s="4"/>
       <c r="AA838" s="4"/>
     </row>
-    <row r="839" spans="1:27" ht="14.4">
+    <row r="839" spans="1:27" ht="15">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
       <c r="C839" s="15"/>
@@ -25923,7 +25924,7 @@
       <c r="Z839" s="4"/>
       <c r="AA839" s="4"/>
     </row>
-    <row r="840" spans="1:27" ht="14.4">
+    <row r="840" spans="1:27" ht="15">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
       <c r="C840" s="15"/>
@@ -25952,7 +25953,7 @@
       <c r="Z840" s="4"/>
       <c r="AA840" s="4"/>
     </row>
-    <row r="841" spans="1:27" ht="14.4">
+    <row r="841" spans="1:27" ht="15">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
       <c r="C841" s="15"/>
@@ -25981,7 +25982,7 @@
       <c r="Z841" s="4"/>
       <c r="AA841" s="4"/>
     </row>
-    <row r="842" spans="1:27" ht="14.4">
+    <row r="842" spans="1:27" ht="15">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
       <c r="C842" s="15"/>
@@ -26010,7 +26011,7 @@
       <c r="Z842" s="4"/>
       <c r="AA842" s="4"/>
     </row>
-    <row r="843" spans="1:27" ht="14.4">
+    <row r="843" spans="1:27" ht="15">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
       <c r="C843" s="15"/>
@@ -26039,7 +26040,7 @@
       <c r="Z843" s="4"/>
       <c r="AA843" s="4"/>
     </row>
-    <row r="844" spans="1:27" ht="14.4">
+    <row r="844" spans="1:27" ht="15">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
       <c r="C844" s="15"/>
@@ -26068,7 +26069,7 @@
       <c r="Z844" s="4"/>
       <c r="AA844" s="4"/>
     </row>
-    <row r="845" spans="1:27" ht="14.4">
+    <row r="845" spans="1:27" ht="15">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
       <c r="C845" s="15"/>
@@ -26097,7 +26098,7 @@
       <c r="Z845" s="4"/>
       <c r="AA845" s="4"/>
     </row>
-    <row r="846" spans="1:27" ht="14.4">
+    <row r="846" spans="1:27" ht="15">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
       <c r="C846" s="15"/>
@@ -26126,7 +26127,7 @@
       <c r="Z846" s="4"/>
       <c r="AA846" s="4"/>
     </row>
-    <row r="847" spans="1:27" ht="14.4">
+    <row r="847" spans="1:27" ht="15">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
       <c r="C847" s="15"/>
@@ -26155,7 +26156,7 @@
       <c r="Z847" s="4"/>
       <c r="AA847" s="4"/>
     </row>
-    <row r="848" spans="1:27" ht="14.4">
+    <row r="848" spans="1:27" ht="15">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
       <c r="C848" s="15"/>
@@ -26184,7 +26185,7 @@
       <c r="Z848" s="4"/>
       <c r="AA848" s="4"/>
     </row>
-    <row r="849" spans="1:27" ht="14.4">
+    <row r="849" spans="1:27" ht="15">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
       <c r="C849" s="15"/>
@@ -26213,7 +26214,7 @@
       <c r="Z849" s="4"/>
       <c r="AA849" s="4"/>
     </row>
-    <row r="850" spans="1:27" ht="14.4">
+    <row r="850" spans="1:27" ht="15">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
       <c r="C850" s="15"/>
@@ -26242,7 +26243,7 @@
       <c r="Z850" s="4"/>
       <c r="AA850" s="4"/>
     </row>
-    <row r="851" spans="1:27" ht="14.4">
+    <row r="851" spans="1:27" ht="15">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
       <c r="C851" s="15"/>
@@ -26271,7 +26272,7 @@
       <c r="Z851" s="4"/>
       <c r="AA851" s="4"/>
     </row>
-    <row r="852" spans="1:27" ht="14.4">
+    <row r="852" spans="1:27" ht="15">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
       <c r="C852" s="15"/>
@@ -26300,7 +26301,7 @@
       <c r="Z852" s="4"/>
       <c r="AA852" s="4"/>
     </row>
-    <row r="853" spans="1:27" ht="14.4">
+    <row r="853" spans="1:27" ht="15">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
       <c r="C853" s="15"/>
@@ -26329,7 +26330,7 @@
       <c r="Z853" s="4"/>
       <c r="AA853" s="4"/>
     </row>
-    <row r="854" spans="1:27" ht="14.4">
+    <row r="854" spans="1:27" ht="15">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
       <c r="C854" s="15"/>
@@ -26358,7 +26359,7 @@
       <c r="Z854" s="4"/>
       <c r="AA854" s="4"/>
     </row>
-    <row r="855" spans="1:27" ht="14.4">
+    <row r="855" spans="1:27" ht="15">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
       <c r="C855" s="15"/>
@@ -26387,7 +26388,7 @@
       <c r="Z855" s="4"/>
       <c r="AA855" s="4"/>
     </row>
-    <row r="856" spans="1:27" ht="14.4">
+    <row r="856" spans="1:27" ht="15">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
       <c r="C856" s="15"/>
@@ -26416,7 +26417,7 @@
       <c r="Z856" s="4"/>
       <c r="AA856" s="4"/>
     </row>
-    <row r="857" spans="1:27" ht="14.4">
+    <row r="857" spans="1:27" ht="15">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
       <c r="C857" s="15"/>
@@ -26445,7 +26446,7 @@
       <c r="Z857" s="4"/>
       <c r="AA857" s="4"/>
     </row>
-    <row r="858" spans="1:27" ht="14.4">
+    <row r="858" spans="1:27" ht="15">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
       <c r="C858" s="15"/>
@@ -26474,7 +26475,7 @@
       <c r="Z858" s="4"/>
       <c r="AA858" s="4"/>
     </row>
-    <row r="859" spans="1:27" ht="14.4">
+    <row r="859" spans="1:27" ht="15">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
       <c r="C859" s="15"/>
@@ -26503,7 +26504,7 @@
       <c r="Z859" s="4"/>
       <c r="AA859" s="4"/>
     </row>
-    <row r="860" spans="1:27" ht="14.4">
+    <row r="860" spans="1:27" ht="15">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
       <c r="C860" s="15"/>
@@ -26532,7 +26533,7 @@
       <c r="Z860" s="4"/>
       <c r="AA860" s="4"/>
     </row>
-    <row r="861" spans="1:27" ht="14.4">
+    <row r="861" spans="1:27" ht="15">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
       <c r="C861" s="15"/>
@@ -26561,7 +26562,7 @@
       <c r="Z861" s="4"/>
       <c r="AA861" s="4"/>
     </row>
-    <row r="862" spans="1:27" ht="14.4">
+    <row r="862" spans="1:27" ht="15">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
       <c r="C862" s="15"/>
@@ -26590,7 +26591,7 @@
       <c r="Z862" s="4"/>
       <c r="AA862" s="4"/>
     </row>
-    <row r="863" spans="1:27" ht="14.4">
+    <row r="863" spans="1:27" ht="15">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
       <c r="C863" s="15"/>
@@ -26619,7 +26620,7 @@
       <c r="Z863" s="4"/>
       <c r="AA863" s="4"/>
     </row>
-    <row r="864" spans="1:27" ht="14.4">
+    <row r="864" spans="1:27" ht="15">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
       <c r="C864" s="15"/>
@@ -26648,7 +26649,7 @@
       <c r="Z864" s="4"/>
       <c r="AA864" s="4"/>
     </row>
-    <row r="865" spans="1:27" ht="14.4">
+    <row r="865" spans="1:27" ht="15">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
       <c r="C865" s="15"/>
@@ -26677,7 +26678,7 @@
       <c r="Z865" s="4"/>
       <c r="AA865" s="4"/>
     </row>
-    <row r="866" spans="1:27" ht="14.4">
+    <row r="866" spans="1:27" ht="15">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
       <c r="C866" s="15"/>
@@ -26706,7 +26707,7 @@
       <c r="Z866" s="4"/>
       <c r="AA866" s="4"/>
     </row>
-    <row r="867" spans="1:27" ht="14.4">
+    <row r="867" spans="1:27" ht="15">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
       <c r="C867" s="15"/>
@@ -26735,7 +26736,7 @@
       <c r="Z867" s="4"/>
       <c r="AA867" s="4"/>
     </row>
-    <row r="868" spans="1:27" ht="14.4">
+    <row r="868" spans="1:27" ht="15">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
       <c r="C868" s="15"/>
@@ -26764,7 +26765,7 @@
       <c r="Z868" s="4"/>
       <c r="AA868" s="4"/>
     </row>
-    <row r="869" spans="1:27" ht="14.4">
+    <row r="869" spans="1:27" ht="15">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
       <c r="C869" s="15"/>
@@ -26793,7 +26794,7 @@
       <c r="Z869" s="4"/>
       <c r="AA869" s="4"/>
     </row>
-    <row r="870" spans="1:27" ht="14.4">
+    <row r="870" spans="1:27" ht="15">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
       <c r="C870" s="15"/>
@@ -26822,7 +26823,7 @@
       <c r="Z870" s="4"/>
       <c r="AA870" s="4"/>
     </row>
-    <row r="871" spans="1:27" ht="14.4">
+    <row r="871" spans="1:27" ht="15">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
       <c r="C871" s="15"/>
@@ -26851,7 +26852,7 @@
       <c r="Z871" s="4"/>
       <c r="AA871" s="4"/>
     </row>
-    <row r="872" spans="1:27" ht="14.4">
+    <row r="872" spans="1:27" ht="15">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
       <c r="C872" s="15"/>
@@ -26880,7 +26881,7 @@
       <c r="Z872" s="4"/>
       <c r="AA872" s="4"/>
     </row>
-    <row r="873" spans="1:27" ht="14.4">
+    <row r="873" spans="1:27" ht="15">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
       <c r="C873" s="15"/>
@@ -26909,7 +26910,7 @@
       <c r="Z873" s="4"/>
       <c r="AA873" s="4"/>
     </row>
-    <row r="874" spans="1:27" ht="14.4">
+    <row r="874" spans="1:27" ht="15">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
       <c r="C874" s="15"/>
@@ -26938,7 +26939,7 @@
       <c r="Z874" s="4"/>
       <c r="AA874" s="4"/>
     </row>
-    <row r="875" spans="1:27" ht="14.4">
+    <row r="875" spans="1:27" ht="15">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
       <c r="C875" s="15"/>
@@ -26967,7 +26968,7 @@
       <c r="Z875" s="4"/>
       <c r="AA875" s="4"/>
     </row>
-    <row r="876" spans="1:27" ht="14.4">
+    <row r="876" spans="1:27" ht="15">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
       <c r="C876" s="15"/>
@@ -26996,7 +26997,7 @@
       <c r="Z876" s="4"/>
       <c r="AA876" s="4"/>
     </row>
-    <row r="877" spans="1:27" ht="14.4">
+    <row r="877" spans="1:27" ht="15">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
       <c r="C877" s="15"/>
@@ -27025,7 +27026,7 @@
       <c r="Z877" s="4"/>
       <c r="AA877" s="4"/>
     </row>
-    <row r="878" spans="1:27" ht="14.4">
+    <row r="878" spans="1:27" ht="15">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
       <c r="C878" s="15"/>
@@ -27054,7 +27055,7 @@
       <c r="Z878" s="4"/>
       <c r="AA878" s="4"/>
     </row>
-    <row r="879" spans="1:27" ht="14.4">
+    <row r="879" spans="1:27" ht="15">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
       <c r="C879" s="15"/>
@@ -27083,7 +27084,7 @@
       <c r="Z879" s="4"/>
       <c r="AA879" s="4"/>
     </row>
-    <row r="880" spans="1:27" ht="14.4">
+    <row r="880" spans="1:27" ht="15">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
       <c r="C880" s="15"/>
@@ -27112,7 +27113,7 @@
       <c r="Z880" s="4"/>
       <c r="AA880" s="4"/>
     </row>
-    <row r="881" spans="1:27" ht="14.4">
+    <row r="881" spans="1:27" ht="15">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
       <c r="C881" s="15"/>
@@ -27141,7 +27142,7 @@
       <c r="Z881" s="4"/>
       <c r="AA881" s="4"/>
     </row>
-    <row r="882" spans="1:27" ht="14.4">
+    <row r="882" spans="1:27" ht="15">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
       <c r="C882" s="15"/>
@@ -27170,7 +27171,7 @@
       <c r="Z882" s="4"/>
       <c r="AA882" s="4"/>
     </row>
-    <row r="883" spans="1:27" ht="14.4">
+    <row r="883" spans="1:27" ht="15">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
       <c r="C883" s="15"/>
@@ -27199,7 +27200,7 @@
       <c r="Z883" s="4"/>
       <c r="AA883" s="4"/>
     </row>
-    <row r="884" spans="1:27" ht="14.4">
+    <row r="884" spans="1:27" ht="15">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
       <c r="C884" s="15"/>
@@ -27228,7 +27229,7 @@
       <c r="Z884" s="4"/>
       <c r="AA884" s="4"/>
     </row>
-    <row r="885" spans="1:27" ht="14.4">
+    <row r="885" spans="1:27" ht="15">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
       <c r="C885" s="15"/>
@@ -27257,7 +27258,7 @@
       <c r="Z885" s="4"/>
       <c r="AA885" s="4"/>
     </row>
-    <row r="886" spans="1:27" ht="14.4">
+    <row r="886" spans="1:27" ht="15">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
       <c r="C886" s="15"/>
@@ -27286,7 +27287,7 @@
       <c r="Z886" s="4"/>
       <c r="AA886" s="4"/>
     </row>
-    <row r="887" spans="1:27" ht="14.4">
+    <row r="887" spans="1:27" ht="15">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
       <c r="C887" s="15"/>
@@ -27315,7 +27316,7 @@
       <c r="Z887" s="4"/>
       <c r="AA887" s="4"/>
     </row>
-    <row r="888" spans="1:27" ht="14.4">
+    <row r="888" spans="1:27" ht="15">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
       <c r="C888" s="15"/>
@@ -27344,7 +27345,7 @@
       <c r="Z888" s="4"/>
       <c r="AA888" s="4"/>
     </row>
-    <row r="889" spans="1:27" ht="14.4">
+    <row r="889" spans="1:27" ht="15">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
       <c r="C889" s="15"/>
@@ -27373,7 +27374,7 @@
       <c r="Z889" s="4"/>
       <c r="AA889" s="4"/>
     </row>
-    <row r="890" spans="1:27" ht="14.4">
+    <row r="890" spans="1:27" ht="15">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
       <c r="C890" s="15"/>
@@ -27402,7 +27403,7 @@
       <c r="Z890" s="4"/>
       <c r="AA890" s="4"/>
     </row>
-    <row r="891" spans="1:27" ht="14.4">
+    <row r="891" spans="1:27" ht="15">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
       <c r="C891" s="15"/>
@@ -27431,7 +27432,7 @@
       <c r="Z891" s="4"/>
       <c r="AA891" s="4"/>
     </row>
-    <row r="892" spans="1:27" ht="14.4">
+    <row r="892" spans="1:27" ht="15">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
       <c r="C892" s="15"/>
@@ -27460,7 +27461,7 @@
       <c r="Z892" s="4"/>
       <c r="AA892" s="4"/>
     </row>
-    <row r="893" spans="1:27" ht="14.4">
+    <row r="893" spans="1:27" ht="15">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
       <c r="C893" s="15"/>
@@ -27489,7 +27490,7 @@
       <c r="Z893" s="4"/>
       <c r="AA893" s="4"/>
     </row>
-    <row r="894" spans="1:27" ht="14.4">
+    <row r="894" spans="1:27" ht="15">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
       <c r="C894" s="15"/>
@@ -27518,7 +27519,7 @@
       <c r="Z894" s="4"/>
       <c r="AA894" s="4"/>
     </row>
-    <row r="895" spans="1:27" ht="14.4">
+    <row r="895" spans="1:27" ht="15">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
       <c r="C895" s="15"/>
@@ -27547,7 +27548,7 @@
       <c r="Z895" s="4"/>
       <c r="AA895" s="4"/>
     </row>
-    <row r="896" spans="1:27" ht="14.4">
+    <row r="896" spans="1:27" ht="15">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
       <c r="C896" s="15"/>
@@ -27576,7 +27577,7 @@
       <c r="Z896" s="4"/>
       <c r="AA896" s="4"/>
     </row>
-    <row r="897" spans="1:27" ht="14.4">
+    <row r="897" spans="1:27" ht="15">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
       <c r="C897" s="15"/>
@@ -27605,7 +27606,7 @@
       <c r="Z897" s="4"/>
       <c r="AA897" s="4"/>
     </row>
-    <row r="898" spans="1:27" ht="14.4">
+    <row r="898" spans="1:27" ht="15">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
       <c r="C898" s="15"/>
@@ -27634,7 +27635,7 @@
       <c r="Z898" s="4"/>
       <c r="AA898" s="4"/>
     </row>
-    <row r="899" spans="1:27" ht="14.4">
+    <row r="899" spans="1:27" ht="15">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
       <c r="C899" s="15"/>
@@ -27663,7 +27664,7 @@
       <c r="Z899" s="4"/>
       <c r="AA899" s="4"/>
     </row>
-    <row r="900" spans="1:27" ht="14.4">
+    <row r="900" spans="1:27" ht="15">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
       <c r="C900" s="15"/>
@@ -27692,7 +27693,7 @@
       <c r="Z900" s="4"/>
       <c r="AA900" s="4"/>
     </row>
-    <row r="901" spans="1:27" ht="14.4">
+    <row r="901" spans="1:27" ht="15">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
       <c r="C901" s="15"/>
@@ -27721,7 +27722,7 @@
       <c r="Z901" s="4"/>
       <c r="AA901" s="4"/>
     </row>
-    <row r="902" spans="1:27" ht="14.4">
+    <row r="902" spans="1:27" ht="15">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
       <c r="C902" s="15"/>
@@ -27750,7 +27751,7 @@
       <c r="Z902" s="4"/>
       <c r="AA902" s="4"/>
     </row>
-    <row r="903" spans="1:27" ht="14.4">
+    <row r="903" spans="1:27" ht="15">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
       <c r="C903" s="15"/>
@@ -27779,7 +27780,7 @@
       <c r="Z903" s="4"/>
       <c r="AA903" s="4"/>
     </row>
-    <row r="904" spans="1:27" ht="14.4">
+    <row r="904" spans="1:27" ht="15">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
       <c r="C904" s="15"/>
@@ -27808,7 +27809,7 @@
       <c r="Z904" s="4"/>
       <c r="AA904" s="4"/>
     </row>
-    <row r="905" spans="1:27" ht="14.4">
+    <row r="905" spans="1:27" ht="15">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
       <c r="C905" s="15"/>
@@ -27837,7 +27838,7 @@
       <c r="Z905" s="4"/>
       <c r="AA905" s="4"/>
     </row>
-    <row r="906" spans="1:27" ht="14.4">
+    <row r="906" spans="1:27" ht="15">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
       <c r="C906" s="15"/>
@@ -27866,7 +27867,7 @@
       <c r="Z906" s="4"/>
       <c r="AA906" s="4"/>
     </row>
-    <row r="907" spans="1:27" ht="14.4">
+    <row r="907" spans="1:27" ht="15">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
       <c r="C907" s="15"/>
@@ -27895,7 +27896,7 @@
       <c r="Z907" s="4"/>
       <c r="AA907" s="4"/>
     </row>
-    <row r="908" spans="1:27" ht="14.4">
+    <row r="908" spans="1:27" ht="15">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
       <c r="C908" s="15"/>
@@ -27924,7 +27925,7 @@
       <c r="Z908" s="4"/>
       <c r="AA908" s="4"/>
     </row>
-    <row r="909" spans="1:27" ht="14.4">
+    <row r="909" spans="1:27" ht="15">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
       <c r="C909" s="15"/>
@@ -27953,7 +27954,7 @@
       <c r="Z909" s="4"/>
       <c r="AA909" s="4"/>
     </row>
-    <row r="910" spans="1:27" ht="14.4">
+    <row r="910" spans="1:27" ht="15">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
       <c r="C910" s="15"/>
@@ -27982,7 +27983,7 @@
       <c r="Z910" s="4"/>
       <c r="AA910" s="4"/>
     </row>
-    <row r="911" spans="1:27" ht="14.4">
+    <row r="911" spans="1:27" ht="15">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
       <c r="C911" s="15"/>
@@ -28011,7 +28012,7 @@
       <c r="Z911" s="4"/>
       <c r="AA911" s="4"/>
     </row>
-    <row r="912" spans="1:27" ht="14.4">
+    <row r="912" spans="1:27" ht="15">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
       <c r="C912" s="15"/>
@@ -28040,7 +28041,7 @@
       <c r="Z912" s="4"/>
       <c r="AA912" s="4"/>
     </row>
-    <row r="913" spans="1:27" ht="14.4">
+    <row r="913" spans="1:27" ht="15">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
       <c r="C913" s="15"/>
@@ -28069,7 +28070,7 @@
       <c r="Z913" s="4"/>
       <c r="AA913" s="4"/>
     </row>
-    <row r="914" spans="1:27" ht="14.4">
+    <row r="914" spans="1:27" ht="15">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
       <c r="C914" s="15"/>
@@ -28098,7 +28099,7 @@
       <c r="Z914" s="4"/>
       <c r="AA914" s="4"/>
     </row>
-    <row r="915" spans="1:27" ht="14.4">
+    <row r="915" spans="1:27" ht="15">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
       <c r="C915" s="15"/>
@@ -28127,7 +28128,7 @@
       <c r="Z915" s="4"/>
       <c r="AA915" s="4"/>
     </row>
-    <row r="916" spans="1:27" ht="14.4">
+    <row r="916" spans="1:27" ht="15">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
       <c r="C916" s="15"/>
@@ -28156,7 +28157,7 @@
       <c r="Z916" s="4"/>
       <c r="AA916" s="4"/>
     </row>
-    <row r="917" spans="1:27" ht="14.4">
+    <row r="917" spans="1:27" ht="15">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
       <c r="C917" s="15"/>
@@ -28185,7 +28186,7 @@
       <c r="Z917" s="4"/>
       <c r="AA917" s="4"/>
     </row>
-    <row r="918" spans="1:27" ht="14.4">
+    <row r="918" spans="1:27" ht="15">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
       <c r="C918" s="15"/>
@@ -28214,7 +28215,7 @@
       <c r="Z918" s="4"/>
       <c r="AA918" s="4"/>
     </row>
-    <row r="919" spans="1:27" ht="14.4">
+    <row r="919" spans="1:27" ht="15">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
       <c r="C919" s="15"/>
@@ -28243,7 +28244,7 @@
       <c r="Z919" s="4"/>
       <c r="AA919" s="4"/>
     </row>
-    <row r="920" spans="1:27" ht="14.4">
+    <row r="920" spans="1:27" ht="15">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
       <c r="C920" s="15"/>
@@ -28272,7 +28273,7 @@
       <c r="Z920" s="4"/>
       <c r="AA920" s="4"/>
     </row>
-    <row r="921" spans="1:27" ht="14.4">
+    <row r="921" spans="1:27" ht="15">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
       <c r="C921" s="15"/>
@@ -28301,7 +28302,7 @@
       <c r="Z921" s="4"/>
       <c r="AA921" s="4"/>
     </row>
-    <row r="922" spans="1:27" ht="14.4">
+    <row r="922" spans="1:27" ht="15">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
       <c r="C922" s="15"/>
@@ -28330,7 +28331,7 @@
       <c r="Z922" s="4"/>
       <c r="AA922" s="4"/>
     </row>
-    <row r="923" spans="1:27" ht="14.4">
+    <row r="923" spans="1:27" ht="15">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
       <c r="C923" s="15"/>
@@ -28359,7 +28360,7 @@
       <c r="Z923" s="4"/>
       <c r="AA923" s="4"/>
     </row>
-    <row r="924" spans="1:27" ht="14.4">
+    <row r="924" spans="1:27" ht="15">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
       <c r="C924" s="15"/>
@@ -28388,7 +28389,7 @@
       <c r="Z924" s="4"/>
       <c r="AA924" s="4"/>
     </row>
-    <row r="925" spans="1:27" ht="14.4">
+    <row r="925" spans="1:27" ht="15">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
       <c r="C925" s="15"/>
@@ -28417,7 +28418,7 @@
       <c r="Z925" s="4"/>
       <c r="AA925" s="4"/>
     </row>
-    <row r="926" spans="1:27" ht="14.4">
+    <row r="926" spans="1:27" ht="15">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
       <c r="C926" s="15"/>
@@ -28446,7 +28447,7 @@
       <c r="Z926" s="4"/>
       <c r="AA926" s="4"/>
     </row>
-    <row r="927" spans="1:27" ht="14.4">
+    <row r="927" spans="1:27" ht="15">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
       <c r="C927" s="15"/>
@@ -28475,7 +28476,7 @@
       <c r="Z927" s="4"/>
       <c r="AA927" s="4"/>
     </row>
-    <row r="928" spans="1:27" ht="14.4">
+    <row r="928" spans="1:27" ht="15">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
       <c r="C928" s="15"/>
@@ -28504,7 +28505,7 @@
       <c r="Z928" s="4"/>
       <c r="AA928" s="4"/>
     </row>
-    <row r="929" spans="1:27" ht="14.4">
+    <row r="929" spans="1:27" ht="15">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
       <c r="C929" s="15"/>
@@ -28533,7 +28534,7 @@
       <c r="Z929" s="4"/>
       <c r="AA929" s="4"/>
     </row>
-    <row r="930" spans="1:27" ht="14.4">
+    <row r="930" spans="1:27" ht="15">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
       <c r="C930" s="15"/>
@@ -28562,7 +28563,7 @@
       <c r="Z930" s="4"/>
       <c r="AA930" s="4"/>
     </row>
-    <row r="931" spans="1:27" ht="14.4">
+    <row r="931" spans="1:27" ht="15">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
       <c r="C931" s="15"/>
@@ -28591,7 +28592,7 @@
       <c r="Z931" s="4"/>
       <c r="AA931" s="4"/>
     </row>
-    <row r="932" spans="1:27" ht="14.4">
+    <row r="932" spans="1:27" ht="15">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
       <c r="C932" s="15"/>
@@ -28620,7 +28621,7 @@
       <c r="Z932" s="4"/>
       <c r="AA932" s="4"/>
     </row>
-    <row r="933" spans="1:27" ht="14.4">
+    <row r="933" spans="1:27" ht="15">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
       <c r="C933" s="15"/>
@@ -28649,7 +28650,7 @@
       <c r="Z933" s="4"/>
       <c r="AA933" s="4"/>
     </row>
-    <row r="934" spans="1:27" ht="14.4">
+    <row r="934" spans="1:27" ht="15">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
       <c r="C934" s="15"/>
@@ -28678,7 +28679,7 @@
       <c r="Z934" s="4"/>
       <c r="AA934" s="4"/>
     </row>
-    <row r="935" spans="1:27" ht="14.4">
+    <row r="935" spans="1:27" ht="15">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
       <c r="C935" s="15"/>
@@ -28707,7 +28708,7 @@
       <c r="Z935" s="4"/>
       <c r="AA935" s="4"/>
     </row>
-    <row r="936" spans="1:27" ht="14.4">
+    <row r="936" spans="1:27" ht="15">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
       <c r="C936" s="15"/>
@@ -28736,7 +28737,7 @@
       <c r="Z936" s="4"/>
       <c r="AA936" s="4"/>
     </row>
-    <row r="937" spans="1:27" ht="14.4">
+    <row r="937" spans="1:27" ht="15">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
       <c r="C937" s="15"/>
@@ -28765,7 +28766,7 @@
       <c r="Z937" s="4"/>
       <c r="AA937" s="4"/>
     </row>
-    <row r="938" spans="1:27" ht="14.4">
+    <row r="938" spans="1:27" ht="15">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
       <c r="C938" s="15"/>
@@ -28794,7 +28795,7 @@
       <c r="Z938" s="4"/>
       <c r="AA938" s="4"/>
     </row>
-    <row r="939" spans="1:27" ht="14.4">
+    <row r="939" spans="1:27" ht="15">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
       <c r="C939" s="15"/>
@@ -28823,7 +28824,7 @@
       <c r="Z939" s="4"/>
       <c r="AA939" s="4"/>
     </row>
-    <row r="940" spans="1:27" ht="14.4">
+    <row r="940" spans="1:27" ht="15">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
       <c r="C940" s="15"/>
@@ -28852,7 +28853,7 @@
       <c r="Z940" s="4"/>
       <c r="AA940" s="4"/>
     </row>
-    <row r="941" spans="1:27" ht="14.4">
+    <row r="941" spans="1:27" ht="15">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
       <c r="C941" s="15"/>
@@ -28881,7 +28882,7 @@
       <c r="Z941" s="4"/>
       <c r="AA941" s="4"/>
     </row>
-    <row r="942" spans="1:27" ht="14.4">
+    <row r="942" spans="1:27" ht="15">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
       <c r="C942" s="15"/>
@@ -28910,7 +28911,7 @@
       <c r="Z942" s="4"/>
       <c r="AA942" s="4"/>
     </row>
-    <row r="943" spans="1:27" ht="14.4">
+    <row r="943" spans="1:27" ht="15">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
       <c r="C943" s="15"/>
@@ -28939,7 +28940,7 @@
       <c r="Z943" s="4"/>
       <c r="AA943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="14.4">
+    <row r="944" spans="1:27" ht="15">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
       <c r="C944" s="15"/>
@@ -28968,7 +28969,7 @@
       <c r="Z944" s="4"/>
       <c r="AA944" s="4"/>
     </row>
-    <row r="945" spans="1:27" ht="14.4">
+    <row r="945" spans="1:27" ht="15">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
       <c r="C945" s="15"/>
@@ -28997,7 +28998,7 @@
       <c r="Z945" s="4"/>
       <c r="AA945" s="4"/>
     </row>
-    <row r="946" spans="1:27" ht="14.4">
+    <row r="946" spans="1:27" ht="15">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
       <c r="C946" s="15"/>
@@ -29026,7 +29027,7 @@
       <c r="Z946" s="4"/>
       <c r="AA946" s="4"/>
     </row>
-    <row r="947" spans="1:27" ht="14.4">
+    <row r="947" spans="1:27" ht="15">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
       <c r="C947" s="15"/>
@@ -29055,7 +29056,7 @@
       <c r="Z947" s="4"/>
       <c r="AA947" s="4"/>
     </row>
-    <row r="948" spans="1:27" ht="14.4">
+    <row r="948" spans="1:27" ht="15">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
       <c r="C948" s="15"/>
@@ -29084,7 +29085,7 @@
       <c r="Z948" s="4"/>
       <c r="AA948" s="4"/>
     </row>
-    <row r="949" spans="1:27" ht="14.4">
+    <row r="949" spans="1:27" ht="15">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
       <c r="C949" s="15"/>
@@ -29113,7 +29114,7 @@
       <c r="Z949" s="4"/>
       <c r="AA949" s="4"/>
     </row>
-    <row r="950" spans="1:27" ht="14.4">
+    <row r="950" spans="1:27" ht="15">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
       <c r="C950" s="15"/>
@@ -29142,7 +29143,7 @@
       <c r="Z950" s="4"/>
       <c r="AA950" s="4"/>
     </row>
-    <row r="951" spans="1:27" ht="14.4">
+    <row r="951" spans="1:27" ht="15">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
       <c r="C951" s="15"/>
@@ -29171,7 +29172,7 @@
       <c r="Z951" s="4"/>
       <c r="AA951" s="4"/>
     </row>
-    <row r="952" spans="1:27" ht="14.4">
+    <row r="952" spans="1:27" ht="15">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
       <c r="C952" s="15"/>
@@ -29200,7 +29201,7 @@
       <c r="Z952" s="4"/>
       <c r="AA952" s="4"/>
     </row>
-    <row r="953" spans="1:27" ht="14.4">
+    <row r="953" spans="1:27" ht="15">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
       <c r="C953" s="15"/>
@@ -29229,7 +29230,7 @@
       <c r="Z953" s="4"/>
       <c r="AA953" s="4"/>
     </row>
-    <row r="954" spans="1:27" ht="14.4">
+    <row r="954" spans="1:27" ht="15">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
       <c r="C954" s="15"/>
@@ -29258,7 +29259,7 @@
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
     </row>
-    <row r="955" spans="1:27" ht="14.4">
+    <row r="955" spans="1:27" ht="15">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
       <c r="C955" s="15"/>
@@ -29287,7 +29288,7 @@
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
     </row>
-    <row r="956" spans="1:27" ht="14.4">
+    <row r="956" spans="1:27" ht="15">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
       <c r="C956" s="15"/>
@@ -29316,7 +29317,7 @@
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
     </row>
-    <row r="957" spans="1:27" ht="14.4">
+    <row r="957" spans="1:27" ht="15">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
       <c r="C957" s="15"/>
@@ -29345,7 +29346,7 @@
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
     </row>
-    <row r="958" spans="1:27" ht="14.4">
+    <row r="958" spans="1:27" ht="15">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
       <c r="C958" s="15"/>
@@ -29374,7 +29375,7 @@
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
     </row>
-    <row r="959" spans="1:27" ht="14.4">
+    <row r="959" spans="1:27" ht="15">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
       <c r="C959" s="15"/>
@@ -29403,7 +29404,7 @@
       <c r="Z959" s="4"/>
       <c r="AA959" s="4"/>
     </row>
-    <row r="960" spans="1:27" ht="14.4">
+    <row r="960" spans="1:27" ht="15">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
       <c r="C960" s="15"/>
@@ -29432,7 +29433,7 @@
       <c r="Z960" s="4"/>
       <c r="AA960" s="4"/>
     </row>
-    <row r="961" spans="1:27" ht="14.4">
+    <row r="961" spans="1:27" ht="15">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
       <c r="C961" s="15"/>
@@ -29461,7 +29462,7 @@
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
     </row>
-    <row r="962" spans="1:27" ht="14.4">
+    <row r="962" spans="1:27" ht="15">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
       <c r="C962" s="15"/>
@@ -29490,7 +29491,7 @@
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
     </row>
-    <row r="963" spans="1:27" ht="14.4">
+    <row r="963" spans="1:27" ht="15">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
       <c r="C963" s="15"/>
@@ -29519,7 +29520,7 @@
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
     </row>
-    <row r="964" spans="1:27" ht="14.4">
+    <row r="964" spans="1:27" ht="15">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
       <c r="C964" s="15"/>
@@ -29548,7 +29549,7 @@
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
     </row>
-    <row r="965" spans="1:27" ht="14.4">
+    <row r="965" spans="1:27" ht="15">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
       <c r="C965" s="15"/>
@@ -29577,7 +29578,7 @@
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
     </row>
-    <row r="966" spans="1:27" ht="14.4">
+    <row r="966" spans="1:27" ht="15">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
       <c r="C966" s="15"/>
@@ -29606,7 +29607,7 @@
       <c r="Z966" s="4"/>
       <c r="AA966" s="4"/>
     </row>
-    <row r="967" spans="1:27" ht="14.4">
+    <row r="967" spans="1:27" ht="15">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
       <c r="C967" s="15"/>
@@ -29635,7 +29636,7 @@
       <c r="Z967" s="4"/>
       <c r="AA967" s="4"/>
     </row>
-    <row r="968" spans="1:27" ht="14.4">
+    <row r="968" spans="1:27" ht="15">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
       <c r="C968" s="15"/>
@@ -29664,7 +29665,7 @@
       <c r="Z968" s="4"/>
       <c r="AA968" s="4"/>
     </row>
-    <row r="969" spans="1:27" ht="14.4">
+    <row r="969" spans="1:27" ht="15">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
       <c r="C969" s="15"/>
@@ -29693,7 +29694,7 @@
       <c r="Z969" s="4"/>
       <c r="AA969" s="4"/>
     </row>
-    <row r="970" spans="1:27" ht="14.4">
+    <row r="970" spans="1:27" ht="15">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
       <c r="C970" s="15"/>
@@ -29722,7 +29723,7 @@
       <c r="Z970" s="4"/>
       <c r="AA970" s="4"/>
     </row>
-    <row r="971" spans="1:27" ht="14.4">
+    <row r="971" spans="1:27" ht="15">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
       <c r="C971" s="15"/>
@@ -29751,7 +29752,7 @@
       <c r="Z971" s="4"/>
       <c r="AA971" s="4"/>
     </row>
-    <row r="972" spans="1:27" ht="14.4">
+    <row r="972" spans="1:27" ht="15">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
       <c r="C972" s="15"/>
@@ -29780,7 +29781,7 @@
       <c r="Z972" s="4"/>
       <c r="AA972" s="4"/>
     </row>
-    <row r="973" spans="1:27" ht="14.4">
+    <row r="973" spans="1:27" ht="15">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
       <c r="C973" s="15"/>
@@ -29809,7 +29810,7 @@
       <c r="Z973" s="4"/>
       <c r="AA973" s="4"/>
     </row>
-    <row r="974" spans="1:27" ht="14.4">
+    <row r="974" spans="1:27" ht="15">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
       <c r="C974" s="15"/>
@@ -29838,7 +29839,7 @@
       <c r="Z974" s="4"/>
       <c r="AA974" s="4"/>
     </row>
-    <row r="975" spans="1:27" ht="14.4">
+    <row r="975" spans="1:27" ht="15">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
       <c r="C975" s="15"/>
@@ -29867,7 +29868,7 @@
       <c r="Z975" s="4"/>
       <c r="AA975" s="4"/>
     </row>
-    <row r="976" spans="1:27" ht="14.4">
+    <row r="976" spans="1:27" ht="15">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
       <c r="C976" s="15"/>
@@ -29896,7 +29897,7 @@
       <c r="Z976" s="4"/>
       <c r="AA976" s="4"/>
     </row>
-    <row r="977" spans="1:27" ht="14.4">
+    <row r="977" spans="1:27" ht="15">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
       <c r="C977" s="15"/>
@@ -29925,7 +29926,7 @@
       <c r="Z977" s="4"/>
       <c r="AA977" s="4"/>
     </row>
-    <row r="978" spans="1:27" ht="14.4">
+    <row r="978" spans="1:27" ht="15">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
       <c r="C978" s="15"/>
@@ -29954,7 +29955,7 @@
       <c r="Z978" s="4"/>
       <c r="AA978" s="4"/>
     </row>
-    <row r="979" spans="1:27" ht="14.4">
+    <row r="979" spans="1:27" ht="15">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
       <c r="C979" s="15"/>
@@ -29983,7 +29984,7 @@
       <c r="Z979" s="4"/>
       <c r="AA979" s="4"/>
     </row>
-    <row r="980" spans="1:27" ht="14.4">
+    <row r="980" spans="1:27" ht="15">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
       <c r="C980" s="15"/>
@@ -30012,7 +30013,7 @@
       <c r="Z980" s="4"/>
       <c r="AA980" s="4"/>
     </row>
-    <row r="981" spans="1:27" ht="14.4">
+    <row r="981" spans="1:27" ht="15">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
       <c r="C981" s="15"/>
@@ -30041,7 +30042,7 @@
       <c r="Z981" s="4"/>
       <c r="AA981" s="4"/>
     </row>
-    <row r="982" spans="1:27" ht="14.4">
+    <row r="982" spans="1:27" ht="15">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
       <c r="C982" s="15"/>
@@ -30070,7 +30071,7 @@
       <c r="Z982" s="4"/>
       <c r="AA982" s="4"/>
     </row>
-    <row r="983" spans="1:27" ht="14.4">
+    <row r="983" spans="1:27" ht="15">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
       <c r="C983" s="15"/>
@@ -30099,7 +30100,7 @@
       <c r="Z983" s="4"/>
       <c r="AA983" s="4"/>
     </row>
-    <row r="984" spans="1:27" ht="14.4">
+    <row r="984" spans="1:27" ht="15">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
       <c r="C984" s="15"/>
@@ -30128,7 +30129,7 @@
       <c r="Z984" s="4"/>
       <c r="AA984" s="4"/>
     </row>
-    <row r="985" spans="1:27" ht="14.4">
+    <row r="985" spans="1:27" ht="15">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
       <c r="C985" s="15"/>
@@ -30157,7 +30158,7 @@
       <c r="Z985" s="4"/>
       <c r="AA985" s="4"/>
     </row>
-    <row r="986" spans="1:27" ht="14.4">
+    <row r="986" spans="1:27" ht="15">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
       <c r="C986" s="15"/>
@@ -30186,7 +30187,7 @@
       <c r="Z986" s="4"/>
       <c r="AA986" s="4"/>
     </row>
-    <row r="987" spans="1:27" ht="14.4">
+    <row r="987" spans="1:27" ht="15">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
       <c r="C987" s="15"/>
@@ -30215,7 +30216,7 @@
       <c r="Z987" s="4"/>
       <c r="AA987" s="4"/>
     </row>
-    <row r="988" spans="1:27" ht="14.4">
+    <row r="988" spans="1:27" ht="15">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
       <c r="C988" s="15"/>
@@ -30244,7 +30245,7 @@
       <c r="Z988" s="4"/>
       <c r="AA988" s="4"/>
     </row>
-    <row r="989" spans="1:27" ht="14.4">
+    <row r="989" spans="1:27" ht="15">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
       <c r="C989" s="15"/>
@@ -30273,7 +30274,7 @@
       <c r="Z989" s="4"/>
       <c r="AA989" s="4"/>
     </row>
-    <row r="990" spans="1:27" ht="14.4">
+    <row r="990" spans="1:27" ht="15">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
       <c r="C990" s="15"/>
@@ -30302,7 +30303,7 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991" spans="1:27" ht="14.4">
+    <row r="991" spans="1:27" ht="15">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
       <c r="C991" s="15"/>
@@ -30331,7 +30332,7 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
     </row>
-    <row r="992" spans="1:27" ht="14.4">
+    <row r="992" spans="1:27" ht="15">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
       <c r="C992" s="15"/>
@@ -30360,7 +30361,7 @@
       <c r="Z992" s="4"/>
       <c r="AA992" s="4"/>
     </row>
-    <row r="993" spans="1:27" ht="14.4">
+    <row r="993" spans="1:27" ht="15">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
       <c r="C993" s="15"/>
@@ -30389,7 +30390,7 @@
       <c r="Z993" s="4"/>
       <c r="AA993" s="4"/>
     </row>
-    <row r="994" spans="1:27" ht="14.4">
+    <row r="994" spans="1:27" ht="15">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
       <c r="C994" s="15"/>
@@ -30418,7 +30419,7 @@
       <c r="Z994" s="4"/>
       <c r="AA994" s="4"/>
     </row>
-    <row r="995" spans="1:27" ht="14.4">
+    <row r="995" spans="1:27" ht="15">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
       <c r="C995" s="15"/>
@@ -30447,7 +30448,7 @@
       <c r="Z995" s="4"/>
       <c r="AA995" s="4"/>
     </row>
-    <row r="996" spans="1:27" ht="14.4">
+    <row r="996" spans="1:27" ht="15">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
       <c r="C996" s="15"/>
@@ -30476,7 +30477,7 @@
       <c r="Z996" s="4"/>
       <c r="AA996" s="4"/>
     </row>
-    <row r="997" spans="1:27" ht="14.4">
+    <row r="997" spans="1:27" ht="15">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
       <c r="C997" s="15"/>
@@ -30505,7 +30506,7 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
-    <row r="998" spans="1:27" ht="14.4">
+    <row r="998" spans="1:27" ht="15">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
       <c r="C998" s="15"/>
@@ -30534,7 +30535,7 @@
       <c r="Z998" s="4"/>
       <c r="AA998" s="4"/>
     </row>
-    <row r="999" spans="1:27" ht="14.4">
+    <row r="999" spans="1:27" ht="15">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
       <c r="C999" s="15"/>
@@ -30563,7 +30564,7 @@
       <c r="Z999" s="4"/>
       <c r="AA999" s="4"/>
     </row>
-    <row r="1000" spans="1:27" ht="14.4">
+    <row r="1000" spans="1:27" ht="15">
       <c r="A1000" s="6"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="15"/>
@@ -30592,7 +30593,7 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
-    <row r="1001" spans="1:27" ht="14.4">
+    <row r="1001" spans="1:27" ht="15">
       <c r="A1001" s="6"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="15"/>
@@ -30621,7 +30622,7 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="14.4">
+    <row r="1002" spans="1:27" ht="15">
       <c r="A1002" s="6"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="15"/>
@@ -30650,7 +30651,7 @@
       <c r="Z1002" s="4"/>
       <c r="AA1002" s="4"/>
     </row>
-    <row r="1003" spans="1:27" ht="14.4">
+    <row r="1003" spans="1:27" ht="15">
       <c r="A1003" s="6"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="15"/>
@@ -30679,7 +30680,7 @@
       <c r="Z1003" s="4"/>
       <c r="AA1003" s="4"/>
     </row>
-    <row r="1004" spans="1:27" ht="14.4">
+    <row r="1004" spans="1:27" ht="15">
       <c r="A1004" s="6"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="15"/>
@@ -30708,7 +30709,7 @@
       <c r="Z1004" s="4"/>
       <c r="AA1004" s="4"/>
     </row>
-    <row r="1005" spans="1:27" ht="14.4">
+    <row r="1005" spans="1:27" ht="15">
       <c r="A1005" s="6"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="15"/>
@@ -30737,7 +30738,7 @@
       <c r="Z1005" s="4"/>
       <c r="AA1005" s="4"/>
     </row>
-    <row r="1006" spans="1:27" ht="14.4">
+    <row r="1006" spans="1:27" ht="15">
       <c r="A1006" s="6"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="15"/>
@@ -30766,7 +30767,7 @@
       <c r="Z1006" s="4"/>
       <c r="AA1006" s="4"/>
     </row>
-    <row r="1007" spans="1:27" ht="14.4">
+    <row r="1007" spans="1:27" ht="15">
       <c r="A1007" s="6"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="15"/>
@@ -30795,7 +30796,7 @@
       <c r="Z1007" s="4"/>
       <c r="AA1007" s="4"/>
     </row>
-    <row r="1008" spans="1:27" ht="14.4">
+    <row r="1008" spans="1:27" ht="15">
       <c r="A1008" s="6"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="15"/>
@@ -30824,7 +30825,7 @@
       <c r="Z1008" s="4"/>
       <c r="AA1008" s="4"/>
     </row>
-    <row r="1009" spans="1:27" ht="14.4">
+    <row r="1009" spans="1:27" ht="15">
       <c r="A1009" s="6"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="15"/>
@@ -30853,7 +30854,7 @@
       <c r="Z1009" s="4"/>
       <c r="AA1009" s="4"/>
     </row>
-    <row r="1010" spans="1:27" ht="14.4">
+    <row r="1010" spans="1:27" ht="15">
       <c r="A1010" s="6"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="15"/>
@@ -30882,7 +30883,7 @@
       <c r="Z1010" s="4"/>
       <c r="AA1010" s="4"/>
     </row>
-    <row r="1011" spans="1:27" ht="14.4">
+    <row r="1011" spans="1:27" ht="15">
       <c r="A1011" s="6"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="15"/>
@@ -30911,7 +30912,7 @@
       <c r="Z1011" s="4"/>
       <c r="AA1011" s="4"/>
     </row>
-    <row r="1012" spans="1:27" ht="14.4">
+    <row r="1012" spans="1:27" ht="15">
       <c r="A1012" s="6"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="15"/>
@@ -30940,7 +30941,7 @@
       <c r="Z1012" s="4"/>
       <c r="AA1012" s="4"/>
     </row>
-    <row r="1013" spans="1:27" ht="14.4">
+    <row r="1013" spans="1:27" ht="15">
       <c r="A1013" s="6"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="15"/>
@@ -30969,7 +30970,7 @@
       <c r="Z1013" s="4"/>
       <c r="AA1013" s="4"/>
     </row>
-    <row r="1014" spans="1:27" ht="14.4">
+    <row r="1014" spans="1:27" ht="15">
       <c r="A1014" s="6"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="15"/>
@@ -30998,7 +30999,7 @@
       <c r="Z1014" s="4"/>
       <c r="AA1014" s="4"/>
     </row>
-    <row r="1015" spans="1:27" ht="14.4">
+    <row r="1015" spans="1:27" ht="15">
       <c r="A1015" s="6"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="15"/>
@@ -31027,7 +31028,7 @@
       <c r="Z1015" s="4"/>
       <c r="AA1015" s="4"/>
     </row>
-    <row r="1016" spans="1:27" ht="14.4">
+    <row r="1016" spans="1:27" ht="15">
       <c r="A1016" s="6"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="15"/>
@@ -31056,7 +31057,7 @@
       <c r="Z1016" s="4"/>
       <c r="AA1016" s="4"/>
     </row>
-    <row r="1017" spans="1:27" ht="14.4">
+    <row r="1017" spans="1:27" ht="15">
       <c r="A1017" s="6"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="15"/>
@@ -31085,7 +31086,7 @@
       <c r="Z1017" s="4"/>
       <c r="AA1017" s="4"/>
     </row>
-    <row r="1018" spans="1:27" ht="14.4">
+    <row r="1018" spans="1:27" ht="15">
       <c r="A1018" s="6"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="15"/>
@@ -31114,7 +31115,7 @@
       <c r="Z1018" s="4"/>
       <c r="AA1018" s="4"/>
     </row>
-    <row r="1019" spans="1:27" ht="14.4">
+    <row r="1019" spans="1:27" ht="15">
       <c r="A1019" s="6"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="15"/>
@@ -31143,7 +31144,7 @@
       <c r="Z1019" s="4"/>
       <c r="AA1019" s="4"/>
     </row>
-    <row r="1020" spans="1:27" ht="14.4">
+    <row r="1020" spans="1:27" ht="15">
       <c r="A1020" s="6"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="15"/>
@@ -31172,7 +31173,7 @@
       <c r="Z1020" s="4"/>
       <c r="AA1020" s="4"/>
     </row>
-    <row r="1021" spans="1:27" ht="14.4">
+    <row r="1021" spans="1:27" ht="15">
       <c r="A1021" s="6"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="15"/>
@@ -31201,7 +31202,7 @@
       <c r="Z1021" s="4"/>
       <c r="AA1021" s="4"/>
     </row>
-    <row r="1022" spans="1:27" ht="14.4">
+    <row r="1022" spans="1:27" ht="15">
       <c r="A1022" s="6"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="15"/>
@@ -31230,7 +31231,7 @@
       <c r="Z1022" s="4"/>
       <c r="AA1022" s="4"/>
     </row>
-    <row r="1023" spans="1:27" ht="14.4">
+    <row r="1023" spans="1:27" ht="15">
       <c r="A1023" s="6"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="15"/>
@@ -31259,7 +31260,7 @@
       <c r="Z1023" s="4"/>
       <c r="AA1023" s="4"/>
     </row>
-    <row r="1024" spans="1:27" ht="14.4">
+    <row r="1024" spans="1:27" ht="15">
       <c r="A1024" s="6"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="15"/>
@@ -31288,7 +31289,7 @@
       <c r="Z1024" s="4"/>
       <c r="AA1024" s="4"/>
     </row>
-    <row r="1025" spans="1:27" ht="14.4">
+    <row r="1025" spans="1:27" ht="15">
       <c r="A1025" s="6"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="15"/>
@@ -31317,7 +31318,7 @@
       <c r="Z1025" s="4"/>
       <c r="AA1025" s="4"/>
     </row>
-    <row r="1026" spans="1:27" ht="14.4">
+    <row r="1026" spans="1:27" ht="15">
       <c r="A1026" s="6"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="15"/>
@@ -31346,7 +31347,7 @@
       <c r="Z1026" s="4"/>
       <c r="AA1026" s="4"/>
     </row>
-    <row r="1027" spans="1:27" ht="14.4">
+    <row r="1027" spans="1:27" ht="15">
       <c r="A1027" s="6"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="15"/>
@@ -31375,7 +31376,7 @@
       <c r="Z1027" s="4"/>
       <c r="AA1027" s="4"/>
     </row>
-    <row r="1028" spans="1:27" ht="14.4">
+    <row r="1028" spans="1:27" ht="15">
       <c r="A1028" s="6"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="15"/>
@@ -31404,7 +31405,7 @@
       <c r="Z1028" s="4"/>
       <c r="AA1028" s="4"/>
     </row>
-    <row r="1029" spans="1:27" ht="14.4">
+    <row r="1029" spans="1:27" ht="15">
       <c r="A1029" s="6"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="15"/>
@@ -31433,7 +31434,7 @@
       <c r="Z1029" s="4"/>
       <c r="AA1029" s="4"/>
     </row>
-    <row r="1030" spans="1:27" ht="14.4">
+    <row r="1030" spans="1:27" ht="15">
       <c r="A1030" s="6"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="15"/>
@@ -31462,7 +31463,7 @@
       <c r="Z1030" s="4"/>
       <c r="AA1030" s="4"/>
     </row>
-    <row r="1031" spans="1:27" ht="14.4">
+    <row r="1031" spans="1:27" ht="15">
       <c r="A1031" s="6"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="15"/>
@@ -31491,7 +31492,7 @@
       <c r="Z1031" s="4"/>
       <c r="AA1031" s="4"/>
     </row>
-    <row r="1032" spans="1:27" ht="14.4">
+    <row r="1032" spans="1:27" ht="15">
       <c r="A1032" s="6"/>
       <c r="B1032" s="3"/>
       <c r="C1032" s="15"/>
@@ -31520,7 +31521,7 @@
       <c r="Z1032" s="4"/>
       <c r="AA1032" s="4"/>
     </row>
-    <row r="1033" spans="1:27" ht="14.4">
+    <row r="1033" spans="1:27" ht="15">
       <c r="A1033" s="6"/>
       <c r="B1033" s="3"/>
       <c r="C1033" s="15"/>
@@ -31549,7 +31550,7 @@
       <c r="Z1033" s="4"/>
       <c r="AA1033" s="4"/>
     </row>
-    <row r="1034" spans="1:27" ht="14.4">
+    <row r="1034" spans="1:27" ht="15">
       <c r="A1034" s="6"/>
       <c r="B1034" s="3"/>
       <c r="C1034" s="15"/>
@@ -31578,7 +31579,7 @@
       <c r="Z1034" s="4"/>
       <c r="AA1034" s="4"/>
     </row>
-    <row r="1035" spans="1:27" ht="14.4">
+    <row r="1035" spans="1:27" ht="15">
       <c r="A1035" s="6"/>
       <c r="B1035" s="3"/>
       <c r="C1035" s="15"/>
@@ -31607,7 +31608,7 @@
       <c r="Z1035" s="4"/>
       <c r="AA1035" s="4"/>
     </row>
-    <row r="1036" spans="1:27" ht="14.4">
+    <row r="1036" spans="1:27" ht="15">
       <c r="A1036" s="6"/>
       <c r="B1036" s="3"/>
       <c r="C1036" s="15"/>
@@ -31636,7 +31637,7 @@
       <c r="Z1036" s="4"/>
       <c r="AA1036" s="4"/>
     </row>
-    <row r="1037" spans="1:27" ht="14.4">
+    <row r="1037" spans="1:27" ht="15">
       <c r="A1037" s="6"/>
       <c r="B1037" s="3"/>
       <c r="C1037" s="15"/>
@@ -31665,7 +31666,7 @@
       <c r="Z1037" s="4"/>
       <c r="AA1037" s="4"/>
     </row>
-    <row r="1038" spans="1:27" ht="14.4">
+    <row r="1038" spans="1:27" ht="15">
       <c r="A1038" s="6"/>
       <c r="B1038" s="3"/>
       <c r="C1038" s="15"/>
@@ -31694,7 +31695,7 @@
       <c r="Z1038" s="4"/>
       <c r="AA1038" s="4"/>
     </row>
-    <row r="1039" spans="1:27" ht="14.4">
+    <row r="1039" spans="1:27" ht="15">
       <c r="A1039" s="6"/>
       <c r="B1039" s="3"/>
       <c r="C1039" s="15"/>
@@ -31723,7 +31724,7 @@
       <c r="Z1039" s="4"/>
       <c r="AA1039" s="4"/>
     </row>
-    <row r="1040" spans="1:27" ht="14.4">
+    <row r="1040" spans="1:27" ht="15">
       <c r="A1040" s="6"/>
       <c r="B1040" s="3"/>
       <c r="C1040" s="15"/>
@@ -31752,7 +31753,7 @@
       <c r="Z1040" s="4"/>
       <c r="AA1040" s="4"/>
     </row>
-    <row r="1041" spans="1:27" ht="14.4">
+    <row r="1041" spans="1:27" ht="15">
       <c r="A1041" s="6"/>
       <c r="B1041" s="3"/>
       <c r="C1041" s="15"/>
@@ -31781,7 +31782,7 @@
       <c r="Z1041" s="4"/>
       <c r="AA1041" s="4"/>
     </row>
-    <row r="1042" spans="1:27" ht="14.4">
+    <row r="1042" spans="1:27" ht="15">
       <c r="A1042" s="6"/>
       <c r="B1042" s="3"/>
       <c r="C1042" s="15"/>
@@ -31810,7 +31811,7 @@
       <c r="Z1042" s="4"/>
       <c r="AA1042" s="4"/>
     </row>
-    <row r="1043" spans="1:27" ht="14.4">
+    <row r="1043" spans="1:27" ht="15">
       <c r="A1043" s="6"/>
       <c r="B1043" s="3"/>
       <c r="C1043" s="15"/>
@@ -31839,7 +31840,7 @@
       <c r="Z1043" s="4"/>
       <c r="AA1043" s="4"/>
     </row>
-    <row r="1044" spans="1:27" ht="14.4">
+    <row r="1044" spans="1:27" ht="15">
       <c r="A1044" s="6"/>
       <c r="B1044" s="3"/>
       <c r="C1044" s="15"/>
@@ -31868,7 +31869,7 @@
       <c r="Z1044" s="4"/>
       <c r="AA1044" s="4"/>
     </row>
-    <row r="1045" spans="1:27" ht="14.4">
+    <row r="1045" spans="1:27" ht="15">
       <c r="A1045" s="6"/>
       <c r="B1045" s="3"/>
       <c r="C1045" s="15"/>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562CA02-AE42-4261-B0A2-54A3F3504D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74299BE3-AF74-41BF-A88C-A121147B298E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
   <si>
     <t>release</t>
   </si>
@@ -530,16 +530,10 @@
     <t>D4_DU_PREGNANCY_COHORT</t>
   </si>
   <si>
-    <t>D3_DU_selection_criteria_from_pregnancies_to_PREGNANCY_COHORT_and_MS_PREGNANCY_COHORT</t>
-  </si>
-  <si>
     <t>D5_DU_flowchart_exclusion_criteria_from_pregnancies_to_DU_PREGNANCY_COHORT</t>
   </si>
   <si>
     <t>D3_DU_PREGNANCY_COHORT_variables</t>
-  </si>
-  <si>
-    <t>D4_DU_PREGNANCY_COHORT D3_DU_MS_COHORT D3_study_population_SAP1</t>
   </si>
   <si>
     <t>D3_DU_PREGNANCY_COHORT_variables D4_DU_MS_COHORT</t>
@@ -548,26 +542,29 @@
     <t>D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT</t>
   </si>
   <si>
-    <t>D3_DU_MS_PREGNANCY_COHORT_variables D4_candidate_matches_MS_non_pregnant</t>
+    <t>D5_DU_for_Templats_8_11</t>
   </si>
   <si>
-    <t>D3_DU_PREGNANCY_COHORT_variables conceptsets</t>
+    <t>D3_DU_PREGNANCY_COHORT_variables conceptsetdataset</t>
   </si>
   <si>
-    <t>D4_DU_MS_COHORT conceptsets</t>
+    <t>D4_DU_MS_COHORT conceptsetdataset</t>
   </si>
   <si>
-    <t>D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT conceptsets</t>
+    <t>D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT conceptsetdataset</t>
   </si>
   <si>
-    <t>D5_DU_for_Templats_8_11</t>
+    <t>D3_DU_PREGNANCY_COHORT_variables D4_candidate_matches_MS_non_pregnant</t>
+  </si>
+  <si>
+    <t>D4_DU_PREGNANCY_COHORT D3_SAP1_MS_COHORT D3_study_population_SAP1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -706,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -767,7 +764,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1019,25 +1015,25 @@
   </sheetPr>
   <dimension ref="A1:AA1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="40" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1082,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1121,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1160,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1199,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1238,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1277,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1316,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1355,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1396,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1435,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>62</v>
@@ -1476,7 +1472,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1513,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1552,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1590,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1628,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,12 +1665,12 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -1706,7 +1702,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1741,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1780,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1821,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="40.9" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1866,7 +1862,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1903,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1942,7 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +1983,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2022,7 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2063,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2102,7 @@
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +2143,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2184,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2225,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="32" t="s">
         <v>95</v>
@@ -2266,7 +2262,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
         <v>106</v>
@@ -2301,7 +2297,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
         <v>118</v>
@@ -2335,7 +2331,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
         <v>107</v>
@@ -2370,7 +2366,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
         <v>119</v>
@@ -2404,7 +2400,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
         <v>108</v>
@@ -2439,7 +2435,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
         <v>120</v>
@@ -2473,7 +2469,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
         <v>109</v>
@@ -2508,7 +2504,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
         <v>121</v>
@@ -2542,7 +2538,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
         <v>122</v>
@@ -2577,7 +2573,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
         <v>123</v>
@@ -2612,8 +2608,8 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+    <row r="42" spans="1:27" ht="45">
+      <c r="A42" s="45"/>
       <c r="B42" s="25" t="s">
         <v>164</v>
       </c>
@@ -2649,18 +2645,18 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="36" t="s">
+    <row r="43" spans="1:27" ht="45">
+      <c r="A43" s="45"/>
+      <c r="B43" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="37" t="s">
         <v>164</v>
       </c>
       <c r="F43" s="34"/>
@@ -2688,18 +2684,18 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+    <row r="44" spans="1:27" ht="60">
+      <c r="A44" s="45"/>
       <c r="B44" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>128</v>
       </c>
       <c r="F44" s="34"/>
@@ -2727,12 +2723,12 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+    <row r="45" spans="1:27" ht="30">
+      <c r="A45" s="45"/>
       <c r="B45" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -2766,12 +2762,12 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
+    <row r="46" spans="1:27" ht="30">
+      <c r="A46" s="45"/>
       <c r="B46" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -2805,8 +2801,8 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A47" s="46"/>
       <c r="B47" s="3" t="s">
         <v>168</v>
       </c>
@@ -2814,13 +2810,13 @@
         <v>131</v>
       </c>
       <c r="E47" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="30">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>76</v>
@@ -2829,7 +2825,7 @@
         <v>131</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2854,19 +2850,19 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+    <row r="49" spans="1:27" ht="26.25">
+      <c r="A49" s="45"/>
       <c r="B49" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="4"/>
@@ -2893,8 +2889,8 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+    <row r="50" spans="1:27" ht="60">
+      <c r="A50" s="45"/>
       <c r="B50" s="33" t="s">
         <v>100</v>
       </c>
@@ -2905,7 +2901,7 @@
         <v>133</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="4"/>
@@ -2930,8 +2926,8 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+    <row r="51" spans="1:27" ht="75">
+      <c r="A51" s="45"/>
       <c r="B51" s="33" t="s">
         <v>101</v>
       </c>
@@ -2942,7 +2938,7 @@
         <v>133</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="4"/>
@@ -2967,8 +2963,8 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+    <row r="52" spans="1:27" ht="60">
+      <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>148</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="4"/>
@@ -3004,10 +3000,10 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+    <row r="53" spans="1:27" ht="90">
+      <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>78</v>
@@ -3016,7 +3012,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="4"/>
@@ -3041,8 +3037,8 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+    <row r="54" spans="1:27" ht="60">
+      <c r="A54" s="45"/>
       <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
@@ -3053,7 +3049,7 @@
         <v>145</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="4"/>
@@ -3078,8 +3074,8 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+    <row r="55" spans="1:27" ht="60">
+      <c r="A55" s="45"/>
       <c r="B55" s="3" t="s">
         <v>77</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>144</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
@@ -3117,19 +3113,19 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+    <row r="56" spans="1:27" ht="94.5">
+      <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>161</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -3154,8 +3150,8 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+    <row r="57" spans="1:27" ht="105">
+      <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>154</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>155</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -3191,8 +3187,8 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
+    <row r="58" spans="1:27" ht="42" customHeight="1">
+      <c r="A58" s="45"/>
       <c r="B58" s="3" t="s">
         <v>139</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>158</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
@@ -3228,8 +3224,8 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:27" ht="45">
+      <c r="A59" s="45"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
@@ -3265,8 +3261,8 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
+    <row r="60" spans="1:27" ht="60">
+      <c r="A60" s="45"/>
       <c r="B60" s="3" t="s">
         <v>136</v>
       </c>
@@ -3302,8 +3298,8 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
+    <row r="61" spans="1:27" ht="45">
+      <c r="A61" s="45"/>
       <c r="B61" s="3" t="s">
         <v>102</v>
       </c>
@@ -3338,12 +3334,12 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:27" ht="26.25">
+      <c r="A62" s="45"/>
       <c r="B62" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="43" t="s">
         <v>138</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3375,12 +3371,12 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="39" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
+    <row r="63" spans="1:27" ht="39">
+      <c r="A63" s="45"/>
       <c r="B63" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="43" t="s">
         <v>152</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3412,12 +3408,12 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+    <row r="64" spans="1:27" ht="38.25">
+      <c r="A64" s="45"/>
       <c r="B64" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3449,12 +3445,12 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+    <row r="65" spans="1:27" ht="78.75">
+      <c r="A65" s="45"/>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3486,8 +3482,8 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
+    <row r="66" spans="1:27" ht="15">
+      <c r="A66" s="45"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="6"/>
@@ -3511,8 +3507,8 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
+    <row r="67" spans="1:27" ht="15">
+      <c r="A67" s="45"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6"/>
@@ -3536,8 +3532,8 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
+    <row r="68" spans="1:27" ht="15">
+      <c r="A68" s="45"/>
       <c r="B68" s="3"/>
       <c r="C68" s="15"/>
       <c r="D68" s="4"/>
@@ -3565,8 +3561,8 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+    <row r="69" spans="1:27" ht="15">
+      <c r="A69" s="47"/>
       <c r="B69" s="3"/>
       <c r="C69" s="15"/>
       <c r="D69" s="4"/>
@@ -3594,8 +3590,8 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+    <row r="70" spans="1:27" ht="15">
+      <c r="A70" s="47"/>
       <c r="B70" s="3"/>
       <c r="C70" s="15"/>
       <c r="D70" s="4"/>
@@ -3623,7 +3619,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="15"/>
@@ -3652,7 +3648,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="15"/>
@@ -3681,7 +3677,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="15"/>
@@ -3710,7 +3706,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="15"/>
@@ -3739,7 +3735,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="15"/>
@@ -3768,7 +3764,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="15"/>
@@ -3797,7 +3793,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="15"/>
@@ -3826,7 +3822,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="15">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="15"/>
@@ -3855,7 +3851,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="15">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="15"/>
@@ -3884,7 +3880,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="15">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="15"/>
@@ -3913,7 +3909,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="15">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="15"/>
@@ -3942,7 +3938,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="15">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="15"/>
@@ -3971,7 +3967,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="15">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="15"/>
@@ -4000,7 +3996,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="15">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="15"/>
@@ -4029,7 +4025,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="15">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="15"/>
@@ -4058,7 +4054,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="15">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="15"/>
@@ -4087,7 +4083,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="15">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="15"/>
@@ -4116,7 +4112,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="15">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="15"/>
@@ -4145,7 +4141,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="15">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="15"/>
@@ -4174,7 +4170,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="15">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
@@ -4203,7 +4199,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="15">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="15"/>
@@ -4232,7 +4228,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="15">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="15"/>
@@ -4261,7 +4257,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="15">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="15"/>
@@ -4290,7 +4286,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="15">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="15"/>
@@ -4319,7 +4315,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="15">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="15"/>
@@ -4348,7 +4344,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="15">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="15"/>
@@ -4377,7 +4373,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="15">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
@@ -4406,7 +4402,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="15">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="15"/>
@@ -4435,7 +4431,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="15">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="15"/>
@@ -4464,7 +4460,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="15">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
@@ -4493,7 +4489,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="15"/>
@@ -4522,7 +4518,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="15">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="15"/>
@@ -4551,7 +4547,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="15">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="15"/>
@@ -4580,7 +4576,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="15">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="15"/>
@@ -4609,7 +4605,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="15">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="15"/>
@@ -4638,7 +4634,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="15"/>
@@ -4667,7 +4663,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="15">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="15"/>
@@ -4696,7 +4692,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="15">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="15"/>
@@ -4725,7 +4721,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="15">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="15"/>
@@ -4754,7 +4750,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="15">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="15"/>
@@ -4783,7 +4779,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="15">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="15"/>
@@ -4812,7 +4808,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="15">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="15"/>
@@ -4841,7 +4837,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="15">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="15"/>
@@ -4870,7 +4866,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="15">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="15"/>
@@ -4899,7 +4895,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="15">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="15"/>
@@ -4928,7 +4924,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="15">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="15"/>
@@ -4957,7 +4953,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="15">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="15"/>
@@ -4986,7 +4982,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="15">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="15"/>
@@ -5015,7 +5011,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="15"/>
@@ -5044,7 +5040,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="15"/>
@@ -5073,7 +5069,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="15"/>
@@ -5102,7 +5098,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="15"/>
@@ -5131,7 +5127,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="15"/>
@@ -5160,7 +5156,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="15"/>
@@ -5189,7 +5185,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="15"/>
@@ -5218,7 +5214,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="15"/>
@@ -5247,7 +5243,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="15"/>
@@ -5276,7 +5272,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="15"/>
@@ -5305,7 +5301,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="15">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="15"/>
@@ -5334,7 +5330,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="15">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="15"/>
@@ -5363,7 +5359,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="15">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="15"/>
@@ -5392,7 +5388,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="15">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="15"/>
@@ -5421,7 +5417,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="15">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="15"/>
@@ -5450,7 +5446,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="15">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="15"/>
@@ -5479,7 +5475,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="15">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="15"/>
@@ -5508,7 +5504,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="15">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="15"/>
@@ -5537,7 +5533,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="15">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="15"/>
@@ -5566,7 +5562,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="15">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="15"/>
@@ -5595,7 +5591,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="15">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="15"/>
@@ -5624,7 +5620,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="15">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="15"/>
@@ -5653,7 +5649,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="15">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="15"/>
@@ -5682,7 +5678,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="15">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="15"/>
@@ -5711,7 +5707,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="15">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="15"/>
@@ -5740,7 +5736,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="15">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="15"/>
@@ -5769,7 +5765,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="15">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="15"/>
@@ -5798,7 +5794,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="15">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="15"/>
@@ -5827,7 +5823,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="15">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="15"/>
@@ -5856,7 +5852,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="15">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="15"/>
@@ -5885,7 +5881,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="15">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="15"/>
@@ -5914,7 +5910,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="15"/>
@@ -5943,7 +5939,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="15">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="15"/>
@@ -5972,7 +5968,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="15">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="15"/>
@@ -6001,7 +5997,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="15">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="15"/>
@@ -6030,7 +6026,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="15">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="15"/>
@@ -6059,7 +6055,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="15">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="15"/>
@@ -6088,7 +6084,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="15">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="15"/>
@@ -6117,7 +6113,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="15">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="15"/>
@@ -6146,7 +6142,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="15">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="15"/>
@@ -6175,7 +6171,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="15">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="15"/>
@@ -6204,7 +6200,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="15">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="15"/>
@@ -6233,7 +6229,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="15">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="15"/>
@@ -6262,7 +6258,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="15">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="15"/>
@@ -6291,7 +6287,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="15">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="15"/>
@@ -6320,7 +6316,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="15">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="15"/>
@@ -6349,7 +6345,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="15">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="15"/>
@@ -6378,7 +6374,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="15">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="15"/>
@@ -6407,7 +6403,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="15">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="15"/>
@@ -6436,7 +6432,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="15">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="15"/>
@@ -6465,7 +6461,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="15">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="15"/>
@@ -6494,7 +6490,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="15">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="15"/>
@@ -6523,7 +6519,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="15">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="15"/>
@@ -6552,7 +6548,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="15">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="15"/>
@@ -6581,7 +6577,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="15">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="15"/>
@@ -6610,7 +6606,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="15">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="15"/>
@@ -6639,7 +6635,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="15">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="15"/>
@@ -6668,7 +6664,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="15">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="15"/>
@@ -6697,7 +6693,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" ht="15">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="15"/>
@@ -6726,7 +6722,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="15">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="15"/>
@@ -6755,7 +6751,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="15">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="15"/>
@@ -6784,7 +6780,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="15">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="15"/>
@@ -6813,7 +6809,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="15">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="15"/>
@@ -6842,7 +6838,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="15">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="15"/>
@@ -6871,7 +6867,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="15">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="15"/>
@@ -6900,7 +6896,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="15">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="15"/>
@@ -6929,7 +6925,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="15">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="15"/>
@@ -6958,7 +6954,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="15">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="15"/>
@@ -6987,7 +6983,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="15">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="15"/>
@@ -7016,7 +7012,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="15">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="15"/>
@@ -7045,7 +7041,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="15">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="15"/>
@@ -7074,7 +7070,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="15">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="15"/>
@@ -7103,7 +7099,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="15">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="15"/>
@@ -7132,7 +7128,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="15">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="15"/>
@@ -7161,7 +7157,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="15">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="15"/>
@@ -7190,7 +7186,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="15">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="15"/>
@@ -7219,7 +7215,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="15">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="15"/>
@@ -7248,7 +7244,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="15">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="15"/>
@@ -7277,7 +7273,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" ht="15">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="15"/>
@@ -7306,7 +7302,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="15">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="15"/>
@@ -7335,7 +7331,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="15">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="15"/>
@@ -7364,7 +7360,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="15">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="15"/>
@@ -7393,7 +7389,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="15">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="15"/>
@@ -7422,7 +7418,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="15">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="15"/>
@@ -7451,7 +7447,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="15">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="15"/>
@@ -7480,7 +7476,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="15">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="15"/>
@@ -7509,7 +7505,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="15">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="15"/>
@@ -7538,7 +7534,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="15">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="15"/>
@@ -7567,7 +7563,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" ht="15">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="15"/>
@@ -7596,7 +7592,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" ht="15">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="15"/>
@@ -7625,7 +7621,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="15">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="15"/>
@@ -7654,7 +7650,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="15">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="15"/>
@@ -7683,7 +7679,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" ht="15">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="15"/>
@@ -7712,7 +7708,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="15">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="15"/>
@@ -7741,7 +7737,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="15">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="15"/>
@@ -7770,7 +7766,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="15">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="15"/>
@@ -7799,7 +7795,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" ht="15">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="15"/>
@@ -7828,7 +7824,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="15">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="15"/>
@@ -7857,7 +7853,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="15">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="15"/>
@@ -7886,7 +7882,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="15">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="15"/>
@@ -7915,7 +7911,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" ht="15">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="15"/>
@@ -7944,7 +7940,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" ht="15">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="15"/>
@@ -7973,7 +7969,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="15">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="15"/>
@@ -8002,7 +7998,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="15">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="15"/>
@@ -8031,7 +8027,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="15">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="15"/>
@@ -8060,7 +8056,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="15">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="15"/>
@@ -8089,7 +8085,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="15">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="15"/>
@@ -8118,7 +8114,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" ht="15">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="15"/>
@@ -8147,7 +8143,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="15">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="15"/>
@@ -8176,7 +8172,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="15">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="15"/>
@@ -8205,7 +8201,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="15">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="15"/>
@@ -8234,7 +8230,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="15">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="15"/>
@@ -8263,7 +8259,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="15">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="15"/>
@@ -8292,7 +8288,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" ht="15">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="15"/>
@@ -8321,7 +8317,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="15">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="15"/>
@@ -8350,7 +8346,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="15">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="15"/>
@@ -8379,7 +8375,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="15">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="15"/>
@@ -8408,7 +8404,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" ht="15">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="15"/>
@@ -8437,7 +8433,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="15">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="15"/>
@@ -8466,7 +8462,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="15">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="15"/>
@@ -8495,7 +8491,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="15">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="15"/>
@@ -8524,7 +8520,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" ht="15">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="15"/>
@@ -8553,7 +8549,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="15">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="15"/>
@@ -8582,7 +8578,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="15">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="15"/>
@@ -8611,7 +8607,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="15">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="15"/>
@@ -8640,7 +8636,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="15">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="15"/>
@@ -8669,7 +8665,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="15">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="15"/>
@@ -8698,7 +8694,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="15">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="15"/>
@@ -8727,7 +8723,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="15">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="15"/>
@@ -8756,7 +8752,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="15">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="15"/>
@@ -8785,7 +8781,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="15">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="15"/>
@@ -8814,7 +8810,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="15">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="15"/>
@@ -8843,7 +8839,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="15">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="15"/>
@@ -8872,7 +8868,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="15">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="15"/>
@@ -8901,7 +8897,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="15">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="15"/>
@@ -8930,7 +8926,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="15">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="15"/>
@@ -8959,7 +8955,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="15">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="15"/>
@@ -8988,7 +8984,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="15">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="15"/>
@@ -9017,7 +9013,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="15">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="15"/>
@@ -9046,7 +9042,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="15">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="15"/>
@@ -9075,7 +9071,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="15">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="15"/>
@@ -9104,7 +9100,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="15">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="15"/>
@@ -9133,7 +9129,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="15">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="15"/>
@@ -9162,7 +9158,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="15">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="15"/>
@@ -9191,7 +9187,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="15">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="15"/>
@@ -9220,7 +9216,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="15">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="15"/>
@@ -9249,7 +9245,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="15">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="15"/>
@@ -9278,7 +9274,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="15">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="15"/>
@@ -9307,7 +9303,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="15">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="15"/>
@@ -9336,7 +9332,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="15">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="15"/>
@@ -9365,7 +9361,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="15">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="15"/>
@@ -9394,7 +9390,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="15">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="15"/>
@@ -9423,7 +9419,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="15">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="15"/>
@@ -9452,7 +9448,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="15">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="15"/>
@@ -9481,7 +9477,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="15">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="15"/>
@@ -9510,7 +9506,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="15">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="15"/>
@@ -9539,7 +9535,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="15">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="15"/>
@@ -9568,7 +9564,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="15">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="15"/>
@@ -9597,7 +9593,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="15">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="15"/>
@@ -9626,7 +9622,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="15">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="15"/>
@@ -9655,7 +9651,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="15">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="15"/>
@@ -9684,7 +9680,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="15">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="15"/>
@@ -9713,7 +9709,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="15">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="15"/>
@@ -9742,7 +9738,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="15">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="15"/>
@@ -9771,7 +9767,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="15">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="15"/>
@@ -9800,7 +9796,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="15">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="15"/>
@@ -9829,7 +9825,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="15">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="15"/>
@@ -9858,7 +9854,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="15">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="15"/>
@@ -9887,7 +9883,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="15">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="15"/>
@@ -9916,7 +9912,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="15">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="15"/>
@@ -9945,7 +9941,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="15">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="15"/>
@@ -9974,7 +9970,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="15">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="15"/>
@@ -10003,7 +9999,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="15">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="15"/>
@@ -10032,7 +10028,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="15">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="15"/>
@@ -10061,7 +10057,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="15">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="15"/>
@@ -10090,7 +10086,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="15">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="15"/>
@@ -10119,7 +10115,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="15">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="15"/>
@@ -10148,7 +10144,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="15">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="15"/>
@@ -10177,7 +10173,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="15">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="15"/>
@@ -10206,7 +10202,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="15">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="15"/>
@@ -10235,7 +10231,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="15">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="15"/>
@@ -10264,7 +10260,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="15">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="15"/>
@@ -10293,7 +10289,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="15">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="15"/>
@@ -10322,7 +10318,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="15">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="15"/>
@@ -10351,7 +10347,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="15">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="15"/>
@@ -10380,7 +10376,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="15">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="15"/>
@@ -10409,7 +10405,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="15">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="15"/>
@@ -10438,7 +10434,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="15">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="15"/>
@@ -10467,7 +10463,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="15">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="15"/>
@@ -10496,7 +10492,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="15">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="15"/>
@@ -10525,7 +10521,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="15">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="15"/>
@@ -10554,7 +10550,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="15">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="15"/>
@@ -10583,7 +10579,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="15">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="15"/>
@@ -10612,7 +10608,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="15">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="15"/>
@@ -10641,7 +10637,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="15">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="15"/>
@@ -10670,7 +10666,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="15">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="15"/>
@@ -10699,7 +10695,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="15">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="15"/>
@@ -10728,7 +10724,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="15">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="15"/>
@@ -10757,7 +10753,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="15">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="15"/>
@@ -10786,7 +10782,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="15">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="15"/>
@@ -10815,7 +10811,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="15">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="15"/>
@@ -10844,7 +10840,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="15">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="15"/>
@@ -10873,7 +10869,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="15">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="15"/>
@@ -10902,7 +10898,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="15">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="15"/>
@@ -10931,7 +10927,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="15">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="15"/>
@@ -10960,7 +10956,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="15">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="15"/>
@@ -10989,7 +10985,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="15">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="15"/>
@@ -11018,7 +11014,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="15">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="15"/>
@@ -11047,7 +11043,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="15">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="15"/>
@@ -11076,7 +11072,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="15">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="15"/>
@@ -11105,7 +11101,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="15">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="15"/>
@@ -11134,7 +11130,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="15">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="15"/>
@@ -11163,7 +11159,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="15">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="15"/>
@@ -11192,7 +11188,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="15">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="15"/>
@@ -11221,7 +11217,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="15">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="15"/>
@@ -11250,7 +11246,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="15">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="15"/>
@@ -11279,7 +11275,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="15">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="15"/>
@@ -11308,7 +11304,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="15">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="15"/>
@@ -11337,7 +11333,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="15">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="15"/>
@@ -11366,7 +11362,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="15">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="15"/>
@@ -11395,7 +11391,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="15">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="15"/>
@@ -11424,7 +11420,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="15">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="15"/>
@@ -11453,7 +11449,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="15">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="15"/>
@@ -11482,7 +11478,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="15">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="15"/>
@@ -11511,7 +11507,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="15">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="15"/>
@@ -11540,7 +11536,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="15">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="15"/>
@@ -11569,7 +11565,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="15">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="15"/>
@@ -11598,7 +11594,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="15">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="15"/>
@@ -11627,7 +11623,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="15">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="15"/>
@@ -11656,7 +11652,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="15">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="15"/>
@@ -11685,7 +11681,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="15">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="15"/>
@@ -11714,7 +11710,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="15">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="15"/>
@@ -11743,7 +11739,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="15">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="15"/>
@@ -11772,7 +11768,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="15">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="15"/>
@@ -11801,7 +11797,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="15">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="15"/>
@@ -11830,7 +11826,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="15">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="15"/>
@@ -11859,7 +11855,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="15">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="15"/>
@@ -11888,7 +11884,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="15">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="15"/>
@@ -11917,7 +11913,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="15">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="15"/>
@@ -11946,7 +11942,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="15">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="15"/>
@@ -11975,7 +11971,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="15">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="15"/>
@@ -12004,7 +12000,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="15">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="15"/>
@@ -12033,7 +12029,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="15">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="15"/>
@@ -12062,7 +12058,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="15">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="15"/>
@@ -12091,7 +12087,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="15">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="15"/>
@@ -12120,7 +12116,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="15">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="15"/>
@@ -12149,7 +12145,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="15">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="15"/>
@@ -12178,7 +12174,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="15">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="15"/>
@@ -12207,7 +12203,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="15">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="15"/>
@@ -12236,7 +12232,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="15">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="15"/>
@@ -12265,7 +12261,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="15">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="15"/>
@@ -12294,7 +12290,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="15">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="15"/>
@@ -12323,7 +12319,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="15">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="15"/>
@@ -12352,7 +12348,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="15">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="15"/>
@@ -12381,7 +12377,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="15">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="15"/>
@@ -12410,7 +12406,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="15">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="15"/>
@@ -12439,7 +12435,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="15">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="15"/>
@@ -12468,7 +12464,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="15">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="15"/>
@@ -12497,7 +12493,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="15">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="15"/>
@@ -12526,7 +12522,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="15">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="15"/>
@@ -12555,7 +12551,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="15">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="15"/>
@@ -12584,7 +12580,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="15">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="15"/>
@@ -12613,7 +12609,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="15">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="15"/>
@@ -12642,7 +12638,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="15">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="15"/>
@@ -12671,7 +12667,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="15">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="15"/>
@@ -12700,7 +12696,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="15">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="15"/>
@@ -12729,7 +12725,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="15">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="15"/>
@@ -12758,7 +12754,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="15">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="15"/>
@@ -12787,7 +12783,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="15">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="15"/>
@@ -12816,7 +12812,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="15">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="15"/>
@@ -12845,7 +12841,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="15">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="15"/>
@@ -12874,7 +12870,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="15">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="15"/>
@@ -12903,7 +12899,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="15">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="15"/>
@@ -12932,7 +12928,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="15">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="15"/>
@@ -12961,7 +12957,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="15">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="15"/>
@@ -12990,7 +12986,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="15">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="15"/>
@@ -13019,7 +13015,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="15">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="15"/>
@@ -13048,7 +13044,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="15">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="15"/>
@@ -13077,7 +13073,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="15">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="15"/>
@@ -13106,7 +13102,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="15">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="15"/>
@@ -13135,7 +13131,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="15">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="15"/>
@@ -13164,7 +13160,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="15">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="15"/>
@@ -13193,7 +13189,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="15">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="15"/>
@@ -13222,7 +13218,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="15">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="15"/>
@@ -13251,7 +13247,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="15">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="15"/>
@@ -13280,7 +13276,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="15">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="15"/>
@@ -13309,7 +13305,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="15">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="15"/>
@@ -13338,7 +13334,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="15">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="15"/>
@@ -13367,7 +13363,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="15">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="15"/>
@@ -13396,7 +13392,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="15">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="15"/>
@@ -13425,7 +13421,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="15">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="15"/>
@@ -13454,7 +13450,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="15">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="15"/>
@@ -13483,7 +13479,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="15">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="15"/>
@@ -13512,7 +13508,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="15">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="15"/>
@@ -13541,7 +13537,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="15">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="15"/>
@@ -13570,7 +13566,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="15">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="15"/>
@@ -13599,7 +13595,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="15">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="15"/>
@@ -13628,7 +13624,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="15">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="15"/>
@@ -13657,7 +13653,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="15">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="15"/>
@@ -13686,7 +13682,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="15">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="15"/>
@@ -13715,7 +13711,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="15">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="15"/>
@@ -13744,7 +13740,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="15">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="15"/>
@@ -13773,7 +13769,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="15">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="15"/>
@@ -13802,7 +13798,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="15">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="15"/>
@@ -13831,7 +13827,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="15">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="15"/>
@@ -13860,7 +13856,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="15">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="15"/>
@@ -13889,7 +13885,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="15">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="15"/>
@@ -13918,7 +13914,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="15">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="15"/>
@@ -13947,7 +13943,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="15">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="15"/>
@@ -13976,7 +13972,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="15">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="15"/>
@@ -14005,7 +14001,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="15">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="15"/>
@@ -14034,7 +14030,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="15">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="15"/>
@@ -14063,7 +14059,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="15">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="15"/>
@@ -14092,7 +14088,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="15">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="15"/>
@@ -14121,7 +14117,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="15">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="15"/>
@@ -14150,7 +14146,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="15">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="15"/>
@@ -14179,7 +14175,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="15">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="15"/>
@@ -14208,7 +14204,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="15">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="15"/>
@@ -14237,7 +14233,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="15">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="15"/>
@@ -14266,7 +14262,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="15">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="15"/>
@@ -14295,7 +14291,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="15">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="15"/>
@@ -14324,7 +14320,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="15">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="15"/>
@@ -14353,7 +14349,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="15">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="15"/>
@@ -14382,7 +14378,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="15">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="15"/>
@@ -14411,7 +14407,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="15">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="15"/>
@@ -14440,7 +14436,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="15">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="15"/>
@@ -14469,7 +14465,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="15">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="15"/>
@@ -14498,7 +14494,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="15">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="15"/>
@@ -14527,7 +14523,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="15">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="15"/>
@@ -14556,7 +14552,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="15">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="15"/>
@@ -14585,7 +14581,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="15">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="15"/>
@@ -14614,7 +14610,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="15">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="15"/>
@@ -14643,7 +14639,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="15">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="15"/>
@@ -14672,7 +14668,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="15">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="15"/>
@@ -14701,7 +14697,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="15">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="15"/>
@@ -14730,7 +14726,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="15">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="15"/>
@@ -14759,7 +14755,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="15">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="15"/>
@@ -14788,7 +14784,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="15">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="15"/>
@@ -14817,7 +14813,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="15">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="15"/>
@@ -14846,7 +14842,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="15">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="15"/>
@@ -14875,7 +14871,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="15">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="15"/>
@@ -14904,7 +14900,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="15">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="15"/>
@@ -14933,7 +14929,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="15">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="15"/>
@@ -14962,7 +14958,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="15">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="15"/>
@@ -14991,7 +14987,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="15">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="15"/>
@@ -15020,7 +15016,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="15">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="15"/>
@@ -15049,7 +15045,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
     </row>
-    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="15">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="15"/>
@@ -15078,7 +15074,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="15">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="15"/>
@@ -15107,7 +15103,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="15">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="15"/>
@@ -15136,7 +15132,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="15">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="15"/>
@@ -15165,7 +15161,7 @@
       <c r="Z468" s="4"/>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="15">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="15"/>
@@ -15194,7 +15190,7 @@
       <c r="Z469" s="4"/>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="15">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="15"/>
@@ -15223,7 +15219,7 @@
       <c r="Z470" s="4"/>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="15">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="15"/>
@@ -15252,7 +15248,7 @@
       <c r="Z471" s="4"/>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="15">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="15"/>
@@ -15281,7 +15277,7 @@
       <c r="Z472" s="4"/>
       <c r="AA472" s="4"/>
     </row>
-    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="15">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="15"/>
@@ -15310,7 +15306,7 @@
       <c r="Z473" s="4"/>
       <c r="AA473" s="4"/>
     </row>
-    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="15">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="15"/>
@@ -15339,7 +15335,7 @@
       <c r="Z474" s="4"/>
       <c r="AA474" s="4"/>
     </row>
-    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="15">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="15"/>
@@ -15368,7 +15364,7 @@
       <c r="Z475" s="4"/>
       <c r="AA475" s="4"/>
     </row>
-    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="15">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="15"/>
@@ -15397,7 +15393,7 @@
       <c r="Z476" s="4"/>
       <c r="AA476" s="4"/>
     </row>
-    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="15">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="15"/>
@@ -15426,7 +15422,7 @@
       <c r="Z477" s="4"/>
       <c r="AA477" s="4"/>
     </row>
-    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="15">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="15"/>
@@ -15455,7 +15451,7 @@
       <c r="Z478" s="4"/>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="15">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="15"/>
@@ -15484,7 +15480,7 @@
       <c r="Z479" s="4"/>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="15">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="15"/>
@@ -15513,7 +15509,7 @@
       <c r="Z480" s="4"/>
       <c r="AA480" s="4"/>
     </row>
-    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="15">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="15"/>
@@ -15542,7 +15538,7 @@
       <c r="Z481" s="4"/>
       <c r="AA481" s="4"/>
     </row>
-    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="15">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="15"/>
@@ -15571,7 +15567,7 @@
       <c r="Z482" s="4"/>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="15">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="15"/>
@@ -15600,7 +15596,7 @@
       <c r="Z483" s="4"/>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="15">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="15"/>
@@ -15629,7 +15625,7 @@
       <c r="Z484" s="4"/>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="15">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="15"/>
@@ -15658,7 +15654,7 @@
       <c r="Z485" s="4"/>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="15">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="15"/>
@@ -15687,7 +15683,7 @@
       <c r="Z486" s="4"/>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="15">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="15"/>
@@ -15716,7 +15712,7 @@
       <c r="Z487" s="4"/>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="15">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="15"/>
@@ -15745,7 +15741,7 @@
       <c r="Z488" s="4"/>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="15">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="15"/>
@@ -15774,7 +15770,7 @@
       <c r="Z489" s="4"/>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="15">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="15"/>
@@ -15803,7 +15799,7 @@
       <c r="Z490" s="4"/>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="15">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="15"/>
@@ -15832,7 +15828,7 @@
       <c r="Z491" s="4"/>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="15">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="15"/>
@@ -15861,7 +15857,7 @@
       <c r="Z492" s="4"/>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="15">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="15"/>
@@ -15890,7 +15886,7 @@
       <c r="Z493" s="4"/>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="15">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="15"/>
@@ -15919,7 +15915,7 @@
       <c r="Z494" s="4"/>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="15">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="15"/>
@@ -15948,7 +15944,7 @@
       <c r="Z495" s="4"/>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="15">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="15"/>
@@ -15977,7 +15973,7 @@
       <c r="Z496" s="4"/>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="15">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="15"/>
@@ -16006,7 +16002,7 @@
       <c r="Z497" s="4"/>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="15">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="15"/>
@@ -16035,7 +16031,7 @@
       <c r="Z498" s="4"/>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="15">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="15"/>
@@ -16064,7 +16060,7 @@
       <c r="Z499" s="4"/>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="15">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="15"/>
@@ -16093,7 +16089,7 @@
       <c r="Z500" s="4"/>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="15">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="15"/>
@@ -16122,7 +16118,7 @@
       <c r="Z501" s="4"/>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="15">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="15"/>
@@ -16151,7 +16147,7 @@
       <c r="Z502" s="4"/>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="15">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="15"/>
@@ -16180,7 +16176,7 @@
       <c r="Z503" s="4"/>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="15">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="15"/>
@@ -16209,7 +16205,7 @@
       <c r="Z504" s="4"/>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="15">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="15"/>
@@ -16238,7 +16234,7 @@
       <c r="Z505" s="4"/>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="15">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="15"/>
@@ -16267,7 +16263,7 @@
       <c r="Z506" s="4"/>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="15">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="15"/>
@@ -16296,7 +16292,7 @@
       <c r="Z507" s="4"/>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="15">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="15"/>
@@ -16325,7 +16321,7 @@
       <c r="Z508" s="4"/>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="15">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="15"/>
@@ -16354,7 +16350,7 @@
       <c r="Z509" s="4"/>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="15">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="15"/>
@@ -16383,7 +16379,7 @@
       <c r="Z510" s="4"/>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="15">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="15"/>
@@ -16412,7 +16408,7 @@
       <c r="Z511" s="4"/>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="15">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="15"/>
@@ -16441,7 +16437,7 @@
       <c r="Z512" s="4"/>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="15">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="15"/>
@@ -16470,7 +16466,7 @@
       <c r="Z513" s="4"/>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="15">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="15"/>
@@ -16499,7 +16495,7 @@
       <c r="Z514" s="4"/>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="15">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="15"/>
@@ -16528,7 +16524,7 @@
       <c r="Z515" s="4"/>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="15">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="15"/>
@@ -16557,7 +16553,7 @@
       <c r="Z516" s="4"/>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="15">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="15"/>
@@ -16586,7 +16582,7 @@
       <c r="Z517" s="4"/>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="15">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="15"/>
@@ -16615,7 +16611,7 @@
       <c r="Z518" s="4"/>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="15">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="15"/>
@@ -16644,7 +16640,7 @@
       <c r="Z519" s="4"/>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="15">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="15"/>
@@ -16673,7 +16669,7 @@
       <c r="Z520" s="4"/>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="15">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="15"/>
@@ -16702,7 +16698,7 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="15">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="15"/>
@@ -16731,7 +16727,7 @@
       <c r="Z522" s="4"/>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="15">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="15"/>
@@ -16760,7 +16756,7 @@
       <c r="Z523" s="4"/>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="15">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="15"/>
@@ -16789,7 +16785,7 @@
       <c r="Z524" s="4"/>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="15">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="15"/>
@@ -16818,7 +16814,7 @@
       <c r="Z525" s="4"/>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="15">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="15"/>
@@ -16847,7 +16843,7 @@
       <c r="Z526" s="4"/>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="15">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="15"/>
@@ -16876,7 +16872,7 @@
       <c r="Z527" s="4"/>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="15">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="15"/>
@@ -16905,7 +16901,7 @@
       <c r="Z528" s="4"/>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="15">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="15"/>
@@ -16934,7 +16930,7 @@
       <c r="Z529" s="4"/>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="15">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="15"/>
@@ -16963,7 +16959,7 @@
       <c r="Z530" s="4"/>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="15">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="15"/>
@@ -16992,7 +16988,7 @@
       <c r="Z531" s="4"/>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="15">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="15"/>
@@ -17021,7 +17017,7 @@
       <c r="Z532" s="4"/>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="15">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="15"/>
@@ -17050,7 +17046,7 @@
       <c r="Z533" s="4"/>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="15">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="15"/>
@@ -17079,7 +17075,7 @@
       <c r="Z534" s="4"/>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="15">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="15"/>
@@ -17108,7 +17104,7 @@
       <c r="Z535" s="4"/>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="15">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="15"/>
@@ -17137,7 +17133,7 @@
       <c r="Z536" s="4"/>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="15">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="15"/>
@@ -17166,7 +17162,7 @@
       <c r="Z537" s="4"/>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="15">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="15"/>
@@ -17195,7 +17191,7 @@
       <c r="Z538" s="4"/>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="15">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="15"/>
@@ -17224,7 +17220,7 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="15">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="15"/>
@@ -17253,7 +17249,7 @@
       <c r="Z540" s="4"/>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="15">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="15"/>
@@ -17282,7 +17278,7 @@
       <c r="Z541" s="4"/>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="15">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="15"/>
@@ -17311,7 +17307,7 @@
       <c r="Z542" s="4"/>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="15">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="15"/>
@@ -17340,7 +17336,7 @@
       <c r="Z543" s="4"/>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="15">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="15"/>
@@ -17369,7 +17365,7 @@
       <c r="Z544" s="4"/>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" ht="15">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="15"/>
@@ -17398,7 +17394,7 @@
       <c r="Z545" s="4"/>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="15">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="15"/>
@@ -17427,7 +17423,7 @@
       <c r="Z546" s="4"/>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="15">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="15"/>
@@ -17456,7 +17452,7 @@
       <c r="Z547" s="4"/>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="15">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="15"/>
@@ -17485,7 +17481,7 @@
       <c r="Z548" s="4"/>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="15">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="15"/>
@@ -17514,7 +17510,7 @@
       <c r="Z549" s="4"/>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="15">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="15"/>
@@ -17543,7 +17539,7 @@
       <c r="Z550" s="4"/>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="15">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="15"/>
@@ -17572,7 +17568,7 @@
       <c r="Z551" s="4"/>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" ht="15">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="15"/>
@@ -17601,7 +17597,7 @@
       <c r="Z552" s="4"/>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="15">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="15"/>
@@ -17630,7 +17626,7 @@
       <c r="Z553" s="4"/>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="15">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="15"/>
@@ -17659,7 +17655,7 @@
       <c r="Z554" s="4"/>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="15">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="15"/>
@@ -17688,7 +17684,7 @@
       <c r="Z555" s="4"/>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="15">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="15"/>
@@ -17717,7 +17713,7 @@
       <c r="Z556" s="4"/>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" ht="15">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="15"/>
@@ -17746,7 +17742,7 @@
       <c r="Z557" s="4"/>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="15">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="15"/>
@@ -17775,7 +17771,7 @@
       <c r="Z558" s="4"/>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="15">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="15"/>
@@ -17804,7 +17800,7 @@
       <c r="Z559" s="4"/>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="15">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="15"/>
@@ -17833,7 +17829,7 @@
       <c r="Z560" s="4"/>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" ht="15">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="15"/>
@@ -17862,7 +17858,7 @@
       <c r="Z561" s="4"/>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="15">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="15"/>
@@ -17891,7 +17887,7 @@
       <c r="Z562" s="4"/>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="15">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="15"/>
@@ -17920,7 +17916,7 @@
       <c r="Z563" s="4"/>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="15">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="15"/>
@@ -17949,7 +17945,7 @@
       <c r="Z564" s="4"/>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="15">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="15"/>
@@ -17978,7 +17974,7 @@
       <c r="Z565" s="4"/>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="15">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="15"/>
@@ -18007,7 +18003,7 @@
       <c r="Z566" s="4"/>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="15">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="15"/>
@@ -18036,7 +18032,7 @@
       <c r="Z567" s="4"/>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" ht="15">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="15"/>
@@ -18065,7 +18061,7 @@
       <c r="Z568" s="4"/>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="15">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="15"/>
@@ -18094,7 +18090,7 @@
       <c r="Z569" s="4"/>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" ht="15">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="15"/>
@@ -18123,7 +18119,7 @@
       <c r="Z570" s="4"/>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="15">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="15"/>
@@ -18152,7 +18148,7 @@
       <c r="Z571" s="4"/>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" ht="15">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="15"/>
@@ -18181,7 +18177,7 @@
       <c r="Z572" s="4"/>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="15">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="15"/>
@@ -18210,7 +18206,7 @@
       <c r="Z573" s="4"/>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="15">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="15"/>
@@ -18239,7 +18235,7 @@
       <c r="Z574" s="4"/>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" ht="15">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="15"/>
@@ -18268,7 +18264,7 @@
       <c r="Z575" s="4"/>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" ht="15">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="15"/>
@@ -18297,7 +18293,7 @@
       <c r="Z576" s="4"/>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="15">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="15"/>
@@ -18326,7 +18322,7 @@
       <c r="Z577" s="4"/>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="15">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="15"/>
@@ -18355,7 +18351,7 @@
       <c r="Z578" s="4"/>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" ht="15">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="15"/>
@@ -18384,7 +18380,7 @@
       <c r="Z579" s="4"/>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="15">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="15"/>
@@ -18413,7 +18409,7 @@
       <c r="Z580" s="4"/>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" ht="15">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="15"/>
@@ -18442,7 +18438,7 @@
       <c r="Z581" s="4"/>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="15">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="15"/>
@@ -18471,7 +18467,7 @@
       <c r="Z582" s="4"/>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="15">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="15"/>
@@ -18500,7 +18496,7 @@
       <c r="Z583" s="4"/>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="15">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="15"/>
@@ -18529,7 +18525,7 @@
       <c r="Z584" s="4"/>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" ht="15">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="15"/>
@@ -18558,7 +18554,7 @@
       <c r="Z585" s="4"/>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="15">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="15"/>
@@ -18587,7 +18583,7 @@
       <c r="Z586" s="4"/>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" ht="15">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="15"/>
@@ -18616,7 +18612,7 @@
       <c r="Z587" s="4"/>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="15">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="15"/>
@@ -18645,7 +18641,7 @@
       <c r="Z588" s="4"/>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="15">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="15"/>
@@ -18674,7 +18670,7 @@
       <c r="Z589" s="4"/>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" ht="15">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="15"/>
@@ -18703,7 +18699,7 @@
       <c r="Z590" s="4"/>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" ht="15">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="15"/>
@@ -18732,7 +18728,7 @@
       <c r="Z591" s="4"/>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" ht="15">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="15"/>
@@ -18761,7 +18757,7 @@
       <c r="Z592" s="4"/>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" ht="15">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="15"/>
@@ -18790,7 +18786,7 @@
       <c r="Z593" s="4"/>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="15">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="15"/>
@@ -18819,7 +18815,7 @@
       <c r="Z594" s="4"/>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="15">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="15"/>
@@ -18848,7 +18844,7 @@
       <c r="Z595" s="4"/>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="15">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="15"/>
@@ -18877,7 +18873,7 @@
       <c r="Z596" s="4"/>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="15">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="15"/>
@@ -18906,7 +18902,7 @@
       <c r="Z597" s="4"/>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="15">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="15"/>
@@ -18935,7 +18931,7 @@
       <c r="Z598" s="4"/>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" ht="15">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="15"/>
@@ -18964,7 +18960,7 @@
       <c r="Z599" s="4"/>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" ht="15">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="15"/>
@@ -18993,7 +18989,7 @@
       <c r="Z600" s="4"/>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" ht="15">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="15"/>
@@ -19022,7 +19018,7 @@
       <c r="Z601" s="4"/>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="15">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="15"/>
@@ -19051,7 +19047,7 @@
       <c r="Z602" s="4"/>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="15">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="15"/>
@@ -19080,7 +19076,7 @@
       <c r="Z603" s="4"/>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="15">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="15"/>
@@ -19109,7 +19105,7 @@
       <c r="Z604" s="4"/>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="15">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="15"/>
@@ -19138,7 +19134,7 @@
       <c r="Z605" s="4"/>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="15">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="15"/>
@@ -19167,7 +19163,7 @@
       <c r="Z606" s="4"/>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="15">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="15"/>
@@ -19196,7 +19192,7 @@
       <c r="Z607" s="4"/>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="15">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="15"/>
@@ -19225,7 +19221,7 @@
       <c r="Z608" s="4"/>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" ht="15">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="15"/>
@@ -19254,7 +19250,7 @@
       <c r="Z609" s="4"/>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="15">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="15"/>
@@ -19283,7 +19279,7 @@
       <c r="Z610" s="4"/>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" ht="15">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="15"/>
@@ -19312,7 +19308,7 @@
       <c r="Z611" s="4"/>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="15">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="15"/>
@@ -19341,7 +19337,7 @@
       <c r="Z612" s="4"/>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="15">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="15"/>
@@ -19370,7 +19366,7 @@
       <c r="Z613" s="4"/>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" ht="15">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="15"/>
@@ -19399,7 +19395,7 @@
       <c r="Z614" s="4"/>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="15">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="15"/>
@@ -19428,7 +19424,7 @@
       <c r="Z615" s="4"/>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" ht="15">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="15"/>
@@ -19457,7 +19453,7 @@
       <c r="Z616" s="4"/>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="15">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="15"/>
@@ -19486,7 +19482,7 @@
       <c r="Z617" s="4"/>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" ht="15">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="15"/>
@@ -19515,7 +19511,7 @@
       <c r="Z618" s="4"/>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="15">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="15"/>
@@ -19544,7 +19540,7 @@
       <c r="Z619" s="4"/>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="15">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="15"/>
@@ -19573,7 +19569,7 @@
       <c r="Z620" s="4"/>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="15">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="15"/>
@@ -19602,7 +19598,7 @@
       <c r="Z621" s="4"/>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="15">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="15"/>
@@ -19631,7 +19627,7 @@
       <c r="Z622" s="4"/>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="15">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="15"/>
@@ -19660,7 +19656,7 @@
       <c r="Z623" s="4"/>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" ht="15">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="15"/>
@@ -19689,7 +19685,7 @@
       <c r="Z624" s="4"/>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="15">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="15"/>
@@ -19718,7 +19714,7 @@
       <c r="Z625" s="4"/>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="15">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="15"/>
@@ -19747,7 +19743,7 @@
       <c r="Z626" s="4"/>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="15">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="15"/>
@@ -19776,7 +19772,7 @@
       <c r="Z627" s="4"/>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="15">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="15"/>
@@ -19805,7 +19801,7 @@
       <c r="Z628" s="4"/>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" ht="15">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="15"/>
@@ -19834,7 +19830,7 @@
       <c r="Z629" s="4"/>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="15">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="15"/>
@@ -19863,7 +19859,7 @@
       <c r="Z630" s="4"/>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="15">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="15"/>
@@ -19892,7 +19888,7 @@
       <c r="Z631" s="4"/>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="15">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="15"/>
@@ -19921,7 +19917,7 @@
       <c r="Z632" s="4"/>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="15">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="15"/>
@@ -19950,7 +19946,7 @@
       <c r="Z633" s="4"/>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="15">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="15"/>
@@ -19979,7 +19975,7 @@
       <c r="Z634" s="4"/>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="15">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="15"/>
@@ -20008,7 +20004,7 @@
       <c r="Z635" s="4"/>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" ht="15">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="15"/>
@@ -20037,7 +20033,7 @@
       <c r="Z636" s="4"/>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="15">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="15"/>
@@ -20066,7 +20062,7 @@
       <c r="Z637" s="4"/>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="15">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="15"/>
@@ -20095,7 +20091,7 @@
       <c r="Z638" s="4"/>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" ht="15">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="15"/>
@@ -20124,7 +20120,7 @@
       <c r="Z639" s="4"/>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="15">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="15"/>
@@ -20153,7 +20149,7 @@
       <c r="Z640" s="4"/>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" ht="15">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="15"/>
@@ -20182,7 +20178,7 @@
       <c r="Z641" s="4"/>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="15">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="15"/>
@@ -20211,7 +20207,7 @@
       <c r="Z642" s="4"/>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="15">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="15"/>
@@ -20240,7 +20236,7 @@
       <c r="Z643" s="4"/>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="15">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="15"/>
@@ -20269,7 +20265,7 @@
       <c r="Z644" s="4"/>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="15">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="15"/>
@@ -20298,7 +20294,7 @@
       <c r="Z645" s="4"/>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="15">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="15"/>
@@ -20327,7 +20323,7 @@
       <c r="Z646" s="4"/>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" ht="15">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="15"/>
@@ -20356,7 +20352,7 @@
       <c r="Z647" s="4"/>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" ht="15">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="15"/>
@@ -20385,7 +20381,7 @@
       <c r="Z648" s="4"/>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="15">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="15"/>
@@ -20414,7 +20410,7 @@
       <c r="Z649" s="4"/>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" ht="15">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="15"/>
@@ -20443,7 +20439,7 @@
       <c r="Z650" s="4"/>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="15">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="15"/>
@@ -20472,7 +20468,7 @@
       <c r="Z651" s="4"/>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="15">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="15"/>
@@ -20501,7 +20497,7 @@
       <c r="Z652" s="4"/>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="15">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="15"/>
@@ -20530,7 +20526,7 @@
       <c r="Z653" s="4"/>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" ht="15">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="15"/>
@@ -20559,7 +20555,7 @@
       <c r="Z654" s="4"/>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="15">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="15"/>
@@ -20588,7 +20584,7 @@
       <c r="Z655" s="4"/>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="15">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="15"/>
@@ -20617,7 +20613,7 @@
       <c r="Z656" s="4"/>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="15">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="15"/>
@@ -20646,7 +20642,7 @@
       <c r="Z657" s="4"/>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" ht="15">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="15"/>
@@ -20675,7 +20671,7 @@
       <c r="Z658" s="4"/>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="15">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="15"/>
@@ -20704,7 +20700,7 @@
       <c r="Z659" s="4"/>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="15">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="15"/>
@@ -20733,7 +20729,7 @@
       <c r="Z660" s="4"/>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="15">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="15"/>
@@ -20762,7 +20758,7 @@
       <c r="Z661" s="4"/>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="15">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="15"/>
@@ -20791,7 +20787,7 @@
       <c r="Z662" s="4"/>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="15">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="15"/>
@@ -20820,7 +20816,7 @@
       <c r="Z663" s="4"/>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="15">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="15"/>
@@ -20849,7 +20845,7 @@
       <c r="Z664" s="4"/>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="15">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="15"/>
@@ -20878,7 +20874,7 @@
       <c r="Z665" s="4"/>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" ht="15">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="15"/>
@@ -20907,7 +20903,7 @@
       <c r="Z666" s="4"/>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="15">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="15"/>
@@ -20936,7 +20932,7 @@
       <c r="Z667" s="4"/>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="15">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="15"/>
@@ -20965,7 +20961,7 @@
       <c r="Z668" s="4"/>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" ht="15">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="15"/>
@@ -20994,7 +20990,7 @@
       <c r="Z669" s="4"/>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" ht="15">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="15"/>
@@ -21023,7 +21019,7 @@
       <c r="Z670" s="4"/>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" ht="15">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="15"/>
@@ -21052,7 +21048,7 @@
       <c r="Z671" s="4"/>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="15">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="15"/>
@@ -21081,7 +21077,7 @@
       <c r="Z672" s="4"/>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="15">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="15"/>
@@ -21110,7 +21106,7 @@
       <c r="Z673" s="4"/>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="15">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="15"/>
@@ -21139,7 +21135,7 @@
       <c r="Z674" s="4"/>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="15">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="15"/>
@@ -21168,7 +21164,7 @@
       <c r="Z675" s="4"/>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" ht="15">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="15"/>
@@ -21197,7 +21193,7 @@
       <c r="Z676" s="4"/>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="15">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="15"/>
@@ -21226,7 +21222,7 @@
       <c r="Z677" s="4"/>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" ht="15">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="15"/>
@@ -21255,7 +21251,7 @@
       <c r="Z678" s="4"/>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="15">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="15"/>
@@ -21284,7 +21280,7 @@
       <c r="Z679" s="4"/>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="15">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="15"/>
@@ -21313,7 +21309,7 @@
       <c r="Z680" s="4"/>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="15">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="15"/>
@@ -21342,7 +21338,7 @@
       <c r="Z681" s="4"/>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="15">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="15"/>
@@ -21371,7 +21367,7 @@
       <c r="Z682" s="4"/>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="15">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="15"/>
@@ -21400,7 +21396,7 @@
       <c r="Z683" s="4"/>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="15">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="15"/>
@@ -21429,7 +21425,7 @@
       <c r="Z684" s="4"/>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" ht="15">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="15"/>
@@ -21458,7 +21454,7 @@
       <c r="Z685" s="4"/>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" ht="15">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="15"/>
@@ -21487,7 +21483,7 @@
       <c r="Z686" s="4"/>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="15">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="15"/>
@@ -21516,7 +21512,7 @@
       <c r="Z687" s="4"/>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="15">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="15"/>
@@ -21545,7 +21541,7 @@
       <c r="Z688" s="4"/>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" ht="15">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="15"/>
@@ -21574,7 +21570,7 @@
       <c r="Z689" s="4"/>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" ht="15">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="15"/>
@@ -21603,7 +21599,7 @@
       <c r="Z690" s="4"/>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" ht="15">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="15"/>
@@ -21632,7 +21628,7 @@
       <c r="Z691" s="4"/>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="15">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="15"/>
@@ -21661,7 +21657,7 @@
       <c r="Z692" s="4"/>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="15">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="15"/>
@@ -21690,7 +21686,7 @@
       <c r="Z693" s="4"/>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="15">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="15"/>
@@ -21719,7 +21715,7 @@
       <c r="Z694" s="4"/>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" ht="15">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="15"/>
@@ -21748,7 +21744,7 @@
       <c r="Z695" s="4"/>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="15">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="15"/>
@@ -21777,7 +21773,7 @@
       <c r="Z696" s="4"/>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="15">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="15"/>
@@ -21806,7 +21802,7 @@
       <c r="Z697" s="4"/>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="15">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="15"/>
@@ -21835,7 +21831,7 @@
       <c r="Z698" s="4"/>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="15">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="15"/>
@@ -21864,7 +21860,7 @@
       <c r="Z699" s="4"/>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" ht="15">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="15"/>
@@ -21893,7 +21889,7 @@
       <c r="Z700" s="4"/>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="15">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="15"/>
@@ -21922,7 +21918,7 @@
       <c r="Z701" s="4"/>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="15">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="15"/>
@@ -21951,7 +21947,7 @@
       <c r="Z702" s="4"/>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" ht="15">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="15"/>
@@ -21980,7 +21976,7 @@
       <c r="Z703" s="4"/>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="15">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="15"/>
@@ -22009,7 +22005,7 @@
       <c r="Z704" s="4"/>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="15">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="15"/>
@@ -22038,7 +22034,7 @@
       <c r="Z705" s="4"/>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="15">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="15"/>
@@ -22067,7 +22063,7 @@
       <c r="Z706" s="4"/>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="15">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="15"/>
@@ -22096,7 +22092,7 @@
       <c r="Z707" s="4"/>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="15">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="15"/>
@@ -22125,7 +22121,7 @@
       <c r="Z708" s="4"/>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="15">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="15"/>
@@ -22154,7 +22150,7 @@
       <c r="Z709" s="4"/>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="15">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="15"/>
@@ -22183,7 +22179,7 @@
       <c r="Z710" s="4"/>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="15">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="15"/>
@@ -22212,7 +22208,7 @@
       <c r="Z711" s="4"/>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="15">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="15"/>
@@ -22241,7 +22237,7 @@
       <c r="Z712" s="4"/>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="15">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="15"/>
@@ -22270,7 +22266,7 @@
       <c r="Z713" s="4"/>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" ht="15">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="15"/>
@@ -22299,7 +22295,7 @@
       <c r="Z714" s="4"/>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" ht="15">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="15"/>
@@ -22328,7 +22324,7 @@
       <c r="Z715" s="4"/>
       <c r="AA715" s="4"/>
     </row>
-    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="15">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="15"/>
@@ -22357,7 +22353,7 @@
       <c r="Z716" s="4"/>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="15">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="15"/>
@@ -22386,7 +22382,7 @@
       <c r="Z717" s="4"/>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="15">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="15"/>
@@ -22415,7 +22411,7 @@
       <c r="Z718" s="4"/>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="15">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="15"/>
@@ -22444,7 +22440,7 @@
       <c r="Z719" s="4"/>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="15">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="15"/>
@@ -22473,7 +22469,7 @@
       <c r="Z720" s="4"/>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" ht="15">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="15"/>
@@ -22502,7 +22498,7 @@
       <c r="Z721" s="4"/>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" ht="15">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="15"/>
@@ -22531,7 +22527,7 @@
       <c r="Z722" s="4"/>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="15">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="15"/>
@@ -22560,7 +22556,7 @@
       <c r="Z723" s="4"/>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" ht="15">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="15"/>
@@ -22589,7 +22585,7 @@
       <c r="Z724" s="4"/>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="15">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="15"/>
@@ -22618,7 +22614,7 @@
       <c r="Z725" s="4"/>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" ht="15">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="15"/>
@@ -22647,7 +22643,7 @@
       <c r="Z726" s="4"/>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="15">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="15"/>
@@ -22676,7 +22672,7 @@
       <c r="Z727" s="4"/>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="15">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="15"/>
@@ -22705,7 +22701,7 @@
       <c r="Z728" s="4"/>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="15">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="15"/>
@@ -22734,7 +22730,7 @@
       <c r="Z729" s="4"/>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" ht="15">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="15"/>
@@ -22763,7 +22759,7 @@
       <c r="Z730" s="4"/>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="15">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="15"/>
@@ -22792,7 +22788,7 @@
       <c r="Z731" s="4"/>
       <c r="AA731" s="4"/>
     </row>
-    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" ht="15">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="15"/>
@@ -22821,7 +22817,7 @@
       <c r="Z732" s="4"/>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="15">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="15"/>
@@ -22850,7 +22846,7 @@
       <c r="Z733" s="4"/>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="15">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="15"/>
@@ -22879,7 +22875,7 @@
       <c r="Z734" s="4"/>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" ht="15">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="15"/>
@@ -22908,7 +22904,7 @@
       <c r="Z735" s="4"/>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="15">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="15"/>
@@ -22937,7 +22933,7 @@
       <c r="Z736" s="4"/>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" ht="15">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="15"/>
@@ -22966,7 +22962,7 @@
       <c r="Z737" s="4"/>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" ht="15">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="15"/>
@@ -22995,7 +22991,7 @@
       <c r="Z738" s="4"/>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" ht="15">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="15"/>
@@ -23024,7 +23020,7 @@
       <c r="Z739" s="4"/>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" ht="15">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="15"/>
@@ -23053,7 +23049,7 @@
       <c r="Z740" s="4"/>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="15">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="15"/>
@@ -23082,7 +23078,7 @@
       <c r="Z741" s="4"/>
       <c r="AA741" s="4"/>
     </row>
-    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" ht="15">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="15"/>
@@ -23111,7 +23107,7 @@
       <c r="Z742" s="4"/>
       <c r="AA742" s="4"/>
     </row>
-    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" ht="15">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="15"/>
@@ -23140,7 +23136,7 @@
       <c r="Z743" s="4"/>
       <c r="AA743" s="4"/>
     </row>
-    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" ht="15">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="15"/>
@@ -23169,7 +23165,7 @@
       <c r="Z744" s="4"/>
       <c r="AA744" s="4"/>
     </row>
-    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="15">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="15"/>
@@ -23198,7 +23194,7 @@
       <c r="Z745" s="4"/>
       <c r="AA745" s="4"/>
     </row>
-    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="15">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="15"/>
@@ -23227,7 +23223,7 @@
       <c r="Z746" s="4"/>
       <c r="AA746" s="4"/>
     </row>
-    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="15">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="15"/>
@@ -23256,7 +23252,7 @@
       <c r="Z747" s="4"/>
       <c r="AA747" s="4"/>
     </row>
-    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="15">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="15"/>
@@ -23285,7 +23281,7 @@
       <c r="Z748" s="4"/>
       <c r="AA748" s="4"/>
     </row>
-    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="15">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="15"/>
@@ -23314,7 +23310,7 @@
       <c r="Z749" s="4"/>
       <c r="AA749" s="4"/>
     </row>
-    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="15">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="15"/>
@@ -23343,7 +23339,7 @@
       <c r="Z750" s="4"/>
       <c r="AA750" s="4"/>
     </row>
-    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="15">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="15"/>
@@ -23372,7 +23368,7 @@
       <c r="Z751" s="4"/>
       <c r="AA751" s="4"/>
     </row>
-    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="15">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="15"/>
@@ -23401,7 +23397,7 @@
       <c r="Z752" s="4"/>
       <c r="AA752" s="4"/>
     </row>
-    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" ht="15">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="15"/>
@@ -23430,7 +23426,7 @@
       <c r="Z753" s="4"/>
       <c r="AA753" s="4"/>
     </row>
-    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" ht="15">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="15"/>
@@ -23459,7 +23455,7 @@
       <c r="Z754" s="4"/>
       <c r="AA754" s="4"/>
     </row>
-    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" ht="15">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="15"/>
@@ -23488,7 +23484,7 @@
       <c r="Z755" s="4"/>
       <c r="AA755" s="4"/>
     </row>
-    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" ht="15">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="15"/>
@@ -23517,7 +23513,7 @@
       <c r="Z756" s="4"/>
       <c r="AA756" s="4"/>
     </row>
-    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" ht="15">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="15"/>
@@ -23546,7 +23542,7 @@
       <c r="Z757" s="4"/>
       <c r="AA757" s="4"/>
     </row>
-    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="15">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="15"/>
@@ -23575,7 +23571,7 @@
       <c r="Z758" s="4"/>
       <c r="AA758" s="4"/>
     </row>
-    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="15">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="15"/>
@@ -23604,7 +23600,7 @@
       <c r="Z759" s="4"/>
       <c r="AA759" s="4"/>
     </row>
-    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="15">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="15"/>
@@ -23633,7 +23629,7 @@
       <c r="Z760" s="4"/>
       <c r="AA760" s="4"/>
     </row>
-    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="15">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="15"/>
@@ -23662,7 +23658,7 @@
       <c r="Z761" s="4"/>
       <c r="AA761" s="4"/>
     </row>
-    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="15">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="15"/>
@@ -23691,7 +23687,7 @@
       <c r="Z762" s="4"/>
       <c r="AA762" s="4"/>
     </row>
-    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="15">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="15"/>
@@ -23720,7 +23716,7 @@
       <c r="Z763" s="4"/>
       <c r="AA763" s="4"/>
     </row>
-    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="15">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="15"/>
@@ -23749,7 +23745,7 @@
       <c r="Z764" s="4"/>
       <c r="AA764" s="4"/>
     </row>
-    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="15">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="15"/>
@@ -23778,7 +23774,7 @@
       <c r="Z765" s="4"/>
       <c r="AA765" s="4"/>
     </row>
-    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" ht="15">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="15"/>
@@ -23807,7 +23803,7 @@
       <c r="Z766" s="4"/>
       <c r="AA766" s="4"/>
     </row>
-    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" ht="15">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="15"/>
@@ -23836,7 +23832,7 @@
       <c r="Z767" s="4"/>
       <c r="AA767" s="4"/>
     </row>
-    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="15">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="15"/>
@@ -23865,7 +23861,7 @@
       <c r="Z768" s="4"/>
       <c r="AA768" s="4"/>
     </row>
-    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="15">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="15"/>
@@ -23894,7 +23890,7 @@
       <c r="Z769" s="4"/>
       <c r="AA769" s="4"/>
     </row>
-    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" ht="15">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="15"/>
@@ -23923,7 +23919,7 @@
       <c r="Z770" s="4"/>
       <c r="AA770" s="4"/>
     </row>
-    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" ht="15">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="15"/>
@@ -23952,7 +23948,7 @@
       <c r="Z771" s="4"/>
       <c r="AA771" s="4"/>
     </row>
-    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="15">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="15"/>
@@ -23981,7 +23977,7 @@
       <c r="Z772" s="4"/>
       <c r="AA772" s="4"/>
     </row>
-    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="15">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="15"/>
@@ -24010,7 +24006,7 @@
       <c r="Z773" s="4"/>
       <c r="AA773" s="4"/>
     </row>
-    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" ht="15">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="15"/>
@@ -24039,7 +24035,7 @@
       <c r="Z774" s="4"/>
       <c r="AA774" s="4"/>
     </row>
-    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" ht="15">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="15"/>
@@ -24068,7 +24064,7 @@
       <c r="Z775" s="4"/>
       <c r="AA775" s="4"/>
     </row>
-    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" ht="15">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="15"/>
@@ -24097,7 +24093,7 @@
       <c r="Z776" s="4"/>
       <c r="AA776" s="4"/>
     </row>
-    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" ht="15">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="15"/>
@@ -24126,7 +24122,7 @@
       <c r="Z777" s="4"/>
       <c r="AA777" s="4"/>
     </row>
-    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="15">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="15"/>
@@ -24155,7 +24151,7 @@
       <c r="Z778" s="4"/>
       <c r="AA778" s="4"/>
     </row>
-    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" ht="15">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="15"/>
@@ -24184,7 +24180,7 @@
       <c r="Z779" s="4"/>
       <c r="AA779" s="4"/>
     </row>
-    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" ht="15">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="15"/>
@@ -24213,7 +24209,7 @@
       <c r="Z780" s="4"/>
       <c r="AA780" s="4"/>
     </row>
-    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" ht="15">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="15"/>
@@ -24242,7 +24238,7 @@
       <c r="Z781" s="4"/>
       <c r="AA781" s="4"/>
     </row>
-    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" ht="15">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="15"/>
@@ -24271,7 +24267,7 @@
       <c r="Z782" s="4"/>
       <c r="AA782" s="4"/>
     </row>
-    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" ht="15">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="15"/>
@@ -24300,7 +24296,7 @@
       <c r="Z783" s="4"/>
       <c r="AA783" s="4"/>
     </row>
-    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" ht="15">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="15"/>
@@ -24329,7 +24325,7 @@
       <c r="Z784" s="4"/>
       <c r="AA784" s="4"/>
     </row>
-    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="15">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="15"/>
@@ -24358,7 +24354,7 @@
       <c r="Z785" s="4"/>
       <c r="AA785" s="4"/>
     </row>
-    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" ht="15">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="15"/>
@@ -24387,7 +24383,7 @@
       <c r="Z786" s="4"/>
       <c r="AA786" s="4"/>
     </row>
-    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" ht="15">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="15"/>
@@ -24416,7 +24412,7 @@
       <c r="Z787" s="4"/>
       <c r="AA787" s="4"/>
     </row>
-    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="15">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="15"/>
@@ -24445,7 +24441,7 @@
       <c r="Z788" s="4"/>
       <c r="AA788" s="4"/>
     </row>
-    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" ht="15">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="15"/>
@@ -24474,7 +24470,7 @@
       <c r="Z789" s="4"/>
       <c r="AA789" s="4"/>
     </row>
-    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" ht="15">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="15"/>
@@ -24503,7 +24499,7 @@
       <c r="Z790" s="4"/>
       <c r="AA790" s="4"/>
     </row>
-    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" ht="15">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="15"/>
@@ -24532,7 +24528,7 @@
       <c r="Z791" s="4"/>
       <c r="AA791" s="4"/>
     </row>
-    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" ht="15">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="15"/>
@@ -24561,7 +24557,7 @@
       <c r="Z792" s="4"/>
       <c r="AA792" s="4"/>
     </row>
-    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" ht="15">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="15"/>
@@ -24590,7 +24586,7 @@
       <c r="Z793" s="4"/>
       <c r="AA793" s="4"/>
     </row>
-    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" ht="15">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="15"/>
@@ -24619,7 +24615,7 @@
       <c r="Z794" s="4"/>
       <c r="AA794" s="4"/>
     </row>
-    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" ht="15">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="15"/>
@@ -24648,7 +24644,7 @@
       <c r="Z795" s="4"/>
       <c r="AA795" s="4"/>
     </row>
-    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" ht="15">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="15"/>
@@ -24677,7 +24673,7 @@
       <c r="Z796" s="4"/>
       <c r="AA796" s="4"/>
     </row>
-    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" ht="15">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="15"/>
@@ -24706,7 +24702,7 @@
       <c r="Z797" s="4"/>
       <c r="AA797" s="4"/>
     </row>
-    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" ht="15">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="15"/>
@@ -24735,7 +24731,7 @@
       <c r="Z798" s="4"/>
       <c r="AA798" s="4"/>
     </row>
-    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" ht="15">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="15"/>
@@ -24764,7 +24760,7 @@
       <c r="Z799" s="4"/>
       <c r="AA799" s="4"/>
     </row>
-    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" ht="15">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="15"/>
@@ -24793,7 +24789,7 @@
       <c r="Z800" s="4"/>
       <c r="AA800" s="4"/>
     </row>
-    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" ht="15">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="15"/>
@@ -24822,7 +24818,7 @@
       <c r="Z801" s="4"/>
       <c r="AA801" s="4"/>
     </row>
-    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" ht="15">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="15"/>
@@ -24851,7 +24847,7 @@
       <c r="Z802" s="4"/>
       <c r="AA802" s="4"/>
     </row>
-    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" ht="15">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="15"/>
@@ -24880,7 +24876,7 @@
       <c r="Z803" s="4"/>
       <c r="AA803" s="4"/>
     </row>
-    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" ht="15">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="15"/>
@@ -24909,7 +24905,7 @@
       <c r="Z804" s="4"/>
       <c r="AA804" s="4"/>
     </row>
-    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" ht="15">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="15"/>
@@ -24938,7 +24934,7 @@
       <c r="Z805" s="4"/>
       <c r="AA805" s="4"/>
     </row>
-    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" ht="15">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="15"/>
@@ -24967,7 +24963,7 @@
       <c r="Z806" s="4"/>
       <c r="AA806" s="4"/>
     </row>
-    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" ht="15">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="15"/>
@@ -24996,7 +24992,7 @@
       <c r="Z807" s="4"/>
       <c r="AA807" s="4"/>
     </row>
-    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" ht="15">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="15"/>
@@ -25025,7 +25021,7 @@
       <c r="Z808" s="4"/>
       <c r="AA808" s="4"/>
     </row>
-    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" ht="15">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="15"/>
@@ -25054,7 +25050,7 @@
       <c r="Z809" s="4"/>
       <c r="AA809" s="4"/>
     </row>
-    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" ht="15">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="15"/>
@@ -25083,7 +25079,7 @@
       <c r="Z810" s="4"/>
       <c r="AA810" s="4"/>
     </row>
-    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" ht="15">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="15"/>
@@ -25112,7 +25108,7 @@
       <c r="Z811" s="4"/>
       <c r="AA811" s="4"/>
     </row>
-    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" ht="15">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="15"/>
@@ -25141,7 +25137,7 @@
       <c r="Z812" s="4"/>
       <c r="AA812" s="4"/>
     </row>
-    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" ht="15">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="15"/>
@@ -25170,7 +25166,7 @@
       <c r="Z813" s="4"/>
       <c r="AA813" s="4"/>
     </row>
-    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" ht="15">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="15"/>
@@ -25199,7 +25195,7 @@
       <c r="Z814" s="4"/>
       <c r="AA814" s="4"/>
     </row>
-    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" ht="15">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="15"/>
@@ -25228,7 +25224,7 @@
       <c r="Z815" s="4"/>
       <c r="AA815" s="4"/>
     </row>
-    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" ht="15">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="15"/>
@@ -25257,7 +25253,7 @@
       <c r="Z816" s="4"/>
       <c r="AA816" s="4"/>
     </row>
-    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" ht="15">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="15"/>
@@ -25286,7 +25282,7 @@
       <c r="Z817" s="4"/>
       <c r="AA817" s="4"/>
     </row>
-    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" ht="15">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="15"/>
@@ -25315,7 +25311,7 @@
       <c r="Z818" s="4"/>
       <c r="AA818" s="4"/>
     </row>
-    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" ht="15">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="15"/>
@@ -25344,7 +25340,7 @@
       <c r="Z819" s="4"/>
       <c r="AA819" s="4"/>
     </row>
-    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" ht="15">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="15"/>
@@ -25373,7 +25369,7 @@
       <c r="Z820" s="4"/>
       <c r="AA820" s="4"/>
     </row>
-    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" ht="15">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="15"/>
@@ -25402,7 +25398,7 @@
       <c r="Z821" s="4"/>
       <c r="AA821" s="4"/>
     </row>
-    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" ht="15">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="15"/>
@@ -25431,7 +25427,7 @@
       <c r="Z822" s="4"/>
       <c r="AA822" s="4"/>
     </row>
-    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" ht="15">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="15"/>
@@ -25460,7 +25456,7 @@
       <c r="Z823" s="4"/>
       <c r="AA823" s="4"/>
     </row>
-    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" ht="15">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="15"/>
@@ -25489,7 +25485,7 @@
       <c r="Z824" s="4"/>
       <c r="AA824" s="4"/>
     </row>
-    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" ht="15">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="15"/>
@@ -25518,7 +25514,7 @@
       <c r="Z825" s="4"/>
       <c r="AA825" s="4"/>
     </row>
-    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" ht="15">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="15"/>
@@ -25547,7 +25543,7 @@
       <c r="Z826" s="4"/>
       <c r="AA826" s="4"/>
     </row>
-    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" ht="15">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="15"/>
@@ -25576,7 +25572,7 @@
       <c r="Z827" s="4"/>
       <c r="AA827" s="4"/>
     </row>
-    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" ht="15">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="15"/>
@@ -25605,7 +25601,7 @@
       <c r="Z828" s="4"/>
       <c r="AA828" s="4"/>
     </row>
-    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" ht="15">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="15"/>
@@ -25634,7 +25630,7 @@
       <c r="Z829" s="4"/>
       <c r="AA829" s="4"/>
     </row>
-    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" ht="15">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="15"/>
@@ -25663,7 +25659,7 @@
       <c r="Z830" s="4"/>
       <c r="AA830" s="4"/>
     </row>
-    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" ht="15">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="15"/>
@@ -25692,7 +25688,7 @@
       <c r="Z831" s="4"/>
       <c r="AA831" s="4"/>
     </row>
-    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" ht="15">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="15"/>
@@ -25721,7 +25717,7 @@
       <c r="Z832" s="4"/>
       <c r="AA832" s="4"/>
     </row>
-    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" ht="15">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="15"/>
@@ -25750,7 +25746,7 @@
       <c r="Z833" s="4"/>
       <c r="AA833" s="4"/>
     </row>
-    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" ht="15">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="15"/>
@@ -25779,7 +25775,7 @@
       <c r="Z834" s="4"/>
       <c r="AA834" s="4"/>
     </row>
-    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" ht="15">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="15"/>
@@ -25808,7 +25804,7 @@
       <c r="Z835" s="4"/>
       <c r="AA835" s="4"/>
     </row>
-    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" ht="15">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="15"/>
@@ -25837,7 +25833,7 @@
       <c r="Z836" s="4"/>
       <c r="AA836" s="4"/>
     </row>
-    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" ht="15">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="15"/>
@@ -25866,7 +25862,7 @@
       <c r="Z837" s="4"/>
       <c r="AA837" s="4"/>
     </row>
-    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" ht="15">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
       <c r="C838" s="15"/>
@@ -25895,7 +25891,7 @@
       <c r="Z838" s="4"/>
       <c r="AA838" s="4"/>
     </row>
-    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" ht="15">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
       <c r="C839" s="15"/>
@@ -25924,7 +25920,7 @@
       <c r="Z839" s="4"/>
       <c r="AA839" s="4"/>
     </row>
-    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" ht="15">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
       <c r="C840" s="15"/>
@@ -25953,7 +25949,7 @@
       <c r="Z840" s="4"/>
       <c r="AA840" s="4"/>
     </row>
-    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" ht="15">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
       <c r="C841" s="15"/>
@@ -25982,7 +25978,7 @@
       <c r="Z841" s="4"/>
       <c r="AA841" s="4"/>
     </row>
-    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" ht="15">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
       <c r="C842" s="15"/>
@@ -26011,7 +26007,7 @@
       <c r="Z842" s="4"/>
       <c r="AA842" s="4"/>
     </row>
-    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" ht="15">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
       <c r="C843" s="15"/>
@@ -26040,7 +26036,7 @@
       <c r="Z843" s="4"/>
       <c r="AA843" s="4"/>
     </row>
-    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" ht="15">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
       <c r="C844" s="15"/>
@@ -26069,7 +26065,7 @@
       <c r="Z844" s="4"/>
       <c r="AA844" s="4"/>
     </row>
-    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" ht="15">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
       <c r="C845" s="15"/>
@@ -26098,7 +26094,7 @@
       <c r="Z845" s="4"/>
       <c r="AA845" s="4"/>
     </row>
-    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" ht="15">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
       <c r="C846" s="15"/>
@@ -26127,7 +26123,7 @@
       <c r="Z846" s="4"/>
       <c r="AA846" s="4"/>
     </row>
-    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" ht="15">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
       <c r="C847" s="15"/>
@@ -26156,7 +26152,7 @@
       <c r="Z847" s="4"/>
       <c r="AA847" s="4"/>
     </row>
-    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" ht="15">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
       <c r="C848" s="15"/>
@@ -26185,7 +26181,7 @@
       <c r="Z848" s="4"/>
       <c r="AA848" s="4"/>
     </row>
-    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" ht="15">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
       <c r="C849" s="15"/>
@@ -26214,7 +26210,7 @@
       <c r="Z849" s="4"/>
       <c r="AA849" s="4"/>
     </row>
-    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" ht="15">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
       <c r="C850" s="15"/>
@@ -26243,7 +26239,7 @@
       <c r="Z850" s="4"/>
       <c r="AA850" s="4"/>
     </row>
-    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" ht="15">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
       <c r="C851" s="15"/>
@@ -26272,7 +26268,7 @@
       <c r="Z851" s="4"/>
       <c r="AA851" s="4"/>
     </row>
-    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" ht="15">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
       <c r="C852" s="15"/>
@@ -26301,7 +26297,7 @@
       <c r="Z852" s="4"/>
       <c r="AA852" s="4"/>
     </row>
-    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" ht="15">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
       <c r="C853" s="15"/>
@@ -26330,7 +26326,7 @@
       <c r="Z853" s="4"/>
       <c r="AA853" s="4"/>
     </row>
-    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" ht="15">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
       <c r="C854" s="15"/>
@@ -26359,7 +26355,7 @@
       <c r="Z854" s="4"/>
       <c r="AA854" s="4"/>
     </row>
-    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" ht="15">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
       <c r="C855" s="15"/>
@@ -26388,7 +26384,7 @@
       <c r="Z855" s="4"/>
       <c r="AA855" s="4"/>
     </row>
-    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" ht="15">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
       <c r="C856" s="15"/>
@@ -26417,7 +26413,7 @@
       <c r="Z856" s="4"/>
       <c r="AA856" s="4"/>
     </row>
-    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" ht="15">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
       <c r="C857" s="15"/>
@@ -26446,7 +26442,7 @@
       <c r="Z857" s="4"/>
       <c r="AA857" s="4"/>
     </row>
-    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" ht="15">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
       <c r="C858" s="15"/>
@@ -26475,7 +26471,7 @@
       <c r="Z858" s="4"/>
       <c r="AA858" s="4"/>
     </row>
-    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" ht="15">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
       <c r="C859" s="15"/>
@@ -26504,7 +26500,7 @@
       <c r="Z859" s="4"/>
       <c r="AA859" s="4"/>
     </row>
-    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" ht="15">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
       <c r="C860" s="15"/>
@@ -26533,7 +26529,7 @@
       <c r="Z860" s="4"/>
       <c r="AA860" s="4"/>
     </row>
-    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" ht="15">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
       <c r="C861" s="15"/>
@@ -26562,7 +26558,7 @@
       <c r="Z861" s="4"/>
       <c r="AA861" s="4"/>
     </row>
-    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" ht="15">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
       <c r="C862" s="15"/>
@@ -26591,7 +26587,7 @@
       <c r="Z862" s="4"/>
       <c r="AA862" s="4"/>
     </row>
-    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" ht="15">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
       <c r="C863" s="15"/>
@@ -26620,7 +26616,7 @@
       <c r="Z863" s="4"/>
       <c r="AA863" s="4"/>
     </row>
-    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" ht="15">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
       <c r="C864" s="15"/>
@@ -26649,7 +26645,7 @@
       <c r="Z864" s="4"/>
       <c r="AA864" s="4"/>
     </row>
-    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" ht="15">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
       <c r="C865" s="15"/>
@@ -26678,7 +26674,7 @@
       <c r="Z865" s="4"/>
       <c r="AA865" s="4"/>
     </row>
-    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" ht="15">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
       <c r="C866" s="15"/>
@@ -26707,7 +26703,7 @@
       <c r="Z866" s="4"/>
       <c r="AA866" s="4"/>
     </row>
-    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" ht="15">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
       <c r="C867" s="15"/>
@@ -26736,7 +26732,7 @@
       <c r="Z867" s="4"/>
       <c r="AA867" s="4"/>
     </row>
-    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" ht="15">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
       <c r="C868" s="15"/>
@@ -26765,7 +26761,7 @@
       <c r="Z868" s="4"/>
       <c r="AA868" s="4"/>
     </row>
-    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" ht="15">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
       <c r="C869" s="15"/>
@@ -26794,7 +26790,7 @@
       <c r="Z869" s="4"/>
       <c r="AA869" s="4"/>
     </row>
-    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" ht="15">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
       <c r="C870" s="15"/>
@@ -26823,7 +26819,7 @@
       <c r="Z870" s="4"/>
       <c r="AA870" s="4"/>
     </row>
-    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" ht="15">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
       <c r="C871" s="15"/>
@@ -26852,7 +26848,7 @@
       <c r="Z871" s="4"/>
       <c r="AA871" s="4"/>
     </row>
-    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" ht="15">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
       <c r="C872" s="15"/>
@@ -26881,7 +26877,7 @@
       <c r="Z872" s="4"/>
       <c r="AA872" s="4"/>
     </row>
-    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" ht="15">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
       <c r="C873" s="15"/>
@@ -26910,7 +26906,7 @@
       <c r="Z873" s="4"/>
       <c r="AA873" s="4"/>
     </row>
-    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" ht="15">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
       <c r="C874" s="15"/>
@@ -26939,7 +26935,7 @@
       <c r="Z874" s="4"/>
       <c r="AA874" s="4"/>
     </row>
-    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" ht="15">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
       <c r="C875" s="15"/>
@@ -26968,7 +26964,7 @@
       <c r="Z875" s="4"/>
       <c r="AA875" s="4"/>
     </row>
-    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" ht="15">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
       <c r="C876" s="15"/>
@@ -26997,7 +26993,7 @@
       <c r="Z876" s="4"/>
       <c r="AA876" s="4"/>
     </row>
-    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" ht="15">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
       <c r="C877" s="15"/>
@@ -27026,7 +27022,7 @@
       <c r="Z877" s="4"/>
       <c r="AA877" s="4"/>
     </row>
-    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" ht="15">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
       <c r="C878" s="15"/>
@@ -27055,7 +27051,7 @@
       <c r="Z878" s="4"/>
       <c r="AA878" s="4"/>
     </row>
-    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" ht="15">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
       <c r="C879" s="15"/>
@@ -27084,7 +27080,7 @@
       <c r="Z879" s="4"/>
       <c r="AA879" s="4"/>
     </row>
-    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" ht="15">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
       <c r="C880" s="15"/>
@@ -27113,7 +27109,7 @@
       <c r="Z880" s="4"/>
       <c r="AA880" s="4"/>
     </row>
-    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" ht="15">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
       <c r="C881" s="15"/>
@@ -27142,7 +27138,7 @@
       <c r="Z881" s="4"/>
       <c r="AA881" s="4"/>
     </row>
-    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" ht="15">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
       <c r="C882" s="15"/>
@@ -27171,7 +27167,7 @@
       <c r="Z882" s="4"/>
       <c r="AA882" s="4"/>
     </row>
-    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" ht="15">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
       <c r="C883" s="15"/>
@@ -27200,7 +27196,7 @@
       <c r="Z883" s="4"/>
       <c r="AA883" s="4"/>
     </row>
-    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" ht="15">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
       <c r="C884" s="15"/>
@@ -27229,7 +27225,7 @@
       <c r="Z884" s="4"/>
       <c r="AA884" s="4"/>
     </row>
-    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" ht="15">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
       <c r="C885" s="15"/>
@@ -27258,7 +27254,7 @@
       <c r="Z885" s="4"/>
       <c r="AA885" s="4"/>
     </row>
-    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" ht="15">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
       <c r="C886" s="15"/>
@@ -27287,7 +27283,7 @@
       <c r="Z886" s="4"/>
       <c r="AA886" s="4"/>
     </row>
-    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" ht="15">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
       <c r="C887" s="15"/>
@@ -27316,7 +27312,7 @@
       <c r="Z887" s="4"/>
       <c r="AA887" s="4"/>
     </row>
-    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" ht="15">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
       <c r="C888" s="15"/>
@@ -27345,7 +27341,7 @@
       <c r="Z888" s="4"/>
       <c r="AA888" s="4"/>
     </row>
-    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" ht="15">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
       <c r="C889" s="15"/>
@@ -27374,7 +27370,7 @@
       <c r="Z889" s="4"/>
       <c r="AA889" s="4"/>
     </row>
-    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" ht="15">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
       <c r="C890" s="15"/>
@@ -27403,7 +27399,7 @@
       <c r="Z890" s="4"/>
       <c r="AA890" s="4"/>
     </row>
-    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" ht="15">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
       <c r="C891" s="15"/>
@@ -27432,7 +27428,7 @@
       <c r="Z891" s="4"/>
       <c r="AA891" s="4"/>
     </row>
-    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" ht="15">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
       <c r="C892" s="15"/>
@@ -27461,7 +27457,7 @@
       <c r="Z892" s="4"/>
       <c r="AA892" s="4"/>
     </row>
-    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" ht="15">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
       <c r="C893" s="15"/>
@@ -27490,7 +27486,7 @@
       <c r="Z893" s="4"/>
       <c r="AA893" s="4"/>
     </row>
-    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" ht="15">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
       <c r="C894" s="15"/>
@@ -27519,7 +27515,7 @@
       <c r="Z894" s="4"/>
       <c r="AA894" s="4"/>
     </row>
-    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" ht="15">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
       <c r="C895" s="15"/>
@@ -27548,7 +27544,7 @@
       <c r="Z895" s="4"/>
       <c r="AA895" s="4"/>
     </row>
-    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" ht="15">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
       <c r="C896" s="15"/>
@@ -27577,7 +27573,7 @@
       <c r="Z896" s="4"/>
       <c r="AA896" s="4"/>
     </row>
-    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" ht="15">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
       <c r="C897" s="15"/>
@@ -27606,7 +27602,7 @@
       <c r="Z897" s="4"/>
       <c r="AA897" s="4"/>
     </row>
-    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" ht="15">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
       <c r="C898" s="15"/>
@@ -27635,7 +27631,7 @@
       <c r="Z898" s="4"/>
       <c r="AA898" s="4"/>
     </row>
-    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" ht="15">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
       <c r="C899" s="15"/>
@@ -27664,7 +27660,7 @@
       <c r="Z899" s="4"/>
       <c r="AA899" s="4"/>
     </row>
-    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" ht="15">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
       <c r="C900" s="15"/>
@@ -27693,7 +27689,7 @@
       <c r="Z900" s="4"/>
       <c r="AA900" s="4"/>
     </row>
-    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" ht="15">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
       <c r="C901" s="15"/>
@@ -27722,7 +27718,7 @@
       <c r="Z901" s="4"/>
       <c r="AA901" s="4"/>
     </row>
-    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" ht="15">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
       <c r="C902" s="15"/>
@@ -27751,7 +27747,7 @@
       <c r="Z902" s="4"/>
       <c r="AA902" s="4"/>
     </row>
-    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" ht="15">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
       <c r="C903" s="15"/>
@@ -27780,7 +27776,7 @@
       <c r="Z903" s="4"/>
       <c r="AA903" s="4"/>
     </row>
-    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" ht="15">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
       <c r="C904" s="15"/>
@@ -27809,7 +27805,7 @@
       <c r="Z904" s="4"/>
       <c r="AA904" s="4"/>
     </row>
-    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" ht="15">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
       <c r="C905" s="15"/>
@@ -27838,7 +27834,7 @@
       <c r="Z905" s="4"/>
       <c r="AA905" s="4"/>
     </row>
-    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" ht="15">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
       <c r="C906" s="15"/>
@@ -27867,7 +27863,7 @@
       <c r="Z906" s="4"/>
       <c r="AA906" s="4"/>
     </row>
-    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" ht="15">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
       <c r="C907" s="15"/>
@@ -27896,7 +27892,7 @@
       <c r="Z907" s="4"/>
       <c r="AA907" s="4"/>
     </row>
-    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" ht="15">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
       <c r="C908" s="15"/>
@@ -27925,7 +27921,7 @@
       <c r="Z908" s="4"/>
       <c r="AA908" s="4"/>
     </row>
-    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" ht="15">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
       <c r="C909" s="15"/>
@@ -27954,7 +27950,7 @@
       <c r="Z909" s="4"/>
       <c r="AA909" s="4"/>
     </row>
-    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" ht="15">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
       <c r="C910" s="15"/>
@@ -27983,7 +27979,7 @@
       <c r="Z910" s="4"/>
       <c r="AA910" s="4"/>
     </row>
-    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" ht="15">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
       <c r="C911" s="15"/>
@@ -28012,7 +28008,7 @@
       <c r="Z911" s="4"/>
       <c r="AA911" s="4"/>
     </row>
-    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" ht="15">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
       <c r="C912" s="15"/>
@@ -28041,7 +28037,7 @@
       <c r="Z912" s="4"/>
       <c r="AA912" s="4"/>
     </row>
-    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" ht="15">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
       <c r="C913" s="15"/>
@@ -28070,7 +28066,7 @@
       <c r="Z913" s="4"/>
       <c r="AA913" s="4"/>
     </row>
-    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" ht="15">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
       <c r="C914" s="15"/>
@@ -28099,7 +28095,7 @@
       <c r="Z914" s="4"/>
       <c r="AA914" s="4"/>
     </row>
-    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" ht="15">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
       <c r="C915" s="15"/>
@@ -28128,7 +28124,7 @@
       <c r="Z915" s="4"/>
       <c r="AA915" s="4"/>
     </row>
-    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" ht="15">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
       <c r="C916" s="15"/>
@@ -28157,7 +28153,7 @@
       <c r="Z916" s="4"/>
       <c r="AA916" s="4"/>
     </row>
-    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" ht="15">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
       <c r="C917" s="15"/>
@@ -28186,7 +28182,7 @@
       <c r="Z917" s="4"/>
       <c r="AA917" s="4"/>
     </row>
-    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" ht="15">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
       <c r="C918" s="15"/>
@@ -28215,7 +28211,7 @@
       <c r="Z918" s="4"/>
       <c r="AA918" s="4"/>
     </row>
-    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" ht="15">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
       <c r="C919" s="15"/>
@@ -28244,7 +28240,7 @@
       <c r="Z919" s="4"/>
       <c r="AA919" s="4"/>
     </row>
-    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" ht="15">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
       <c r="C920" s="15"/>
@@ -28273,7 +28269,7 @@
       <c r="Z920" s="4"/>
       <c r="AA920" s="4"/>
     </row>
-    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" ht="15">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
       <c r="C921" s="15"/>
@@ -28302,7 +28298,7 @@
       <c r="Z921" s="4"/>
       <c r="AA921" s="4"/>
     </row>
-    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" ht="15">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
       <c r="C922" s="15"/>
@@ -28331,7 +28327,7 @@
       <c r="Z922" s="4"/>
       <c r="AA922" s="4"/>
     </row>
-    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" ht="15">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
       <c r="C923" s="15"/>
@@ -28360,7 +28356,7 @@
       <c r="Z923" s="4"/>
       <c r="AA923" s="4"/>
     </row>
-    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" ht="15">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
       <c r="C924" s="15"/>
@@ -28389,7 +28385,7 @@
       <c r="Z924" s="4"/>
       <c r="AA924" s="4"/>
     </row>
-    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" ht="15">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
       <c r="C925" s="15"/>
@@ -28418,7 +28414,7 @@
       <c r="Z925" s="4"/>
       <c r="AA925" s="4"/>
     </row>
-    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" ht="15">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
       <c r="C926" s="15"/>
@@ -28447,7 +28443,7 @@
       <c r="Z926" s="4"/>
       <c r="AA926" s="4"/>
     </row>
-    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" ht="15">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
       <c r="C927" s="15"/>
@@ -28476,7 +28472,7 @@
       <c r="Z927" s="4"/>
       <c r="AA927" s="4"/>
     </row>
-    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" ht="15">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
       <c r="C928" s="15"/>
@@ -28505,7 +28501,7 @@
       <c r="Z928" s="4"/>
       <c r="AA928" s="4"/>
     </row>
-    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" ht="15">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
       <c r="C929" s="15"/>
@@ -28534,7 +28530,7 @@
       <c r="Z929" s="4"/>
       <c r="AA929" s="4"/>
     </row>
-    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" ht="15">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
       <c r="C930" s="15"/>
@@ -28563,7 +28559,7 @@
       <c r="Z930" s="4"/>
       <c r="AA930" s="4"/>
     </row>
-    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" ht="15">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
       <c r="C931" s="15"/>
@@ -28592,7 +28588,7 @@
       <c r="Z931" s="4"/>
       <c r="AA931" s="4"/>
     </row>
-    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" ht="15">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
       <c r="C932" s="15"/>
@@ -28621,7 +28617,7 @@
       <c r="Z932" s="4"/>
       <c r="AA932" s="4"/>
     </row>
-    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" ht="15">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
       <c r="C933" s="15"/>
@@ -28650,7 +28646,7 @@
       <c r="Z933" s="4"/>
       <c r="AA933" s="4"/>
     </row>
-    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" ht="15">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
       <c r="C934" s="15"/>
@@ -28679,7 +28675,7 @@
       <c r="Z934" s="4"/>
       <c r="AA934" s="4"/>
     </row>
-    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" ht="15">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
       <c r="C935" s="15"/>
@@ -28708,7 +28704,7 @@
       <c r="Z935" s="4"/>
       <c r="AA935" s="4"/>
     </row>
-    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" ht="15">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
       <c r="C936" s="15"/>
@@ -28737,7 +28733,7 @@
       <c r="Z936" s="4"/>
       <c r="AA936" s="4"/>
     </row>
-    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" ht="15">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
       <c r="C937" s="15"/>
@@ -28766,7 +28762,7 @@
       <c r="Z937" s="4"/>
       <c r="AA937" s="4"/>
     </row>
-    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" ht="15">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
       <c r="C938" s="15"/>
@@ -28795,7 +28791,7 @@
       <c r="Z938" s="4"/>
       <c r="AA938" s="4"/>
     </row>
-    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" ht="15">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
       <c r="C939" s="15"/>
@@ -28824,7 +28820,7 @@
       <c r="Z939" s="4"/>
       <c r="AA939" s="4"/>
     </row>
-    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" ht="15">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
       <c r="C940" s="15"/>
@@ -28853,7 +28849,7 @@
       <c r="Z940" s="4"/>
       <c r="AA940" s="4"/>
     </row>
-    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" ht="15">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
       <c r="C941" s="15"/>
@@ -28882,7 +28878,7 @@
       <c r="Z941" s="4"/>
       <c r="AA941" s="4"/>
     </row>
-    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" ht="15">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
       <c r="C942" s="15"/>
@@ -28911,7 +28907,7 @@
       <c r="Z942" s="4"/>
       <c r="AA942" s="4"/>
     </row>
-    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" ht="15">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
       <c r="C943" s="15"/>
@@ -28940,7 +28936,7 @@
       <c r="Z943" s="4"/>
       <c r="AA943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" ht="15">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
       <c r="C944" s="15"/>
@@ -28969,7 +28965,7 @@
       <c r="Z944" s="4"/>
       <c r="AA944" s="4"/>
     </row>
-    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" ht="15">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
       <c r="C945" s="15"/>
@@ -28998,7 +28994,7 @@
       <c r="Z945" s="4"/>
       <c r="AA945" s="4"/>
     </row>
-    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" ht="15">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
       <c r="C946" s="15"/>
@@ -29027,7 +29023,7 @@
       <c r="Z946" s="4"/>
       <c r="AA946" s="4"/>
     </row>
-    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" ht="15">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
       <c r="C947" s="15"/>
@@ -29056,7 +29052,7 @@
       <c r="Z947" s="4"/>
       <c r="AA947" s="4"/>
     </row>
-    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" ht="15">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
       <c r="C948" s="15"/>
@@ -29085,7 +29081,7 @@
       <c r="Z948" s="4"/>
       <c r="AA948" s="4"/>
     </row>
-    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" ht="15">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
       <c r="C949" s="15"/>
@@ -29114,7 +29110,7 @@
       <c r="Z949" s="4"/>
       <c r="AA949" s="4"/>
     </row>
-    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" ht="15">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
       <c r="C950" s="15"/>
@@ -29143,7 +29139,7 @@
       <c r="Z950" s="4"/>
       <c r="AA950" s="4"/>
     </row>
-    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" ht="15">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
       <c r="C951" s="15"/>
@@ -29172,7 +29168,7 @@
       <c r="Z951" s="4"/>
       <c r="AA951" s="4"/>
     </row>
-    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" ht="15">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
       <c r="C952" s="15"/>
@@ -29201,7 +29197,7 @@
       <c r="Z952" s="4"/>
       <c r="AA952" s="4"/>
     </row>
-    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" ht="15">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
       <c r="C953" s="15"/>
@@ -29230,7 +29226,7 @@
       <c r="Z953" s="4"/>
       <c r="AA953" s="4"/>
     </row>
-    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" ht="15">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
       <c r="C954" s="15"/>
@@ -29259,7 +29255,7 @@
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
     </row>
-    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" ht="15">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
       <c r="C955" s="15"/>
@@ -29288,7 +29284,7 @@
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
     </row>
-    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" ht="15">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
       <c r="C956" s="15"/>
@@ -29317,7 +29313,7 @@
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
     </row>
-    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" ht="15">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
       <c r="C957" s="15"/>
@@ -29346,7 +29342,7 @@
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
     </row>
-    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" ht="15">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
       <c r="C958" s="15"/>
@@ -29375,7 +29371,7 @@
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
     </row>
-    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" ht="15">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
       <c r="C959" s="15"/>
@@ -29404,7 +29400,7 @@
       <c r="Z959" s="4"/>
       <c r="AA959" s="4"/>
     </row>
-    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" ht="15">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
       <c r="C960" s="15"/>
@@ -29433,7 +29429,7 @@
       <c r="Z960" s="4"/>
       <c r="AA960" s="4"/>
     </row>
-    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" ht="15">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
       <c r="C961" s="15"/>
@@ -29462,7 +29458,7 @@
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
     </row>
-    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" ht="15">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
       <c r="C962" s="15"/>
@@ -29491,7 +29487,7 @@
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
     </row>
-    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" ht="15">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
       <c r="C963" s="15"/>
@@ -29520,7 +29516,7 @@
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
     </row>
-    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" ht="15">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
       <c r="C964" s="15"/>
@@ -29549,7 +29545,7 @@
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
     </row>
-    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" ht="15">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
       <c r="C965" s="15"/>
@@ -29578,7 +29574,7 @@
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
     </row>
-    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" ht="15">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
       <c r="C966" s="15"/>
@@ -29607,7 +29603,7 @@
       <c r="Z966" s="4"/>
       <c r="AA966" s="4"/>
     </row>
-    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" ht="15">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
       <c r="C967" s="15"/>
@@ -29636,7 +29632,7 @@
       <c r="Z967" s="4"/>
       <c r="AA967" s="4"/>
     </row>
-    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" ht="15">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
       <c r="C968" s="15"/>
@@ -29665,7 +29661,7 @@
       <c r="Z968" s="4"/>
       <c r="AA968" s="4"/>
     </row>
-    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" ht="15">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
       <c r="C969" s="15"/>
@@ -29694,7 +29690,7 @@
       <c r="Z969" s="4"/>
       <c r="AA969" s="4"/>
     </row>
-    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" ht="15">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
       <c r="C970" s="15"/>
@@ -29723,7 +29719,7 @@
       <c r="Z970" s="4"/>
       <c r="AA970" s="4"/>
     </row>
-    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" ht="15">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
       <c r="C971" s="15"/>
@@ -29752,7 +29748,7 @@
       <c r="Z971" s="4"/>
       <c r="AA971" s="4"/>
     </row>
-    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" ht="15">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
       <c r="C972" s="15"/>
@@ -29781,7 +29777,7 @@
       <c r="Z972" s="4"/>
       <c r="AA972" s="4"/>
     </row>
-    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" ht="15">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
       <c r="C973" s="15"/>
@@ -29810,7 +29806,7 @@
       <c r="Z973" s="4"/>
       <c r="AA973" s="4"/>
     </row>
-    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" ht="15">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
       <c r="C974" s="15"/>
@@ -29839,7 +29835,7 @@
       <c r="Z974" s="4"/>
       <c r="AA974" s="4"/>
     </row>
-    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" ht="15">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
       <c r="C975" s="15"/>
@@ -29868,7 +29864,7 @@
       <c r="Z975" s="4"/>
       <c r="AA975" s="4"/>
     </row>
-    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" ht="15">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
       <c r="C976" s="15"/>
@@ -29897,7 +29893,7 @@
       <c r="Z976" s="4"/>
       <c r="AA976" s="4"/>
     </row>
-    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" ht="15">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
       <c r="C977" s="15"/>
@@ -29926,7 +29922,7 @@
       <c r="Z977" s="4"/>
       <c r="AA977" s="4"/>
     </row>
-    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" ht="15">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
       <c r="C978" s="15"/>
@@ -29955,7 +29951,7 @@
       <c r="Z978" s="4"/>
       <c r="AA978" s="4"/>
     </row>
-    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" ht="15">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
       <c r="C979" s="15"/>
@@ -29984,7 +29980,7 @@
       <c r="Z979" s="4"/>
       <c r="AA979" s="4"/>
     </row>
-    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" ht="15">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
       <c r="C980" s="15"/>
@@ -30013,7 +30009,7 @@
       <c r="Z980" s="4"/>
       <c r="AA980" s="4"/>
     </row>
-    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" ht="15">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
       <c r="C981" s="15"/>
@@ -30042,7 +30038,7 @@
       <c r="Z981" s="4"/>
       <c r="AA981" s="4"/>
     </row>
-    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" ht="15">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
       <c r="C982" s="15"/>
@@ -30071,7 +30067,7 @@
       <c r="Z982" s="4"/>
       <c r="AA982" s="4"/>
     </row>
-    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" ht="15">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
       <c r="C983" s="15"/>
@@ -30100,7 +30096,7 @@
       <c r="Z983" s="4"/>
       <c r="AA983" s="4"/>
     </row>
-    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" ht="15">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
       <c r="C984" s="15"/>
@@ -30129,7 +30125,7 @@
       <c r="Z984" s="4"/>
       <c r="AA984" s="4"/>
     </row>
-    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" ht="15">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
       <c r="C985" s="15"/>
@@ -30158,7 +30154,7 @@
       <c r="Z985" s="4"/>
       <c r="AA985" s="4"/>
     </row>
-    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:27" ht="15">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
       <c r="C986" s="15"/>
@@ -30187,7 +30183,7 @@
       <c r="Z986" s="4"/>
       <c r="AA986" s="4"/>
     </row>
-    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:27" ht="15">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
       <c r="C987" s="15"/>
@@ -30216,7 +30212,7 @@
       <c r="Z987" s="4"/>
       <c r="AA987" s="4"/>
     </row>
-    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:27" ht="15">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
       <c r="C988" s="15"/>
@@ -30245,7 +30241,7 @@
       <c r="Z988" s="4"/>
       <c r="AA988" s="4"/>
     </row>
-    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:27" ht="15">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
       <c r="C989" s="15"/>
@@ -30274,7 +30270,7 @@
       <c r="Z989" s="4"/>
       <c r="AA989" s="4"/>
     </row>
-    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:27" ht="15">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
       <c r="C990" s="15"/>
@@ -30303,7 +30299,7 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:27" ht="15">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
       <c r="C991" s="15"/>
@@ -30332,7 +30328,7 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
     </row>
-    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:27" ht="15">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
       <c r="C992" s="15"/>
@@ -30361,7 +30357,7 @@
       <c r="Z992" s="4"/>
       <c r="AA992" s="4"/>
     </row>
-    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:27" ht="15">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
       <c r="C993" s="15"/>
@@ -30390,7 +30386,7 @@
       <c r="Z993" s="4"/>
       <c r="AA993" s="4"/>
     </row>
-    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:27" ht="15">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
       <c r="C994" s="15"/>
@@ -30419,7 +30415,7 @@
       <c r="Z994" s="4"/>
       <c r="AA994" s="4"/>
     </row>
-    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:27" ht="15">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
       <c r="C995" s="15"/>
@@ -30448,7 +30444,7 @@
       <c r="Z995" s="4"/>
       <c r="AA995" s="4"/>
     </row>
-    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:27" ht="15">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
       <c r="C996" s="15"/>
@@ -30477,7 +30473,7 @@
       <c r="Z996" s="4"/>
       <c r="AA996" s="4"/>
     </row>
-    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:27" ht="15">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
       <c r="C997" s="15"/>
@@ -30506,7 +30502,7 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
-    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:27" ht="15">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
       <c r="C998" s="15"/>
@@ -30535,7 +30531,7 @@
       <c r="Z998" s="4"/>
       <c r="AA998" s="4"/>
     </row>
-    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:27" ht="15">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
       <c r="C999" s="15"/>
@@ -30564,7 +30560,7 @@
       <c r="Z999" s="4"/>
       <c r="AA999" s="4"/>
     </row>
-    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:27" ht="15">
       <c r="A1000" s="6"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="15"/>
@@ -30593,7 +30589,7 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
-    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:27" ht="15">
       <c r="A1001" s="6"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="15"/>
@@ -30622,7 +30618,7 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:27" ht="15">
       <c r="A1002" s="6"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="15"/>
@@ -30651,7 +30647,7 @@
       <c r="Z1002" s="4"/>
       <c r="AA1002" s="4"/>
     </row>
-    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:27" ht="15">
       <c r="A1003" s="6"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="15"/>
@@ -30680,7 +30676,7 @@
       <c r="Z1003" s="4"/>
       <c r="AA1003" s="4"/>
     </row>
-    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:27" ht="15">
       <c r="A1004" s="6"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="15"/>
@@ -30709,7 +30705,7 @@
       <c r="Z1004" s="4"/>
       <c r="AA1004" s="4"/>
     </row>
-    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:27" ht="15">
       <c r="A1005" s="6"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="15"/>
@@ -30738,7 +30734,7 @@
       <c r="Z1005" s="4"/>
       <c r="AA1005" s="4"/>
     </row>
-    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:27" ht="15">
       <c r="A1006" s="6"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="15"/>
@@ -30767,7 +30763,7 @@
       <c r="Z1006" s="4"/>
       <c r="AA1006" s="4"/>
     </row>
-    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:27" ht="15">
       <c r="A1007" s="6"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="15"/>
@@ -30796,7 +30792,7 @@
       <c r="Z1007" s="4"/>
       <c r="AA1007" s="4"/>
     </row>
-    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:27" ht="15">
       <c r="A1008" s="6"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="15"/>
@@ -30825,7 +30821,7 @@
       <c r="Z1008" s="4"/>
       <c r="AA1008" s="4"/>
     </row>
-    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:27" ht="15">
       <c r="A1009" s="6"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="15"/>
@@ -30854,7 +30850,7 @@
       <c r="Z1009" s="4"/>
       <c r="AA1009" s="4"/>
     </row>
-    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:27" ht="15">
       <c r="A1010" s="6"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="15"/>
@@ -30883,7 +30879,7 @@
       <c r="Z1010" s="4"/>
       <c r="AA1010" s="4"/>
     </row>
-    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:27" ht="15">
       <c r="A1011" s="6"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="15"/>
@@ -30912,7 +30908,7 @@
       <c r="Z1011" s="4"/>
       <c r="AA1011" s="4"/>
     </row>
-    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:27" ht="15">
       <c r="A1012" s="6"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="15"/>
@@ -30941,7 +30937,7 @@
       <c r="Z1012" s="4"/>
       <c r="AA1012" s="4"/>
     </row>
-    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:27" ht="15">
       <c r="A1013" s="6"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="15"/>
@@ -30970,7 +30966,7 @@
       <c r="Z1013" s="4"/>
       <c r="AA1013" s="4"/>
     </row>
-    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:27" ht="15">
       <c r="A1014" s="6"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="15"/>
@@ -30999,7 +30995,7 @@
       <c r="Z1014" s="4"/>
       <c r="AA1014" s="4"/>
     </row>
-    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:27" ht="15">
       <c r="A1015" s="6"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="15"/>
@@ -31028,7 +31024,7 @@
       <c r="Z1015" s="4"/>
       <c r="AA1015" s="4"/>
     </row>
-    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:27" ht="15">
       <c r="A1016" s="6"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="15"/>
@@ -31057,7 +31053,7 @@
       <c r="Z1016" s="4"/>
       <c r="AA1016" s="4"/>
     </row>
-    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:27" ht="15">
       <c r="A1017" s="6"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="15"/>
@@ -31086,7 +31082,7 @@
       <c r="Z1017" s="4"/>
       <c r="AA1017" s="4"/>
     </row>
-    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:27" ht="15">
       <c r="A1018" s="6"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="15"/>
@@ -31115,7 +31111,7 @@
       <c r="Z1018" s="4"/>
       <c r="AA1018" s="4"/>
     </row>
-    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:27" ht="15">
       <c r="A1019" s="6"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="15"/>
@@ -31144,7 +31140,7 @@
       <c r="Z1019" s="4"/>
       <c r="AA1019" s="4"/>
     </row>
-    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:27" ht="15">
       <c r="A1020" s="6"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="15"/>
@@ -31173,7 +31169,7 @@
       <c r="Z1020" s="4"/>
       <c r="AA1020" s="4"/>
     </row>
-    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:27" ht="15">
       <c r="A1021" s="6"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="15"/>
@@ -31202,7 +31198,7 @@
       <c r="Z1021" s="4"/>
       <c r="AA1021" s="4"/>
     </row>
-    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:27" ht="15">
       <c r="A1022" s="6"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="15"/>
@@ -31231,7 +31227,7 @@
       <c r="Z1022" s="4"/>
       <c r="AA1022" s="4"/>
     </row>
-    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:27" ht="15">
       <c r="A1023" s="6"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="15"/>
@@ -31260,7 +31256,7 @@
       <c r="Z1023" s="4"/>
       <c r="AA1023" s="4"/>
     </row>
-    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:27" ht="15">
       <c r="A1024" s="6"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="15"/>
@@ -31289,7 +31285,7 @@
       <c r="Z1024" s="4"/>
       <c r="AA1024" s="4"/>
     </row>
-    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:27" ht="15">
       <c r="A1025" s="6"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="15"/>
@@ -31318,7 +31314,7 @@
       <c r="Z1025" s="4"/>
       <c r="AA1025" s="4"/>
     </row>
-    <row r="1026" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:27" ht="15">
       <c r="A1026" s="6"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="15"/>
@@ -31347,7 +31343,7 @@
       <c r="Z1026" s="4"/>
       <c r="AA1026" s="4"/>
     </row>
-    <row r="1027" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:27" ht="15">
       <c r="A1027" s="6"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="15"/>
@@ -31376,7 +31372,7 @@
       <c r="Z1027" s="4"/>
       <c r="AA1027" s="4"/>
     </row>
-    <row r="1028" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:27" ht="15">
       <c r="A1028" s="6"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="15"/>
@@ -31405,7 +31401,7 @@
       <c r="Z1028" s="4"/>
       <c r="AA1028" s="4"/>
     </row>
-    <row r="1029" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:27" ht="15">
       <c r="A1029" s="6"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="15"/>
@@ -31434,7 +31430,7 @@
       <c r="Z1029" s="4"/>
       <c r="AA1029" s="4"/>
     </row>
-    <row r="1030" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:27" ht="15">
       <c r="A1030" s="6"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="15"/>
@@ -31463,7 +31459,7 @@
       <c r="Z1030" s="4"/>
       <c r="AA1030" s="4"/>
     </row>
-    <row r="1031" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:27" ht="15">
       <c r="A1031" s="6"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="15"/>
@@ -31492,7 +31488,7 @@
       <c r="Z1031" s="4"/>
       <c r="AA1031" s="4"/>
     </row>
-    <row r="1032" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:27" ht="15">
       <c r="A1032" s="6"/>
       <c r="B1032" s="3"/>
       <c r="C1032" s="15"/>
@@ -31521,7 +31517,7 @@
       <c r="Z1032" s="4"/>
       <c r="AA1032" s="4"/>
     </row>
-    <row r="1033" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:27" ht="15">
       <c r="A1033" s="6"/>
       <c r="B1033" s="3"/>
       <c r="C1033" s="15"/>
@@ -31550,7 +31546,7 @@
       <c r="Z1033" s="4"/>
       <c r="AA1033" s="4"/>
     </row>
-    <row r="1034" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:27" ht="15">
       <c r="A1034" s="6"/>
       <c r="B1034" s="3"/>
       <c r="C1034" s="15"/>
@@ -31579,7 +31575,7 @@
       <c r="Z1034" s="4"/>
       <c r="AA1034" s="4"/>
     </row>
-    <row r="1035" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:27" ht="15">
       <c r="A1035" s="6"/>
       <c r="B1035" s="3"/>
       <c r="C1035" s="15"/>
@@ -31608,7 +31604,7 @@
       <c r="Z1035" s="4"/>
       <c r="AA1035" s="4"/>
     </row>
-    <row r="1036" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:27" ht="15">
       <c r="A1036" s="6"/>
       <c r="B1036" s="3"/>
       <c r="C1036" s="15"/>
@@ -31637,7 +31633,7 @@
       <c r="Z1036" s="4"/>
       <c r="AA1036" s="4"/>
     </row>
-    <row r="1037" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:27" ht="15">
       <c r="A1037" s="6"/>
       <c r="B1037" s="3"/>
       <c r="C1037" s="15"/>
@@ -31666,7 +31662,7 @@
       <c r="Z1037" s="4"/>
       <c r="AA1037" s="4"/>
     </row>
-    <row r="1038" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:27" ht="15">
       <c r="A1038" s="6"/>
       <c r="B1038" s="3"/>
       <c r="C1038" s="15"/>
@@ -31695,7 +31691,7 @@
       <c r="Z1038" s="4"/>
       <c r="AA1038" s="4"/>
     </row>
-    <row r="1039" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:27" ht="15">
       <c r="A1039" s="6"/>
       <c r="B1039" s="3"/>
       <c r="C1039" s="15"/>
@@ -31724,7 +31720,7 @@
       <c r="Z1039" s="4"/>
       <c r="AA1039" s="4"/>
     </row>
-    <row r="1040" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:27" ht="15">
       <c r="A1040" s="6"/>
       <c r="B1040" s="3"/>
       <c r="C1040" s="15"/>
@@ -31753,7 +31749,7 @@
       <c r="Z1040" s="4"/>
       <c r="AA1040" s="4"/>
     </row>
-    <row r="1041" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:27" ht="15">
       <c r="A1041" s="6"/>
       <c r="B1041" s="3"/>
       <c r="C1041" s="15"/>
@@ -31782,7 +31778,7 @@
       <c r="Z1041" s="4"/>
       <c r="AA1041" s="4"/>
     </row>
-    <row r="1042" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:27" ht="15">
       <c r="A1042" s="6"/>
       <c r="B1042" s="3"/>
       <c r="C1042" s="15"/>
@@ -31811,7 +31807,7 @@
       <c r="Z1042" s="4"/>
       <c r="AA1042" s="4"/>
     </row>
-    <row r="1043" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:27" ht="15">
       <c r="A1043" s="6"/>
       <c r="B1043" s="3"/>
       <c r="C1043" s="15"/>
@@ -31840,7 +31836,7 @@
       <c r="Z1043" s="4"/>
       <c r="AA1043" s="4"/>
     </row>
-    <row r="1044" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:27" ht="15">
       <c r="A1044" s="6"/>
       <c r="B1044" s="3"/>
       <c r="C1044" s="15"/>
@@ -31869,7 +31865,7 @@
       <c r="Z1044" s="4"/>
       <c r="AA1044" s="4"/>
     </row>
-    <row r="1045" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:27" ht="15">
       <c r="A1045" s="6"/>
       <c r="B1045" s="3"/>
       <c r="C1045" s="15"/>
@@ -31898,7 +31894,7 @@
       <c r="Z1045" s="4"/>
       <c r="AA1045" s="4"/>
     </row>
-    <row r="1046" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1046" s="6"/>
     </row>
   </sheetData>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74299BE3-AF74-41BF-A88C-A121147B298E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC1AA6-1B5D-44EB-9006-7E4FBE056CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,9 +536,6 @@
     <t>D3_DU_PREGNANCY_COHORT_variables</t>
   </si>
   <si>
-    <t>D3_DU_PREGNANCY_COHORT_variables D4_DU_MS_COHORT</t>
-  </si>
-  <si>
     <t>D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>D4_DU_PREGNANCY_COHORT D3_SAP1_MS_COHORT D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>D3_DU_PREGNANCY_COHORT_variables D4_DU_MS_COHORT D3_DU_selection_criteria_from_pregnancies_to_DU_PREGNANCY-COHORT</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1015,11 @@
   </sheetPr>
   <dimension ref="A1:AA1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -2862,7 +2862,7 @@
         <v>132</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="4"/>
@@ -2975,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="4"/>
@@ -3003,7 +3003,7 @@
     <row r="53" spans="1:27" ht="90">
       <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>78</v>
@@ -3012,7 +3012,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="4"/>
@@ -3049,7 +3049,7 @@
         <v>145</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="4"/>
@@ -3113,7 +3113,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="94.5">
+    <row r="56" spans="1:27" ht="30" customHeight="1">
       <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>156</v>
@@ -3125,7 +3125,7 @@
         <v>155</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -3150,7 +3150,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="105">
+    <row r="57" spans="1:27" ht="28.5" customHeight="1">
       <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>154</v>
@@ -3162,7 +3162,7 @@
         <v>155</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -3199,7 +3199,7 @@
         <v>158</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
@@ -3448,7 +3448,7 @@
     <row r="65" spans="1:27" ht="78.75">
       <c r="A65" s="45"/>
       <c r="B65" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="48" t="s">
         <v>162</v>

--- a/i_codebooks/00_index.xlsx
+++ b/i_codebooks/00_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC1AA6-1B5D-44EB-9006-7E4FBE056CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DFA7FF-85A9-4FCB-BC0F-0B835291862D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="180">
   <si>
     <t>release</t>
   </si>
@@ -559,12 +559,15 @@
   <si>
     <t>D3_DU_PREGNANCY_COHORT_variables D4_DU_MS_COHORT D3_DU_selection_criteria_from_pregnancies_to_DU_PREGNANCY-COHORT</t>
   </si>
+  <si>
+    <t>10_T3_21_aggregate_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1015,14 +1018,14 @@
   </sheetPr>
   <dimension ref="A1:AA1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" customWidth="1"/>
@@ -1033,7 +1036,7 @@
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1124,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1199,7 +1202,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1280,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1319,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1358,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1438,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>62</v>
@@ -1472,7 +1475,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1516,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1631,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1668,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>64</v>
@@ -1702,7 +1705,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1783,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1824,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="40.9" customHeight="1">
+    <row r="21" spans="1:27" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1865,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1906,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +1986,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2025,7 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2066,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2146,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2228,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="32" t="s">
         <v>95</v>
@@ -2262,7 +2265,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="32" t="s">
         <v>106</v>
@@ -2297,7 +2300,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="25" t="s">
         <v>118</v>
@@ -2331,7 +2334,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="25" t="s">
         <v>107</v>
@@ -2366,7 +2369,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="25" t="s">
         <v>119</v>
@@ -2400,7 +2403,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
         <v>108</v>
@@ -2435,7 +2438,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
         <v>120</v>
@@ -2469,7 +2472,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
         <v>109</v>
@@ -2504,7 +2507,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="25" t="s">
         <v>121</v>
@@ -2538,7 +2541,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="32" t="s">
         <v>122</v>
@@ -2573,7 +2576,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="32" t="s">
         <v>123</v>
@@ -2608,7 +2611,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="45">
+    <row r="42" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="25" t="s">
         <v>164</v>
@@ -2645,7 +2648,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="45">
+    <row r="43" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="32" t="s">
         <v>68</v>
@@ -2684,7 +2687,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="60">
+    <row r="44" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="32" t="s">
         <v>165</v>
@@ -2723,7 +2726,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="30">
+    <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="32" t="s">
         <v>166</v>
@@ -2762,7 +2765,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="30">
+    <row r="46" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="33" t="s">
         <v>72</v>
@@ -2801,7 +2804,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="3" t="s">
         <v>168</v>
@@ -2813,7 +2816,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="30">
+    <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>169</v>
@@ -2850,7 +2853,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="26.25">
+    <row r="49" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="33" t="s">
         <v>170</v>
@@ -2889,7 +2892,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="60">
+    <row r="50" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="33" t="s">
         <v>100</v>
@@ -2926,7 +2929,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="75">
+    <row r="51" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="B51" s="33" t="s">
         <v>101</v>
@@ -2963,7 +2966,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="60">
+    <row r="52" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>148</v>
@@ -3000,7 +3003,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="90">
+    <row r="53" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
         <v>171</v>
@@ -3037,7 +3040,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="60">
+    <row r="54" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="B54" s="3" t="s">
         <v>97</v>
@@ -3074,7 +3077,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="60">
+    <row r="55" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="3" t="s">
         <v>77</v>
@@ -3113,7 +3116,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="30" customHeight="1">
+    <row r="56" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>156</v>
@@ -3150,7 +3153,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="28.5" customHeight="1">
+    <row r="57" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>154</v>
@@ -3159,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>173</v>
@@ -3187,7 +3190,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="42" customHeight="1">
+    <row r="58" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="3" t="s">
         <v>139</v>
@@ -3224,7 +3227,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="45">
+    <row r="59" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -3261,7 +3264,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="60">
+    <row r="60" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="3" t="s">
         <v>136</v>
@@ -3298,7 +3301,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="45">
+    <row r="61" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="3" t="s">
         <v>102</v>
@@ -3334,7 +3337,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="26.25">
+    <row r="62" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="3" t="s">
         <v>103</v>
@@ -3371,7 +3374,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="39">
+    <row r="63" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A63" s="45"/>
       <c r="B63" s="3" t="s">
         <v>140</v>
@@ -3408,7 +3411,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="38.25">
+    <row r="64" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
       <c r="B64" s="3" t="s">
         <v>150</v>
@@ -3445,7 +3448,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="78.75">
+    <row r="65" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="45"/>
       <c r="B65" s="3" t="s">
         <v>172</v>
@@ -3482,7 +3485,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="15">
+    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="45"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3507,7 +3510,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="15">
+    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="45"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -3532,7 +3535,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="15">
+    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="45"/>
       <c r="B68" s="3"/>
       <c r="C68" s="15"/>
@@ -3561,7 +3564,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="15">
+    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="3"/>
       <c r="C69" s="15"/>
@@ -3590,7 +3593,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="15">
+    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="3"/>
       <c r="C70" s="15"/>
@@ -3619,7 +3622,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="15">
+    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="15"/>
@@ -3648,7 +3651,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="15">
+    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="15"/>
@@ -3677,7 +3680,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="15">
+    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="15"/>
@@ -3706,7 +3709,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="15">
+    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="15"/>
@@ -3735,7 +3738,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="15">
+    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="15"/>
@@ -3764,7 +3767,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="15">
+    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="15"/>
@@ -3793,7 +3796,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="15">
+    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="15"/>
@@ -3822,7 +3825,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="15">
+    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="15"/>
@@ -3851,7 +3854,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="15">
+    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="15"/>
@@ -3880,7 +3883,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="15">
+    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="15"/>
@@ -3909,7 +3912,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="15">
+    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="15"/>
@@ -3938,7 +3941,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="15">
+    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="15"/>
@@ -3967,7 +3970,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="15">
+    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="15"/>
@@ -3996,7 +3999,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="15">
+    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="15"/>
@@ -4025,7 +4028,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="15">
+    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="15"/>
@@ -4054,7 +4057,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="15">
+    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="15"/>
@@ -4083,7 +4086,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="15">
+    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="15"/>
@@ -4112,7 +4115,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="15">
+    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="15"/>
@@ -4141,7 +4144,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="15">
+    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="15"/>
@@ -4170,7 +4173,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="15">
+    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
@@ -4199,7 +4202,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="15">
+    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="15"/>
@@ -4228,7 +4231,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="15">
+    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="15"/>
@@ -4257,7 +4260,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="15">
+    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="15"/>
@@ -4286,7 +4289,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="15">
+    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="15"/>
@@ -4315,7 +4318,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="15">
+    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="15"/>
@@ -4344,7 +4347,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="15">
+    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="15"/>
@@ -4373,7 +4376,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="15">
+    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
@@ -4402,7 +4405,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="15">
+    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="15"/>
@@ -4431,7 +4434,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="15">
+    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="15"/>
@@ -4460,7 +4463,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="15">
+    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
@@ -4489,7 +4492,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="15">
+    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="15"/>
@@ -4518,7 +4521,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="15">
+    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="15"/>
@@ -4547,7 +4550,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="15">
+    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="15"/>
@@ -4576,7 +4579,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="15">
+    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="15"/>
@@ -4605,7 +4608,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="15">
+    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="15"/>
@@ -4634,7 +4637,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="15">
+    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="15"/>
@@ -4663,7 +4666,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="15">
+    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="15"/>
@@ -4692,7 +4695,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="15">
+    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="15"/>
@@ -4721,7 +4724,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="15">
+    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="15"/>
@@ -4750,7 +4753,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="15">
+    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="15"/>
@@ -4779,7 +4782,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="15">
+    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="15"/>
@@ -4808,7 +4811,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="15">
+    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="15"/>
@@ -4837,7 +4840,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="15">
+    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="15"/>
@@ -4866,7 +4869,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="15">
+    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="15"/>
@@ -4895,7 +4898,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="15">
+    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="15"/>
@@ -4924,7 +4927,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="15">
+    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="15"/>
@@ -4953,7 +4956,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="15">
+    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="15"/>
@@ -4982,7 +4985,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="15">
+    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="15"/>
@@ -5011,7 +5014,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="15">
+    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="15"/>
@@ -5040,7 +5043,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="15">
+    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="15"/>
@@ -5069,7 +5072,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="15">
+    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="15"/>
@@ -5098,7 +5101,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="15">
+    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="15"/>
@@ -5127,7 +5130,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="15">
+    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="15"/>
@@ -5156,7 +5159,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="15">
+    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="15"/>
@@ -5185,7 +5188,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="15">
+    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="15"/>
@@ -5214,7 +5217,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="15">
+    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="15"/>
@@ -5243,7 +5246,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="15">
+    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="15"/>
@@ -5272,7 +5275,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="15">
+    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="15"/>
@@ -5301,7 +5304,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="15">
+    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="15"/>
@@ -5330,7 +5333,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="15">
+    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="15"/>
@@ -5359,7 +5362,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="15">
+    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="15"/>
@@ -5388,7 +5391,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="15">
+    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="15"/>
@@ -5417,7 +5420,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="15">
+    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="15"/>
@@ -5446,7 +5449,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="15">
+    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="15"/>
@@ -5475,7 +5478,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="15">
+    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="15"/>
@@ -5504,7 +5507,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="15">
+    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="15"/>
@@ -5533,7 +5536,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="15">
+    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="15"/>
@@ -5562,7 +5565,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="15">
+    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="15"/>
@@ -5591,7 +5594,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="15">
+    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="15"/>
@@ -5620,7 +5623,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="15">
+    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="15"/>
@@ -5649,7 +5652,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="15">
+    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="15"/>
@@ -5678,7 +5681,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="15">
+    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="15"/>
@@ -5707,7 +5710,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="15">
+    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="15"/>
@@ -5736,7 +5739,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="15">
+    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="15"/>
@@ -5765,7 +5768,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="15">
+    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="15"/>
@@ -5794,7 +5797,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="15">
+    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="15"/>
@@ -5823,7 +5826,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="15">
+    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="15"/>
@@ -5852,7 +5855,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="15">
+    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="15"/>
@@ -5881,7 +5884,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="15">
+    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="15"/>
@@ -5910,7 +5913,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="15">
+    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="15"/>
@@ -5939,7 +5942,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="15">
+    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="15"/>
@@ -5968,7 +5971,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="15">
+    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="15"/>
@@ -5997,7 +6000,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="15">
+    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="15"/>
@@ -6026,7 +6029,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="15">
+    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="15"/>
@@ -6055,7 +6058,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="15">
+    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="15"/>
@@ -6084,7 +6087,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="15">
+    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="15"/>
@@ -6113,7 +6116,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="15">
+    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="15"/>
@@ -6142,7 +6145,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="15">
+    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="15"/>
@@ -6171,7 +6174,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="15">
+    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="15"/>
@@ -6200,7 +6203,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="15">
+    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="15"/>
@@ -6229,7 +6232,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="15">
+    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="15"/>
@@ -6258,7 +6261,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="15">
+    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="15"/>
@@ -6287,7 +6290,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="15">
+    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="15"/>
@@ -6316,7 +6319,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="15">
+    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="15"/>
@@ -6345,7 +6348,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="15">
+    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="15"/>
@@ -6374,7 +6377,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="15">
+    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="15"/>
@@ -6403,7 +6406,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="15">
+    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="15"/>
@@ -6432,7 +6435,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="15">
+    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="15"/>
@@ -6461,7 +6464,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="15">
+    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="15"/>
@@ -6490,7 +6493,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="15">
+    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="15"/>
@@ -6519,7 +6522,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="15">
+    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="15"/>
@@ -6548,7 +6551,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="15">
+    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="15"/>
@@ -6577,7 +6580,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="15">
+    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="15"/>
@@ -6606,7 +6609,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="15">
+    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="15"/>
@@ -6635,7 +6638,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="15">
+    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="15"/>
@@ -6664,7 +6667,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="15">
+    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="15"/>
@@ -6693,7 +6696,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="15">
+    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="15"/>
@@ -6722,7 +6725,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="15">
+    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="15"/>
@@ -6751,7 +6754,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="15">
+    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="15"/>
@@ -6780,7 +6783,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="15">
+    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="15"/>
@@ -6809,7 +6812,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="15">
+    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="15"/>
@@ -6838,7 +6841,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="15">
+    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="15"/>
@@ -6867,7 +6870,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="15">
+    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="15"/>
@@ -6896,7 +6899,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="15">
+    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="15"/>
@@ -6925,7 +6928,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="15">
+    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="15"/>
@@ -6954,7 +6957,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="15">
+    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="15"/>
@@ -6983,7 +6986,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="15">
+    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="15"/>
@@ -7012,7 +7015,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="15">
+    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="15"/>
@@ -7041,7 +7044,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="15">
+    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="15"/>
@@ -7070,7 +7073,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="15">
+    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="15"/>
@@ -7099,7 +7102,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="15">
+    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="15"/>
@@ -7128,7 +7131,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="15">
+    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="15"/>
@@ -7157,7 +7160,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="15">
+    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="15"/>
@@ -7186,7 +7189,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="15">
+    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="15"/>
@@ -7215,7 +7218,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="15">
+    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="15"/>
@@ -7244,7 +7247,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="15">
+    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="15"/>
@@ -7273,7 +7276,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="15">
+    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="15"/>
@@ -7302,7 +7305,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" ht="15">
+    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="15"/>
@@ -7331,7 +7334,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="15">
+    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="15"/>
@@ -7360,7 +7363,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="15">
+    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="15"/>
@@ -7389,7 +7392,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="15">
+    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="15"/>
@@ -7418,7 +7421,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="15">
+    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="15"/>
@@ -7447,7 +7450,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="15">
+    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="15"/>
@@ -7476,7 +7479,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="15">
+    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="15"/>
@@ -7505,7 +7508,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="15">
+    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="15"/>
@@ -7534,7 +7537,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="15">
+    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="15"/>
@@ -7563,7 +7566,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="15">
+    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="15"/>
@@ -7592,7 +7595,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="15">
+    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="15"/>
@@ -7621,7 +7624,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="15">
+    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="15"/>
@@ -7650,7 +7653,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="15">
+    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="15"/>
@@ -7679,7 +7682,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="15">
+    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="15"/>
@@ -7708,7 +7711,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="15">
+    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="15"/>
@@ -7737,7 +7740,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="15">
+    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="15"/>
@@ -7766,7 +7769,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="15">
+    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="15"/>
@@ -7795,7 +7798,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="15">
+    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="15"/>
@@ -7824,7 +7827,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="15">
+    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="15"/>
@@ -7853,7 +7856,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="15">
+    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="15"/>
@@ -7882,7 +7885,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="15">
+    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="15"/>
@@ -7911,7 +7914,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="15">
+    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="15"/>
@@ -7940,7 +7943,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="15">
+    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="15"/>
@@ -7969,7 +7972,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="15">
+    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="15"/>
@@ -7998,7 +8001,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="15">
+    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="15"/>
@@ -8027,7 +8030,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="15">
+    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="15"/>
@@ -8056,7 +8059,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="15">
+    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="15"/>
@@ -8085,7 +8088,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="15">
+    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="15"/>
@@ -8114,7 +8117,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="15">
+    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="15"/>
@@ -8143,7 +8146,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="15">
+    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="15"/>
@@ -8172,7 +8175,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="15">
+    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="15"/>
@@ -8201,7 +8204,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="15">
+    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="15"/>
@@ -8230,7 +8233,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="15">
+    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="15"/>
@@ -8259,7 +8262,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="15">
+    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="15"/>
@@ -8288,7 +8291,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="15">
+    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="15"/>
@@ -8317,7 +8320,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="15">
+    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="15"/>
@@ -8346,7 +8349,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="15">
+    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="15"/>
@@ -8375,7 +8378,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="15">
+    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="15"/>
@@ -8404,7 +8407,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="15">
+    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="15"/>
@@ -8433,7 +8436,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="15">
+    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="15"/>
@@ -8462,7 +8465,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="15">
+    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="15"/>
@@ -8491,7 +8494,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="15">
+    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="15"/>
@@ -8520,7 +8523,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="15">
+    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="15"/>
@@ -8549,7 +8552,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="15">
+    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="15"/>
@@ -8578,7 +8581,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="15">
+    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="15"/>
@@ -8607,7 +8610,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="15">
+    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="15"/>
@@ -8636,7 +8639,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="15">
+    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="15"/>
@@ -8665,7 +8668,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="15">
+    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="15"/>
@@ -8694,7 +8697,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="15">
+    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="15"/>
@@ -8723,7 +8726,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="15">
+    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="15"/>
@@ -8752,7 +8755,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="15">
+    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="15"/>
@@ -8781,7 +8784,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="15">
+    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="15"/>
@@ -8810,7 +8813,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="15">
+    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="15"/>
@@ -8839,7 +8842,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="15">
+    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="15"/>
@@ -8868,7 +8871,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="15">
+    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="15"/>
@@ -8897,7 +8900,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="15">
+    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="15"/>
@@ -8926,7 +8929,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="15">
+    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="15"/>
@@ -8955,7 +8958,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="15">
+    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="15"/>
@@ -8984,7 +8987,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="15">
+    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="15"/>
@@ -9013,7 +9016,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="15">
+    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="15"/>
@@ -9042,7 +9045,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="15">
+    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="15"/>
@@ -9071,7 +9074,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="15">
+    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="15"/>
@@ -9100,7 +9103,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="15">
+    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="15"/>
@@ -9129,7 +9132,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="15">
+    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="15"/>
@@ -9158,7 +9161,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="15">
+    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="15"/>
@@ -9187,7 +9190,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="15">
+    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="15"/>
@@ -9216,7 +9219,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="15">
+    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="15"/>
@@ -9245,7 +9248,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="15">
+    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="15"/>
@@ -9274,7 +9277,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="15">
+    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="15"/>
@@ -9303,7 +9306,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="15">
+    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="15"/>
@@ -9332,7 +9335,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="15">
+    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="15"/>
@@ -9361,7 +9364,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="15">
+    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="15"/>
@@ -9390,7 +9393,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="15">
+    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="15"/>
@@ -9419,7 +9422,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="15">
+    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="15"/>
@@ -9448,7 +9451,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="15">
+    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="15"/>
@@ -9477,7 +9480,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="15">
+    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="15"/>
@@ -9506,7 +9509,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="15">
+    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="15"/>
@@ -9535,7 +9538,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="15">
+    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="15"/>
@@ -9564,7 +9567,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="15">
+    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="15"/>
@@ -9593,7 +9596,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="15">
+    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="15"/>
@@ -9622,7 +9625,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="15">
+    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="15"/>
@@ -9651,7 +9654,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="15">
+    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="15"/>
@@ -9680,7 +9683,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="15">
+    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="15"/>
@@ -9709,7 +9712,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="15">
+    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="15"/>
@@ -9738,7 +9741,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="15">
+    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="15"/>
@@ -9767,7 +9770,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="15">
+    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="15"/>
@@ -9796,7 +9799,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="15">
+    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="15"/>
@@ -9825,7 +9828,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="15">
+    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="15"/>
@@ -9854,7 +9857,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="15">
+    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="15"/>
@@ -9883,7 +9886,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="15">
+    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="15"/>
@@ -9912,7 +9915,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="15">
+    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="15"/>
@@ -9941,7 +9944,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="15">
+    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="15"/>
@@ -9970,7 +9973,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="15">
+    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="15"/>
@@ -9999,7 +10002,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="15">
+    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="15"/>
@@ -10028,7 +10031,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="15">
+    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="15"/>
@@ -10057,7 +10060,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="15">
+    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="15"/>
@@ -10086,7 +10089,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="15">
+    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="15"/>
@@ -10115,7 +10118,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="15">
+    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="15"/>
@@ -10144,7 +10147,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="15">
+    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="15"/>
@@ -10173,7 +10176,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="15">
+    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="15"/>
@@ -10202,7 +10205,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="15">
+    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="15"/>
@@ -10231,7 +10234,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="15">
+    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="15"/>
@@ -10260,7 +10263,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="15">
+    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="15"/>
@@ -10289,7 +10292,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="15">
+    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="15"/>
@@ -10318,7 +10321,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="15">
+    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="15"/>
@@ -10347,7 +10350,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="15">
+    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="15"/>
@@ -10376,7 +10379,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="15">
+    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="15"/>
@@ -10405,7 +10408,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="15">
+    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="15"/>
@@ -10434,7 +10437,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="15">
+    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="15"/>
@@ -10463,7 +10466,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="15">
+    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="15"/>
@@ -10492,7 +10495,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="15">
+    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="15"/>
@@ -10521,7 +10524,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="15">
+    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="15"/>
@@ -10550,7 +10553,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="15">
+    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="15"/>
@@ -10579,7 +10582,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="15">
+    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="15"/>
@@ -10608,7 +10611,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="15">
+    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="15"/>
@@ -10637,7 +10640,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="15">
+    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="15"/>
@@ -10666,7 +10669,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="15">
+    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="15"/>
@@ -10695,7 +10698,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="15">
+    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="15"/>
@@ -10724,7 +10727,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="15">
+    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="15"/>
@@ -10753,7 +10756,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="15">
+    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="15"/>
@@ -10782,7 +10785,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="15">
+    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="15"/>
@@ -10811,7 +10814,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="15">
+    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="15"/>
@@ -10840,7 +10843,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="15">
+    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="15"/>
@@ -10869,7 +10872,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="15">
+    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="15"/>
@@ -10898,7 +10901,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="15">
+    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="15"/>
@@ -10927,7 +10930,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="15">
+    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="15"/>
@@ -10956,7 +10959,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="15">
+    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="15"/>
@@ -10985,7 +10988,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="15">
+    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="15"/>
@@ -11014,7 +11017,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="15">
+    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="15"/>
@@ -11043,7 +11046,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="15">
+    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="15"/>
@@ -11072,7 +11075,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="15">
+    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="15"/>
@@ -11101,7 +11104,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="15">
+    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="15"/>
@@ -11130,7 +11133,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="15">
+    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="15"/>
@@ -11159,7 +11162,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="15">
+    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="15"/>
@@ -11188,7 +11191,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="15">
+    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="15"/>
@@ -11217,7 +11220,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="15">
+    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="15"/>
@@ -11246,7 +11249,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="15">
+    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="15"/>
@@ -11275,7 +11278,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="15">
+    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="15"/>
@@ -11304,7 +11307,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="15">
+    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="15"/>
@@ -11333,7 +11336,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="15">
+    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="15"/>
@@ -11362,7 +11365,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="15">
+    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="15"/>
@@ -11391,7 +11394,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="15">
+    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="15"/>
@@ -11420,7 +11423,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="15">
+    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="15"/>
@@ -11449,7 +11452,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="15">
+    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="15"/>
@@ -11478,7 +11481,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="15">
+    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="15"/>
@@ -11507,7 +11510,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="15">
+    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="15"/>
@@ -11536,7 +11539,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="15">
+    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="15"/>
@@ -11565,7 +11568,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="15">
+    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="15"/>
@@ -11594,7 +11597,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="15">
+    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="15"/>
@@ -11623,7 +11626,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="15">
+    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="15"/>
@@ -11652,7 +11655,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="15">
+    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="15"/>
@@ -11681,7 +11684,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="15">
+    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="15"/>
@@ -11710,7 +11713,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="15">
+    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="15"/>
@@ -11739,7 +11742,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="15">
+    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="15"/>
@@ -11768,7 +11771,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="15">
+    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="15"/>
@@ -11797,7 +11800,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="15">
+    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="15"/>
@@ -11826,7 +11829,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="15">
+    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="15"/>
@@ -11855,7 +11858,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="15">
+    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="15"/>
@@ -11884,7 +11887,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="15">
+    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="15"/>
@@ -11913,7 +11916,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="15">
+    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="15"/>
@@ -11942,7 +11945,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="15">
+    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="15"/>
@@ -11971,7 +11974,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="15">
+    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="15"/>
@@ -12000,7 +12003,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="15">
+    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="15"/>
@@ -12029,7 +12032,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="15">
+    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="15"/>
@@ -12058,7 +12061,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="15">
+    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="15"/>
@@ -12087,7 +12090,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="15">
+    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="15"/>
@@ -12116,7 +12119,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="15">
+    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="15"/>
@@ -12145,7 +12148,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="15">
+    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="15"/>
@@ -12174,7 +12177,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="15">
+    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="15"/>
@@ -12203,7 +12206,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="15">
+    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="15"/>
@@ -12232,7 +12235,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="15">
+    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="15"/>
@@ -12261,7 +12264,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="15">
+    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="15"/>
@@ -12290,7 +12293,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="15">
+    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="15"/>
@@ -12319,7 +12322,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="15">
+    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="15"/>
@@ -12348,7 +12351,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="15">
+    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="15"/>
@@ -12377,7 +12380,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="15">
+    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="15"/>
@@ -12406,7 +12409,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="15">
+    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="15"/>
@@ -12435,7 +12438,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="15">
+    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="15"/>
@@ -12464,7 +12467,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="15">
+    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="15"/>
@@ -12493,7 +12496,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="15">
+    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="15"/>
@@ -12522,7 +12525,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="15">
+    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="15"/>
@@ -12551,7 +12554,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="15">
+    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="15"/>
@@ -12580,7 +12583,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="15">
+    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="15"/>
@@ -12609,7 +12612,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="15">
+    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="15"/>
@@ -12638,7 +12641,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="15">
+    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="15"/>
@@ -12667,7 +12670,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="15">
+    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="15"/>
@@ -12696,7 +12699,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="15">
+    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="15"/>
@@ -12725,7 +12728,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="15">
+    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="15"/>
@@ -12754,7 +12757,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="15">
+    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="15"/>
@@ -12783,7 +12786,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="15">
+    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="15"/>
@@ -12812,7 +12815,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="15">
+    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="15"/>
@@ -12841,7 +12844,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="15">
+    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="15"/>
@@ -12870,7 +12873,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="15">
+    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="15"/>
@@ -12899,7 +12902,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="15">
+    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="15"/>
@@ -12928,7 +12931,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="15">
+    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="15"/>
@@ -12957,7 +12960,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="15">
+    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="15"/>
@@ -12986,7 +12989,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="15">
+    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="15"/>
@@ -13015,7 +13018,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="15">
+    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="15"/>
@@ -13044,7 +13047,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="15">
+    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="15"/>
@@ -13073,7 +13076,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="15">
+    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="15"/>
@@ -13102,7 +13105,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="15">
+    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="15"/>
@@ -13131,7 +13134,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="15">
+    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="15"/>
@@ -13160,7 +13163,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="15">
+    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="15"/>
@@ -13189,7 +13192,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="15">
+    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="15"/>
@@ -13218,7 +13221,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="15">
+    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="15"/>
@@ -13247,7 +13250,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="15">
+    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="15"/>
@@ -13276,7 +13279,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="15">
+    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="15"/>
@@ -13305,7 +13308,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="15">
+    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="15"/>
@@ -13334,7 +13337,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="15">
+    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="15"/>
@@ -13363,7 +13366,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="15">
+    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="15"/>
@@ -13392,7 +13395,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="15">
+    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="15"/>
@@ -13421,7 +13424,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="15">
+    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="15"/>
@@ -13450,7 +13453,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="15">
+    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="15"/>
@@ -13479,7 +13482,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="15">
+    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="15"/>
@@ -13508,7 +13511,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="15">
+    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="15"/>
@@ -13537,7 +13540,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="15">
+    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="15"/>
@@ -13566,7 +13569,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="15">
+    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="15"/>
@@ -13595,7 +13598,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="15">
+    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="15"/>
@@ -13624,7 +13627,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="15">
+    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="15"/>
@@ -13653,7 +13656,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="15">
+    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="15"/>
@@ -13682,7 +13685,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="15">
+    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="15"/>
@@ -13711,7 +13714,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="15">
+    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="15"/>
@@ -13740,7 +13743,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="15">
+    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="15"/>
@@ -13769,7 +13772,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="15">
+    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="15"/>
@@ -13798,7 +13801,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="15">
+    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="15"/>
@@ -13827,7 +13830,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="15">
+    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="15"/>
@@ -13856,7 +13859,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="15">
+    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="15"/>
@@ -13885,7 +13888,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="15">
+    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="15"/>
@@ -13914,7 +13917,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="15">
+    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="15"/>
@@ -13943,7 +13946,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="15">
+    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="15"/>
@@ -13972,7 +13975,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="15">
+    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="15"/>
@@ -14001,7 +14004,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="15">
+    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="15"/>
@@ -14030,7 +14033,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="15">
+    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="15"/>
@@ -14059,7 +14062,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="15">
+    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="15"/>
@@ -14088,7 +14091,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="15">
+    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="15"/>
@@ -14117,7 +14120,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="15">
+    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="15"/>
@@ -14146,7 +14149,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="15">
+    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="15"/>
@@ -14175,7 +14178,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="15">
+    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="15"/>
@@ -14204,7 +14207,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="15">
+    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="15"/>
@@ -14233,7 +14236,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="15">
+    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="15"/>
@@ -14262,7 +14265,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="15">
+    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="15"/>
@@ -14291,7 +14294,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="15">
+    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="15"/>
@@ -14320,7 +14323,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="15">
+    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="15"/>
@@ -14349,7 +14352,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="15">
+    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="15"/>
@@ -14378,7 +14381,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="15">
+    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="15"/>
@@ -14407,7 +14410,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="15">
+    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="15"/>
@@ -14436,7 +14439,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="15">
+    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="15"/>
@@ -14465,7 +14468,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="15">
+    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="15"/>
@@ -14494,7 +14497,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="15">
+    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="15"/>
@@ -14523,7 +14526,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="15">
+    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="15"/>
@@ -14552,7 +14555,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="15">
+    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="15"/>
@@ -14581,7 +14584,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="15">
+    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="15"/>
@@ -14610,7 +14613,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="15">
+    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="15"/>
@@ -14639,7 +14642,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="15">
+    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="15"/>
@@ -14668,7 +14671,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="15">
+    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="15"/>
@@ -14697,7 +14700,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="15">
+    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="15"/>
@@ -14726,7 +14729,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="15">
+    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="15"/>
@@ -14755,7 +14758,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="15">
+    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="15"/>
@@ -14784,7 +14787,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="15">
+    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="15"/>
@@ -14813,7 +14816,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="15">
+    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="15"/>
@@ -14842,7 +14845,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="15">
+    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="15"/>
@@ -14871,7 +14874,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="15">
+    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="15"/>
@@ -14900,7 +14903,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="15">
+    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="15"/>
@@ -14929,7 +14932,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="15">
+    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="15"/>
@@ -14958,7 +14961,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="15">
+    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="15"/>
@@ -14987,7 +14990,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="15">
+    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="15"/>
@@ -15016,7 +15019,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="15">
+    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="15"/>
@@ -15045,7 +15048,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
     </row>
-    <row r="465" spans="1:27" ht="15">
+    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="15"/>
@@ -15074,7 +15077,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" ht="15">
+    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="15"/>
@@ -15103,7 +15106,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" ht="15">
+    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="15"/>
@@ -15132,7 +15135,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" ht="15">
+    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="15"/>
@@ -15161,7 +15164,7 @@
       <c r="Z468" s="4"/>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" ht="15">
+    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="15"/>
@@ -15190,7 +15193,7 @@
       <c r="Z469" s="4"/>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" ht="15">
+    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="15"/>
@@ -15219,7 +15222,7 @@
       <c r="Z470" s="4"/>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" ht="15">
+    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="15"/>
@@ -15248,7 +15251,7 @@
       <c r="Z471" s="4"/>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" ht="15">
+    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="15"/>
@@ -15277,7 +15280,7 @@
       <c r="Z472" s="4"/>
       <c r="AA472" s="4"/>
     </row>
-    <row r="473" spans="1:27" ht="15">
+    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="15"/>
@@ -15306,7 +15309,7 @@
       <c r="Z473" s="4"/>
       <c r="AA473" s="4"/>
     </row>
-    <row r="474" spans="1:27" ht="15">
+    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="15"/>
@@ -15335,7 +15338,7 @@
       <c r="Z474" s="4"/>
       <c r="AA474" s="4"/>
     </row>
-    <row r="475" spans="1:27" ht="15">
+    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="15"/>
@@ -15364,7 +15367,7 @@
       <c r="Z475" s="4"/>
       <c r="AA475" s="4"/>
     </row>
-    <row r="476" spans="1:27" ht="15">
+    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="15"/>
@@ -15393,7 +15396,7 @@
       <c r="Z476" s="4"/>
       <c r="AA476" s="4"/>
     </row>
-    <row r="477" spans="1:27" ht="15">
+    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="15"/>
@@ -15422,7 +15425,7 @@
       <c r="Z477" s="4"/>
       <c r="AA477" s="4"/>
     </row>
-    <row r="478" spans="1:27" ht="15">
+    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="15"/>
@@ -15451,7 +15454,7 @@
       <c r="Z478" s="4"/>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" ht="15">
+    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="15"/>
@@ -15480,7 +15483,7 @@
       <c r="Z479" s="4"/>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" ht="15">
+    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="15"/>
@@ -15509,7 +15512,7 @@
       <c r="Z480" s="4"/>
       <c r="AA480" s="4"/>
     </row>
-    <row r="481" spans="1:27" ht="15">
+    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="15"/>
@@ -15538,7 +15541,7 @@
       <c r="Z481" s="4"/>
       <c r="AA481" s="4"/>
     </row>
-    <row r="482" spans="1:27" ht="15">
+    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="15"/>
@@ -15567,7 +15570,7 @@
       <c r="Z482" s="4"/>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" ht="15">
+    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="15"/>
@@ -15596,7 +15599,7 @@
       <c r="Z483" s="4"/>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" ht="15">
+    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="15"/>
@@ -15625,7 +15628,7 @@
       <c r="Z484" s="4"/>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" ht="15">
+    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="15"/>
@@ -15654,7 +15657,7 @@
       <c r="Z485" s="4"/>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" ht="15">
+    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="15"/>
@@ -15683,7 +15686,7 @@
       <c r="Z486" s="4"/>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" ht="15">
+    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="15"/>
@@ -15712,7 +15715,7 @@
       <c r="Z487" s="4"/>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" ht="15">
+    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="15"/>
@@ -15741,7 +15744,7 @@
       <c r="Z488" s="4"/>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" ht="15">
+    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="15"/>
@@ -15770,7 +15773,7 @@
       <c r="Z489" s="4"/>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" ht="15">
+    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="15"/>
@@ -15799,7 +15802,7 @@
       <c r="Z490" s="4"/>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" ht="15">
+    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="15"/>
@@ -15828,7 +15831,7 @@
       <c r="Z491" s="4"/>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" ht="15">
+    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="15"/>
@@ -15857,7 +15860,7 @@
       <c r="Z492" s="4"/>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" ht="15">
+    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="15"/>
@@ -15886,7 +15889,7 @@
       <c r="Z493" s="4"/>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" ht="15">
+    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="15"/>
@@ -15915,7 +15918,7 @@
       <c r="Z494" s="4"/>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" ht="15">
+    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="15"/>
@@ -15944,7 +15947,7 @@
       <c r="Z495" s="4"/>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" ht="15">
+    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="15"/>
@@ -15973,7 +15976,7 @@
       <c r="Z496" s="4"/>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" ht="15">
+    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="15"/>
@@ -16002,7 +16005,7 @@
       <c r="Z497" s="4"/>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" ht="15">
+    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="15"/>
@@ -16031,7 +16034,7 @@
       <c r="Z498" s="4"/>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" ht="15">
+    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="15"/>
@@ -16060,7 +16063,7 @@
       <c r="Z499" s="4"/>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" ht="15">
+    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="15"/>
@@ -16089,7 +16092,7 @@
       <c r="Z500" s="4"/>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" ht="15">
+    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="15"/>
@@ -16118,7 +16121,7 @@
       <c r="Z501" s="4"/>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" ht="15">
+    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="15"/>
@@ -16147,7 +16150,7 @@
       <c r="Z502" s="4"/>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" ht="15">
+    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="15"/>
@@ -16176,7 +16179,7 @@
       <c r="Z503" s="4"/>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" ht="15">
+    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="15"/>
@@ -16205,7 +16208,7 @@
       <c r="Z504" s="4"/>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" ht="15">
+    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="15"/>
@@ -16234,7 +16237,7 @@
       <c r="Z505" s="4"/>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" ht="15">
+    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="15"/>
@@ -16263,7 +16266,7 @@
       <c r="Z506" s="4"/>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" ht="15">
+    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="15"/>
@@ -16292,7 +16295,7 @@
       <c r="Z507" s="4"/>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" ht="15">
+    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="15"/>
@@ -16321,7 +16324,7 @@
       <c r="Z508" s="4"/>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" ht="15">
+    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="15"/>
@@ -16350,7 +16353,7 @@
       <c r="Z509" s="4"/>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" ht="15">
+    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="15"/>
@@ -16379,7 +16382,7 @@
       <c r="Z510" s="4"/>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" ht="15">
+    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="15"/>
@@ -16408,7 +16411,7 @@
       <c r="Z511" s="4"/>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" ht="15">
+    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="15"/>
@@ -16437,7 +16440,7 @@
       <c r="Z512" s="4"/>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" ht="15">
+    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="15"/>
@@ -16466,7 +16469,7 @@
       <c r="Z513" s="4"/>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" ht="15">
+    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="15"/>
@@ -16495,7 +16498,7 @@
       <c r="Z514" s="4"/>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" ht="15">
+    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="15"/>
@@ -16524,7 +16527,7 @@
       <c r="Z515" s="4"/>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" ht="15">
+    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="15"/>
@@ -16553,7 +16556,7 @@
       <c r="Z516" s="4"/>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" ht="15">
+    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="15"/>
@@ -16582,7 +16585,7 @@
       <c r="Z517" s="4"/>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" ht="15">
+    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="15"/>
@@ -16611,7 +16614,7 @@
       <c r="Z518" s="4"/>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" ht="15">
+    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="15"/>
@@ -16640,7 +16643,7 @@
       <c r="Z519" s="4"/>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" ht="15">
+    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="15"/>
@@ -16669,7 +16672,7 @@
       <c r="Z520" s="4"/>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" ht="15">
+    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="15"/>
@@ -16698,7 +16701,7 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" ht="15">
+    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="15"/>
@@ -16727,7 +16730,7 @@
       <c r="Z522" s="4"/>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" ht="15">
+    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="15"/>
@@ -16756,7 +16759,7 @@
       <c r="Z523" s="4"/>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" ht="15">
+    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="15"/>
@@ -16785,7 +16788,7 @@
       <c r="Z524" s="4"/>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" ht="15">
+    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="15"/>
@@ -16814,7 +16817,7 @@
       <c r="Z525" s="4"/>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" ht="15">
+    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="15"/>
@@ -16843,7 +16846,7 @@
       <c r="Z526" s="4"/>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" ht="15">
+    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="15"/>
@@ -16872,7 +16875,7 @@
       <c r="Z527" s="4"/>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" ht="15">
+    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="15"/>
@@ -16901,7 +16904,7 @@
       <c r="Z528" s="4"/>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" ht="15">
+    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="15"/>
@@ -16930,7 +16933,7 @@
       <c r="Z529" s="4"/>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" ht="15">
+    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="15"/>
@@ -16959,7 +16962,7 @@
       <c r="Z530" s="4"/>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" ht="15">
+    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="15"/>
@@ -16988,7 +16991,7 @@
       <c r="Z531" s="4"/>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" ht="15">
+    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="15"/>
@@ -17017,7 +17020,7 @@
       <c r="Z532" s="4"/>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" ht="15">
+    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="15"/>
@@ -17046,7 +17049,7 @@
       <c r="Z533" s="4"/>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" ht="15">
+    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="15"/>
@@ -17075,7 +17078,7 @@
       <c r="Z534" s="4"/>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" ht="15">
+    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="15"/>
@@ -17104,7 +17107,7 @@
       <c r="Z535" s="4"/>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" ht="15">
+    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="15"/>
@@ -17133,7 +17136,7 @@
       <c r="Z536" s="4"/>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" ht="15">
+    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="15"/>
@@ -17162,7 +17165,7 @@
       <c r="Z537" s="4"/>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" ht="15">
+    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="15"/>
@@ -17191,7 +17194,7 @@
       <c r="Z538" s="4"/>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" ht="15">
+    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="15"/>
@@ -17220,7 +17223,7 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" ht="15">
+    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="15"/>
@@ -17249,7 +17252,7 @@
       <c r="Z540" s="4"/>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" ht="15">
+    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="15"/>
@@ -17278,7 +17281,7 @@
       <c r="Z541" s="4"/>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" ht="15">
+    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="15"/>
@@ -17307,7 +17310,7 @@
       <c r="Z542" s="4"/>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" ht="15">
+    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="15"/>
@@ -17336,7 +17339,7 @@
       <c r="Z543" s="4"/>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" ht="15">
+    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="15"/>
@@ -17365,7 +17368,7 @@
       <c r="Z544" s="4"/>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" ht="15">
+    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="15"/>
@@ -17394,7 +17397,7 @@
       <c r="Z545" s="4"/>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" ht="15">
+    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="15"/>
@@ -17423,7 +17426,7 @@
       <c r="Z546" s="4"/>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" ht="15">
+    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="15"/>
@@ -17452,7 +17455,7 @@
       <c r="Z547" s="4"/>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" ht="15">
+    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="15"/>
@@ -17481,7 +17484,7 @@
       <c r="Z548" s="4"/>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" ht="15">
+    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="15"/>
@@ -17510,7 +17513,7 @@
       <c r="Z549" s="4"/>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" ht="15">
+    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="15"/>
@@ -17539,7 +17542,7 @@
       <c r="Z550" s="4"/>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" ht="15">
+    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="15"/>
@@ -17568,7 +17571,7 @@
       <c r="Z551" s="4"/>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" ht="15">
+    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="15"/>
@@ -17597,7 +17600,7 @@
       <c r="Z552" s="4"/>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" ht="15">
+    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="15"/>
@@ -17626,7 +17629,7 @@
       <c r="Z553" s="4"/>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" ht="15">
+    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="15"/>
@@ -17655,7 +17658,7 @@
       <c r="Z554" s="4"/>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" ht="15">
+    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="15"/>
@@ -17684,7 +17687,7 @@
       <c r="Z555" s="4"/>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" ht="15">
+    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="15"/>
@@ -17713,7 +17716,7 @@
       <c r="Z556" s="4"/>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" ht="15">
+    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="15"/>
@@ -17742,7 +17745,7 @@
       <c r="Z557" s="4"/>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" ht="15">
+    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="15"/>
@@ -17771,7 +17774,7 @@
       <c r="Z558" s="4"/>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" ht="15">
+    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="15"/>
@@ -17800,7 +17803,7 @@
       <c r="Z559" s="4"/>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" ht="15">
+    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="15"/>
@@ -17829,7 +17832,7 @@
       <c r="Z560" s="4"/>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" ht="15">
+    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="15"/>
@@ -17858,7 +17861,7 @@
       <c r="Z561" s="4"/>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" ht="15">
+    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="15"/>
@@ -17887,7 +17890,7 @@
       <c r="Z562" s="4"/>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" ht="15">
+    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="15"/>
@@ -17916,7 +17919,7 @@
       <c r="Z563" s="4"/>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" ht="15">
+    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="15"/>
@@ -17945,7 +17948,7 @@
       <c r="Z564" s="4"/>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" ht="15">
+    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="15"/>
@@ -17974,7 +17977,7 @@
       <c r="Z565" s="4"/>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" ht="15">
+    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="15"/>
@@ -18003,7 +18006,7 @@
       <c r="Z566" s="4"/>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" ht="15">
+    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="15"/>
@@ -18032,7 +18035,7 @@
       <c r="Z567" s="4"/>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" ht="15">
+    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="15"/>
@@ -18061,7 +18064,7 @@
       <c r="Z568" s="4"/>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" ht="15">
+    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="15"/>
@@ -18090,7 +18093,7 @@
       <c r="Z569" s="4"/>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" ht="15">
+    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="15"/>
@@ -18119,7 +18122,7 @@
       <c r="Z570" s="4"/>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" ht="15">
+    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="15"/>
@@ -18148,7 +18151,7 @@
       <c r="Z571" s="4"/>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" ht="15">
+    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="15"/>
@@ -18177,7 +18180,7 @@
       <c r="Z572" s="4"/>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" ht="15">
+    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="15"/>
@@ -18206,7 +18209,7 @@
       <c r="Z573" s="4"/>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" ht="15">
+    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="15"/>
@@ -18235,7 +18238,7 @@
       <c r="Z574" s="4"/>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" ht="15">
+    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="15"/>
@@ -18264,7 +18267,7 @@
       <c r="Z575" s="4"/>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" ht="15">
+    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="15"/>
@@ -18293,7 +18296,7 @@
       <c r="Z576" s="4"/>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" ht="15">
+    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="15"/>
@@ -18322,7 +18325,7 @@
       <c r="Z577" s="4"/>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" ht="15">
+    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="15"/>
@@ -18351,7 +18354,7 @@
       <c r="Z578" s="4"/>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" ht="15">
+    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="15"/>
@@ -18380,7 +18383,7 @@
       <c r="Z579" s="4"/>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" ht="15">
+    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="15"/>
@@ -18409,7 +18412,7 @@
       <c r="Z580" s="4"/>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" ht="15">
+    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="15"/>
@@ -18438,7 +18441,7 @@
       <c r="Z581" s="4"/>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" ht="15">
+    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="15"/>
@@ -18467,7 +18470,7 @@
       <c r="Z582" s="4"/>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" ht="15">
+    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="15"/>
@@ -18496,7 +18499,7 @@
       <c r="Z583" s="4"/>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" ht="15">
+    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="15"/>
@@ -18525,7 +18528,7 @@
       <c r="Z584" s="4"/>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" ht="15">
+    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="15"/>
@@ -18554,7 +18557,7 @@
       <c r="Z585" s="4"/>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" ht="15">
+    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="15"/>
@@ -18583,7 +18586,7 @@
       <c r="Z586" s="4"/>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" ht="15">
+    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="15"/>
@@ -18612,7 +18615,7 @@
       <c r="Z587" s="4"/>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" ht="15">
+    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="15"/>
@@ -18641,7 +18644,7 @@
       <c r="Z588" s="4"/>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" ht="15">
+    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="15"/>
@@ -18670,7 +18673,7 @@
       <c r="Z589" s="4"/>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" ht="15">
+    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="15"/>
@@ -18699,7 +18702,7 @@
       <c r="Z590" s="4"/>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" ht="15">
+    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="15"/>
@@ -18728,7 +18731,7 @@
       <c r="Z591" s="4"/>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" ht="15">
+    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="15"/>
@@ -18757,7 +18760,7 @@
       <c r="Z592" s="4"/>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" ht="15">
+    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="15"/>
@@ -18786,7 +18789,7 @@
       <c r="Z593" s="4"/>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" ht="15">
+    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="15"/>
@@ -18815,7 +18818,7 @@
       <c r="Z594" s="4"/>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" ht="15">
+    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="15"/>
@@ -18844,7 +18847,7 @@
       <c r="Z595" s="4"/>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" ht="15">
+    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="15"/>
@@ -18873,7 +18876,7 @@
       <c r="Z596" s="4"/>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" ht="15">
+    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="15"/>
@@ -18902,7 +18905,7 @@
       <c r="Z597" s="4"/>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" ht="15">
+    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="15"/>
@@ -18931,7 +18934,7 @@
       <c r="Z598" s="4"/>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" ht="15">
+    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="15"/>
@@ -18960,7 +18963,7 @@
       <c r="Z599" s="4"/>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" ht="15">
+    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="15"/>
@@ -18989,7 +18992,7 @@
       <c r="Z600" s="4"/>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" ht="15">
+    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="15"/>
@@ -19018,7 +19021,7 @@
       <c r="Z601" s="4"/>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" ht="15">
+    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="15"/>
@@ -19047,7 +19050,7 @@
       <c r="Z602" s="4"/>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" ht="15">
+    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="15"/>
@@ -19076,7 +19079,7 @@
       <c r="Z603" s="4"/>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" ht="15">
+    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="15"/>
@@ -19105,7 +19108,7 @@
       <c r="Z604" s="4"/>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" ht="15">
+    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="15"/>
@@ -19134,7 +19137,7 @@
       <c r="Z605" s="4"/>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" ht="15">
+    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="15"/>
@@ -19163,7 +19166,7 @@
       <c r="Z606" s="4"/>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" ht="15">
+    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="15"/>
@@ -19192,7 +19195,7 @@
       <c r="Z607" s="4"/>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" ht="15">
+    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="15"/>
@@ -19221,7 +19224,7 @@
       <c r="Z608" s="4"/>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" ht="15">
+    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="15"/>
@@ -19250,7 +19253,7 @@
       <c r="Z609" s="4"/>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" ht="15">
+    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="15"/>
@@ -19279,7 +19282,7 @@
       <c r="Z610" s="4"/>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" ht="15">
+    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="15"/>
@@ -19308,7 +19311,7 @@
       <c r="Z611" s="4"/>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" ht="15">
+    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="15"/>
@@ -19337,7 +19340,7 @@
       <c r="Z612" s="4"/>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" ht="15">
+    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="15"/>
@@ -19366,7 +19369,7 @@
       <c r="Z613" s="4"/>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" ht="15">
+    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="15"/>
@@ -19395,7 +19398,7 @@
       <c r="Z614" s="4"/>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" ht="15">
+    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="15"/>
@@ -19424,7 +19427,7 @@
       <c r="Z615" s="4"/>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" ht="15">
+    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="15"/>
@@ -19453,7 +19456,7 @@
       <c r="Z616" s="4"/>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" ht="15">
+    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="15"/>
@@ -19482,7 +19485,7 @@
       <c r="Z617" s="4"/>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" ht="15">
+    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="15"/>
@@ -19511,7 +19514,7 @@
       <c r="Z618" s="4"/>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" ht="15">
+    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="15"/>
@@ -19540,7 +19543,7 @@
       <c r="Z619" s="4"/>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" ht="15">
+    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="15"/>
@@ -19569,7 +19572,7 @@
       <c r="Z620" s="4"/>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" ht="15">
+    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="15"/>
@@ -19598,7 +19601,7 @@
       <c r="Z621" s="4"/>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" ht="15">
+    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="15"/>
@@ -19627,7 +19630,7 @@
       <c r="Z622" s="4"/>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" ht="15">
+    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="15"/>
@@ -19656,7 +19659,7 @@
       <c r="Z623" s="4"/>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" ht="15">
+    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="15"/>
@@ -19685,7 +19688,7 @@
       <c r="Z624" s="4"/>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" ht="15">
+    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="15"/>
@@ -19714,7 +19717,7 @@
       <c r="Z625" s="4"/>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" ht="15">
+    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="15"/>
@@ -19743,7 +19746,7 @@
       <c r="Z626" s="4"/>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" ht="15">
+    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="15"/>
@@ -19772,7 +19775,7 @@
       <c r="Z627" s="4"/>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" ht="15">
+    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="15"/>
@@ -19801,7 +19804,7 @@
       <c r="Z628" s="4"/>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" ht="15">
+    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="15"/>
@@ -19830,7 +19833,7 @@
       <c r="Z629" s="4"/>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" ht="15">
+    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="15"/>
@@ -19859,7 +19862,7 @@
       <c r="Z630" s="4"/>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" ht="15">
+    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="15"/>
@@ -19888,7 +19891,7 @@
       <c r="Z631" s="4"/>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" ht="15">
+    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="15"/>
@@ -19917,7 +19920,7 @@
       <c r="Z632" s="4"/>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" ht="15">
+    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="15"/>
@@ -19946,7 +19949,7 @@
       <c r="Z633" s="4"/>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" ht="15">
+    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="15"/>
@@ -19975,7 +19978,7 @@
       <c r="Z634" s="4"/>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" ht="15">
+    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="15"/>
@@ -20004,7 +20007,7 @@
       <c r="Z635" s="4"/>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" ht="15">
+    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="15"/>
@@ -20033,7 +20036,7 @@
       <c r="Z636" s="4"/>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" ht="15">
+    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="15"/>
@@ -20062,7 +20065,7 @@
       <c r="Z637" s="4"/>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" ht="15">
+    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="15"/>
@@ -20091,7 +20094,7 @@
       <c r="Z638" s="4"/>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" ht="15">
+    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="15"/>
@@ -20120,7 +20123,7 @@
       <c r="Z639" s="4"/>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" ht="15">
+    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="15"/>
@@ -20149,7 +20152,7 @@
       <c r="Z640" s="4"/>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" ht="15">
+    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="15"/>
@@ -20178,7 +20181,7 @@
       <c r="Z641" s="4"/>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" ht="15">
+    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="15"/>
@@ -20207,7 +20210,7 @@
       <c r="Z642" s="4"/>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" ht="15">
+    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="15"/>
@@ -20236,7 +20239,7 @@
       <c r="Z643" s="4"/>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" ht="15">
+    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="15"/>
@@ -20265,7 +20268,7 @@
       <c r="Z644" s="4"/>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" ht="15">
+    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="15"/>
@@ -20294,7 +20297,7 @@
       <c r="Z645" s="4"/>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" ht="15">
+    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="15"/>
@@ -20323,7 +20326,7 @@
       <c r="Z646" s="4"/>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" ht="15">
+    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="15"/>
@@ -20352,7 +20355,7 @@
       <c r="Z647" s="4"/>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" ht="15">
+    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="15"/>
@@ -20381,7 +20384,7 @@
       <c r="Z648" s="4"/>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" ht="15">
+    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="15"/>
@@ -20410,7 +20413,7 @@
       <c r="Z649" s="4"/>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" ht="15">
+    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="15"/>
@@ -20439,7 +20442,7 @@
       <c r="Z650" s="4"/>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" ht="15">
+    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="15"/>
@@ -20468,7 +20471,7 @@
       <c r="Z651" s="4"/>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" ht="15">
+    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="15"/>
@@ -20497,7 +20500,7 @@
       <c r="Z652" s="4"/>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" ht="15">
+    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="15"/>
@@ -20526,7 +20529,7 @@
       <c r="Z653" s="4"/>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" ht="15">
+    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="15"/>
@@ -20555,7 +20558,7 @@
       <c r="Z654" s="4"/>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" ht="15">
+    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="15"/>
@@ -20584,7 +20587,7 @@
       <c r="Z655" s="4"/>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" ht="15">
+    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="15"/>
@@ -20613,7 +20616,7 @@
       <c r="Z656" s="4"/>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" ht="15">
+    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="15"/>
@@ -20642,7 +20645,7 @@
       <c r="Z657" s="4"/>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" ht="15">
+    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="15"/>
@@ -20671,7 +20674,7 @@
       <c r="Z658" s="4"/>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" ht="15">
+    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="15"/>
@@ -20700,7 +20703,7 @@
       <c r="Z659" s="4"/>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" ht="15">
+    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="15"/>
@@ -20729,7 +20732,7 @@
       <c r="Z660" s="4"/>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" ht="15">
+    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="15"/>
@@ -20758,7 +20761,7 @@
       <c r="Z661" s="4"/>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" ht="15">
+    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="15"/>
@@ -20787,7 +20790,7 @@
       <c r="Z662" s="4"/>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" ht="15">
+    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="15"/>
@@ -20816,7 +20819,7 @@
       <c r="Z663" s="4"/>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" ht="15">
+    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="15"/>
@@ -20845,7 +20848,7 @@
       <c r="Z664" s="4"/>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" ht="15">
+    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="15"/>
@@ -20874,7 +20877,7 @@
       <c r="Z665" s="4"/>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" ht="15">
+    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="15"/>
@@ -20903,7 +20906,7 @@
       <c r="Z666" s="4"/>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" ht="15">
+    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="15"/>
@@ -20932,7 +20935,7 @@
       <c r="Z667" s="4"/>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" ht="15">
+    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="15"/>
@@ -20961,7 +20964,7 @@
       <c r="Z668" s="4"/>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" ht="15">
+    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="15"/>
@@ -20990,7 +20993,7 @@
       <c r="Z669" s="4"/>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" ht="15">
+    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="15"/>
@@ -21019,7 +21022,7 @@
       <c r="Z670" s="4"/>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" ht="15">
+    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="15"/>
@@ -21048,7 +21051,7 @@
       <c r="Z671" s="4"/>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" ht="15">
+    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="15"/>
@@ -21077,7 +21080,7 @@
       <c r="Z672" s="4"/>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" ht="15">
+    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="15"/>
@@ -21106,7 +21109,7 @@
       <c r="Z673" s="4"/>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" ht="15">
+    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="15"/>
@@ -21135,7 +21138,7 @@
       <c r="Z674" s="4"/>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" ht="15">
+    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="15"/>
@@ -21164,7 +21167,7 @@
       <c r="Z675" s="4"/>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" ht="15">
+    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="15"/>
@@ -21193,7 +21196,7 @@
       <c r="Z676" s="4"/>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" ht="15">
+    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="15"/>
@@ -21222,7 +21225,7 @@
       <c r="Z677" s="4"/>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" ht="15">
+    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="15"/>
@@ -21251,7 +21254,7 @@
       <c r="Z678" s="4"/>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" ht="15">
+    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="15"/>
@@ -21280,7 +21283,7 @@
       <c r="Z679" s="4"/>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" ht="15">
+    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="15"/>
@@ -21309,7 +21312,7 @@
       <c r="Z680" s="4"/>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" ht="15">
+    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="15"/>
@@ -21338,7 +21341,7 @@
       <c r="Z681" s="4"/>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" ht="15">
+    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="15"/>
@@ -21367,7 +21370,7 @@
       <c r="Z682" s="4"/>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" ht="15">
+    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="15"/>
@@ -21396,7 +21399,7 @@
       <c r="Z683" s="4"/>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" ht="15">
+    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="15"/>
@@ -21425,7 +21428,7 @@
       <c r="Z684" s="4"/>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" ht="15">
+    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="15"/>
@@ -21454,7 +21457,7 @@
       <c r="Z685" s="4"/>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" ht="15">
+    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="15"/>
@@ -21483,7 +21486,7 @@
       <c r="Z686" s="4"/>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" ht="15">
+    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="15"/>
@@ -21512,7 +21515,7 @@
       <c r="Z687" s="4"/>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" ht="15">
+    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="15"/>
@@ -21541,7 +21544,7 @@
       <c r="Z688" s="4"/>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" ht="15">
+    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="15"/>
@@ -21570,7 +21573,7 @@
       <c r="Z689" s="4"/>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" ht="15">
+    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="15"/>
@@ -21599,7 +21602,7 @@
       <c r="Z690" s="4"/>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" ht="15">
+    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="15"/>
@@ -21628,7 +21631,7 @@
       <c r="Z691" s="4"/>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" ht="15">
+    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="15"/>
@@ -21657,7 +21660,7 @@
       <c r="Z692" s="4"/>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" ht="15">
+    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="15"/>
@@ -21686,7 +21689,7 @@
       <c r="Z693" s="4"/>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" ht="15">
+    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="15"/>
@@ -21715,7 +21718,7 @@
       <c r="Z694" s="4"/>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" ht="15">
+    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="15"/>
@@ -21744,7 +21747,7 @@
       <c r="Z695" s="4"/>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" ht="15">
+    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="15"/>
@@ -21773,7 +21776,7 @@
       <c r="Z696" s="4"/>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" ht="15">
+    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="15"/>
@@ -21802,7 +21805,7 @@
       <c r="Z697" s="4"/>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" ht="15">
+    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="15"/>
@@ -21831,7 +21834,7 @@
       <c r="Z698" s="4"/>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" ht="15">
+    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="15"/>
@@ -21860,7 +21863,7 @@
       <c r="Z699" s="4"/>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" ht="15">
+    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="15"/>
@@ -21889,7 +21892,7 @@
       <c r="Z700" s="4"/>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" ht="15">
+    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="15"/>
@@ -21918,7 +21921,7 @@
       <c r="Z701" s="4"/>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" ht="15">
+    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="15"/>
@@ -21947,7 +21950,7 @@
       <c r="Z702" s="4"/>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" ht="15">
+    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="15"/>
@@ -21976,7 +21979,7 @@
       <c r="Z703" s="4"/>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" ht="15">
+    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="15"/>
@@ -22005,7 +22008,7 @@
       <c r="Z704" s="4"/>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" ht="15">
+    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="15"/>
@@ -22034,7 +22037,7 @@
       <c r="Z705" s="4"/>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" ht="15">
+    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="15"/>
@@ -22063,7 +22066,7 @@
       <c r="Z706" s="4"/>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" ht="15">
+    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="15"/>
@@ -22092,7 +22095,7 @@
       <c r="Z707" s="4"/>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" ht="15">
+    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="15"/>
@@ -22121,7 +22124,7 @@
       <c r="Z708" s="4"/>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" ht="15">
+    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="15"/>
@@ -22150,7 +22153,7 @@
       <c r="Z709" s="4"/>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" ht="15">
+    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="15"/>
@@ -22179,7 +22182,7 @@
       <c r="Z710" s="4"/>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" ht="15">
+    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="15"/>
@@ -22208,7 +22211,7 @@
       <c r="Z711" s="4"/>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" ht="15">
+    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="15"/>
@@ -22237,7 +22240,7 @@
       <c r="Z712" s="4"/>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" ht="15">
+    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="15"/>
@@ -22266,7 +22269,7 @@
       <c r="Z713" s="4"/>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" ht="15">
+    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="15"/>
@@ -22295,7 +22298,7 @@
       <c r="Z714" s="4"/>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" ht="15">
+    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="15"/>
@@ -22324,7 +22327,7 @@
       <c r="Z715" s="4"/>
       <c r="AA715" s="4"/>
     </row>
-    <row r="716" spans="1:27" ht="15">
+    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="15"/>
@@ -22353,7 +22356,7 @@
       <c r="Z716" s="4"/>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" ht="15">
+    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="15"/>
@@ -22382,7 +22385,7 @@
       <c r="Z717" s="4"/>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" ht="15">
+    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="15"/>
@@ -22411,7 +22414,7 @@
       <c r="Z718" s="4"/>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" ht="15">
+    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="15"/>
@@ -22440,7 +22443,7 @@
       <c r="Z719" s="4"/>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" ht="15">
+    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="15"/>
@@ -22469,7 +22472,7 @@
       <c r="Z720" s="4"/>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" ht="15">
+    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="15"/>
@@ -22498,7 +22501,7 @@
       <c r="Z721" s="4"/>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" ht="15">
+    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="15"/>
@@ -22527,7 +22530,7 @@
       <c r="Z722" s="4"/>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" ht="15">
+    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="15"/>
@@ -22556,7 +22559,7 @@
       <c r="Z723" s="4"/>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" ht="15">
+    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="15"/>
@@ -22585,7 +22588,7 @@
       <c r="Z724" s="4"/>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" ht="15">
+    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="15"/>
@@ -22614,7 +22617,7 @@
       <c r="Z725" s="4"/>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" ht="15">
+    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="15"/>
@@ -22643,7 +22646,7 @@
       <c r="Z726" s="4"/>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" ht="15">
+    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="15"/>
@@ -22672,7 +22675,7 @@
       <c r="Z727" s="4"/>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" ht="15">
+    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="15"/>
@@ -22701,7 +22704,7 @@
       <c r="Z728" s="4"/>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" ht="15">
+    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="15"/>
@@ -22730,7 +22733,7 @@
       <c r="Z729" s="4"/>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" ht="15">
+    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="15"/>
@@ -22759,7 +22762,7 @@
       <c r="Z730" s="4"/>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" ht="15">
+    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="15"/>
@@ -22788,7 +22791,7 @@
       <c r="Z731" s="4"/>
       <c r="AA731" s="4"/>
     </row>
-    <row r="732" spans="1:27" ht="15">
+    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="15"/>
@@ -22817,7 +22820,7 @@
       <c r="Z732" s="4"/>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" ht="15">
+    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="15"/>
@@ -22846,7 +22849,7 @@
       <c r="Z733" s="4"/>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" ht="15">
+    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="15"/>
@@ -22875,7 +22878,7 @@
       <c r="Z734" s="4"/>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" ht="15">
+    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="15"/>
@@ -22904,7 +22907,7 @@
       <c r="Z735" s="4"/>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" ht="15">
+    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="15"/>
@@ -22933,7 +22936,7 @@
       <c r="Z736" s="4"/>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" ht="15">
+    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="15"/>
@@ -22962,7 +22965,7 @@
       <c r="Z737" s="4"/>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" ht="15">
+    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="15"/>
@@ -22991,7 +22994,7 @@
       <c r="Z738" s="4"/>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" ht="15">
+    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="15"/>
@@ -23020,7 +23023,7 @@
       <c r="Z739" s="4"/>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" ht="15">
+    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="15"/>
@@ -23049,7 +23052,7 @@
       <c r="Z740" s="4"/>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" ht="15">
+    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="15"/>
@@ -23078,7 +23081,7 @@
       <c r="Z741" s="4"/>
       <c r="AA741" s="4"/>
     </row>
-    <row r="742" spans="1:27" ht="15">
+    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="15"/>
@@ -23107,7 +23110,7 @@
       <c r="Z742" s="4"/>
       <c r="AA742" s="4"/>
     </row>
-    <row r="743" spans="1:27" ht="15">
+    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="15"/>
@@ -23136,7 +23139,7 @@
       <c r="Z743" s="4"/>
       <c r="AA743" s="4"/>
     </row>
-    <row r="744" spans="1:27" ht="15">
+    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="15"/>
@@ -23165,7 +23168,7 @@
       <c r="Z744" s="4"/>
       <c r="AA744" s="4"/>
     </row>
-    <row r="745" spans="1:27" ht="15">
+    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="15"/>
@@ -23194,7 +23197,7 @@
       <c r="Z745" s="4"/>
       <c r="AA745" s="4"/>
     </row>
-    <row r="746" spans="1:27" ht="15">
+    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="15"/>
@@ -23223,7 +23226,7 @@
       <c r="Z746" s="4"/>
       <c r="AA746" s="4"/>
     </row>
-    <row r="747" spans="1:27" ht="15">
+    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="15"/>
@@ -23252,7 +23255,7 @@
       <c r="Z747" s="4"/>
       <c r="AA747" s="4"/>
     </row>
-    <row r="748" spans="1:27" ht="15">
+    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="15"/>
@@ -23281,7 +23284,7 @@
       <c r="Z748" s="4"/>
       <c r="AA748" s="4"/>
     </row>
-    <row r="749" spans="1:27" ht="15">
+    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="15"/>
@@ -23310,7 +23313,7 @@
       <c r="Z749" s="4"/>
       <c r="AA749" s="4"/>
     </row>
-    <row r="750" spans="1:27" ht="15">
+    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="15"/>
@@ -23339,7 +23342,7 @@
       <c r="Z750" s="4"/>
       <c r="AA750" s="4"/>
     </row>
-    <row r="751" spans="1:27" ht="15">
+    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="15"/>
@@ -23368,7 +23371,7 @@
       <c r="Z751" s="4"/>
       <c r="AA751" s="4"/>
     </row>
-    <row r="752" spans="1:27" ht="15">
+    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="15"/>
@@ -23397,7 +23400,7 @@
       <c r="Z752" s="4"/>
       <c r="AA752" s="4"/>
     </row>
-    <row r="753" spans="1:27" ht="15">
+    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="15"/>
@@ -23426,7 +23429,7 @@
       <c r="Z753" s="4"/>
       <c r="AA753" s="4"/>
     </row>
-    <row r="754" spans="1:27" ht="15">
+    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="15"/>
@@ -23455,7 +23458,7 @@
       <c r="Z754" s="4"/>
       <c r="AA754" s="4"/>
     </row>
-    <row r="755" spans="1:27" ht="15">
+    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="15"/>
@@ -23484,7 +23487,7 @@
       <c r="Z755" s="4"/>
       <c r="AA755" s="4"/>
     </row>
-    <row r="756" spans="1:27" ht="15">
+    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="15"/>
@@ -23513,7 +23516,7 @@
       <c r="Z756" s="4"/>
       <c r="AA756" s="4"/>
     </row>
-    <row r="757" spans="1:27" ht="15">
+    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="15"/>
@@ -23542,7 +23545,7 @@
       <c r="Z757" s="4"/>
       <c r="AA757" s="4"/>
     </row>
-    <row r="758" spans="1:27" ht="15">
+    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="15"/>
@@ -23571,7 +23574,7 @@
       <c r="Z758" s="4"/>
       <c r="AA758" s="4"/>
     </row>
-    <row r="759" spans="1:27" ht="15">
+    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="15"/>
@@ -23600,7 +23603,7 @@
       <c r="Z759" s="4"/>
       <c r="AA759" s="4"/>
     </row>
-    <row r="760" spans="1:27" ht="15">
+    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="15"/>
@@ -23629,7 +23632,7 @@
       <c r="Z760" s="4"/>
       <c r="AA760" s="4"/>
     </row>
-    <row r="761" spans="1:27" ht="15">
+    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="15"/>
@@ -23658,7 +23661,7 @@
       <c r="Z761" s="4"/>
       <c r="AA761" s="4"/>
     </row>
-    <row r="762" spans="1:27" ht="15">
+    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="15"/>
@@ -23687,7 +23690,7 @@
       <c r="Z762" s="4"/>
       <c r="AA762" s="4"/>
     </row>
-    <row r="763" spans="1:27" ht="15">
+    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="15"/>
@@ -23716,7 +23719,7 @@
       <c r="Z763" s="4"/>
       <c r="AA763" s="4"/>
     </row>
-    <row r="764" spans="1:27" ht="15">
+    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="15"/>
@@ -23745,7 +23748,7 @@
       <c r="Z764" s="4"/>
       <c r="AA764" s="4"/>
     </row>
-    <row r="765" spans="1:27" ht="15">
+    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="15"/>
@@ -23774,7 +23777,7 @@
       <c r="Z765" s="4"/>
       <c r="AA765" s="4"/>
     </row>
-    <row r="766" spans="1:27" ht="15">
+    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="15"/>
@@ -23803,7 +23806,7 @@
       <c r="Z766" s="4"/>
       <c r="AA766" s="4"/>
     </row>
-    <row r="767" spans="1:27" ht="15">
+    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="15"/>
@@ -23832,7 +23835,7 @@
       <c r="Z767" s="4"/>
       <c r="AA767" s="4"/>
     </row>
-    <row r="768" spans="1:27" ht="15">
+    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="15"/>
@@ -23861,7 +23864,7 @@
       <c r="Z768" s="4"/>
       <c r="AA768" s="4"/>
     </row>
-    <row r="769" spans="1:27" ht="15">
+    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="15"/>
@@ -23890,7 +23893,7 @@
       <c r="Z769" s="4"/>
       <c r="AA769" s="4"/>
     </row>
-    <row r="770" spans="1:27" ht="15">
+    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="15"/>
@@ -23919,7 +23922,7 @@
       <c r="Z770" s="4"/>
       <c r="AA770" s="4"/>
     </row>
-    <row r="771" spans="1:27" ht="15">
+    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="15"/>
@@ -23948,7 +23951,7 @@
       <c r="Z771" s="4"/>
       <c r="AA771" s="4"/>
     </row>
-    <row r="772" spans="1:27" ht="15">
+    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="15"/>
@@ -23977,7 +23980,7 @@
       <c r="Z772" s="4"/>
       <c r="AA772" s="4"/>
     </row>
-    <row r="773" spans="1:27" ht="15">
+    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="15"/>
@@ -24006,7 +24009,7 @@
       <c r="Z773" s="4"/>
       <c r="AA773" s="4"/>
     </row>
-    <row r="774" spans="1:27" ht="15">
+    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="15"/>
@@ -24035,7 +24038,7 @@
       <c r="Z774" s="4"/>
       <c r="AA774" s="4"/>
     </row>
-    <row r="775" spans="1:27" ht="15">
+    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="15"/>
@@ -24064,7 +24067,7 @@
       <c r="Z775" s="4"/>
       <c r="AA775" s="4"/>
     </row>
-    <row r="776" spans="1:27" ht="15">
+    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="15"/>
@@ -24093,7 +24096,7 @@
       <c r="Z776" s="4"/>
       <c r="AA776" s="4"/>
     </row>
-    <row r="777" spans="1:27" ht="15">
+    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="15"/>
@@ -24122,7 +24125,7 @@
       <c r="Z777" s="4"/>
       <c r="AA777" s="4"/>
     </row>
-    <row r="778" spans="1:27" ht="15">
+    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="15"/>
@@ -24151,7 +24154,7 @@
       <c r="Z778" s="4"/>
       <c r="AA778" s="4"/>
     </row>
-    <row r="779" spans="1:27" ht="15">
+    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="15"/>
@@ -24180,7 +24183,7 @@
       <c r="Z779" s="4"/>
       <c r="AA779" s="4"/>
     </row>
-    <row r="780" spans="1:27" ht="15">
+    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="15"/>
@@ -24209,7 +24212,7 @@
       <c r="Z780" s="4"/>
       <c r="AA780" s="4"/>
     </row>
-    <row r="781" spans="1:27" ht="15">
+    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="15"/>
@@ -24238,7 +24241,7 @@
       <c r="Z781" s="4"/>
       <c r="AA781" s="4"/>
     </row>
-    <row r="782" spans="1:27" ht="15">
+    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="15"/>
@@ -24267,7 +24270,7 @@
       <c r="Z782" s="4"/>
       <c r="AA782" s="4"/>
     </row>
-    <row r="783" spans="1:27" ht="15">
+    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="15"/>
@@ -24296,7 +24299,7 @@
       <c r="Z783" s="4"/>
       <c r="AA783" s="4"/>
     </row>
-    <row r="784" spans="1:27" ht="15">
+    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="15"/>
@@ -24325,7 +24328,7 @@
       <c r="Z784" s="4"/>
       <c r="AA784" s="4"/>
     </row>
-    <row r="785" spans="1:27" ht="15">
+    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="15"/>
@@ -24354,7 +24357,7 @@
       <c r="Z785" s="4"/>
       <c r="AA785" s="4"/>
     </row>
-    <row r="786" spans="1:27" ht="15">
+    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="15"/>
@@ -24383,7 +24386,7 @@
       <c r="Z786" s="4"/>
       <c r="AA786" s="4"/>
     </row>
-    <row r="787" spans="1:27" ht="15">
+    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="15"/>
@@ -24412,7 +24415,7 @@
       <c r="Z787" s="4"/>
       <c r="AA787" s="4"/>
     </row>
-    <row r="788" spans="1:27" ht="15">
+    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="15"/>
@@ -24441,7 +24444,7 @@
       <c r="Z788" s="4"/>
       <c r="AA788" s="4"/>
     </row>
-    <row r="789" spans="1:27" ht="15">
+    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="15"/>
@@ -24470,7 +24473,7 @@
       <c r="Z789" s="4"/>
       <c r="AA789" s="4"/>
     </row>
-    <row r="790" spans="1:27" ht="15">
+    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="15"/>
@@ -24499,7 +24502,7 @@
       <c r="Z790" s="4"/>
       <c r="AA790" s="4"/>
     </row>
-    <row r="791" spans="1:27" ht="15">
+    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="15"/>
@@ -24528,7 +24531,7 @@
       <c r="Z791" s="4"/>
       <c r="AA791" s="4"/>
     </row>
-    <row r="792" spans="1:27" ht="15">
+    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="15"/>
@@ -24557,7 +24560,7 @@
       <c r="Z792" s="4"/>
       <c r="AA792" s="4"/>
     </row>
-    <row r="793" spans="1:27" ht="15">
+    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="15"/>
@@ -24586,7 +24589,7 @@
       <c r="Z793" s="4"/>
       <c r="AA793" s="4"/>
     </row>
-    <row r="794" spans="1:27" ht="15">
+    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="15"/>
@@ -24615,7 +24618,7 @@
       <c r="Z794" s="4"/>
       <c r="AA794" s="4"/>
     </row>
-    <row r="795" spans="1:27" ht="15">
+    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="15"/>
@@ -24644,7 +24647,7 @@
       <c r="Z795" s="4"/>
       <c r="AA795" s="4"/>
     </row>
-    <row r="796" spans="1:27" ht="15">
+    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="15"/>
@@ -24673,7 +24676,7 @@
       <c r="Z796" s="4"/>
       <c r="AA796" s="4"/>
     </row>
-    <row r="797" spans="1:27" ht="15">
+    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="15"/>
@@ -24702,7 +24705,7 @@
       <c r="Z797" s="4"/>
       <c r="AA797" s="4"/>
     </row>
-    <row r="798" spans="1:27" ht="15">
+    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="15"/>
@@ -24731,7 +24734,7 @@
       <c r="Z798" s="4"/>
       <c r="AA798" s="4"/>
     </row>
-    <row r="799" spans="1:27" ht="15">
+    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="15"/>
@@ -24760,7 +24763,7 @@
       <c r="Z799" s="4"/>
       <c r="AA799" s="4"/>
     </row>
-    <row r="800" spans="1:27" ht="15">
+    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="15"/>
@@ -24789,7 +24792,7 @@
       <c r="Z800" s="4"/>
       <c r="AA800" s="4"/>
     </row>
-    <row r="801" spans="1:27" ht="15">
+    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="15"/>
@@ -24818,7 +24821,7 @@
       <c r="Z801" s="4"/>
       <c r="AA801" s="4"/>
     </row>
-    <row r="802" spans="1:27" ht="15">
+    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="15"/>
@@ -24847,7 +24850,7 @@
       <c r="Z802" s="4"/>
       <c r="AA802" s="4"/>
     </row>
-    <row r="803" spans="1:27" ht="15">
+    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="15"/>
@@ -24876,7 +24879,7 @@
       <c r="Z803" s="4"/>
       <c r="AA803" s="4"/>
     </row>
-    <row r="804" spans="1:27" ht="15">
+    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="15"/>
@@ -24905,7 +24908,7 @@
       <c r="Z804" s="4"/>
       <c r="AA804" s="4"/>
     </row>
-    <row r="805" spans="1:27" ht="15">
+    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="15"/>
@@ -24934,7 +24937,7 @@
       <c r="Z805" s="4"/>
       <c r="AA805" s="4"/>
     </row>
-    <row r="806" spans="1:27" ht="15">
+    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="15"/>
@@ -24963,7 +24966,7 @@
       <c r="Z806" s="4"/>
       <c r="AA806" s="4"/>
     </row>
-    <row r="807" spans="1:27" ht="15">
+    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="15"/>
@@ -24992,7 +24995,7 @@
       <c r="Z807" s="4"/>
       <c r="AA807" s="4"/>
     </row>
-    <row r="808" spans="1:27" ht="15">
+    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="15"/>
@@ -25021,7 +25024,7 @@
       <c r="Z808" s="4"/>
       <c r="AA808" s="4"/>
     </row>
-    <row r="809" spans="1:27" ht="15">
+    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="15"/>
@@ -25050,7 +25053,7 @@
       <c r="Z809" s="4"/>
       <c r="AA809" s="4"/>
     </row>
-    <row r="810" spans="1:27" ht="15">
+    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="15"/>
@@ -25079,7 +25082,7 @@
       <c r="Z810" s="4"/>
       <c r="AA810" s="4"/>
     </row>
-    <row r="811" spans="1:27" ht="15">
+    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="15"/>
@@ -25108,7 +25111,7 @@
       <c r="Z811" s="4"/>
       <c r="AA811" s="4"/>
     </row>
-    <row r="812" spans="1:27" ht="15">
+    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="15"/>
@@ -25137,7 +25140,7 @@
       <c r="Z812" s="4"/>
       <c r="AA812" s="4"/>
     </row>
-    <row r="813" spans="1:27" ht="15">
+    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="15"/>
@@ -25166,7 +25169,7 @@
       <c r="Z813" s="4"/>
       <c r="AA813" s="4"/>
     </row>
-    <row r="814" spans="1:27" ht="15">
+    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="15"/>
@@ -25195,7 +25198,7 @@
       <c r="Z814" s="4"/>
       <c r="AA814" s="4"/>
     </row>
-    <row r="815" spans="1:27" ht="15">
+    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="15"/>
@@ -25224,7 +25227,7 @@
       <c r="Z815" s="4"/>
       <c r="AA815" s="4"/>
     </row>
-    <row r="816" spans="1:27" ht="15">
+    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="15"/>
@@ -25253,7 +25256,7 @@
       <c r="Z816" s="4"/>
       <c r="AA816" s="4"/>
     </row>
-    <row r="817" spans="1:27" ht="15">
+    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="15"/>
@@ -25282,7 +25285,7 @@
       <c r="Z817" s="4"/>
       <c r="AA817" s="4"/>
     </row>
-    <row r="818" spans="1:27" ht="15">
+    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="15"/>
@@ -25311,7 +25314,7 @@
       <c r="Z818" s="4"/>
       <c r="AA818" s="4"/>
     </row>
-    <row r="819" spans="1:27" ht="15">
+    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="15"/>
@@ -25340,7 +25343,7 @@
       <c r="Z819" s="4"/>
       <c r="AA819" s="4"/>
     </row>
-    <row r="820" spans="1:27" ht="15">
+    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="15"/>
@@ -25369,7 +25372,7 @@
       <c r="Z820" s="4"/>
       <c r="AA820" s="4"/>
     </row>
-    <row r="821" spans="1:27" ht="15">
+    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="15"/>
@@ -25398,7 +25401,7 @@
       <c r="Z821" s="4"/>
       <c r="AA821" s="4"/>
     </row>
-    <row r="822" spans="1:27" ht="15">
+    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="15"/>
@@ -25427,7 +25430,7 @@
       <c r="Z822" s="4"/>
       <c r="AA822" s="4"/>
     </row>
-    <row r="823" spans="1:27" ht="15">
+    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="15"/>
@@ -25456,7 +25459,7 @@
       <c r="Z823" s="4"/>
       <c r="AA823" s="4"/>
     </row>
-    <row r="824" spans="1:27" ht="15">
+    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="15"/>
@@ -25485,7 +25488,7 @@
       <c r="Z824" s="4"/>
       <c r="AA824" s="4"/>
     </row>
-    <row r="825" spans="1:27" ht="15">
+    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="15"/>
@@ -25514,7 +25517,7 @@
       <c r="Z825" s="4"/>
       <c r="AA825" s="4"/>
     </row>
-    <row r="826" spans="1:27" ht="15">
+    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="15"/>
@@ -25543,7 +25546,7 @@
       <c r="Z826" s="4"/>
       <c r="AA826" s="4"/>
     </row>
-    <row r="827" spans="1:27" ht="15">
+    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="15"/>
@@ -25572,7 +25575,7 @@
       <c r="Z827" s="4"/>
       <c r="AA827" s="4"/>
     </row>
-    <row r="828" spans="1:27" ht="15">
+    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="15"/>
@@ -25601,7 +25604,7 @@
       <c r="Z828" s="4"/>
       <c r="AA828" s="4"/>
     </row>
-    <row r="829" spans="1:27" ht="15">
+    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="15"/>
@@ -25630,7 +25633,7 @@
       <c r="Z829" s="4"/>
       <c r="AA829" s="4"/>
     </row>
-    <row r="830" spans="1:27" ht="15">
+    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="15"/>
@@ -25659,7 +25662,7 @@
       <c r="Z830" s="4"/>
       <c r="AA830" s="4"/>
     </row>
-    <row r="831" spans="1:27" ht="15">
+    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="15"/>
@@ -25688,7 +25691,7 @@
       <c r="Z831" s="4"/>
       <c r="AA831" s="4"/>
     </row>
-    <row r="832" spans="1:27" ht="15">
+    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="15"/>
@@ -25717,7 +25720,7 @@
       <c r="Z832" s="4"/>
       <c r="AA832" s="4"/>
     </row>
-    <row r="833" spans="1:27" ht="15">
+    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="15"/>
@@ -25746,7 +25749,7 @@
       <c r="Z833" s="4"/>
       <c r="AA833" s="4"/>
     </row>
-    <row r="834" spans="1:27" ht="15">
+    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="15"/>
@@ -25775,7 +25778,7 @@
       <c r="Z834" s="4"/>
       <c r="AA834" s="4"/>
     </row>
-    <row r="835" spans="1:27" ht="15">
+    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="15"/>
@@ -25804,7 +25807,7 @@
       <c r="Z835" s="4"/>
       <c r="AA835" s="4"/>
     </row>
-    <row r="836" spans="1:27" ht="15">
+    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="15"/>
@@ -25833,7 +25836,7 @@
       <c r="Z836" s="4"/>
       <c r="AA836" s="4"/>
     </row>
-    <row r="837" spans="1:27" ht="15">
+    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="15"/>
@@ -25862,7 +25865,7 @@
       <c r="Z837" s="4"/>
       <c r="AA837" s="4"/>
     </row>
-    <row r="838" spans="1:27" ht="15">
+    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="3"/>
       <c r="C838" s="15"/>
@@ -25891,7 +25894,7 @@
       <c r="Z838" s="4"/>
       <c r="AA838" s="4"/>
     </row>
-    <row r="839" spans="1:27" ht="15">
+    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="3"/>
       <c r="C839" s="15"/>
@@ -25920,7 +25923,7 @@
       <c r="Z839" s="4"/>
       <c r="AA839" s="4"/>
     </row>
-    <row r="840" spans="1:27" ht="15">
+    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="3"/>
       <c r="C840" s="15"/>
@@ -25949,7 +25952,7 @@
       <c r="Z840" s="4"/>
       <c r="AA840" s="4"/>
     </row>
-    <row r="841" spans="1:27" ht="15">
+    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="3"/>
       <c r="C841" s="15"/>
@@ -25978,7 +25981,7 @@
       <c r="Z841" s="4"/>
       <c r="AA841" s="4"/>
     </row>
-    <row r="842" spans="1:27" ht="15">
+    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="3"/>
       <c r="C842" s="15"/>
@@ -26007,7 +26010,7 @@
       <c r="Z842" s="4"/>
       <c r="AA842" s="4"/>
     </row>
-    <row r="843" spans="1:27" ht="15">
+    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="3"/>
       <c r="C843" s="15"/>
@@ -26036,7 +26039,7 @@
       <c r="Z843" s="4"/>
       <c r="AA843" s="4"/>
     </row>
-    <row r="844" spans="1:27" ht="15">
+    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="3"/>
       <c r="C844" s="15"/>
@@ -26065,7 +26068,7 @@
       <c r="Z844" s="4"/>
       <c r="AA844" s="4"/>
     </row>
-    <row r="845" spans="1:27" ht="15">
+    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="3"/>
       <c r="C845" s="15"/>
@@ -26094,7 +26097,7 @@
       <c r="Z845" s="4"/>
       <c r="AA845" s="4"/>
     </row>
-    <row r="846" spans="1:27" ht="15">
+    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="3"/>
       <c r="C846" s="15"/>
@@ -26123,7 +26126,7 @@
       <c r="Z846" s="4"/>
       <c r="AA846" s="4"/>
     </row>
-    <row r="847" spans="1:27" ht="15">
+    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="3"/>
       <c r="C847" s="15"/>
@@ -26152,7 +26155,7 @@
       <c r="Z847" s="4"/>
       <c r="AA847" s="4"/>
     </row>
-    <row r="848" spans="1:27" ht="15">
+    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="3"/>
       <c r="C848" s="15"/>
@@ -26181,7 +26184,7 @@
       <c r="Z848" s="4"/>
       <c r="AA848" s="4"/>
     </row>
-    <row r="849" spans="1:27" ht="15">
+    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="3"/>
       <c r="C849" s="15"/>
@@ -26210,7 +26213,7 @@
       <c r="Z849" s="4"/>
       <c r="AA849" s="4"/>
     </row>
-    <row r="850" spans="1:27" ht="15">
+    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="3"/>
       <c r="C850" s="15"/>
@@ -26239,7 +26242,7 @@
       <c r="Z850" s="4"/>
       <c r="AA850" s="4"/>
     </row>
-    <row r="851" spans="1:27" ht="15">
+    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="3"/>
       <c r="C851" s="15"/>
@@ -26268,7 +26271,7 @@
       <c r="Z851" s="4"/>
       <c r="AA851" s="4"/>
     </row>
-    <row r="852" spans="1:27" ht="15">
+    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="3"/>
       <c r="C852" s="15"/>
@@ -26297,7 +26300,7 @@
       <c r="Z852" s="4"/>
       <c r="AA852" s="4"/>
     </row>
-    <row r="853" spans="1:27" ht="15">
+    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="3"/>
       <c r="C853" s="15"/>
@@ -26326,7 +26329,7 @@
       <c r="Z853" s="4"/>
       <c r="AA853" s="4"/>
     </row>
-    <row r="854" spans="1:27" ht="15">
+    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="3"/>
       <c r="C854" s="15"/>
@@ -26355,7 +26358,7 @@
       <c r="Z854" s="4"/>
       <c r="AA854" s="4"/>
     </row>
-    <row r="855" spans="1:27" ht="15">
+    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="3"/>
       <c r="C855" s="15"/>
@@ -26384,7 +26387,7 @@
       <c r="Z855" s="4"/>
       <c r="AA855" s="4"/>
     </row>
-    <row r="856" spans="1:27" ht="15">
+    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="3"/>
       <c r="C856" s="15"/>
@@ -26413,7 +26416,7 @@
       <c r="Z856" s="4"/>
       <c r="AA856" s="4"/>
     </row>
-    <row r="857" spans="1:27" ht="15">
+    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="3"/>
       <c r="C857" s="15"/>
@@ -26442,7 +26445,7 @@
       <c r="Z857" s="4"/>
       <c r="AA857" s="4"/>
     </row>
-    <row r="858" spans="1:27" ht="15">
+    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="3"/>
       <c r="C858" s="15"/>
@@ -26471,7 +26474,7 @@
       <c r="Z858" s="4"/>
       <c r="AA858" s="4"/>
     </row>
-    <row r="859" spans="1:27" ht="15">
+    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="3"/>
       <c r="C859" s="15"/>
@@ -26500,7 +26503,7 @@
       <c r="Z859" s="4"/>
       <c r="AA859" s="4"/>
     </row>
-    <row r="860" spans="1:27" ht="15">
+    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="3"/>
       <c r="C860" s="15"/>
@@ -26529,7 +26532,7 @@
       <c r="Z860" s="4"/>
       <c r="AA860" s="4"/>
     </row>
-    <row r="861" spans="1:27" ht="15">
+    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="3"/>
       <c r="C861" s="15"/>
@@ -26558,7 +26561,7 @@
       <c r="Z861" s="4"/>
       <c r="AA861" s="4"/>
     </row>
-    <row r="862" spans="1:27" ht="15">
+    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="3"/>
       <c r="C862" s="15"/>
@@ -26587,7 +26590,7 @@
       <c r="Z862" s="4"/>
       <c r="AA862" s="4"/>
     </row>
-    <row r="863" spans="1:27" ht="15">
+    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="3"/>
       <c r="C863" s="15"/>
@@ -26616,7 +26619,7 @@
       <c r="Z863" s="4"/>
       <c r="AA863" s="4"/>
     </row>
-    <row r="864" spans="1:27" ht="15">
+    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="3"/>
       <c r="C864" s="15"/>
@@ -26645,7 +26648,7 @@
       <c r="Z864" s="4"/>
       <c r="AA864" s="4"/>
     </row>
-    <row r="865" spans="1:27" ht="15">
+    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="3"/>
       <c r="C865" s="15"/>
@@ -26674,7 +26677,7 @@
       <c r="Z865" s="4"/>
       <c r="AA865" s="4"/>
     </row>
-    <row r="866" spans="1:27" ht="15">
+    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="3"/>
       <c r="C866" s="15"/>
@@ -26703,7 +26706,7 @@
       <c r="Z866" s="4"/>
       <c r="AA866" s="4"/>
     </row>
-    <row r="867" spans="1:27" ht="15">
+    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="3"/>
       <c r="C867" s="15"/>
@@ -26732,7 +26735,7 @@
       <c r="Z867" s="4"/>
       <c r="AA867" s="4"/>
     </row>
-    <row r="868" spans="1:27" ht="15">
+    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="3"/>
       <c r="C868" s="15"/>
@@ -26761,7 +26764,7 @@
       <c r="Z868" s="4"/>
       <c r="AA868" s="4"/>
     </row>
-    <row r="869" spans="1:27" ht="15">
+    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="3"/>
       <c r="C869" s="15"/>
@@ -26790,7 +26793,7 @@
       <c r="Z869" s="4"/>
       <c r="AA869" s="4"/>
     </row>
-    <row r="870" spans="1:27" ht="15">
+    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="3"/>
       <c r="C870" s="15"/>
@@ -26819,7 +26822,7 @@
       <c r="Z870" s="4"/>
       <c r="AA870" s="4"/>
     </row>
-    <row r="871" spans="1:27" ht="15">
+    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="3"/>
       <c r="C871" s="15"/>
@@ -26848,7 +26851,7 @@
       <c r="Z871" s="4"/>
       <c r="AA871" s="4"/>
     </row>
-    <row r="872" spans="1:27" ht="15">
+    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="3"/>
       <c r="C872" s="15"/>
@@ -26877,7 +26880,7 @@
       <c r="Z872" s="4"/>
       <c r="AA872" s="4"/>
     </row>
-    <row r="873" spans="1:27" ht="15">
+    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="3"/>
       <c r="C873" s="15"/>
@@ -26906,7 +26909,7 @@
       <c r="Z873" s="4"/>
       <c r="AA873" s="4"/>
     </row>
-    <row r="874" spans="1:27" ht="15">
+    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="3"/>
       <c r="C874" s="15"/>
@@ -26935,7 +26938,7 @@
       <c r="Z874" s="4"/>
       <c r="AA874" s="4"/>
     </row>
-    <row r="875" spans="1:27" ht="15">
+    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="3"/>
       <c r="C875" s="15"/>
@@ -26964,7 +26967,7 @@
       <c r="Z875" s="4"/>
       <c r="AA875" s="4"/>
     </row>
-    <row r="876" spans="1:27" ht="15">
+    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="3"/>
       <c r="C876" s="15"/>
@@ -26993,7 +26996,7 @@
       <c r="Z876" s="4"/>
       <c r="AA876" s="4"/>
     </row>
-    <row r="877" spans="1:27" ht="15">
+    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="3"/>
       <c r="C877" s="15"/>
@@ -27022,7 +27025,7 @@
       <c r="Z877" s="4"/>
       <c r="AA877" s="4"/>
     </row>
-    <row r="878" spans="1:27" ht="15">
+    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="3"/>
       <c r="C878" s="15"/>
@@ -27051,7 +27054,7 @@
       <c r="Z878" s="4"/>
       <c r="AA878" s="4"/>
     </row>
-    <row r="879" spans="1:27" ht="15">
+    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="3"/>
       <c r="C879" s="15"/>
@@ -27080,7 +27083,7 @@
       <c r="Z879" s="4"/>
       <c r="AA879" s="4"/>
     </row>
-    <row r="880" spans="1:27" ht="15">
+    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="3"/>
       <c r="C880" s="15"/>
@@ -27109,7 +27112,7 @@
       <c r="Z880" s="4"/>
       <c r="AA880" s="4"/>
     </row>
-    <row r="881" spans="1:27" ht="15">
+    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="3"/>
       <c r="C881" s="15"/>
@@ -27138,7 +27141,7 @@
       <c r="Z881" s="4"/>
       <c r="AA881" s="4"/>
     </row>
-    <row r="882" spans="1:27" ht="15">
+    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="3"/>
       <c r="C882" s="15"/>
@@ -27167,7 +27170,7 @@
       <c r="Z882" s="4"/>
       <c r="AA882" s="4"/>
     </row>
-    <row r="883" spans="1:27" ht="15">
+    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="3"/>
       <c r="C883" s="15"/>
@@ -27196,7 +27199,7 @@
       <c r="Z883" s="4"/>
       <c r="AA883" s="4"/>
     </row>
-    <row r="884" spans="1:27" ht="15">
+    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="3"/>
       <c r="C884" s="15"/>
@@ -27225,7 +27228,7 @@
       <c r="Z884" s="4"/>
       <c r="AA884" s="4"/>
     </row>
-    <row r="885" spans="1:27" ht="15">
+    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="3"/>
       <c r="C885" s="15"/>
@@ -27254,7 +27257,7 @@
       <c r="Z885" s="4"/>
       <c r="AA885" s="4"/>
     </row>
-    <row r="886" spans="1:27" ht="15">
+    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="3"/>
       <c r="C886" s="15"/>
@@ -27283,7 +27286,7 @@
       <c r="Z886" s="4"/>
       <c r="AA886" s="4"/>
     </row>
-    <row r="887" spans="1:27" ht="15">
+    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="3"/>
       <c r="C887" s="15"/>
@@ -27312,7 +27315,7 @@
       <c r="Z887" s="4"/>
       <c r="AA887" s="4"/>
     </row>
-    <row r="888" spans="1:27" ht="15">
+    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="3"/>
       <c r="C888" s="15"/>
@@ -27341,7 +27344,7 @@
       <c r="Z888" s="4"/>
       <c r="AA888" s="4"/>
     </row>
-    <row r="889" spans="1:27" ht="15">
+    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="3"/>
       <c r="C889" s="15"/>
@@ -27370,7 +27373,7 @@
       <c r="Z889" s="4"/>
       <c r="AA889" s="4"/>
     </row>
-    <row r="890" spans="1:27" ht="15">
+    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="3"/>
       <c r="C890" s="15"/>
@@ -27399,7 +27402,7 @@
       <c r="Z890" s="4"/>
       <c r="AA890" s="4"/>
     </row>
-    <row r="891" spans="1:27" ht="15">
+    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="3"/>
       <c r="C891" s="15"/>
@@ -27428,7 +27431,7 @@
       <c r="Z891" s="4"/>
       <c r="AA891" s="4"/>
     </row>
-    <row r="892" spans="1:27" ht="15">
+    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="3"/>
       <c r="C892" s="15"/>
@@ -27457,7 +27460,7 @@
       <c r="Z892" s="4"/>
       <c r="AA892" s="4"/>
     </row>
-    <row r="893" spans="1:27" ht="15">
+    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="3"/>
       <c r="C893" s="15"/>
@@ -27486,7 +27489,7 @@
       <c r="Z893" s="4"/>
       <c r="AA893" s="4"/>
     </row>
-    <row r="894" spans="1:27" ht="15">
+    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="3"/>
       <c r="C894" s="15"/>
@@ -27515,7 +27518,7 @@
       <c r="Z894" s="4"/>
       <c r="AA894" s="4"/>
     </row>
-    <row r="895" spans="1:27" ht="15">
+    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="3"/>
       <c r="C895" s="15"/>
@@ -27544,7 +27547,7 @@
       <c r="Z895" s="4"/>
       <c r="AA895" s="4"/>
     </row>
-    <row r="896" spans="1:27" ht="15">
+    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="3"/>
       <c r="C896" s="15"/>
@@ -27573,7 +27576,7 @@
       <c r="Z896" s="4"/>
       <c r="AA896" s="4"/>
     </row>
-    <row r="897" spans="1:27" ht="15">
+    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="3"/>
       <c r="C897" s="15"/>
@@ -27602,7 +27605,7 @@
       <c r="Z897" s="4"/>
       <c r="AA897" s="4"/>
     </row>
-    <row r="898" spans="1:27" ht="15">
+    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="3"/>
       <c r="C898" s="15"/>
@@ -27631,7 +27634,7 @@
       <c r="Z898" s="4"/>
       <c r="AA898" s="4"/>
     </row>
-    <row r="899" spans="1:27" ht="15">
+    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="3"/>
       <c r="C899" s="15"/>
@@ -27660,7 +27663,7 @@
       <c r="Z899" s="4"/>
       <c r="AA899" s="4"/>
     </row>
-    <row r="900" spans="1:27" ht="15">
+    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="3"/>
       <c r="C900" s="15"/>
@@ -27689,7 +27692,7 @@
       <c r="Z900" s="4"/>
       <c r="AA900" s="4"/>
     </row>
-    <row r="901" spans="1:27" ht="15">
+    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="3"/>
       <c r="C901" s="15"/>
@@ -27718,7 +27721,7 @@
       <c r="Z901" s="4"/>
       <c r="AA901" s="4"/>
     </row>
-    <row r="902" spans="1:27" ht="15">
+    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="3"/>
       <c r="C902" s="15"/>
@@ -27747,7 +27750,7 @@
       <c r="Z902" s="4"/>
       <c r="AA902" s="4"/>
     </row>
-    <row r="903" spans="1:27" ht="15">
+    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="3"/>
       <c r="C903" s="15"/>
@@ -27776,7 +27779,7 @@
       <c r="Z903" s="4"/>
       <c r="AA903" s="4"/>
     </row>
-    <row r="904" spans="1:27" ht="15">
+    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="3"/>
       <c r="C904" s="15"/>
@@ -27805,7 +27808,7 @@
       <c r="Z904" s="4"/>
       <c r="AA904" s="4"/>
     </row>
-    <row r="905" spans="1:27" ht="15">
+    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="3"/>
       <c r="C905" s="15"/>
@@ -27834,7 +27837,7 @@
       <c r="Z905" s="4"/>
       <c r="AA905" s="4"/>
     </row>
-    <row r="906" spans="1:27" ht="15">
+    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="3"/>
       <c r="C906" s="15"/>
@@ -27863,7 +27866,7 @@
       <c r="Z906" s="4"/>
       <c r="AA906" s="4"/>
     </row>
-    <row r="907" spans="1:27" ht="15">
+    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="3"/>
       <c r="C907" s="15"/>
@@ -27892,7 +27895,7 @@
       <c r="Z907" s="4"/>
       <c r="AA907" s="4"/>
     </row>
-    <row r="908" spans="1:27" ht="15">
+    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="3"/>
       <c r="C908" s="15"/>
@@ -27921,7 +27924,7 @@
       <c r="Z908" s="4"/>
       <c r="AA908" s="4"/>
     </row>
-    <row r="909" spans="1:27" ht="15">
+    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="3"/>
       <c r="C909" s="15"/>
@@ -27950,7 +27953,7 @@
       <c r="Z909" s="4"/>
       <c r="AA909" s="4"/>
     </row>
-    <row r="910" spans="1:27" ht="15">
+    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="3"/>
       <c r="C910" s="15"/>
@@ -27979,7 +27982,7 @@
       <c r="Z910" s="4"/>
       <c r="AA910" s="4"/>
     </row>
-    <row r="911" spans="1:27" ht="15">
+    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="3"/>
       <c r="C911" s="15"/>
@@ -28008,7 +28011,7 @@
       <c r="Z911" s="4"/>
       <c r="AA911" s="4"/>
     </row>
-    <row r="912" spans="1:27" ht="15">
+    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="3"/>
       <c r="C912" s="15"/>
@@ -28037,7 +28040,7 @@
       <c r="Z912" s="4"/>
       <c r="AA912" s="4"/>
     </row>
-    <row r="913" spans="1:27" ht="15">
+    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="3"/>
       <c r="C913" s="15"/>
@@ -28066,7 +28069,7 @@
       <c r="Z913" s="4"/>
       <c r="AA913" s="4"/>
     </row>
-    <row r="914" spans="1:27" ht="15">
+    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="3"/>
       <c r="C914" s="15"/>
@@ -28095,7 +28098,7 @@
       <c r="Z914" s="4"/>
       <c r="AA914" s="4"/>
     </row>
-    <row r="915" spans="1:27" ht="15">
+    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="3"/>
       <c r="C915" s="15"/>
@@ -28124,7 +28127,7 @@
       <c r="Z915" s="4"/>
       <c r="AA915" s="4"/>
     </row>
-    <row r="916" spans="1:27" ht="15">
+    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="3"/>
       <c r="C916" s="15"/>
@@ -28153,7 +28156,7 @@
       <c r="Z916" s="4"/>
       <c r="AA916" s="4"/>
     </row>
-    <row r="917" spans="1:27" ht="15">
+    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="3"/>
       <c r="C917" s="15"/>
@@ -28182,7 +28185,7 @@
       <c r="Z917" s="4"/>
       <c r="AA917" s="4"/>
     </row>
-    <row r="918" spans="1:27" ht="15">
+    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="3"/>
       <c r="C918" s="15"/>
@@ -28211,7 +28214,7 @@
       <c r="Z918" s="4"/>
       <c r="AA918" s="4"/>
     </row>
-    <row r="919" spans="1:27" ht="15">
+    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="3"/>
       <c r="C919" s="15"/>
@@ -28240,7 +28243,7 @@
       <c r="Z919" s="4"/>
       <c r="AA919" s="4"/>
     </row>
-    <row r="920" spans="1:27" ht="15">
+    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="3"/>
       <c r="C920" s="15"/>
@@ -28269,7 +28272,7 @@
       <c r="Z920" s="4"/>
       <c r="AA920" s="4"/>
     </row>
-    <row r="921" spans="1:27" ht="15">
+    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="3"/>
       <c r="C921" s="15"/>
@@ -28298,7 +28301,7 @@
       <c r="Z921" s="4"/>
       <c r="AA921" s="4"/>
     </row>
-    <row r="922" spans="1:27" ht="15">
+    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="3"/>
       <c r="C922" s="15"/>
@@ -28327,7 +28330,7 @@
       <c r="Z922" s="4"/>
       <c r="AA922" s="4"/>
     </row>
-    <row r="923" spans="1:27" ht="15">
+    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="3"/>
       <c r="C923" s="15"/>
@@ -28356,7 +28359,7 @@
       <c r="Z923" s="4"/>
       <c r="AA923" s="4"/>
     </row>
-    <row r="924" spans="1:27" ht="15">
+    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="3"/>
       <c r="C924" s="15"/>
@@ -28385,7 +28388,7 @@
       <c r="Z924" s="4"/>
       <c r="AA924" s="4"/>
     </row>
-    <row r="925" spans="1:27" ht="15">
+    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="3"/>
       <c r="C925" s="15"/>
@@ -28414,7 +28417,7 @@
       <c r="Z925" s="4"/>
       <c r="AA925" s="4"/>
     </row>
-    <row r="926" spans="1:27" ht="15">
+    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="3"/>
       <c r="C926" s="15"/>
@@ -28443,7 +28446,7 @@
       <c r="Z926" s="4"/>
       <c r="AA926" s="4"/>
     </row>
-    <row r="927" spans="1:27" ht="15">
+    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="3"/>
       <c r="C927" s="15"/>
@@ -28472,7 +28475,7 @@
       <c r="Z927" s="4"/>
       <c r="AA927" s="4"/>
     </row>
-    <row r="928" spans="1:27" ht="15">
+    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="3"/>
       <c r="C928" s="15"/>
@@ -28501,7 +28504,7 @@
       <c r="Z928" s="4"/>
       <c r="AA928" s="4"/>
     </row>
-    <row r="929" spans="1:27" ht="15">
+    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="3"/>
       <c r="C929" s="15"/>
@@ -28530,7 +28533,7 @@
       <c r="Z929" s="4"/>
       <c r="AA929" s="4"/>
     </row>
-    <row r="930" spans="1:27" ht="15">
+    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="3"/>
       <c r="C930" s="15"/>
@@ -28559,7 +28562,7 @@
       <c r="Z930" s="4"/>
       <c r="AA930" s="4"/>
     </row>
-    <row r="931" spans="1:27" ht="15">
+    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="3"/>
       <c r="C931" s="15"/>
@@ -28588,7 +28591,7 @@
       <c r="Z931" s="4"/>
       <c r="AA931" s="4"/>
     </row>
-    <row r="932" spans="1:27" ht="15">
+    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="3"/>
       <c r="C932" s="15"/>
@@ -28617,7 +28620,7 @@
       <c r="Z932" s="4"/>
       <c r="AA932" s="4"/>
     </row>
-    <row r="933" spans="1:27" ht="15">
+    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="3"/>
       <c r="C933" s="15"/>
@@ -28646,7 +28649,7 @@
       <c r="Z933" s="4"/>
       <c r="AA933" s="4"/>
     </row>
-    <row r="934" spans="1:27" ht="15">
+    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="3"/>
       <c r="C934" s="15"/>
@@ -28675,7 +28678,7 @@
       <c r="Z934" s="4"/>
       <c r="AA934" s="4"/>
     </row>
-    <row r="935" spans="1:27" ht="15">
+    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="3"/>
       <c r="C935" s="15"/>
@@ -28704,7 +28707,7 @@
       <c r="Z935" s="4"/>
       <c r="AA935" s="4"/>
     </row>
-    <row r="936" spans="1:27" ht="15">
+    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="3"/>
       <c r="C936" s="15"/>
@@ -28733,7 +28736,7 @@
       <c r="Z936" s="4"/>
       <c r="AA936" s="4"/>
     </row>
-    <row r="937" spans="1:27" ht="15">
+    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="3"/>
       <c r="C937" s="15"/>
@@ -28762,7 +28765,7 @@
       <c r="Z937" s="4"/>
       <c r="AA937" s="4"/>
     </row>
-    <row r="938" spans="1:27" ht="15">
+    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="3"/>
       <c r="C938" s="15"/>
@@ -28791,7 +28794,7 @@
       <c r="Z938" s="4"/>
       <c r="AA938" s="4"/>
     </row>
-    <row r="939" spans="1:27" ht="15">
+    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="3"/>
       <c r="C939" s="15"/>
@@ -28820,7 +28823,7 @@
       <c r="Z939" s="4"/>
       <c r="AA939" s="4"/>
     </row>
-    <row r="940" spans="1:27" ht="15">
+    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="3"/>
       <c r="C940" s="15"/>
@@ -28849,7 +28852,7 @@
       <c r="Z940" s="4"/>
       <c r="AA940" s="4"/>
     </row>
-    <row r="941" spans="1:27" ht="15">
+    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="3"/>
       <c r="C941" s="15"/>
@@ -28878,7 +28881,7 @@
       <c r="Z941" s="4"/>
       <c r="AA941" s="4"/>
     </row>
-    <row r="942" spans="1:27" ht="15">
+    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="3"/>
       <c r="C942" s="15"/>
@@ -28907,7 +28910,7 @@
       <c r="Z942" s="4"/>
       <c r="AA942" s="4"/>
     </row>
-    <row r="943" spans="1:27" ht="15">
+    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="3"/>
       <c r="C943" s="15"/>
@@ -28936,7 +28939,7 @@
       <c r="Z943" s="4"/>
       <c r="AA943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="15">
+    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="3"/>
       <c r="C944" s="15"/>
@@ -28965,7 +28968,7 @@
       <c r="Z944" s="4"/>
       <c r="AA944" s="4"/>
     </row>
-    <row r="945" spans="1:27" ht="15">
+    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="3"/>
       <c r="C945" s="15"/>
@@ -28994,7 +28997,7 @@
       <c r="Z945" s="4"/>
       <c r="AA945" s="4"/>
     </row>
-    <row r="946" spans="1:27" ht="15">
+    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="3"/>
       <c r="C946" s="15"/>
@@ -29023,7 +29026,7 @@
       <c r="Z946" s="4"/>
       <c r="AA946" s="4"/>
     </row>
-    <row r="947" spans="1:27" ht="15">
+    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="3"/>
       <c r="C947" s="15"/>
@@ -29052,7 +29055,7 @@
       <c r="Z947" s="4"/>
       <c r="AA947" s="4"/>
     </row>
-    <row r="948" spans="1:27" ht="15">
+    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="3"/>
       <c r="C948" s="15"/>
@@ -29081,7 +29084,7 @@
       <c r="Z948" s="4"/>
       <c r="AA948" s="4"/>
     </row>
-    <row r="949" spans="1:27" ht="15">
+    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="3"/>
       <c r="C949" s="15"/>
@@ -29110,7 +29113,7 @@
       <c r="Z949" s="4"/>
       <c r="AA949" s="4"/>
     </row>
-    <row r="950" spans="1:27" ht="15">
+    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="3"/>
       <c r="C950" s="15"/>
@@ -29139,7 +29142,7 @@
       <c r="Z950" s="4"/>
       <c r="AA950" s="4"/>
     </row>
-    <row r="951" spans="1:27" ht="15">
+    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="3"/>
       <c r="C951" s="15"/>
@@ -29168,7 +29171,7 @@
       <c r="Z951" s="4"/>
       <c r="AA951" s="4"/>
     </row>
-    <row r="952" spans="1:27" ht="15">
+    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="3"/>
       <c r="C952" s="15"/>
@@ -29197,7 +29200,7 @@
       <c r="Z952" s="4"/>
       <c r="AA952" s="4"/>
     </row>
-    <row r="953" spans="1:27" ht="15">
+    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="3"/>
       <c r="C953" s="15"/>
@@ -29226,7 +29229,7 @@
       <c r="Z953" s="4"/>
       <c r="AA953" s="4"/>
     </row>
-    <row r="954" spans="1:27" ht="15">
+    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="3"/>
       <c r="C954" s="15"/>
@@ -29255,7 +29258,7 @@
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
     </row>
-    <row r="955" spans="1:27" ht="15">
+    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="3"/>
       <c r="C955" s="15"/>
@@ -29284,7 +29287,7 @@
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
     </row>
-    <row r="956" spans="1:27" ht="15">
+    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="3"/>
       <c r="C956" s="15"/>
@@ -29313,7 +29316,7 @@
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
     </row>
-    <row r="957" spans="1:27" ht="15">
+    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="3"/>
       <c r="C957" s="15"/>
@@ -29342,7 +29345,7 @@
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
     </row>
-    <row r="958" spans="1:27" ht="15">
+    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="3"/>
       <c r="C958" s="15"/>
@@ -29371,7 +29374,7 @@
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
     </row>
-    <row r="959" spans="1:27" ht="15">
+    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="3"/>
       <c r="C959" s="15"/>
@@ -29400,7 +29403,7 @@
       <c r="Z959" s="4"/>
       <c r="AA959" s="4"/>
     </row>
-    <row r="960" spans="1:27" ht="15">
+    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="3"/>
       <c r="C960" s="15"/>
@@ -29429,7 +29432,7 @@
       <c r="Z960" s="4"/>
       <c r="AA960" s="4"/>
     </row>
-    <row r="961" spans="1:27" ht="15">
+    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="3"/>
       <c r="C961" s="15"/>
@@ -29458,7 +29461,7 @@
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
     </row>
-    <row r="962" spans="1:27" ht="15">
+    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="3"/>
       <c r="C962" s="15"/>
@@ -29487,7 +29490,7 @@
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
     </row>
-    <row r="963" spans="1:27" ht="15">
+    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="3"/>
       <c r="C963" s="15"/>
@@ -29516,7 +29519,7 @@
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
     </row>
-    <row r="964" spans="1:27" ht="15">
+    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="3"/>
       <c r="C964" s="15"/>
@@ -29545,7 +29548,7 @@
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
     </row>
-    <row r="965" spans="1:27" ht="15">
+    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="3"/>
       <c r="C965" s="15"/>
@@ -29574,7 +29577,7 @@
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
     </row>
-    <row r="966" spans="1:27" ht="15">
+    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="3"/>
       <c r="C966" s="15"/>
@@ -29603,7 +29606,7 @@
       <c r="Z966" s="4"/>
       <c r="AA966" s="4"/>
     </row>
-    <row r="967" spans="1:27" ht="15">
+    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="3"/>
       <c r="C967" s="15"/>
@@ -29632,7 +29635,7 @@
       <c r="Z967" s="4"/>
       <c r="AA967" s="4"/>
     </row>
-    <row r="968" spans="1:27" ht="15">
+    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="3"/>
       <c r="C968" s="15"/>
@@ -29661,7 +29664,7 @@
       <c r="Z968" s="4"/>
       <c r="AA968" s="4"/>
     </row>
-    <row r="969" spans="1:27" ht="15">
+    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="3"/>
       <c r="C969" s="15"/>
@@ -29690,7 +29693,7 @@
       <c r="Z969" s="4"/>
       <c r="AA969" s="4"/>
     </row>
-    <row r="970" spans="1:27" ht="15">
+    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="3"/>
       <c r="C970" s="15"/>
@@ -29719,7 +29722,7 @@
       <c r="Z970" s="4"/>
       <c r="AA970" s="4"/>
     </row>
-    <row r="971" spans="1:27" ht="15">
+    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="3"/>
       <c r="C971" s="15"/>
@@ -29748,7 +29751,7 @@
       <c r="Z971" s="4"/>
       <c r="AA971" s="4"/>
     </row>
-    <row r="972" spans="1:27" ht="15">
+    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="3"/>
       <c r="C972" s="15"/>
@@ -29777,7 +29780,7 @@
       <c r="Z972" s="4"/>
       <c r="AA972" s="4"/>
     </row>
-    <row r="973" spans="1:27" ht="15">
+    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="3"/>
       <c r="C973" s="15"/>
@@ -29806,7 +29809,7 @@
       <c r="Z973" s="4"/>
       <c r="AA973" s="4"/>
     </row>
-    <row r="974" spans="1:27" ht="15">
+    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="3"/>
       <c r="C974" s="15"/>
@@ -29835,7 +29838,7 @@
       <c r="Z974" s="4"/>
       <c r="AA974" s="4"/>
     </row>
-    <row r="975" spans="1:27" ht="15">
+    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="3"/>
       <c r="C975" s="15"/>
@@ -29864,7 +29867,7 @@
       <c r="Z975" s="4"/>
       <c r="AA975" s="4"/>
     </row>
-    <row r="976" spans="1:27" ht="15">
+    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="3"/>
       <c r="C976" s="15"/>
@@ -29893,7 +29896,7 @@
       <c r="Z976" s="4"/>
       <c r="AA976" s="4"/>
     </row>
-    <row r="977" spans="1:27" ht="15">
+    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="3"/>
       <c r="C977" s="15"/>
@@ -29922,7 +29925,7 @@
       <c r="Z977" s="4"/>
       <c r="AA977" s="4"/>
     </row>
-    <row r="978" spans="1:27" ht="15">
+    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="3"/>
       <c r="C978" s="15"/>
@@ -29951,7 +29954,7 @@
       <c r="Z978" s="4"/>
       <c r="AA978" s="4"/>
     </row>
-    <row r="979" spans="1:27" ht="15">
+    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="3"/>
       <c r="C979" s="15"/>
@@ -29980,7 +29983,7 @@
       <c r="Z979" s="4"/>
       <c r="AA979" s="4"/>
     </row>
-    <row r="980" spans="1:27" ht="15">
+    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="3"/>
       <c r="C980" s="15"/>
@@ -30009,7 +30012,7 @@
       <c r="Z980" s="4"/>
       <c r="AA980" s="4"/>
     </row>
-    <row r="981" spans="1:27" ht="15">
+    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="3"/>
       <c r="C981" s="15"/>
@@ -30038,7 +30041,7 @@
       <c r="Z981" s="4"/>
       <c r="AA981" s="4"/>
     </row>
-    <row r="982" spans="1:27" ht="15">
+    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="3"/>
       <c r="C982" s="15"/>
@@ -30067,7 +30070,7 @@
       <c r="Z982" s="4"/>
       <c r="AA982" s="4"/>
     </row>
-    <row r="983" spans="1:27" ht="15">
+    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="3"/>
       <c r="C983" s="15"/>
@@ -30096,7 +30099,7 @@
       <c r="Z983" s="4"/>
       <c r="AA983" s="4"/>
     </row>
-    <row r="984" spans="1:27" ht="15">
+    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="3"/>
       <c r="C984" s="15"/>
@@ -30125,7 +30128,7 @@
       <c r="Z984" s="4"/>
       <c r="AA984" s="4"/>
     </row>
-    <row r="985" spans="1:27" ht="15">
+    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="3"/>
       <c r="C985" s="15"/>
@@ -30154,7 +30157,7 @@
       <c r="Z985" s="4"/>
       <c r="AA985" s="4"/>
     </row>
-    <row r="986" spans="1:27" ht="15">
+    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="3"/>
       <c r="C986" s="15"/>
@@ -30183,7 +30186,7 @@
       <c r="Z986" s="4"/>
       <c r="AA986" s="4"/>
     </row>
-    <row r="987" spans="1:27" ht="15">
+    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="3"/>
       <c r="C987" s="15"/>
@@ -30212,7 +30215,7 @@
       <c r="Z987" s="4"/>
       <c r="AA987" s="4"/>
     </row>
-    <row r="988" spans="1:27" ht="15">
+    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="3"/>
       <c r="C988" s="15"/>
@@ -30241,7 +30244,7 @@
       <c r="Z988" s="4"/>
       <c r="AA988" s="4"/>
     </row>
-    <row r="989" spans="1:27" ht="15">
+    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="3"/>
       <c r="C989" s="15"/>
@@ -30270,7 +30273,7 @@
       <c r="Z989" s="4"/>
       <c r="AA989" s="4"/>
     </row>
-    <row r="990" spans="1:27" ht="15">
+    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="3"/>
       <c r="C990" s="15"/>
@@ -30299,7 +30302,7 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991" spans="1:27" ht="15">
+    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="3"/>
       <c r="C991" s="15"/>
@@ -30328,7 +30331,7 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
     </row>
-    <row r="992" spans="1:27" ht="15">
+    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="3"/>
       <c r="C992" s="15"/>
@@ -30357,7 +30360,7 @@
       <c r="Z992" s="4"/>
       <c r="AA992" s="4"/>
     </row>
-    <row r="993" spans="1:27" ht="15">
+    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="3"/>
       <c r="C993" s="15"/>
@@ -30386,7 +30389,7 @@
       <c r="Z993" s="4"/>
       <c r="AA993" s="4"/>
     </row>
-    <row r="994" spans="1:27" ht="15">
+    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="3"/>
       <c r="C994" s="15"/>
@@ -30415,7 +30418,7 @@
       <c r="Z994" s="4"/>
       <c r="AA994" s="4"/>
     </row>
-    <row r="995" spans="1:27" ht="15">
+    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="3"/>
       <c r="C995" s="15"/>
@@ -30444,7 +30447,7 @@
       <c r="Z995" s="4"/>
       <c r="AA995" s="4"/>
     </row>
-    <row r="996" spans="1:27" ht="15">
+    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="3"/>
       <c r="C996" s="15"/>
@@ -30473,7 +30476,7 @@
       <c r="Z996" s="4"/>
       <c r="AA996" s="4"/>
     </row>
-    <row r="997" spans="1:27" ht="15">
+    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="3"/>
       <c r="C997" s="15"/>
@@ -30502,7 +30505,7 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
-    <row r="998" spans="1:27" ht="15">
+    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="3"/>
       <c r="C998" s="15"/>
@@ -30531,7 +30534,7 @@
       <c r="Z998" s="4"/>
       <c r="AA998" s="4"/>
     </row>
-    <row r="999" spans="1:27" ht="15">
+    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="3"/>
       <c r="C999" s="15"/>
@@ -30560,7 +30563,7 @@
       <c r="Z999" s="4"/>
       <c r="AA999" s="4"/>
     </row>
-    <row r="1000" spans="1:27" ht="15">
+    <row r="1000" spans="1:2